--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7C44DA-15F2-4EF1-8700-64EF06937316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF03C38-1939-4D5A-BB02-9161850E6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="182">
   <si>
     <t>Static Object</t>
   </si>
@@ -465,10 +465,6 @@
 For npcs this value is relevant in Study monstor. When whoamis is 64h this value is used</t>
   </si>
   <si>
-    <t>Same format as player heading.
-NPC used in study(). Possibly a power?</t>
-  </si>
-  <si>
     <t>also 7CDF</t>
   </si>
   <si>
@@ -550,6 +546,53 @@
   </si>
   <si>
     <t xml:space="preserve">get that data </t>
+  </si>
+  <si>
+    <t>Bit 6 occassionally</t>
+  </si>
+  <si>
+    <t>Bit 7 reference a lot</t>
+  </si>
+  <si>
+    <t>bit 5 referenced</t>
+  </si>
+  <si>
+    <t>1 left shifted by this value seems relevant</t>
+  </si>
+  <si>
+    <t>maybe 3 separate vals</t>
+  </si>
+  <si>
+    <t>Same format as player heading.
+NPC used in study(). Possibly a power?
+Static heading &lt;&lt; 5</t>
+  </si>
+  <si>
+    <t>is either 0,1 or 2 or (npc_defence&lt;&lt;1)/3</t>
+  </si>
+  <si>
+    <t>Unk0xB_12_F appears related to animations</t>
+  </si>
+  <si>
+    <t>Set to attack no +3</t>
+  </si>
+  <si>
+    <t>in seg007_17A2_C08:</t>
+  </si>
+  <si>
+    <t>(attack no is from criiter data probabilities)</t>
+  </si>
+  <si>
+    <t>seg007_17A2 uses npc_level to "reset" gtarg and goal?</t>
+  </si>
+  <si>
+    <t>I think animation is a larger size</t>
+  </si>
+  <si>
+    <t>Set a lot</t>
+  </si>
+  <si>
+    <t>Does this mean the npc has magic or a specia defence.</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1052,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1053,6 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,7 +1251,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1527,10 +1581,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="DA10" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="EK11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22:AB23"/>
+      <selection pane="bottomRight" activeCell="EX25" sqref="EX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1560,1075 +1614,1075 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="78" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="80"/>
+      <c r="AW1" s="80"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="80"/>
+      <c r="AZ1" s="80"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="80"/>
+      <c r="BI1" s="80"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
-      <c r="BR1" s="79"/>
-      <c r="BS1" s="79"/>
-      <c r="BT1" s="79"/>
-      <c r="BU1" s="79"/>
-      <c r="BV1" s="79"/>
-      <c r="BW1" s="79"/>
-      <c r="BX1" s="79"/>
-      <c r="BY1" s="79"/>
-      <c r="BZ1" s="79"/>
-      <c r="CA1" s="79"/>
-      <c r="CB1" s="79"/>
-      <c r="CC1" s="79"/>
-      <c r="CD1" s="79"/>
-      <c r="CE1" s="79"/>
-      <c r="CF1" s="79"/>
-      <c r="CG1" s="79"/>
-      <c r="CH1" s="79"/>
-      <c r="CI1" s="79"/>
-      <c r="CJ1" s="79"/>
-      <c r="CK1" s="79"/>
-      <c r="CL1" s="79"/>
-      <c r="CM1" s="79"/>
-      <c r="CN1" s="79"/>
-      <c r="CO1" s="79"/>
-      <c r="CP1" s="79"/>
-      <c r="CQ1" s="79"/>
-      <c r="CR1" s="79"/>
-      <c r="CS1" s="79"/>
-      <c r="CT1" s="79"/>
-      <c r="CU1" s="79"/>
-      <c r="CV1" s="79"/>
-      <c r="CW1" s="79"/>
-      <c r="CX1" s="79"/>
-      <c r="CY1" s="79"/>
-      <c r="CZ1" s="79"/>
-      <c r="DA1" s="79"/>
-      <c r="DB1" s="79"/>
-      <c r="DC1" s="79"/>
-      <c r="DD1" s="79"/>
-      <c r="DE1" s="79"/>
-      <c r="DF1" s="79"/>
-      <c r="DG1" s="79"/>
-      <c r="DH1" s="79"/>
-      <c r="DI1" s="79"/>
-      <c r="DJ1" s="79"/>
-      <c r="DK1" s="79"/>
-      <c r="DL1" s="79"/>
-      <c r="DM1" s="79"/>
-      <c r="DN1" s="79"/>
-      <c r="DO1" s="79"/>
-      <c r="DP1" s="79"/>
-      <c r="DQ1" s="79"/>
-      <c r="DR1" s="79"/>
-      <c r="DS1" s="79"/>
-      <c r="DT1" s="79"/>
-      <c r="DU1" s="79"/>
-      <c r="DV1" s="79"/>
-      <c r="DW1" s="79"/>
-      <c r="DX1" s="79"/>
-      <c r="DY1" s="79"/>
-      <c r="DZ1" s="79"/>
-      <c r="EA1" s="79"/>
-      <c r="EB1" s="79"/>
-      <c r="EC1" s="79"/>
-      <c r="ED1" s="79"/>
-      <c r="EE1" s="79"/>
-      <c r="EF1" s="79"/>
-      <c r="EG1" s="79"/>
-      <c r="EH1" s="79"/>
-      <c r="EI1" s="79"/>
-      <c r="EJ1" s="79"/>
-      <c r="EK1" s="79"/>
-      <c r="EL1" s="79"/>
-      <c r="EM1" s="79"/>
-      <c r="EN1" s="79"/>
-      <c r="EO1" s="79"/>
-      <c r="EP1" s="79"/>
-      <c r="EQ1" s="79"/>
-      <c r="ER1" s="79"/>
-      <c r="ES1" s="79"/>
-      <c r="ET1" s="79"/>
-      <c r="EU1" s="79"/>
-      <c r="EV1" s="79"/>
-      <c r="EW1" s="79"/>
-      <c r="EX1" s="79"/>
-      <c r="EY1" s="79"/>
-      <c r="EZ1" s="79"/>
-      <c r="FA1" s="79"/>
-      <c r="FB1" s="79"/>
-      <c r="FC1" s="79"/>
-      <c r="FD1" s="79"/>
-      <c r="FE1" s="79"/>
-      <c r="FF1" s="79"/>
-      <c r="FG1" s="79"/>
-      <c r="FH1" s="79"/>
-      <c r="FI1" s="79"/>
-      <c r="FJ1" s="79"/>
-      <c r="FK1" s="79"/>
-      <c r="FL1" s="79"/>
-      <c r="FM1" s="79"/>
-      <c r="FN1" s="79"/>
-      <c r="FO1" s="79"/>
-      <c r="FP1" s="79"/>
-      <c r="FQ1" s="79"/>
-      <c r="FR1" s="79"/>
-      <c r="FS1" s="79"/>
-      <c r="FT1" s="79"/>
-      <c r="FU1" s="79"/>
-      <c r="FV1" s="79"/>
-      <c r="FW1" s="79"/>
-      <c r="FX1" s="79"/>
-      <c r="FY1" s="79"/>
-      <c r="FZ1" s="79"/>
-      <c r="GA1" s="79"/>
-      <c r="GB1" s="79"/>
-      <c r="GC1" s="79"/>
-      <c r="GD1" s="79"/>
-      <c r="GE1" s="79"/>
-      <c r="GF1" s="79"/>
-      <c r="GG1" s="79"/>
-      <c r="GH1" s="79"/>
-      <c r="GI1" s="79"/>
-      <c r="GJ1" s="79"/>
-      <c r="GK1" s="79"/>
-      <c r="GL1" s="79"/>
-      <c r="GM1" s="79"/>
-      <c r="GN1" s="79"/>
-      <c r="GO1" s="79"/>
-      <c r="GP1" s="79"/>
-      <c r="GQ1" s="79"/>
-      <c r="GR1" s="79"/>
-      <c r="GS1" s="79"/>
-      <c r="GT1" s="79"/>
-      <c r="GU1" s="79"/>
-      <c r="GV1" s="79"/>
-      <c r="GW1" s="79"/>
-      <c r="GX1" s="79"/>
-      <c r="GY1" s="79"/>
-      <c r="GZ1" s="79"/>
-      <c r="HA1" s="79"/>
-      <c r="HB1" s="79"/>
-      <c r="HC1" s="79"/>
-      <c r="HD1" s="79"/>
-      <c r="HE1" s="79"/>
-      <c r="HF1" s="79"/>
-      <c r="HG1" s="79"/>
-      <c r="HH1" s="79"/>
-      <c r="HI1" s="79"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="80"/>
+      <c r="BR1" s="80"/>
+      <c r="BS1" s="80"/>
+      <c r="BT1" s="80"/>
+      <c r="BU1" s="80"/>
+      <c r="BV1" s="80"/>
+      <c r="BW1" s="80"/>
+      <c r="BX1" s="80"/>
+      <c r="BY1" s="80"/>
+      <c r="BZ1" s="80"/>
+      <c r="CA1" s="80"/>
+      <c r="CB1" s="80"/>
+      <c r="CC1" s="80"/>
+      <c r="CD1" s="80"/>
+      <c r="CE1" s="80"/>
+      <c r="CF1" s="80"/>
+      <c r="CG1" s="80"/>
+      <c r="CH1" s="80"/>
+      <c r="CI1" s="80"/>
+      <c r="CJ1" s="80"/>
+      <c r="CK1" s="80"/>
+      <c r="CL1" s="80"/>
+      <c r="CM1" s="80"/>
+      <c r="CN1" s="80"/>
+      <c r="CO1" s="80"/>
+      <c r="CP1" s="80"/>
+      <c r="CQ1" s="80"/>
+      <c r="CR1" s="80"/>
+      <c r="CS1" s="80"/>
+      <c r="CT1" s="80"/>
+      <c r="CU1" s="80"/>
+      <c r="CV1" s="80"/>
+      <c r="CW1" s="80"/>
+      <c r="CX1" s="80"/>
+      <c r="CY1" s="80"/>
+      <c r="CZ1" s="80"/>
+      <c r="DA1" s="80"/>
+      <c r="DB1" s="80"/>
+      <c r="DC1" s="80"/>
+      <c r="DD1" s="80"/>
+      <c r="DE1" s="80"/>
+      <c r="DF1" s="80"/>
+      <c r="DG1" s="80"/>
+      <c r="DH1" s="80"/>
+      <c r="DI1" s="80"/>
+      <c r="DJ1" s="80"/>
+      <c r="DK1" s="80"/>
+      <c r="DL1" s="80"/>
+      <c r="DM1" s="80"/>
+      <c r="DN1" s="80"/>
+      <c r="DO1" s="80"/>
+      <c r="DP1" s="80"/>
+      <c r="DQ1" s="80"/>
+      <c r="DR1" s="80"/>
+      <c r="DS1" s="80"/>
+      <c r="DT1" s="80"/>
+      <c r="DU1" s="80"/>
+      <c r="DV1" s="80"/>
+      <c r="DW1" s="80"/>
+      <c r="DX1" s="80"/>
+      <c r="DY1" s="80"/>
+      <c r="DZ1" s="80"/>
+      <c r="EA1" s="80"/>
+      <c r="EB1" s="80"/>
+      <c r="EC1" s="80"/>
+      <c r="ED1" s="80"/>
+      <c r="EE1" s="80"/>
+      <c r="EF1" s="80"/>
+      <c r="EG1" s="80"/>
+      <c r="EH1" s="80"/>
+      <c r="EI1" s="80"/>
+      <c r="EJ1" s="80"/>
+      <c r="EK1" s="80"/>
+      <c r="EL1" s="80"/>
+      <c r="EM1" s="80"/>
+      <c r="EN1" s="80"/>
+      <c r="EO1" s="80"/>
+      <c r="EP1" s="80"/>
+      <c r="EQ1" s="80"/>
+      <c r="ER1" s="80"/>
+      <c r="ES1" s="80"/>
+      <c r="ET1" s="80"/>
+      <c r="EU1" s="80"/>
+      <c r="EV1" s="80"/>
+      <c r="EW1" s="80"/>
+      <c r="EX1" s="80"/>
+      <c r="EY1" s="80"/>
+      <c r="EZ1" s="80"/>
+      <c r="FA1" s="80"/>
+      <c r="FB1" s="80"/>
+      <c r="FC1" s="80"/>
+      <c r="FD1" s="80"/>
+      <c r="FE1" s="80"/>
+      <c r="FF1" s="80"/>
+      <c r="FG1" s="80"/>
+      <c r="FH1" s="80"/>
+      <c r="FI1" s="80"/>
+      <c r="FJ1" s="80"/>
+      <c r="FK1" s="80"/>
+      <c r="FL1" s="80"/>
+      <c r="FM1" s="80"/>
+      <c r="FN1" s="80"/>
+      <c r="FO1" s="80"/>
+      <c r="FP1" s="80"/>
+      <c r="FQ1" s="80"/>
+      <c r="FR1" s="80"/>
+      <c r="FS1" s="80"/>
+      <c r="FT1" s="80"/>
+      <c r="FU1" s="80"/>
+      <c r="FV1" s="80"/>
+      <c r="FW1" s="80"/>
+      <c r="FX1" s="80"/>
+      <c r="FY1" s="80"/>
+      <c r="FZ1" s="80"/>
+      <c r="GA1" s="80"/>
+      <c r="GB1" s="80"/>
+      <c r="GC1" s="80"/>
+      <c r="GD1" s="80"/>
+      <c r="GE1" s="80"/>
+      <c r="GF1" s="80"/>
+      <c r="GG1" s="80"/>
+      <c r="GH1" s="80"/>
+      <c r="GI1" s="80"/>
+      <c r="GJ1" s="80"/>
+      <c r="GK1" s="80"/>
+      <c r="GL1" s="80"/>
+      <c r="GM1" s="80"/>
+      <c r="GN1" s="80"/>
+      <c r="GO1" s="80"/>
+      <c r="GP1" s="80"/>
+      <c r="GQ1" s="80"/>
+      <c r="GR1" s="80"/>
+      <c r="GS1" s="80"/>
+      <c r="GT1" s="80"/>
+      <c r="GU1" s="80"/>
+      <c r="GV1" s="80"/>
+      <c r="GW1" s="80"/>
+      <c r="GX1" s="80"/>
+      <c r="GY1" s="80"/>
+      <c r="GZ1" s="80"/>
+      <c r="HA1" s="80"/>
+      <c r="HB1" s="80"/>
+      <c r="HC1" s="80"/>
+      <c r="HD1" s="80"/>
+      <c r="HE1" s="80"/>
+      <c r="HF1" s="80"/>
+      <c r="HG1" s="80"/>
+      <c r="HH1" s="80"/>
+      <c r="HI1" s="80"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="41">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="40">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="41">
         <v>1</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="40">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="41">
         <v>2</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="40">
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="41">
         <v>3</v>
       </c>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="40">
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="41">
         <v>4</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="40">
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="41">
         <v>5</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="40">
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="41">
         <v>6</v>
       </c>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="40">
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="41">
         <v>7</v>
       </c>
-      <c r="BG2" s="41"/>
-      <c r="BH2" s="41"/>
-      <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
-      <c r="BK2" s="41"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="40">
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="42"/>
+      <c r="BL2" s="42"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="41">
         <v>8</v>
       </c>
-      <c r="BO2" s="41"/>
-      <c r="BP2" s="41"/>
-      <c r="BQ2" s="41"/>
-      <c r="BR2" s="41"/>
-      <c r="BS2" s="41"/>
-      <c r="BT2" s="41"/>
-      <c r="BU2" s="42"/>
-      <c r="BV2" s="40">
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
+      <c r="BR2" s="42"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="42"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="41">
         <v>9</v>
       </c>
-      <c r="BW2" s="41"/>
-      <c r="BX2" s="41"/>
-      <c r="BY2" s="41"/>
-      <c r="BZ2" s="41"/>
-      <c r="CA2" s="41"/>
-      <c r="CB2" s="41"/>
-      <c r="CC2" s="42"/>
-      <c r="CD2" s="40">
+      <c r="BW2" s="42"/>
+      <c r="BX2" s="42"/>
+      <c r="BY2" s="42"/>
+      <c r="BZ2" s="42"/>
+      <c r="CA2" s="42"/>
+      <c r="CB2" s="42"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="41">
         <v>10</v>
       </c>
-      <c r="CE2" s="41"/>
-      <c r="CF2" s="41"/>
-      <c r="CG2" s="41"/>
-      <c r="CH2" s="41"/>
-      <c r="CI2" s="41"/>
-      <c r="CJ2" s="41"/>
-      <c r="CK2" s="42"/>
-      <c r="CL2" s="40">
+      <c r="CE2" s="42"/>
+      <c r="CF2" s="42"/>
+      <c r="CG2" s="42"/>
+      <c r="CH2" s="42"/>
+      <c r="CI2" s="42"/>
+      <c r="CJ2" s="42"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="41">
         <v>11</v>
       </c>
-      <c r="CM2" s="41"/>
-      <c r="CN2" s="41"/>
-      <c r="CO2" s="41"/>
-      <c r="CP2" s="41"/>
-      <c r="CQ2" s="41"/>
-      <c r="CR2" s="41"/>
-      <c r="CS2" s="42"/>
-      <c r="CT2" s="40">
+      <c r="CM2" s="42"/>
+      <c r="CN2" s="42"/>
+      <c r="CO2" s="42"/>
+      <c r="CP2" s="42"/>
+      <c r="CQ2" s="42"/>
+      <c r="CR2" s="42"/>
+      <c r="CS2" s="43"/>
+      <c r="CT2" s="41">
         <v>12</v>
       </c>
-      <c r="CU2" s="41"/>
-      <c r="CV2" s="41"/>
-      <c r="CW2" s="41"/>
-      <c r="CX2" s="41"/>
-      <c r="CY2" s="41"/>
-      <c r="CZ2" s="41"/>
-      <c r="DA2" s="42"/>
-      <c r="DB2" s="40">
+      <c r="CU2" s="42"/>
+      <c r="CV2" s="42"/>
+      <c r="CW2" s="42"/>
+      <c r="CX2" s="42"/>
+      <c r="CY2" s="42"/>
+      <c r="CZ2" s="42"/>
+      <c r="DA2" s="43"/>
+      <c r="DB2" s="41">
         <v>13</v>
       </c>
-      <c r="DC2" s="41"/>
-      <c r="DD2" s="41"/>
-      <c r="DE2" s="41"/>
-      <c r="DF2" s="41"/>
-      <c r="DG2" s="41"/>
-      <c r="DH2" s="41"/>
-      <c r="DI2" s="42"/>
-      <c r="DJ2" s="40">
+      <c r="DC2" s="42"/>
+      <c r="DD2" s="42"/>
+      <c r="DE2" s="42"/>
+      <c r="DF2" s="42"/>
+      <c r="DG2" s="42"/>
+      <c r="DH2" s="42"/>
+      <c r="DI2" s="43"/>
+      <c r="DJ2" s="41">
         <v>14</v>
       </c>
-      <c r="DK2" s="41"/>
-      <c r="DL2" s="41"/>
-      <c r="DM2" s="41"/>
-      <c r="DN2" s="41"/>
-      <c r="DO2" s="41"/>
-      <c r="DP2" s="41"/>
-      <c r="DQ2" s="42"/>
-      <c r="DR2" s="40">
+      <c r="DK2" s="42"/>
+      <c r="DL2" s="42"/>
+      <c r="DM2" s="42"/>
+      <c r="DN2" s="42"/>
+      <c r="DO2" s="42"/>
+      <c r="DP2" s="42"/>
+      <c r="DQ2" s="43"/>
+      <c r="DR2" s="41">
         <v>15</v>
       </c>
-      <c r="DS2" s="41"/>
-      <c r="DT2" s="41"/>
-      <c r="DU2" s="41"/>
-      <c r="DV2" s="41"/>
-      <c r="DW2" s="41"/>
-      <c r="DX2" s="41"/>
-      <c r="DY2" s="42"/>
-      <c r="DZ2" s="40">
+      <c r="DS2" s="42"/>
+      <c r="DT2" s="42"/>
+      <c r="DU2" s="42"/>
+      <c r="DV2" s="42"/>
+      <c r="DW2" s="42"/>
+      <c r="DX2" s="42"/>
+      <c r="DY2" s="43"/>
+      <c r="DZ2" s="41">
         <v>16</v>
       </c>
-      <c r="EA2" s="41"/>
-      <c r="EB2" s="41"/>
-      <c r="EC2" s="41"/>
-      <c r="ED2" s="41"/>
-      <c r="EE2" s="41"/>
-      <c r="EF2" s="41"/>
-      <c r="EG2" s="42"/>
-      <c r="EH2" s="40">
+      <c r="EA2" s="42"/>
+      <c r="EB2" s="42"/>
+      <c r="EC2" s="42"/>
+      <c r="ED2" s="42"/>
+      <c r="EE2" s="42"/>
+      <c r="EF2" s="42"/>
+      <c r="EG2" s="43"/>
+      <c r="EH2" s="41">
         <v>17</v>
       </c>
-      <c r="EI2" s="41"/>
-      <c r="EJ2" s="41"/>
-      <c r="EK2" s="41"/>
-      <c r="EL2" s="41"/>
-      <c r="EM2" s="41"/>
-      <c r="EN2" s="41"/>
-      <c r="EO2" s="42"/>
-      <c r="EP2" s="40">
+      <c r="EI2" s="42"/>
+      <c r="EJ2" s="42"/>
+      <c r="EK2" s="42"/>
+      <c r="EL2" s="42"/>
+      <c r="EM2" s="42"/>
+      <c r="EN2" s="42"/>
+      <c r="EO2" s="43"/>
+      <c r="EP2" s="41">
         <v>18</v>
       </c>
-      <c r="EQ2" s="41"/>
-      <c r="ER2" s="41"/>
-      <c r="ES2" s="41"/>
-      <c r="ET2" s="41"/>
-      <c r="EU2" s="41"/>
-      <c r="EV2" s="41"/>
-      <c r="EW2" s="42"/>
-      <c r="EX2" s="40">
+      <c r="EQ2" s="42"/>
+      <c r="ER2" s="42"/>
+      <c r="ES2" s="42"/>
+      <c r="ET2" s="42"/>
+      <c r="EU2" s="42"/>
+      <c r="EV2" s="42"/>
+      <c r="EW2" s="43"/>
+      <c r="EX2" s="41">
         <v>19</v>
       </c>
-      <c r="EY2" s="41"/>
-      <c r="EZ2" s="41"/>
-      <c r="FA2" s="41"/>
-      <c r="FB2" s="41"/>
-      <c r="FC2" s="41"/>
-      <c r="FD2" s="41"/>
-      <c r="FE2" s="42"/>
-      <c r="FF2" s="40">
+      <c r="EY2" s="42"/>
+      <c r="EZ2" s="42"/>
+      <c r="FA2" s="42"/>
+      <c r="FB2" s="42"/>
+      <c r="FC2" s="42"/>
+      <c r="FD2" s="42"/>
+      <c r="FE2" s="43"/>
+      <c r="FF2" s="41">
         <v>20</v>
       </c>
-      <c r="FG2" s="41"/>
-      <c r="FH2" s="41"/>
-      <c r="FI2" s="41"/>
-      <c r="FJ2" s="41"/>
-      <c r="FK2" s="41"/>
-      <c r="FL2" s="41"/>
-      <c r="FM2" s="42"/>
-      <c r="FN2" s="40">
+      <c r="FG2" s="42"/>
+      <c r="FH2" s="42"/>
+      <c r="FI2" s="42"/>
+      <c r="FJ2" s="42"/>
+      <c r="FK2" s="42"/>
+      <c r="FL2" s="42"/>
+      <c r="FM2" s="43"/>
+      <c r="FN2" s="41">
         <v>21</v>
       </c>
-      <c r="FO2" s="41"/>
-      <c r="FP2" s="41"/>
-      <c r="FQ2" s="41"/>
-      <c r="FR2" s="41"/>
-      <c r="FS2" s="41"/>
-      <c r="FT2" s="41"/>
-      <c r="FU2" s="42"/>
-      <c r="FV2" s="40">
+      <c r="FO2" s="42"/>
+      <c r="FP2" s="42"/>
+      <c r="FQ2" s="42"/>
+      <c r="FR2" s="42"/>
+      <c r="FS2" s="42"/>
+      <c r="FT2" s="42"/>
+      <c r="FU2" s="43"/>
+      <c r="FV2" s="41">
         <v>22</v>
       </c>
-      <c r="FW2" s="41"/>
-      <c r="FX2" s="41"/>
-      <c r="FY2" s="41"/>
-      <c r="FZ2" s="41"/>
-      <c r="GA2" s="41"/>
-      <c r="GB2" s="41"/>
-      <c r="GC2" s="42"/>
-      <c r="GD2" s="40">
+      <c r="FW2" s="42"/>
+      <c r="FX2" s="42"/>
+      <c r="FY2" s="42"/>
+      <c r="FZ2" s="42"/>
+      <c r="GA2" s="42"/>
+      <c r="GB2" s="42"/>
+      <c r="GC2" s="43"/>
+      <c r="GD2" s="41">
         <v>23</v>
       </c>
-      <c r="GE2" s="41"/>
-      <c r="GF2" s="41"/>
-      <c r="GG2" s="41"/>
-      <c r="GH2" s="41"/>
-      <c r="GI2" s="41"/>
-      <c r="GJ2" s="41"/>
-      <c r="GK2" s="42"/>
-      <c r="GL2" s="40">
+      <c r="GE2" s="42"/>
+      <c r="GF2" s="42"/>
+      <c r="GG2" s="42"/>
+      <c r="GH2" s="42"/>
+      <c r="GI2" s="42"/>
+      <c r="GJ2" s="42"/>
+      <c r="GK2" s="43"/>
+      <c r="GL2" s="41">
         <v>24</v>
       </c>
-      <c r="GM2" s="41"/>
-      <c r="GN2" s="41"/>
-      <c r="GO2" s="41"/>
-      <c r="GP2" s="41"/>
-      <c r="GQ2" s="41"/>
-      <c r="GR2" s="41"/>
-      <c r="GS2" s="42"/>
-      <c r="GT2" s="40">
+      <c r="GM2" s="42"/>
+      <c r="GN2" s="42"/>
+      <c r="GO2" s="42"/>
+      <c r="GP2" s="42"/>
+      <c r="GQ2" s="42"/>
+      <c r="GR2" s="42"/>
+      <c r="GS2" s="43"/>
+      <c r="GT2" s="41">
         <v>25</v>
       </c>
-      <c r="GU2" s="41"/>
-      <c r="GV2" s="41"/>
-      <c r="GW2" s="41"/>
-      <c r="GX2" s="41"/>
-      <c r="GY2" s="41"/>
-      <c r="GZ2" s="41"/>
-      <c r="HA2" s="42"/>
-      <c r="HB2" s="40">
+      <c r="GU2" s="42"/>
+      <c r="GV2" s="42"/>
+      <c r="GW2" s="42"/>
+      <c r="GX2" s="42"/>
+      <c r="GY2" s="42"/>
+      <c r="GZ2" s="42"/>
+      <c r="HA2" s="43"/>
+      <c r="HB2" s="41">
         <v>26</v>
       </c>
-      <c r="HC2" s="41"/>
-      <c r="HD2" s="41"/>
-      <c r="HE2" s="41"/>
-      <c r="HF2" s="41"/>
-      <c r="HG2" s="41"/>
-      <c r="HH2" s="41"/>
-      <c r="HI2" s="42"/>
+      <c r="HC2" s="42"/>
+      <c r="HD2" s="42"/>
+      <c r="HE2" s="42"/>
+      <c r="HF2" s="42"/>
+      <c r="HG2" s="42"/>
+      <c r="HH2" s="42"/>
+      <c r="HI2" s="43"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="41" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="40" t="str">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="41" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="40" t="str">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="41" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="40" t="str">
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="41" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="40" t="str">
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="41" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="40" t="str">
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="41" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="40" t="str">
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="41" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="40" t="str">
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="41" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="40" t="str">
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="43"/>
+      <c r="BN3" s="41" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="41"/>
-      <c r="BU3" s="42"/>
-      <c r="BV3" s="40" t="str">
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="41" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="41"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="42"/>
-      <c r="CD3" s="40" t="str">
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="43"/>
+      <c r="CD3" s="41" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="41"/>
-      <c r="CF3" s="41"/>
-      <c r="CG3" s="41"/>
-      <c r="CH3" s="41"/>
-      <c r="CI3" s="41"/>
-      <c r="CJ3" s="41"/>
-      <c r="CK3" s="42"/>
-      <c r="CL3" s="40" t="str">
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="41" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="41"/>
-      <c r="CN3" s="41"/>
-      <c r="CO3" s="41"/>
-      <c r="CP3" s="41"/>
-      <c r="CQ3" s="41"/>
-      <c r="CR3" s="41"/>
-      <c r="CS3" s="42"/>
-      <c r="CT3" s="40" t="str">
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="41" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="41"/>
-      <c r="CV3" s="41"/>
-      <c r="CW3" s="41"/>
-      <c r="CX3" s="41"/>
-      <c r="CY3" s="41"/>
-      <c r="CZ3" s="41"/>
-      <c r="DA3" s="42"/>
-      <c r="DB3" s="40" t="str">
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="41" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="41"/>
-      <c r="DD3" s="41"/>
-      <c r="DE3" s="41"/>
-      <c r="DF3" s="41"/>
-      <c r="DG3" s="41"/>
-      <c r="DH3" s="41"/>
-      <c r="DI3" s="42"/>
-      <c r="DJ3" s="40" t="str">
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="42"/>
+      <c r="DG3" s="42"/>
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="41" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="41"/>
-      <c r="DL3" s="41"/>
-      <c r="DM3" s="41"/>
-      <c r="DN3" s="41"/>
-      <c r="DO3" s="41"/>
-      <c r="DP3" s="41"/>
-      <c r="DQ3" s="42"/>
-      <c r="DR3" s="40" t="str">
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="41" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="41"/>
-      <c r="DT3" s="41"/>
-      <c r="DU3" s="41"/>
-      <c r="DV3" s="41"/>
-      <c r="DW3" s="41"/>
-      <c r="DX3" s="41"/>
-      <c r="DY3" s="42"/>
-      <c r="DZ3" s="40" t="str">
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="43"/>
+      <c r="DZ3" s="41" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="41"/>
-      <c r="EB3" s="41"/>
-      <c r="EC3" s="41"/>
-      <c r="ED3" s="41"/>
-      <c r="EE3" s="41"/>
-      <c r="EF3" s="41"/>
-      <c r="EG3" s="42"/>
-      <c r="EH3" s="40" t="str">
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
+      <c r="ED3" s="42"/>
+      <c r="EE3" s="42"/>
+      <c r="EF3" s="42"/>
+      <c r="EG3" s="43"/>
+      <c r="EH3" s="41" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="41"/>
-      <c r="EJ3" s="41"/>
-      <c r="EK3" s="41"/>
-      <c r="EL3" s="41"/>
-      <c r="EM3" s="41"/>
-      <c r="EN3" s="41"/>
-      <c r="EO3" s="42"/>
-      <c r="EP3" s="40" t="str">
+      <c r="EI3" s="42"/>
+      <c r="EJ3" s="42"/>
+      <c r="EK3" s="42"/>
+      <c r="EL3" s="42"/>
+      <c r="EM3" s="42"/>
+      <c r="EN3" s="42"/>
+      <c r="EO3" s="43"/>
+      <c r="EP3" s="41" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="41"/>
-      <c r="ER3" s="41"/>
-      <c r="ES3" s="41"/>
-      <c r="ET3" s="41"/>
-      <c r="EU3" s="41"/>
-      <c r="EV3" s="41"/>
-      <c r="EW3" s="42"/>
-      <c r="EX3" s="40" t="str">
+      <c r="EQ3" s="42"/>
+      <c r="ER3" s="42"/>
+      <c r="ES3" s="42"/>
+      <c r="ET3" s="42"/>
+      <c r="EU3" s="42"/>
+      <c r="EV3" s="42"/>
+      <c r="EW3" s="43"/>
+      <c r="EX3" s="41" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="41"/>
-      <c r="EZ3" s="41"/>
-      <c r="FA3" s="41"/>
-      <c r="FB3" s="41"/>
-      <c r="FC3" s="41"/>
-      <c r="FD3" s="41"/>
-      <c r="FE3" s="42"/>
-      <c r="FF3" s="40" t="str">
+      <c r="EY3" s="42"/>
+      <c r="EZ3" s="42"/>
+      <c r="FA3" s="42"/>
+      <c r="FB3" s="42"/>
+      <c r="FC3" s="42"/>
+      <c r="FD3" s="42"/>
+      <c r="FE3" s="43"/>
+      <c r="FF3" s="41" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="41"/>
-      <c r="FH3" s="41"/>
-      <c r="FI3" s="41"/>
-      <c r="FJ3" s="41"/>
-      <c r="FK3" s="41"/>
-      <c r="FL3" s="41"/>
-      <c r="FM3" s="42"/>
-      <c r="FN3" s="40" t="str">
+      <c r="FG3" s="42"/>
+      <c r="FH3" s="42"/>
+      <c r="FI3" s="42"/>
+      <c r="FJ3" s="42"/>
+      <c r="FK3" s="42"/>
+      <c r="FL3" s="42"/>
+      <c r="FM3" s="43"/>
+      <c r="FN3" s="41" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="41"/>
-      <c r="FP3" s="41"/>
-      <c r="FQ3" s="41"/>
-      <c r="FR3" s="41"/>
-      <c r="FS3" s="41"/>
-      <c r="FT3" s="41"/>
-      <c r="FU3" s="42"/>
-      <c r="FV3" s="40" t="str">
+      <c r="FO3" s="42"/>
+      <c r="FP3" s="42"/>
+      <c r="FQ3" s="42"/>
+      <c r="FR3" s="42"/>
+      <c r="FS3" s="42"/>
+      <c r="FT3" s="42"/>
+      <c r="FU3" s="43"/>
+      <c r="FV3" s="41" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="41"/>
-      <c r="FX3" s="41"/>
-      <c r="FY3" s="41"/>
-      <c r="FZ3" s="41"/>
-      <c r="GA3" s="41"/>
-      <c r="GB3" s="41"/>
-      <c r="GC3" s="42"/>
-      <c r="GD3" s="40" t="str">
+      <c r="FW3" s="42"/>
+      <c r="FX3" s="42"/>
+      <c r="FY3" s="42"/>
+      <c r="FZ3" s="42"/>
+      <c r="GA3" s="42"/>
+      <c r="GB3" s="42"/>
+      <c r="GC3" s="43"/>
+      <c r="GD3" s="41" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="41"/>
-      <c r="GF3" s="41"/>
-      <c r="GG3" s="41"/>
-      <c r="GH3" s="41"/>
-      <c r="GI3" s="41"/>
-      <c r="GJ3" s="41"/>
-      <c r="GK3" s="42"/>
-      <c r="GL3" s="40" t="str">
+      <c r="GE3" s="42"/>
+      <c r="GF3" s="42"/>
+      <c r="GG3" s="42"/>
+      <c r="GH3" s="42"/>
+      <c r="GI3" s="42"/>
+      <c r="GJ3" s="42"/>
+      <c r="GK3" s="43"/>
+      <c r="GL3" s="41" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="41"/>
-      <c r="GN3" s="41"/>
-      <c r="GO3" s="41"/>
-      <c r="GP3" s="41"/>
-      <c r="GQ3" s="41"/>
-      <c r="GR3" s="41"/>
-      <c r="GS3" s="42"/>
-      <c r="GT3" s="40" t="str">
+      <c r="GM3" s="42"/>
+      <c r="GN3" s="42"/>
+      <c r="GO3" s="42"/>
+      <c r="GP3" s="42"/>
+      <c r="GQ3" s="42"/>
+      <c r="GR3" s="42"/>
+      <c r="GS3" s="43"/>
+      <c r="GT3" s="41" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="41"/>
-      <c r="GV3" s="41"/>
-      <c r="GW3" s="41"/>
-      <c r="GX3" s="41"/>
-      <c r="GY3" s="41"/>
-      <c r="GZ3" s="41"/>
-      <c r="HA3" s="42"/>
-      <c r="HB3" s="40" t="str">
+      <c r="GU3" s="42"/>
+      <c r="GV3" s="42"/>
+      <c r="GW3" s="42"/>
+      <c r="GX3" s="42"/>
+      <c r="GY3" s="42"/>
+      <c r="GZ3" s="42"/>
+      <c r="HA3" s="43"/>
+      <c r="HB3" s="41" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="41"/>
-      <c r="HD3" s="41"/>
-      <c r="HE3" s="41"/>
-      <c r="HF3" s="41"/>
-      <c r="HG3" s="41"/>
-      <c r="HH3" s="41"/>
-      <c r="HI3" s="42"/>
+      <c r="HC3" s="42"/>
+      <c r="HD3" s="42"/>
+      <c r="HE3" s="42"/>
+      <c r="HF3" s="42"/>
+      <c r="HG3" s="42"/>
+      <c r="HH3" s="42"/>
+      <c r="HI3" s="43"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>0</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="40">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="41">
         <v>2</v>
       </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="40">
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="41">
         <v>4</v>
       </c>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="40">
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="41">
         <v>6</v>
       </c>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="40">
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="41">
         <v>8</v>
       </c>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="40">
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="41">
         <v>9</v>
       </c>
-      <c r="BW4" s="41"/>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="40" t="str">
+      <c r="BW4" s="42"/>
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="41" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="42"/>
-      <c r="CL4" s="40" t="str">
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="43"/>
+      <c r="CL4" s="41" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41"/>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="42"/>
-      <c r="DB4" s="40" t="str">
+      <c r="CM4" s="42"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
+      <c r="DA4" s="43"/>
+      <c r="DB4" s="41" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41"/>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41"/>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41"/>
-      <c r="DQ4" s="42"/>
-      <c r="DR4" s="40" t="str">
+      <c r="DC4" s="42"/>
+      <c r="DD4" s="42"/>
+      <c r="DE4" s="42"/>
+      <c r="DF4" s="42"/>
+      <c r="DG4" s="42"/>
+      <c r="DH4" s="42"/>
+      <c r="DI4" s="42"/>
+      <c r="DJ4" s="42"/>
+      <c r="DK4" s="42"/>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="43"/>
+      <c r="DR4" s="41" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="41"/>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41"/>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
-      <c r="ED4" s="41"/>
-      <c r="EE4" s="41"/>
-      <c r="EF4" s="41"/>
-      <c r="EG4" s="42"/>
-      <c r="EH4" s="40" t="str">
+      <c r="DS4" s="42"/>
+      <c r="DT4" s="42"/>
+      <c r="DU4" s="42"/>
+      <c r="DV4" s="42"/>
+      <c r="DW4" s="42"/>
+      <c r="DX4" s="42"/>
+      <c r="DY4" s="42"/>
+      <c r="DZ4" s="42"/>
+      <c r="EA4" s="42"/>
+      <c r="EB4" s="42"/>
+      <c r="EC4" s="42"/>
+      <c r="ED4" s="42"/>
+      <c r="EE4" s="42"/>
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="43"/>
+      <c r="EH4" s="41" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="41"/>
-      <c r="EJ4" s="41"/>
-      <c r="EK4" s="41"/>
-      <c r="EL4" s="41"/>
-      <c r="EM4" s="41"/>
-      <c r="EN4" s="41"/>
-      <c r="EO4" s="42"/>
-      <c r="EP4" s="40" t="str">
+      <c r="EI4" s="42"/>
+      <c r="EJ4" s="42"/>
+      <c r="EK4" s="42"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="42"/>
+      <c r="EN4" s="42"/>
+      <c r="EO4" s="43"/>
+      <c r="EP4" s="41" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="41"/>
-      <c r="ER4" s="41"/>
-      <c r="ES4" s="41"/>
-      <c r="ET4" s="41"/>
-      <c r="EU4" s="41"/>
-      <c r="EV4" s="41"/>
-      <c r="EW4" s="42"/>
-      <c r="EX4" s="40" t="str">
+      <c r="EQ4" s="42"/>
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="42"/>
+      <c r="ET4" s="42"/>
+      <c r="EU4" s="42"/>
+      <c r="EV4" s="42"/>
+      <c r="EW4" s="43"/>
+      <c r="EX4" s="41" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="41"/>
-      <c r="EZ4" s="41"/>
-      <c r="FA4" s="41"/>
-      <c r="FB4" s="41"/>
-      <c r="FC4" s="41"/>
-      <c r="FD4" s="41"/>
-      <c r="FE4" s="42"/>
-      <c r="FF4" s="40" t="str">
+      <c r="EY4" s="42"/>
+      <c r="EZ4" s="42"/>
+      <c r="FA4" s="42"/>
+      <c r="FB4" s="42"/>
+      <c r="FC4" s="42"/>
+      <c r="FD4" s="42"/>
+      <c r="FE4" s="43"/>
+      <c r="FF4" s="41" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="41"/>
-      <c r="FH4" s="41"/>
-      <c r="FI4" s="41"/>
-      <c r="FJ4" s="41"/>
-      <c r="FK4" s="41"/>
-      <c r="FL4" s="41"/>
-      <c r="FM4" s="42"/>
-      <c r="FN4" s="40" t="str">
+      <c r="FG4" s="42"/>
+      <c r="FH4" s="42"/>
+      <c r="FI4" s="42"/>
+      <c r="FJ4" s="42"/>
+      <c r="FK4" s="42"/>
+      <c r="FL4" s="42"/>
+      <c r="FM4" s="43"/>
+      <c r="FN4" s="41" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="41"/>
-      <c r="FP4" s="41"/>
-      <c r="FQ4" s="41"/>
-      <c r="FR4" s="41"/>
-      <c r="FS4" s="41"/>
-      <c r="FT4" s="41"/>
-      <c r="FU4" s="42"/>
-      <c r="FV4" s="40" t="str">
+      <c r="FO4" s="42"/>
+      <c r="FP4" s="42"/>
+      <c r="FQ4" s="42"/>
+      <c r="FR4" s="42"/>
+      <c r="FS4" s="42"/>
+      <c r="FT4" s="42"/>
+      <c r="FU4" s="43"/>
+      <c r="FV4" s="41" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="41"/>
-      <c r="FX4" s="41"/>
-      <c r="FY4" s="41"/>
-      <c r="FZ4" s="41"/>
-      <c r="GA4" s="41"/>
-      <c r="GB4" s="41"/>
-      <c r="GC4" s="41"/>
-      <c r="GD4" s="41"/>
-      <c r="GE4" s="41"/>
-      <c r="GF4" s="41"/>
-      <c r="GG4" s="41"/>
-      <c r="GH4" s="41"/>
-      <c r="GI4" s="41"/>
-      <c r="GJ4" s="41"/>
-      <c r="GK4" s="42"/>
-      <c r="GL4" s="40" t="str">
+      <c r="FW4" s="42"/>
+      <c r="FX4" s="42"/>
+      <c r="FY4" s="42"/>
+      <c r="FZ4" s="42"/>
+      <c r="GA4" s="42"/>
+      <c r="GB4" s="42"/>
+      <c r="GC4" s="42"/>
+      <c r="GD4" s="42"/>
+      <c r="GE4" s="42"/>
+      <c r="GF4" s="42"/>
+      <c r="GG4" s="42"/>
+      <c r="GH4" s="42"/>
+      <c r="GI4" s="42"/>
+      <c r="GJ4" s="42"/>
+      <c r="GK4" s="43"/>
+      <c r="GL4" s="41" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="41"/>
-      <c r="GN4" s="41"/>
-      <c r="GO4" s="41"/>
-      <c r="GP4" s="41"/>
-      <c r="GQ4" s="41"/>
-      <c r="GR4" s="41"/>
-      <c r="GS4" s="42"/>
-      <c r="GT4" s="40" t="str">
+      <c r="GM4" s="42"/>
+      <c r="GN4" s="42"/>
+      <c r="GO4" s="42"/>
+      <c r="GP4" s="42"/>
+      <c r="GQ4" s="42"/>
+      <c r="GR4" s="42"/>
+      <c r="GS4" s="43"/>
+      <c r="GT4" s="41" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="41"/>
-      <c r="GV4" s="41"/>
-      <c r="GW4" s="41"/>
-      <c r="GX4" s="41"/>
-      <c r="GY4" s="41"/>
-      <c r="GZ4" s="41"/>
-      <c r="HA4" s="42"/>
-      <c r="HB4" s="40" t="str">
+      <c r="GU4" s="42"/>
+      <c r="GV4" s="42"/>
+      <c r="GW4" s="42"/>
+      <c r="GX4" s="42"/>
+      <c r="GY4" s="42"/>
+      <c r="GZ4" s="42"/>
+      <c r="HA4" s="43"/>
+      <c r="HB4" s="41" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="41"/>
-      <c r="HD4" s="41"/>
-      <c r="HE4" s="41"/>
-      <c r="HF4" s="41"/>
-      <c r="HG4" s="41"/>
-      <c r="HH4" s="41"/>
-      <c r="HI4" s="42"/>
+      <c r="HC4" s="42"/>
+      <c r="HD4" s="42"/>
+      <c r="HE4" s="42"/>
+      <c r="HF4" s="42"/>
+      <c r="HG4" s="42"/>
+      <c r="HH4" s="42"/>
+      <c r="HI4" s="43"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
@@ -4168,216 +4222,216 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58" t="s">
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="37" t="s">
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="37" t="s">
+      <c r="S7" s="39"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="38"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="84" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="37" t="s">
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="37" t="s">
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="37" t="s">
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="37" t="s">
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="38"/>
-      <c r="BG7" s="39"/>
-      <c r="BH7" s="37" t="s">
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="39"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="38"/>
-      <c r="BM7" s="39"/>
-      <c r="BN7" s="37" t="s">
+      <c r="BI7" s="39"/>
+      <c r="BJ7" s="39"/>
+      <c r="BK7" s="39"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="38"/>
-      <c r="BP7" s="38"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="38"/>
-      <c r="BS7" s="38"/>
-      <c r="BT7" s="38"/>
-      <c r="BU7" s="39"/>
-      <c r="BV7" s="37" t="s">
+      <c r="BO7" s="39"/>
+      <c r="BP7" s="39"/>
+      <c r="BQ7" s="39"/>
+      <c r="BR7" s="39"/>
+      <c r="BS7" s="39"/>
+      <c r="BT7" s="39"/>
+      <c r="BU7" s="40"/>
+      <c r="BV7" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="BW7" s="38"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="38"/>
-      <c r="CA7" s="38"/>
-      <c r="CB7" s="38"/>
-      <c r="CC7" s="39"/>
-      <c r="CD7" s="55" t="s">
+      <c r="BW7" s="39"/>
+      <c r="BX7" s="39"/>
+      <c r="BY7" s="39"/>
+      <c r="BZ7" s="39"/>
+      <c r="CA7" s="39"/>
+      <c r="CB7" s="39"/>
+      <c r="CC7" s="40"/>
+      <c r="CD7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="56"/>
-      <c r="CF7" s="56"/>
-      <c r="CG7" s="56"/>
-      <c r="CH7" s="56"/>
-      <c r="CI7" s="56"/>
-      <c r="CJ7" s="56"/>
-      <c r="CK7" s="57"/>
-      <c r="CL7" s="55" t="s">
+      <c r="CE7" s="57"/>
+      <c r="CF7" s="57"/>
+      <c r="CG7" s="57"/>
+      <c r="CH7" s="57"/>
+      <c r="CI7" s="57"/>
+      <c r="CJ7" s="57"/>
+      <c r="CK7" s="58"/>
+      <c r="CL7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CM7" s="56"/>
-      <c r="CN7" s="56"/>
-      <c r="CO7" s="57"/>
-      <c r="CP7" s="55" t="s">
+      <c r="CM7" s="57"/>
+      <c r="CN7" s="57"/>
+      <c r="CO7" s="58"/>
+      <c r="CP7" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="56"/>
-      <c r="CR7" s="56"/>
-      <c r="CS7" s="56"/>
-      <c r="CT7" s="56"/>
-      <c r="CU7" s="56"/>
-      <c r="CV7" s="56"/>
-      <c r="CW7" s="57"/>
-      <c r="CX7" s="37" t="s">
+      <c r="CQ7" s="57"/>
+      <c r="CR7" s="57"/>
+      <c r="CS7" s="57"/>
+      <c r="CT7" s="57"/>
+      <c r="CU7" s="57"/>
+      <c r="CV7" s="57"/>
+      <c r="CW7" s="58"/>
+      <c r="CX7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="38"/>
-      <c r="CZ7" s="38"/>
-      <c r="DA7" s="39"/>
-      <c r="DB7" s="37" t="s">
+      <c r="CY7" s="39"/>
+      <c r="CZ7" s="39"/>
+      <c r="DA7" s="40"/>
+      <c r="DB7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="DC7" s="39"/>
+      <c r="DC7" s="40"/>
       <c r="DD7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="DE7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="DF7" s="55" t="s">
+      <c r="DF7" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="DG7" s="56"/>
-      <c r="DH7" s="56"/>
-      <c r="DI7" s="56"/>
-      <c r="DJ7" s="56"/>
-      <c r="DK7" s="56"/>
-      <c r="DL7" s="56"/>
-      <c r="DM7" s="57"/>
-      <c r="DN7" s="55" t="s">
+      <c r="DG7" s="57"/>
+      <c r="DH7" s="57"/>
+      <c r="DI7" s="57"/>
+      <c r="DJ7" s="57"/>
+      <c r="DK7" s="57"/>
+      <c r="DL7" s="57"/>
+      <c r="DM7" s="58"/>
+      <c r="DN7" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="DO7" s="56"/>
-      <c r="DP7" s="56"/>
-      <c r="DQ7" s="57"/>
-      <c r="DR7" s="69" t="s">
+      <c r="DO7" s="57"/>
+      <c r="DP7" s="57"/>
+      <c r="DQ7" s="58"/>
+      <c r="DR7" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="DS7" s="70"/>
-      <c r="DT7" s="70"/>
-      <c r="DU7" s="71"/>
-      <c r="DV7" s="69" t="s">
+      <c r="DS7" s="71"/>
+      <c r="DT7" s="71"/>
+      <c r="DU7" s="72"/>
+      <c r="DV7" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="DW7" s="70"/>
-      <c r="DX7" s="70"/>
-      <c r="DY7" s="70"/>
-      <c r="DZ7" s="70"/>
-      <c r="EA7" s="71"/>
-      <c r="EB7" s="69" t="s">
+      <c r="DW7" s="71"/>
+      <c r="DX7" s="71"/>
+      <c r="DY7" s="71"/>
+      <c r="DZ7" s="71"/>
+      <c r="EA7" s="72"/>
+      <c r="EB7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="EC7" s="70"/>
-      <c r="ED7" s="70"/>
-      <c r="EE7" s="70"/>
-      <c r="EF7" s="70"/>
-      <c r="EG7" s="71"/>
-      <c r="EH7" s="40" t="s">
+      <c r="EC7" s="71"/>
+      <c r="ED7" s="71"/>
+      <c r="EE7" s="71"/>
+      <c r="EF7" s="71"/>
+      <c r="EG7" s="72"/>
+      <c r="EH7" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="EI7" s="41"/>
-      <c r="EJ7" s="41"/>
-      <c r="EK7" s="41"/>
-      <c r="EL7" s="41"/>
-      <c r="EM7" s="41"/>
-      <c r="EN7" s="41"/>
-      <c r="EO7" s="42"/>
-      <c r="EP7" s="40" t="s">
+      <c r="EI7" s="42"/>
+      <c r="EJ7" s="42"/>
+      <c r="EK7" s="42"/>
+      <c r="EL7" s="42"/>
+      <c r="EM7" s="42"/>
+      <c r="EN7" s="42"/>
+      <c r="EO7" s="43"/>
+      <c r="EP7" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="EQ7" s="41"/>
-      <c r="ER7" s="41"/>
-      <c r="ES7" s="41"/>
-      <c r="ET7" s="41"/>
-      <c r="EU7" s="41"/>
-      <c r="EV7" s="41"/>
-      <c r="EW7" s="41"/>
+      <c r="EQ7" s="42"/>
+      <c r="ER7" s="42"/>
+      <c r="ES7" s="42"/>
+      <c r="ET7" s="42"/>
+      <c r="EU7" s="42"/>
+      <c r="EV7" s="42"/>
+      <c r="EW7" s="42"/>
       <c r="EX7" s="32"/>
-      <c r="EY7" s="75" t="s">
+      <c r="EY7" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="EZ7" s="76"/>
-      <c r="FA7" s="76"/>
-      <c r="FB7" s="76"/>
-      <c r="FC7" s="76"/>
-      <c r="FD7" s="76"/>
-      <c r="FE7" s="77"/>
+      <c r="EZ7" s="77"/>
+      <c r="FA7" s="77"/>
+      <c r="FB7" s="77"/>
+      <c r="FC7" s="77"/>
+      <c r="FD7" s="77"/>
+      <c r="FE7" s="78"/>
       <c r="FF7" s="2" t="s">
         <v>75</v>
       </c>
@@ -4387,178 +4441,180 @@
       <c r="FH7" s="35"/>
       <c r="FI7" s="35"/>
       <c r="FJ7" s="36"/>
-      <c r="FK7" s="72" t="s">
+      <c r="FK7" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="FL7" s="73"/>
-      <c r="FM7" s="74"/>
-      <c r="FN7" s="40" t="s">
+      <c r="FL7" s="74"/>
+      <c r="FM7" s="75"/>
+      <c r="FN7" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="FO7" s="41"/>
-      <c r="FP7" s="41"/>
-      <c r="FQ7" s="41"/>
-      <c r="FR7" s="42"/>
-      <c r="FS7" s="40" t="s">
+      <c r="FO7" s="94"/>
+      <c r="FP7" s="42"/>
+      <c r="FQ7" s="42"/>
+      <c r="FR7" s="43"/>
+      <c r="FS7" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="FT7" s="41"/>
-      <c r="FU7" s="42"/>
-      <c r="FV7" s="43" t="s">
+      <c r="FT7" s="42"/>
+      <c r="FU7" s="43"/>
+      <c r="FV7" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="FW7" s="44"/>
-      <c r="FX7" s="44"/>
-      <c r="FY7" s="44"/>
-      <c r="FZ7" s="44"/>
-      <c r="GA7" s="45"/>
-      <c r="GB7" s="43" t="s">
+      <c r="FW7" s="45"/>
+      <c r="FX7" s="45"/>
+      <c r="FY7" s="45"/>
+      <c r="FZ7" s="45"/>
+      <c r="GA7" s="46"/>
+      <c r="GB7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="GC7" s="44"/>
-      <c r="GD7" s="44"/>
-      <c r="GE7" s="44"/>
-      <c r="GF7" s="44"/>
-      <c r="GG7" s="45"/>
-      <c r="GH7" s="40" t="s">
+      <c r="GC7" s="45"/>
+      <c r="GD7" s="45"/>
+      <c r="GE7" s="45"/>
+      <c r="GF7" s="45"/>
+      <c r="GG7" s="46"/>
+      <c r="GH7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="GI7" s="41"/>
-      <c r="GJ7" s="41"/>
-      <c r="GK7" s="42"/>
-      <c r="GL7" s="40" t="s">
+      <c r="GI7" s="42"/>
+      <c r="GJ7" s="42"/>
+      <c r="GK7" s="43"/>
+      <c r="GL7" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="GM7" s="41"/>
-      <c r="GN7" s="42"/>
-      <c r="GO7" s="43" t="s">
+      <c r="GM7" s="42"/>
+      <c r="GN7" s="43"/>
+      <c r="GO7" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="GP7" s="44"/>
-      <c r="GQ7" s="44"/>
-      <c r="GR7" s="44"/>
-      <c r="GS7" s="45"/>
+      <c r="GP7" s="45"/>
+      <c r="GQ7" s="45"/>
+      <c r="GR7" s="45"/>
+      <c r="GS7" s="46"/>
       <c r="GT7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="GU7" s="2"/>
-      <c r="GV7" s="40" t="s">
+      <c r="GV7" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="GW7" s="41"/>
-      <c r="GX7" s="41"/>
-      <c r="GY7" s="41"/>
-      <c r="GZ7" s="41"/>
-      <c r="HA7" s="42"/>
-      <c r="HB7" s="43" t="s">
+      <c r="GW7" s="42"/>
+      <c r="GX7" s="42"/>
+      <c r="GY7" s="42"/>
+      <c r="GZ7" s="42"/>
+      <c r="HA7" s="43"/>
+      <c r="HB7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="HC7" s="44"/>
-      <c r="HD7" s="44"/>
-      <c r="HE7" s="44"/>
-      <c r="HF7" s="44"/>
-      <c r="HG7" s="44"/>
-      <c r="HH7" s="44"/>
-      <c r="HI7" s="45"/>
+      <c r="HC7" s="45"/>
+      <c r="HD7" s="45"/>
+      <c r="HE7" s="45"/>
+      <c r="HF7" s="45"/>
+      <c r="HG7" s="45"/>
+      <c r="HH7" s="45"/>
+      <c r="HI7" s="46"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
       <c r="R8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U8" t="s">
-        <v>153</v>
-      </c>
-      <c r="X8" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="X8" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="78"/>
       <c r="AD8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>155</v>
+      </c>
+      <c r="CL8" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM8" s="69"/>
+      <c r="CN8" s="69"/>
+      <c r="CO8" s="69"/>
+      <c r="CP8" s="69"/>
+      <c r="CQ8" s="69"/>
+      <c r="CR8" s="69"/>
+      <c r="CS8" s="69"/>
+      <c r="CT8" s="69"/>
+      <c r="CU8" s="69"/>
+      <c r="CV8" s="69"/>
+      <c r="CW8" s="69"/>
+      <c r="CX8" s="69"/>
+      <c r="CY8" s="69"/>
+      <c r="CZ8" s="69"/>
+      <c r="DA8" s="69"/>
+      <c r="DB8" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="DC8" s="69"/>
+      <c r="DD8" s="69"/>
+      <c r="DE8" s="69"/>
+      <c r="DF8" s="69"/>
+      <c r="DG8" s="69"/>
+      <c r="DH8" s="69"/>
+      <c r="DI8" s="69"/>
+      <c r="DJ8" s="69"/>
+      <c r="DK8" s="69"/>
+      <c r="DL8" s="69"/>
+      <c r="DM8" s="69"/>
+      <c r="DN8" s="69"/>
+      <c r="DO8" s="69"/>
+      <c r="DP8" s="69"/>
+      <c r="DQ8" s="69"/>
+      <c r="DR8" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="DS8" s="69"/>
+      <c r="DT8" s="69"/>
+      <c r="DU8" s="69"/>
+      <c r="DV8" s="69"/>
+      <c r="DW8" s="69"/>
+      <c r="DX8" s="69"/>
+      <c r="DY8" s="69"/>
+      <c r="DZ8" s="69"/>
+      <c r="EA8" s="69"/>
+      <c r="EB8" s="69"/>
+      <c r="EC8" s="69"/>
+      <c r="ED8" s="69"/>
+      <c r="EE8" s="69"/>
+      <c r="EF8" s="69"/>
+      <c r="EG8" s="69"/>
+      <c r="FH8" t="s">
         <v>145</v>
       </c>
-      <c r="AL8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>156</v>
-      </c>
-      <c r="CL8" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="CM8" s="68"/>
-      <c r="CN8" s="68"/>
-      <c r="CO8" s="68"/>
-      <c r="CP8" s="68"/>
-      <c r="CQ8" s="68"/>
-      <c r="CR8" s="68"/>
-      <c r="CS8" s="68"/>
-      <c r="CT8" s="68"/>
-      <c r="CU8" s="68"/>
-      <c r="CV8" s="68"/>
-      <c r="CW8" s="68"/>
-      <c r="CX8" s="68"/>
-      <c r="CY8" s="68"/>
-      <c r="CZ8" s="68"/>
-      <c r="DA8" s="68"/>
-      <c r="DB8" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="DC8" s="68"/>
-      <c r="DD8" s="68"/>
-      <c r="DE8" s="68"/>
-      <c r="DF8" s="68"/>
-      <c r="DG8" s="68"/>
-      <c r="DH8" s="68"/>
-      <c r="DI8" s="68"/>
-      <c r="DJ8" s="68"/>
-      <c r="DK8" s="68"/>
-      <c r="DL8" s="68"/>
-      <c r="DM8" s="68"/>
-      <c r="DN8" s="68"/>
-      <c r="DO8" s="68"/>
-      <c r="DP8" s="68"/>
-      <c r="DQ8" s="68"/>
-      <c r="DR8" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="DS8" s="68"/>
-      <c r="DT8" s="68"/>
-      <c r="DU8" s="68"/>
-      <c r="DV8" s="68"/>
-      <c r="DW8" s="68"/>
-      <c r="DX8" s="68"/>
-      <c r="DY8" s="68"/>
-      <c r="DZ8" s="68"/>
-      <c r="EA8" s="68"/>
-      <c r="EB8" s="68"/>
-      <c r="EC8" s="68"/>
-      <c r="ED8" s="68"/>
-      <c r="EE8" s="68"/>
-      <c r="EF8" s="68"/>
-      <c r="EG8" s="68"/>
-      <c r="FH8" t="s">
-        <v>146</v>
-      </c>
+      <c r="FN8" s="95"/>
+      <c r="FO8" s="96"/>
       <c r="FV8" t="s">
+        <v>150</v>
+      </c>
+      <c r="GB8" t="s">
         <v>151</v>
-      </c>
-      <c r="GB8" t="s">
-        <v>152</v>
       </c>
       <c r="HI8" s="22"/>
     </row>
@@ -4566,184 +4622,184 @@
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="46" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="59" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="60"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="59" t="s">
+      <c r="S9" s="61"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="60"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="59" t="s">
+      <c r="V9" s="61"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="59" t="s">
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="59" t="s">
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="59" t="s">
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="60" t="s">
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="59" t="s">
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="BI9" s="60"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="60"/>
-      <c r="BL9" s="60"/>
-      <c r="BM9" s="61"/>
-      <c r="BN9" s="46" t="s">
+      <c r="BI9" s="61"/>
+      <c r="BJ9" s="61"/>
+      <c r="BK9" s="61"/>
+      <c r="BL9" s="61"/>
+      <c r="BM9" s="62"/>
+      <c r="BN9" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="BO9" s="47"/>
-      <c r="BP9" s="47"/>
-      <c r="BQ9" s="47"/>
-      <c r="BR9" s="47"/>
-      <c r="BS9" s="47"/>
-      <c r="BT9" s="47"/>
-      <c r="BU9" s="48"/>
-      <c r="BV9" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW9" s="47"/>
-      <c r="BX9" s="47"/>
-      <c r="BY9" s="47"/>
-      <c r="BZ9" s="47"/>
-      <c r="CA9" s="47"/>
-      <c r="CB9" s="47"/>
-      <c r="CC9" s="48"/>
-      <c r="CD9" s="59" t="s">
+      <c r="BO9" s="48"/>
+      <c r="BP9" s="48"/>
+      <c r="BQ9" s="48"/>
+      <c r="BR9" s="48"/>
+      <c r="BS9" s="48"/>
+      <c r="BT9" s="48"/>
+      <c r="BU9" s="49"/>
+      <c r="BV9" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="BW9" s="48"/>
+      <c r="BX9" s="48"/>
+      <c r="BY9" s="48"/>
+      <c r="BZ9" s="48"/>
+      <c r="CA9" s="48"/>
+      <c r="CB9" s="48"/>
+      <c r="CC9" s="49"/>
+      <c r="CD9" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="CE9" s="47"/>
-      <c r="CF9" s="47"/>
-      <c r="CG9" s="47"/>
-      <c r="CH9" s="47"/>
-      <c r="CI9" s="47"/>
-      <c r="CJ9" s="47"/>
-      <c r="CK9" s="48"/>
-      <c r="CL9" s="59" t="s">
+      <c r="CE9" s="48"/>
+      <c r="CF9" s="48"/>
+      <c r="CG9" s="48"/>
+      <c r="CH9" s="48"/>
+      <c r="CI9" s="48"/>
+      <c r="CJ9" s="48"/>
+      <c r="CK9" s="49"/>
+      <c r="CL9" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="CM9" s="47"/>
-      <c r="CN9" s="47"/>
-      <c r="CO9" s="47"/>
-      <c r="CP9" s="47"/>
-      <c r="CQ9" s="47"/>
-      <c r="CR9" s="47"/>
-      <c r="CS9" s="47"/>
-      <c r="CT9" s="47"/>
-      <c r="CU9" s="47"/>
-      <c r="CV9" s="47"/>
-      <c r="CW9" s="47"/>
-      <c r="CX9" s="47"/>
-      <c r="CY9" s="47"/>
-      <c r="CZ9" s="47"/>
-      <c r="DA9" s="48"/>
-      <c r="DB9" s="59" t="s">
+      <c r="CM9" s="48"/>
+      <c r="CN9" s="48"/>
+      <c r="CO9" s="48"/>
+      <c r="CP9" s="48"/>
+      <c r="CQ9" s="48"/>
+      <c r="CR9" s="48"/>
+      <c r="CS9" s="48"/>
+      <c r="CT9" s="48"/>
+      <c r="CU9" s="48"/>
+      <c r="CV9" s="48"/>
+      <c r="CW9" s="48"/>
+      <c r="CX9" s="48"/>
+      <c r="CY9" s="48"/>
+      <c r="CZ9" s="48"/>
+      <c r="DA9" s="49"/>
+      <c r="DB9" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="DC9" s="60"/>
-      <c r="DD9" s="60"/>
-      <c r="DE9" s="60"/>
-      <c r="DF9" s="60"/>
-      <c r="DG9" s="60"/>
-      <c r="DH9" s="60"/>
-      <c r="DI9" s="60"/>
-      <c r="DJ9" s="60"/>
-      <c r="DK9" s="60"/>
-      <c r="DL9" s="60"/>
-      <c r="DM9" s="60"/>
-      <c r="DN9" s="60"/>
-      <c r="DO9" s="60"/>
-      <c r="DP9" s="60"/>
-      <c r="DQ9" s="61"/>
-      <c r="DR9" s="59" t="s">
+      <c r="DC9" s="61"/>
+      <c r="DD9" s="61"/>
+      <c r="DE9" s="61"/>
+      <c r="DF9" s="61"/>
+      <c r="DG9" s="61"/>
+      <c r="DH9" s="61"/>
+      <c r="DI9" s="61"/>
+      <c r="DJ9" s="61"/>
+      <c r="DK9" s="61"/>
+      <c r="DL9" s="61"/>
+      <c r="DM9" s="61"/>
+      <c r="DN9" s="61"/>
+      <c r="DO9" s="61"/>
+      <c r="DP9" s="61"/>
+      <c r="DQ9" s="62"/>
+      <c r="DR9" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="DS9" s="60"/>
-      <c r="DT9" s="60"/>
-      <c r="DU9" s="60"/>
-      <c r="DV9" s="60"/>
-      <c r="DW9" s="60"/>
-      <c r="DX9" s="60"/>
-      <c r="DY9" s="60"/>
-      <c r="DZ9" s="60"/>
-      <c r="EA9" s="60"/>
-      <c r="EB9" s="60"/>
-      <c r="EC9" s="60"/>
-      <c r="ED9" s="60"/>
-      <c r="EE9" s="60"/>
-      <c r="EF9" s="60"/>
-      <c r="EG9" s="61"/>
-      <c r="EP9" s="59" t="s">
+      <c r="DS9" s="61"/>
+      <c r="DT9" s="61"/>
+      <c r="DU9" s="61"/>
+      <c r="DV9" s="61"/>
+      <c r="DW9" s="61"/>
+      <c r="DX9" s="61"/>
+      <c r="DY9" s="61"/>
+      <c r="DZ9" s="61"/>
+      <c r="EA9" s="61"/>
+      <c r="EB9" s="61"/>
+      <c r="EC9" s="61"/>
+      <c r="ED9" s="61"/>
+      <c r="EE9" s="61"/>
+      <c r="EF9" s="61"/>
+      <c r="EG9" s="62"/>
+      <c r="EP9" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="EQ9" s="60"/>
-      <c r="ER9" s="60"/>
-      <c r="ES9" s="60"/>
-      <c r="ET9" s="60"/>
-      <c r="EU9" s="60"/>
-      <c r="EV9" s="60"/>
-      <c r="EW9" s="61"/>
+      <c r="EQ9" s="61"/>
+      <c r="ER9" s="61"/>
+      <c r="ES9" s="61"/>
+      <c r="ET9" s="61"/>
+      <c r="EU9" s="61"/>
+      <c r="EV9" s="61"/>
+      <c r="EW9" s="62"/>
       <c r="EX9" s="24"/>
       <c r="EY9" s="24"/>
       <c r="EZ9" s="25"/>
@@ -4755,199 +4811,199 @@
       <c r="FJ9" t="s">
         <v>59</v>
       </c>
-      <c r="FN9" s="59" t="s">
+      <c r="FN9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="FO9" s="60"/>
-      <c r="FP9" s="60"/>
-      <c r="FQ9" s="60"/>
-      <c r="FR9" s="61"/>
+      <c r="FO9" s="64"/>
+      <c r="FP9" s="61"/>
+      <c r="FQ9" s="61"/>
+      <c r="FR9" s="62"/>
       <c r="FS9" s="15"/>
       <c r="FT9" s="15"/>
       <c r="FU9" s="16"/>
-      <c r="FV9" s="59" t="s">
+      <c r="FV9" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="FW9" s="47"/>
-      <c r="FX9" s="47"/>
-      <c r="FY9" s="47"/>
-      <c r="FZ9" s="47"/>
-      <c r="GA9" s="48"/>
-      <c r="GB9" s="59" t="s">
+      <c r="FW9" s="48"/>
+      <c r="FX9" s="48"/>
+      <c r="FY9" s="48"/>
+      <c r="FZ9" s="48"/>
+      <c r="GA9" s="49"/>
+      <c r="GB9" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="GC9" s="47"/>
-      <c r="GD9" s="47"/>
-      <c r="GE9" s="47"/>
-      <c r="GF9" s="47"/>
-      <c r="GG9" s="48"/>
-      <c r="GT9" s="59" t="s">
+      <c r="GC9" s="48"/>
+      <c r="GD9" s="48"/>
+      <c r="GE9" s="48"/>
+      <c r="GF9" s="48"/>
+      <c r="GG9" s="49"/>
+      <c r="GT9" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="GU9" s="60"/>
-      <c r="GV9" s="60"/>
-      <c r="GW9" s="60"/>
-      <c r="GX9" s="60"/>
-      <c r="GY9" s="60"/>
-      <c r="GZ9" s="60"/>
-      <c r="HA9" s="61"/>
-      <c r="HB9" s="59" t="s">
+      <c r="GU9" s="61"/>
+      <c r="GV9" s="61"/>
+      <c r="GW9" s="61"/>
+      <c r="GX9" s="61"/>
+      <c r="GY9" s="61"/>
+      <c r="GZ9" s="61"/>
+      <c r="HA9" s="62"/>
+      <c r="HB9" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="HC9" s="60"/>
-      <c r="HD9" s="60"/>
-      <c r="HE9" s="60"/>
-      <c r="HF9" s="60"/>
-      <c r="HG9" s="60"/>
-      <c r="HH9" s="60"/>
-      <c r="HI9" s="61"/>
+      <c r="HC9" s="61"/>
+      <c r="HD9" s="61"/>
+      <c r="HE9" s="61"/>
+      <c r="HF9" s="61"/>
+      <c r="HG9" s="61"/>
+      <c r="HH9" s="61"/>
+      <c r="HI9" s="62"/>
     </row>
     <row r="10" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="63"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="63"/>
-      <c r="AM10" s="63"/>
-      <c r="AN10" s="63"/>
-      <c r="AO10" s="63"/>
-      <c r="AP10" s="63"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="63"/>
-      <c r="AT10" s="63"/>
-      <c r="AU10" s="63"/>
-      <c r="AV10" s="63"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="63"/>
-      <c r="AZ10" s="63"/>
-      <c r="BA10" s="63"/>
-      <c r="BB10" s="63"/>
-      <c r="BC10" s="63"/>
-      <c r="BD10" s="63"/>
-      <c r="BE10" s="63"/>
-      <c r="BF10" s="63"/>
-      <c r="BG10" s="64"/>
-      <c r="BH10" s="62"/>
-      <c r="BI10" s="63"/>
-      <c r="BJ10" s="63"/>
-      <c r="BK10" s="63"/>
-      <c r="BL10" s="63"/>
-      <c r="BM10" s="64"/>
-      <c r="BN10" s="49"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
-      <c r="BQ10" s="50"/>
-      <c r="BR10" s="50"/>
-      <c r="BS10" s="50"/>
-      <c r="BT10" s="50"/>
-      <c r="BU10" s="51"/>
-      <c r="BV10" s="49"/>
-      <c r="BW10" s="50"/>
-      <c r="BX10" s="50"/>
-      <c r="BY10" s="50"/>
-      <c r="BZ10" s="50"/>
-      <c r="CA10" s="50"/>
-      <c r="CB10" s="50"/>
-      <c r="CC10" s="51"/>
-      <c r="CD10" s="49"/>
-      <c r="CE10" s="50"/>
-      <c r="CF10" s="50"/>
-      <c r="CG10" s="50"/>
-      <c r="CH10" s="50"/>
-      <c r="CI10" s="50"/>
-      <c r="CJ10" s="50"/>
-      <c r="CK10" s="51"/>
-      <c r="CL10" s="49"/>
-      <c r="CM10" s="50"/>
-      <c r="CN10" s="50"/>
-      <c r="CO10" s="50"/>
-      <c r="CP10" s="50"/>
-      <c r="CQ10" s="50"/>
-      <c r="CR10" s="50"/>
-      <c r="CS10" s="50"/>
-      <c r="CT10" s="50"/>
-      <c r="CU10" s="50"/>
-      <c r="CV10" s="50"/>
-      <c r="CW10" s="50"/>
-      <c r="CX10" s="50"/>
-      <c r="CY10" s="50"/>
-      <c r="CZ10" s="50"/>
-      <c r="DA10" s="51"/>
-      <c r="DB10" s="62"/>
-      <c r="DC10" s="63"/>
-      <c r="DD10" s="63"/>
-      <c r="DE10" s="63"/>
-      <c r="DF10" s="63"/>
-      <c r="DG10" s="63"/>
-      <c r="DH10" s="63"/>
-      <c r="DI10" s="63"/>
-      <c r="DJ10" s="63"/>
-      <c r="DK10" s="63"/>
-      <c r="DL10" s="63"/>
-      <c r="DM10" s="63"/>
-      <c r="DN10" s="63"/>
-      <c r="DO10" s="63"/>
-      <c r="DP10" s="63"/>
-      <c r="DQ10" s="64"/>
-      <c r="DR10" s="62"/>
-      <c r="DS10" s="63"/>
-      <c r="DT10" s="63"/>
-      <c r="DU10" s="63"/>
-      <c r="DV10" s="63"/>
-      <c r="DW10" s="63"/>
-      <c r="DX10" s="63"/>
-      <c r="DY10" s="63"/>
-      <c r="DZ10" s="63"/>
-      <c r="EA10" s="63"/>
-      <c r="EB10" s="63"/>
-      <c r="EC10" s="63"/>
-      <c r="ED10" s="63"/>
-      <c r="EE10" s="63"/>
-      <c r="EF10" s="63"/>
-      <c r="EG10" s="64"/>
-      <c r="EP10" s="62"/>
-      <c r="EQ10" s="63"/>
-      <c r="ER10" s="63"/>
-      <c r="ES10" s="63"/>
-      <c r="ET10" s="63"/>
-      <c r="EU10" s="63"/>
-      <c r="EV10" s="63"/>
-      <c r="EW10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="64"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="64"/>
+      <c r="BM10" s="65"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="51"/>
+      <c r="BP10" s="51"/>
+      <c r="BQ10" s="51"/>
+      <c r="BR10" s="51"/>
+      <c r="BS10" s="51"/>
+      <c r="BT10" s="51"/>
+      <c r="BU10" s="52"/>
+      <c r="BV10" s="50"/>
+      <c r="BW10" s="51"/>
+      <c r="BX10" s="51"/>
+      <c r="BY10" s="51"/>
+      <c r="BZ10" s="51"/>
+      <c r="CA10" s="51"/>
+      <c r="CB10" s="51"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="50"/>
+      <c r="CE10" s="51"/>
+      <c r="CF10" s="51"/>
+      <c r="CG10" s="51"/>
+      <c r="CH10" s="51"/>
+      <c r="CI10" s="51"/>
+      <c r="CJ10" s="51"/>
+      <c r="CK10" s="52"/>
+      <c r="CL10" s="50"/>
+      <c r="CM10" s="51"/>
+      <c r="CN10" s="51"/>
+      <c r="CO10" s="51"/>
+      <c r="CP10" s="51"/>
+      <c r="CQ10" s="51"/>
+      <c r="CR10" s="51"/>
+      <c r="CS10" s="51"/>
+      <c r="CT10" s="51"/>
+      <c r="CU10" s="51"/>
+      <c r="CV10" s="51"/>
+      <c r="CW10" s="51"/>
+      <c r="CX10" s="51"/>
+      <c r="CY10" s="51"/>
+      <c r="CZ10" s="51"/>
+      <c r="DA10" s="52"/>
+      <c r="DB10" s="63"/>
+      <c r="DC10" s="64"/>
+      <c r="DD10" s="64"/>
+      <c r="DE10" s="64"/>
+      <c r="DF10" s="64"/>
+      <c r="DG10" s="64"/>
+      <c r="DH10" s="64"/>
+      <c r="DI10" s="64"/>
+      <c r="DJ10" s="64"/>
+      <c r="DK10" s="64"/>
+      <c r="DL10" s="64"/>
+      <c r="DM10" s="64"/>
+      <c r="DN10" s="64"/>
+      <c r="DO10" s="64"/>
+      <c r="DP10" s="64"/>
+      <c r="DQ10" s="65"/>
+      <c r="DR10" s="63"/>
+      <c r="DS10" s="64"/>
+      <c r="DT10" s="64"/>
+      <c r="DU10" s="64"/>
+      <c r="DV10" s="64"/>
+      <c r="DW10" s="64"/>
+      <c r="DX10" s="64"/>
+      <c r="DY10" s="64"/>
+      <c r="DZ10" s="64"/>
+      <c r="EA10" s="64"/>
+      <c r="EB10" s="64"/>
+      <c r="EC10" s="64"/>
+      <c r="ED10" s="64"/>
+      <c r="EE10" s="64"/>
+      <c r="EF10" s="64"/>
+      <c r="EG10" s="65"/>
+      <c r="EP10" s="63"/>
+      <c r="EQ10" s="64"/>
+      <c r="ER10" s="64"/>
+      <c r="ES10" s="64"/>
+      <c r="ET10" s="64"/>
+      <c r="EU10" s="64"/>
+      <c r="EV10" s="64"/>
+      <c r="EW10" s="65"/>
       <c r="EX10" s="27"/>
       <c r="EY10" s="27"/>
       <c r="EZ10" s="14"/>
@@ -4959,189 +5015,189 @@
       <c r="FJ10" t="s">
         <v>75</v>
       </c>
-      <c r="FN10" s="62"/>
-      <c r="FO10" s="63"/>
-      <c r="FP10" s="63"/>
-      <c r="FQ10" s="63"/>
-      <c r="FR10" s="64"/>
+      <c r="FN10" s="63"/>
+      <c r="FO10" s="64"/>
+      <c r="FP10" s="64"/>
+      <c r="FQ10" s="64"/>
+      <c r="FR10" s="65"/>
       <c r="FS10" s="17"/>
       <c r="FT10" s="17"/>
       <c r="FU10" s="18"/>
-      <c r="FV10" s="49"/>
-      <c r="FW10" s="50"/>
-      <c r="FX10" s="50"/>
-      <c r="FY10" s="50"/>
-      <c r="FZ10" s="50"/>
-      <c r="GA10" s="51"/>
-      <c r="GB10" s="49"/>
-      <c r="GC10" s="50"/>
-      <c r="GD10" s="50"/>
-      <c r="GE10" s="50"/>
-      <c r="GF10" s="50"/>
-      <c r="GG10" s="51"/>
-      <c r="GT10" s="62"/>
-      <c r="GU10" s="63"/>
-      <c r="GV10" s="63"/>
-      <c r="GW10" s="63"/>
-      <c r="GX10" s="63"/>
-      <c r="GY10" s="63"/>
-      <c r="GZ10" s="63"/>
-      <c r="HA10" s="64"/>
-      <c r="HB10" s="62"/>
-      <c r="HC10" s="63"/>
-      <c r="HD10" s="63"/>
-      <c r="HE10" s="63"/>
-      <c r="HF10" s="63"/>
-      <c r="HG10" s="63"/>
-      <c r="HH10" s="63"/>
-      <c r="HI10" s="64"/>
+      <c r="FV10" s="50"/>
+      <c r="FW10" s="51"/>
+      <c r="FX10" s="51"/>
+      <c r="FY10" s="51"/>
+      <c r="FZ10" s="51"/>
+      <c r="GA10" s="52"/>
+      <c r="GB10" s="50"/>
+      <c r="GC10" s="51"/>
+      <c r="GD10" s="51"/>
+      <c r="GE10" s="51"/>
+      <c r="GF10" s="51"/>
+      <c r="GG10" s="52"/>
+      <c r="GT10" s="63"/>
+      <c r="GU10" s="64"/>
+      <c r="GV10" s="64"/>
+      <c r="GW10" s="64"/>
+      <c r="GX10" s="64"/>
+      <c r="GY10" s="64"/>
+      <c r="GZ10" s="64"/>
+      <c r="HA10" s="65"/>
+      <c r="HB10" s="63"/>
+      <c r="HC10" s="64"/>
+      <c r="HD10" s="64"/>
+      <c r="HE10" s="64"/>
+      <c r="HF10" s="64"/>
+      <c r="HG10" s="64"/>
+      <c r="HH10" s="64"/>
+      <c r="HI10" s="65"/>
     </row>
     <row r="11" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="63"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63"/>
-      <c r="AJ11" s="63"/>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="63"/>
-      <c r="AM11" s="63"/>
-      <c r="AN11" s="63"/>
-      <c r="AO11" s="63"/>
-      <c r="AP11" s="63"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="63"/>
-      <c r="AT11" s="63"/>
-      <c r="AU11" s="63"/>
-      <c r="AV11" s="63"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="63"/>
-      <c r="AY11" s="63"/>
-      <c r="AZ11" s="63"/>
-      <c r="BA11" s="63"/>
-      <c r="BB11" s="63"/>
-      <c r="BC11" s="63"/>
-      <c r="BD11" s="63"/>
-      <c r="BE11" s="63"/>
-      <c r="BF11" s="63"/>
-      <c r="BG11" s="64"/>
-      <c r="BH11" s="62"/>
-      <c r="BI11" s="63"/>
-      <c r="BJ11" s="63"/>
-      <c r="BK11" s="63"/>
-      <c r="BL11" s="63"/>
-      <c r="BM11" s="64"/>
-      <c r="BN11" s="49"/>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="50"/>
-      <c r="BQ11" s="50"/>
-      <c r="BR11" s="50"/>
-      <c r="BS11" s="50"/>
-      <c r="BT11" s="50"/>
-      <c r="BU11" s="51"/>
-      <c r="BV11" s="49"/>
-      <c r="BW11" s="50"/>
-      <c r="BX11" s="50"/>
-      <c r="BY11" s="50"/>
-      <c r="BZ11" s="50"/>
-      <c r="CA11" s="50"/>
-      <c r="CB11" s="50"/>
-      <c r="CC11" s="51"/>
-      <c r="CD11" s="49"/>
-      <c r="CE11" s="50"/>
-      <c r="CF11" s="50"/>
-      <c r="CG11" s="50"/>
-      <c r="CH11" s="50"/>
-      <c r="CI11" s="50"/>
-      <c r="CJ11" s="50"/>
-      <c r="CK11" s="51"/>
-      <c r="CL11" s="49"/>
-      <c r="CM11" s="50"/>
-      <c r="CN11" s="50"/>
-      <c r="CO11" s="50"/>
-      <c r="CP11" s="50"/>
-      <c r="CQ11" s="50"/>
-      <c r="CR11" s="50"/>
-      <c r="CS11" s="50"/>
-      <c r="CT11" s="50"/>
-      <c r="CU11" s="50"/>
-      <c r="CV11" s="50"/>
-      <c r="CW11" s="50"/>
-      <c r="CX11" s="50"/>
-      <c r="CY11" s="50"/>
-      <c r="CZ11" s="50"/>
-      <c r="DA11" s="51"/>
-      <c r="DB11" s="62"/>
-      <c r="DC11" s="63"/>
-      <c r="DD11" s="63"/>
-      <c r="DE11" s="63"/>
-      <c r="DF11" s="63"/>
-      <c r="DG11" s="63"/>
-      <c r="DH11" s="63"/>
-      <c r="DI11" s="63"/>
-      <c r="DJ11" s="63"/>
-      <c r="DK11" s="63"/>
-      <c r="DL11" s="63"/>
-      <c r="DM11" s="63"/>
-      <c r="DN11" s="63"/>
-      <c r="DO11" s="63"/>
-      <c r="DP11" s="63"/>
-      <c r="DQ11" s="64"/>
-      <c r="DR11" s="62"/>
-      <c r="DS11" s="63"/>
-      <c r="DT11" s="63"/>
-      <c r="DU11" s="63"/>
-      <c r="DV11" s="63"/>
-      <c r="DW11" s="63"/>
-      <c r="DX11" s="63"/>
-      <c r="DY11" s="63"/>
-      <c r="DZ11" s="63"/>
-      <c r="EA11" s="63"/>
-      <c r="EB11" s="63"/>
-      <c r="EC11" s="63"/>
-      <c r="ED11" s="63"/>
-      <c r="EE11" s="63"/>
-      <c r="EF11" s="63"/>
-      <c r="EG11" s="64"/>
-      <c r="EP11" s="62"/>
-      <c r="EQ11" s="63"/>
-      <c r="ER11" s="63"/>
-      <c r="ES11" s="63"/>
-      <c r="ET11" s="63"/>
-      <c r="EU11" s="63"/>
-      <c r="EV11" s="63"/>
-      <c r="EW11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="65"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="65"/>
+      <c r="BN11" s="50"/>
+      <c r="BO11" s="51"/>
+      <c r="BP11" s="51"/>
+      <c r="BQ11" s="51"/>
+      <c r="BR11" s="51"/>
+      <c r="BS11" s="51"/>
+      <c r="BT11" s="51"/>
+      <c r="BU11" s="52"/>
+      <c r="BV11" s="50"/>
+      <c r="BW11" s="51"/>
+      <c r="BX11" s="51"/>
+      <c r="BY11" s="51"/>
+      <c r="BZ11" s="51"/>
+      <c r="CA11" s="51"/>
+      <c r="CB11" s="51"/>
+      <c r="CC11" s="52"/>
+      <c r="CD11" s="50"/>
+      <c r="CE11" s="51"/>
+      <c r="CF11" s="51"/>
+      <c r="CG11" s="51"/>
+      <c r="CH11" s="51"/>
+      <c r="CI11" s="51"/>
+      <c r="CJ11" s="51"/>
+      <c r="CK11" s="52"/>
+      <c r="CL11" s="50"/>
+      <c r="CM11" s="51"/>
+      <c r="CN11" s="51"/>
+      <c r="CO11" s="51"/>
+      <c r="CP11" s="51"/>
+      <c r="CQ11" s="51"/>
+      <c r="CR11" s="51"/>
+      <c r="CS11" s="51"/>
+      <c r="CT11" s="51"/>
+      <c r="CU11" s="51"/>
+      <c r="CV11" s="51"/>
+      <c r="CW11" s="51"/>
+      <c r="CX11" s="51"/>
+      <c r="CY11" s="51"/>
+      <c r="CZ11" s="51"/>
+      <c r="DA11" s="52"/>
+      <c r="DB11" s="63"/>
+      <c r="DC11" s="64"/>
+      <c r="DD11" s="64"/>
+      <c r="DE11" s="64"/>
+      <c r="DF11" s="64"/>
+      <c r="DG11" s="64"/>
+      <c r="DH11" s="64"/>
+      <c r="DI11" s="64"/>
+      <c r="DJ11" s="64"/>
+      <c r="DK11" s="64"/>
+      <c r="DL11" s="64"/>
+      <c r="DM11" s="64"/>
+      <c r="DN11" s="64"/>
+      <c r="DO11" s="64"/>
+      <c r="DP11" s="64"/>
+      <c r="DQ11" s="65"/>
+      <c r="DR11" s="63"/>
+      <c r="DS11" s="64"/>
+      <c r="DT11" s="64"/>
+      <c r="DU11" s="64"/>
+      <c r="DV11" s="64"/>
+      <c r="DW11" s="64"/>
+      <c r="DX11" s="64"/>
+      <c r="DY11" s="64"/>
+      <c r="DZ11" s="64"/>
+      <c r="EA11" s="64"/>
+      <c r="EB11" s="64"/>
+      <c r="EC11" s="64"/>
+      <c r="ED11" s="64"/>
+      <c r="EE11" s="64"/>
+      <c r="EF11" s="64"/>
+      <c r="EG11" s="65"/>
+      <c r="EP11" s="63"/>
+      <c r="EQ11" s="64"/>
+      <c r="ER11" s="64"/>
+      <c r="ES11" s="64"/>
+      <c r="ET11" s="64"/>
+      <c r="EU11" s="64"/>
+      <c r="EV11" s="64"/>
+      <c r="EW11" s="65"/>
       <c r="EX11" s="27"/>
       <c r="EY11" s="27"/>
       <c r="EZ11" s="14"/>
@@ -5150,189 +5206,195 @@
       <c r="FC11" s="14"/>
       <c r="FD11" s="14"/>
       <c r="FE11" s="28"/>
-      <c r="FN11" s="62"/>
-      <c r="FO11" s="63"/>
-      <c r="FP11" s="63"/>
-      <c r="FQ11" s="63"/>
-      <c r="FR11" s="64"/>
+      <c r="FN11" s="63"/>
+      <c r="FO11" s="64"/>
+      <c r="FP11" s="64"/>
+      <c r="FQ11" s="64"/>
+      <c r="FR11" s="65"/>
       <c r="FS11" s="17"/>
       <c r="FT11" s="17"/>
       <c r="FU11" s="18"/>
-      <c r="FV11" s="49"/>
-      <c r="FW11" s="50"/>
-      <c r="FX11" s="50"/>
-      <c r="FY11" s="50"/>
-      <c r="FZ11" s="50"/>
-      <c r="GA11" s="51"/>
-      <c r="GB11" s="49"/>
-      <c r="GC11" s="50"/>
-      <c r="GD11" s="50"/>
-      <c r="GE11" s="50"/>
-      <c r="GF11" s="50"/>
-      <c r="GG11" s="51"/>
-      <c r="GT11" s="62"/>
-      <c r="GU11" s="63"/>
-      <c r="GV11" s="63"/>
-      <c r="GW11" s="63"/>
-      <c r="GX11" s="63"/>
-      <c r="GY11" s="63"/>
-      <c r="GZ11" s="63"/>
-      <c r="HA11" s="64"/>
-      <c r="HB11" s="62"/>
-      <c r="HC11" s="63"/>
-      <c r="HD11" s="63"/>
-      <c r="HE11" s="63"/>
-      <c r="HF11" s="63"/>
-      <c r="HG11" s="63"/>
-      <c r="HH11" s="63"/>
-      <c r="HI11" s="64"/>
+      <c r="FV11" s="50"/>
+      <c r="FW11" s="51"/>
+      <c r="FX11" s="51"/>
+      <c r="FY11" s="51"/>
+      <c r="FZ11" s="51"/>
+      <c r="GA11" s="52"/>
+      <c r="GB11" s="50"/>
+      <c r="GC11" s="51"/>
+      <c r="GD11" s="51"/>
+      <c r="GE11" s="51"/>
+      <c r="GF11" s="51"/>
+      <c r="GG11" s="52"/>
+      <c r="GH11" t="s">
+        <v>170</v>
+      </c>
+      <c r="GM11" t="s">
+        <v>167</v>
+      </c>
+      <c r="GT11" s="63"/>
+      <c r="GU11" s="64"/>
+      <c r="GV11" s="64"/>
+      <c r="GW11" s="64"/>
+      <c r="GX11" s="64"/>
+      <c r="GY11" s="64"/>
+      <c r="GZ11" s="64"/>
+      <c r="HA11" s="65"/>
+      <c r="HB11" s="63"/>
+      <c r="HC11" s="64"/>
+      <c r="HD11" s="64"/>
+      <c r="HE11" s="64"/>
+      <c r="HF11" s="64"/>
+      <c r="HG11" s="64"/>
+      <c r="HH11" s="64"/>
+      <c r="HI11" s="65"/>
     </row>
     <row r="12" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="63"/>
-      <c r="AM12" s="63"/>
-      <c r="AN12" s="63"/>
-      <c r="AO12" s="63"/>
-      <c r="AP12" s="63"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="63"/>
-      <c r="AU12" s="63"/>
-      <c r="AV12" s="63"/>
-      <c r="AW12" s="64"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="63"/>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="63"/>
-      <c r="BC12" s="63"/>
-      <c r="BD12" s="63"/>
-      <c r="BE12" s="63"/>
-      <c r="BF12" s="63"/>
-      <c r="BG12" s="64"/>
-      <c r="BH12" s="62"/>
-      <c r="BI12" s="63"/>
-      <c r="BJ12" s="63"/>
-      <c r="BK12" s="63"/>
-      <c r="BL12" s="63"/>
-      <c r="BM12" s="64"/>
-      <c r="BN12" s="49"/>
-      <c r="BO12" s="50"/>
-      <c r="BP12" s="50"/>
-      <c r="BQ12" s="50"/>
-      <c r="BR12" s="50"/>
-      <c r="BS12" s="50"/>
-      <c r="BT12" s="50"/>
-      <c r="BU12" s="51"/>
-      <c r="BV12" s="49"/>
-      <c r="BW12" s="50"/>
-      <c r="BX12" s="50"/>
-      <c r="BY12" s="50"/>
-      <c r="BZ12" s="50"/>
-      <c r="CA12" s="50"/>
-      <c r="CB12" s="50"/>
-      <c r="CC12" s="51"/>
-      <c r="CD12" s="49"/>
-      <c r="CE12" s="50"/>
-      <c r="CF12" s="50"/>
-      <c r="CG12" s="50"/>
-      <c r="CH12" s="50"/>
-      <c r="CI12" s="50"/>
-      <c r="CJ12" s="50"/>
-      <c r="CK12" s="51"/>
-      <c r="CL12" s="49"/>
-      <c r="CM12" s="50"/>
-      <c r="CN12" s="50"/>
-      <c r="CO12" s="50"/>
-      <c r="CP12" s="50"/>
-      <c r="CQ12" s="50"/>
-      <c r="CR12" s="50"/>
-      <c r="CS12" s="50"/>
-      <c r="CT12" s="50"/>
-      <c r="CU12" s="50"/>
-      <c r="CV12" s="50"/>
-      <c r="CW12" s="50"/>
-      <c r="CX12" s="50"/>
-      <c r="CY12" s="50"/>
-      <c r="CZ12" s="50"/>
-      <c r="DA12" s="51"/>
-      <c r="DB12" s="62"/>
-      <c r="DC12" s="63"/>
-      <c r="DD12" s="63"/>
-      <c r="DE12" s="63"/>
-      <c r="DF12" s="63"/>
-      <c r="DG12" s="63"/>
-      <c r="DH12" s="63"/>
-      <c r="DI12" s="63"/>
-      <c r="DJ12" s="63"/>
-      <c r="DK12" s="63"/>
-      <c r="DL12" s="63"/>
-      <c r="DM12" s="63"/>
-      <c r="DN12" s="63"/>
-      <c r="DO12" s="63"/>
-      <c r="DP12" s="63"/>
-      <c r="DQ12" s="64"/>
-      <c r="DR12" s="62"/>
-      <c r="DS12" s="63"/>
-      <c r="DT12" s="63"/>
-      <c r="DU12" s="63"/>
-      <c r="DV12" s="63"/>
-      <c r="DW12" s="63"/>
-      <c r="DX12" s="63"/>
-      <c r="DY12" s="63"/>
-      <c r="DZ12" s="63"/>
-      <c r="EA12" s="63"/>
-      <c r="EB12" s="63"/>
-      <c r="EC12" s="63"/>
-      <c r="ED12" s="63"/>
-      <c r="EE12" s="63"/>
-      <c r="EF12" s="63"/>
-      <c r="EG12" s="64"/>
-      <c r="EP12" s="62"/>
-      <c r="EQ12" s="63"/>
-      <c r="ER12" s="63"/>
-      <c r="ES12" s="63"/>
-      <c r="ET12" s="63"/>
-      <c r="EU12" s="63"/>
-      <c r="EV12" s="63"/>
-      <c r="EW12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="64"/>
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="64"/>
+      <c r="BD12" s="64"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="64"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="63"/>
+      <c r="BI12" s="64"/>
+      <c r="BJ12" s="64"/>
+      <c r="BK12" s="64"/>
+      <c r="BL12" s="64"/>
+      <c r="BM12" s="65"/>
+      <c r="BN12" s="50"/>
+      <c r="BO12" s="51"/>
+      <c r="BP12" s="51"/>
+      <c r="BQ12" s="51"/>
+      <c r="BR12" s="51"/>
+      <c r="BS12" s="51"/>
+      <c r="BT12" s="51"/>
+      <c r="BU12" s="52"/>
+      <c r="BV12" s="50"/>
+      <c r="BW12" s="51"/>
+      <c r="BX12" s="51"/>
+      <c r="BY12" s="51"/>
+      <c r="BZ12" s="51"/>
+      <c r="CA12" s="51"/>
+      <c r="CB12" s="51"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="50"/>
+      <c r="CE12" s="51"/>
+      <c r="CF12" s="51"/>
+      <c r="CG12" s="51"/>
+      <c r="CH12" s="51"/>
+      <c r="CI12" s="51"/>
+      <c r="CJ12" s="51"/>
+      <c r="CK12" s="52"/>
+      <c r="CL12" s="50"/>
+      <c r="CM12" s="51"/>
+      <c r="CN12" s="51"/>
+      <c r="CO12" s="51"/>
+      <c r="CP12" s="51"/>
+      <c r="CQ12" s="51"/>
+      <c r="CR12" s="51"/>
+      <c r="CS12" s="51"/>
+      <c r="CT12" s="51"/>
+      <c r="CU12" s="51"/>
+      <c r="CV12" s="51"/>
+      <c r="CW12" s="51"/>
+      <c r="CX12" s="51"/>
+      <c r="CY12" s="51"/>
+      <c r="CZ12" s="51"/>
+      <c r="DA12" s="52"/>
+      <c r="DB12" s="63"/>
+      <c r="DC12" s="64"/>
+      <c r="DD12" s="64"/>
+      <c r="DE12" s="64"/>
+      <c r="DF12" s="64"/>
+      <c r="DG12" s="64"/>
+      <c r="DH12" s="64"/>
+      <c r="DI12" s="64"/>
+      <c r="DJ12" s="64"/>
+      <c r="DK12" s="64"/>
+      <c r="DL12" s="64"/>
+      <c r="DM12" s="64"/>
+      <c r="DN12" s="64"/>
+      <c r="DO12" s="64"/>
+      <c r="DP12" s="64"/>
+      <c r="DQ12" s="65"/>
+      <c r="DR12" s="63"/>
+      <c r="DS12" s="64"/>
+      <c r="DT12" s="64"/>
+      <c r="DU12" s="64"/>
+      <c r="DV12" s="64"/>
+      <c r="DW12" s="64"/>
+      <c r="DX12" s="64"/>
+      <c r="DY12" s="64"/>
+      <c r="DZ12" s="64"/>
+      <c r="EA12" s="64"/>
+      <c r="EB12" s="64"/>
+      <c r="EC12" s="64"/>
+      <c r="ED12" s="64"/>
+      <c r="EE12" s="64"/>
+      <c r="EF12" s="64"/>
+      <c r="EG12" s="65"/>
+      <c r="EP12" s="63"/>
+      <c r="EQ12" s="64"/>
+      <c r="ER12" s="64"/>
+      <c r="ES12" s="64"/>
+      <c r="ET12" s="64"/>
+      <c r="EU12" s="64"/>
+      <c r="EV12" s="64"/>
+      <c r="EW12" s="65"/>
       <c r="EX12" s="27"/>
       <c r="EY12" s="27"/>
       <c r="EZ12" s="14" t="s">
@@ -5343,189 +5405,192 @@
       <c r="FC12" s="14"/>
       <c r="FD12" s="14"/>
       <c r="FE12" s="28"/>
-      <c r="FN12" s="62"/>
-      <c r="FO12" s="63"/>
-      <c r="FP12" s="63"/>
-      <c r="FQ12" s="63"/>
-      <c r="FR12" s="64"/>
+      <c r="FN12" s="63"/>
+      <c r="FO12" s="64"/>
+      <c r="FP12" s="64"/>
+      <c r="FQ12" s="64"/>
+      <c r="FR12" s="65"/>
       <c r="FS12" s="17"/>
       <c r="FT12" s="17"/>
       <c r="FU12" s="18"/>
-      <c r="FV12" s="49"/>
-      <c r="FW12" s="50"/>
-      <c r="FX12" s="50"/>
-      <c r="FY12" s="50"/>
-      <c r="FZ12" s="50"/>
-      <c r="GA12" s="51"/>
-      <c r="GB12" s="49"/>
-      <c r="GC12" s="50"/>
-      <c r="GD12" s="50"/>
-      <c r="GE12" s="50"/>
-      <c r="GF12" s="50"/>
-      <c r="GG12" s="51"/>
-      <c r="GT12" s="62"/>
-      <c r="GU12" s="63"/>
-      <c r="GV12" s="63"/>
-      <c r="GW12" s="63"/>
-      <c r="GX12" s="63"/>
-      <c r="GY12" s="63"/>
-      <c r="GZ12" s="63"/>
-      <c r="HA12" s="64"/>
-      <c r="HB12" s="62"/>
-      <c r="HC12" s="63"/>
-      <c r="HD12" s="63"/>
-      <c r="HE12" s="63"/>
-      <c r="HF12" s="63"/>
-      <c r="HG12" s="63"/>
-      <c r="HH12" s="63"/>
-      <c r="HI12" s="64"/>
+      <c r="FV12" s="50"/>
+      <c r="FW12" s="51"/>
+      <c r="FX12" s="51"/>
+      <c r="FY12" s="51"/>
+      <c r="FZ12" s="51"/>
+      <c r="GA12" s="52"/>
+      <c r="GB12" s="50"/>
+      <c r="GC12" s="51"/>
+      <c r="GD12" s="51"/>
+      <c r="GE12" s="51"/>
+      <c r="GF12" s="51"/>
+      <c r="GG12" s="52"/>
+      <c r="GM12" t="s">
+        <v>167</v>
+      </c>
+      <c r="GT12" s="63"/>
+      <c r="GU12" s="64"/>
+      <c r="GV12" s="64"/>
+      <c r="GW12" s="64"/>
+      <c r="GX12" s="64"/>
+      <c r="GY12" s="64"/>
+      <c r="GZ12" s="64"/>
+      <c r="HA12" s="65"/>
+      <c r="HB12" s="63"/>
+      <c r="HC12" s="64"/>
+      <c r="HD12" s="64"/>
+      <c r="HE12" s="64"/>
+      <c r="HF12" s="64"/>
+      <c r="HG12" s="64"/>
+      <c r="HH12" s="64"/>
+      <c r="HI12" s="65"/>
     </row>
     <row r="13" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="63"/>
-      <c r="AM13" s="63"/>
-      <c r="AN13" s="63"/>
-      <c r="AO13" s="63"/>
-      <c r="AP13" s="63"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="62"/>
-      <c r="AS13" s="63"/>
-      <c r="AT13" s="63"/>
-      <c r="AU13" s="63"/>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="64"/>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="63"/>
-      <c r="AZ13" s="63"/>
-      <c r="BA13" s="63"/>
-      <c r="BB13" s="63"/>
-      <c r="BC13" s="63"/>
-      <c r="BD13" s="63"/>
-      <c r="BE13" s="63"/>
-      <c r="BF13" s="63"/>
-      <c r="BG13" s="64"/>
-      <c r="BH13" s="62"/>
-      <c r="BI13" s="63"/>
-      <c r="BJ13" s="63"/>
-      <c r="BK13" s="63"/>
-      <c r="BL13" s="63"/>
-      <c r="BM13" s="64"/>
-      <c r="BN13" s="49"/>
-      <c r="BO13" s="50"/>
-      <c r="BP13" s="50"/>
-      <c r="BQ13" s="50"/>
-      <c r="BR13" s="50"/>
-      <c r="BS13" s="50"/>
-      <c r="BT13" s="50"/>
-      <c r="BU13" s="51"/>
-      <c r="BV13" s="49"/>
-      <c r="BW13" s="50"/>
-      <c r="BX13" s="50"/>
-      <c r="BY13" s="50"/>
-      <c r="BZ13" s="50"/>
-      <c r="CA13" s="50"/>
-      <c r="CB13" s="50"/>
-      <c r="CC13" s="51"/>
-      <c r="CD13" s="49"/>
-      <c r="CE13" s="50"/>
-      <c r="CF13" s="50"/>
-      <c r="CG13" s="50"/>
-      <c r="CH13" s="50"/>
-      <c r="CI13" s="50"/>
-      <c r="CJ13" s="50"/>
-      <c r="CK13" s="51"/>
-      <c r="CL13" s="49"/>
-      <c r="CM13" s="50"/>
-      <c r="CN13" s="50"/>
-      <c r="CO13" s="50"/>
-      <c r="CP13" s="50"/>
-      <c r="CQ13" s="50"/>
-      <c r="CR13" s="50"/>
-      <c r="CS13" s="50"/>
-      <c r="CT13" s="50"/>
-      <c r="CU13" s="50"/>
-      <c r="CV13" s="50"/>
-      <c r="CW13" s="50"/>
-      <c r="CX13" s="50"/>
-      <c r="CY13" s="50"/>
-      <c r="CZ13" s="50"/>
-      <c r="DA13" s="51"/>
-      <c r="DB13" s="62"/>
-      <c r="DC13" s="63"/>
-      <c r="DD13" s="63"/>
-      <c r="DE13" s="63"/>
-      <c r="DF13" s="63"/>
-      <c r="DG13" s="63"/>
-      <c r="DH13" s="63"/>
-      <c r="DI13" s="63"/>
-      <c r="DJ13" s="63"/>
-      <c r="DK13" s="63"/>
-      <c r="DL13" s="63"/>
-      <c r="DM13" s="63"/>
-      <c r="DN13" s="63"/>
-      <c r="DO13" s="63"/>
-      <c r="DP13" s="63"/>
-      <c r="DQ13" s="64"/>
-      <c r="DR13" s="62"/>
-      <c r="DS13" s="63"/>
-      <c r="DT13" s="63"/>
-      <c r="DU13" s="63"/>
-      <c r="DV13" s="63"/>
-      <c r="DW13" s="63"/>
-      <c r="DX13" s="63"/>
-      <c r="DY13" s="63"/>
-      <c r="DZ13" s="63"/>
-      <c r="EA13" s="63"/>
-      <c r="EB13" s="63"/>
-      <c r="EC13" s="63"/>
-      <c r="ED13" s="63"/>
-      <c r="EE13" s="63"/>
-      <c r="EF13" s="63"/>
-      <c r="EG13" s="64"/>
-      <c r="EP13" s="62"/>
-      <c r="EQ13" s="63"/>
-      <c r="ER13" s="63"/>
-      <c r="ES13" s="63"/>
-      <c r="ET13" s="63"/>
-      <c r="EU13" s="63"/>
-      <c r="EV13" s="63"/>
-      <c r="EW13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="64"/>
+      <c r="BD13" s="64"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="64"/>
+      <c r="BG13" s="65"/>
+      <c r="BH13" s="63"/>
+      <c r="BI13" s="64"/>
+      <c r="BJ13" s="64"/>
+      <c r="BK13" s="64"/>
+      <c r="BL13" s="64"/>
+      <c r="BM13" s="65"/>
+      <c r="BN13" s="50"/>
+      <c r="BO13" s="51"/>
+      <c r="BP13" s="51"/>
+      <c r="BQ13" s="51"/>
+      <c r="BR13" s="51"/>
+      <c r="BS13" s="51"/>
+      <c r="BT13" s="51"/>
+      <c r="BU13" s="52"/>
+      <c r="BV13" s="50"/>
+      <c r="BW13" s="51"/>
+      <c r="BX13" s="51"/>
+      <c r="BY13" s="51"/>
+      <c r="BZ13" s="51"/>
+      <c r="CA13" s="51"/>
+      <c r="CB13" s="51"/>
+      <c r="CC13" s="52"/>
+      <c r="CD13" s="50"/>
+      <c r="CE13" s="51"/>
+      <c r="CF13" s="51"/>
+      <c r="CG13" s="51"/>
+      <c r="CH13" s="51"/>
+      <c r="CI13" s="51"/>
+      <c r="CJ13" s="51"/>
+      <c r="CK13" s="52"/>
+      <c r="CL13" s="50"/>
+      <c r="CM13" s="51"/>
+      <c r="CN13" s="51"/>
+      <c r="CO13" s="51"/>
+      <c r="CP13" s="51"/>
+      <c r="CQ13" s="51"/>
+      <c r="CR13" s="51"/>
+      <c r="CS13" s="51"/>
+      <c r="CT13" s="51"/>
+      <c r="CU13" s="51"/>
+      <c r="CV13" s="51"/>
+      <c r="CW13" s="51"/>
+      <c r="CX13" s="51"/>
+      <c r="CY13" s="51"/>
+      <c r="CZ13" s="51"/>
+      <c r="DA13" s="52"/>
+      <c r="DB13" s="63"/>
+      <c r="DC13" s="64"/>
+      <c r="DD13" s="64"/>
+      <c r="DE13" s="64"/>
+      <c r="DF13" s="64"/>
+      <c r="DG13" s="64"/>
+      <c r="DH13" s="64"/>
+      <c r="DI13" s="64"/>
+      <c r="DJ13" s="64"/>
+      <c r="DK13" s="64"/>
+      <c r="DL13" s="64"/>
+      <c r="DM13" s="64"/>
+      <c r="DN13" s="64"/>
+      <c r="DO13" s="64"/>
+      <c r="DP13" s="64"/>
+      <c r="DQ13" s="65"/>
+      <c r="DR13" s="63"/>
+      <c r="DS13" s="64"/>
+      <c r="DT13" s="64"/>
+      <c r="DU13" s="64"/>
+      <c r="DV13" s="64"/>
+      <c r="DW13" s="64"/>
+      <c r="DX13" s="64"/>
+      <c r="DY13" s="64"/>
+      <c r="DZ13" s="64"/>
+      <c r="EA13" s="64"/>
+      <c r="EB13" s="64"/>
+      <c r="EC13" s="64"/>
+      <c r="ED13" s="64"/>
+      <c r="EE13" s="64"/>
+      <c r="EF13" s="64"/>
+      <c r="EG13" s="65"/>
+      <c r="EP13" s="63"/>
+      <c r="EQ13" s="64"/>
+      <c r="ER13" s="64"/>
+      <c r="ES13" s="64"/>
+      <c r="ET13" s="64"/>
+      <c r="EU13" s="64"/>
+      <c r="EV13" s="64"/>
+      <c r="EW13" s="65"/>
       <c r="EX13" s="27"/>
       <c r="EY13" s="27"/>
       <c r="EZ13" s="14"/>
@@ -5537,189 +5602,192 @@
       <c r="FG13" t="s">
         <v>99</v>
       </c>
-      <c r="FN13" s="62"/>
-      <c r="FO13" s="63"/>
-      <c r="FP13" s="63"/>
-      <c r="FQ13" s="63"/>
-      <c r="FR13" s="64"/>
+      <c r="FN13" s="63"/>
+      <c r="FO13" s="64"/>
+      <c r="FP13" s="64"/>
+      <c r="FQ13" s="64"/>
+      <c r="FR13" s="65"/>
       <c r="FS13" s="17"/>
       <c r="FT13" s="17"/>
       <c r="FU13" s="18"/>
-      <c r="FV13" s="49"/>
-      <c r="FW13" s="50"/>
-      <c r="FX13" s="50"/>
-      <c r="FY13" s="50"/>
-      <c r="FZ13" s="50"/>
-      <c r="GA13" s="51"/>
-      <c r="GB13" s="49"/>
-      <c r="GC13" s="50"/>
-      <c r="GD13" s="50"/>
-      <c r="GE13" s="50"/>
-      <c r="GF13" s="50"/>
-      <c r="GG13" s="51"/>
-      <c r="GT13" s="62"/>
-      <c r="GU13" s="63"/>
-      <c r="GV13" s="63"/>
-      <c r="GW13" s="63"/>
-      <c r="GX13" s="63"/>
-      <c r="GY13" s="63"/>
-      <c r="GZ13" s="63"/>
-      <c r="HA13" s="64"/>
-      <c r="HB13" s="62"/>
-      <c r="HC13" s="63"/>
-      <c r="HD13" s="63"/>
-      <c r="HE13" s="63"/>
-      <c r="HF13" s="63"/>
-      <c r="HG13" s="63"/>
-      <c r="HH13" s="63"/>
-      <c r="HI13" s="64"/>
+      <c r="FV13" s="50"/>
+      <c r="FW13" s="51"/>
+      <c r="FX13" s="51"/>
+      <c r="FY13" s="51"/>
+      <c r="FZ13" s="51"/>
+      <c r="GA13" s="52"/>
+      <c r="GB13" s="50"/>
+      <c r="GC13" s="51"/>
+      <c r="GD13" s="51"/>
+      <c r="GE13" s="51"/>
+      <c r="GF13" s="51"/>
+      <c r="GG13" s="52"/>
+      <c r="GL13" t="s">
+        <v>168</v>
+      </c>
+      <c r="GT13" s="63"/>
+      <c r="GU13" s="64"/>
+      <c r="GV13" s="64"/>
+      <c r="GW13" s="64"/>
+      <c r="GX13" s="64"/>
+      <c r="GY13" s="64"/>
+      <c r="GZ13" s="64"/>
+      <c r="HA13" s="65"/>
+      <c r="HB13" s="63"/>
+      <c r="HC13" s="64"/>
+      <c r="HD13" s="64"/>
+      <c r="HE13" s="64"/>
+      <c r="HF13" s="64"/>
+      <c r="HG13" s="64"/>
+      <c r="HH13" s="64"/>
+      <c r="HI13" s="65"/>
     </row>
     <row r="14" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
-      <c r="BA14" s="66"/>
-      <c r="BB14" s="66"/>
-      <c r="BC14" s="66"/>
-      <c r="BD14" s="66"/>
-      <c r="BE14" s="66"/>
-      <c r="BF14" s="66"/>
-      <c r="BG14" s="67"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="66"/>
-      <c r="BJ14" s="66"/>
-      <c r="BK14" s="66"/>
-      <c r="BL14" s="66"/>
-      <c r="BM14" s="67"/>
-      <c r="BN14" s="52"/>
-      <c r="BO14" s="53"/>
-      <c r="BP14" s="53"/>
-      <c r="BQ14" s="53"/>
-      <c r="BR14" s="53"/>
-      <c r="BS14" s="53"/>
-      <c r="BT14" s="53"/>
-      <c r="BU14" s="54"/>
-      <c r="BV14" s="52"/>
-      <c r="BW14" s="53"/>
-      <c r="BX14" s="53"/>
-      <c r="BY14" s="53"/>
-      <c r="BZ14" s="53"/>
-      <c r="CA14" s="53"/>
-      <c r="CB14" s="53"/>
-      <c r="CC14" s="54"/>
-      <c r="CD14" s="52"/>
-      <c r="CE14" s="53"/>
-      <c r="CF14" s="53"/>
-      <c r="CG14" s="53"/>
-      <c r="CH14" s="53"/>
-      <c r="CI14" s="53"/>
-      <c r="CJ14" s="53"/>
-      <c r="CK14" s="54"/>
-      <c r="CL14" s="52"/>
-      <c r="CM14" s="53"/>
-      <c r="CN14" s="53"/>
-      <c r="CO14" s="53"/>
-      <c r="CP14" s="53"/>
-      <c r="CQ14" s="53"/>
-      <c r="CR14" s="53"/>
-      <c r="CS14" s="53"/>
-      <c r="CT14" s="53"/>
-      <c r="CU14" s="53"/>
-      <c r="CV14" s="53"/>
-      <c r="CW14" s="53"/>
-      <c r="CX14" s="53"/>
-      <c r="CY14" s="53"/>
-      <c r="CZ14" s="53"/>
-      <c r="DA14" s="54"/>
-      <c r="DB14" s="65"/>
-      <c r="DC14" s="66"/>
-      <c r="DD14" s="66"/>
-      <c r="DE14" s="66"/>
-      <c r="DF14" s="66"/>
-      <c r="DG14" s="66"/>
-      <c r="DH14" s="66"/>
-      <c r="DI14" s="66"/>
-      <c r="DJ14" s="66"/>
-      <c r="DK14" s="66"/>
-      <c r="DL14" s="66"/>
-      <c r="DM14" s="66"/>
-      <c r="DN14" s="66"/>
-      <c r="DO14" s="66"/>
-      <c r="DP14" s="66"/>
-      <c r="DQ14" s="67"/>
-      <c r="DR14" s="65"/>
-      <c r="DS14" s="66"/>
-      <c r="DT14" s="66"/>
-      <c r="DU14" s="66"/>
-      <c r="DV14" s="66"/>
-      <c r="DW14" s="66"/>
-      <c r="DX14" s="66"/>
-      <c r="DY14" s="66"/>
-      <c r="DZ14" s="66"/>
-      <c r="EA14" s="66"/>
-      <c r="EB14" s="66"/>
-      <c r="EC14" s="66"/>
-      <c r="ED14" s="66"/>
-      <c r="EE14" s="66"/>
-      <c r="EF14" s="66"/>
-      <c r="EG14" s="67"/>
-      <c r="EP14" s="65"/>
-      <c r="EQ14" s="66"/>
-      <c r="ER14" s="66"/>
-      <c r="ES14" s="66"/>
-      <c r="ET14" s="66"/>
-      <c r="EU14" s="66"/>
-      <c r="EV14" s="66"/>
-      <c r="EW14" s="67"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="67"/>
+      <c r="AJ14" s="67"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="67"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="67"/>
+      <c r="BB14" s="67"/>
+      <c r="BC14" s="67"/>
+      <c r="BD14" s="67"/>
+      <c r="BE14" s="67"/>
+      <c r="BF14" s="67"/>
+      <c r="BG14" s="68"/>
+      <c r="BH14" s="66"/>
+      <c r="BI14" s="67"/>
+      <c r="BJ14" s="67"/>
+      <c r="BK14" s="67"/>
+      <c r="BL14" s="67"/>
+      <c r="BM14" s="68"/>
+      <c r="BN14" s="53"/>
+      <c r="BO14" s="54"/>
+      <c r="BP14" s="54"/>
+      <c r="BQ14" s="54"/>
+      <c r="BR14" s="54"/>
+      <c r="BS14" s="54"/>
+      <c r="BT14" s="54"/>
+      <c r="BU14" s="55"/>
+      <c r="BV14" s="53"/>
+      <c r="BW14" s="54"/>
+      <c r="BX14" s="54"/>
+      <c r="BY14" s="54"/>
+      <c r="BZ14" s="54"/>
+      <c r="CA14" s="54"/>
+      <c r="CB14" s="54"/>
+      <c r="CC14" s="55"/>
+      <c r="CD14" s="53"/>
+      <c r="CE14" s="54"/>
+      <c r="CF14" s="54"/>
+      <c r="CG14" s="54"/>
+      <c r="CH14" s="54"/>
+      <c r="CI14" s="54"/>
+      <c r="CJ14" s="54"/>
+      <c r="CK14" s="55"/>
+      <c r="CL14" s="53"/>
+      <c r="CM14" s="54"/>
+      <c r="CN14" s="54"/>
+      <c r="CO14" s="54"/>
+      <c r="CP14" s="54"/>
+      <c r="CQ14" s="54"/>
+      <c r="CR14" s="54"/>
+      <c r="CS14" s="54"/>
+      <c r="CT14" s="54"/>
+      <c r="CU14" s="54"/>
+      <c r="CV14" s="54"/>
+      <c r="CW14" s="54"/>
+      <c r="CX14" s="54"/>
+      <c r="CY14" s="54"/>
+      <c r="CZ14" s="54"/>
+      <c r="DA14" s="55"/>
+      <c r="DB14" s="66"/>
+      <c r="DC14" s="67"/>
+      <c r="DD14" s="67"/>
+      <c r="DE14" s="67"/>
+      <c r="DF14" s="67"/>
+      <c r="DG14" s="67"/>
+      <c r="DH14" s="67"/>
+      <c r="DI14" s="67"/>
+      <c r="DJ14" s="67"/>
+      <c r="DK14" s="67"/>
+      <c r="DL14" s="67"/>
+      <c r="DM14" s="67"/>
+      <c r="DN14" s="67"/>
+      <c r="DO14" s="67"/>
+      <c r="DP14" s="67"/>
+      <c r="DQ14" s="68"/>
+      <c r="DR14" s="66"/>
+      <c r="DS14" s="67"/>
+      <c r="DT14" s="67"/>
+      <c r="DU14" s="67"/>
+      <c r="DV14" s="67"/>
+      <c r="DW14" s="67"/>
+      <c r="DX14" s="67"/>
+      <c r="DY14" s="67"/>
+      <c r="DZ14" s="67"/>
+      <c r="EA14" s="67"/>
+      <c r="EB14" s="67"/>
+      <c r="EC14" s="67"/>
+      <c r="ED14" s="67"/>
+      <c r="EE14" s="67"/>
+      <c r="EF14" s="67"/>
+      <c r="EG14" s="68"/>
+      <c r="EP14" s="66"/>
+      <c r="EQ14" s="67"/>
+      <c r="ER14" s="67"/>
+      <c r="ES14" s="67"/>
+      <c r="ET14" s="67"/>
+      <c r="EU14" s="67"/>
+      <c r="EV14" s="67"/>
+      <c r="EW14" s="68"/>
       <c r="EX14" s="29"/>
       <c r="EY14" s="29"/>
       <c r="EZ14" s="30"/>
@@ -5730,42 +5798,45 @@
       <c r="FC14" s="30"/>
       <c r="FD14" s="30"/>
       <c r="FE14" s="31"/>
-      <c r="FN14" s="65"/>
-      <c r="FO14" s="66"/>
-      <c r="FP14" s="66"/>
-      <c r="FQ14" s="66"/>
-      <c r="FR14" s="67"/>
+      <c r="FN14" s="66"/>
+      <c r="FO14" s="67"/>
+      <c r="FP14" s="67"/>
+      <c r="FQ14" s="67"/>
+      <c r="FR14" s="68"/>
       <c r="FS14" s="17"/>
       <c r="FT14" s="17"/>
       <c r="FU14" s="18"/>
-      <c r="FV14" s="52"/>
-      <c r="FW14" s="53"/>
-      <c r="FX14" s="53"/>
-      <c r="FY14" s="53"/>
-      <c r="FZ14" s="53"/>
-      <c r="GA14" s="54"/>
-      <c r="GB14" s="52"/>
-      <c r="GC14" s="53"/>
-      <c r="GD14" s="53"/>
-      <c r="GE14" s="53"/>
-      <c r="GF14" s="53"/>
-      <c r="GG14" s="54"/>
-      <c r="GT14" s="65"/>
-      <c r="GU14" s="66"/>
-      <c r="GV14" s="66"/>
-      <c r="GW14" s="66"/>
-      <c r="GX14" s="66"/>
-      <c r="GY14" s="66"/>
-      <c r="GZ14" s="66"/>
-      <c r="HA14" s="67"/>
-      <c r="HB14" s="65"/>
-      <c r="HC14" s="66"/>
-      <c r="HD14" s="66"/>
-      <c r="HE14" s="66"/>
-      <c r="HF14" s="66"/>
-      <c r="HG14" s="66"/>
-      <c r="HH14" s="66"/>
-      <c r="HI14" s="67"/>
+      <c r="FV14" s="53"/>
+      <c r="FW14" s="54"/>
+      <c r="FX14" s="54"/>
+      <c r="FY14" s="54"/>
+      <c r="FZ14" s="54"/>
+      <c r="GA14" s="55"/>
+      <c r="GB14" s="53"/>
+      <c r="GC14" s="54"/>
+      <c r="GD14" s="54"/>
+      <c r="GE14" s="54"/>
+      <c r="GF14" s="54"/>
+      <c r="GG14" s="55"/>
+      <c r="GN14" t="s">
+        <v>169</v>
+      </c>
+      <c r="GT14" s="66"/>
+      <c r="GU14" s="67"/>
+      <c r="GV14" s="67"/>
+      <c r="GW14" s="67"/>
+      <c r="GX14" s="67"/>
+      <c r="GY14" s="67"/>
+      <c r="GZ14" s="67"/>
+      <c r="HA14" s="68"/>
+      <c r="HB14" s="66"/>
+      <c r="HC14" s="67"/>
+      <c r="HD14" s="67"/>
+      <c r="HE14" s="67"/>
+      <c r="HF14" s="67"/>
+      <c r="HG14" s="67"/>
+      <c r="HH14" s="67"/>
+      <c r="HI14" s="68"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
@@ -5850,7 +5921,7 @@
       <c r="CB15" s="14"/>
       <c r="CC15" s="14"/>
       <c r="CD15" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="CE15" s="14"/>
       <c r="CF15" s="14"/>
@@ -5899,7 +5970,7 @@
       <c r="DQ15" s="17"/>
       <c r="DR15" s="17"/>
       <c r="DS15" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="DT15" s="17"/>
       <c r="DU15" s="17"/>
@@ -5956,7 +6027,9 @@
       <c r="FP15" s="17"/>
       <c r="FQ15" s="17"/>
       <c r="FR15" s="17"/>
-      <c r="FS15" s="20"/>
+      <c r="FS15" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="FT15" s="20"/>
       <c r="FU15" s="20"/>
       <c r="FV15" s="14"/>
@@ -5975,7 +6048,9 @@
       <c r="GI15" s="19"/>
       <c r="GJ15" s="19"/>
       <c r="GK15" s="19"/>
-      <c r="GL15" s="19"/>
+      <c r="GL15" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="GM15" s="19"/>
       <c r="GN15" s="19"/>
       <c r="GO15" s="19"/>
@@ -6002,35 +6077,35 @@
     </row>
     <row r="16" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
-      <c r="N16" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="CD16" s="87" t="s">
+      <c r="N16" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="CD16" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="CE16" s="88"/>
-      <c r="CF16" s="88"/>
-      <c r="CG16" s="88"/>
-      <c r="CH16" s="88"/>
-      <c r="CI16" s="88"/>
-      <c r="CJ16" s="88"/>
-      <c r="CK16" s="88"/>
+      <c r="CE16" s="89"/>
+      <c r="CF16" s="89"/>
+      <c r="CG16" s="89"/>
+      <c r="CH16" s="89"/>
+      <c r="CI16" s="89"/>
+      <c r="CJ16" s="89"/>
+      <c r="CK16" s="89"/>
       <c r="DS16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="FA16" t="s">
         <v>126</v>
@@ -6038,147 +6113,162 @@
       <c r="FG16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="FS16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="CD17" s="88"/>
-      <c r="CE17" s="88"/>
-      <c r="CF17" s="88"/>
-      <c r="CG17" s="88"/>
-      <c r="CH17" s="88"/>
-      <c r="CI17" s="88"/>
-      <c r="CJ17" s="88"/>
-      <c r="CK17" s="88"/>
+      <c r="N17" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="CD17" s="89"/>
+      <c r="CE17" s="89"/>
+      <c r="CF17" s="89"/>
+      <c r="CG17" s="89"/>
+      <c r="CH17" s="89"/>
+      <c r="CI17" s="89"/>
+      <c r="CJ17" s="89"/>
+      <c r="CK17" s="89"/>
+      <c r="DN17" t="s">
+        <v>178</v>
+      </c>
       <c r="EC17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="FG17" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="FS17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="CD18" s="88"/>
-      <c r="CE18" s="88"/>
-      <c r="CF18" s="88"/>
-      <c r="CG18" s="88"/>
-      <c r="CH18" s="88"/>
-      <c r="CI18" s="88"/>
-      <c r="CJ18" s="88"/>
-      <c r="CK18" s="88"/>
+      <c r="N18" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="CD18" s="89"/>
+      <c r="CE18" s="89"/>
+      <c r="CF18" s="89"/>
+      <c r="CG18" s="89"/>
+      <c r="CH18" s="89"/>
+      <c r="CI18" s="89"/>
+      <c r="CJ18" s="89"/>
+      <c r="CK18" s="89"/>
+      <c r="CL18" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM18" s="91"/>
+      <c r="CN18" s="91"/>
+      <c r="CO18" s="92"/>
       <c r="EC18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="EY18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:164" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="CD19" s="88"/>
-      <c r="CE19" s="88"/>
-      <c r="CF19" s="88"/>
-      <c r="CG19" s="88"/>
-      <c r="CH19" s="88"/>
-      <c r="CI19" s="88"/>
-      <c r="CJ19" s="88"/>
-      <c r="CK19" s="88"/>
+      <c r="N19" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="CD19" s="89"/>
+      <c r="CE19" s="89"/>
+      <c r="CF19" s="89"/>
+      <c r="CG19" s="89"/>
+      <c r="CH19" s="89"/>
+      <c r="CI19" s="89"/>
+      <c r="CJ19" s="89"/>
+      <c r="CK19" s="89"/>
       <c r="EC19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="FG19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:164" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
-      <c r="N20" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="CD20" s="88"/>
-      <c r="CE20" s="88"/>
-      <c r="CF20" s="88"/>
-      <c r="CG20" s="88"/>
-      <c r="CH20" s="88"/>
-      <c r="CI20" s="88"/>
-      <c r="CJ20" s="88"/>
-      <c r="CK20" s="88"/>
+      <c r="N20" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="CD20" s="89"/>
+      <c r="CE20" s="89"/>
+      <c r="CF20" s="89"/>
+      <c r="CG20" s="89"/>
+      <c r="CH20" s="89"/>
+      <c r="CI20" s="89"/>
+      <c r="CJ20" s="89"/>
+      <c r="CK20" s="89"/>
       <c r="FG20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:164" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="E21" t="s">
         <v>122</v>
@@ -6189,36 +6279,42 @@
       <c r="H21" t="s">
         <v>86</v>
       </c>
-      <c r="N21" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="CD21" s="88"/>
-      <c r="CE21" s="88"/>
-      <c r="CF21" s="88"/>
-      <c r="CG21" s="88"/>
-      <c r="CH21" s="88"/>
-      <c r="CI21" s="88"/>
-      <c r="CJ21" s="88"/>
-      <c r="CK21" s="88"/>
+      <c r="N21" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="CD21" s="89"/>
+      <c r="CE21" s="89"/>
+      <c r="CF21" s="89"/>
+      <c r="CG21" s="89"/>
+      <c r="CH21" s="89"/>
+      <c r="CI21" s="89"/>
+      <c r="CJ21" s="89"/>
+      <c r="CK21" s="89"/>
+      <c r="EY21" t="s">
+        <v>173</v>
+      </c>
       <c r="FG21" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="FS21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="E22">
         <v>5972</v>
@@ -6238,36 +6334,36 @@
         <f>DEC2HEX(G22+$F$22)</f>
         <v>5972</v>
       </c>
-      <c r="N22" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="CD22" s="88"/>
-      <c r="CE22" s="88"/>
-      <c r="CF22" s="88"/>
-      <c r="CG22" s="88"/>
-      <c r="CH22" s="88"/>
-      <c r="CI22" s="88"/>
-      <c r="CJ22" s="88"/>
-      <c r="CK22" s="88"/>
+      <c r="N22" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="CD22" s="89"/>
+      <c r="CE22" s="89"/>
+      <c r="CF22" s="89"/>
+      <c r="CG22" s="89"/>
+      <c r="CH22" s="89"/>
+      <c r="CI22" s="89"/>
+      <c r="CJ22" s="89"/>
+      <c r="CK22" s="89"/>
       <c r="FH22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:164" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="G23">
         <v>1</v>
@@ -6280,36 +6376,36 @@
         <f t="shared" ref="I23:I48" si="41">DEC2HEX(G23+$F$22)</f>
         <v>5973</v>
       </c>
-      <c r="N23" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="CD23" s="88"/>
-      <c r="CE23" s="88"/>
-      <c r="CF23" s="88"/>
-      <c r="CG23" s="88"/>
-      <c r="CH23" s="88"/>
-      <c r="CI23" s="88"/>
-      <c r="CJ23" s="88"/>
-      <c r="CK23" s="88"/>
+      <c r="N23" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="CD23" s="89"/>
+      <c r="CE23" s="89"/>
+      <c r="CF23" s="89"/>
+      <c r="CG23" s="89"/>
+      <c r="CH23" s="89"/>
+      <c r="CI23" s="89"/>
+      <c r="CJ23" s="89"/>
+      <c r="CK23" s="89"/>
       <c r="FH23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:164" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="G24">
         <v>2</v>
@@ -6322,16 +6418,19 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="88"/>
-      <c r="CE24" s="88"/>
-      <c r="CF24" s="88"/>
-      <c r="CG24" s="88"/>
-      <c r="CH24" s="88"/>
-      <c r="CI24" s="88"/>
-      <c r="CJ24" s="88"/>
-      <c r="CK24" s="88"/>
-    </row>
-    <row r="25" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="CD24" s="89"/>
+      <c r="CE24" s="89"/>
+      <c r="CF24" s="89"/>
+      <c r="CG24" s="89"/>
+      <c r="CH24" s="89"/>
+      <c r="CI24" s="89"/>
+      <c r="CJ24" s="89"/>
+      <c r="CK24" s="89"/>
+      <c r="EX24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="G25">
         <v>3</v>
@@ -6344,16 +6443,19 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="88"/>
-      <c r="CE25" s="88"/>
-      <c r="CF25" s="88"/>
-      <c r="CG25" s="88"/>
-      <c r="CH25" s="88"/>
-      <c r="CI25" s="88"/>
-      <c r="CJ25" s="88"/>
-      <c r="CK25" s="88"/>
-    </row>
-    <row r="26" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="CD25" s="89"/>
+      <c r="CE25" s="89"/>
+      <c r="CF25" s="89"/>
+      <c r="CG25" s="89"/>
+      <c r="CH25" s="89"/>
+      <c r="CI25" s="89"/>
+      <c r="CJ25" s="89"/>
+      <c r="CK25" s="89"/>
+      <c r="EX25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="G26">
         <v>4</v>
@@ -6366,16 +6468,16 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="88"/>
-      <c r="CE26" s="88"/>
-      <c r="CF26" s="88"/>
-      <c r="CG26" s="88"/>
-      <c r="CH26" s="88"/>
-      <c r="CI26" s="88"/>
-      <c r="CJ26" s="88"/>
-      <c r="CK26" s="88"/>
-    </row>
-    <row r="27" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="CD26" s="89"/>
+      <c r="CE26" s="89"/>
+      <c r="CF26" s="89"/>
+      <c r="CG26" s="89"/>
+      <c r="CH26" s="89"/>
+      <c r="CI26" s="89"/>
+      <c r="CJ26" s="89"/>
+      <c r="CK26" s="89"/>
+    </row>
+    <row r="27" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="G27">
         <v>5</v>
@@ -6388,16 +6490,16 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="88"/>
-      <c r="CE27" s="88"/>
-      <c r="CF27" s="88"/>
-      <c r="CG27" s="88"/>
-      <c r="CH27" s="88"/>
-      <c r="CI27" s="88"/>
-      <c r="CJ27" s="88"/>
-      <c r="CK27" s="88"/>
-    </row>
-    <row r="28" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="CD27" s="89"/>
+      <c r="CE27" s="89"/>
+      <c r="CF27" s="89"/>
+      <c r="CG27" s="89"/>
+      <c r="CH27" s="89"/>
+      <c r="CI27" s="89"/>
+      <c r="CJ27" s="89"/>
+      <c r="CK27" s="89"/>
+    </row>
+    <row r="28" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="G28">
         <v>6</v>
@@ -6410,16 +6512,16 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="88"/>
-      <c r="CE28" s="88"/>
-      <c r="CF28" s="88"/>
-      <c r="CG28" s="88"/>
-      <c r="CH28" s="88"/>
-      <c r="CI28" s="88"/>
-      <c r="CJ28" s="88"/>
-      <c r="CK28" s="88"/>
-    </row>
-    <row r="29" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="CD28" s="89"/>
+      <c r="CE28" s="89"/>
+      <c r="CF28" s="89"/>
+      <c r="CG28" s="89"/>
+      <c r="CH28" s="89"/>
+      <c r="CI28" s="89"/>
+      <c r="CJ28" s="89"/>
+      <c r="CK28" s="89"/>
+    </row>
+    <row r="29" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="G29">
         <v>7</v>
@@ -6432,16 +6534,16 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="88"/>
-      <c r="CE29" s="88"/>
-      <c r="CF29" s="88"/>
-      <c r="CG29" s="88"/>
-      <c r="CH29" s="88"/>
-      <c r="CI29" s="88"/>
-      <c r="CJ29" s="88"/>
-      <c r="CK29" s="88"/>
-    </row>
-    <row r="30" spans="1:164" x14ac:dyDescent="0.45">
+      <c r="CD29" s="89"/>
+      <c r="CE29" s="89"/>
+      <c r="CF29" s="89"/>
+      <c r="CG29" s="89"/>
+      <c r="CH29" s="89"/>
+      <c r="CI29" s="89"/>
+      <c r="CJ29" s="89"/>
+      <c r="CK29" s="89"/>
+    </row>
+    <row r="30" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="G30">
         <v>8</v>
@@ -6458,7 +6560,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:164" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="G31">
         <v>9</v>
@@ -6472,7 +6574,7 @@
         <v>597B</v>
       </c>
     </row>
-    <row r="32" spans="1:164" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="G32">
         <v>10</v>
@@ -6615,7 +6717,7 @@
         <v>5983</v>
       </c>
       <c r="BL39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BZ39" t="s">
         <v>78</v>
@@ -6954,7 +7056,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1">
         <f>HEX2DEC("2654")</f>
@@ -7064,7 +7166,7 @@
         <v>105</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>104</v>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF03C38-1939-4D5A-BB02-9161850E6476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3EC84-66FE-47DB-A607-D6C73F63E585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="186">
   <si>
     <t>Static Object</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>animation</t>
-  </si>
-  <si>
-    <t>Unk0x15_4_1F</t>
   </si>
   <si>
     <t>Unk0x16_0_F</t>
@@ -586,20 +583,35 @@
     <t>seg007_17A2 uses npc_level to "reset" gtarg and goal?</t>
   </si>
   <si>
-    <t>I think animation is a larger size</t>
-  </si>
-  <si>
     <t>Set a lot</t>
   </si>
   <si>
     <t>Does this mean the npc has magic or a specia defence.</t>
+  </si>
+  <si>
+    <t>animation is the animation index from the animation associations</t>
+  </si>
+  <si>
+    <t>Unk0x15_7_80</t>
+  </si>
+  <si>
+    <t>still need to confirm the link to mr jaws</t>
+  </si>
+  <si>
+    <t>unk0f_c_f appears to be a lookup index into a table of values</t>
+  </si>
+  <si>
+    <t>that seem to be the charge value of the npcs attack.</t>
+  </si>
+  <si>
+    <t>most likely animation frame no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,8 +657,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,8 +687,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1046,13 +1070,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1068,10 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1097,32 +1166,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1151,6 +1227,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1160,55 +1254,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1229,39 +1290,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1581,10 +1682,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="EK11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="EU9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="EX25" sqref="EX25"/>
+      <selection pane="bottomRight" activeCell="FN20" sqref="FN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1614,1075 +1715,1075 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="80"/>
-      <c r="BC1" s="80"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="80"/>
-      <c r="BG1" s="80"/>
-      <c r="BH1" s="80"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="80"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="79" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
+      <c r="BJ1" s="77"/>
+      <c r="BK1" s="77"/>
+      <c r="BL1" s="77"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="80"/>
-      <c r="BP1" s="80"/>
-      <c r="BQ1" s="80"/>
-      <c r="BR1" s="80"/>
-      <c r="BS1" s="80"/>
-      <c r="BT1" s="80"/>
-      <c r="BU1" s="80"/>
-      <c r="BV1" s="80"/>
-      <c r="BW1" s="80"/>
-      <c r="BX1" s="80"/>
-      <c r="BY1" s="80"/>
-      <c r="BZ1" s="80"/>
-      <c r="CA1" s="80"/>
-      <c r="CB1" s="80"/>
-      <c r="CC1" s="80"/>
-      <c r="CD1" s="80"/>
-      <c r="CE1" s="80"/>
-      <c r="CF1" s="80"/>
-      <c r="CG1" s="80"/>
-      <c r="CH1" s="80"/>
-      <c r="CI1" s="80"/>
-      <c r="CJ1" s="80"/>
-      <c r="CK1" s="80"/>
-      <c r="CL1" s="80"/>
-      <c r="CM1" s="80"/>
-      <c r="CN1" s="80"/>
-      <c r="CO1" s="80"/>
-      <c r="CP1" s="80"/>
-      <c r="CQ1" s="80"/>
-      <c r="CR1" s="80"/>
-      <c r="CS1" s="80"/>
-      <c r="CT1" s="80"/>
-      <c r="CU1" s="80"/>
-      <c r="CV1" s="80"/>
-      <c r="CW1" s="80"/>
-      <c r="CX1" s="80"/>
-      <c r="CY1" s="80"/>
-      <c r="CZ1" s="80"/>
-      <c r="DA1" s="80"/>
-      <c r="DB1" s="80"/>
-      <c r="DC1" s="80"/>
-      <c r="DD1" s="80"/>
-      <c r="DE1" s="80"/>
-      <c r="DF1" s="80"/>
-      <c r="DG1" s="80"/>
-      <c r="DH1" s="80"/>
-      <c r="DI1" s="80"/>
-      <c r="DJ1" s="80"/>
-      <c r="DK1" s="80"/>
-      <c r="DL1" s="80"/>
-      <c r="DM1" s="80"/>
-      <c r="DN1" s="80"/>
-      <c r="DO1" s="80"/>
-      <c r="DP1" s="80"/>
-      <c r="DQ1" s="80"/>
-      <c r="DR1" s="80"/>
-      <c r="DS1" s="80"/>
-      <c r="DT1" s="80"/>
-      <c r="DU1" s="80"/>
-      <c r="DV1" s="80"/>
-      <c r="DW1" s="80"/>
-      <c r="DX1" s="80"/>
-      <c r="DY1" s="80"/>
-      <c r="DZ1" s="80"/>
-      <c r="EA1" s="80"/>
-      <c r="EB1" s="80"/>
-      <c r="EC1" s="80"/>
-      <c r="ED1" s="80"/>
-      <c r="EE1" s="80"/>
-      <c r="EF1" s="80"/>
-      <c r="EG1" s="80"/>
-      <c r="EH1" s="80"/>
-      <c r="EI1" s="80"/>
-      <c r="EJ1" s="80"/>
-      <c r="EK1" s="80"/>
-      <c r="EL1" s="80"/>
-      <c r="EM1" s="80"/>
-      <c r="EN1" s="80"/>
-      <c r="EO1" s="80"/>
-      <c r="EP1" s="80"/>
-      <c r="EQ1" s="80"/>
-      <c r="ER1" s="80"/>
-      <c r="ES1" s="80"/>
-      <c r="ET1" s="80"/>
-      <c r="EU1" s="80"/>
-      <c r="EV1" s="80"/>
-      <c r="EW1" s="80"/>
-      <c r="EX1" s="80"/>
-      <c r="EY1" s="80"/>
-      <c r="EZ1" s="80"/>
-      <c r="FA1" s="80"/>
-      <c r="FB1" s="80"/>
-      <c r="FC1" s="80"/>
-      <c r="FD1" s="80"/>
-      <c r="FE1" s="80"/>
-      <c r="FF1" s="80"/>
-      <c r="FG1" s="80"/>
-      <c r="FH1" s="80"/>
-      <c r="FI1" s="80"/>
-      <c r="FJ1" s="80"/>
-      <c r="FK1" s="80"/>
-      <c r="FL1" s="80"/>
-      <c r="FM1" s="80"/>
-      <c r="FN1" s="80"/>
-      <c r="FO1" s="80"/>
-      <c r="FP1" s="80"/>
-      <c r="FQ1" s="80"/>
-      <c r="FR1" s="80"/>
-      <c r="FS1" s="80"/>
-      <c r="FT1" s="80"/>
-      <c r="FU1" s="80"/>
-      <c r="FV1" s="80"/>
-      <c r="FW1" s="80"/>
-      <c r="FX1" s="80"/>
-      <c r="FY1" s="80"/>
-      <c r="FZ1" s="80"/>
-      <c r="GA1" s="80"/>
-      <c r="GB1" s="80"/>
-      <c r="GC1" s="80"/>
-      <c r="GD1" s="80"/>
-      <c r="GE1" s="80"/>
-      <c r="GF1" s="80"/>
-      <c r="GG1" s="80"/>
-      <c r="GH1" s="80"/>
-      <c r="GI1" s="80"/>
-      <c r="GJ1" s="80"/>
-      <c r="GK1" s="80"/>
-      <c r="GL1" s="80"/>
-      <c r="GM1" s="80"/>
-      <c r="GN1" s="80"/>
-      <c r="GO1" s="80"/>
-      <c r="GP1" s="80"/>
-      <c r="GQ1" s="80"/>
-      <c r="GR1" s="80"/>
-      <c r="GS1" s="80"/>
-      <c r="GT1" s="80"/>
-      <c r="GU1" s="80"/>
-      <c r="GV1" s="80"/>
-      <c r="GW1" s="80"/>
-      <c r="GX1" s="80"/>
-      <c r="GY1" s="80"/>
-      <c r="GZ1" s="80"/>
-      <c r="HA1" s="80"/>
-      <c r="HB1" s="80"/>
-      <c r="HC1" s="80"/>
-      <c r="HD1" s="80"/>
-      <c r="HE1" s="80"/>
-      <c r="HF1" s="80"/>
-      <c r="HG1" s="80"/>
-      <c r="HH1" s="80"/>
-      <c r="HI1" s="80"/>
+      <c r="BO1" s="77"/>
+      <c r="BP1" s="77"/>
+      <c r="BQ1" s="77"/>
+      <c r="BR1" s="77"/>
+      <c r="BS1" s="77"/>
+      <c r="BT1" s="77"/>
+      <c r="BU1" s="77"/>
+      <c r="BV1" s="77"/>
+      <c r="BW1" s="77"/>
+      <c r="BX1" s="77"/>
+      <c r="BY1" s="77"/>
+      <c r="BZ1" s="77"/>
+      <c r="CA1" s="77"/>
+      <c r="CB1" s="77"/>
+      <c r="CC1" s="77"/>
+      <c r="CD1" s="77"/>
+      <c r="CE1" s="77"/>
+      <c r="CF1" s="77"/>
+      <c r="CG1" s="77"/>
+      <c r="CH1" s="77"/>
+      <c r="CI1" s="77"/>
+      <c r="CJ1" s="77"/>
+      <c r="CK1" s="77"/>
+      <c r="CL1" s="77"/>
+      <c r="CM1" s="77"/>
+      <c r="CN1" s="77"/>
+      <c r="CO1" s="77"/>
+      <c r="CP1" s="77"/>
+      <c r="CQ1" s="77"/>
+      <c r="CR1" s="77"/>
+      <c r="CS1" s="77"/>
+      <c r="CT1" s="77"/>
+      <c r="CU1" s="77"/>
+      <c r="CV1" s="77"/>
+      <c r="CW1" s="77"/>
+      <c r="CX1" s="77"/>
+      <c r="CY1" s="77"/>
+      <c r="CZ1" s="77"/>
+      <c r="DA1" s="77"/>
+      <c r="DB1" s="77"/>
+      <c r="DC1" s="77"/>
+      <c r="DD1" s="77"/>
+      <c r="DE1" s="77"/>
+      <c r="DF1" s="77"/>
+      <c r="DG1" s="77"/>
+      <c r="DH1" s="77"/>
+      <c r="DI1" s="77"/>
+      <c r="DJ1" s="77"/>
+      <c r="DK1" s="77"/>
+      <c r="DL1" s="77"/>
+      <c r="DM1" s="77"/>
+      <c r="DN1" s="77"/>
+      <c r="DO1" s="77"/>
+      <c r="DP1" s="77"/>
+      <c r="DQ1" s="77"/>
+      <c r="DR1" s="77"/>
+      <c r="DS1" s="77"/>
+      <c r="DT1" s="77"/>
+      <c r="DU1" s="77"/>
+      <c r="DV1" s="77"/>
+      <c r="DW1" s="77"/>
+      <c r="DX1" s="77"/>
+      <c r="DY1" s="77"/>
+      <c r="DZ1" s="77"/>
+      <c r="EA1" s="77"/>
+      <c r="EB1" s="77"/>
+      <c r="EC1" s="77"/>
+      <c r="ED1" s="77"/>
+      <c r="EE1" s="77"/>
+      <c r="EF1" s="77"/>
+      <c r="EG1" s="77"/>
+      <c r="EH1" s="77"/>
+      <c r="EI1" s="77"/>
+      <c r="EJ1" s="77"/>
+      <c r="EK1" s="77"/>
+      <c r="EL1" s="77"/>
+      <c r="EM1" s="77"/>
+      <c r="EN1" s="77"/>
+      <c r="EO1" s="77"/>
+      <c r="EP1" s="77"/>
+      <c r="EQ1" s="77"/>
+      <c r="ER1" s="77"/>
+      <c r="ES1" s="77"/>
+      <c r="ET1" s="77"/>
+      <c r="EU1" s="77"/>
+      <c r="EV1" s="77"/>
+      <c r="EW1" s="77"/>
+      <c r="EX1" s="77"/>
+      <c r="EY1" s="77"/>
+      <c r="EZ1" s="77"/>
+      <c r="FA1" s="77"/>
+      <c r="FB1" s="77"/>
+      <c r="FC1" s="77"/>
+      <c r="FD1" s="77"/>
+      <c r="FE1" s="77"/>
+      <c r="FF1" s="77"/>
+      <c r="FG1" s="77"/>
+      <c r="FH1" s="77"/>
+      <c r="FI1" s="77"/>
+      <c r="FJ1" s="77"/>
+      <c r="FK1" s="77"/>
+      <c r="FL1" s="77"/>
+      <c r="FM1" s="77"/>
+      <c r="FN1" s="77"/>
+      <c r="FO1" s="77"/>
+      <c r="FP1" s="77"/>
+      <c r="FQ1" s="77"/>
+      <c r="FR1" s="77"/>
+      <c r="FS1" s="77"/>
+      <c r="FT1" s="77"/>
+      <c r="FU1" s="77"/>
+      <c r="FV1" s="77"/>
+      <c r="FW1" s="77"/>
+      <c r="FX1" s="77"/>
+      <c r="FY1" s="77"/>
+      <c r="FZ1" s="77"/>
+      <c r="GA1" s="77"/>
+      <c r="GB1" s="77"/>
+      <c r="GC1" s="77"/>
+      <c r="GD1" s="77"/>
+      <c r="GE1" s="77"/>
+      <c r="GF1" s="77"/>
+      <c r="GG1" s="77"/>
+      <c r="GH1" s="77"/>
+      <c r="GI1" s="77"/>
+      <c r="GJ1" s="77"/>
+      <c r="GK1" s="77"/>
+      <c r="GL1" s="77"/>
+      <c r="GM1" s="77"/>
+      <c r="GN1" s="77"/>
+      <c r="GO1" s="77"/>
+      <c r="GP1" s="77"/>
+      <c r="GQ1" s="77"/>
+      <c r="GR1" s="77"/>
+      <c r="GS1" s="77"/>
+      <c r="GT1" s="77"/>
+      <c r="GU1" s="77"/>
+      <c r="GV1" s="77"/>
+      <c r="GW1" s="77"/>
+      <c r="GX1" s="77"/>
+      <c r="GY1" s="77"/>
+      <c r="GZ1" s="77"/>
+      <c r="HA1" s="77"/>
+      <c r="HB1" s="77"/>
+      <c r="HC1" s="77"/>
+      <c r="HD1" s="77"/>
+      <c r="HE1" s="77"/>
+      <c r="HF1" s="77"/>
+      <c r="HG1" s="77"/>
+      <c r="HH1" s="77"/>
+      <c r="HI1" s="77"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="58">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="41">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="58">
         <v>1</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="41">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="58">
         <v>2</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="41">
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="58">
         <v>3</v>
       </c>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="41">
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="58">
         <v>4</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="41">
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="58">
         <v>5</v>
       </c>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="41">
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="58">
         <v>6</v>
       </c>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="41">
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="59"/>
+      <c r="BC2" s="59"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="58">
         <v>7</v>
       </c>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="43"/>
-      <c r="BN2" s="41">
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="59"/>
+      <c r="BI2" s="59"/>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="58">
         <v>8</v>
       </c>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="42"/>
-      <c r="BQ2" s="42"/>
-      <c r="BR2" s="42"/>
-      <c r="BS2" s="42"/>
-      <c r="BT2" s="42"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="41">
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="59"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="59"/>
+      <c r="BU2" s="60"/>
+      <c r="BV2" s="58">
         <v>9</v>
       </c>
-      <c r="BW2" s="42"/>
-      <c r="BX2" s="42"/>
-      <c r="BY2" s="42"/>
-      <c r="BZ2" s="42"/>
-      <c r="CA2" s="42"/>
-      <c r="CB2" s="42"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="41">
+      <c r="BW2" s="59"/>
+      <c r="BX2" s="59"/>
+      <c r="BY2" s="59"/>
+      <c r="BZ2" s="59"/>
+      <c r="CA2" s="59"/>
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="60"/>
+      <c r="CD2" s="58">
         <v>10</v>
       </c>
-      <c r="CE2" s="42"/>
-      <c r="CF2" s="42"/>
-      <c r="CG2" s="42"/>
-      <c r="CH2" s="42"/>
-      <c r="CI2" s="42"/>
-      <c r="CJ2" s="42"/>
-      <c r="CK2" s="43"/>
-      <c r="CL2" s="41">
+      <c r="CE2" s="59"/>
+      <c r="CF2" s="59"/>
+      <c r="CG2" s="59"/>
+      <c r="CH2" s="59"/>
+      <c r="CI2" s="59"/>
+      <c r="CJ2" s="59"/>
+      <c r="CK2" s="60"/>
+      <c r="CL2" s="58">
         <v>11</v>
       </c>
-      <c r="CM2" s="42"/>
-      <c r="CN2" s="42"/>
-      <c r="CO2" s="42"/>
-      <c r="CP2" s="42"/>
-      <c r="CQ2" s="42"/>
-      <c r="CR2" s="42"/>
-      <c r="CS2" s="43"/>
-      <c r="CT2" s="41">
+      <c r="CM2" s="59"/>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="59"/>
+      <c r="CP2" s="59"/>
+      <c r="CQ2" s="59"/>
+      <c r="CR2" s="59"/>
+      <c r="CS2" s="60"/>
+      <c r="CT2" s="58">
         <v>12</v>
       </c>
-      <c r="CU2" s="42"/>
-      <c r="CV2" s="42"/>
-      <c r="CW2" s="42"/>
-      <c r="CX2" s="42"/>
-      <c r="CY2" s="42"/>
-      <c r="CZ2" s="42"/>
-      <c r="DA2" s="43"/>
-      <c r="DB2" s="41">
+      <c r="CU2" s="59"/>
+      <c r="CV2" s="59"/>
+      <c r="CW2" s="59"/>
+      <c r="CX2" s="59"/>
+      <c r="CY2" s="59"/>
+      <c r="CZ2" s="59"/>
+      <c r="DA2" s="60"/>
+      <c r="DB2" s="58">
         <v>13</v>
       </c>
-      <c r="DC2" s="42"/>
-      <c r="DD2" s="42"/>
-      <c r="DE2" s="42"/>
-      <c r="DF2" s="42"/>
-      <c r="DG2" s="42"/>
-      <c r="DH2" s="42"/>
-      <c r="DI2" s="43"/>
-      <c r="DJ2" s="41">
+      <c r="DC2" s="59"/>
+      <c r="DD2" s="59"/>
+      <c r="DE2" s="59"/>
+      <c r="DF2" s="59"/>
+      <c r="DG2" s="59"/>
+      <c r="DH2" s="59"/>
+      <c r="DI2" s="60"/>
+      <c r="DJ2" s="58">
         <v>14</v>
       </c>
-      <c r="DK2" s="42"/>
-      <c r="DL2" s="42"/>
-      <c r="DM2" s="42"/>
-      <c r="DN2" s="42"/>
-      <c r="DO2" s="42"/>
-      <c r="DP2" s="42"/>
-      <c r="DQ2" s="43"/>
-      <c r="DR2" s="41">
+      <c r="DK2" s="59"/>
+      <c r="DL2" s="59"/>
+      <c r="DM2" s="59"/>
+      <c r="DN2" s="59"/>
+      <c r="DO2" s="59"/>
+      <c r="DP2" s="59"/>
+      <c r="DQ2" s="60"/>
+      <c r="DR2" s="58">
         <v>15</v>
       </c>
-      <c r="DS2" s="42"/>
-      <c r="DT2" s="42"/>
-      <c r="DU2" s="42"/>
-      <c r="DV2" s="42"/>
-      <c r="DW2" s="42"/>
-      <c r="DX2" s="42"/>
-      <c r="DY2" s="43"/>
-      <c r="DZ2" s="41">
+      <c r="DS2" s="59"/>
+      <c r="DT2" s="59"/>
+      <c r="DU2" s="59"/>
+      <c r="DV2" s="59"/>
+      <c r="DW2" s="59"/>
+      <c r="DX2" s="59"/>
+      <c r="DY2" s="60"/>
+      <c r="DZ2" s="58">
         <v>16</v>
       </c>
-      <c r="EA2" s="42"/>
-      <c r="EB2" s="42"/>
-      <c r="EC2" s="42"/>
-      <c r="ED2" s="42"/>
-      <c r="EE2" s="42"/>
-      <c r="EF2" s="42"/>
-      <c r="EG2" s="43"/>
-      <c r="EH2" s="41">
+      <c r="EA2" s="59"/>
+      <c r="EB2" s="59"/>
+      <c r="EC2" s="59"/>
+      <c r="ED2" s="59"/>
+      <c r="EE2" s="59"/>
+      <c r="EF2" s="59"/>
+      <c r="EG2" s="60"/>
+      <c r="EH2" s="58">
         <v>17</v>
       </c>
-      <c r="EI2" s="42"/>
-      <c r="EJ2" s="42"/>
-      <c r="EK2" s="42"/>
-      <c r="EL2" s="42"/>
-      <c r="EM2" s="42"/>
-      <c r="EN2" s="42"/>
-      <c r="EO2" s="43"/>
-      <c r="EP2" s="41">
+      <c r="EI2" s="59"/>
+      <c r="EJ2" s="59"/>
+      <c r="EK2" s="59"/>
+      <c r="EL2" s="59"/>
+      <c r="EM2" s="59"/>
+      <c r="EN2" s="59"/>
+      <c r="EO2" s="60"/>
+      <c r="EP2" s="58">
         <v>18</v>
       </c>
-      <c r="EQ2" s="42"/>
-      <c r="ER2" s="42"/>
-      <c r="ES2" s="42"/>
-      <c r="ET2" s="42"/>
-      <c r="EU2" s="42"/>
-      <c r="EV2" s="42"/>
-      <c r="EW2" s="43"/>
-      <c r="EX2" s="41">
+      <c r="EQ2" s="59"/>
+      <c r="ER2" s="59"/>
+      <c r="ES2" s="59"/>
+      <c r="ET2" s="59"/>
+      <c r="EU2" s="59"/>
+      <c r="EV2" s="59"/>
+      <c r="EW2" s="60"/>
+      <c r="EX2" s="58">
         <v>19</v>
       </c>
-      <c r="EY2" s="42"/>
-      <c r="EZ2" s="42"/>
-      <c r="FA2" s="42"/>
-      <c r="FB2" s="42"/>
-      <c r="FC2" s="42"/>
-      <c r="FD2" s="42"/>
-      <c r="FE2" s="43"/>
-      <c r="FF2" s="41">
+      <c r="EY2" s="59"/>
+      <c r="EZ2" s="59"/>
+      <c r="FA2" s="59"/>
+      <c r="FB2" s="59"/>
+      <c r="FC2" s="59"/>
+      <c r="FD2" s="59"/>
+      <c r="FE2" s="60"/>
+      <c r="FF2" s="58">
         <v>20</v>
       </c>
-      <c r="FG2" s="42"/>
-      <c r="FH2" s="42"/>
-      <c r="FI2" s="42"/>
-      <c r="FJ2" s="42"/>
-      <c r="FK2" s="42"/>
-      <c r="FL2" s="42"/>
-      <c r="FM2" s="43"/>
-      <c r="FN2" s="41">
+      <c r="FG2" s="59"/>
+      <c r="FH2" s="59"/>
+      <c r="FI2" s="59"/>
+      <c r="FJ2" s="59"/>
+      <c r="FK2" s="59"/>
+      <c r="FL2" s="59"/>
+      <c r="FM2" s="60"/>
+      <c r="FN2" s="58">
         <v>21</v>
       </c>
-      <c r="FO2" s="42"/>
-      <c r="FP2" s="42"/>
-      <c r="FQ2" s="42"/>
-      <c r="FR2" s="42"/>
-      <c r="FS2" s="42"/>
-      <c r="FT2" s="42"/>
-      <c r="FU2" s="43"/>
-      <c r="FV2" s="41">
+      <c r="FO2" s="59"/>
+      <c r="FP2" s="59"/>
+      <c r="FQ2" s="59"/>
+      <c r="FR2" s="59"/>
+      <c r="FS2" s="59"/>
+      <c r="FT2" s="59"/>
+      <c r="FU2" s="60"/>
+      <c r="FV2" s="58">
         <v>22</v>
       </c>
-      <c r="FW2" s="42"/>
-      <c r="FX2" s="42"/>
-      <c r="FY2" s="42"/>
-      <c r="FZ2" s="42"/>
-      <c r="GA2" s="42"/>
-      <c r="GB2" s="42"/>
-      <c r="GC2" s="43"/>
-      <c r="GD2" s="41">
+      <c r="FW2" s="59"/>
+      <c r="FX2" s="59"/>
+      <c r="FY2" s="59"/>
+      <c r="FZ2" s="59"/>
+      <c r="GA2" s="59"/>
+      <c r="GB2" s="59"/>
+      <c r="GC2" s="60"/>
+      <c r="GD2" s="58">
         <v>23</v>
       </c>
-      <c r="GE2" s="42"/>
-      <c r="GF2" s="42"/>
-      <c r="GG2" s="42"/>
-      <c r="GH2" s="42"/>
-      <c r="GI2" s="42"/>
-      <c r="GJ2" s="42"/>
-      <c r="GK2" s="43"/>
-      <c r="GL2" s="41">
+      <c r="GE2" s="59"/>
+      <c r="GF2" s="59"/>
+      <c r="GG2" s="59"/>
+      <c r="GH2" s="59"/>
+      <c r="GI2" s="59"/>
+      <c r="GJ2" s="59"/>
+      <c r="GK2" s="60"/>
+      <c r="GL2" s="58">
         <v>24</v>
       </c>
-      <c r="GM2" s="42"/>
-      <c r="GN2" s="42"/>
-      <c r="GO2" s="42"/>
-      <c r="GP2" s="42"/>
-      <c r="GQ2" s="42"/>
-      <c r="GR2" s="42"/>
-      <c r="GS2" s="43"/>
-      <c r="GT2" s="41">
+      <c r="GM2" s="59"/>
+      <c r="GN2" s="59"/>
+      <c r="GO2" s="59"/>
+      <c r="GP2" s="59"/>
+      <c r="GQ2" s="59"/>
+      <c r="GR2" s="59"/>
+      <c r="GS2" s="60"/>
+      <c r="GT2" s="58">
         <v>25</v>
       </c>
-      <c r="GU2" s="42"/>
-      <c r="GV2" s="42"/>
-      <c r="GW2" s="42"/>
-      <c r="GX2" s="42"/>
-      <c r="GY2" s="42"/>
-      <c r="GZ2" s="42"/>
-      <c r="HA2" s="43"/>
-      <c r="HB2" s="41">
+      <c r="GU2" s="59"/>
+      <c r="GV2" s="59"/>
+      <c r="GW2" s="59"/>
+      <c r="GX2" s="59"/>
+      <c r="GY2" s="59"/>
+      <c r="GZ2" s="59"/>
+      <c r="HA2" s="60"/>
+      <c r="HB2" s="58">
         <v>26</v>
       </c>
-      <c r="HC2" s="42"/>
-      <c r="HD2" s="42"/>
-      <c r="HE2" s="42"/>
-      <c r="HF2" s="42"/>
-      <c r="HG2" s="42"/>
-      <c r="HH2" s="42"/>
-      <c r="HI2" s="43"/>
+      <c r="HC2" s="59"/>
+      <c r="HD2" s="59"/>
+      <c r="HE2" s="59"/>
+      <c r="HF2" s="59"/>
+      <c r="HG2" s="59"/>
+      <c r="HH2" s="59"/>
+      <c r="HI2" s="60"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="41" t="str">
+      <c r="B3" s="58" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="41" t="str">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="58" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="41" t="str">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="58" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="41" t="str">
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="58" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="41" t="str">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="58" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="41" t="str">
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="58" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="41" t="str">
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="58" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42"/>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="41" t="str">
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="58" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="41" t="str">
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="58" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42"/>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="41" t="str">
+      <c r="BO3" s="59"/>
+      <c r="BP3" s="59"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="59"/>
+      <c r="BU3" s="60"/>
+      <c r="BV3" s="58" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="42"/>
-      <c r="BX3" s="42"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="42"/>
-      <c r="CA3" s="42"/>
-      <c r="CB3" s="42"/>
-      <c r="CC3" s="43"/>
-      <c r="CD3" s="41" t="str">
+      <c r="BW3" s="59"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="59"/>
+      <c r="CB3" s="59"/>
+      <c r="CC3" s="60"/>
+      <c r="CD3" s="58" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="42"/>
-      <c r="CF3" s="42"/>
-      <c r="CG3" s="42"/>
-      <c r="CH3" s="42"/>
-      <c r="CI3" s="42"/>
-      <c r="CJ3" s="42"/>
-      <c r="CK3" s="43"/>
-      <c r="CL3" s="41" t="str">
+      <c r="CE3" s="59"/>
+      <c r="CF3" s="59"/>
+      <c r="CG3" s="59"/>
+      <c r="CH3" s="59"/>
+      <c r="CI3" s="59"/>
+      <c r="CJ3" s="59"/>
+      <c r="CK3" s="60"/>
+      <c r="CL3" s="58" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="42"/>
-      <c r="CN3" s="42"/>
-      <c r="CO3" s="42"/>
-      <c r="CP3" s="42"/>
-      <c r="CQ3" s="42"/>
-      <c r="CR3" s="42"/>
-      <c r="CS3" s="43"/>
-      <c r="CT3" s="41" t="str">
+      <c r="CM3" s="59"/>
+      <c r="CN3" s="59"/>
+      <c r="CO3" s="59"/>
+      <c r="CP3" s="59"/>
+      <c r="CQ3" s="59"/>
+      <c r="CR3" s="59"/>
+      <c r="CS3" s="60"/>
+      <c r="CT3" s="58" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="42"/>
-      <c r="CV3" s="42"/>
-      <c r="CW3" s="42"/>
-      <c r="CX3" s="42"/>
-      <c r="CY3" s="42"/>
-      <c r="CZ3" s="42"/>
-      <c r="DA3" s="43"/>
-      <c r="DB3" s="41" t="str">
+      <c r="CU3" s="59"/>
+      <c r="CV3" s="59"/>
+      <c r="CW3" s="59"/>
+      <c r="CX3" s="59"/>
+      <c r="CY3" s="59"/>
+      <c r="CZ3" s="59"/>
+      <c r="DA3" s="60"/>
+      <c r="DB3" s="58" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="42"/>
-      <c r="DD3" s="42"/>
-      <c r="DE3" s="42"/>
-      <c r="DF3" s="42"/>
-      <c r="DG3" s="42"/>
-      <c r="DH3" s="42"/>
-      <c r="DI3" s="43"/>
-      <c r="DJ3" s="41" t="str">
+      <c r="DC3" s="59"/>
+      <c r="DD3" s="59"/>
+      <c r="DE3" s="59"/>
+      <c r="DF3" s="59"/>
+      <c r="DG3" s="59"/>
+      <c r="DH3" s="59"/>
+      <c r="DI3" s="60"/>
+      <c r="DJ3" s="58" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="42"/>
-      <c r="DL3" s="42"/>
-      <c r="DM3" s="42"/>
-      <c r="DN3" s="42"/>
-      <c r="DO3" s="42"/>
-      <c r="DP3" s="42"/>
-      <c r="DQ3" s="43"/>
-      <c r="DR3" s="41" t="str">
+      <c r="DK3" s="59"/>
+      <c r="DL3" s="59"/>
+      <c r="DM3" s="59"/>
+      <c r="DN3" s="59"/>
+      <c r="DO3" s="59"/>
+      <c r="DP3" s="59"/>
+      <c r="DQ3" s="60"/>
+      <c r="DR3" s="58" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="42"/>
-      <c r="DT3" s="42"/>
-      <c r="DU3" s="42"/>
-      <c r="DV3" s="42"/>
-      <c r="DW3" s="42"/>
-      <c r="DX3" s="42"/>
-      <c r="DY3" s="43"/>
-      <c r="DZ3" s="41" t="str">
+      <c r="DS3" s="59"/>
+      <c r="DT3" s="59"/>
+      <c r="DU3" s="59"/>
+      <c r="DV3" s="59"/>
+      <c r="DW3" s="59"/>
+      <c r="DX3" s="59"/>
+      <c r="DY3" s="60"/>
+      <c r="DZ3" s="58" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="42"/>
-      <c r="EB3" s="42"/>
-      <c r="EC3" s="42"/>
-      <c r="ED3" s="42"/>
-      <c r="EE3" s="42"/>
-      <c r="EF3" s="42"/>
-      <c r="EG3" s="43"/>
-      <c r="EH3" s="41" t="str">
+      <c r="EA3" s="59"/>
+      <c r="EB3" s="59"/>
+      <c r="EC3" s="59"/>
+      <c r="ED3" s="59"/>
+      <c r="EE3" s="59"/>
+      <c r="EF3" s="59"/>
+      <c r="EG3" s="60"/>
+      <c r="EH3" s="58" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="42"/>
-      <c r="EJ3" s="42"/>
-      <c r="EK3" s="42"/>
-      <c r="EL3" s="42"/>
-      <c r="EM3" s="42"/>
-      <c r="EN3" s="42"/>
-      <c r="EO3" s="43"/>
-      <c r="EP3" s="41" t="str">
+      <c r="EI3" s="59"/>
+      <c r="EJ3" s="59"/>
+      <c r="EK3" s="59"/>
+      <c r="EL3" s="59"/>
+      <c r="EM3" s="59"/>
+      <c r="EN3" s="59"/>
+      <c r="EO3" s="60"/>
+      <c r="EP3" s="58" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="42"/>
-      <c r="ER3" s="42"/>
-      <c r="ES3" s="42"/>
-      <c r="ET3" s="42"/>
-      <c r="EU3" s="42"/>
-      <c r="EV3" s="42"/>
-      <c r="EW3" s="43"/>
-      <c r="EX3" s="41" t="str">
+      <c r="EQ3" s="59"/>
+      <c r="ER3" s="59"/>
+      <c r="ES3" s="59"/>
+      <c r="ET3" s="59"/>
+      <c r="EU3" s="59"/>
+      <c r="EV3" s="59"/>
+      <c r="EW3" s="60"/>
+      <c r="EX3" s="58" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="42"/>
-      <c r="EZ3" s="42"/>
-      <c r="FA3" s="42"/>
-      <c r="FB3" s="42"/>
-      <c r="FC3" s="42"/>
-      <c r="FD3" s="42"/>
-      <c r="FE3" s="43"/>
-      <c r="FF3" s="41" t="str">
+      <c r="EY3" s="59"/>
+      <c r="EZ3" s="59"/>
+      <c r="FA3" s="59"/>
+      <c r="FB3" s="59"/>
+      <c r="FC3" s="59"/>
+      <c r="FD3" s="59"/>
+      <c r="FE3" s="60"/>
+      <c r="FF3" s="58" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="42"/>
-      <c r="FH3" s="42"/>
-      <c r="FI3" s="42"/>
-      <c r="FJ3" s="42"/>
-      <c r="FK3" s="42"/>
-      <c r="FL3" s="42"/>
-      <c r="FM3" s="43"/>
-      <c r="FN3" s="41" t="str">
+      <c r="FG3" s="59"/>
+      <c r="FH3" s="59"/>
+      <c r="FI3" s="59"/>
+      <c r="FJ3" s="59"/>
+      <c r="FK3" s="59"/>
+      <c r="FL3" s="59"/>
+      <c r="FM3" s="60"/>
+      <c r="FN3" s="58" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="42"/>
-      <c r="FP3" s="42"/>
-      <c r="FQ3" s="42"/>
-      <c r="FR3" s="42"/>
-      <c r="FS3" s="42"/>
-      <c r="FT3" s="42"/>
-      <c r="FU3" s="43"/>
-      <c r="FV3" s="41" t="str">
+      <c r="FO3" s="59"/>
+      <c r="FP3" s="59"/>
+      <c r="FQ3" s="59"/>
+      <c r="FR3" s="59"/>
+      <c r="FS3" s="59"/>
+      <c r="FT3" s="59"/>
+      <c r="FU3" s="60"/>
+      <c r="FV3" s="58" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="42"/>
-      <c r="FX3" s="42"/>
-      <c r="FY3" s="42"/>
-      <c r="FZ3" s="42"/>
-      <c r="GA3" s="42"/>
-      <c r="GB3" s="42"/>
-      <c r="GC3" s="43"/>
-      <c r="GD3" s="41" t="str">
+      <c r="FW3" s="59"/>
+      <c r="FX3" s="59"/>
+      <c r="FY3" s="59"/>
+      <c r="FZ3" s="59"/>
+      <c r="GA3" s="59"/>
+      <c r="GB3" s="59"/>
+      <c r="GC3" s="60"/>
+      <c r="GD3" s="58" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="42"/>
-      <c r="GF3" s="42"/>
-      <c r="GG3" s="42"/>
-      <c r="GH3" s="42"/>
-      <c r="GI3" s="42"/>
-      <c r="GJ3" s="42"/>
-      <c r="GK3" s="43"/>
-      <c r="GL3" s="41" t="str">
+      <c r="GE3" s="59"/>
+      <c r="GF3" s="59"/>
+      <c r="GG3" s="59"/>
+      <c r="GH3" s="59"/>
+      <c r="GI3" s="59"/>
+      <c r="GJ3" s="59"/>
+      <c r="GK3" s="60"/>
+      <c r="GL3" s="58" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="42"/>
-      <c r="GN3" s="42"/>
-      <c r="GO3" s="42"/>
-      <c r="GP3" s="42"/>
-      <c r="GQ3" s="42"/>
-      <c r="GR3" s="42"/>
-      <c r="GS3" s="43"/>
-      <c r="GT3" s="41" t="str">
+      <c r="GM3" s="59"/>
+      <c r="GN3" s="59"/>
+      <c r="GO3" s="59"/>
+      <c r="GP3" s="59"/>
+      <c r="GQ3" s="59"/>
+      <c r="GR3" s="59"/>
+      <c r="GS3" s="60"/>
+      <c r="GT3" s="58" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="42"/>
-      <c r="GV3" s="42"/>
-      <c r="GW3" s="42"/>
-      <c r="GX3" s="42"/>
-      <c r="GY3" s="42"/>
-      <c r="GZ3" s="42"/>
-      <c r="HA3" s="43"/>
-      <c r="HB3" s="41" t="str">
+      <c r="GU3" s="59"/>
+      <c r="GV3" s="59"/>
+      <c r="GW3" s="59"/>
+      <c r="GX3" s="59"/>
+      <c r="GY3" s="59"/>
+      <c r="GZ3" s="59"/>
+      <c r="HA3" s="60"/>
+      <c r="HB3" s="58" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="42"/>
-      <c r="HD3" s="42"/>
-      <c r="HE3" s="42"/>
-      <c r="HF3" s="42"/>
-      <c r="HG3" s="42"/>
-      <c r="HH3" s="42"/>
-      <c r="HI3" s="43"/>
+      <c r="HC3" s="59"/>
+      <c r="HD3" s="59"/>
+      <c r="HE3" s="59"/>
+      <c r="HF3" s="59"/>
+      <c r="HG3" s="59"/>
+      <c r="HH3" s="59"/>
+      <c r="HI3" s="60"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="58">
         <v>0</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="41">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="58">
         <v>2</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="41">
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="58">
         <v>4</v>
       </c>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="41">
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="58">
         <v>6</v>
       </c>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="41">
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="58">
         <v>8</v>
       </c>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42"/>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="41">
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="59"/>
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="58">
         <v>9</v>
       </c>
-      <c r="BW4" s="42"/>
-      <c r="BX4" s="42"/>
-      <c r="BY4" s="42"/>
-      <c r="BZ4" s="42"/>
-      <c r="CA4" s="42"/>
-      <c r="CB4" s="42"/>
-      <c r="CC4" s="43"/>
-      <c r="CD4" s="41" t="str">
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="59"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="59"/>
+      <c r="CB4" s="59"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="58" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="42"/>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42"/>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="43"/>
-      <c r="CL4" s="41" t="str">
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="59"/>
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="60"/>
+      <c r="CL4" s="58" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="42"/>
-      <c r="CN4" s="42"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="42"/>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42"/>
-      <c r="CT4" s="42"/>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="42"/>
-      <c r="CZ4" s="42"/>
-      <c r="DA4" s="43"/>
-      <c r="DB4" s="41" t="str">
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="59"/>
+      <c r="CP4" s="59"/>
+      <c r="CQ4" s="59"/>
+      <c r="CR4" s="59"/>
+      <c r="CS4" s="59"/>
+      <c r="CT4" s="59"/>
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="59"/>
+      <c r="CW4" s="59"/>
+      <c r="CX4" s="59"/>
+      <c r="CY4" s="59"/>
+      <c r="CZ4" s="59"/>
+      <c r="DA4" s="60"/>
+      <c r="DB4" s="58" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="42"/>
-      <c r="DD4" s="42"/>
-      <c r="DE4" s="42"/>
-      <c r="DF4" s="42"/>
-      <c r="DG4" s="42"/>
-      <c r="DH4" s="42"/>
-      <c r="DI4" s="42"/>
-      <c r="DJ4" s="42"/>
-      <c r="DK4" s="42"/>
-      <c r="DL4" s="42"/>
-      <c r="DM4" s="42"/>
-      <c r="DN4" s="42"/>
-      <c r="DO4" s="42"/>
-      <c r="DP4" s="42"/>
-      <c r="DQ4" s="43"/>
-      <c r="DR4" s="41" t="str">
+      <c r="DC4" s="59"/>
+      <c r="DD4" s="59"/>
+      <c r="DE4" s="59"/>
+      <c r="DF4" s="59"/>
+      <c r="DG4" s="59"/>
+      <c r="DH4" s="59"/>
+      <c r="DI4" s="59"/>
+      <c r="DJ4" s="59"/>
+      <c r="DK4" s="59"/>
+      <c r="DL4" s="59"/>
+      <c r="DM4" s="59"/>
+      <c r="DN4" s="59"/>
+      <c r="DO4" s="59"/>
+      <c r="DP4" s="59"/>
+      <c r="DQ4" s="60"/>
+      <c r="DR4" s="58" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="42"/>
-      <c r="DT4" s="42"/>
-      <c r="DU4" s="42"/>
-      <c r="DV4" s="42"/>
-      <c r="DW4" s="42"/>
-      <c r="DX4" s="42"/>
-      <c r="DY4" s="42"/>
-      <c r="DZ4" s="42"/>
-      <c r="EA4" s="42"/>
-      <c r="EB4" s="42"/>
-      <c r="EC4" s="42"/>
-      <c r="ED4" s="42"/>
-      <c r="EE4" s="42"/>
-      <c r="EF4" s="42"/>
-      <c r="EG4" s="43"/>
-      <c r="EH4" s="41" t="str">
+      <c r="DS4" s="59"/>
+      <c r="DT4" s="59"/>
+      <c r="DU4" s="59"/>
+      <c r="DV4" s="59"/>
+      <c r="DW4" s="59"/>
+      <c r="DX4" s="59"/>
+      <c r="DY4" s="59"/>
+      <c r="DZ4" s="59"/>
+      <c r="EA4" s="59"/>
+      <c r="EB4" s="59"/>
+      <c r="EC4" s="59"/>
+      <c r="ED4" s="59"/>
+      <c r="EE4" s="59"/>
+      <c r="EF4" s="59"/>
+      <c r="EG4" s="60"/>
+      <c r="EH4" s="58" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="42"/>
-      <c r="EJ4" s="42"/>
-      <c r="EK4" s="42"/>
-      <c r="EL4" s="42"/>
-      <c r="EM4" s="42"/>
-      <c r="EN4" s="42"/>
-      <c r="EO4" s="43"/>
-      <c r="EP4" s="41" t="str">
+      <c r="EI4" s="59"/>
+      <c r="EJ4" s="59"/>
+      <c r="EK4" s="59"/>
+      <c r="EL4" s="59"/>
+      <c r="EM4" s="59"/>
+      <c r="EN4" s="59"/>
+      <c r="EO4" s="60"/>
+      <c r="EP4" s="58" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="42"/>
-      <c r="ER4" s="42"/>
-      <c r="ES4" s="42"/>
-      <c r="ET4" s="42"/>
-      <c r="EU4" s="42"/>
-      <c r="EV4" s="42"/>
-      <c r="EW4" s="43"/>
-      <c r="EX4" s="41" t="str">
+      <c r="EQ4" s="59"/>
+      <c r="ER4" s="59"/>
+      <c r="ES4" s="59"/>
+      <c r="ET4" s="59"/>
+      <c r="EU4" s="59"/>
+      <c r="EV4" s="59"/>
+      <c r="EW4" s="60"/>
+      <c r="EX4" s="58" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="42"/>
-      <c r="EZ4" s="42"/>
-      <c r="FA4" s="42"/>
-      <c r="FB4" s="42"/>
-      <c r="FC4" s="42"/>
-      <c r="FD4" s="42"/>
-      <c r="FE4" s="43"/>
-      <c r="FF4" s="41" t="str">
+      <c r="EY4" s="59"/>
+      <c r="EZ4" s="59"/>
+      <c r="FA4" s="59"/>
+      <c r="FB4" s="59"/>
+      <c r="FC4" s="59"/>
+      <c r="FD4" s="59"/>
+      <c r="FE4" s="60"/>
+      <c r="FF4" s="58" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="42"/>
-      <c r="FH4" s="42"/>
-      <c r="FI4" s="42"/>
-      <c r="FJ4" s="42"/>
-      <c r="FK4" s="42"/>
-      <c r="FL4" s="42"/>
-      <c r="FM4" s="43"/>
-      <c r="FN4" s="41" t="str">
+      <c r="FG4" s="59"/>
+      <c r="FH4" s="59"/>
+      <c r="FI4" s="59"/>
+      <c r="FJ4" s="59"/>
+      <c r="FK4" s="59"/>
+      <c r="FL4" s="59"/>
+      <c r="FM4" s="60"/>
+      <c r="FN4" s="58" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="42"/>
-      <c r="FP4" s="42"/>
-      <c r="FQ4" s="42"/>
-      <c r="FR4" s="42"/>
-      <c r="FS4" s="42"/>
-      <c r="FT4" s="42"/>
-      <c r="FU4" s="43"/>
-      <c r="FV4" s="41" t="str">
+      <c r="FO4" s="59"/>
+      <c r="FP4" s="59"/>
+      <c r="FQ4" s="59"/>
+      <c r="FR4" s="59"/>
+      <c r="FS4" s="59"/>
+      <c r="FT4" s="59"/>
+      <c r="FU4" s="60"/>
+      <c r="FV4" s="58" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="42"/>
-      <c r="FX4" s="42"/>
-      <c r="FY4" s="42"/>
-      <c r="FZ4" s="42"/>
-      <c r="GA4" s="42"/>
-      <c r="GB4" s="42"/>
-      <c r="GC4" s="42"/>
-      <c r="GD4" s="42"/>
-      <c r="GE4" s="42"/>
-      <c r="GF4" s="42"/>
-      <c r="GG4" s="42"/>
-      <c r="GH4" s="42"/>
-      <c r="GI4" s="42"/>
-      <c r="GJ4" s="42"/>
-      <c r="GK4" s="43"/>
-      <c r="GL4" s="41" t="str">
+      <c r="FW4" s="59"/>
+      <c r="FX4" s="59"/>
+      <c r="FY4" s="59"/>
+      <c r="FZ4" s="59"/>
+      <c r="GA4" s="59"/>
+      <c r="GB4" s="59"/>
+      <c r="GC4" s="59"/>
+      <c r="GD4" s="59"/>
+      <c r="GE4" s="59"/>
+      <c r="GF4" s="59"/>
+      <c r="GG4" s="59"/>
+      <c r="GH4" s="59"/>
+      <c r="GI4" s="59"/>
+      <c r="GJ4" s="59"/>
+      <c r="GK4" s="60"/>
+      <c r="GL4" s="58" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="42"/>
-      <c r="GN4" s="42"/>
-      <c r="GO4" s="42"/>
-      <c r="GP4" s="42"/>
-      <c r="GQ4" s="42"/>
-      <c r="GR4" s="42"/>
-      <c r="GS4" s="43"/>
-      <c r="GT4" s="41" t="str">
+      <c r="GM4" s="59"/>
+      <c r="GN4" s="59"/>
+      <c r="GO4" s="59"/>
+      <c r="GP4" s="59"/>
+      <c r="GQ4" s="59"/>
+      <c r="GR4" s="59"/>
+      <c r="GS4" s="60"/>
+      <c r="GT4" s="58" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="42"/>
-      <c r="GV4" s="42"/>
-      <c r="GW4" s="42"/>
-      <c r="GX4" s="42"/>
-      <c r="GY4" s="42"/>
-      <c r="GZ4" s="42"/>
-      <c r="HA4" s="43"/>
-      <c r="HB4" s="41" t="str">
+      <c r="GU4" s="59"/>
+      <c r="GV4" s="59"/>
+      <c r="GW4" s="59"/>
+      <c r="GX4" s="59"/>
+      <c r="GY4" s="59"/>
+      <c r="GZ4" s="59"/>
+      <c r="HA4" s="60"/>
+      <c r="HB4" s="58" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="42"/>
-      <c r="HD4" s="42"/>
-      <c r="HE4" s="42"/>
-      <c r="HF4" s="42"/>
-      <c r="HG4" s="42"/>
-      <c r="HH4" s="42"/>
-      <c r="HI4" s="43"/>
+      <c r="HC4" s="59"/>
+      <c r="HD4" s="59"/>
+      <c r="HE4" s="59"/>
+      <c r="HF4" s="59"/>
+      <c r="HG4" s="59"/>
+      <c r="HH4" s="59"/>
+      <c r="HI4" s="60"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
@@ -4222,1621 +4323,1624 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="38" t="s">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="39"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="38" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="85" t="s">
+      <c r="V7" s="68"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="38" t="s">
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="38" t="s">
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="38" t="s">
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="38" t="s">
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
-      <c r="BD7" s="39"/>
-      <c r="BE7" s="39"/>
-      <c r="BF7" s="39"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="38" t="s">
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="39"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="39"/>
-      <c r="BL7" s="39"/>
-      <c r="BM7" s="40"/>
-      <c r="BN7" s="38" t="s">
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="69"/>
+      <c r="BN7" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
-      <c r="BQ7" s="39"/>
-      <c r="BR7" s="39"/>
-      <c r="BS7" s="39"/>
-      <c r="BT7" s="39"/>
-      <c r="BU7" s="40"/>
-      <c r="BV7" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="BW7" s="39"/>
-      <c r="BX7" s="39"/>
-      <c r="BY7" s="39"/>
-      <c r="BZ7" s="39"/>
-      <c r="CA7" s="39"/>
-      <c r="CB7" s="39"/>
-      <c r="CC7" s="40"/>
-      <c r="CD7" s="56" t="s">
+      <c r="BO7" s="68"/>
+      <c r="BP7" s="68"/>
+      <c r="BQ7" s="68"/>
+      <c r="BR7" s="68"/>
+      <c r="BS7" s="68"/>
+      <c r="BT7" s="68"/>
+      <c r="BU7" s="69"/>
+      <c r="BV7" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW7" s="68"/>
+      <c r="BX7" s="68"/>
+      <c r="BY7" s="68"/>
+      <c r="BZ7" s="68"/>
+      <c r="CA7" s="68"/>
+      <c r="CB7" s="68"/>
+      <c r="CC7" s="69"/>
+      <c r="CD7" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="57"/>
-      <c r="CF7" s="57"/>
-      <c r="CG7" s="57"/>
-      <c r="CH7" s="57"/>
-      <c r="CI7" s="57"/>
-      <c r="CJ7" s="57"/>
-      <c r="CK7" s="58"/>
-      <c r="CL7" s="56" t="s">
+      <c r="CE7" s="65"/>
+      <c r="CF7" s="65"/>
+      <c r="CG7" s="65"/>
+      <c r="CH7" s="65"/>
+      <c r="CI7" s="65"/>
+      <c r="CJ7" s="65"/>
+      <c r="CK7" s="66"/>
+      <c r="CL7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="CM7" s="57"/>
-      <c r="CN7" s="57"/>
-      <c r="CO7" s="58"/>
-      <c r="CP7" s="56" t="s">
+      <c r="CM7" s="65"/>
+      <c r="CN7" s="65"/>
+      <c r="CO7" s="66"/>
+      <c r="CP7" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="57"/>
-      <c r="CR7" s="57"/>
-      <c r="CS7" s="57"/>
-      <c r="CT7" s="57"/>
-      <c r="CU7" s="57"/>
-      <c r="CV7" s="57"/>
-      <c r="CW7" s="58"/>
-      <c r="CX7" s="38" t="s">
+      <c r="CQ7" s="101"/>
+      <c r="CR7" s="101"/>
+      <c r="CS7" s="101"/>
+      <c r="CT7" s="101"/>
+      <c r="CU7" s="101"/>
+      <c r="CV7" s="101"/>
+      <c r="CW7" s="102"/>
+      <c r="CX7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="39"/>
-      <c r="CZ7" s="39"/>
-      <c r="DA7" s="40"/>
-      <c r="DB7" s="38" t="s">
+      <c r="CY7" s="68"/>
+      <c r="CZ7" s="68"/>
+      <c r="DA7" s="69"/>
+      <c r="DB7" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="DC7" s="40"/>
+      <c r="DC7" s="69"/>
       <c r="DD7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="DE7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="DF7" s="56" t="s">
+      <c r="DF7" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="DG7" s="57"/>
-      <c r="DH7" s="57"/>
-      <c r="DI7" s="57"/>
-      <c r="DJ7" s="57"/>
-      <c r="DK7" s="57"/>
-      <c r="DL7" s="57"/>
-      <c r="DM7" s="58"/>
-      <c r="DN7" s="56" t="s">
+      <c r="DG7" s="65"/>
+      <c r="DH7" s="65"/>
+      <c r="DI7" s="65"/>
+      <c r="DJ7" s="65"/>
+      <c r="DK7" s="65"/>
+      <c r="DL7" s="65"/>
+      <c r="DM7" s="66"/>
+      <c r="DN7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="DO7" s="57"/>
-      <c r="DP7" s="57"/>
-      <c r="DQ7" s="58"/>
-      <c r="DR7" s="70" t="s">
+      <c r="DO7" s="65"/>
+      <c r="DP7" s="65"/>
+      <c r="DQ7" s="66"/>
+      <c r="DR7" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="DS7" s="71"/>
-      <c r="DT7" s="71"/>
-      <c r="DU7" s="72"/>
-      <c r="DV7" s="70" t="s">
+      <c r="DS7" s="80"/>
+      <c r="DT7" s="80"/>
+      <c r="DU7" s="81"/>
+      <c r="DV7" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="DW7" s="71"/>
-      <c r="DX7" s="71"/>
-      <c r="DY7" s="71"/>
-      <c r="DZ7" s="71"/>
-      <c r="EA7" s="72"/>
-      <c r="EB7" s="70" t="s">
+      <c r="DW7" s="80"/>
+      <c r="DX7" s="80"/>
+      <c r="DY7" s="80"/>
+      <c r="DZ7" s="80"/>
+      <c r="EA7" s="81"/>
+      <c r="EB7" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="EC7" s="71"/>
-      <c r="ED7" s="71"/>
-      <c r="EE7" s="71"/>
-      <c r="EF7" s="71"/>
-      <c r="EG7" s="72"/>
-      <c r="EH7" s="41" t="s">
+      <c r="EC7" s="80"/>
+      <c r="ED7" s="80"/>
+      <c r="EE7" s="80"/>
+      <c r="EF7" s="80"/>
+      <c r="EG7" s="81"/>
+      <c r="EH7" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="EI7" s="42"/>
-      <c r="EJ7" s="42"/>
-      <c r="EK7" s="42"/>
-      <c r="EL7" s="42"/>
-      <c r="EM7" s="42"/>
-      <c r="EN7" s="42"/>
-      <c r="EO7" s="43"/>
-      <c r="EP7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="EQ7" s="42"/>
-      <c r="ER7" s="42"/>
-      <c r="ES7" s="42"/>
-      <c r="ET7" s="42"/>
-      <c r="EU7" s="42"/>
-      <c r="EV7" s="42"/>
-      <c r="EW7" s="42"/>
-      <c r="EX7" s="32"/>
-      <c r="EY7" s="76" t="s">
+      <c r="EI7" s="59"/>
+      <c r="EJ7" s="59"/>
+      <c r="EK7" s="59"/>
+      <c r="EL7" s="59"/>
+      <c r="EM7" s="59"/>
+      <c r="EN7" s="59"/>
+      <c r="EO7" s="60"/>
+      <c r="EP7" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="EQ7" s="101"/>
+      <c r="ER7" s="101"/>
+      <c r="ES7" s="101"/>
+      <c r="ET7" s="101"/>
+      <c r="EU7" s="101"/>
+      <c r="EV7" s="101"/>
+      <c r="EW7" s="102"/>
+      <c r="EX7" s="29"/>
+      <c r="EY7" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="EZ7" s="77"/>
-      <c r="FA7" s="77"/>
-      <c r="FB7" s="77"/>
-      <c r="FC7" s="77"/>
-      <c r="FD7" s="77"/>
-      <c r="FE7" s="78"/>
+      <c r="EZ7" s="74"/>
+      <c r="FA7" s="74"/>
+      <c r="FB7" s="74"/>
+      <c r="FC7" s="74"/>
+      <c r="FD7" s="74"/>
+      <c r="FE7" s="75"/>
       <c r="FF7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="FG7" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="FH7" s="35"/>
-      <c r="FI7" s="35"/>
-      <c r="FJ7" s="36"/>
-      <c r="FK7" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="FG7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="FH7" s="32"/>
+      <c r="FI7" s="32"/>
+      <c r="FJ7" s="33"/>
+      <c r="FK7" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="FL7" s="74"/>
-      <c r="FM7" s="75"/>
-      <c r="FN7" s="93" t="s">
+      <c r="FL7" s="87"/>
+      <c r="FM7" s="88"/>
+      <c r="FN7" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO7" s="104"/>
+      <c r="FP7" s="104"/>
+      <c r="FQ7" s="104"/>
+      <c r="FR7" s="104"/>
+      <c r="FS7" s="104"/>
+      <c r="FT7" s="104"/>
+      <c r="FU7" s="105"/>
+      <c r="FV7" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="FW7" s="83"/>
+      <c r="FX7" s="83"/>
+      <c r="FY7" s="83"/>
+      <c r="FZ7" s="83"/>
+      <c r="GA7" s="84"/>
+      <c r="GB7" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="GC7" s="83"/>
+      <c r="GD7" s="83"/>
+      <c r="GE7" s="83"/>
+      <c r="GF7" s="83"/>
+      <c r="GG7" s="84"/>
+      <c r="GH7" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="FO7" s="94"/>
-      <c r="FP7" s="42"/>
-      <c r="FQ7" s="42"/>
-      <c r="FR7" s="43"/>
-      <c r="FS7" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="FT7" s="42"/>
-      <c r="FU7" s="43"/>
-      <c r="FV7" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="FW7" s="45"/>
-      <c r="FX7" s="45"/>
-      <c r="FY7" s="45"/>
-      <c r="FZ7" s="45"/>
-      <c r="GA7" s="46"/>
-      <c r="GB7" s="44" t="s">
+      <c r="GI7" s="59"/>
+      <c r="GJ7" s="59"/>
+      <c r="GK7" s="60"/>
+      <c r="GL7" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="GM7" s="59"/>
+      <c r="GN7" s="60"/>
+      <c r="GO7" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="GC7" s="45"/>
-      <c r="GD7" s="45"/>
-      <c r="GE7" s="45"/>
-      <c r="GF7" s="45"/>
-      <c r="GG7" s="46"/>
-      <c r="GH7" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="GI7" s="42"/>
-      <c r="GJ7" s="42"/>
-      <c r="GK7" s="43"/>
-      <c r="GL7" s="41" t="s">
+      <c r="GP7" s="83"/>
+      <c r="GQ7" s="83"/>
+      <c r="GR7" s="83"/>
+      <c r="GS7" s="84"/>
+      <c r="GT7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="GU7" s="2"/>
+      <c r="GV7" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="GM7" s="42"/>
-      <c r="GN7" s="43"/>
-      <c r="GO7" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="GP7" s="45"/>
-      <c r="GQ7" s="45"/>
-      <c r="GR7" s="45"/>
-      <c r="GS7" s="46"/>
-      <c r="GT7" s="1" t="s">
+      <c r="GW7" s="59"/>
+      <c r="GX7" s="59"/>
+      <c r="GY7" s="59"/>
+      <c r="GZ7" s="59"/>
+      <c r="HA7" s="60"/>
+      <c r="HB7" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="GU7" s="2"/>
-      <c r="GV7" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="GW7" s="42"/>
-      <c r="GX7" s="42"/>
-      <c r="GY7" s="42"/>
-      <c r="GZ7" s="42"/>
-      <c r="HA7" s="43"/>
-      <c r="HB7" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="HC7" s="45"/>
-      <c r="HD7" s="45"/>
-      <c r="HE7" s="45"/>
-      <c r="HF7" s="45"/>
-      <c r="HG7" s="45"/>
-      <c r="HH7" s="45"/>
-      <c r="HI7" s="46"/>
+      <c r="HC7" s="83"/>
+      <c r="HD7" s="83"/>
+      <c r="HE7" s="83"/>
+      <c r="HF7" s="83"/>
+      <c r="HG7" s="83"/>
+      <c r="HH7" s="83"/>
+      <c r="HI7" s="84"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
       <c r="R8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>152</v>
-      </c>
-      <c r="X8" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="78"/>
+        <v>151</v>
+      </c>
+      <c r="X8" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="75"/>
       <c r="AD8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>154</v>
+      </c>
+      <c r="CL8" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="CM8" s="85"/>
+      <c r="CN8" s="85"/>
+      <c r="CO8" s="85"/>
+      <c r="CP8" s="85"/>
+      <c r="CQ8" s="85"/>
+      <c r="CR8" s="85"/>
+      <c r="CS8" s="85"/>
+      <c r="CT8" s="85"/>
+      <c r="CU8" s="85"/>
+      <c r="CV8" s="85"/>
+      <c r="CW8" s="85"/>
+      <c r="CX8" s="85"/>
+      <c r="CY8" s="85"/>
+      <c r="CZ8" s="85"/>
+      <c r="DA8" s="85"/>
+      <c r="DB8" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="DC8" s="85"/>
+      <c r="DD8" s="85"/>
+      <c r="DE8" s="85"/>
+      <c r="DF8" s="85"/>
+      <c r="DG8" s="85"/>
+      <c r="DH8" s="85"/>
+      <c r="DI8" s="85"/>
+      <c r="DJ8" s="85"/>
+      <c r="DK8" s="85"/>
+      <c r="DL8" s="85"/>
+      <c r="DM8" s="85"/>
+      <c r="DN8" s="85"/>
+      <c r="DO8" s="85"/>
+      <c r="DP8" s="85"/>
+      <c r="DQ8" s="85"/>
+      <c r="DR8" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="DS8" s="85"/>
+      <c r="DT8" s="85"/>
+      <c r="DU8" s="85"/>
+      <c r="DV8" s="85"/>
+      <c r="DW8" s="85"/>
+      <c r="DX8" s="85"/>
+      <c r="DY8" s="85"/>
+      <c r="DZ8" s="85"/>
+      <c r="EA8" s="85"/>
+      <c r="EB8" s="85"/>
+      <c r="EC8" s="85"/>
+      <c r="ED8" s="85"/>
+      <c r="EE8" s="85"/>
+      <c r="EF8" s="85"/>
+      <c r="EG8" s="85"/>
+      <c r="FH8" t="s">
         <v>144</v>
       </c>
-      <c r="AL8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>155</v>
-      </c>
-      <c r="CL8" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="CM8" s="69"/>
-      <c r="CN8" s="69"/>
-      <c r="CO8" s="69"/>
-      <c r="CP8" s="69"/>
-      <c r="CQ8" s="69"/>
-      <c r="CR8" s="69"/>
-      <c r="CS8" s="69"/>
-      <c r="CT8" s="69"/>
-      <c r="CU8" s="69"/>
-      <c r="CV8" s="69"/>
-      <c r="CW8" s="69"/>
-      <c r="CX8" s="69"/>
-      <c r="CY8" s="69"/>
-      <c r="CZ8" s="69"/>
-      <c r="DA8" s="69"/>
-      <c r="DB8" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="DC8" s="69"/>
-      <c r="DD8" s="69"/>
-      <c r="DE8" s="69"/>
-      <c r="DF8" s="69"/>
-      <c r="DG8" s="69"/>
-      <c r="DH8" s="69"/>
-      <c r="DI8" s="69"/>
-      <c r="DJ8" s="69"/>
-      <c r="DK8" s="69"/>
-      <c r="DL8" s="69"/>
-      <c r="DM8" s="69"/>
-      <c r="DN8" s="69"/>
-      <c r="DO8" s="69"/>
-      <c r="DP8" s="69"/>
-      <c r="DQ8" s="69"/>
-      <c r="DR8" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="DS8" s="69"/>
-      <c r="DT8" s="69"/>
-      <c r="DU8" s="69"/>
-      <c r="DV8" s="69"/>
-      <c r="DW8" s="69"/>
-      <c r="DX8" s="69"/>
-      <c r="DY8" s="69"/>
-      <c r="DZ8" s="69"/>
-      <c r="EA8" s="69"/>
-      <c r="EB8" s="69"/>
-      <c r="EC8" s="69"/>
-      <c r="ED8" s="69"/>
-      <c r="EE8" s="69"/>
-      <c r="EF8" s="69"/>
-      <c r="EG8" s="69"/>
-      <c r="FH8" t="s">
-        <v>145</v>
-      </c>
-      <c r="FN8" s="95"/>
-      <c r="FO8" s="96"/>
+      <c r="FN8" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="FO8" s="17"/>
+      <c r="FP8" s="17"/>
+      <c r="FQ8" s="17"/>
+      <c r="FR8" s="93"/>
       <c r="FV8" t="s">
+        <v>149</v>
+      </c>
+      <c r="GB8" t="s">
         <v>150</v>
       </c>
-      <c r="GB8" t="s">
-        <v>151</v>
-      </c>
-      <c r="HI8" s="22"/>
+      <c r="HI8" s="19"/>
     </row>
     <row r="9" spans="1:217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="60" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="60" t="s">
+      <c r="V9" s="41"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="61"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="60" t="s">
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="60" t="s">
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="61" t="s">
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="41"/>
+      <c r="BA9" s="41"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="42"/>
+      <c r="BH9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="62"/>
-      <c r="BH9" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI9" s="61"/>
-      <c r="BJ9" s="61"/>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="61"/>
-      <c r="BM9" s="62"/>
-      <c r="BN9" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO9" s="48"/>
-      <c r="BP9" s="48"/>
-      <c r="BQ9" s="48"/>
-      <c r="BR9" s="48"/>
-      <c r="BS9" s="48"/>
-      <c r="BT9" s="48"/>
-      <c r="BU9" s="49"/>
-      <c r="BV9" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="BW9" s="48"/>
-      <c r="BX9" s="48"/>
-      <c r="BY9" s="48"/>
-      <c r="BZ9" s="48"/>
-      <c r="CA9" s="48"/>
-      <c r="CB9" s="48"/>
-      <c r="CC9" s="49"/>
-      <c r="CD9" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="CE9" s="48"/>
-      <c r="CF9" s="48"/>
-      <c r="CG9" s="48"/>
-      <c r="CH9" s="48"/>
-      <c r="CI9" s="48"/>
-      <c r="CJ9" s="48"/>
-      <c r="CK9" s="49"/>
-      <c r="CL9" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM9" s="48"/>
-      <c r="CN9" s="48"/>
-      <c r="CO9" s="48"/>
-      <c r="CP9" s="48"/>
-      <c r="CQ9" s="48"/>
-      <c r="CR9" s="48"/>
-      <c r="CS9" s="48"/>
-      <c r="CT9" s="48"/>
-      <c r="CU9" s="48"/>
-      <c r="CV9" s="48"/>
-      <c r="CW9" s="48"/>
-      <c r="CX9" s="48"/>
-      <c r="CY9" s="48"/>
-      <c r="CZ9" s="48"/>
-      <c r="DA9" s="49"/>
-      <c r="DB9" s="60" t="s">
+      <c r="BI9" s="41"/>
+      <c r="BJ9" s="41"/>
+      <c r="BK9" s="41"/>
+      <c r="BL9" s="41"/>
+      <c r="BM9" s="42"/>
+      <c r="BN9" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="50"/>
+      <c r="BS9" s="50"/>
+      <c r="BT9" s="50"/>
+      <c r="BU9" s="51"/>
+      <c r="BV9" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW9" s="50"/>
+      <c r="BX9" s="50"/>
+      <c r="BY9" s="50"/>
+      <c r="BZ9" s="50"/>
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="50"/>
+      <c r="CC9" s="51"/>
+      <c r="CD9" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="DC9" s="61"/>
-      <c r="DD9" s="61"/>
-      <c r="DE9" s="61"/>
-      <c r="DF9" s="61"/>
-      <c r="DG9" s="61"/>
-      <c r="DH9" s="61"/>
-      <c r="DI9" s="61"/>
-      <c r="DJ9" s="61"/>
-      <c r="DK9" s="61"/>
-      <c r="DL9" s="61"/>
-      <c r="DM9" s="61"/>
-      <c r="DN9" s="61"/>
-      <c r="DO9" s="61"/>
-      <c r="DP9" s="61"/>
-      <c r="DQ9" s="62"/>
-      <c r="DR9" s="60" t="s">
+      <c r="CE9" s="50"/>
+      <c r="CF9" s="50"/>
+      <c r="CG9" s="50"/>
+      <c r="CH9" s="50"/>
+      <c r="CI9" s="50"/>
+      <c r="CJ9" s="50"/>
+      <c r="CK9" s="51"/>
+      <c r="CL9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM9" s="50"/>
+      <c r="CN9" s="50"/>
+      <c r="CO9" s="50"/>
+      <c r="CP9" s="50"/>
+      <c r="CQ9" s="50"/>
+      <c r="CR9" s="50"/>
+      <c r="CS9" s="50"/>
+      <c r="CT9" s="50"/>
+      <c r="CU9" s="50"/>
+      <c r="CV9" s="50"/>
+      <c r="CW9" s="50"/>
+      <c r="CX9" s="50"/>
+      <c r="CY9" s="50"/>
+      <c r="CZ9" s="50"/>
+      <c r="DA9" s="51"/>
+      <c r="DB9" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="DC9" s="41"/>
+      <c r="DD9" s="41"/>
+      <c r="DE9" s="41"/>
+      <c r="DF9" s="41"/>
+      <c r="DG9" s="41"/>
+      <c r="DH9" s="41"/>
+      <c r="DI9" s="41"/>
+      <c r="DJ9" s="41"/>
+      <c r="DK9" s="41"/>
+      <c r="DL9" s="41"/>
+      <c r="DM9" s="41"/>
+      <c r="DN9" s="41"/>
+      <c r="DO9" s="41"/>
+      <c r="DP9" s="41"/>
+      <c r="DQ9" s="42"/>
+      <c r="DR9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="DS9" s="41"/>
+      <c r="DT9" s="41"/>
+      <c r="DU9" s="41"/>
+      <c r="DV9" s="41"/>
+      <c r="DW9" s="41"/>
+      <c r="DX9" s="41"/>
+      <c r="DY9" s="41"/>
+      <c r="DZ9" s="41"/>
+      <c r="EA9" s="41"/>
+      <c r="EB9" s="41"/>
+      <c r="EC9" s="41"/>
+      <c r="ED9" s="41"/>
+      <c r="EE9" s="41"/>
+      <c r="EF9" s="41"/>
+      <c r="EG9" s="42"/>
+      <c r="EP9" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="DS9" s="61"/>
-      <c r="DT9" s="61"/>
-      <c r="DU9" s="61"/>
-      <c r="DV9" s="61"/>
-      <c r="DW9" s="61"/>
-      <c r="DX9" s="61"/>
-      <c r="DY9" s="61"/>
-      <c r="DZ9" s="61"/>
-      <c r="EA9" s="61"/>
-      <c r="EB9" s="61"/>
-      <c r="EC9" s="61"/>
-      <c r="ED9" s="61"/>
-      <c r="EE9" s="61"/>
-      <c r="EF9" s="61"/>
-      <c r="EG9" s="62"/>
-      <c r="EP9" s="60" t="s">
+      <c r="EQ9" s="41"/>
+      <c r="ER9" s="41"/>
+      <c r="ES9" s="41"/>
+      <c r="ET9" s="41"/>
+      <c r="EU9" s="41"/>
+      <c r="EV9" s="41"/>
+      <c r="EW9" s="42"/>
+      <c r="EX9" s="21"/>
+      <c r="EY9" s="21"/>
+      <c r="EZ9" s="22"/>
+      <c r="FA9" s="22"/>
+      <c r="FB9" s="22"/>
+      <c r="FC9" s="22"/>
+      <c r="FD9" s="22"/>
+      <c r="FE9" s="23"/>
+      <c r="FJ9" t="s">
         <v>58</v>
       </c>
-      <c r="EQ9" s="61"/>
-      <c r="ER9" s="61"/>
-      <c r="ES9" s="61"/>
-      <c r="ET9" s="61"/>
-      <c r="EU9" s="61"/>
-      <c r="EV9" s="61"/>
-      <c r="EW9" s="62"/>
-      <c r="EX9" s="24"/>
-      <c r="EY9" s="24"/>
-      <c r="EZ9" s="25"/>
-      <c r="FA9" s="25"/>
-      <c r="FB9" s="25"/>
-      <c r="FC9" s="25"/>
-      <c r="FD9" s="25"/>
-      <c r="FE9" s="26"/>
-      <c r="FJ9" t="s">
-        <v>59</v>
-      </c>
-      <c r="FN9" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="FO9" s="64"/>
-      <c r="FP9" s="61"/>
-      <c r="FQ9" s="61"/>
-      <c r="FR9" s="62"/>
-      <c r="FS9" s="15"/>
-      <c r="FT9" s="15"/>
-      <c r="FU9" s="16"/>
-      <c r="FV9" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="FW9" s="48"/>
-      <c r="FX9" s="48"/>
-      <c r="FY9" s="48"/>
-      <c r="FZ9" s="48"/>
-      <c r="GA9" s="49"/>
-      <c r="GB9" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="GC9" s="48"/>
-      <c r="GD9" s="48"/>
-      <c r="GE9" s="48"/>
-      <c r="GF9" s="48"/>
-      <c r="GG9" s="49"/>
-      <c r="GT9" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="GU9" s="61"/>
-      <c r="GV9" s="61"/>
-      <c r="GW9" s="61"/>
-      <c r="GX9" s="61"/>
-      <c r="GY9" s="61"/>
-      <c r="GZ9" s="61"/>
-      <c r="HA9" s="62"/>
-      <c r="HB9" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="HC9" s="61"/>
-      <c r="HD9" s="61"/>
-      <c r="HE9" s="61"/>
-      <c r="HF9" s="61"/>
-      <c r="HG9" s="61"/>
-      <c r="HH9" s="61"/>
-      <c r="HI9" s="62"/>
+      <c r="FN9" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="FO9" s="94"/>
+      <c r="FP9" s="94"/>
+      <c r="FQ9" s="94"/>
+      <c r="FR9" s="95"/>
+      <c r="FS9" s="17"/>
+      <c r="FT9" s="17"/>
+      <c r="FU9" s="93"/>
+      <c r="FV9" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="FW9" s="50"/>
+      <c r="FX9" s="50"/>
+      <c r="FY9" s="50"/>
+      <c r="FZ9" s="50"/>
+      <c r="GA9" s="51"/>
+      <c r="GB9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="GC9" s="50"/>
+      <c r="GD9" s="50"/>
+      <c r="GE9" s="50"/>
+      <c r="GF9" s="50"/>
+      <c r="GG9" s="51"/>
+      <c r="GT9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="GU9" s="41"/>
+      <c r="GV9" s="41"/>
+      <c r="GW9" s="41"/>
+      <c r="GX9" s="41"/>
+      <c r="GY9" s="41"/>
+      <c r="GZ9" s="41"/>
+      <c r="HA9" s="42"/>
+      <c r="HB9" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="HC9" s="41"/>
+      <c r="HD9" s="41"/>
+      <c r="HE9" s="41"/>
+      <c r="HF9" s="41"/>
+      <c r="HG9" s="41"/>
+      <c r="HH9" s="41"/>
+      <c r="HI9" s="42"/>
     </row>
     <row r="10" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="63"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="63"/>
-      <c r="BI10" s="64"/>
-      <c r="BJ10" s="64"/>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="65"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="51"/>
-      <c r="BP10" s="51"/>
-      <c r="BQ10" s="51"/>
-      <c r="BR10" s="51"/>
-      <c r="BS10" s="51"/>
-      <c r="BT10" s="51"/>
-      <c r="BU10" s="52"/>
-      <c r="BV10" s="50"/>
-      <c r="BW10" s="51"/>
-      <c r="BX10" s="51"/>
-      <c r="BY10" s="51"/>
-      <c r="BZ10" s="51"/>
-      <c r="CA10" s="51"/>
-      <c r="CB10" s="51"/>
-      <c r="CC10" s="52"/>
-      <c r="CD10" s="50"/>
-      <c r="CE10" s="51"/>
-      <c r="CF10" s="51"/>
-      <c r="CG10" s="51"/>
-      <c r="CH10" s="51"/>
-      <c r="CI10" s="51"/>
-      <c r="CJ10" s="51"/>
-      <c r="CK10" s="52"/>
-      <c r="CL10" s="50"/>
-      <c r="CM10" s="51"/>
-      <c r="CN10" s="51"/>
-      <c r="CO10" s="51"/>
-      <c r="CP10" s="51"/>
-      <c r="CQ10" s="51"/>
-      <c r="CR10" s="51"/>
-      <c r="CS10" s="51"/>
-      <c r="CT10" s="51"/>
-      <c r="CU10" s="51"/>
-      <c r="CV10" s="51"/>
-      <c r="CW10" s="51"/>
-      <c r="CX10" s="51"/>
-      <c r="CY10" s="51"/>
-      <c r="CZ10" s="51"/>
-      <c r="DA10" s="52"/>
-      <c r="DB10" s="63"/>
-      <c r="DC10" s="64"/>
-      <c r="DD10" s="64"/>
-      <c r="DE10" s="64"/>
-      <c r="DF10" s="64"/>
-      <c r="DG10" s="64"/>
-      <c r="DH10" s="64"/>
-      <c r="DI10" s="64"/>
-      <c r="DJ10" s="64"/>
-      <c r="DK10" s="64"/>
-      <c r="DL10" s="64"/>
-      <c r="DM10" s="64"/>
-      <c r="DN10" s="64"/>
-      <c r="DO10" s="64"/>
-      <c r="DP10" s="64"/>
-      <c r="DQ10" s="65"/>
-      <c r="DR10" s="63"/>
-      <c r="DS10" s="64"/>
-      <c r="DT10" s="64"/>
-      <c r="DU10" s="64"/>
-      <c r="DV10" s="64"/>
-      <c r="DW10" s="64"/>
-      <c r="DX10" s="64"/>
-      <c r="DY10" s="64"/>
-      <c r="DZ10" s="64"/>
-      <c r="EA10" s="64"/>
-      <c r="EB10" s="64"/>
-      <c r="EC10" s="64"/>
-      <c r="ED10" s="64"/>
-      <c r="EE10" s="64"/>
-      <c r="EF10" s="64"/>
-      <c r="EG10" s="65"/>
-      <c r="EP10" s="63"/>
-      <c r="EQ10" s="64"/>
-      <c r="ER10" s="64"/>
-      <c r="ES10" s="64"/>
-      <c r="ET10" s="64"/>
-      <c r="EU10" s="64"/>
-      <c r="EV10" s="64"/>
-      <c r="EW10" s="65"/>
-      <c r="EX10" s="27"/>
-      <c r="EY10" s="27"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="44"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="45"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="44"/>
+      <c r="AZ10" s="44"/>
+      <c r="BA10" s="44"/>
+      <c r="BB10" s="44"/>
+      <c r="BC10" s="44"/>
+      <c r="BD10" s="44"/>
+      <c r="BE10" s="44"/>
+      <c r="BF10" s="44"/>
+      <c r="BG10" s="45"/>
+      <c r="BH10" s="43"/>
+      <c r="BI10" s="44"/>
+      <c r="BJ10" s="44"/>
+      <c r="BK10" s="44"/>
+      <c r="BL10" s="44"/>
+      <c r="BM10" s="45"/>
+      <c r="BN10" s="52"/>
+      <c r="BO10" s="53"/>
+      <c r="BP10" s="53"/>
+      <c r="BQ10" s="53"/>
+      <c r="BR10" s="53"/>
+      <c r="BS10" s="53"/>
+      <c r="BT10" s="53"/>
+      <c r="BU10" s="54"/>
+      <c r="BV10" s="52"/>
+      <c r="BW10" s="53"/>
+      <c r="BX10" s="53"/>
+      <c r="BY10" s="53"/>
+      <c r="BZ10" s="53"/>
+      <c r="CA10" s="53"/>
+      <c r="CB10" s="53"/>
+      <c r="CC10" s="54"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="53"/>
+      <c r="CF10" s="53"/>
+      <c r="CG10" s="53"/>
+      <c r="CH10" s="53"/>
+      <c r="CI10" s="53"/>
+      <c r="CJ10" s="53"/>
+      <c r="CK10" s="54"/>
+      <c r="CL10" s="52"/>
+      <c r="CM10" s="53"/>
+      <c r="CN10" s="53"/>
+      <c r="CO10" s="53"/>
+      <c r="CP10" s="53"/>
+      <c r="CQ10" s="53"/>
+      <c r="CR10" s="53"/>
+      <c r="CS10" s="53"/>
+      <c r="CT10" s="53"/>
+      <c r="CU10" s="53"/>
+      <c r="CV10" s="53"/>
+      <c r="CW10" s="53"/>
+      <c r="CX10" s="53"/>
+      <c r="CY10" s="53"/>
+      <c r="CZ10" s="53"/>
+      <c r="DA10" s="54"/>
+      <c r="DB10" s="43"/>
+      <c r="DC10" s="44"/>
+      <c r="DD10" s="44"/>
+      <c r="DE10" s="44"/>
+      <c r="DF10" s="44"/>
+      <c r="DG10" s="44"/>
+      <c r="DH10" s="44"/>
+      <c r="DI10" s="44"/>
+      <c r="DJ10" s="44"/>
+      <c r="DK10" s="44"/>
+      <c r="DL10" s="44"/>
+      <c r="DM10" s="44"/>
+      <c r="DN10" s="44"/>
+      <c r="DO10" s="44"/>
+      <c r="DP10" s="44"/>
+      <c r="DQ10" s="45"/>
+      <c r="DR10" s="43"/>
+      <c r="DS10" s="44"/>
+      <c r="DT10" s="44"/>
+      <c r="DU10" s="44"/>
+      <c r="DV10" s="44"/>
+      <c r="DW10" s="44"/>
+      <c r="DX10" s="44"/>
+      <c r="DY10" s="44"/>
+      <c r="DZ10" s="44"/>
+      <c r="EA10" s="44"/>
+      <c r="EB10" s="44"/>
+      <c r="EC10" s="44"/>
+      <c r="ED10" s="44"/>
+      <c r="EE10" s="44"/>
+      <c r="EF10" s="44"/>
+      <c r="EG10" s="45"/>
+      <c r="EP10" s="43"/>
+      <c r="EQ10" s="44"/>
+      <c r="ER10" s="44"/>
+      <c r="ES10" s="44"/>
+      <c r="ET10" s="44"/>
+      <c r="EU10" s="44"/>
+      <c r="EV10" s="44"/>
+      <c r="EW10" s="45"/>
+      <c r="EX10" s="24"/>
+      <c r="EY10" s="24"/>
       <c r="EZ10" s="14"/>
       <c r="FA10" s="14"/>
       <c r="FB10" s="14"/>
       <c r="FC10" s="14"/>
       <c r="FD10" s="14"/>
-      <c r="FE10" s="28"/>
+      <c r="FE10" s="25"/>
       <c r="FJ10" t="s">
-        <v>75</v>
-      </c>
-      <c r="FN10" s="63"/>
-      <c r="FO10" s="64"/>
-      <c r="FP10" s="64"/>
-      <c r="FQ10" s="64"/>
-      <c r="FR10" s="65"/>
-      <c r="FS10" s="17"/>
-      <c r="FT10" s="17"/>
-      <c r="FU10" s="18"/>
-      <c r="FV10" s="50"/>
-      <c r="FW10" s="51"/>
-      <c r="FX10" s="51"/>
-      <c r="FY10" s="51"/>
-      <c r="FZ10" s="51"/>
-      <c r="GA10" s="52"/>
-      <c r="GB10" s="50"/>
-      <c r="GC10" s="51"/>
-      <c r="GD10" s="51"/>
-      <c r="GE10" s="51"/>
-      <c r="GF10" s="51"/>
-      <c r="GG10" s="52"/>
-      <c r="GT10" s="63"/>
-      <c r="GU10" s="64"/>
-      <c r="GV10" s="64"/>
-      <c r="GW10" s="64"/>
-      <c r="GX10" s="64"/>
-      <c r="GY10" s="64"/>
-      <c r="GZ10" s="64"/>
-      <c r="HA10" s="65"/>
-      <c r="HB10" s="63"/>
-      <c r="HC10" s="64"/>
-      <c r="HD10" s="64"/>
-      <c r="HE10" s="64"/>
-      <c r="HF10" s="64"/>
-      <c r="HG10" s="64"/>
-      <c r="HH10" s="64"/>
-      <c r="HI10" s="65"/>
+        <v>74</v>
+      </c>
+      <c r="FN10" s="98"/>
+      <c r="FO10" s="90"/>
+      <c r="FP10" s="90"/>
+      <c r="FQ10" s="90"/>
+      <c r="FR10" s="90"/>
+      <c r="FS10" s="15"/>
+      <c r="FT10" s="15"/>
+      <c r="FU10" s="96"/>
+      <c r="FV10" s="53"/>
+      <c r="FW10" s="53"/>
+      <c r="FX10" s="53"/>
+      <c r="FY10" s="53"/>
+      <c r="FZ10" s="53"/>
+      <c r="GA10" s="54"/>
+      <c r="GB10" s="52"/>
+      <c r="GC10" s="53"/>
+      <c r="GD10" s="53"/>
+      <c r="GE10" s="53"/>
+      <c r="GF10" s="53"/>
+      <c r="GG10" s="54"/>
+      <c r="GT10" s="43"/>
+      <c r="GU10" s="44"/>
+      <c r="GV10" s="44"/>
+      <c r="GW10" s="44"/>
+      <c r="GX10" s="44"/>
+      <c r="GY10" s="44"/>
+      <c r="GZ10" s="44"/>
+      <c r="HA10" s="45"/>
+      <c r="HB10" s="43"/>
+      <c r="HC10" s="44"/>
+      <c r="HD10" s="44"/>
+      <c r="HE10" s="44"/>
+      <c r="HF10" s="44"/>
+      <c r="HG10" s="44"/>
+      <c r="HH10" s="44"/>
+      <c r="HI10" s="45"/>
     </row>
     <row r="11" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="63"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="65"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="64"/>
-      <c r="BF11" s="64"/>
-      <c r="BG11" s="65"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="64"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="65"/>
-      <c r="BN11" s="50"/>
-      <c r="BO11" s="51"/>
-      <c r="BP11" s="51"/>
-      <c r="BQ11" s="51"/>
-      <c r="BR11" s="51"/>
-      <c r="BS11" s="51"/>
-      <c r="BT11" s="51"/>
-      <c r="BU11" s="52"/>
-      <c r="BV11" s="50"/>
-      <c r="BW11" s="51"/>
-      <c r="BX11" s="51"/>
-      <c r="BY11" s="51"/>
-      <c r="BZ11" s="51"/>
-      <c r="CA11" s="51"/>
-      <c r="CB11" s="51"/>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="50"/>
-      <c r="CE11" s="51"/>
-      <c r="CF11" s="51"/>
-      <c r="CG11" s="51"/>
-      <c r="CH11" s="51"/>
-      <c r="CI11" s="51"/>
-      <c r="CJ11" s="51"/>
-      <c r="CK11" s="52"/>
-      <c r="CL11" s="50"/>
-      <c r="CM11" s="51"/>
-      <c r="CN11" s="51"/>
-      <c r="CO11" s="51"/>
-      <c r="CP11" s="51"/>
-      <c r="CQ11" s="51"/>
-      <c r="CR11" s="51"/>
-      <c r="CS11" s="51"/>
-      <c r="CT11" s="51"/>
-      <c r="CU11" s="51"/>
-      <c r="CV11" s="51"/>
-      <c r="CW11" s="51"/>
-      <c r="CX11" s="51"/>
-      <c r="CY11" s="51"/>
-      <c r="CZ11" s="51"/>
-      <c r="DA11" s="52"/>
-      <c r="DB11" s="63"/>
-      <c r="DC11" s="64"/>
-      <c r="DD11" s="64"/>
-      <c r="DE11" s="64"/>
-      <c r="DF11" s="64"/>
-      <c r="DG11" s="64"/>
-      <c r="DH11" s="64"/>
-      <c r="DI11" s="64"/>
-      <c r="DJ11" s="64"/>
-      <c r="DK11" s="64"/>
-      <c r="DL11" s="64"/>
-      <c r="DM11" s="64"/>
-      <c r="DN11" s="64"/>
-      <c r="DO11" s="64"/>
-      <c r="DP11" s="64"/>
-      <c r="DQ11" s="65"/>
-      <c r="DR11" s="63"/>
-      <c r="DS11" s="64"/>
-      <c r="DT11" s="64"/>
-      <c r="DU11" s="64"/>
-      <c r="DV11" s="64"/>
-      <c r="DW11" s="64"/>
-      <c r="DX11" s="64"/>
-      <c r="DY11" s="64"/>
-      <c r="DZ11" s="64"/>
-      <c r="EA11" s="64"/>
-      <c r="EB11" s="64"/>
-      <c r="EC11" s="64"/>
-      <c r="ED11" s="64"/>
-      <c r="EE11" s="64"/>
-      <c r="EF11" s="64"/>
-      <c r="EG11" s="65"/>
-      <c r="EP11" s="63"/>
-      <c r="EQ11" s="64"/>
-      <c r="ER11" s="64"/>
-      <c r="ES11" s="64"/>
-      <c r="ET11" s="64"/>
-      <c r="EU11" s="64"/>
-      <c r="EV11" s="64"/>
-      <c r="EW11" s="65"/>
-      <c r="EX11" s="27"/>
-      <c r="EY11" s="27"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="44"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="44"/>
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="44"/>
+      <c r="BG11" s="45"/>
+      <c r="BH11" s="43"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="45"/>
+      <c r="BN11" s="52"/>
+      <c r="BO11" s="53"/>
+      <c r="BP11" s="53"/>
+      <c r="BQ11" s="53"/>
+      <c r="BR11" s="53"/>
+      <c r="BS11" s="53"/>
+      <c r="BT11" s="53"/>
+      <c r="BU11" s="54"/>
+      <c r="BV11" s="52"/>
+      <c r="BW11" s="53"/>
+      <c r="BX11" s="53"/>
+      <c r="BY11" s="53"/>
+      <c r="BZ11" s="53"/>
+      <c r="CA11" s="53"/>
+      <c r="CB11" s="53"/>
+      <c r="CC11" s="54"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="53"/>
+      <c r="CF11" s="53"/>
+      <c r="CG11" s="53"/>
+      <c r="CH11" s="53"/>
+      <c r="CI11" s="53"/>
+      <c r="CJ11" s="53"/>
+      <c r="CK11" s="54"/>
+      <c r="CL11" s="52"/>
+      <c r="CM11" s="53"/>
+      <c r="CN11" s="53"/>
+      <c r="CO11" s="53"/>
+      <c r="CP11" s="53"/>
+      <c r="CQ11" s="53"/>
+      <c r="CR11" s="53"/>
+      <c r="CS11" s="53"/>
+      <c r="CT11" s="53"/>
+      <c r="CU11" s="53"/>
+      <c r="CV11" s="53"/>
+      <c r="CW11" s="53"/>
+      <c r="CX11" s="53"/>
+      <c r="CY11" s="53"/>
+      <c r="CZ11" s="53"/>
+      <c r="DA11" s="54"/>
+      <c r="DB11" s="43"/>
+      <c r="DC11" s="44"/>
+      <c r="DD11" s="44"/>
+      <c r="DE11" s="44"/>
+      <c r="DF11" s="44"/>
+      <c r="DG11" s="44"/>
+      <c r="DH11" s="44"/>
+      <c r="DI11" s="44"/>
+      <c r="DJ11" s="44"/>
+      <c r="DK11" s="44"/>
+      <c r="DL11" s="44"/>
+      <c r="DM11" s="44"/>
+      <c r="DN11" s="44"/>
+      <c r="DO11" s="44"/>
+      <c r="DP11" s="44"/>
+      <c r="DQ11" s="45"/>
+      <c r="DR11" s="43"/>
+      <c r="DS11" s="44"/>
+      <c r="DT11" s="44"/>
+      <c r="DU11" s="44"/>
+      <c r="DV11" s="44"/>
+      <c r="DW11" s="44"/>
+      <c r="DX11" s="44"/>
+      <c r="DY11" s="44"/>
+      <c r="DZ11" s="44"/>
+      <c r="EA11" s="44"/>
+      <c r="EB11" s="44"/>
+      <c r="EC11" s="44"/>
+      <c r="ED11" s="44"/>
+      <c r="EE11" s="44"/>
+      <c r="EF11" s="44"/>
+      <c r="EG11" s="45"/>
+      <c r="EP11" s="43"/>
+      <c r="EQ11" s="44"/>
+      <c r="ER11" s="44"/>
+      <c r="ES11" s="44"/>
+      <c r="ET11" s="44"/>
+      <c r="EU11" s="44"/>
+      <c r="EV11" s="44"/>
+      <c r="EW11" s="45"/>
+      <c r="EX11" s="24"/>
+      <c r="EY11" s="24"/>
       <c r="EZ11" s="14"/>
       <c r="FA11" s="14"/>
       <c r="FB11" s="14"/>
       <c r="FC11" s="14"/>
       <c r="FD11" s="14"/>
-      <c r="FE11" s="28"/>
-      <c r="FN11" s="63"/>
-      <c r="FO11" s="64"/>
-      <c r="FP11" s="64"/>
-      <c r="FQ11" s="64"/>
-      <c r="FR11" s="65"/>
-      <c r="FS11" s="17"/>
-      <c r="FT11" s="17"/>
-      <c r="FU11" s="18"/>
-      <c r="FV11" s="50"/>
-      <c r="FW11" s="51"/>
-      <c r="FX11" s="51"/>
-      <c r="FY11" s="51"/>
-      <c r="FZ11" s="51"/>
-      <c r="GA11" s="52"/>
-      <c r="GB11" s="50"/>
-      <c r="GC11" s="51"/>
-      <c r="GD11" s="51"/>
-      <c r="GE11" s="51"/>
-      <c r="GF11" s="51"/>
-      <c r="GG11" s="52"/>
+      <c r="FE11" s="25"/>
+      <c r="FN11" s="98"/>
+      <c r="FO11" s="90"/>
+      <c r="FP11" s="90"/>
+      <c r="FQ11" s="90"/>
+      <c r="FR11" s="90"/>
+      <c r="FS11" s="15"/>
+      <c r="FT11" s="15"/>
+      <c r="FU11" s="96"/>
+      <c r="FV11" s="53"/>
+      <c r="FW11" s="53"/>
+      <c r="FX11" s="53"/>
+      <c r="FY11" s="53"/>
+      <c r="FZ11" s="53"/>
+      <c r="GA11" s="54"/>
+      <c r="GB11" s="52"/>
+      <c r="GC11" s="53"/>
+      <c r="GD11" s="53"/>
+      <c r="GE11" s="53"/>
+      <c r="GF11" s="53"/>
+      <c r="GG11" s="54"/>
       <c r="GH11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="GM11" t="s">
-        <v>167</v>
-      </c>
-      <c r="GT11" s="63"/>
-      <c r="GU11" s="64"/>
-      <c r="GV11" s="64"/>
-      <c r="GW11" s="64"/>
-      <c r="GX11" s="64"/>
-      <c r="GY11" s="64"/>
-      <c r="GZ11" s="64"/>
-      <c r="HA11" s="65"/>
-      <c r="HB11" s="63"/>
-      <c r="HC11" s="64"/>
-      <c r="HD11" s="64"/>
-      <c r="HE11" s="64"/>
-      <c r="HF11" s="64"/>
-      <c r="HG11" s="64"/>
-      <c r="HH11" s="64"/>
-      <c r="HI11" s="65"/>
+        <v>166</v>
+      </c>
+      <c r="GT11" s="43"/>
+      <c r="GU11" s="44"/>
+      <c r="GV11" s="44"/>
+      <c r="GW11" s="44"/>
+      <c r="GX11" s="44"/>
+      <c r="GY11" s="44"/>
+      <c r="GZ11" s="44"/>
+      <c r="HA11" s="45"/>
+      <c r="HB11" s="43"/>
+      <c r="HC11" s="44"/>
+      <c r="HD11" s="44"/>
+      <c r="HE11" s="44"/>
+      <c r="HF11" s="44"/>
+      <c r="HG11" s="44"/>
+      <c r="HH11" s="44"/>
+      <c r="HI11" s="45"/>
     </row>
     <row r="12" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="65"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="63"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="65"/>
-      <c r="AX12" s="64"/>
-      <c r="AY12" s="64"/>
-      <c r="AZ12" s="64"/>
-      <c r="BA12" s="64"/>
-      <c r="BB12" s="64"/>
-      <c r="BC12" s="64"/>
-      <c r="BD12" s="64"/>
-      <c r="BE12" s="64"/>
-      <c r="BF12" s="64"/>
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="63"/>
-      <c r="BI12" s="64"/>
-      <c r="BJ12" s="64"/>
-      <c r="BK12" s="64"/>
-      <c r="BL12" s="64"/>
-      <c r="BM12" s="65"/>
-      <c r="BN12" s="50"/>
-      <c r="BO12" s="51"/>
-      <c r="BP12" s="51"/>
-      <c r="BQ12" s="51"/>
-      <c r="BR12" s="51"/>
-      <c r="BS12" s="51"/>
-      <c r="BT12" s="51"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="50"/>
-      <c r="BW12" s="51"/>
-      <c r="BX12" s="51"/>
-      <c r="BY12" s="51"/>
-      <c r="BZ12" s="51"/>
-      <c r="CA12" s="51"/>
-      <c r="CB12" s="51"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="50"/>
-      <c r="CE12" s="51"/>
-      <c r="CF12" s="51"/>
-      <c r="CG12" s="51"/>
-      <c r="CH12" s="51"/>
-      <c r="CI12" s="51"/>
-      <c r="CJ12" s="51"/>
-      <c r="CK12" s="52"/>
-      <c r="CL12" s="50"/>
-      <c r="CM12" s="51"/>
-      <c r="CN12" s="51"/>
-      <c r="CO12" s="51"/>
-      <c r="CP12" s="51"/>
-      <c r="CQ12" s="51"/>
-      <c r="CR12" s="51"/>
-      <c r="CS12" s="51"/>
-      <c r="CT12" s="51"/>
-      <c r="CU12" s="51"/>
-      <c r="CV12" s="51"/>
-      <c r="CW12" s="51"/>
-      <c r="CX12" s="51"/>
-      <c r="CY12" s="51"/>
-      <c r="CZ12" s="51"/>
-      <c r="DA12" s="52"/>
-      <c r="DB12" s="63"/>
-      <c r="DC12" s="64"/>
-      <c r="DD12" s="64"/>
-      <c r="DE12" s="64"/>
-      <c r="DF12" s="64"/>
-      <c r="DG12" s="64"/>
-      <c r="DH12" s="64"/>
-      <c r="DI12" s="64"/>
-      <c r="DJ12" s="64"/>
-      <c r="DK12" s="64"/>
-      <c r="DL12" s="64"/>
-      <c r="DM12" s="64"/>
-      <c r="DN12" s="64"/>
-      <c r="DO12" s="64"/>
-      <c r="DP12" s="64"/>
-      <c r="DQ12" s="65"/>
-      <c r="DR12" s="63"/>
-      <c r="DS12" s="64"/>
-      <c r="DT12" s="64"/>
-      <c r="DU12" s="64"/>
-      <c r="DV12" s="64"/>
-      <c r="DW12" s="64"/>
-      <c r="DX12" s="64"/>
-      <c r="DY12" s="64"/>
-      <c r="DZ12" s="64"/>
-      <c r="EA12" s="64"/>
-      <c r="EB12" s="64"/>
-      <c r="EC12" s="64"/>
-      <c r="ED12" s="64"/>
-      <c r="EE12" s="64"/>
-      <c r="EF12" s="64"/>
-      <c r="EG12" s="65"/>
-      <c r="EP12" s="63"/>
-      <c r="EQ12" s="64"/>
-      <c r="ER12" s="64"/>
-      <c r="ES12" s="64"/>
-      <c r="ET12" s="64"/>
-      <c r="EU12" s="64"/>
-      <c r="EV12" s="64"/>
-      <c r="EW12" s="65"/>
-      <c r="EX12" s="27"/>
-      <c r="EY12" s="27"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="45"/>
+      <c r="BH12" s="43"/>
+      <c r="BI12" s="44"/>
+      <c r="BJ12" s="44"/>
+      <c r="BK12" s="44"/>
+      <c r="BL12" s="44"/>
+      <c r="BM12" s="45"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="53"/>
+      <c r="BP12" s="53"/>
+      <c r="BQ12" s="53"/>
+      <c r="BR12" s="53"/>
+      <c r="BS12" s="53"/>
+      <c r="BT12" s="53"/>
+      <c r="BU12" s="54"/>
+      <c r="BV12" s="52"/>
+      <c r="BW12" s="53"/>
+      <c r="BX12" s="53"/>
+      <c r="BY12" s="53"/>
+      <c r="BZ12" s="53"/>
+      <c r="CA12" s="53"/>
+      <c r="CB12" s="53"/>
+      <c r="CC12" s="54"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="53"/>
+      <c r="CF12" s="53"/>
+      <c r="CG12" s="53"/>
+      <c r="CH12" s="53"/>
+      <c r="CI12" s="53"/>
+      <c r="CJ12" s="53"/>
+      <c r="CK12" s="54"/>
+      <c r="CL12" s="52"/>
+      <c r="CM12" s="53"/>
+      <c r="CN12" s="53"/>
+      <c r="CO12" s="53"/>
+      <c r="CP12" s="53"/>
+      <c r="CQ12" s="53"/>
+      <c r="CR12" s="53"/>
+      <c r="CS12" s="53"/>
+      <c r="CT12" s="53"/>
+      <c r="CU12" s="53"/>
+      <c r="CV12" s="53"/>
+      <c r="CW12" s="53"/>
+      <c r="CX12" s="53"/>
+      <c r="CY12" s="53"/>
+      <c r="CZ12" s="53"/>
+      <c r="DA12" s="54"/>
+      <c r="DB12" s="43"/>
+      <c r="DC12" s="44"/>
+      <c r="DD12" s="44"/>
+      <c r="DE12" s="44"/>
+      <c r="DF12" s="44"/>
+      <c r="DG12" s="44"/>
+      <c r="DH12" s="44"/>
+      <c r="DI12" s="44"/>
+      <c r="DJ12" s="44"/>
+      <c r="DK12" s="44"/>
+      <c r="DL12" s="44"/>
+      <c r="DM12" s="44"/>
+      <c r="DN12" s="44"/>
+      <c r="DO12" s="44"/>
+      <c r="DP12" s="44"/>
+      <c r="DQ12" s="45"/>
+      <c r="DR12" s="43"/>
+      <c r="DS12" s="44"/>
+      <c r="DT12" s="44"/>
+      <c r="DU12" s="44"/>
+      <c r="DV12" s="44"/>
+      <c r="DW12" s="44"/>
+      <c r="DX12" s="44"/>
+      <c r="DY12" s="44"/>
+      <c r="DZ12" s="44"/>
+      <c r="EA12" s="44"/>
+      <c r="EB12" s="44"/>
+      <c r="EC12" s="44"/>
+      <c r="ED12" s="44"/>
+      <c r="EE12" s="44"/>
+      <c r="EF12" s="44"/>
+      <c r="EG12" s="45"/>
+      <c r="EP12" s="43"/>
+      <c r="EQ12" s="44"/>
+      <c r="ER12" s="44"/>
+      <c r="ES12" s="44"/>
+      <c r="ET12" s="44"/>
+      <c r="EU12" s="44"/>
+      <c r="EV12" s="44"/>
+      <c r="EW12" s="45"/>
+      <c r="EX12" s="24"/>
+      <c r="EY12" s="24"/>
       <c r="EZ12" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
       <c r="FC12" s="14"/>
       <c r="FD12" s="14"/>
-      <c r="FE12" s="28"/>
-      <c r="FN12" s="63"/>
-      <c r="FO12" s="64"/>
-      <c r="FP12" s="64"/>
-      <c r="FQ12" s="64"/>
-      <c r="FR12" s="65"/>
-      <c r="FS12" s="17"/>
-      <c r="FT12" s="17"/>
-      <c r="FU12" s="18"/>
-      <c r="FV12" s="50"/>
-      <c r="FW12" s="51"/>
-      <c r="FX12" s="51"/>
-      <c r="FY12" s="51"/>
-      <c r="FZ12" s="51"/>
-      <c r="GA12" s="52"/>
-      <c r="GB12" s="50"/>
-      <c r="GC12" s="51"/>
-      <c r="GD12" s="51"/>
-      <c r="GE12" s="51"/>
-      <c r="GF12" s="51"/>
-      <c r="GG12" s="52"/>
+      <c r="FE12" s="25"/>
+      <c r="FN12" s="98"/>
+      <c r="FO12" s="90"/>
+      <c r="FP12" s="90"/>
+      <c r="FQ12" s="90"/>
+      <c r="FR12" s="90"/>
+      <c r="FS12" s="15"/>
+      <c r="FT12" s="15"/>
+      <c r="FU12" s="96"/>
+      <c r="FV12" s="53"/>
+      <c r="FW12" s="53"/>
+      <c r="FX12" s="53"/>
+      <c r="FY12" s="53"/>
+      <c r="FZ12" s="53"/>
+      <c r="GA12" s="54"/>
+      <c r="GB12" s="52"/>
+      <c r="GC12" s="53"/>
+      <c r="GD12" s="53"/>
+      <c r="GE12" s="53"/>
+      <c r="GF12" s="53"/>
+      <c r="GG12" s="54"/>
       <c r="GM12" t="s">
-        <v>167</v>
-      </c>
-      <c r="GT12" s="63"/>
-      <c r="GU12" s="64"/>
-      <c r="GV12" s="64"/>
-      <c r="GW12" s="64"/>
-      <c r="GX12" s="64"/>
-      <c r="GY12" s="64"/>
-      <c r="GZ12" s="64"/>
-      <c r="HA12" s="65"/>
-      <c r="HB12" s="63"/>
-      <c r="HC12" s="64"/>
-      <c r="HD12" s="64"/>
-      <c r="HE12" s="64"/>
-      <c r="HF12" s="64"/>
-      <c r="HG12" s="64"/>
-      <c r="HH12" s="64"/>
-      <c r="HI12" s="65"/>
+        <v>166</v>
+      </c>
+      <c r="GT12" s="43"/>
+      <c r="GU12" s="44"/>
+      <c r="GV12" s="44"/>
+      <c r="GW12" s="44"/>
+      <c r="GX12" s="44"/>
+      <c r="GY12" s="44"/>
+      <c r="GZ12" s="44"/>
+      <c r="HA12" s="45"/>
+      <c r="HB12" s="43"/>
+      <c r="HC12" s="44"/>
+      <c r="HD12" s="44"/>
+      <c r="HE12" s="44"/>
+      <c r="HF12" s="44"/>
+      <c r="HG12" s="44"/>
+      <c r="HH12" s="44"/>
+      <c r="HI12" s="45"/>
     </row>
     <row r="13" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="63"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="64"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="64"/>
-      <c r="AZ13" s="64"/>
-      <c r="BA13" s="64"/>
-      <c r="BB13" s="64"/>
-      <c r="BC13" s="64"/>
-      <c r="BD13" s="64"/>
-      <c r="BE13" s="64"/>
-      <c r="BF13" s="64"/>
-      <c r="BG13" s="65"/>
-      <c r="BH13" s="63"/>
-      <c r="BI13" s="64"/>
-      <c r="BJ13" s="64"/>
-      <c r="BK13" s="64"/>
-      <c r="BL13" s="64"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="50"/>
-      <c r="BO13" s="51"/>
-      <c r="BP13" s="51"/>
-      <c r="BQ13" s="51"/>
-      <c r="BR13" s="51"/>
-      <c r="BS13" s="51"/>
-      <c r="BT13" s="51"/>
-      <c r="BU13" s="52"/>
-      <c r="BV13" s="50"/>
-      <c r="BW13" s="51"/>
-      <c r="BX13" s="51"/>
-      <c r="BY13" s="51"/>
-      <c r="BZ13" s="51"/>
-      <c r="CA13" s="51"/>
-      <c r="CB13" s="51"/>
-      <c r="CC13" s="52"/>
-      <c r="CD13" s="50"/>
-      <c r="CE13" s="51"/>
-      <c r="CF13" s="51"/>
-      <c r="CG13" s="51"/>
-      <c r="CH13" s="51"/>
-      <c r="CI13" s="51"/>
-      <c r="CJ13" s="51"/>
-      <c r="CK13" s="52"/>
-      <c r="CL13" s="50"/>
-      <c r="CM13" s="51"/>
-      <c r="CN13" s="51"/>
-      <c r="CO13" s="51"/>
-      <c r="CP13" s="51"/>
-      <c r="CQ13" s="51"/>
-      <c r="CR13" s="51"/>
-      <c r="CS13" s="51"/>
-      <c r="CT13" s="51"/>
-      <c r="CU13" s="51"/>
-      <c r="CV13" s="51"/>
-      <c r="CW13" s="51"/>
-      <c r="CX13" s="51"/>
-      <c r="CY13" s="51"/>
-      <c r="CZ13" s="51"/>
-      <c r="DA13" s="52"/>
-      <c r="DB13" s="63"/>
-      <c r="DC13" s="64"/>
-      <c r="DD13" s="64"/>
-      <c r="DE13" s="64"/>
-      <c r="DF13" s="64"/>
-      <c r="DG13" s="64"/>
-      <c r="DH13" s="64"/>
-      <c r="DI13" s="64"/>
-      <c r="DJ13" s="64"/>
-      <c r="DK13" s="64"/>
-      <c r="DL13" s="64"/>
-      <c r="DM13" s="64"/>
-      <c r="DN13" s="64"/>
-      <c r="DO13" s="64"/>
-      <c r="DP13" s="64"/>
-      <c r="DQ13" s="65"/>
-      <c r="DR13" s="63"/>
-      <c r="DS13" s="64"/>
-      <c r="DT13" s="64"/>
-      <c r="DU13" s="64"/>
-      <c r="DV13" s="64"/>
-      <c r="DW13" s="64"/>
-      <c r="DX13" s="64"/>
-      <c r="DY13" s="64"/>
-      <c r="DZ13" s="64"/>
-      <c r="EA13" s="64"/>
-      <c r="EB13" s="64"/>
-      <c r="EC13" s="64"/>
-      <c r="ED13" s="64"/>
-      <c r="EE13" s="64"/>
-      <c r="EF13" s="64"/>
-      <c r="EG13" s="65"/>
-      <c r="EP13" s="63"/>
-      <c r="EQ13" s="64"/>
-      <c r="ER13" s="64"/>
-      <c r="ES13" s="64"/>
-      <c r="ET13" s="64"/>
-      <c r="EU13" s="64"/>
-      <c r="EV13" s="64"/>
-      <c r="EW13" s="65"/>
-      <c r="EX13" s="27"/>
-      <c r="EY13" s="27"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="44"/>
+      <c r="BD13" s="44"/>
+      <c r="BE13" s="44"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="44"/>
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="45"/>
+      <c r="BN13" s="52"/>
+      <c r="BO13" s="53"/>
+      <c r="BP13" s="53"/>
+      <c r="BQ13" s="53"/>
+      <c r="BR13" s="53"/>
+      <c r="BS13" s="53"/>
+      <c r="BT13" s="53"/>
+      <c r="BU13" s="54"/>
+      <c r="BV13" s="52"/>
+      <c r="BW13" s="53"/>
+      <c r="BX13" s="53"/>
+      <c r="BY13" s="53"/>
+      <c r="BZ13" s="53"/>
+      <c r="CA13" s="53"/>
+      <c r="CB13" s="53"/>
+      <c r="CC13" s="54"/>
+      <c r="CD13" s="52"/>
+      <c r="CE13" s="53"/>
+      <c r="CF13" s="53"/>
+      <c r="CG13" s="53"/>
+      <c r="CH13" s="53"/>
+      <c r="CI13" s="53"/>
+      <c r="CJ13" s="53"/>
+      <c r="CK13" s="54"/>
+      <c r="CL13" s="52"/>
+      <c r="CM13" s="53"/>
+      <c r="CN13" s="53"/>
+      <c r="CO13" s="53"/>
+      <c r="CP13" s="53"/>
+      <c r="CQ13" s="53"/>
+      <c r="CR13" s="53"/>
+      <c r="CS13" s="53"/>
+      <c r="CT13" s="53"/>
+      <c r="CU13" s="53"/>
+      <c r="CV13" s="53"/>
+      <c r="CW13" s="53"/>
+      <c r="CX13" s="53"/>
+      <c r="CY13" s="53"/>
+      <c r="CZ13" s="53"/>
+      <c r="DA13" s="54"/>
+      <c r="DB13" s="43"/>
+      <c r="DC13" s="44"/>
+      <c r="DD13" s="44"/>
+      <c r="DE13" s="44"/>
+      <c r="DF13" s="44"/>
+      <c r="DG13" s="44"/>
+      <c r="DH13" s="44"/>
+      <c r="DI13" s="44"/>
+      <c r="DJ13" s="44"/>
+      <c r="DK13" s="44"/>
+      <c r="DL13" s="44"/>
+      <c r="DM13" s="44"/>
+      <c r="DN13" s="44"/>
+      <c r="DO13" s="44"/>
+      <c r="DP13" s="44"/>
+      <c r="DQ13" s="45"/>
+      <c r="DR13" s="43"/>
+      <c r="DS13" s="44"/>
+      <c r="DT13" s="44"/>
+      <c r="DU13" s="44"/>
+      <c r="DV13" s="44"/>
+      <c r="DW13" s="44"/>
+      <c r="DX13" s="44"/>
+      <c r="DY13" s="44"/>
+      <c r="DZ13" s="44"/>
+      <c r="EA13" s="44"/>
+      <c r="EB13" s="44"/>
+      <c r="EC13" s="44"/>
+      <c r="ED13" s="44"/>
+      <c r="EE13" s="44"/>
+      <c r="EF13" s="44"/>
+      <c r="EG13" s="45"/>
+      <c r="EP13" s="43"/>
+      <c r="EQ13" s="44"/>
+      <c r="ER13" s="44"/>
+      <c r="ES13" s="44"/>
+      <c r="ET13" s="44"/>
+      <c r="EU13" s="44"/>
+      <c r="EV13" s="44"/>
+      <c r="EW13" s="45"/>
+      <c r="EX13" s="24"/>
+      <c r="EY13" s="24"/>
       <c r="EZ13" s="14"/>
       <c r="FA13" s="14"/>
       <c r="FB13" s="14"/>
       <c r="FC13" s="14"/>
       <c r="FD13" s="14"/>
-      <c r="FE13" s="28"/>
+      <c r="FE13" s="25"/>
       <c r="FG13" t="s">
-        <v>99</v>
-      </c>
-      <c r="FN13" s="63"/>
-      <c r="FO13" s="64"/>
-      <c r="FP13" s="64"/>
-      <c r="FQ13" s="64"/>
-      <c r="FR13" s="65"/>
-      <c r="FS13" s="17"/>
-      <c r="FT13" s="17"/>
-      <c r="FU13" s="18"/>
-      <c r="FV13" s="50"/>
-      <c r="FW13" s="51"/>
-      <c r="FX13" s="51"/>
-      <c r="FY13" s="51"/>
-      <c r="FZ13" s="51"/>
-      <c r="GA13" s="52"/>
-      <c r="GB13" s="50"/>
-      <c r="GC13" s="51"/>
-      <c r="GD13" s="51"/>
-      <c r="GE13" s="51"/>
-      <c r="GF13" s="51"/>
-      <c r="GG13" s="52"/>
+        <v>98</v>
+      </c>
+      <c r="FN13" s="98"/>
+      <c r="FO13" s="90"/>
+      <c r="FP13" s="90"/>
+      <c r="FQ13" s="90"/>
+      <c r="FR13" s="90"/>
+      <c r="FS13" s="15"/>
+      <c r="FT13" s="15"/>
+      <c r="FU13" s="96"/>
+      <c r="FV13" s="53"/>
+      <c r="FW13" s="53"/>
+      <c r="FX13" s="53"/>
+      <c r="FY13" s="53"/>
+      <c r="FZ13" s="53"/>
+      <c r="GA13" s="54"/>
+      <c r="GB13" s="52"/>
+      <c r="GC13" s="53"/>
+      <c r="GD13" s="53"/>
+      <c r="GE13" s="53"/>
+      <c r="GF13" s="53"/>
+      <c r="GG13" s="54"/>
       <c r="GL13" t="s">
-        <v>168</v>
-      </c>
-      <c r="GT13" s="63"/>
-      <c r="GU13" s="64"/>
-      <c r="GV13" s="64"/>
-      <c r="GW13" s="64"/>
-      <c r="GX13" s="64"/>
-      <c r="GY13" s="64"/>
-      <c r="GZ13" s="64"/>
-      <c r="HA13" s="65"/>
-      <c r="HB13" s="63"/>
-      <c r="HC13" s="64"/>
-      <c r="HD13" s="64"/>
-      <c r="HE13" s="64"/>
-      <c r="HF13" s="64"/>
-      <c r="HG13" s="64"/>
-      <c r="HH13" s="64"/>
-      <c r="HI13" s="65"/>
+        <v>167</v>
+      </c>
+      <c r="GT13" s="43"/>
+      <c r="GU13" s="44"/>
+      <c r="GV13" s="44"/>
+      <c r="GW13" s="44"/>
+      <c r="GX13" s="44"/>
+      <c r="GY13" s="44"/>
+      <c r="GZ13" s="44"/>
+      <c r="HA13" s="45"/>
+      <c r="HB13" s="43"/>
+      <c r="HC13" s="44"/>
+      <c r="HD13" s="44"/>
+      <c r="HE13" s="44"/>
+      <c r="HF13" s="44"/>
+      <c r="HG13" s="44"/>
+      <c r="HH13" s="44"/>
+      <c r="HI13" s="45"/>
     </row>
     <row r="14" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="67"/>
-      <c r="BD14" s="67"/>
-      <c r="BE14" s="67"/>
-      <c r="BF14" s="67"/>
-      <c r="BG14" s="68"/>
-      <c r="BH14" s="66"/>
-      <c r="BI14" s="67"/>
-      <c r="BJ14" s="67"/>
-      <c r="BK14" s="67"/>
-      <c r="BL14" s="67"/>
-      <c r="BM14" s="68"/>
-      <c r="BN14" s="53"/>
-      <c r="BO14" s="54"/>
-      <c r="BP14" s="54"/>
-      <c r="BQ14" s="54"/>
-      <c r="BR14" s="54"/>
-      <c r="BS14" s="54"/>
-      <c r="BT14" s="54"/>
-      <c r="BU14" s="55"/>
-      <c r="BV14" s="53"/>
-      <c r="BW14" s="54"/>
-      <c r="BX14" s="54"/>
-      <c r="BY14" s="54"/>
-      <c r="BZ14" s="54"/>
-      <c r="CA14" s="54"/>
-      <c r="CB14" s="54"/>
-      <c r="CC14" s="55"/>
-      <c r="CD14" s="53"/>
-      <c r="CE14" s="54"/>
-      <c r="CF14" s="54"/>
-      <c r="CG14" s="54"/>
-      <c r="CH14" s="54"/>
-      <c r="CI14" s="54"/>
-      <c r="CJ14" s="54"/>
-      <c r="CK14" s="55"/>
-      <c r="CL14" s="53"/>
-      <c r="CM14" s="54"/>
-      <c r="CN14" s="54"/>
-      <c r="CO14" s="54"/>
-      <c r="CP14" s="54"/>
-      <c r="CQ14" s="54"/>
-      <c r="CR14" s="54"/>
-      <c r="CS14" s="54"/>
-      <c r="CT14" s="54"/>
-      <c r="CU14" s="54"/>
-      <c r="CV14" s="54"/>
-      <c r="CW14" s="54"/>
-      <c r="CX14" s="54"/>
-      <c r="CY14" s="54"/>
-      <c r="CZ14" s="54"/>
-      <c r="DA14" s="55"/>
-      <c r="DB14" s="66"/>
-      <c r="DC14" s="67"/>
-      <c r="DD14" s="67"/>
-      <c r="DE14" s="67"/>
-      <c r="DF14" s="67"/>
-      <c r="DG14" s="67"/>
-      <c r="DH14" s="67"/>
-      <c r="DI14" s="67"/>
-      <c r="DJ14" s="67"/>
-      <c r="DK14" s="67"/>
-      <c r="DL14" s="67"/>
-      <c r="DM14" s="67"/>
-      <c r="DN14" s="67"/>
-      <c r="DO14" s="67"/>
-      <c r="DP14" s="67"/>
-      <c r="DQ14" s="68"/>
-      <c r="DR14" s="66"/>
-      <c r="DS14" s="67"/>
-      <c r="DT14" s="67"/>
-      <c r="DU14" s="67"/>
-      <c r="DV14" s="67"/>
-      <c r="DW14" s="67"/>
-      <c r="DX14" s="67"/>
-      <c r="DY14" s="67"/>
-      <c r="DZ14" s="67"/>
-      <c r="EA14" s="67"/>
-      <c r="EB14" s="67"/>
-      <c r="EC14" s="67"/>
-      <c r="ED14" s="67"/>
-      <c r="EE14" s="67"/>
-      <c r="EF14" s="67"/>
-      <c r="EG14" s="68"/>
-      <c r="EP14" s="66"/>
-      <c r="EQ14" s="67"/>
-      <c r="ER14" s="67"/>
-      <c r="ES14" s="67"/>
-      <c r="ET14" s="67"/>
-      <c r="EU14" s="67"/>
-      <c r="EV14" s="67"/>
-      <c r="EW14" s="68"/>
-      <c r="EX14" s="29"/>
-      <c r="EY14" s="29"/>
-      <c r="EZ14" s="30"/>
-      <c r="FA14" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="FB14" s="30"/>
-      <c r="FC14" s="30"/>
-      <c r="FD14" s="30"/>
-      <c r="FE14" s="31"/>
-      <c r="FN14" s="66"/>
-      <c r="FO14" s="67"/>
-      <c r="FP14" s="67"/>
-      <c r="FQ14" s="67"/>
-      <c r="FR14" s="68"/>
-      <c r="FS14" s="17"/>
-      <c r="FT14" s="17"/>
-      <c r="FU14" s="18"/>
-      <c r="FV14" s="53"/>
-      <c r="FW14" s="54"/>
-      <c r="FX14" s="54"/>
-      <c r="FY14" s="54"/>
-      <c r="FZ14" s="54"/>
-      <c r="GA14" s="55"/>
-      <c r="GB14" s="53"/>
-      <c r="GC14" s="54"/>
-      <c r="GD14" s="54"/>
-      <c r="GE14" s="54"/>
-      <c r="GF14" s="54"/>
-      <c r="GG14" s="55"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
+      <c r="AO14" s="47"/>
+      <c r="AP14" s="47"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="47"/>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="47"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="47"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="47"/>
+      <c r="BA14" s="47"/>
+      <c r="BB14" s="47"/>
+      <c r="BC14" s="47"/>
+      <c r="BD14" s="47"/>
+      <c r="BE14" s="47"/>
+      <c r="BF14" s="47"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="46"/>
+      <c r="BI14" s="47"/>
+      <c r="BJ14" s="47"/>
+      <c r="BK14" s="47"/>
+      <c r="BL14" s="47"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="55"/>
+      <c r="BO14" s="56"/>
+      <c r="BP14" s="56"/>
+      <c r="BQ14" s="56"/>
+      <c r="BR14" s="56"/>
+      <c r="BS14" s="56"/>
+      <c r="BT14" s="56"/>
+      <c r="BU14" s="57"/>
+      <c r="BV14" s="55"/>
+      <c r="BW14" s="56"/>
+      <c r="BX14" s="56"/>
+      <c r="BY14" s="56"/>
+      <c r="BZ14" s="56"/>
+      <c r="CA14" s="56"/>
+      <c r="CB14" s="56"/>
+      <c r="CC14" s="57"/>
+      <c r="CD14" s="55"/>
+      <c r="CE14" s="56"/>
+      <c r="CF14" s="56"/>
+      <c r="CG14" s="56"/>
+      <c r="CH14" s="56"/>
+      <c r="CI14" s="56"/>
+      <c r="CJ14" s="56"/>
+      <c r="CK14" s="57"/>
+      <c r="CL14" s="55"/>
+      <c r="CM14" s="56"/>
+      <c r="CN14" s="56"/>
+      <c r="CO14" s="56"/>
+      <c r="CP14" s="56"/>
+      <c r="CQ14" s="56"/>
+      <c r="CR14" s="56"/>
+      <c r="CS14" s="56"/>
+      <c r="CT14" s="56"/>
+      <c r="CU14" s="56"/>
+      <c r="CV14" s="56"/>
+      <c r="CW14" s="56"/>
+      <c r="CX14" s="56"/>
+      <c r="CY14" s="56"/>
+      <c r="CZ14" s="56"/>
+      <c r="DA14" s="57"/>
+      <c r="DB14" s="46"/>
+      <c r="DC14" s="47"/>
+      <c r="DD14" s="47"/>
+      <c r="DE14" s="47"/>
+      <c r="DF14" s="47"/>
+      <c r="DG14" s="47"/>
+      <c r="DH14" s="47"/>
+      <c r="DI14" s="47"/>
+      <c r="DJ14" s="47"/>
+      <c r="DK14" s="47"/>
+      <c r="DL14" s="47"/>
+      <c r="DM14" s="47"/>
+      <c r="DN14" s="47"/>
+      <c r="DO14" s="47"/>
+      <c r="DP14" s="47"/>
+      <c r="DQ14" s="48"/>
+      <c r="DR14" s="46"/>
+      <c r="DS14" s="47"/>
+      <c r="DT14" s="47"/>
+      <c r="DU14" s="47"/>
+      <c r="DV14" s="47"/>
+      <c r="DW14" s="47"/>
+      <c r="DX14" s="47"/>
+      <c r="DY14" s="47"/>
+      <c r="DZ14" s="47"/>
+      <c r="EA14" s="47"/>
+      <c r="EB14" s="47"/>
+      <c r="EC14" s="47"/>
+      <c r="ED14" s="47"/>
+      <c r="EE14" s="47"/>
+      <c r="EF14" s="47"/>
+      <c r="EG14" s="48"/>
+      <c r="EP14" s="46"/>
+      <c r="EQ14" s="47"/>
+      <c r="ER14" s="47"/>
+      <c r="ES14" s="47"/>
+      <c r="ET14" s="47"/>
+      <c r="EU14" s="47"/>
+      <c r="EV14" s="47"/>
+      <c r="EW14" s="48"/>
+      <c r="EX14" s="26"/>
+      <c r="EY14" s="26"/>
+      <c r="EZ14" s="27"/>
+      <c r="FA14" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="FB14" s="27"/>
+      <c r="FC14" s="27"/>
+      <c r="FD14" s="27"/>
+      <c r="FE14" s="28"/>
+      <c r="FN14" s="99"/>
+      <c r="FO14" s="97"/>
+      <c r="FP14" s="97"/>
+      <c r="FQ14" s="97"/>
+      <c r="FR14" s="97"/>
+      <c r="FS14" s="36"/>
+      <c r="FT14" s="36"/>
+      <c r="FU14" s="37"/>
+      <c r="FV14" s="56"/>
+      <c r="FW14" s="56"/>
+      <c r="FX14" s="56"/>
+      <c r="FY14" s="56"/>
+      <c r="FZ14" s="56"/>
+      <c r="GA14" s="57"/>
+      <c r="GB14" s="55"/>
+      <c r="GC14" s="56"/>
+      <c r="GD14" s="56"/>
+      <c r="GE14" s="56"/>
+      <c r="GF14" s="56"/>
+      <c r="GG14" s="57"/>
       <c r="GN14" t="s">
-        <v>169</v>
-      </c>
-      <c r="GT14" s="66"/>
-      <c r="GU14" s="67"/>
-      <c r="GV14" s="67"/>
-      <c r="GW14" s="67"/>
-      <c r="GX14" s="67"/>
-      <c r="GY14" s="67"/>
-      <c r="GZ14" s="67"/>
-      <c r="HA14" s="68"/>
-      <c r="HB14" s="66"/>
-      <c r="HC14" s="67"/>
-      <c r="HD14" s="67"/>
-      <c r="HE14" s="67"/>
-      <c r="HF14" s="67"/>
-      <c r="HG14" s="67"/>
-      <c r="HH14" s="67"/>
-      <c r="HI14" s="68"/>
+        <v>168</v>
+      </c>
+      <c r="GT14" s="46"/>
+      <c r="GU14" s="47"/>
+      <c r="GV14" s="47"/>
+      <c r="GW14" s="47"/>
+      <c r="GX14" s="47"/>
+      <c r="GY14" s="47"/>
+      <c r="GZ14" s="47"/>
+      <c r="HA14" s="48"/>
+      <c r="HB14" s="46"/>
+      <c r="HC14" s="47"/>
+      <c r="HD14" s="47"/>
+      <c r="HE14" s="47"/>
+      <c r="HF14" s="47"/>
+      <c r="HG14" s="47"/>
+      <c r="HH14" s="47"/>
+      <c r="HI14" s="48"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
@@ -5859,9 +5963,9 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
@@ -5888,7 +5992,7 @@
       <c r="AU15" s="14"/>
       <c r="AV15" s="14"/>
       <c r="AW15" s="14"/>
-      <c r="AX15" s="21"/>
+      <c r="AX15" s="18"/>
       <c r="AY15" s="14"/>
       <c r="AZ15" s="14"/>
       <c r="BA15" s="14"/>
@@ -5921,7 +6025,7 @@
       <c r="CB15" s="14"/>
       <c r="CC15" s="14"/>
       <c r="CD15" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CE15" s="14"/>
       <c r="CF15" s="14"/>
@@ -5952,48 +6056,48 @@
       <c r="DA15" s="14">
         <v>15</v>
       </c>
-      <c r="DB15" s="17"/>
-      <c r="DC15" s="17"/>
-      <c r="DD15" s="17"/>
-      <c r="DE15" s="17"/>
-      <c r="DF15" s="17"/>
-      <c r="DG15" s="17"/>
-      <c r="DH15" s="17"/>
-      <c r="DI15" s="17"/>
-      <c r="DJ15" s="17"/>
-      <c r="DK15" s="17"/>
-      <c r="DL15" s="17"/>
-      <c r="DM15" s="17"/>
-      <c r="DN15" s="17"/>
-      <c r="DO15" s="17"/>
-      <c r="DP15" s="17"/>
-      <c r="DQ15" s="17"/>
-      <c r="DR15" s="17"/>
-      <c r="DS15" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="DT15" s="17"/>
-      <c r="DU15" s="17"/>
-      <c r="DV15" s="17"/>
-      <c r="DW15" s="17"/>
-      <c r="DX15" s="17"/>
-      <c r="DY15" s="17"/>
-      <c r="DZ15" s="17"/>
-      <c r="EA15" s="17"/>
-      <c r="EB15" s="17"/>
-      <c r="EC15" s="17"/>
-      <c r="ED15" s="17"/>
-      <c r="EE15" s="17"/>
-      <c r="EF15" s="17"/>
-      <c r="EG15" s="17"/>
-      <c r="EH15" s="19"/>
-      <c r="EI15" s="19"/>
-      <c r="EJ15" s="19"/>
-      <c r="EK15" s="19"/>
-      <c r="EL15" s="19"/>
-      <c r="EM15" s="19"/>
-      <c r="EN15" s="19"/>
-      <c r="EO15" s="19"/>
+      <c r="DB15" s="15"/>
+      <c r="DC15" s="15"/>
+      <c r="DD15" s="15"/>
+      <c r="DE15" s="15"/>
+      <c r="DF15" s="15"/>
+      <c r="DG15" s="15"/>
+      <c r="DH15" s="15"/>
+      <c r="DI15" s="15"/>
+      <c r="DJ15" s="15"/>
+      <c r="DK15" s="15"/>
+      <c r="DL15" s="15"/>
+      <c r="DM15" s="15"/>
+      <c r="DN15" s="15"/>
+      <c r="DO15" s="15"/>
+      <c r="DP15" s="15"/>
+      <c r="DQ15" s="15"/>
+      <c r="DR15" s="15"/>
+      <c r="DS15" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="DT15" s="15"/>
+      <c r="DU15" s="15"/>
+      <c r="DV15" s="15"/>
+      <c r="DW15" s="15"/>
+      <c r="DX15" s="15"/>
+      <c r="DY15" s="15"/>
+      <c r="DZ15" s="15"/>
+      <c r="EA15" s="15"/>
+      <c r="EB15" s="15"/>
+      <c r="EC15" s="15"/>
+      <c r="ED15" s="15"/>
+      <c r="EE15" s="15"/>
+      <c r="EF15" s="15"/>
+      <c r="EG15" s="15"/>
+      <c r="EH15" s="16"/>
+      <c r="EI15" s="16"/>
+      <c r="EJ15" s="16"/>
+      <c r="EK15" s="16"/>
+      <c r="EL15" s="16"/>
+      <c r="EM15" s="16"/>
+      <c r="EN15" s="16"/>
+      <c r="EO15" s="16"/>
       <c r="EP15" s="14"/>
       <c r="EQ15" s="14"/>
       <c r="ER15" s="14"/>
@@ -6004,7 +6108,7 @@
       <c r="EW15" s="14"/>
       <c r="EX15" s="14"/>
       <c r="EY15" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EZ15" s="14"/>
       <c r="FA15" s="14"/>
@@ -6012,52 +6116,52 @@
       <c r="FC15" s="14"/>
       <c r="FD15" s="14"/>
       <c r="FE15" s="14"/>
-      <c r="FF15" s="19"/>
-      <c r="FG15" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="FH15" s="19"/>
-      <c r="FI15" s="19"/>
-      <c r="FJ15" s="19"/>
-      <c r="FK15" s="19"/>
-      <c r="FL15" s="19"/>
-      <c r="FM15" s="19"/>
-      <c r="FN15" s="17"/>
-      <c r="FO15" s="17"/>
-      <c r="FP15" s="17"/>
-      <c r="FQ15" s="17"/>
-      <c r="FR15" s="17"/>
-      <c r="FS15" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="FT15" s="20"/>
-      <c r="FU15" s="20"/>
+      <c r="FF15" s="16"/>
+      <c r="FG15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="FH15" s="16"/>
+      <c r="FI15" s="16"/>
+      <c r="FJ15" s="16"/>
+      <c r="FK15" s="16"/>
+      <c r="FL15" s="16"/>
+      <c r="FM15" s="16"/>
+      <c r="FN15" s="15"/>
+      <c r="FO15" s="15"/>
+      <c r="FP15" s="15"/>
+      <c r="FQ15" s="15"/>
+      <c r="FR15" s="15"/>
+      <c r="FS15" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT15" s="15"/>
+      <c r="FU15" s="15"/>
       <c r="FV15" s="14"/>
       <c r="FW15" s="14"/>
       <c r="FX15" s="14"/>
       <c r="FY15" s="14"/>
       <c r="FZ15" s="14"/>
       <c r="GA15" s="14"/>
-      <c r="GB15" s="19"/>
-      <c r="GC15" s="19"/>
-      <c r="GD15" s="19"/>
-      <c r="GE15" s="19"/>
-      <c r="GF15" s="19"/>
-      <c r="GG15" s="19"/>
-      <c r="GH15" s="19"/>
-      <c r="GI15" s="19"/>
-      <c r="GJ15" s="19"/>
-      <c r="GK15" s="19"/>
-      <c r="GL15" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="GM15" s="19"/>
-      <c r="GN15" s="19"/>
-      <c r="GO15" s="19"/>
-      <c r="GP15" s="19"/>
-      <c r="GQ15" s="19"/>
-      <c r="GR15" s="19"/>
-      <c r="GS15" s="19"/>
+      <c r="GB15" s="16"/>
+      <c r="GC15" s="16"/>
+      <c r="GD15" s="16"/>
+      <c r="GE15" s="16"/>
+      <c r="GF15" s="16"/>
+      <c r="GG15" s="16"/>
+      <c r="GH15" s="16"/>
+      <c r="GI15" s="16"/>
+      <c r="GJ15" s="16"/>
+      <c r="GK15" s="16"/>
+      <c r="GL15" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="GM15" s="16"/>
+      <c r="GN15" s="16"/>
+      <c r="GO15" s="16"/>
+      <c r="GP15" s="16"/>
+      <c r="GQ15" s="16"/>
+      <c r="GR15" s="16"/>
+      <c r="GS15" s="16"/>
       <c r="GT15" s="14"/>
       <c r="GU15" s="14"/>
       <c r="GV15" s="14"/>
@@ -6077,241 +6181,247 @@
     </row>
     <row r="16" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
-      <c r="N16" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="CD16" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="CE16" s="89"/>
-      <c r="CF16" s="89"/>
-      <c r="CG16" s="89"/>
-      <c r="CH16" s="89"/>
-      <c r="CI16" s="89"/>
-      <c r="CJ16" s="89"/>
-      <c r="CK16" s="89"/>
+      <c r="N16" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="CD16" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="CE16" s="39"/>
+      <c r="CF16" s="39"/>
+      <c r="CG16" s="39"/>
+      <c r="CH16" s="39"/>
+      <c r="CI16" s="39"/>
+      <c r="CJ16" s="39"/>
+      <c r="CK16" s="39"/>
       <c r="DS16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="FA16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="FG16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="FS16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="CD17" s="89"/>
-      <c r="CE17" s="89"/>
-      <c r="CF17" s="89"/>
-      <c r="CG17" s="89"/>
-      <c r="CH17" s="89"/>
-      <c r="CI17" s="89"/>
-      <c r="CJ17" s="89"/>
-      <c r="CK17" s="89"/>
+      <c r="N17" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="CD17" s="39"/>
+      <c r="CE17" s="39"/>
+      <c r="CF17" s="39"/>
+      <c r="CG17" s="39"/>
+      <c r="CH17" s="39"/>
+      <c r="CI17" s="39"/>
+      <c r="CJ17" s="39"/>
+      <c r="CK17" s="39"/>
       <c r="DN17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="EC17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="FG17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="FS17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="CD18" s="89"/>
-      <c r="CE18" s="89"/>
-      <c r="CF18" s="89"/>
-      <c r="CG18" s="89"/>
-      <c r="CH18" s="89"/>
-      <c r="CI18" s="89"/>
-      <c r="CJ18" s="89"/>
-      <c r="CK18" s="89"/>
-      <c r="CL18" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="CM18" s="91"/>
-      <c r="CN18" s="91"/>
-      <c r="CO18" s="92"/>
+      <c r="N18" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="CD18" s="39"/>
+      <c r="CE18" s="39"/>
+      <c r="CF18" s="39"/>
+      <c r="CG18" s="39"/>
+      <c r="CH18" s="39"/>
+      <c r="CI18" s="39"/>
+      <c r="CJ18" s="39"/>
+      <c r="CK18" s="39"/>
+      <c r="CL18" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="CM18" s="36"/>
+      <c r="CN18" s="36"/>
+      <c r="CO18" s="37"/>
       <c r="EC18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EY18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="CD19" s="89"/>
-      <c r="CE19" s="89"/>
-      <c r="CF19" s="89"/>
-      <c r="CG19" s="89"/>
-      <c r="CH19" s="89"/>
-      <c r="CI19" s="89"/>
-      <c r="CJ19" s="89"/>
-      <c r="CK19" s="89"/>
+        <v>72</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="CD19" s="39"/>
+      <c r="CE19" s="39"/>
+      <c r="CF19" s="39"/>
+      <c r="CG19" s="39"/>
+      <c r="CH19" s="39"/>
+      <c r="CI19" s="39"/>
+      <c r="CJ19" s="39"/>
+      <c r="CK19" s="39"/>
+      <c r="CM19" t="s">
+        <v>185</v>
+      </c>
       <c r="EC19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="FG19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
-      <c r="N20" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="CD20" s="89"/>
-      <c r="CE20" s="89"/>
-      <c r="CF20" s="89"/>
-      <c r="CG20" s="89"/>
-      <c r="CH20" s="89"/>
-      <c r="CI20" s="89"/>
-      <c r="CJ20" s="89"/>
-      <c r="CK20" s="89"/>
+      <c r="N20" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="CD20" s="39"/>
+      <c r="CE20" s="39"/>
+      <c r="CF20" s="39"/>
+      <c r="CG20" s="39"/>
+      <c r="CH20" s="39"/>
+      <c r="CI20" s="39"/>
+      <c r="CJ20" s="39"/>
+      <c r="CK20" s="39"/>
       <c r="FG20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" t="s">
         <v>85</v>
       </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="CD21" s="89"/>
-      <c r="CE21" s="89"/>
-      <c r="CF21" s="89"/>
-      <c r="CG21" s="89"/>
-      <c r="CH21" s="89"/>
-      <c r="CI21" s="89"/>
-      <c r="CJ21" s="89"/>
-      <c r="CK21" s="89"/>
+      <c r="N21" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="CD21" s="39"/>
+      <c r="CE21" s="39"/>
+      <c r="CF21" s="39"/>
+      <c r="CG21" s="39"/>
+      <c r="CH21" s="39"/>
+      <c r="CI21" s="39"/>
+      <c r="CJ21" s="39"/>
+      <c r="CK21" s="39"/>
+      <c r="DR21" t="s">
+        <v>183</v>
+      </c>
       <c r="EY21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="FG21" t="s">
-        <v>131</v>
-      </c>
-      <c r="FS21" t="s">
-        <v>179</v>
+        <v>130</v>
+      </c>
+      <c r="FN21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:175" x14ac:dyDescent="0.45">
@@ -6334,33 +6444,39 @@
         <f>DEC2HEX(G22+$F$22)</f>
         <v>5972</v>
       </c>
-      <c r="N22" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="CD22" s="89"/>
-      <c r="CE22" s="89"/>
-      <c r="CF22" s="89"/>
-      <c r="CG22" s="89"/>
-      <c r="CH22" s="89"/>
-      <c r="CI22" s="89"/>
-      <c r="CJ22" s="89"/>
-      <c r="CK22" s="89"/>
+      <c r="N22" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="39"/>
+      <c r="CF22" s="39"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="39"/>
+      <c r="DR22" t="s">
+        <v>184</v>
+      </c>
       <c r="FH22" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="FO22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:175" x14ac:dyDescent="0.45">
@@ -6376,33 +6492,33 @@
         <f t="shared" ref="I23:I48" si="41">DEC2HEX(G23+$F$22)</f>
         <v>5973</v>
       </c>
-      <c r="N23" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="CD23" s="89"/>
-      <c r="CE23" s="89"/>
-      <c r="CF23" s="89"/>
-      <c r="CG23" s="89"/>
-      <c r="CH23" s="89"/>
-      <c r="CI23" s="89"/>
-      <c r="CJ23" s="89"/>
-      <c r="CK23" s="89"/>
+      <c r="N23" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="CD23" s="39"/>
+      <c r="CE23" s="39"/>
+      <c r="CF23" s="39"/>
+      <c r="CG23" s="39"/>
+      <c r="CH23" s="39"/>
+      <c r="CI23" s="39"/>
+      <c r="CJ23" s="39"/>
+      <c r="CK23" s="39"/>
       <c r="FH23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:175" x14ac:dyDescent="0.45">
@@ -6418,16 +6534,16 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="89"/>
-      <c r="CE24" s="89"/>
-      <c r="CF24" s="89"/>
-      <c r="CG24" s="89"/>
-      <c r="CH24" s="89"/>
-      <c r="CI24" s="89"/>
-      <c r="CJ24" s="89"/>
-      <c r="CK24" s="89"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="39"/>
+      <c r="CF24" s="39"/>
+      <c r="CG24" s="39"/>
+      <c r="CH24" s="39"/>
+      <c r="CI24" s="39"/>
+      <c r="CJ24" s="39"/>
+      <c r="CK24" s="39"/>
       <c r="EX24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:175" x14ac:dyDescent="0.45">
@@ -6443,16 +6559,16 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="89"/>
-      <c r="CE25" s="89"/>
-      <c r="CF25" s="89"/>
-      <c r="CG25" s="89"/>
-      <c r="CH25" s="89"/>
-      <c r="CI25" s="89"/>
-      <c r="CJ25" s="89"/>
-      <c r="CK25" s="89"/>
+      <c r="CD25" s="39"/>
+      <c r="CE25" s="39"/>
+      <c r="CF25" s="39"/>
+      <c r="CG25" s="39"/>
+      <c r="CH25" s="39"/>
+      <c r="CI25" s="39"/>
+      <c r="CJ25" s="39"/>
+      <c r="CK25" s="39"/>
       <c r="EX25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:175" x14ac:dyDescent="0.45">
@@ -6468,14 +6584,14 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="89"/>
-      <c r="CE26" s="89"/>
-      <c r="CF26" s="89"/>
-      <c r="CG26" s="89"/>
-      <c r="CH26" s="89"/>
-      <c r="CI26" s="89"/>
-      <c r="CJ26" s="89"/>
-      <c r="CK26" s="89"/>
+      <c r="CD26" s="39"/>
+      <c r="CE26" s="39"/>
+      <c r="CF26" s="39"/>
+      <c r="CG26" s="39"/>
+      <c r="CH26" s="39"/>
+      <c r="CI26" s="39"/>
+      <c r="CJ26" s="39"/>
+      <c r="CK26" s="39"/>
     </row>
     <row r="27" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
@@ -6490,14 +6606,14 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="89"/>
-      <c r="CE27" s="89"/>
-      <c r="CF27" s="89"/>
-      <c r="CG27" s="89"/>
-      <c r="CH27" s="89"/>
-      <c r="CI27" s="89"/>
-      <c r="CJ27" s="89"/>
-      <c r="CK27" s="89"/>
+      <c r="CD27" s="39"/>
+      <c r="CE27" s="39"/>
+      <c r="CF27" s="39"/>
+      <c r="CG27" s="39"/>
+      <c r="CH27" s="39"/>
+      <c r="CI27" s="39"/>
+      <c r="CJ27" s="39"/>
+      <c r="CK27" s="39"/>
     </row>
     <row r="28" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
@@ -6512,14 +6628,14 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="89"/>
-      <c r="CE28" s="89"/>
-      <c r="CF28" s="89"/>
-      <c r="CG28" s="89"/>
-      <c r="CH28" s="89"/>
-      <c r="CI28" s="89"/>
-      <c r="CJ28" s="89"/>
-      <c r="CK28" s="89"/>
+      <c r="CD28" s="39"/>
+      <c r="CE28" s="39"/>
+      <c r="CF28" s="39"/>
+      <c r="CG28" s="39"/>
+      <c r="CH28" s="39"/>
+      <c r="CI28" s="39"/>
+      <c r="CJ28" s="39"/>
+      <c r="CK28" s="39"/>
     </row>
     <row r="29" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
@@ -6534,14 +6650,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="89"/>
-      <c r="CE29" s="89"/>
-      <c r="CF29" s="89"/>
-      <c r="CG29" s="89"/>
-      <c r="CH29" s="89"/>
-      <c r="CI29" s="89"/>
-      <c r="CJ29" s="89"/>
-      <c r="CK29" s="89"/>
+      <c r="CD29" s="39"/>
+      <c r="CE29" s="39"/>
+      <c r="CF29" s="39"/>
+      <c r="CG29" s="39"/>
+      <c r="CH29" s="39"/>
+      <c r="CI29" s="39"/>
+      <c r="CJ29" s="39"/>
+      <c r="CK29" s="39"/>
     </row>
     <row r="30" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -6557,7 +6673,7 @@
         <v>597A</v>
       </c>
       <c r="CD30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:175" x14ac:dyDescent="0.45">
@@ -6616,7 +6732,7 @@
         <v>597E</v>
       </c>
       <c r="BN34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.45">
@@ -6632,7 +6748,7 @@
         <v>597F</v>
       </c>
       <c r="BN35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.45">
@@ -6669,7 +6785,7 @@
         <v>5981</v>
       </c>
       <c r="BL37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM37">
         <v>243</v>
@@ -6717,13 +6833,13 @@
         <v>5983</v>
       </c>
       <c r="BL39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BZ39" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE39" t="s">
         <v>78</v>
-      </c>
-      <c r="CE39" t="s">
-        <v>79</v>
       </c>
       <c r="CG39">
         <v>9</v>
@@ -6746,7 +6862,7 @@
         <v>5984</v>
       </c>
       <c r="CE40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CG40">
         <v>7</v>
@@ -6889,38 +7005,89 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="138">
-    <mergeCell ref="CD16:CK29"/>
-    <mergeCell ref="GT9:HA14"/>
-    <mergeCell ref="FN9:FR14"/>
-    <mergeCell ref="HB9:HI14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="DB9:DQ14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="CD9:CK14"/>
-    <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
+  <mergeCells count="136">
+    <mergeCell ref="CX7:DA7"/>
+    <mergeCell ref="FV4:GK4"/>
+    <mergeCell ref="GH7:GK7"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="GV7:HA7"/>
+    <mergeCell ref="HB7:HI7"/>
+    <mergeCell ref="I9:Q14"/>
+    <mergeCell ref="CD7:CK7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CL7:CO7"/>
+    <mergeCell ref="DN7:DQ7"/>
+    <mergeCell ref="DB7:DC7"/>
+    <mergeCell ref="DF7:DM7"/>
+    <mergeCell ref="DR9:EG14"/>
+    <mergeCell ref="EP9:EW14"/>
+    <mergeCell ref="FV9:GA14"/>
+    <mergeCell ref="GB9:GG14"/>
+    <mergeCell ref="CL8:DA8"/>
+    <mergeCell ref="DB8:DQ8"/>
+    <mergeCell ref="DV7:EA7"/>
+    <mergeCell ref="EB7:EG7"/>
+    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="EP7:EW7"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="DR7:DU7"/>
+    <mergeCell ref="FK7:FM7"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="FV7:GA7"/>
+    <mergeCell ref="FN7:FU7"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B1:BM1"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="FF3:FM3"/>
+    <mergeCell ref="FN3:FU3"/>
+    <mergeCell ref="FV3:GC3"/>
+    <mergeCell ref="BN1:HI1"/>
+    <mergeCell ref="DJ3:DQ3"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="DZ3:EG3"/>
+    <mergeCell ref="EH3:EO3"/>
+    <mergeCell ref="EP3:EW3"/>
+    <mergeCell ref="EX3:FE3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="B3:I3"/>
     <mergeCell ref="B9:H14"/>
     <mergeCell ref="DJ2:DQ2"/>
     <mergeCell ref="DR2:DY2"/>
@@ -6945,89 +7112,36 @@
     <mergeCell ref="CL3:CS3"/>
     <mergeCell ref="CT3:DA3"/>
     <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="GT2:HA2"/>
-    <mergeCell ref="HB2:HI2"/>
-    <mergeCell ref="B1:BM1"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="FF3:FM3"/>
-    <mergeCell ref="FN3:FU3"/>
-    <mergeCell ref="FV3:GC3"/>
-    <mergeCell ref="BN1:HI1"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="DZ3:EG3"/>
-    <mergeCell ref="EH3:EO3"/>
-    <mergeCell ref="EP3:EW3"/>
-    <mergeCell ref="EX3:FE3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="EB7:EG7"/>
-    <mergeCell ref="EH7:EO7"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="DR7:DU7"/>
-    <mergeCell ref="FK7:FM7"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="FV7:GA7"/>
-    <mergeCell ref="CX7:DA7"/>
-    <mergeCell ref="FV4:GK4"/>
-    <mergeCell ref="GH7:GK7"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="GV7:HA7"/>
-    <mergeCell ref="HB7:HI7"/>
-    <mergeCell ref="I9:Q14"/>
-    <mergeCell ref="FS7:FU7"/>
-    <mergeCell ref="FN7:FR7"/>
-    <mergeCell ref="CD7:CK7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CL7:CO7"/>
-    <mergeCell ref="DN7:DQ7"/>
-    <mergeCell ref="DB7:DC7"/>
-    <mergeCell ref="DF7:DM7"/>
-    <mergeCell ref="DR9:EG14"/>
-    <mergeCell ref="EP9:EW14"/>
-    <mergeCell ref="FV9:GA14"/>
-    <mergeCell ref="GB9:GG14"/>
-    <mergeCell ref="CL8:DA8"/>
-    <mergeCell ref="DB8:DQ8"/>
-    <mergeCell ref="DV7:EA7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="CD16:CK29"/>
+    <mergeCell ref="GT9:HA14"/>
+    <mergeCell ref="HB9:HI14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="DB9:DQ14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="CD9:CK14"/>
+    <mergeCell ref="CL9:DA14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7056,7 +7170,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1">
         <f>HEX2DEC("2654")</f>
@@ -7065,22 +7179,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -7096,10 +7210,10 @@
         <v>2654</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="23" t="s">
         <v>101</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7128,13 +7242,13 @@
         <v>2656</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>121</v>
+        <v>105</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7163,13 +7277,13 @@
         <v>2658</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="23" t="s">
         <v>104</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -7198,7 +7312,7 @@
         <v>265A</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -7227,7 +7341,7 @@
         <v>265C</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -7256,7 +7370,7 @@
         <v>265E</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -7285,10 +7399,10 @@
         <v>2660</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -7317,7 +7431,7 @@
         <v>2662</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -7346,7 +7460,7 @@
         <v>2664</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -7375,7 +7489,7 @@
         <v>2666</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -7404,10 +7518,10 @@
         <v>2668</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -7436,7 +7550,7 @@
         <v>266A</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -7452,7 +7566,7 @@
         <v>266B</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -7468,7 +7582,7 @@
         <v>266C</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -7484,7 +7598,7 @@
         <v>266D</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -7500,7 +7614,7 @@
         <v>266E</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -7532,7 +7646,7 @@
         <v>2670</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -7561,10 +7675,10 @@
         <v>2672</v>
       </c>
       <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
         <v>96</v>
-      </c>
-      <c r="E33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -7593,7 +7707,7 @@
         <v>2674</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -7622,7 +7736,7 @@
         <v>2676</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -7638,7 +7752,7 @@
         <v>2677</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -7667,7 +7781,7 @@
         <v>2679</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -7683,7 +7797,7 @@
         <v>267A</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3EC84-66FE-47DB-A607-D6C73F63E585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C358AB4-646C-47DB-BE30-9CCB0F9BCD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
   <si>
     <t>Static Object</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Z position of the object in a tile</t>
-  </si>
-  <si>
-    <t>Identified bits</t>
   </si>
   <si>
     <t>Generally the health of an object or a general use parameter for a trap</t>
@@ -605,6 +602,15 @@
   </si>
   <si>
     <t>most likely animation frame no</t>
+  </si>
+  <si>
+    <t>Powerful creatures mitigate damages</t>
+  </si>
+  <si>
+    <t>Formula (creature level *5)/3</t>
+  </si>
+  <si>
+    <t>ffc0</t>
   </si>
 </sst>
 </file>
@@ -1169,36 +1175,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,24 +1251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1254,22 +1260,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1290,79 +1347,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1682,10 +1688,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="EU9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="AI9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="FN20" sqref="FN20"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1715,1075 +1721,1075 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="76" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="96"/>
+      <c r="BM1" s="97"/>
+      <c r="BN1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
-      <c r="BR1" s="77"/>
-      <c r="BS1" s="77"/>
-      <c r="BT1" s="77"/>
-      <c r="BU1" s="77"/>
-      <c r="BV1" s="77"/>
-      <c r="BW1" s="77"/>
-      <c r="BX1" s="77"/>
-      <c r="BY1" s="77"/>
-      <c r="BZ1" s="77"/>
-      <c r="CA1" s="77"/>
-      <c r="CB1" s="77"/>
-      <c r="CC1" s="77"/>
-      <c r="CD1" s="77"/>
-      <c r="CE1" s="77"/>
-      <c r="CF1" s="77"/>
-      <c r="CG1" s="77"/>
-      <c r="CH1" s="77"/>
-      <c r="CI1" s="77"/>
-      <c r="CJ1" s="77"/>
-      <c r="CK1" s="77"/>
-      <c r="CL1" s="77"/>
-      <c r="CM1" s="77"/>
-      <c r="CN1" s="77"/>
-      <c r="CO1" s="77"/>
-      <c r="CP1" s="77"/>
-      <c r="CQ1" s="77"/>
-      <c r="CR1" s="77"/>
-      <c r="CS1" s="77"/>
-      <c r="CT1" s="77"/>
-      <c r="CU1" s="77"/>
-      <c r="CV1" s="77"/>
-      <c r="CW1" s="77"/>
-      <c r="CX1" s="77"/>
-      <c r="CY1" s="77"/>
-      <c r="CZ1" s="77"/>
-      <c r="DA1" s="77"/>
-      <c r="DB1" s="77"/>
-      <c r="DC1" s="77"/>
-      <c r="DD1" s="77"/>
-      <c r="DE1" s="77"/>
-      <c r="DF1" s="77"/>
-      <c r="DG1" s="77"/>
-      <c r="DH1" s="77"/>
-      <c r="DI1" s="77"/>
-      <c r="DJ1" s="77"/>
-      <c r="DK1" s="77"/>
-      <c r="DL1" s="77"/>
-      <c r="DM1" s="77"/>
-      <c r="DN1" s="77"/>
-      <c r="DO1" s="77"/>
-      <c r="DP1" s="77"/>
-      <c r="DQ1" s="77"/>
-      <c r="DR1" s="77"/>
-      <c r="DS1" s="77"/>
-      <c r="DT1" s="77"/>
-      <c r="DU1" s="77"/>
-      <c r="DV1" s="77"/>
-      <c r="DW1" s="77"/>
-      <c r="DX1" s="77"/>
-      <c r="DY1" s="77"/>
-      <c r="DZ1" s="77"/>
-      <c r="EA1" s="77"/>
-      <c r="EB1" s="77"/>
-      <c r="EC1" s="77"/>
-      <c r="ED1" s="77"/>
-      <c r="EE1" s="77"/>
-      <c r="EF1" s="77"/>
-      <c r="EG1" s="77"/>
-      <c r="EH1" s="77"/>
-      <c r="EI1" s="77"/>
-      <c r="EJ1" s="77"/>
-      <c r="EK1" s="77"/>
-      <c r="EL1" s="77"/>
-      <c r="EM1" s="77"/>
-      <c r="EN1" s="77"/>
-      <c r="EO1" s="77"/>
-      <c r="EP1" s="77"/>
-      <c r="EQ1" s="77"/>
-      <c r="ER1" s="77"/>
-      <c r="ES1" s="77"/>
-      <c r="ET1" s="77"/>
-      <c r="EU1" s="77"/>
-      <c r="EV1" s="77"/>
-      <c r="EW1" s="77"/>
-      <c r="EX1" s="77"/>
-      <c r="EY1" s="77"/>
-      <c r="EZ1" s="77"/>
-      <c r="FA1" s="77"/>
-      <c r="FB1" s="77"/>
-      <c r="FC1" s="77"/>
-      <c r="FD1" s="77"/>
-      <c r="FE1" s="77"/>
-      <c r="FF1" s="77"/>
-      <c r="FG1" s="77"/>
-      <c r="FH1" s="77"/>
-      <c r="FI1" s="77"/>
-      <c r="FJ1" s="77"/>
-      <c r="FK1" s="77"/>
-      <c r="FL1" s="77"/>
-      <c r="FM1" s="77"/>
-      <c r="FN1" s="77"/>
-      <c r="FO1" s="77"/>
-      <c r="FP1" s="77"/>
-      <c r="FQ1" s="77"/>
-      <c r="FR1" s="77"/>
-      <c r="FS1" s="77"/>
-      <c r="FT1" s="77"/>
-      <c r="FU1" s="77"/>
-      <c r="FV1" s="77"/>
-      <c r="FW1" s="77"/>
-      <c r="FX1" s="77"/>
-      <c r="FY1" s="77"/>
-      <c r="FZ1" s="77"/>
-      <c r="GA1" s="77"/>
-      <c r="GB1" s="77"/>
-      <c r="GC1" s="77"/>
-      <c r="GD1" s="77"/>
-      <c r="GE1" s="77"/>
-      <c r="GF1" s="77"/>
-      <c r="GG1" s="77"/>
-      <c r="GH1" s="77"/>
-      <c r="GI1" s="77"/>
-      <c r="GJ1" s="77"/>
-      <c r="GK1" s="77"/>
-      <c r="GL1" s="77"/>
-      <c r="GM1" s="77"/>
-      <c r="GN1" s="77"/>
-      <c r="GO1" s="77"/>
-      <c r="GP1" s="77"/>
-      <c r="GQ1" s="77"/>
-      <c r="GR1" s="77"/>
-      <c r="GS1" s="77"/>
-      <c r="GT1" s="77"/>
-      <c r="GU1" s="77"/>
-      <c r="GV1" s="77"/>
-      <c r="GW1" s="77"/>
-      <c r="GX1" s="77"/>
-      <c r="GY1" s="77"/>
-      <c r="GZ1" s="77"/>
-      <c r="HA1" s="77"/>
-      <c r="HB1" s="77"/>
-      <c r="HC1" s="77"/>
-      <c r="HD1" s="77"/>
-      <c r="HE1" s="77"/>
-      <c r="HF1" s="77"/>
-      <c r="HG1" s="77"/>
-      <c r="HH1" s="77"/>
-      <c r="HI1" s="77"/>
+      <c r="BO1" s="96"/>
+      <c r="BP1" s="96"/>
+      <c r="BQ1" s="96"/>
+      <c r="BR1" s="96"/>
+      <c r="BS1" s="96"/>
+      <c r="BT1" s="96"/>
+      <c r="BU1" s="96"/>
+      <c r="BV1" s="96"/>
+      <c r="BW1" s="96"/>
+      <c r="BX1" s="96"/>
+      <c r="BY1" s="96"/>
+      <c r="BZ1" s="96"/>
+      <c r="CA1" s="96"/>
+      <c r="CB1" s="96"/>
+      <c r="CC1" s="96"/>
+      <c r="CD1" s="96"/>
+      <c r="CE1" s="96"/>
+      <c r="CF1" s="96"/>
+      <c r="CG1" s="96"/>
+      <c r="CH1" s="96"/>
+      <c r="CI1" s="96"/>
+      <c r="CJ1" s="96"/>
+      <c r="CK1" s="96"/>
+      <c r="CL1" s="96"/>
+      <c r="CM1" s="96"/>
+      <c r="CN1" s="96"/>
+      <c r="CO1" s="96"/>
+      <c r="CP1" s="96"/>
+      <c r="CQ1" s="96"/>
+      <c r="CR1" s="96"/>
+      <c r="CS1" s="96"/>
+      <c r="CT1" s="96"/>
+      <c r="CU1" s="96"/>
+      <c r="CV1" s="96"/>
+      <c r="CW1" s="96"/>
+      <c r="CX1" s="96"/>
+      <c r="CY1" s="96"/>
+      <c r="CZ1" s="96"/>
+      <c r="DA1" s="96"/>
+      <c r="DB1" s="96"/>
+      <c r="DC1" s="96"/>
+      <c r="DD1" s="96"/>
+      <c r="DE1" s="96"/>
+      <c r="DF1" s="96"/>
+      <c r="DG1" s="96"/>
+      <c r="DH1" s="96"/>
+      <c r="DI1" s="96"/>
+      <c r="DJ1" s="96"/>
+      <c r="DK1" s="96"/>
+      <c r="DL1" s="96"/>
+      <c r="DM1" s="96"/>
+      <c r="DN1" s="96"/>
+      <c r="DO1" s="96"/>
+      <c r="DP1" s="96"/>
+      <c r="DQ1" s="96"/>
+      <c r="DR1" s="96"/>
+      <c r="DS1" s="96"/>
+      <c r="DT1" s="96"/>
+      <c r="DU1" s="96"/>
+      <c r="DV1" s="96"/>
+      <c r="DW1" s="96"/>
+      <c r="DX1" s="96"/>
+      <c r="DY1" s="96"/>
+      <c r="DZ1" s="96"/>
+      <c r="EA1" s="96"/>
+      <c r="EB1" s="96"/>
+      <c r="EC1" s="96"/>
+      <c r="ED1" s="96"/>
+      <c r="EE1" s="96"/>
+      <c r="EF1" s="96"/>
+      <c r="EG1" s="96"/>
+      <c r="EH1" s="96"/>
+      <c r="EI1" s="96"/>
+      <c r="EJ1" s="96"/>
+      <c r="EK1" s="96"/>
+      <c r="EL1" s="96"/>
+      <c r="EM1" s="96"/>
+      <c r="EN1" s="96"/>
+      <c r="EO1" s="96"/>
+      <c r="EP1" s="96"/>
+      <c r="EQ1" s="96"/>
+      <c r="ER1" s="96"/>
+      <c r="ES1" s="96"/>
+      <c r="ET1" s="96"/>
+      <c r="EU1" s="96"/>
+      <c r="EV1" s="96"/>
+      <c r="EW1" s="96"/>
+      <c r="EX1" s="96"/>
+      <c r="EY1" s="96"/>
+      <c r="EZ1" s="96"/>
+      <c r="FA1" s="96"/>
+      <c r="FB1" s="96"/>
+      <c r="FC1" s="96"/>
+      <c r="FD1" s="96"/>
+      <c r="FE1" s="96"/>
+      <c r="FF1" s="96"/>
+      <c r="FG1" s="96"/>
+      <c r="FH1" s="96"/>
+      <c r="FI1" s="96"/>
+      <c r="FJ1" s="96"/>
+      <c r="FK1" s="96"/>
+      <c r="FL1" s="96"/>
+      <c r="FM1" s="96"/>
+      <c r="FN1" s="96"/>
+      <c r="FO1" s="96"/>
+      <c r="FP1" s="96"/>
+      <c r="FQ1" s="96"/>
+      <c r="FR1" s="96"/>
+      <c r="FS1" s="96"/>
+      <c r="FT1" s="96"/>
+      <c r="FU1" s="96"/>
+      <c r="FV1" s="96"/>
+      <c r="FW1" s="96"/>
+      <c r="FX1" s="96"/>
+      <c r="FY1" s="96"/>
+      <c r="FZ1" s="96"/>
+      <c r="GA1" s="96"/>
+      <c r="GB1" s="96"/>
+      <c r="GC1" s="96"/>
+      <c r="GD1" s="96"/>
+      <c r="GE1" s="96"/>
+      <c r="GF1" s="96"/>
+      <c r="GG1" s="96"/>
+      <c r="GH1" s="96"/>
+      <c r="GI1" s="96"/>
+      <c r="GJ1" s="96"/>
+      <c r="GK1" s="96"/>
+      <c r="GL1" s="96"/>
+      <c r="GM1" s="96"/>
+      <c r="GN1" s="96"/>
+      <c r="GO1" s="96"/>
+      <c r="GP1" s="96"/>
+      <c r="GQ1" s="96"/>
+      <c r="GR1" s="96"/>
+      <c r="GS1" s="96"/>
+      <c r="GT1" s="96"/>
+      <c r="GU1" s="96"/>
+      <c r="GV1" s="96"/>
+      <c r="GW1" s="96"/>
+      <c r="GX1" s="96"/>
+      <c r="GY1" s="96"/>
+      <c r="GZ1" s="96"/>
+      <c r="HA1" s="96"/>
+      <c r="HB1" s="96"/>
+      <c r="HC1" s="96"/>
+      <c r="HD1" s="96"/>
+      <c r="HE1" s="96"/>
+      <c r="HF1" s="96"/>
+      <c r="HG1" s="96"/>
+      <c r="HH1" s="96"/>
+      <c r="HI1" s="96"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="51">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="58">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="51">
         <v>1</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="58">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="51">
         <v>2</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="58">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="51">
         <v>3</v>
       </c>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="58">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="51">
         <v>4</v>
       </c>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="58">
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="51">
         <v>5</v>
       </c>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="58">
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="51">
         <v>6</v>
       </c>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="59"/>
-      <c r="BB2" s="59"/>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="59"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="58">
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="51">
         <v>7</v>
       </c>
-      <c r="BG2" s="59"/>
-      <c r="BH2" s="59"/>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="59"/>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="58">
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="51">
         <v>8</v>
       </c>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="59"/>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="59"/>
-      <c r="BT2" s="59"/>
-      <c r="BU2" s="60"/>
-      <c r="BV2" s="58">
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="51">
         <v>9</v>
       </c>
-      <c r="BW2" s="59"/>
-      <c r="BX2" s="59"/>
-      <c r="BY2" s="59"/>
-      <c r="BZ2" s="59"/>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="59"/>
-      <c r="CC2" s="60"/>
-      <c r="CD2" s="58">
+      <c r="BW2" s="52"/>
+      <c r="BX2" s="52"/>
+      <c r="BY2" s="52"/>
+      <c r="BZ2" s="52"/>
+      <c r="CA2" s="52"/>
+      <c r="CB2" s="52"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="51">
         <v>10</v>
       </c>
-      <c r="CE2" s="59"/>
-      <c r="CF2" s="59"/>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="59"/>
-      <c r="CI2" s="59"/>
-      <c r="CJ2" s="59"/>
-      <c r="CK2" s="60"/>
-      <c r="CL2" s="58">
+      <c r="CE2" s="52"/>
+      <c r="CF2" s="52"/>
+      <c r="CG2" s="52"/>
+      <c r="CH2" s="52"/>
+      <c r="CI2" s="52"/>
+      <c r="CJ2" s="52"/>
+      <c r="CK2" s="53"/>
+      <c r="CL2" s="51">
         <v>11</v>
       </c>
-      <c r="CM2" s="59"/>
-      <c r="CN2" s="59"/>
-      <c r="CO2" s="59"/>
-      <c r="CP2" s="59"/>
-      <c r="CQ2" s="59"/>
-      <c r="CR2" s="59"/>
-      <c r="CS2" s="60"/>
-      <c r="CT2" s="58">
+      <c r="CM2" s="52"/>
+      <c r="CN2" s="52"/>
+      <c r="CO2" s="52"/>
+      <c r="CP2" s="52"/>
+      <c r="CQ2" s="52"/>
+      <c r="CR2" s="52"/>
+      <c r="CS2" s="53"/>
+      <c r="CT2" s="51">
         <v>12</v>
       </c>
-      <c r="CU2" s="59"/>
-      <c r="CV2" s="59"/>
-      <c r="CW2" s="59"/>
-      <c r="CX2" s="59"/>
-      <c r="CY2" s="59"/>
-      <c r="CZ2" s="59"/>
-      <c r="DA2" s="60"/>
-      <c r="DB2" s="58">
+      <c r="CU2" s="52"/>
+      <c r="CV2" s="52"/>
+      <c r="CW2" s="52"/>
+      <c r="CX2" s="52"/>
+      <c r="CY2" s="52"/>
+      <c r="CZ2" s="52"/>
+      <c r="DA2" s="53"/>
+      <c r="DB2" s="51">
         <v>13</v>
       </c>
-      <c r="DC2" s="59"/>
-      <c r="DD2" s="59"/>
-      <c r="DE2" s="59"/>
-      <c r="DF2" s="59"/>
-      <c r="DG2" s="59"/>
-      <c r="DH2" s="59"/>
-      <c r="DI2" s="60"/>
-      <c r="DJ2" s="58">
+      <c r="DC2" s="52"/>
+      <c r="DD2" s="52"/>
+      <c r="DE2" s="52"/>
+      <c r="DF2" s="52"/>
+      <c r="DG2" s="52"/>
+      <c r="DH2" s="52"/>
+      <c r="DI2" s="53"/>
+      <c r="DJ2" s="51">
         <v>14</v>
       </c>
-      <c r="DK2" s="59"/>
-      <c r="DL2" s="59"/>
-      <c r="DM2" s="59"/>
-      <c r="DN2" s="59"/>
-      <c r="DO2" s="59"/>
-      <c r="DP2" s="59"/>
-      <c r="DQ2" s="60"/>
-      <c r="DR2" s="58">
+      <c r="DK2" s="52"/>
+      <c r="DL2" s="52"/>
+      <c r="DM2" s="52"/>
+      <c r="DN2" s="52"/>
+      <c r="DO2" s="52"/>
+      <c r="DP2" s="52"/>
+      <c r="DQ2" s="53"/>
+      <c r="DR2" s="51">
         <v>15</v>
       </c>
-      <c r="DS2" s="59"/>
-      <c r="DT2" s="59"/>
-      <c r="DU2" s="59"/>
-      <c r="DV2" s="59"/>
-      <c r="DW2" s="59"/>
-      <c r="DX2" s="59"/>
-      <c r="DY2" s="60"/>
-      <c r="DZ2" s="58">
+      <c r="DS2" s="52"/>
+      <c r="DT2" s="52"/>
+      <c r="DU2" s="52"/>
+      <c r="DV2" s="52"/>
+      <c r="DW2" s="52"/>
+      <c r="DX2" s="52"/>
+      <c r="DY2" s="53"/>
+      <c r="DZ2" s="51">
         <v>16</v>
       </c>
-      <c r="EA2" s="59"/>
-      <c r="EB2" s="59"/>
-      <c r="EC2" s="59"/>
-      <c r="ED2" s="59"/>
-      <c r="EE2" s="59"/>
-      <c r="EF2" s="59"/>
-      <c r="EG2" s="60"/>
-      <c r="EH2" s="58">
+      <c r="EA2" s="52"/>
+      <c r="EB2" s="52"/>
+      <c r="EC2" s="52"/>
+      <c r="ED2" s="52"/>
+      <c r="EE2" s="52"/>
+      <c r="EF2" s="52"/>
+      <c r="EG2" s="53"/>
+      <c r="EH2" s="51">
         <v>17</v>
       </c>
-      <c r="EI2" s="59"/>
-      <c r="EJ2" s="59"/>
-      <c r="EK2" s="59"/>
-      <c r="EL2" s="59"/>
-      <c r="EM2" s="59"/>
-      <c r="EN2" s="59"/>
-      <c r="EO2" s="60"/>
-      <c r="EP2" s="58">
+      <c r="EI2" s="52"/>
+      <c r="EJ2" s="52"/>
+      <c r="EK2" s="52"/>
+      <c r="EL2" s="52"/>
+      <c r="EM2" s="52"/>
+      <c r="EN2" s="52"/>
+      <c r="EO2" s="53"/>
+      <c r="EP2" s="51">
         <v>18</v>
       </c>
-      <c r="EQ2" s="59"/>
-      <c r="ER2" s="59"/>
-      <c r="ES2" s="59"/>
-      <c r="ET2" s="59"/>
-      <c r="EU2" s="59"/>
-      <c r="EV2" s="59"/>
-      <c r="EW2" s="60"/>
-      <c r="EX2" s="58">
+      <c r="EQ2" s="52"/>
+      <c r="ER2" s="52"/>
+      <c r="ES2" s="52"/>
+      <c r="ET2" s="52"/>
+      <c r="EU2" s="52"/>
+      <c r="EV2" s="52"/>
+      <c r="EW2" s="53"/>
+      <c r="EX2" s="51">
         <v>19</v>
       </c>
-      <c r="EY2" s="59"/>
-      <c r="EZ2" s="59"/>
-      <c r="FA2" s="59"/>
-      <c r="FB2" s="59"/>
-      <c r="FC2" s="59"/>
-      <c r="FD2" s="59"/>
-      <c r="FE2" s="60"/>
-      <c r="FF2" s="58">
+      <c r="EY2" s="52"/>
+      <c r="EZ2" s="52"/>
+      <c r="FA2" s="52"/>
+      <c r="FB2" s="52"/>
+      <c r="FC2" s="52"/>
+      <c r="FD2" s="52"/>
+      <c r="FE2" s="53"/>
+      <c r="FF2" s="51">
         <v>20</v>
       </c>
-      <c r="FG2" s="59"/>
-      <c r="FH2" s="59"/>
-      <c r="FI2" s="59"/>
-      <c r="FJ2" s="59"/>
-      <c r="FK2" s="59"/>
-      <c r="FL2" s="59"/>
-      <c r="FM2" s="60"/>
-      <c r="FN2" s="58">
+      <c r="FG2" s="52"/>
+      <c r="FH2" s="52"/>
+      <c r="FI2" s="52"/>
+      <c r="FJ2" s="52"/>
+      <c r="FK2" s="52"/>
+      <c r="FL2" s="52"/>
+      <c r="FM2" s="53"/>
+      <c r="FN2" s="51">
         <v>21</v>
       </c>
-      <c r="FO2" s="59"/>
-      <c r="FP2" s="59"/>
-      <c r="FQ2" s="59"/>
-      <c r="FR2" s="59"/>
-      <c r="FS2" s="59"/>
-      <c r="FT2" s="59"/>
-      <c r="FU2" s="60"/>
-      <c r="FV2" s="58">
+      <c r="FO2" s="52"/>
+      <c r="FP2" s="52"/>
+      <c r="FQ2" s="52"/>
+      <c r="FR2" s="52"/>
+      <c r="FS2" s="52"/>
+      <c r="FT2" s="52"/>
+      <c r="FU2" s="53"/>
+      <c r="FV2" s="51">
         <v>22</v>
       </c>
-      <c r="FW2" s="59"/>
-      <c r="FX2" s="59"/>
-      <c r="FY2" s="59"/>
-      <c r="FZ2" s="59"/>
-      <c r="GA2" s="59"/>
-      <c r="GB2" s="59"/>
-      <c r="GC2" s="60"/>
-      <c r="GD2" s="58">
+      <c r="FW2" s="52"/>
+      <c r="FX2" s="52"/>
+      <c r="FY2" s="52"/>
+      <c r="FZ2" s="52"/>
+      <c r="GA2" s="52"/>
+      <c r="GB2" s="52"/>
+      <c r="GC2" s="53"/>
+      <c r="GD2" s="51">
         <v>23</v>
       </c>
-      <c r="GE2" s="59"/>
-      <c r="GF2" s="59"/>
-      <c r="GG2" s="59"/>
-      <c r="GH2" s="59"/>
-      <c r="GI2" s="59"/>
-      <c r="GJ2" s="59"/>
-      <c r="GK2" s="60"/>
-      <c r="GL2" s="58">
+      <c r="GE2" s="52"/>
+      <c r="GF2" s="52"/>
+      <c r="GG2" s="52"/>
+      <c r="GH2" s="52"/>
+      <c r="GI2" s="52"/>
+      <c r="GJ2" s="52"/>
+      <c r="GK2" s="53"/>
+      <c r="GL2" s="51">
         <v>24</v>
       </c>
-      <c r="GM2" s="59"/>
-      <c r="GN2" s="59"/>
-      <c r="GO2" s="59"/>
-      <c r="GP2" s="59"/>
-      <c r="GQ2" s="59"/>
-      <c r="GR2" s="59"/>
-      <c r="GS2" s="60"/>
-      <c r="GT2" s="58">
+      <c r="GM2" s="52"/>
+      <c r="GN2" s="52"/>
+      <c r="GO2" s="52"/>
+      <c r="GP2" s="52"/>
+      <c r="GQ2" s="52"/>
+      <c r="GR2" s="52"/>
+      <c r="GS2" s="53"/>
+      <c r="GT2" s="51">
         <v>25</v>
       </c>
-      <c r="GU2" s="59"/>
-      <c r="GV2" s="59"/>
-      <c r="GW2" s="59"/>
-      <c r="GX2" s="59"/>
-      <c r="GY2" s="59"/>
-      <c r="GZ2" s="59"/>
-      <c r="HA2" s="60"/>
-      <c r="HB2" s="58">
+      <c r="GU2" s="52"/>
+      <c r="GV2" s="52"/>
+      <c r="GW2" s="52"/>
+      <c r="GX2" s="52"/>
+      <c r="GY2" s="52"/>
+      <c r="GZ2" s="52"/>
+      <c r="HA2" s="53"/>
+      <c r="HB2" s="51">
         <v>26</v>
       </c>
-      <c r="HC2" s="59"/>
-      <c r="HD2" s="59"/>
-      <c r="HE2" s="59"/>
-      <c r="HF2" s="59"/>
-      <c r="HG2" s="59"/>
-      <c r="HH2" s="59"/>
-      <c r="HI2" s="60"/>
+      <c r="HC2" s="52"/>
+      <c r="HD2" s="52"/>
+      <c r="HE2" s="52"/>
+      <c r="HF2" s="52"/>
+      <c r="HG2" s="52"/>
+      <c r="HH2" s="52"/>
+      <c r="HI2" s="53"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="58" t="str">
+      <c r="B3" s="51" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="58" t="str">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="51" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="58" t="str">
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="58" t="str">
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="51" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="58" t="str">
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="51" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="58" t="str">
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="51" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="58" t="str">
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="51" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="58" t="str">
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="51" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="58" t="str">
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="51" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="59"/>
-      <c r="BP3" s="59"/>
-      <c r="BQ3" s="59"/>
-      <c r="BR3" s="59"/>
-      <c r="BS3" s="59"/>
-      <c r="BT3" s="59"/>
-      <c r="BU3" s="60"/>
-      <c r="BV3" s="58" t="str">
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="51" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="59"/>
-      <c r="BX3" s="59"/>
-      <c r="BY3" s="59"/>
-      <c r="BZ3" s="59"/>
-      <c r="CA3" s="59"/>
-      <c r="CB3" s="59"/>
-      <c r="CC3" s="60"/>
-      <c r="CD3" s="58" t="str">
+      <c r="BW3" s="52"/>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="52"/>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="53"/>
+      <c r="CD3" s="51" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="59"/>
-      <c r="CF3" s="59"/>
-      <c r="CG3" s="59"/>
-      <c r="CH3" s="59"/>
-      <c r="CI3" s="59"/>
-      <c r="CJ3" s="59"/>
-      <c r="CK3" s="60"/>
-      <c r="CL3" s="58" t="str">
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="52"/>
+      <c r="CG3" s="52"/>
+      <c r="CH3" s="52"/>
+      <c r="CI3" s="52"/>
+      <c r="CJ3" s="52"/>
+      <c r="CK3" s="53"/>
+      <c r="CL3" s="51" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="59"/>
-      <c r="CN3" s="59"/>
-      <c r="CO3" s="59"/>
-      <c r="CP3" s="59"/>
-      <c r="CQ3" s="59"/>
-      <c r="CR3" s="59"/>
-      <c r="CS3" s="60"/>
-      <c r="CT3" s="58" t="str">
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52"/>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="52"/>
+      <c r="CS3" s="53"/>
+      <c r="CT3" s="51" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="59"/>
-      <c r="CV3" s="59"/>
-      <c r="CW3" s="59"/>
-      <c r="CX3" s="59"/>
-      <c r="CY3" s="59"/>
-      <c r="CZ3" s="59"/>
-      <c r="DA3" s="60"/>
-      <c r="DB3" s="58" t="str">
+      <c r="CU3" s="52"/>
+      <c r="CV3" s="52"/>
+      <c r="CW3" s="52"/>
+      <c r="CX3" s="52"/>
+      <c r="CY3" s="52"/>
+      <c r="CZ3" s="52"/>
+      <c r="DA3" s="53"/>
+      <c r="DB3" s="51" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="59"/>
-      <c r="DD3" s="59"/>
-      <c r="DE3" s="59"/>
-      <c r="DF3" s="59"/>
-      <c r="DG3" s="59"/>
-      <c r="DH3" s="59"/>
-      <c r="DI3" s="60"/>
-      <c r="DJ3" s="58" t="str">
+      <c r="DC3" s="52"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="52"/>
+      <c r="DF3" s="52"/>
+      <c r="DG3" s="52"/>
+      <c r="DH3" s="52"/>
+      <c r="DI3" s="53"/>
+      <c r="DJ3" s="51" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="59"/>
-      <c r="DL3" s="59"/>
-      <c r="DM3" s="59"/>
-      <c r="DN3" s="59"/>
-      <c r="DO3" s="59"/>
-      <c r="DP3" s="59"/>
-      <c r="DQ3" s="60"/>
-      <c r="DR3" s="58" t="str">
+      <c r="DK3" s="52"/>
+      <c r="DL3" s="52"/>
+      <c r="DM3" s="52"/>
+      <c r="DN3" s="52"/>
+      <c r="DO3" s="52"/>
+      <c r="DP3" s="52"/>
+      <c r="DQ3" s="53"/>
+      <c r="DR3" s="51" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="59"/>
-      <c r="DT3" s="59"/>
-      <c r="DU3" s="59"/>
-      <c r="DV3" s="59"/>
-      <c r="DW3" s="59"/>
-      <c r="DX3" s="59"/>
-      <c r="DY3" s="60"/>
-      <c r="DZ3" s="58" t="str">
+      <c r="DS3" s="52"/>
+      <c r="DT3" s="52"/>
+      <c r="DU3" s="52"/>
+      <c r="DV3" s="52"/>
+      <c r="DW3" s="52"/>
+      <c r="DX3" s="52"/>
+      <c r="DY3" s="53"/>
+      <c r="DZ3" s="51" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="59"/>
-      <c r="EB3" s="59"/>
-      <c r="EC3" s="59"/>
-      <c r="ED3" s="59"/>
-      <c r="EE3" s="59"/>
-      <c r="EF3" s="59"/>
-      <c r="EG3" s="60"/>
-      <c r="EH3" s="58" t="str">
+      <c r="EA3" s="52"/>
+      <c r="EB3" s="52"/>
+      <c r="EC3" s="52"/>
+      <c r="ED3" s="52"/>
+      <c r="EE3" s="52"/>
+      <c r="EF3" s="52"/>
+      <c r="EG3" s="53"/>
+      <c r="EH3" s="51" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="59"/>
-      <c r="EJ3" s="59"/>
-      <c r="EK3" s="59"/>
-      <c r="EL3" s="59"/>
-      <c r="EM3" s="59"/>
-      <c r="EN3" s="59"/>
-      <c r="EO3" s="60"/>
-      <c r="EP3" s="58" t="str">
+      <c r="EI3" s="52"/>
+      <c r="EJ3" s="52"/>
+      <c r="EK3" s="52"/>
+      <c r="EL3" s="52"/>
+      <c r="EM3" s="52"/>
+      <c r="EN3" s="52"/>
+      <c r="EO3" s="53"/>
+      <c r="EP3" s="51" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="59"/>
-      <c r="ER3" s="59"/>
-      <c r="ES3" s="59"/>
-      <c r="ET3" s="59"/>
-      <c r="EU3" s="59"/>
-      <c r="EV3" s="59"/>
-      <c r="EW3" s="60"/>
-      <c r="EX3" s="58" t="str">
+      <c r="EQ3" s="52"/>
+      <c r="ER3" s="52"/>
+      <c r="ES3" s="52"/>
+      <c r="ET3" s="52"/>
+      <c r="EU3" s="52"/>
+      <c r="EV3" s="52"/>
+      <c r="EW3" s="53"/>
+      <c r="EX3" s="51" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="59"/>
-      <c r="EZ3" s="59"/>
-      <c r="FA3" s="59"/>
-      <c r="FB3" s="59"/>
-      <c r="FC3" s="59"/>
-      <c r="FD3" s="59"/>
-      <c r="FE3" s="60"/>
-      <c r="FF3" s="58" t="str">
+      <c r="EY3" s="52"/>
+      <c r="EZ3" s="52"/>
+      <c r="FA3" s="52"/>
+      <c r="FB3" s="52"/>
+      <c r="FC3" s="52"/>
+      <c r="FD3" s="52"/>
+      <c r="FE3" s="53"/>
+      <c r="FF3" s="51" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="59"/>
-      <c r="FH3" s="59"/>
-      <c r="FI3" s="59"/>
-      <c r="FJ3" s="59"/>
-      <c r="FK3" s="59"/>
-      <c r="FL3" s="59"/>
-      <c r="FM3" s="60"/>
-      <c r="FN3" s="58" t="str">
+      <c r="FG3" s="52"/>
+      <c r="FH3" s="52"/>
+      <c r="FI3" s="52"/>
+      <c r="FJ3" s="52"/>
+      <c r="FK3" s="52"/>
+      <c r="FL3" s="52"/>
+      <c r="FM3" s="53"/>
+      <c r="FN3" s="51" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="59"/>
-      <c r="FP3" s="59"/>
-      <c r="FQ3" s="59"/>
-      <c r="FR3" s="59"/>
-      <c r="FS3" s="59"/>
-      <c r="FT3" s="59"/>
-      <c r="FU3" s="60"/>
-      <c r="FV3" s="58" t="str">
+      <c r="FO3" s="52"/>
+      <c r="FP3" s="52"/>
+      <c r="FQ3" s="52"/>
+      <c r="FR3" s="52"/>
+      <c r="FS3" s="52"/>
+      <c r="FT3" s="52"/>
+      <c r="FU3" s="53"/>
+      <c r="FV3" s="51" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="59"/>
-      <c r="FX3" s="59"/>
-      <c r="FY3" s="59"/>
-      <c r="FZ3" s="59"/>
-      <c r="GA3" s="59"/>
-      <c r="GB3" s="59"/>
-      <c r="GC3" s="60"/>
-      <c r="GD3" s="58" t="str">
+      <c r="FW3" s="52"/>
+      <c r="FX3" s="52"/>
+      <c r="FY3" s="52"/>
+      <c r="FZ3" s="52"/>
+      <c r="GA3" s="52"/>
+      <c r="GB3" s="52"/>
+      <c r="GC3" s="53"/>
+      <c r="GD3" s="51" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="59"/>
-      <c r="GF3" s="59"/>
-      <c r="GG3" s="59"/>
-      <c r="GH3" s="59"/>
-      <c r="GI3" s="59"/>
-      <c r="GJ3" s="59"/>
-      <c r="GK3" s="60"/>
-      <c r="GL3" s="58" t="str">
+      <c r="GE3" s="52"/>
+      <c r="GF3" s="52"/>
+      <c r="GG3" s="52"/>
+      <c r="GH3" s="52"/>
+      <c r="GI3" s="52"/>
+      <c r="GJ3" s="52"/>
+      <c r="GK3" s="53"/>
+      <c r="GL3" s="51" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="59"/>
-      <c r="GN3" s="59"/>
-      <c r="GO3" s="59"/>
-      <c r="GP3" s="59"/>
-      <c r="GQ3" s="59"/>
-      <c r="GR3" s="59"/>
-      <c r="GS3" s="60"/>
-      <c r="GT3" s="58" t="str">
+      <c r="GM3" s="52"/>
+      <c r="GN3" s="52"/>
+      <c r="GO3" s="52"/>
+      <c r="GP3" s="52"/>
+      <c r="GQ3" s="52"/>
+      <c r="GR3" s="52"/>
+      <c r="GS3" s="53"/>
+      <c r="GT3" s="51" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="59"/>
-      <c r="GV3" s="59"/>
-      <c r="GW3" s="59"/>
-      <c r="GX3" s="59"/>
-      <c r="GY3" s="59"/>
-      <c r="GZ3" s="59"/>
-      <c r="HA3" s="60"/>
-      <c r="HB3" s="58" t="str">
+      <c r="GU3" s="52"/>
+      <c r="GV3" s="52"/>
+      <c r="GW3" s="52"/>
+      <c r="GX3" s="52"/>
+      <c r="GY3" s="52"/>
+      <c r="GZ3" s="52"/>
+      <c r="HA3" s="53"/>
+      <c r="HB3" s="51" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="59"/>
-      <c r="HD3" s="59"/>
-      <c r="HE3" s="59"/>
-      <c r="HF3" s="59"/>
-      <c r="HG3" s="59"/>
-      <c r="HH3" s="59"/>
-      <c r="HI3" s="60"/>
+      <c r="HC3" s="52"/>
+      <c r="HD3" s="52"/>
+      <c r="HE3" s="52"/>
+      <c r="HF3" s="52"/>
+      <c r="HG3" s="52"/>
+      <c r="HH3" s="52"/>
+      <c r="HI3" s="53"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="51">
         <v>0</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="58">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="51">
         <v>2</v>
       </c>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="58">
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="51">
         <v>4</v>
       </c>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="58">
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="51">
         <v>6</v>
       </c>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="58">
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="52"/>
+      <c r="BL4" s="52"/>
+      <c r="BM4" s="53"/>
+      <c r="BN4" s="51">
         <v>8</v>
       </c>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="59"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="58">
+      <c r="BO4" s="52"/>
+      <c r="BP4" s="52"/>
+      <c r="BQ4" s="52"/>
+      <c r="BR4" s="52"/>
+      <c r="BS4" s="52"/>
+      <c r="BT4" s="52"/>
+      <c r="BU4" s="53"/>
+      <c r="BV4" s="51">
         <v>9</v>
       </c>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="59"/>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="59"/>
-      <c r="CB4" s="59"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="58" t="str">
+      <c r="BW4" s="52"/>
+      <c r="BX4" s="52"/>
+      <c r="BY4" s="52"/>
+      <c r="BZ4" s="52"/>
+      <c r="CA4" s="52"/>
+      <c r="CB4" s="52"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="51" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="59"/>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="59"/>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="59"/>
-      <c r="CK4" s="60"/>
-      <c r="CL4" s="58" t="str">
+      <c r="CE4" s="52"/>
+      <c r="CF4" s="52"/>
+      <c r="CG4" s="52"/>
+      <c r="CH4" s="52"/>
+      <c r="CI4" s="52"/>
+      <c r="CJ4" s="52"/>
+      <c r="CK4" s="53"/>
+      <c r="CL4" s="51" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="59"/>
-      <c r="CN4" s="59"/>
-      <c r="CO4" s="59"/>
-      <c r="CP4" s="59"/>
-      <c r="CQ4" s="59"/>
-      <c r="CR4" s="59"/>
-      <c r="CS4" s="59"/>
-      <c r="CT4" s="59"/>
-      <c r="CU4" s="59"/>
-      <c r="CV4" s="59"/>
-      <c r="CW4" s="59"/>
-      <c r="CX4" s="59"/>
-      <c r="CY4" s="59"/>
-      <c r="CZ4" s="59"/>
-      <c r="DA4" s="60"/>
-      <c r="DB4" s="58" t="str">
+      <c r="CM4" s="52"/>
+      <c r="CN4" s="52"/>
+      <c r="CO4" s="52"/>
+      <c r="CP4" s="52"/>
+      <c r="CQ4" s="52"/>
+      <c r="CR4" s="52"/>
+      <c r="CS4" s="52"/>
+      <c r="CT4" s="52"/>
+      <c r="CU4" s="52"/>
+      <c r="CV4" s="52"/>
+      <c r="CW4" s="52"/>
+      <c r="CX4" s="52"/>
+      <c r="CY4" s="52"/>
+      <c r="CZ4" s="52"/>
+      <c r="DA4" s="53"/>
+      <c r="DB4" s="51" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="59"/>
-      <c r="DD4" s="59"/>
-      <c r="DE4" s="59"/>
-      <c r="DF4" s="59"/>
-      <c r="DG4" s="59"/>
-      <c r="DH4" s="59"/>
-      <c r="DI4" s="59"/>
-      <c r="DJ4" s="59"/>
-      <c r="DK4" s="59"/>
-      <c r="DL4" s="59"/>
-      <c r="DM4" s="59"/>
-      <c r="DN4" s="59"/>
-      <c r="DO4" s="59"/>
-      <c r="DP4" s="59"/>
-      <c r="DQ4" s="60"/>
-      <c r="DR4" s="58" t="str">
+      <c r="DC4" s="52"/>
+      <c r="DD4" s="52"/>
+      <c r="DE4" s="52"/>
+      <c r="DF4" s="52"/>
+      <c r="DG4" s="52"/>
+      <c r="DH4" s="52"/>
+      <c r="DI4" s="52"/>
+      <c r="DJ4" s="52"/>
+      <c r="DK4" s="52"/>
+      <c r="DL4" s="52"/>
+      <c r="DM4" s="52"/>
+      <c r="DN4" s="52"/>
+      <c r="DO4" s="52"/>
+      <c r="DP4" s="52"/>
+      <c r="DQ4" s="53"/>
+      <c r="DR4" s="51" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="59"/>
-      <c r="DT4" s="59"/>
-      <c r="DU4" s="59"/>
-      <c r="DV4" s="59"/>
-      <c r="DW4" s="59"/>
-      <c r="DX4" s="59"/>
-      <c r="DY4" s="59"/>
-      <c r="DZ4" s="59"/>
-      <c r="EA4" s="59"/>
-      <c r="EB4" s="59"/>
-      <c r="EC4" s="59"/>
-      <c r="ED4" s="59"/>
-      <c r="EE4" s="59"/>
-      <c r="EF4" s="59"/>
-      <c r="EG4" s="60"/>
-      <c r="EH4" s="58" t="str">
+      <c r="DS4" s="52"/>
+      <c r="DT4" s="52"/>
+      <c r="DU4" s="52"/>
+      <c r="DV4" s="52"/>
+      <c r="DW4" s="52"/>
+      <c r="DX4" s="52"/>
+      <c r="DY4" s="52"/>
+      <c r="DZ4" s="52"/>
+      <c r="EA4" s="52"/>
+      <c r="EB4" s="52"/>
+      <c r="EC4" s="52"/>
+      <c r="ED4" s="52"/>
+      <c r="EE4" s="52"/>
+      <c r="EF4" s="52"/>
+      <c r="EG4" s="53"/>
+      <c r="EH4" s="51" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="59"/>
-      <c r="EJ4" s="59"/>
-      <c r="EK4" s="59"/>
-      <c r="EL4" s="59"/>
-      <c r="EM4" s="59"/>
-      <c r="EN4" s="59"/>
-      <c r="EO4" s="60"/>
-      <c r="EP4" s="58" t="str">
+      <c r="EI4" s="52"/>
+      <c r="EJ4" s="52"/>
+      <c r="EK4" s="52"/>
+      <c r="EL4" s="52"/>
+      <c r="EM4" s="52"/>
+      <c r="EN4" s="52"/>
+      <c r="EO4" s="53"/>
+      <c r="EP4" s="51" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="59"/>
-      <c r="ER4" s="59"/>
-      <c r="ES4" s="59"/>
-      <c r="ET4" s="59"/>
-      <c r="EU4" s="59"/>
-      <c r="EV4" s="59"/>
-      <c r="EW4" s="60"/>
-      <c r="EX4" s="58" t="str">
+      <c r="EQ4" s="52"/>
+      <c r="ER4" s="52"/>
+      <c r="ES4" s="52"/>
+      <c r="ET4" s="52"/>
+      <c r="EU4" s="52"/>
+      <c r="EV4" s="52"/>
+      <c r="EW4" s="53"/>
+      <c r="EX4" s="51" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="59"/>
-      <c r="EZ4" s="59"/>
-      <c r="FA4" s="59"/>
-      <c r="FB4" s="59"/>
-      <c r="FC4" s="59"/>
-      <c r="FD4" s="59"/>
-      <c r="FE4" s="60"/>
-      <c r="FF4" s="58" t="str">
+      <c r="EY4" s="52"/>
+      <c r="EZ4" s="52"/>
+      <c r="FA4" s="52"/>
+      <c r="FB4" s="52"/>
+      <c r="FC4" s="52"/>
+      <c r="FD4" s="52"/>
+      <c r="FE4" s="53"/>
+      <c r="FF4" s="51" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="59"/>
-      <c r="FH4" s="59"/>
-      <c r="FI4" s="59"/>
-      <c r="FJ4" s="59"/>
-      <c r="FK4" s="59"/>
-      <c r="FL4" s="59"/>
-      <c r="FM4" s="60"/>
-      <c r="FN4" s="58" t="str">
+      <c r="FG4" s="52"/>
+      <c r="FH4" s="52"/>
+      <c r="FI4" s="52"/>
+      <c r="FJ4" s="52"/>
+      <c r="FK4" s="52"/>
+      <c r="FL4" s="52"/>
+      <c r="FM4" s="53"/>
+      <c r="FN4" s="51" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="59"/>
-      <c r="FP4" s="59"/>
-      <c r="FQ4" s="59"/>
-      <c r="FR4" s="59"/>
-      <c r="FS4" s="59"/>
-      <c r="FT4" s="59"/>
-      <c r="FU4" s="60"/>
-      <c r="FV4" s="58" t="str">
+      <c r="FO4" s="52"/>
+      <c r="FP4" s="52"/>
+      <c r="FQ4" s="52"/>
+      <c r="FR4" s="52"/>
+      <c r="FS4" s="52"/>
+      <c r="FT4" s="52"/>
+      <c r="FU4" s="53"/>
+      <c r="FV4" s="51" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="59"/>
-      <c r="FX4" s="59"/>
-      <c r="FY4" s="59"/>
-      <c r="FZ4" s="59"/>
-      <c r="GA4" s="59"/>
-      <c r="GB4" s="59"/>
-      <c r="GC4" s="59"/>
-      <c r="GD4" s="59"/>
-      <c r="GE4" s="59"/>
-      <c r="GF4" s="59"/>
-      <c r="GG4" s="59"/>
-      <c r="GH4" s="59"/>
-      <c r="GI4" s="59"/>
-      <c r="GJ4" s="59"/>
-      <c r="GK4" s="60"/>
-      <c r="GL4" s="58" t="str">
+      <c r="FW4" s="52"/>
+      <c r="FX4" s="52"/>
+      <c r="FY4" s="52"/>
+      <c r="FZ4" s="52"/>
+      <c r="GA4" s="52"/>
+      <c r="GB4" s="52"/>
+      <c r="GC4" s="52"/>
+      <c r="GD4" s="52"/>
+      <c r="GE4" s="52"/>
+      <c r="GF4" s="52"/>
+      <c r="GG4" s="52"/>
+      <c r="GH4" s="52"/>
+      <c r="GI4" s="52"/>
+      <c r="GJ4" s="52"/>
+      <c r="GK4" s="53"/>
+      <c r="GL4" s="51" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="59"/>
-      <c r="GN4" s="59"/>
-      <c r="GO4" s="59"/>
-      <c r="GP4" s="59"/>
-      <c r="GQ4" s="59"/>
-      <c r="GR4" s="59"/>
-      <c r="GS4" s="60"/>
-      <c r="GT4" s="58" t="str">
+      <c r="GM4" s="52"/>
+      <c r="GN4" s="52"/>
+      <c r="GO4" s="52"/>
+      <c r="GP4" s="52"/>
+      <c r="GQ4" s="52"/>
+      <c r="GR4" s="52"/>
+      <c r="GS4" s="53"/>
+      <c r="GT4" s="51" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="59"/>
-      <c r="GV4" s="59"/>
-      <c r="GW4" s="59"/>
-      <c r="GX4" s="59"/>
-      <c r="GY4" s="59"/>
-      <c r="GZ4" s="59"/>
-      <c r="HA4" s="60"/>
-      <c r="HB4" s="58" t="str">
+      <c r="GU4" s="52"/>
+      <c r="GV4" s="52"/>
+      <c r="GW4" s="52"/>
+      <c r="GX4" s="52"/>
+      <c r="GY4" s="52"/>
+      <c r="GZ4" s="52"/>
+      <c r="HA4" s="53"/>
+      <c r="HB4" s="51" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="59"/>
-      <c r="HD4" s="59"/>
-      <c r="HE4" s="59"/>
-      <c r="HF4" s="59"/>
-      <c r="HG4" s="59"/>
-      <c r="HH4" s="59"/>
-      <c r="HI4" s="60"/>
+      <c r="HC4" s="52"/>
+      <c r="HD4" s="52"/>
+      <c r="HE4" s="52"/>
+      <c r="HF4" s="52"/>
+      <c r="HG4" s="52"/>
+      <c r="HH4" s="52"/>
+      <c r="HI4" s="53"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
@@ -4323,218 +4329,218 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="89" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="67" t="s">
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="67" t="s">
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="68"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="70" t="s">
+      <c r="V7" s="49"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="67" t="s">
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="67" t="s">
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="68"/>
-      <c r="AJ7" s="68"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="68"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="68"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="67" t="s">
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="68"/>
-      <c r="AU7" s="68"/>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="67" t="s">
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="69"/>
-      <c r="BH7" s="67" t="s">
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="69"/>
-      <c r="BN7" s="67" t="s">
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="50"/>
+      <c r="BN7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="68"/>
-      <c r="BP7" s="68"/>
-      <c r="BQ7" s="68"/>
-      <c r="BR7" s="68"/>
-      <c r="BS7" s="68"/>
-      <c r="BT7" s="68"/>
-      <c r="BU7" s="69"/>
-      <c r="BV7" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="BW7" s="68"/>
-      <c r="BX7" s="68"/>
-      <c r="BY7" s="68"/>
-      <c r="BZ7" s="68"/>
-      <c r="CA7" s="68"/>
-      <c r="CB7" s="68"/>
-      <c r="CC7" s="69"/>
-      <c r="CD7" s="64" t="s">
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="49"/>
+      <c r="BU7" s="50"/>
+      <c r="BV7" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW7" s="49"/>
+      <c r="BX7" s="49"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="49"/>
+      <c r="CB7" s="49"/>
+      <c r="CC7" s="50"/>
+      <c r="CD7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="65"/>
-      <c r="CF7" s="65"/>
-      <c r="CG7" s="65"/>
-      <c r="CH7" s="65"/>
-      <c r="CI7" s="65"/>
-      <c r="CJ7" s="65"/>
-      <c r="CK7" s="66"/>
-      <c r="CL7" s="64" t="s">
+      <c r="CE7" s="67"/>
+      <c r="CF7" s="67"/>
+      <c r="CG7" s="67"/>
+      <c r="CH7" s="67"/>
+      <c r="CI7" s="67"/>
+      <c r="CJ7" s="67"/>
+      <c r="CK7" s="68"/>
+      <c r="CL7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="CM7" s="65"/>
-      <c r="CN7" s="65"/>
-      <c r="CO7" s="66"/>
-      <c r="CP7" s="100" t="s">
+      <c r="CM7" s="67"/>
+      <c r="CN7" s="67"/>
+      <c r="CO7" s="68"/>
+      <c r="CP7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="101"/>
-      <c r="CR7" s="101"/>
-      <c r="CS7" s="101"/>
-      <c r="CT7" s="101"/>
-      <c r="CU7" s="101"/>
-      <c r="CV7" s="101"/>
-      <c r="CW7" s="102"/>
-      <c r="CX7" s="67" t="s">
+      <c r="CQ7" s="71"/>
+      <c r="CR7" s="71"/>
+      <c r="CS7" s="71"/>
+      <c r="CT7" s="71"/>
+      <c r="CU7" s="71"/>
+      <c r="CV7" s="71"/>
+      <c r="CW7" s="72"/>
+      <c r="CX7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="68"/>
-      <c r="CZ7" s="68"/>
-      <c r="DA7" s="69"/>
-      <c r="DB7" s="67" t="s">
+      <c r="CY7" s="49"/>
+      <c r="CZ7" s="49"/>
+      <c r="DA7" s="50"/>
+      <c r="DB7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="DC7" s="69"/>
+      <c r="DC7" s="50"/>
       <c r="DD7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="DE7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="DF7" s="64" t="s">
+      <c r="DF7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="DG7" s="65"/>
-      <c r="DH7" s="65"/>
-      <c r="DI7" s="65"/>
-      <c r="DJ7" s="65"/>
-      <c r="DK7" s="65"/>
-      <c r="DL7" s="65"/>
-      <c r="DM7" s="66"/>
-      <c r="DN7" s="64" t="s">
+      <c r="DG7" s="67"/>
+      <c r="DH7" s="67"/>
+      <c r="DI7" s="67"/>
+      <c r="DJ7" s="67"/>
+      <c r="DK7" s="67"/>
+      <c r="DL7" s="67"/>
+      <c r="DM7" s="68"/>
+      <c r="DN7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="DO7" s="65"/>
-      <c r="DP7" s="65"/>
-      <c r="DQ7" s="66"/>
-      <c r="DR7" s="79" t="s">
+      <c r="DO7" s="67"/>
+      <c r="DP7" s="67"/>
+      <c r="DQ7" s="68"/>
+      <c r="DR7" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="DS7" s="80"/>
-      <c r="DT7" s="80"/>
-      <c r="DU7" s="81"/>
-      <c r="DV7" s="79" t="s">
+      <c r="DS7" s="84"/>
+      <c r="DT7" s="84"/>
+      <c r="DU7" s="85"/>
+      <c r="DV7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="DW7" s="80"/>
-      <c r="DX7" s="80"/>
-      <c r="DY7" s="80"/>
-      <c r="DZ7" s="80"/>
-      <c r="EA7" s="81"/>
-      <c r="EB7" s="79" t="s">
+      <c r="DW7" s="84"/>
+      <c r="DX7" s="84"/>
+      <c r="DY7" s="84"/>
+      <c r="DZ7" s="84"/>
+      <c r="EA7" s="85"/>
+      <c r="EB7" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="EC7" s="80"/>
-      <c r="ED7" s="80"/>
-      <c r="EE7" s="80"/>
-      <c r="EF7" s="80"/>
-      <c r="EG7" s="81"/>
-      <c r="EH7" s="58" t="s">
+      <c r="EC7" s="84"/>
+      <c r="ED7" s="84"/>
+      <c r="EE7" s="84"/>
+      <c r="EF7" s="84"/>
+      <c r="EG7" s="85"/>
+      <c r="EH7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="EI7" s="59"/>
-      <c r="EJ7" s="59"/>
-      <c r="EK7" s="59"/>
-      <c r="EL7" s="59"/>
-      <c r="EM7" s="59"/>
-      <c r="EN7" s="59"/>
-      <c r="EO7" s="60"/>
-      <c r="EP7" s="100" t="s">
+      <c r="EI7" s="52"/>
+      <c r="EJ7" s="52"/>
+      <c r="EK7" s="52"/>
+      <c r="EL7" s="52"/>
+      <c r="EM7" s="52"/>
+      <c r="EN7" s="52"/>
+      <c r="EO7" s="53"/>
+      <c r="EP7" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="EQ7" s="101"/>
-      <c r="ER7" s="101"/>
-      <c r="ES7" s="101"/>
-      <c r="ET7" s="101"/>
-      <c r="EU7" s="101"/>
-      <c r="EV7" s="101"/>
-      <c r="EW7" s="102"/>
+      <c r="EQ7" s="71"/>
+      <c r="ER7" s="71"/>
+      <c r="ES7" s="71"/>
+      <c r="ET7" s="71"/>
+      <c r="EU7" s="71"/>
+      <c r="EV7" s="71"/>
+      <c r="EW7" s="72"/>
       <c r="EX7" s="29"/>
-      <c r="EY7" s="73" t="s">
+      <c r="EY7" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="EZ7" s="74"/>
-      <c r="FA7" s="74"/>
-      <c r="FB7" s="74"/>
-      <c r="FC7" s="74"/>
-      <c r="FD7" s="74"/>
-      <c r="FE7" s="75"/>
+      <c r="EZ7" s="93"/>
+      <c r="FA7" s="93"/>
+      <c r="FB7" s="93"/>
+      <c r="FC7" s="93"/>
+      <c r="FD7" s="93"/>
+      <c r="FE7" s="94"/>
       <c r="FF7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="FG7" s="31" t="s">
         <v>59</v>
@@ -4547,178 +4553,184 @@
       </c>
       <c r="FL7" s="87"/>
       <c r="FM7" s="88"/>
-      <c r="FN7" s="103" t="s">
+      <c r="FN7" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="FO7" s="104"/>
-      <c r="FP7" s="104"/>
-      <c r="FQ7" s="104"/>
-      <c r="FR7" s="104"/>
-      <c r="FS7" s="104"/>
-      <c r="FT7" s="104"/>
-      <c r="FU7" s="105"/>
-      <c r="FV7" s="82" t="s">
+      <c r="FO7" s="90"/>
+      <c r="FP7" s="90"/>
+      <c r="FQ7" s="90"/>
+      <c r="FR7" s="90"/>
+      <c r="FS7" s="90"/>
+      <c r="FT7" s="90"/>
+      <c r="FU7" s="91"/>
+      <c r="FV7" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="FW7" s="83"/>
-      <c r="FX7" s="83"/>
-      <c r="FY7" s="83"/>
-      <c r="FZ7" s="83"/>
-      <c r="GA7" s="84"/>
-      <c r="GB7" s="82" t="s">
+      <c r="FW7" s="55"/>
+      <c r="FX7" s="55"/>
+      <c r="FY7" s="55"/>
+      <c r="FZ7" s="55"/>
+      <c r="GA7" s="56"/>
+      <c r="GB7" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="GC7" s="83"/>
-      <c r="GD7" s="83"/>
-      <c r="GE7" s="83"/>
-      <c r="GF7" s="83"/>
-      <c r="GG7" s="84"/>
-      <c r="GH7" s="58" t="s">
+      <c r="GC7" s="55"/>
+      <c r="GD7" s="55"/>
+      <c r="GE7" s="55"/>
+      <c r="GF7" s="55"/>
+      <c r="GG7" s="56"/>
+      <c r="GH7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="GI7" s="59"/>
-      <c r="GJ7" s="59"/>
-      <c r="GK7" s="60"/>
-      <c r="GL7" s="58" t="s">
+      <c r="GI7" s="52"/>
+      <c r="GJ7" s="52"/>
+      <c r="GK7" s="53"/>
+      <c r="GL7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="GM7" s="59"/>
-      <c r="GN7" s="60"/>
-      <c r="GO7" s="82" t="s">
+      <c r="GM7" s="52"/>
+      <c r="GN7" s="53"/>
+      <c r="GO7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="GP7" s="83"/>
-      <c r="GQ7" s="83"/>
-      <c r="GR7" s="83"/>
-      <c r="GS7" s="84"/>
+      <c r="GP7" s="55"/>
+      <c r="GQ7" s="55"/>
+      <c r="GR7" s="55"/>
+      <c r="GS7" s="56"/>
       <c r="GT7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="GU7" s="2"/>
-      <c r="GV7" s="58" t="s">
+      <c r="GV7" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="GW7" s="59"/>
-      <c r="GX7" s="59"/>
-      <c r="GY7" s="59"/>
-      <c r="GZ7" s="59"/>
-      <c r="HA7" s="60"/>
-      <c r="HB7" s="82" t="s">
+      <c r="GW7" s="52"/>
+      <c r="GX7" s="52"/>
+      <c r="GY7" s="52"/>
+      <c r="GZ7" s="52"/>
+      <c r="HA7" s="53"/>
+      <c r="HB7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="HC7" s="83"/>
-      <c r="HD7" s="83"/>
-      <c r="HE7" s="83"/>
-      <c r="HF7" s="83"/>
-      <c r="HG7" s="83"/>
-      <c r="HH7" s="83"/>
-      <c r="HI7" s="84"/>
+      <c r="HC7" s="55"/>
+      <c r="HD7" s="55"/>
+      <c r="HE7" s="55"/>
+      <c r="HF7" s="55"/>
+      <c r="HG7" s="55"/>
+      <c r="HH7" s="55"/>
+      <c r="HI7" s="56"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
       <c r="R8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U8" t="s">
-        <v>151</v>
-      </c>
-      <c r="X8" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="75"/>
+        <v>150</v>
+      </c>
+      <c r="X8" s="92">
+        <v>380</v>
+      </c>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="94"/>
       <c r="AD8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>153</v>
+      </c>
+      <c r="CL8" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM8" s="82"/>
+      <c r="CN8" s="82"/>
+      <c r="CO8" s="82"/>
+      <c r="CP8" s="82"/>
+      <c r="CQ8" s="82"/>
+      <c r="CR8" s="82"/>
+      <c r="CS8" s="82"/>
+      <c r="CT8" s="82"/>
+      <c r="CU8" s="82"/>
+      <c r="CV8" s="82"/>
+      <c r="CW8" s="82"/>
+      <c r="CX8" s="82"/>
+      <c r="CY8" s="82"/>
+      <c r="CZ8" s="82"/>
+      <c r="DA8" s="82"/>
+      <c r="DB8" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="DC8" s="82"/>
+      <c r="DD8" s="82"/>
+      <c r="DE8" s="82"/>
+      <c r="DF8" s="82"/>
+      <c r="DG8" s="82"/>
+      <c r="DH8" s="82"/>
+      <c r="DI8" s="82"/>
+      <c r="DJ8" s="82"/>
+      <c r="DK8" s="82"/>
+      <c r="DL8" s="82"/>
+      <c r="DM8" s="82"/>
+      <c r="DN8" s="82"/>
+      <c r="DO8" s="82"/>
+      <c r="DP8" s="82"/>
+      <c r="DQ8" s="82"/>
+      <c r="DR8" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="DS8" s="82"/>
+      <c r="DT8" s="82"/>
+      <c r="DU8" s="82"/>
+      <c r="DV8" s="82"/>
+      <c r="DW8" s="82"/>
+      <c r="DX8" s="82"/>
+      <c r="DY8" s="82"/>
+      <c r="DZ8" s="82"/>
+      <c r="EA8" s="82"/>
+      <c r="EB8" s="82"/>
+      <c r="EC8" s="82"/>
+      <c r="ED8" s="82"/>
+      <c r="EE8" s="82"/>
+      <c r="EF8" s="82"/>
+      <c r="EG8" s="82"/>
+      <c r="FH8" t="s">
         <v>143</v>
       </c>
-      <c r="AL8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>154</v>
-      </c>
-      <c r="CL8" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="CM8" s="85"/>
-      <c r="CN8" s="85"/>
-      <c r="CO8" s="85"/>
-      <c r="CP8" s="85"/>
-      <c r="CQ8" s="85"/>
-      <c r="CR8" s="85"/>
-      <c r="CS8" s="85"/>
-      <c r="CT8" s="85"/>
-      <c r="CU8" s="85"/>
-      <c r="CV8" s="85"/>
-      <c r="CW8" s="85"/>
-      <c r="CX8" s="85"/>
-      <c r="CY8" s="85"/>
-      <c r="CZ8" s="85"/>
-      <c r="DA8" s="85"/>
-      <c r="DB8" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="DC8" s="85"/>
-      <c r="DD8" s="85"/>
-      <c r="DE8" s="85"/>
-      <c r="DF8" s="85"/>
-      <c r="DG8" s="85"/>
-      <c r="DH8" s="85"/>
-      <c r="DI8" s="85"/>
-      <c r="DJ8" s="85"/>
-      <c r="DK8" s="85"/>
-      <c r="DL8" s="85"/>
-      <c r="DM8" s="85"/>
-      <c r="DN8" s="85"/>
-      <c r="DO8" s="85"/>
-      <c r="DP8" s="85"/>
-      <c r="DQ8" s="85"/>
-      <c r="DR8" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS8" s="85"/>
-      <c r="DT8" s="85"/>
-      <c r="DU8" s="85"/>
-      <c r="DV8" s="85"/>
-      <c r="DW8" s="85"/>
-      <c r="DX8" s="85"/>
-      <c r="DY8" s="85"/>
-      <c r="DZ8" s="85"/>
-      <c r="EA8" s="85"/>
-      <c r="EB8" s="85"/>
-      <c r="EC8" s="85"/>
-      <c r="ED8" s="85"/>
-      <c r="EE8" s="85"/>
-      <c r="EF8" s="85"/>
-      <c r="EG8" s="85"/>
-      <c r="FH8" t="s">
-        <v>144</v>
-      </c>
-      <c r="FN8" s="91" t="s">
-        <v>181</v>
+      <c r="FN8" s="39" t="s">
+        <v>180</v>
       </c>
       <c r="FO8" s="17"/>
       <c r="FP8" s="17"/>
       <c r="FQ8" s="17"/>
-      <c r="FR8" s="93"/>
+      <c r="FR8" s="41"/>
       <c r="FV8" t="s">
+        <v>148</v>
+      </c>
+      <c r="GB8" t="s">
         <v>149</v>
-      </c>
-      <c r="GB8" t="s">
-        <v>150</v>
       </c>
       <c r="HI8" s="19"/>
     </row>
@@ -4726,184 +4738,184 @@
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="49" t="s">
+      <c r="B9" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="40" t="s">
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="41"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="40" t="s">
+      <c r="S9" s="74"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="40" t="s">
+      <c r="V9" s="74"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="40" t="s">
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="40" t="s">
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="40" t="s">
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="41" t="s">
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="74"/>
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="42"/>
-      <c r="BH9" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI9" s="41"/>
-      <c r="BJ9" s="41"/>
-      <c r="BK9" s="41"/>
-      <c r="BL9" s="41"/>
-      <c r="BM9" s="42"/>
-      <c r="BN9" s="49" t="s">
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="74"/>
+      <c r="BK9" s="74"/>
+      <c r="BL9" s="74"/>
+      <c r="BM9" s="75"/>
+      <c r="BN9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="BO9" s="50"/>
-      <c r="BP9" s="50"/>
-      <c r="BQ9" s="50"/>
-      <c r="BR9" s="50"/>
-      <c r="BS9" s="50"/>
-      <c r="BT9" s="50"/>
-      <c r="BU9" s="51"/>
-      <c r="BV9" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW9" s="50"/>
-      <c r="BX9" s="50"/>
-      <c r="BY9" s="50"/>
-      <c r="BZ9" s="50"/>
-      <c r="CA9" s="50"/>
-      <c r="CB9" s="50"/>
-      <c r="CC9" s="51"/>
-      <c r="CD9" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="CE9" s="50"/>
-      <c r="CF9" s="50"/>
-      <c r="CG9" s="50"/>
-      <c r="CH9" s="50"/>
-      <c r="CI9" s="50"/>
-      <c r="CJ9" s="50"/>
-      <c r="CK9" s="51"/>
-      <c r="CL9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="CM9" s="50"/>
-      <c r="CN9" s="50"/>
-      <c r="CO9" s="50"/>
-      <c r="CP9" s="50"/>
-      <c r="CQ9" s="50"/>
-      <c r="CR9" s="50"/>
-      <c r="CS9" s="50"/>
-      <c r="CT9" s="50"/>
-      <c r="CU9" s="50"/>
-      <c r="CV9" s="50"/>
-      <c r="CW9" s="50"/>
-      <c r="CX9" s="50"/>
-      <c r="CY9" s="50"/>
-      <c r="CZ9" s="50"/>
-      <c r="DA9" s="51"/>
-      <c r="DB9" s="40" t="s">
+      <c r="BO9" s="58"/>
+      <c r="BP9" s="58"/>
+      <c r="BQ9" s="58"/>
+      <c r="BR9" s="58"/>
+      <c r="BS9" s="58"/>
+      <c r="BT9" s="58"/>
+      <c r="BU9" s="59"/>
+      <c r="BV9" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW9" s="58"/>
+      <c r="BX9" s="58"/>
+      <c r="BY9" s="58"/>
+      <c r="BZ9" s="58"/>
+      <c r="CA9" s="58"/>
+      <c r="CB9" s="58"/>
+      <c r="CC9" s="59"/>
+      <c r="CD9" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="DC9" s="41"/>
-      <c r="DD9" s="41"/>
-      <c r="DE9" s="41"/>
-      <c r="DF9" s="41"/>
-      <c r="DG9" s="41"/>
-      <c r="DH9" s="41"/>
-      <c r="DI9" s="41"/>
-      <c r="DJ9" s="41"/>
-      <c r="DK9" s="41"/>
-      <c r="DL9" s="41"/>
-      <c r="DM9" s="41"/>
-      <c r="DN9" s="41"/>
-      <c r="DO9" s="41"/>
-      <c r="DP9" s="41"/>
-      <c r="DQ9" s="42"/>
-      <c r="DR9" s="40" t="s">
+      <c r="CE9" s="58"/>
+      <c r="CF9" s="58"/>
+      <c r="CG9" s="58"/>
+      <c r="CH9" s="58"/>
+      <c r="CI9" s="58"/>
+      <c r="CJ9" s="58"/>
+      <c r="CK9" s="59"/>
+      <c r="CL9" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM9" s="58"/>
+      <c r="CN9" s="58"/>
+      <c r="CO9" s="58"/>
+      <c r="CP9" s="58"/>
+      <c r="CQ9" s="58"/>
+      <c r="CR9" s="58"/>
+      <c r="CS9" s="58"/>
+      <c r="CT9" s="58"/>
+      <c r="CU9" s="58"/>
+      <c r="CV9" s="58"/>
+      <c r="CW9" s="58"/>
+      <c r="CX9" s="58"/>
+      <c r="CY9" s="58"/>
+      <c r="CZ9" s="58"/>
+      <c r="DA9" s="59"/>
+      <c r="DB9" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="DC9" s="74"/>
+      <c r="DD9" s="74"/>
+      <c r="DE9" s="74"/>
+      <c r="DF9" s="74"/>
+      <c r="DG9" s="74"/>
+      <c r="DH9" s="74"/>
+      <c r="DI9" s="74"/>
+      <c r="DJ9" s="74"/>
+      <c r="DK9" s="74"/>
+      <c r="DL9" s="74"/>
+      <c r="DM9" s="74"/>
+      <c r="DN9" s="74"/>
+      <c r="DO9" s="74"/>
+      <c r="DP9" s="74"/>
+      <c r="DQ9" s="75"/>
+      <c r="DR9" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="DS9" s="41"/>
-      <c r="DT9" s="41"/>
-      <c r="DU9" s="41"/>
-      <c r="DV9" s="41"/>
-      <c r="DW9" s="41"/>
-      <c r="DX9" s="41"/>
-      <c r="DY9" s="41"/>
-      <c r="DZ9" s="41"/>
-      <c r="EA9" s="41"/>
-      <c r="EB9" s="41"/>
-      <c r="EC9" s="41"/>
-      <c r="ED9" s="41"/>
-      <c r="EE9" s="41"/>
-      <c r="EF9" s="41"/>
-      <c r="EG9" s="42"/>
-      <c r="EP9" s="40" t="s">
+      <c r="DS9" s="74"/>
+      <c r="DT9" s="74"/>
+      <c r="DU9" s="74"/>
+      <c r="DV9" s="74"/>
+      <c r="DW9" s="74"/>
+      <c r="DX9" s="74"/>
+      <c r="DY9" s="74"/>
+      <c r="DZ9" s="74"/>
+      <c r="EA9" s="74"/>
+      <c r="EB9" s="74"/>
+      <c r="EC9" s="74"/>
+      <c r="ED9" s="74"/>
+      <c r="EE9" s="74"/>
+      <c r="EF9" s="74"/>
+      <c r="EG9" s="75"/>
+      <c r="EP9" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="EQ9" s="41"/>
-      <c r="ER9" s="41"/>
-      <c r="ES9" s="41"/>
-      <c r="ET9" s="41"/>
-      <c r="EU9" s="41"/>
-      <c r="EV9" s="41"/>
-      <c r="EW9" s="42"/>
+      <c r="EQ9" s="74"/>
+      <c r="ER9" s="74"/>
+      <c r="ES9" s="74"/>
+      <c r="ET9" s="74"/>
+      <c r="EU9" s="74"/>
+      <c r="EV9" s="74"/>
+      <c r="EW9" s="75"/>
       <c r="EX9" s="21"/>
       <c r="EY9" s="21"/>
       <c r="EZ9" s="22"/>
@@ -4915,199 +4927,199 @@
       <c r="FJ9" t="s">
         <v>58</v>
       </c>
-      <c r="FN9" s="92" t="s">
+      <c r="FN9" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="FO9" s="94"/>
-      <c r="FP9" s="94"/>
-      <c r="FQ9" s="94"/>
-      <c r="FR9" s="95"/>
+      <c r="FO9" s="42"/>
+      <c r="FP9" s="42"/>
+      <c r="FQ9" s="42"/>
+      <c r="FR9" s="43"/>
       <c r="FS9" s="17"/>
       <c r="FT9" s="17"/>
-      <c r="FU9" s="93"/>
-      <c r="FV9" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="FW9" s="50"/>
-      <c r="FX9" s="50"/>
-      <c r="FY9" s="50"/>
-      <c r="FZ9" s="50"/>
-      <c r="GA9" s="51"/>
-      <c r="GB9" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="GC9" s="50"/>
-      <c r="GD9" s="50"/>
-      <c r="GE9" s="50"/>
-      <c r="GF9" s="50"/>
-      <c r="GG9" s="51"/>
-      <c r="GT9" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="GU9" s="41"/>
-      <c r="GV9" s="41"/>
-      <c r="GW9" s="41"/>
-      <c r="GX9" s="41"/>
-      <c r="GY9" s="41"/>
-      <c r="GZ9" s="41"/>
-      <c r="HA9" s="42"/>
-      <c r="HB9" s="40" t="s">
+      <c r="FU9" s="41"/>
+      <c r="FV9" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="FW9" s="58"/>
+      <c r="FX9" s="58"/>
+      <c r="FY9" s="58"/>
+      <c r="FZ9" s="58"/>
+      <c r="GA9" s="59"/>
+      <c r="GB9" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="GC9" s="58"/>
+      <c r="GD9" s="58"/>
+      <c r="GE9" s="58"/>
+      <c r="GF9" s="58"/>
+      <c r="GG9" s="59"/>
+      <c r="GT9" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="GU9" s="74"/>
+      <c r="GV9" s="74"/>
+      <c r="GW9" s="74"/>
+      <c r="GX9" s="74"/>
+      <c r="GY9" s="74"/>
+      <c r="GZ9" s="74"/>
+      <c r="HA9" s="75"/>
+      <c r="HB9" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="HC9" s="41"/>
-      <c r="HD9" s="41"/>
-      <c r="HE9" s="41"/>
-      <c r="HF9" s="41"/>
-      <c r="HG9" s="41"/>
-      <c r="HH9" s="41"/>
-      <c r="HI9" s="42"/>
+      <c r="HC9" s="74"/>
+      <c r="HD9" s="74"/>
+      <c r="HE9" s="74"/>
+      <c r="HF9" s="74"/>
+      <c r="HG9" s="74"/>
+      <c r="HH9" s="74"/>
+      <c r="HI9" s="75"/>
     </row>
     <row r="10" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="45"/>
-      <c r="AR10" s="43"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="45"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="45"/>
-      <c r="BH10" s="43"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-      <c r="BM10" s="45"/>
-      <c r="BN10" s="52"/>
-      <c r="BO10" s="53"/>
-      <c r="BP10" s="53"/>
-      <c r="BQ10" s="53"/>
-      <c r="BR10" s="53"/>
-      <c r="BS10" s="53"/>
-      <c r="BT10" s="53"/>
-      <c r="BU10" s="54"/>
-      <c r="BV10" s="52"/>
-      <c r="BW10" s="53"/>
-      <c r="BX10" s="53"/>
-      <c r="BY10" s="53"/>
-      <c r="BZ10" s="53"/>
-      <c r="CA10" s="53"/>
-      <c r="CB10" s="53"/>
-      <c r="CC10" s="54"/>
-      <c r="CD10" s="52"/>
-      <c r="CE10" s="53"/>
-      <c r="CF10" s="53"/>
-      <c r="CG10" s="53"/>
-      <c r="CH10" s="53"/>
-      <c r="CI10" s="53"/>
-      <c r="CJ10" s="53"/>
-      <c r="CK10" s="54"/>
-      <c r="CL10" s="52"/>
-      <c r="CM10" s="53"/>
-      <c r="CN10" s="53"/>
-      <c r="CO10" s="53"/>
-      <c r="CP10" s="53"/>
-      <c r="CQ10" s="53"/>
-      <c r="CR10" s="53"/>
-      <c r="CS10" s="53"/>
-      <c r="CT10" s="53"/>
-      <c r="CU10" s="53"/>
-      <c r="CV10" s="53"/>
-      <c r="CW10" s="53"/>
-      <c r="CX10" s="53"/>
-      <c r="CY10" s="53"/>
-      <c r="CZ10" s="53"/>
-      <c r="DA10" s="54"/>
-      <c r="DB10" s="43"/>
-      <c r="DC10" s="44"/>
-      <c r="DD10" s="44"/>
-      <c r="DE10" s="44"/>
-      <c r="DF10" s="44"/>
-      <c r="DG10" s="44"/>
-      <c r="DH10" s="44"/>
-      <c r="DI10" s="44"/>
-      <c r="DJ10" s="44"/>
-      <c r="DK10" s="44"/>
-      <c r="DL10" s="44"/>
-      <c r="DM10" s="44"/>
-      <c r="DN10" s="44"/>
-      <c r="DO10" s="44"/>
-      <c r="DP10" s="44"/>
-      <c r="DQ10" s="45"/>
-      <c r="DR10" s="43"/>
-      <c r="DS10" s="44"/>
-      <c r="DT10" s="44"/>
-      <c r="DU10" s="44"/>
-      <c r="DV10" s="44"/>
-      <c r="DW10" s="44"/>
-      <c r="DX10" s="44"/>
-      <c r="DY10" s="44"/>
-      <c r="DZ10" s="44"/>
-      <c r="EA10" s="44"/>
-      <c r="EB10" s="44"/>
-      <c r="EC10" s="44"/>
-      <c r="ED10" s="44"/>
-      <c r="EE10" s="44"/>
-      <c r="EF10" s="44"/>
-      <c r="EG10" s="45"/>
-      <c r="EP10" s="43"/>
-      <c r="EQ10" s="44"/>
-      <c r="ER10" s="44"/>
-      <c r="ES10" s="44"/>
-      <c r="ET10" s="44"/>
-      <c r="EU10" s="44"/>
-      <c r="EV10" s="44"/>
-      <c r="EW10" s="45"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="77"/>
+      <c r="BK10" s="77"/>
+      <c r="BL10" s="77"/>
+      <c r="BM10" s="78"/>
+      <c r="BN10" s="60"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="61"/>
+      <c r="BS10" s="61"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="62"/>
+      <c r="BV10" s="60"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="61"/>
+      <c r="BZ10" s="61"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="62"/>
+      <c r="CD10" s="60"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="61"/>
+      <c r="CG10" s="61"/>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="61"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="62"/>
+      <c r="CL10" s="60"/>
+      <c r="CM10" s="61"/>
+      <c r="CN10" s="61"/>
+      <c r="CO10" s="61"/>
+      <c r="CP10" s="61"/>
+      <c r="CQ10" s="61"/>
+      <c r="CR10" s="61"/>
+      <c r="CS10" s="61"/>
+      <c r="CT10" s="61"/>
+      <c r="CU10" s="61"/>
+      <c r="CV10" s="61"/>
+      <c r="CW10" s="61"/>
+      <c r="CX10" s="61"/>
+      <c r="CY10" s="61"/>
+      <c r="CZ10" s="61"/>
+      <c r="DA10" s="62"/>
+      <c r="DB10" s="76"/>
+      <c r="DC10" s="77"/>
+      <c r="DD10" s="77"/>
+      <c r="DE10" s="77"/>
+      <c r="DF10" s="77"/>
+      <c r="DG10" s="77"/>
+      <c r="DH10" s="77"/>
+      <c r="DI10" s="77"/>
+      <c r="DJ10" s="77"/>
+      <c r="DK10" s="77"/>
+      <c r="DL10" s="77"/>
+      <c r="DM10" s="77"/>
+      <c r="DN10" s="77"/>
+      <c r="DO10" s="77"/>
+      <c r="DP10" s="77"/>
+      <c r="DQ10" s="78"/>
+      <c r="DR10" s="76"/>
+      <c r="DS10" s="77"/>
+      <c r="DT10" s="77"/>
+      <c r="DU10" s="77"/>
+      <c r="DV10" s="77"/>
+      <c r="DW10" s="77"/>
+      <c r="DX10" s="77"/>
+      <c r="DY10" s="77"/>
+      <c r="DZ10" s="77"/>
+      <c r="EA10" s="77"/>
+      <c r="EB10" s="77"/>
+      <c r="EC10" s="77"/>
+      <c r="ED10" s="77"/>
+      <c r="EE10" s="77"/>
+      <c r="EF10" s="77"/>
+      <c r="EG10" s="78"/>
+      <c r="EP10" s="76"/>
+      <c r="EQ10" s="77"/>
+      <c r="ER10" s="77"/>
+      <c r="ES10" s="77"/>
+      <c r="ET10" s="77"/>
+      <c r="EU10" s="77"/>
+      <c r="EV10" s="77"/>
+      <c r="EW10" s="78"/>
       <c r="EX10" s="24"/>
       <c r="EY10" s="24"/>
       <c r="EZ10" s="14"/>
@@ -5117,191 +5129,191 @@
       <c r="FD10" s="14"/>
       <c r="FE10" s="25"/>
       <c r="FJ10" t="s">
-        <v>74</v>
-      </c>
-      <c r="FN10" s="98"/>
-      <c r="FO10" s="90"/>
-      <c r="FP10" s="90"/>
-      <c r="FQ10" s="90"/>
-      <c r="FR10" s="90"/>
+        <v>73</v>
+      </c>
+      <c r="FN10" s="46"/>
+      <c r="FO10" s="38"/>
+      <c r="FP10" s="38"/>
+      <c r="FQ10" s="38"/>
+      <c r="FR10" s="38"/>
       <c r="FS10" s="15"/>
       <c r="FT10" s="15"/>
-      <c r="FU10" s="96"/>
-      <c r="FV10" s="53"/>
-      <c r="FW10" s="53"/>
-      <c r="FX10" s="53"/>
-      <c r="FY10" s="53"/>
-      <c r="FZ10" s="53"/>
-      <c r="GA10" s="54"/>
-      <c r="GB10" s="52"/>
-      <c r="GC10" s="53"/>
-      <c r="GD10" s="53"/>
-      <c r="GE10" s="53"/>
-      <c r="GF10" s="53"/>
-      <c r="GG10" s="54"/>
-      <c r="GT10" s="43"/>
-      <c r="GU10" s="44"/>
-      <c r="GV10" s="44"/>
-      <c r="GW10" s="44"/>
-      <c r="GX10" s="44"/>
-      <c r="GY10" s="44"/>
-      <c r="GZ10" s="44"/>
-      <c r="HA10" s="45"/>
-      <c r="HB10" s="43"/>
-      <c r="HC10" s="44"/>
-      <c r="HD10" s="44"/>
-      <c r="HE10" s="44"/>
-      <c r="HF10" s="44"/>
-      <c r="HG10" s="44"/>
-      <c r="HH10" s="44"/>
-      <c r="HI10" s="45"/>
+      <c r="FU10" s="44"/>
+      <c r="FV10" s="61"/>
+      <c r="FW10" s="61"/>
+      <c r="FX10" s="61"/>
+      <c r="FY10" s="61"/>
+      <c r="FZ10" s="61"/>
+      <c r="GA10" s="62"/>
+      <c r="GB10" s="60"/>
+      <c r="GC10" s="61"/>
+      <c r="GD10" s="61"/>
+      <c r="GE10" s="61"/>
+      <c r="GF10" s="61"/>
+      <c r="GG10" s="62"/>
+      <c r="GT10" s="76"/>
+      <c r="GU10" s="77"/>
+      <c r="GV10" s="77"/>
+      <c r="GW10" s="77"/>
+      <c r="GX10" s="77"/>
+      <c r="GY10" s="77"/>
+      <c r="GZ10" s="77"/>
+      <c r="HA10" s="78"/>
+      <c r="HB10" s="76"/>
+      <c r="HC10" s="77"/>
+      <c r="HD10" s="77"/>
+      <c r="HE10" s="77"/>
+      <c r="HF10" s="77"/>
+      <c r="HG10" s="77"/>
+      <c r="HH10" s="77"/>
+      <c r="HI10" s="78"/>
     </row>
     <row r="11" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="43"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="43"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="53"/>
-      <c r="BP11" s="53"/>
-      <c r="BQ11" s="53"/>
-      <c r="BR11" s="53"/>
-      <c r="BS11" s="53"/>
-      <c r="BT11" s="53"/>
-      <c r="BU11" s="54"/>
-      <c r="BV11" s="52"/>
-      <c r="BW11" s="53"/>
-      <c r="BX11" s="53"/>
-      <c r="BY11" s="53"/>
-      <c r="BZ11" s="53"/>
-      <c r="CA11" s="53"/>
-      <c r="CB11" s="53"/>
-      <c r="CC11" s="54"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="53"/>
-      <c r="CF11" s="53"/>
-      <c r="CG11" s="53"/>
-      <c r="CH11" s="53"/>
-      <c r="CI11" s="53"/>
-      <c r="CJ11" s="53"/>
-      <c r="CK11" s="54"/>
-      <c r="CL11" s="52"/>
-      <c r="CM11" s="53"/>
-      <c r="CN11" s="53"/>
-      <c r="CO11" s="53"/>
-      <c r="CP11" s="53"/>
-      <c r="CQ11" s="53"/>
-      <c r="CR11" s="53"/>
-      <c r="CS11" s="53"/>
-      <c r="CT11" s="53"/>
-      <c r="CU11" s="53"/>
-      <c r="CV11" s="53"/>
-      <c r="CW11" s="53"/>
-      <c r="CX11" s="53"/>
-      <c r="CY11" s="53"/>
-      <c r="CZ11" s="53"/>
-      <c r="DA11" s="54"/>
-      <c r="DB11" s="43"/>
-      <c r="DC11" s="44"/>
-      <c r="DD11" s="44"/>
-      <c r="DE11" s="44"/>
-      <c r="DF11" s="44"/>
-      <c r="DG11" s="44"/>
-      <c r="DH11" s="44"/>
-      <c r="DI11" s="44"/>
-      <c r="DJ11" s="44"/>
-      <c r="DK11" s="44"/>
-      <c r="DL11" s="44"/>
-      <c r="DM11" s="44"/>
-      <c r="DN11" s="44"/>
-      <c r="DO11" s="44"/>
-      <c r="DP11" s="44"/>
-      <c r="DQ11" s="45"/>
-      <c r="DR11" s="43"/>
-      <c r="DS11" s="44"/>
-      <c r="DT11" s="44"/>
-      <c r="DU11" s="44"/>
-      <c r="DV11" s="44"/>
-      <c r="DW11" s="44"/>
-      <c r="DX11" s="44"/>
-      <c r="DY11" s="44"/>
-      <c r="DZ11" s="44"/>
-      <c r="EA11" s="44"/>
-      <c r="EB11" s="44"/>
-      <c r="EC11" s="44"/>
-      <c r="ED11" s="44"/>
-      <c r="EE11" s="44"/>
-      <c r="EF11" s="44"/>
-      <c r="EG11" s="45"/>
-      <c r="EP11" s="43"/>
-      <c r="EQ11" s="44"/>
-      <c r="ER11" s="44"/>
-      <c r="ES11" s="44"/>
-      <c r="ET11" s="44"/>
-      <c r="EU11" s="44"/>
-      <c r="EV11" s="44"/>
-      <c r="EW11" s="45"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="77"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="78"/>
+      <c r="BH11" s="76"/>
+      <c r="BI11" s="77"/>
+      <c r="BJ11" s="77"/>
+      <c r="BK11" s="77"/>
+      <c r="BL11" s="77"/>
+      <c r="BM11" s="78"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="61"/>
+      <c r="BP11" s="61"/>
+      <c r="BQ11" s="61"/>
+      <c r="BR11" s="61"/>
+      <c r="BS11" s="61"/>
+      <c r="BT11" s="61"/>
+      <c r="BU11" s="62"/>
+      <c r="BV11" s="60"/>
+      <c r="BW11" s="61"/>
+      <c r="BX11" s="61"/>
+      <c r="BY11" s="61"/>
+      <c r="BZ11" s="61"/>
+      <c r="CA11" s="61"/>
+      <c r="CB11" s="61"/>
+      <c r="CC11" s="62"/>
+      <c r="CD11" s="60"/>
+      <c r="CE11" s="61"/>
+      <c r="CF11" s="61"/>
+      <c r="CG11" s="61"/>
+      <c r="CH11" s="61"/>
+      <c r="CI11" s="61"/>
+      <c r="CJ11" s="61"/>
+      <c r="CK11" s="62"/>
+      <c r="CL11" s="60"/>
+      <c r="CM11" s="61"/>
+      <c r="CN11" s="61"/>
+      <c r="CO11" s="61"/>
+      <c r="CP11" s="61"/>
+      <c r="CQ11" s="61"/>
+      <c r="CR11" s="61"/>
+      <c r="CS11" s="61"/>
+      <c r="CT11" s="61"/>
+      <c r="CU11" s="61"/>
+      <c r="CV11" s="61"/>
+      <c r="CW11" s="61"/>
+      <c r="CX11" s="61"/>
+      <c r="CY11" s="61"/>
+      <c r="CZ11" s="61"/>
+      <c r="DA11" s="62"/>
+      <c r="DB11" s="76"/>
+      <c r="DC11" s="77"/>
+      <c r="DD11" s="77"/>
+      <c r="DE11" s="77"/>
+      <c r="DF11" s="77"/>
+      <c r="DG11" s="77"/>
+      <c r="DH11" s="77"/>
+      <c r="DI11" s="77"/>
+      <c r="DJ11" s="77"/>
+      <c r="DK11" s="77"/>
+      <c r="DL11" s="77"/>
+      <c r="DM11" s="77"/>
+      <c r="DN11" s="77"/>
+      <c r="DO11" s="77"/>
+      <c r="DP11" s="77"/>
+      <c r="DQ11" s="78"/>
+      <c r="DR11" s="76"/>
+      <c r="DS11" s="77"/>
+      <c r="DT11" s="77"/>
+      <c r="DU11" s="77"/>
+      <c r="DV11" s="77"/>
+      <c r="DW11" s="77"/>
+      <c r="DX11" s="77"/>
+      <c r="DY11" s="77"/>
+      <c r="DZ11" s="77"/>
+      <c r="EA11" s="77"/>
+      <c r="EB11" s="77"/>
+      <c r="EC11" s="77"/>
+      <c r="ED11" s="77"/>
+      <c r="EE11" s="77"/>
+      <c r="EF11" s="77"/>
+      <c r="EG11" s="78"/>
+      <c r="EP11" s="76"/>
+      <c r="EQ11" s="77"/>
+      <c r="ER11" s="77"/>
+      <c r="ES11" s="77"/>
+      <c r="ET11" s="77"/>
+      <c r="EU11" s="77"/>
+      <c r="EV11" s="77"/>
+      <c r="EW11" s="78"/>
       <c r="EX11" s="24"/>
       <c r="EY11" s="24"/>
       <c r="EZ11" s="14"/>
@@ -5310,391 +5322,391 @@
       <c r="FC11" s="14"/>
       <c r="FD11" s="14"/>
       <c r="FE11" s="25"/>
-      <c r="FN11" s="98"/>
-      <c r="FO11" s="90"/>
-      <c r="FP11" s="90"/>
-      <c r="FQ11" s="90"/>
-      <c r="FR11" s="90"/>
+      <c r="FN11" s="46"/>
+      <c r="FO11" s="38"/>
+      <c r="FP11" s="38"/>
+      <c r="FQ11" s="38"/>
+      <c r="FR11" s="38"/>
       <c r="FS11" s="15"/>
       <c r="FT11" s="15"/>
-      <c r="FU11" s="96"/>
-      <c r="FV11" s="53"/>
-      <c r="FW11" s="53"/>
-      <c r="FX11" s="53"/>
-      <c r="FY11" s="53"/>
-      <c r="FZ11" s="53"/>
-      <c r="GA11" s="54"/>
-      <c r="GB11" s="52"/>
-      <c r="GC11" s="53"/>
-      <c r="GD11" s="53"/>
-      <c r="GE11" s="53"/>
-      <c r="GF11" s="53"/>
-      <c r="GG11" s="54"/>
+      <c r="FU11" s="44"/>
+      <c r="FV11" s="61"/>
+      <c r="FW11" s="61"/>
+      <c r="FX11" s="61"/>
+      <c r="FY11" s="61"/>
+      <c r="FZ11" s="61"/>
+      <c r="GA11" s="62"/>
+      <c r="GB11" s="60"/>
+      <c r="GC11" s="61"/>
+      <c r="GD11" s="61"/>
+      <c r="GE11" s="61"/>
+      <c r="GF11" s="61"/>
+      <c r="GG11" s="62"/>
       <c r="GH11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="GM11" t="s">
-        <v>166</v>
-      </c>
-      <c r="GT11" s="43"/>
-      <c r="GU11" s="44"/>
-      <c r="GV11" s="44"/>
-      <c r="GW11" s="44"/>
-      <c r="GX11" s="44"/>
-      <c r="GY11" s="44"/>
-      <c r="GZ11" s="44"/>
-      <c r="HA11" s="45"/>
-      <c r="HB11" s="43"/>
-      <c r="HC11" s="44"/>
-      <c r="HD11" s="44"/>
-      <c r="HE11" s="44"/>
-      <c r="HF11" s="44"/>
-      <c r="HG11" s="44"/>
-      <c r="HH11" s="44"/>
-      <c r="HI11" s="45"/>
+        <v>165</v>
+      </c>
+      <c r="GT11" s="76"/>
+      <c r="GU11" s="77"/>
+      <c r="GV11" s="77"/>
+      <c r="GW11" s="77"/>
+      <c r="GX11" s="77"/>
+      <c r="GY11" s="77"/>
+      <c r="GZ11" s="77"/>
+      <c r="HA11" s="78"/>
+      <c r="HB11" s="76"/>
+      <c r="HC11" s="77"/>
+      <c r="HD11" s="77"/>
+      <c r="HE11" s="77"/>
+      <c r="HF11" s="77"/>
+      <c r="HG11" s="77"/>
+      <c r="HH11" s="77"/>
+      <c r="HI11" s="78"/>
     </row>
     <row r="12" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="45"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="45"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="53"/>
-      <c r="BP12" s="53"/>
-      <c r="BQ12" s="53"/>
-      <c r="BR12" s="53"/>
-      <c r="BS12" s="53"/>
-      <c r="BT12" s="53"/>
-      <c r="BU12" s="54"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="53"/>
-      <c r="BX12" s="53"/>
-      <c r="BY12" s="53"/>
-      <c r="BZ12" s="53"/>
-      <c r="CA12" s="53"/>
-      <c r="CB12" s="53"/>
-      <c r="CC12" s="54"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="53"/>
-      <c r="CF12" s="53"/>
-      <c r="CG12" s="53"/>
-      <c r="CH12" s="53"/>
-      <c r="CI12" s="53"/>
-      <c r="CJ12" s="53"/>
-      <c r="CK12" s="54"/>
-      <c r="CL12" s="52"/>
-      <c r="CM12" s="53"/>
-      <c r="CN12" s="53"/>
-      <c r="CO12" s="53"/>
-      <c r="CP12" s="53"/>
-      <c r="CQ12" s="53"/>
-      <c r="CR12" s="53"/>
-      <c r="CS12" s="53"/>
-      <c r="CT12" s="53"/>
-      <c r="CU12" s="53"/>
-      <c r="CV12" s="53"/>
-      <c r="CW12" s="53"/>
-      <c r="CX12" s="53"/>
-      <c r="CY12" s="53"/>
-      <c r="CZ12" s="53"/>
-      <c r="DA12" s="54"/>
-      <c r="DB12" s="43"/>
-      <c r="DC12" s="44"/>
-      <c r="DD12" s="44"/>
-      <c r="DE12" s="44"/>
-      <c r="DF12" s="44"/>
-      <c r="DG12" s="44"/>
-      <c r="DH12" s="44"/>
-      <c r="DI12" s="44"/>
-      <c r="DJ12" s="44"/>
-      <c r="DK12" s="44"/>
-      <c r="DL12" s="44"/>
-      <c r="DM12" s="44"/>
-      <c r="DN12" s="44"/>
-      <c r="DO12" s="44"/>
-      <c r="DP12" s="44"/>
-      <c r="DQ12" s="45"/>
-      <c r="DR12" s="43"/>
-      <c r="DS12" s="44"/>
-      <c r="DT12" s="44"/>
-      <c r="DU12" s="44"/>
-      <c r="DV12" s="44"/>
-      <c r="DW12" s="44"/>
-      <c r="DX12" s="44"/>
-      <c r="DY12" s="44"/>
-      <c r="DZ12" s="44"/>
-      <c r="EA12" s="44"/>
-      <c r="EB12" s="44"/>
-      <c r="EC12" s="44"/>
-      <c r="ED12" s="44"/>
-      <c r="EE12" s="44"/>
-      <c r="EF12" s="44"/>
-      <c r="EG12" s="45"/>
-      <c r="EP12" s="43"/>
-      <c r="EQ12" s="44"/>
-      <c r="ER12" s="44"/>
-      <c r="ES12" s="44"/>
-      <c r="ET12" s="44"/>
-      <c r="EU12" s="44"/>
-      <c r="EV12" s="44"/>
-      <c r="EW12" s="45"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+      <c r="AZ12" s="77"/>
+      <c r="BA12" s="77"/>
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="77"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="77"/>
+      <c r="BJ12" s="77"/>
+      <c r="BK12" s="77"/>
+      <c r="BL12" s="77"/>
+      <c r="BM12" s="78"/>
+      <c r="BN12" s="60"/>
+      <c r="BO12" s="61"/>
+      <c r="BP12" s="61"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="61"/>
+      <c r="BS12" s="61"/>
+      <c r="BT12" s="61"/>
+      <c r="BU12" s="62"/>
+      <c r="BV12" s="60"/>
+      <c r="BW12" s="61"/>
+      <c r="BX12" s="61"/>
+      <c r="BY12" s="61"/>
+      <c r="BZ12" s="61"/>
+      <c r="CA12" s="61"/>
+      <c r="CB12" s="61"/>
+      <c r="CC12" s="62"/>
+      <c r="CD12" s="60"/>
+      <c r="CE12" s="61"/>
+      <c r="CF12" s="61"/>
+      <c r="CG12" s="61"/>
+      <c r="CH12" s="61"/>
+      <c r="CI12" s="61"/>
+      <c r="CJ12" s="61"/>
+      <c r="CK12" s="62"/>
+      <c r="CL12" s="60"/>
+      <c r="CM12" s="61"/>
+      <c r="CN12" s="61"/>
+      <c r="CO12" s="61"/>
+      <c r="CP12" s="61"/>
+      <c r="CQ12" s="61"/>
+      <c r="CR12" s="61"/>
+      <c r="CS12" s="61"/>
+      <c r="CT12" s="61"/>
+      <c r="CU12" s="61"/>
+      <c r="CV12" s="61"/>
+      <c r="CW12" s="61"/>
+      <c r="CX12" s="61"/>
+      <c r="CY12" s="61"/>
+      <c r="CZ12" s="61"/>
+      <c r="DA12" s="62"/>
+      <c r="DB12" s="76"/>
+      <c r="DC12" s="77"/>
+      <c r="DD12" s="77"/>
+      <c r="DE12" s="77"/>
+      <c r="DF12" s="77"/>
+      <c r="DG12" s="77"/>
+      <c r="DH12" s="77"/>
+      <c r="DI12" s="77"/>
+      <c r="DJ12" s="77"/>
+      <c r="DK12" s="77"/>
+      <c r="DL12" s="77"/>
+      <c r="DM12" s="77"/>
+      <c r="DN12" s="77"/>
+      <c r="DO12" s="77"/>
+      <c r="DP12" s="77"/>
+      <c r="DQ12" s="78"/>
+      <c r="DR12" s="76"/>
+      <c r="DS12" s="77"/>
+      <c r="DT12" s="77"/>
+      <c r="DU12" s="77"/>
+      <c r="DV12" s="77"/>
+      <c r="DW12" s="77"/>
+      <c r="DX12" s="77"/>
+      <c r="DY12" s="77"/>
+      <c r="DZ12" s="77"/>
+      <c r="EA12" s="77"/>
+      <c r="EB12" s="77"/>
+      <c r="EC12" s="77"/>
+      <c r="ED12" s="77"/>
+      <c r="EE12" s="77"/>
+      <c r="EF12" s="77"/>
+      <c r="EG12" s="78"/>
+      <c r="EP12" s="76"/>
+      <c r="EQ12" s="77"/>
+      <c r="ER12" s="77"/>
+      <c r="ES12" s="77"/>
+      <c r="ET12" s="77"/>
+      <c r="EU12" s="77"/>
+      <c r="EV12" s="77"/>
+      <c r="EW12" s="78"/>
       <c r="EX12" s="24"/>
       <c r="EY12" s="24"/>
       <c r="EZ12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="FA12" s="14"/>
       <c r="FB12" s="14"/>
       <c r="FC12" s="14"/>
       <c r="FD12" s="14"/>
       <c r="FE12" s="25"/>
-      <c r="FN12" s="98"/>
-      <c r="FO12" s="90"/>
-      <c r="FP12" s="90"/>
-      <c r="FQ12" s="90"/>
-      <c r="FR12" s="90"/>
+      <c r="FN12" s="46"/>
+      <c r="FO12" s="38"/>
+      <c r="FP12" s="38"/>
+      <c r="FQ12" s="38"/>
+      <c r="FR12" s="38"/>
       <c r="FS12" s="15"/>
       <c r="FT12" s="15"/>
-      <c r="FU12" s="96"/>
-      <c r="FV12" s="53"/>
-      <c r="FW12" s="53"/>
-      <c r="FX12" s="53"/>
-      <c r="FY12" s="53"/>
-      <c r="FZ12" s="53"/>
-      <c r="GA12" s="54"/>
-      <c r="GB12" s="52"/>
-      <c r="GC12" s="53"/>
-      <c r="GD12" s="53"/>
-      <c r="GE12" s="53"/>
-      <c r="GF12" s="53"/>
-      <c r="GG12" s="54"/>
+      <c r="FU12" s="44"/>
+      <c r="FV12" s="61"/>
+      <c r="FW12" s="61"/>
+      <c r="FX12" s="61"/>
+      <c r="FY12" s="61"/>
+      <c r="FZ12" s="61"/>
+      <c r="GA12" s="62"/>
+      <c r="GB12" s="60"/>
+      <c r="GC12" s="61"/>
+      <c r="GD12" s="61"/>
+      <c r="GE12" s="61"/>
+      <c r="GF12" s="61"/>
+      <c r="GG12" s="62"/>
       <c r="GM12" t="s">
-        <v>166</v>
-      </c>
-      <c r="GT12" s="43"/>
-      <c r="GU12" s="44"/>
-      <c r="GV12" s="44"/>
-      <c r="GW12" s="44"/>
-      <c r="GX12" s="44"/>
-      <c r="GY12" s="44"/>
-      <c r="GZ12" s="44"/>
-      <c r="HA12" s="45"/>
-      <c r="HB12" s="43"/>
-      <c r="HC12" s="44"/>
-      <c r="HD12" s="44"/>
-      <c r="HE12" s="44"/>
-      <c r="HF12" s="44"/>
-      <c r="HG12" s="44"/>
-      <c r="HH12" s="44"/>
-      <c r="HI12" s="45"/>
+        <v>165</v>
+      </c>
+      <c r="GT12" s="76"/>
+      <c r="GU12" s="77"/>
+      <c r="GV12" s="77"/>
+      <c r="GW12" s="77"/>
+      <c r="GX12" s="77"/>
+      <c r="GY12" s="77"/>
+      <c r="GZ12" s="77"/>
+      <c r="HA12" s="78"/>
+      <c r="HB12" s="76"/>
+      <c r="HC12" s="77"/>
+      <c r="HD12" s="77"/>
+      <c r="HE12" s="77"/>
+      <c r="HF12" s="77"/>
+      <c r="HG12" s="77"/>
+      <c r="HH12" s="77"/>
+      <c r="HI12" s="78"/>
     </row>
     <row r="13" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="43"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="45"/>
-      <c r="BH13" s="43"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-      <c r="BM13" s="45"/>
-      <c r="BN13" s="52"/>
-      <c r="BO13" s="53"/>
-      <c r="BP13" s="53"/>
-      <c r="BQ13" s="53"/>
-      <c r="BR13" s="53"/>
-      <c r="BS13" s="53"/>
-      <c r="BT13" s="53"/>
-      <c r="BU13" s="54"/>
-      <c r="BV13" s="52"/>
-      <c r="BW13" s="53"/>
-      <c r="BX13" s="53"/>
-      <c r="BY13" s="53"/>
-      <c r="BZ13" s="53"/>
-      <c r="CA13" s="53"/>
-      <c r="CB13" s="53"/>
-      <c r="CC13" s="54"/>
-      <c r="CD13" s="52"/>
-      <c r="CE13" s="53"/>
-      <c r="CF13" s="53"/>
-      <c r="CG13" s="53"/>
-      <c r="CH13" s="53"/>
-      <c r="CI13" s="53"/>
-      <c r="CJ13" s="53"/>
-      <c r="CK13" s="54"/>
-      <c r="CL13" s="52"/>
-      <c r="CM13" s="53"/>
-      <c r="CN13" s="53"/>
-      <c r="CO13" s="53"/>
-      <c r="CP13" s="53"/>
-      <c r="CQ13" s="53"/>
-      <c r="CR13" s="53"/>
-      <c r="CS13" s="53"/>
-      <c r="CT13" s="53"/>
-      <c r="CU13" s="53"/>
-      <c r="CV13" s="53"/>
-      <c r="CW13" s="53"/>
-      <c r="CX13" s="53"/>
-      <c r="CY13" s="53"/>
-      <c r="CZ13" s="53"/>
-      <c r="DA13" s="54"/>
-      <c r="DB13" s="43"/>
-      <c r="DC13" s="44"/>
-      <c r="DD13" s="44"/>
-      <c r="DE13" s="44"/>
-      <c r="DF13" s="44"/>
-      <c r="DG13" s="44"/>
-      <c r="DH13" s="44"/>
-      <c r="DI13" s="44"/>
-      <c r="DJ13" s="44"/>
-      <c r="DK13" s="44"/>
-      <c r="DL13" s="44"/>
-      <c r="DM13" s="44"/>
-      <c r="DN13" s="44"/>
-      <c r="DO13" s="44"/>
-      <c r="DP13" s="44"/>
-      <c r="DQ13" s="45"/>
-      <c r="DR13" s="43"/>
-      <c r="DS13" s="44"/>
-      <c r="DT13" s="44"/>
-      <c r="DU13" s="44"/>
-      <c r="DV13" s="44"/>
-      <c r="DW13" s="44"/>
-      <c r="DX13" s="44"/>
-      <c r="DY13" s="44"/>
-      <c r="DZ13" s="44"/>
-      <c r="EA13" s="44"/>
-      <c r="EB13" s="44"/>
-      <c r="EC13" s="44"/>
-      <c r="ED13" s="44"/>
-      <c r="EE13" s="44"/>
-      <c r="EF13" s="44"/>
-      <c r="EG13" s="45"/>
-      <c r="EP13" s="43"/>
-      <c r="EQ13" s="44"/>
-      <c r="ER13" s="44"/>
-      <c r="ES13" s="44"/>
-      <c r="ET13" s="44"/>
-      <c r="EU13" s="44"/>
-      <c r="EV13" s="44"/>
-      <c r="EW13" s="45"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="77"/>
+      <c r="BE13" s="77"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="78"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="77"/>
+      <c r="BJ13" s="77"/>
+      <c r="BK13" s="77"/>
+      <c r="BL13" s="77"/>
+      <c r="BM13" s="78"/>
+      <c r="BN13" s="60"/>
+      <c r="BO13" s="61"/>
+      <c r="BP13" s="61"/>
+      <c r="BQ13" s="61"/>
+      <c r="BR13" s="61"/>
+      <c r="BS13" s="61"/>
+      <c r="BT13" s="61"/>
+      <c r="BU13" s="62"/>
+      <c r="BV13" s="60"/>
+      <c r="BW13" s="61"/>
+      <c r="BX13" s="61"/>
+      <c r="BY13" s="61"/>
+      <c r="BZ13" s="61"/>
+      <c r="CA13" s="61"/>
+      <c r="CB13" s="61"/>
+      <c r="CC13" s="62"/>
+      <c r="CD13" s="60"/>
+      <c r="CE13" s="61"/>
+      <c r="CF13" s="61"/>
+      <c r="CG13" s="61"/>
+      <c r="CH13" s="61"/>
+      <c r="CI13" s="61"/>
+      <c r="CJ13" s="61"/>
+      <c r="CK13" s="62"/>
+      <c r="CL13" s="60"/>
+      <c r="CM13" s="61"/>
+      <c r="CN13" s="61"/>
+      <c r="CO13" s="61"/>
+      <c r="CP13" s="61"/>
+      <c r="CQ13" s="61"/>
+      <c r="CR13" s="61"/>
+      <c r="CS13" s="61"/>
+      <c r="CT13" s="61"/>
+      <c r="CU13" s="61"/>
+      <c r="CV13" s="61"/>
+      <c r="CW13" s="61"/>
+      <c r="CX13" s="61"/>
+      <c r="CY13" s="61"/>
+      <c r="CZ13" s="61"/>
+      <c r="DA13" s="62"/>
+      <c r="DB13" s="76"/>
+      <c r="DC13" s="77"/>
+      <c r="DD13" s="77"/>
+      <c r="DE13" s="77"/>
+      <c r="DF13" s="77"/>
+      <c r="DG13" s="77"/>
+      <c r="DH13" s="77"/>
+      <c r="DI13" s="77"/>
+      <c r="DJ13" s="77"/>
+      <c r="DK13" s="77"/>
+      <c r="DL13" s="77"/>
+      <c r="DM13" s="77"/>
+      <c r="DN13" s="77"/>
+      <c r="DO13" s="77"/>
+      <c r="DP13" s="77"/>
+      <c r="DQ13" s="78"/>
+      <c r="DR13" s="76"/>
+      <c r="DS13" s="77"/>
+      <c r="DT13" s="77"/>
+      <c r="DU13" s="77"/>
+      <c r="DV13" s="77"/>
+      <c r="DW13" s="77"/>
+      <c r="DX13" s="77"/>
+      <c r="DY13" s="77"/>
+      <c r="DZ13" s="77"/>
+      <c r="EA13" s="77"/>
+      <c r="EB13" s="77"/>
+      <c r="EC13" s="77"/>
+      <c r="ED13" s="77"/>
+      <c r="EE13" s="77"/>
+      <c r="EF13" s="77"/>
+      <c r="EG13" s="78"/>
+      <c r="EP13" s="76"/>
+      <c r="EQ13" s="77"/>
+      <c r="ER13" s="77"/>
+      <c r="ES13" s="77"/>
+      <c r="ET13" s="77"/>
+      <c r="EU13" s="77"/>
+      <c r="EV13" s="77"/>
+      <c r="EW13" s="78"/>
       <c r="EX13" s="24"/>
       <c r="EY13" s="24"/>
       <c r="EZ13" s="14"/>
@@ -5704,243 +5716,243 @@
       <c r="FD13" s="14"/>
       <c r="FE13" s="25"/>
       <c r="FG13" t="s">
-        <v>98</v>
-      </c>
-      <c r="FN13" s="98"/>
-      <c r="FO13" s="90"/>
-      <c r="FP13" s="90"/>
-      <c r="FQ13" s="90"/>
-      <c r="FR13" s="90"/>
+        <v>97</v>
+      </c>
+      <c r="FN13" s="46"/>
+      <c r="FO13" s="38"/>
+      <c r="FP13" s="38"/>
+      <c r="FQ13" s="38"/>
+      <c r="FR13" s="38"/>
       <c r="FS13" s="15"/>
       <c r="FT13" s="15"/>
-      <c r="FU13" s="96"/>
-      <c r="FV13" s="53"/>
-      <c r="FW13" s="53"/>
-      <c r="FX13" s="53"/>
-      <c r="FY13" s="53"/>
-      <c r="FZ13" s="53"/>
-      <c r="GA13" s="54"/>
-      <c r="GB13" s="52"/>
-      <c r="GC13" s="53"/>
-      <c r="GD13" s="53"/>
-      <c r="GE13" s="53"/>
-      <c r="GF13" s="53"/>
-      <c r="GG13" s="54"/>
+      <c r="FU13" s="44"/>
+      <c r="FV13" s="61"/>
+      <c r="FW13" s="61"/>
+      <c r="FX13" s="61"/>
+      <c r="FY13" s="61"/>
+      <c r="FZ13" s="61"/>
+      <c r="GA13" s="62"/>
+      <c r="GB13" s="60"/>
+      <c r="GC13" s="61"/>
+      <c r="GD13" s="61"/>
+      <c r="GE13" s="61"/>
+      <c r="GF13" s="61"/>
+      <c r="GG13" s="62"/>
       <c r="GL13" t="s">
-        <v>167</v>
-      </c>
-      <c r="GT13" s="43"/>
-      <c r="GU13" s="44"/>
-      <c r="GV13" s="44"/>
-      <c r="GW13" s="44"/>
-      <c r="GX13" s="44"/>
-      <c r="GY13" s="44"/>
-      <c r="GZ13" s="44"/>
-      <c r="HA13" s="45"/>
-      <c r="HB13" s="43"/>
-      <c r="HC13" s="44"/>
-      <c r="HD13" s="44"/>
-      <c r="HE13" s="44"/>
-      <c r="HF13" s="44"/>
-      <c r="HG13" s="44"/>
-      <c r="HH13" s="44"/>
-      <c r="HI13" s="45"/>
+        <v>166</v>
+      </c>
+      <c r="GT13" s="76"/>
+      <c r="GU13" s="77"/>
+      <c r="GV13" s="77"/>
+      <c r="GW13" s="77"/>
+      <c r="GX13" s="77"/>
+      <c r="GY13" s="77"/>
+      <c r="GZ13" s="77"/>
+      <c r="HA13" s="78"/>
+      <c r="HB13" s="76"/>
+      <c r="HC13" s="77"/>
+      <c r="HD13" s="77"/>
+      <c r="HE13" s="77"/>
+      <c r="HF13" s="77"/>
+      <c r="HG13" s="77"/>
+      <c r="HH13" s="77"/>
+      <c r="HI13" s="78"/>
     </row>
     <row r="14" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="47"/>
-      <c r="AP14" s="47"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="46"/>
-      <c r="AS14" s="47"/>
-      <c r="AT14" s="47"/>
-      <c r="AU14" s="47"/>
-      <c r="AV14" s="47"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="47"/>
-      <c r="AY14" s="47"/>
-      <c r="AZ14" s="47"/>
-      <c r="BA14" s="47"/>
-      <c r="BB14" s="47"/>
-      <c r="BC14" s="47"/>
-      <c r="BD14" s="47"/>
-      <c r="BE14" s="47"/>
-      <c r="BF14" s="47"/>
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="46"/>
-      <c r="BI14" s="47"/>
-      <c r="BJ14" s="47"/>
-      <c r="BK14" s="47"/>
-      <c r="BL14" s="47"/>
-      <c r="BM14" s="48"/>
-      <c r="BN14" s="55"/>
-      <c r="BO14" s="56"/>
-      <c r="BP14" s="56"/>
-      <c r="BQ14" s="56"/>
-      <c r="BR14" s="56"/>
-      <c r="BS14" s="56"/>
-      <c r="BT14" s="56"/>
-      <c r="BU14" s="57"/>
-      <c r="BV14" s="55"/>
-      <c r="BW14" s="56"/>
-      <c r="BX14" s="56"/>
-      <c r="BY14" s="56"/>
-      <c r="BZ14" s="56"/>
-      <c r="CA14" s="56"/>
-      <c r="CB14" s="56"/>
-      <c r="CC14" s="57"/>
-      <c r="CD14" s="55"/>
-      <c r="CE14" s="56"/>
-      <c r="CF14" s="56"/>
-      <c r="CG14" s="56"/>
-      <c r="CH14" s="56"/>
-      <c r="CI14" s="56"/>
-      <c r="CJ14" s="56"/>
-      <c r="CK14" s="57"/>
-      <c r="CL14" s="55"/>
-      <c r="CM14" s="56"/>
-      <c r="CN14" s="56"/>
-      <c r="CO14" s="56"/>
-      <c r="CP14" s="56"/>
-      <c r="CQ14" s="56"/>
-      <c r="CR14" s="56"/>
-      <c r="CS14" s="56"/>
-      <c r="CT14" s="56"/>
-      <c r="CU14" s="56"/>
-      <c r="CV14" s="56"/>
-      <c r="CW14" s="56"/>
-      <c r="CX14" s="56"/>
-      <c r="CY14" s="56"/>
-      <c r="CZ14" s="56"/>
-      <c r="DA14" s="57"/>
-      <c r="DB14" s="46"/>
-      <c r="DC14" s="47"/>
-      <c r="DD14" s="47"/>
-      <c r="DE14" s="47"/>
-      <c r="DF14" s="47"/>
-      <c r="DG14" s="47"/>
-      <c r="DH14" s="47"/>
-      <c r="DI14" s="47"/>
-      <c r="DJ14" s="47"/>
-      <c r="DK14" s="47"/>
-      <c r="DL14" s="47"/>
-      <c r="DM14" s="47"/>
-      <c r="DN14" s="47"/>
-      <c r="DO14" s="47"/>
-      <c r="DP14" s="47"/>
-      <c r="DQ14" s="48"/>
-      <c r="DR14" s="46"/>
-      <c r="DS14" s="47"/>
-      <c r="DT14" s="47"/>
-      <c r="DU14" s="47"/>
-      <c r="DV14" s="47"/>
-      <c r="DW14" s="47"/>
-      <c r="DX14" s="47"/>
-      <c r="DY14" s="47"/>
-      <c r="DZ14" s="47"/>
-      <c r="EA14" s="47"/>
-      <c r="EB14" s="47"/>
-      <c r="EC14" s="47"/>
-      <c r="ED14" s="47"/>
-      <c r="EE14" s="47"/>
-      <c r="EF14" s="47"/>
-      <c r="EG14" s="48"/>
-      <c r="EP14" s="46"/>
-      <c r="EQ14" s="47"/>
-      <c r="ER14" s="47"/>
-      <c r="ES14" s="47"/>
-      <c r="ET14" s="47"/>
-      <c r="EU14" s="47"/>
-      <c r="EV14" s="47"/>
-      <c r="EW14" s="48"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="81"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="80"/>
+      <c r="AT14" s="80"/>
+      <c r="AU14" s="80"/>
+      <c r="AV14" s="80"/>
+      <c r="AW14" s="81"/>
+      <c r="AX14" s="80"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="80"/>
+      <c r="BA14" s="80"/>
+      <c r="BB14" s="80"/>
+      <c r="BC14" s="80"/>
+      <c r="BD14" s="80"/>
+      <c r="BE14" s="80"/>
+      <c r="BF14" s="80"/>
+      <c r="BG14" s="81"/>
+      <c r="BH14" s="79"/>
+      <c r="BI14" s="80"/>
+      <c r="BJ14" s="80"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="80"/>
+      <c r="BM14" s="81"/>
+      <c r="BN14" s="63"/>
+      <c r="BO14" s="64"/>
+      <c r="BP14" s="64"/>
+      <c r="BQ14" s="64"/>
+      <c r="BR14" s="64"/>
+      <c r="BS14" s="64"/>
+      <c r="BT14" s="64"/>
+      <c r="BU14" s="65"/>
+      <c r="BV14" s="63"/>
+      <c r="BW14" s="64"/>
+      <c r="BX14" s="64"/>
+      <c r="BY14" s="64"/>
+      <c r="BZ14" s="64"/>
+      <c r="CA14" s="64"/>
+      <c r="CB14" s="64"/>
+      <c r="CC14" s="65"/>
+      <c r="CD14" s="63"/>
+      <c r="CE14" s="64"/>
+      <c r="CF14" s="64"/>
+      <c r="CG14" s="64"/>
+      <c r="CH14" s="64"/>
+      <c r="CI14" s="64"/>
+      <c r="CJ14" s="64"/>
+      <c r="CK14" s="65"/>
+      <c r="CL14" s="63"/>
+      <c r="CM14" s="64"/>
+      <c r="CN14" s="64"/>
+      <c r="CO14" s="64"/>
+      <c r="CP14" s="64"/>
+      <c r="CQ14" s="64"/>
+      <c r="CR14" s="64"/>
+      <c r="CS14" s="64"/>
+      <c r="CT14" s="64"/>
+      <c r="CU14" s="64"/>
+      <c r="CV14" s="64"/>
+      <c r="CW14" s="64"/>
+      <c r="CX14" s="64"/>
+      <c r="CY14" s="64"/>
+      <c r="CZ14" s="64"/>
+      <c r="DA14" s="65"/>
+      <c r="DB14" s="79"/>
+      <c r="DC14" s="80"/>
+      <c r="DD14" s="80"/>
+      <c r="DE14" s="80"/>
+      <c r="DF14" s="80"/>
+      <c r="DG14" s="80"/>
+      <c r="DH14" s="80"/>
+      <c r="DI14" s="80"/>
+      <c r="DJ14" s="80"/>
+      <c r="DK14" s="80"/>
+      <c r="DL14" s="80"/>
+      <c r="DM14" s="80"/>
+      <c r="DN14" s="80"/>
+      <c r="DO14" s="80"/>
+      <c r="DP14" s="80"/>
+      <c r="DQ14" s="81"/>
+      <c r="DR14" s="79"/>
+      <c r="DS14" s="80"/>
+      <c r="DT14" s="80"/>
+      <c r="DU14" s="80"/>
+      <c r="DV14" s="80"/>
+      <c r="DW14" s="80"/>
+      <c r="DX14" s="80"/>
+      <c r="DY14" s="80"/>
+      <c r="DZ14" s="80"/>
+      <c r="EA14" s="80"/>
+      <c r="EB14" s="80"/>
+      <c r="EC14" s="80"/>
+      <c r="ED14" s="80"/>
+      <c r="EE14" s="80"/>
+      <c r="EF14" s="80"/>
+      <c r="EG14" s="81"/>
+      <c r="EP14" s="79"/>
+      <c r="EQ14" s="80"/>
+      <c r="ER14" s="80"/>
+      <c r="ES14" s="80"/>
+      <c r="ET14" s="80"/>
+      <c r="EU14" s="80"/>
+      <c r="EV14" s="80"/>
+      <c r="EW14" s="81"/>
       <c r="EX14" s="26"/>
       <c r="EY14" s="26"/>
       <c r="EZ14" s="27"/>
       <c r="FA14" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="FB14" s="27"/>
       <c r="FC14" s="27"/>
       <c r="FD14" s="27"/>
       <c r="FE14" s="28"/>
-      <c r="FN14" s="99"/>
-      <c r="FO14" s="97"/>
-      <c r="FP14" s="97"/>
-      <c r="FQ14" s="97"/>
-      <c r="FR14" s="97"/>
+      <c r="FN14" s="47"/>
+      <c r="FO14" s="45"/>
+      <c r="FP14" s="45"/>
+      <c r="FQ14" s="45"/>
+      <c r="FR14" s="45"/>
       <c r="FS14" s="36"/>
       <c r="FT14" s="36"/>
       <c r="FU14" s="37"/>
-      <c r="FV14" s="56"/>
-      <c r="FW14" s="56"/>
-      <c r="FX14" s="56"/>
-      <c r="FY14" s="56"/>
-      <c r="FZ14" s="56"/>
-      <c r="GA14" s="57"/>
-      <c r="GB14" s="55"/>
-      <c r="GC14" s="56"/>
-      <c r="GD14" s="56"/>
-      <c r="GE14" s="56"/>
-      <c r="GF14" s="56"/>
-      <c r="GG14" s="57"/>
+      <c r="FV14" s="64"/>
+      <c r="FW14" s="64"/>
+      <c r="FX14" s="64"/>
+      <c r="FY14" s="64"/>
+      <c r="FZ14" s="64"/>
+      <c r="GA14" s="65"/>
+      <c r="GB14" s="63"/>
+      <c r="GC14" s="64"/>
+      <c r="GD14" s="64"/>
+      <c r="GE14" s="64"/>
+      <c r="GF14" s="64"/>
+      <c r="GG14" s="65"/>
       <c r="GN14" t="s">
-        <v>168</v>
-      </c>
-      <c r="GT14" s="46"/>
-      <c r="GU14" s="47"/>
-      <c r="GV14" s="47"/>
-      <c r="GW14" s="47"/>
-      <c r="GX14" s="47"/>
-      <c r="GY14" s="47"/>
-      <c r="GZ14" s="47"/>
-      <c r="HA14" s="48"/>
-      <c r="HB14" s="46"/>
-      <c r="HC14" s="47"/>
-      <c r="HD14" s="47"/>
-      <c r="HE14" s="47"/>
-      <c r="HF14" s="47"/>
-      <c r="HG14" s="47"/>
-      <c r="HH14" s="47"/>
-      <c r="HI14" s="48"/>
+        <v>167</v>
+      </c>
+      <c r="GT14" s="79"/>
+      <c r="GU14" s="80"/>
+      <c r="GV14" s="80"/>
+      <c r="GW14" s="80"/>
+      <c r="GX14" s="80"/>
+      <c r="GY14" s="80"/>
+      <c r="GZ14" s="80"/>
+      <c r="HA14" s="81"/>
+      <c r="HB14" s="79"/>
+      <c r="HC14" s="80"/>
+      <c r="HD14" s="80"/>
+      <c r="HE14" s="80"/>
+      <c r="HF14" s="80"/>
+      <c r="HG14" s="80"/>
+      <c r="HH14" s="80"/>
+      <c r="HI14" s="81"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
@@ -6025,7 +6037,7 @@
       <c r="CB15" s="14"/>
       <c r="CC15" s="14"/>
       <c r="CD15" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CE15" s="14"/>
       <c r="CF15" s="14"/>
@@ -6074,7 +6086,7 @@
       <c r="DQ15" s="15"/>
       <c r="DR15" s="15"/>
       <c r="DS15" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="DT15" s="15"/>
       <c r="DU15" s="15"/>
@@ -6108,7 +6120,7 @@
       <c r="EW15" s="14"/>
       <c r="EX15" s="14"/>
       <c r="EY15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EZ15" s="14"/>
       <c r="FA15" s="14"/>
@@ -6118,7 +6130,7 @@
       <c r="FE15" s="14"/>
       <c r="FF15" s="16"/>
       <c r="FG15" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="FH15" s="16"/>
       <c r="FI15" s="16"/>
@@ -6132,7 +6144,7 @@
       <c r="FQ15" s="15"/>
       <c r="FR15" s="15"/>
       <c r="FS15" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="FT15" s="15"/>
       <c r="FU15" s="15"/>
@@ -6153,7 +6165,7 @@
       <c r="GJ15" s="16"/>
       <c r="GK15" s="16"/>
       <c r="GL15" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="GM15" s="16"/>
       <c r="GN15" s="16"/>
@@ -6182,7 +6194,7 @@
     <row r="16" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="N16" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
@@ -6198,27 +6210,30 @@
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
-      <c r="CD16" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="CE16" s="39"/>
-      <c r="CF16" s="39"/>
-      <c r="CG16" s="39"/>
-      <c r="CH16" s="39"/>
-      <c r="CI16" s="39"/>
-      <c r="CJ16" s="39"/>
-      <c r="CK16" s="39"/>
+      <c r="CD16" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE16" s="105"/>
+      <c r="CF16" s="105"/>
+      <c r="CG16" s="105"/>
+      <c r="CH16" s="105"/>
+      <c r="CI16" s="105"/>
+      <c r="CJ16" s="105"/>
+      <c r="CK16" s="105"/>
+      <c r="DE16" t="s">
+        <v>185</v>
+      </c>
       <c r="DS16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="FA16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FG16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="FS16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:175" x14ac:dyDescent="0.45">
@@ -6226,7 +6241,7 @@
         <v>41</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
@@ -6242,25 +6257,28 @@
       <c r="Z17" s="34"/>
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
-      <c r="CD17" s="39"/>
-      <c r="CE17" s="39"/>
-      <c r="CF17" s="39"/>
-      <c r="CG17" s="39"/>
-      <c r="CH17" s="39"/>
-      <c r="CI17" s="39"/>
-      <c r="CJ17" s="39"/>
-      <c r="CK17" s="39"/>
+      <c r="CD17" s="105"/>
+      <c r="CE17" s="105"/>
+      <c r="CF17" s="105"/>
+      <c r="CG17" s="105"/>
+      <c r="CH17" s="105"/>
+      <c r="CI17" s="105"/>
+      <c r="CJ17" s="105"/>
+      <c r="CK17" s="105"/>
+      <c r="DE17" t="s">
+        <v>186</v>
+      </c>
       <c r="DN17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="EC17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="FG17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="FS17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:175" x14ac:dyDescent="0.45">
@@ -6268,7 +6286,7 @@
         <v>42</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
@@ -6284,33 +6302,33 @@
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
       <c r="AB18" s="34"/>
-      <c r="CD18" s="39"/>
-      <c r="CE18" s="39"/>
-      <c r="CF18" s="39"/>
-      <c r="CG18" s="39"/>
-      <c r="CH18" s="39"/>
-      <c r="CI18" s="39"/>
-      <c r="CJ18" s="39"/>
-      <c r="CK18" s="39"/>
+      <c r="CD18" s="105"/>
+      <c r="CE18" s="105"/>
+      <c r="CF18" s="105"/>
+      <c r="CG18" s="105"/>
+      <c r="CH18" s="105"/>
+      <c r="CI18" s="105"/>
+      <c r="CJ18" s="105"/>
+      <c r="CK18" s="105"/>
       <c r="CL18" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CM18" s="36"/>
       <c r="CN18" s="36"/>
       <c r="CO18" s="37"/>
       <c r="EC18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EY18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
@@ -6326,28 +6344,28 @@
       <c r="Z19" s="34"/>
       <c r="AA19" s="34"/>
       <c r="AB19" s="34"/>
-      <c r="CD19" s="39"/>
-      <c r="CE19" s="39"/>
-      <c r="CF19" s="39"/>
-      <c r="CG19" s="39"/>
-      <c r="CH19" s="39"/>
-      <c r="CI19" s="39"/>
-      <c r="CJ19" s="39"/>
-      <c r="CK19" s="39"/>
+      <c r="CD19" s="105"/>
+      <c r="CE19" s="105"/>
+      <c r="CF19" s="105"/>
+      <c r="CG19" s="105"/>
+      <c r="CH19" s="105"/>
+      <c r="CI19" s="105"/>
+      <c r="CJ19" s="105"/>
+      <c r="CK19" s="105"/>
       <c r="CM19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="EC19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="FG19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="N20" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
@@ -6363,31 +6381,31 @@
       <c r="Z20" s="34"/>
       <c r="AA20" s="34"/>
       <c r="AB20" s="34"/>
-      <c r="CD20" s="39"/>
-      <c r="CE20" s="39"/>
-      <c r="CF20" s="39"/>
-      <c r="CG20" s="39"/>
-      <c r="CH20" s="39"/>
-      <c r="CI20" s="39"/>
-      <c r="CJ20" s="39"/>
-      <c r="CK20" s="39"/>
+      <c r="CD20" s="105"/>
+      <c r="CE20" s="105"/>
+      <c r="CF20" s="105"/>
+      <c r="CG20" s="105"/>
+      <c r="CH20" s="105"/>
+      <c r="CI20" s="105"/>
+      <c r="CJ20" s="105"/>
+      <c r="CK20" s="105"/>
       <c r="FG20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
         <v>84</v>
       </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
       <c r="N21" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
@@ -6403,25 +6421,25 @@
       <c r="Z21" s="34"/>
       <c r="AA21" s="34"/>
       <c r="AB21" s="34"/>
-      <c r="CD21" s="39"/>
-      <c r="CE21" s="39"/>
-      <c r="CF21" s="39"/>
-      <c r="CG21" s="39"/>
-      <c r="CH21" s="39"/>
-      <c r="CI21" s="39"/>
-      <c r="CJ21" s="39"/>
-      <c r="CK21" s="39"/>
+      <c r="CD21" s="105"/>
+      <c r="CE21" s="105"/>
+      <c r="CF21" s="105"/>
+      <c r="CG21" s="105"/>
+      <c r="CH21" s="105"/>
+      <c r="CI21" s="105"/>
+      <c r="CJ21" s="105"/>
+      <c r="CK21" s="105"/>
       <c r="DR21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="EY21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="FG21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="FN21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:175" x14ac:dyDescent="0.45">
@@ -6445,7 +6463,7 @@
         <v>5972</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
@@ -6461,22 +6479,22 @@
       <c r="Z22" s="34"/>
       <c r="AA22" s="34"/>
       <c r="AB22" s="34"/>
-      <c r="CD22" s="39"/>
-      <c r="CE22" s="39"/>
-      <c r="CF22" s="39"/>
-      <c r="CG22" s="39"/>
-      <c r="CH22" s="39"/>
-      <c r="CI22" s="39"/>
-      <c r="CJ22" s="39"/>
-      <c r="CK22" s="39"/>
+      <c r="CD22" s="105"/>
+      <c r="CE22" s="105"/>
+      <c r="CF22" s="105"/>
+      <c r="CG22" s="105"/>
+      <c r="CH22" s="105"/>
+      <c r="CI22" s="105"/>
+      <c r="CJ22" s="105"/>
+      <c r="CK22" s="105"/>
       <c r="DR22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="FH22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="FO22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:175" x14ac:dyDescent="0.45">
@@ -6493,7 +6511,7 @@
         <v>5973</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
@@ -6509,16 +6527,16 @@
       <c r="Z23" s="34"/>
       <c r="AA23" s="34"/>
       <c r="AB23" s="34"/>
-      <c r="CD23" s="39"/>
-      <c r="CE23" s="39"/>
-      <c r="CF23" s="39"/>
-      <c r="CG23" s="39"/>
-      <c r="CH23" s="39"/>
-      <c r="CI23" s="39"/>
-      <c r="CJ23" s="39"/>
-      <c r="CK23" s="39"/>
+      <c r="CD23" s="105"/>
+      <c r="CE23" s="105"/>
+      <c r="CF23" s="105"/>
+      <c r="CG23" s="105"/>
+      <c r="CH23" s="105"/>
+      <c r="CI23" s="105"/>
+      <c r="CJ23" s="105"/>
+      <c r="CK23" s="105"/>
       <c r="FH23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:175" x14ac:dyDescent="0.45">
@@ -6534,16 +6552,16 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="39"/>
-      <c r="CE24" s="39"/>
-      <c r="CF24" s="39"/>
-      <c r="CG24" s="39"/>
-      <c r="CH24" s="39"/>
-      <c r="CI24" s="39"/>
-      <c r="CJ24" s="39"/>
-      <c r="CK24" s="39"/>
+      <c r="CD24" s="105"/>
+      <c r="CE24" s="105"/>
+      <c r="CF24" s="105"/>
+      <c r="CG24" s="105"/>
+      <c r="CH24" s="105"/>
+      <c r="CI24" s="105"/>
+      <c r="CJ24" s="105"/>
+      <c r="CK24" s="105"/>
       <c r="EX24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:175" x14ac:dyDescent="0.45">
@@ -6559,16 +6577,16 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="39"/>
-      <c r="CE25" s="39"/>
-      <c r="CF25" s="39"/>
-      <c r="CG25" s="39"/>
-      <c r="CH25" s="39"/>
-      <c r="CI25" s="39"/>
-      <c r="CJ25" s="39"/>
-      <c r="CK25" s="39"/>
+      <c r="CD25" s="105"/>
+      <c r="CE25" s="105"/>
+      <c r="CF25" s="105"/>
+      <c r="CG25" s="105"/>
+      <c r="CH25" s="105"/>
+      <c r="CI25" s="105"/>
+      <c r="CJ25" s="105"/>
+      <c r="CK25" s="105"/>
       <c r="EX25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:175" x14ac:dyDescent="0.45">
@@ -6584,14 +6602,14 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="39"/>
-      <c r="CE26" s="39"/>
-      <c r="CF26" s="39"/>
-      <c r="CG26" s="39"/>
-      <c r="CH26" s="39"/>
-      <c r="CI26" s="39"/>
-      <c r="CJ26" s="39"/>
-      <c r="CK26" s="39"/>
+      <c r="CD26" s="105"/>
+      <c r="CE26" s="105"/>
+      <c r="CF26" s="105"/>
+      <c r="CG26" s="105"/>
+      <c r="CH26" s="105"/>
+      <c r="CI26" s="105"/>
+      <c r="CJ26" s="105"/>
+      <c r="CK26" s="105"/>
     </row>
     <row r="27" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
@@ -6606,14 +6624,14 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="39"/>
-      <c r="CE27" s="39"/>
-      <c r="CF27" s="39"/>
-      <c r="CG27" s="39"/>
-      <c r="CH27" s="39"/>
-      <c r="CI27" s="39"/>
-      <c r="CJ27" s="39"/>
-      <c r="CK27" s="39"/>
+      <c r="CD27" s="105"/>
+      <c r="CE27" s="105"/>
+      <c r="CF27" s="105"/>
+      <c r="CG27" s="105"/>
+      <c r="CH27" s="105"/>
+      <c r="CI27" s="105"/>
+      <c r="CJ27" s="105"/>
+      <c r="CK27" s="105"/>
     </row>
     <row r="28" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
@@ -6628,14 +6646,14 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="39"/>
-      <c r="CE28" s="39"/>
-      <c r="CF28" s="39"/>
-      <c r="CG28" s="39"/>
-      <c r="CH28" s="39"/>
-      <c r="CI28" s="39"/>
-      <c r="CJ28" s="39"/>
-      <c r="CK28" s="39"/>
+      <c r="CD28" s="105"/>
+      <c r="CE28" s="105"/>
+      <c r="CF28" s="105"/>
+      <c r="CG28" s="105"/>
+      <c r="CH28" s="105"/>
+      <c r="CI28" s="105"/>
+      <c r="CJ28" s="105"/>
+      <c r="CK28" s="105"/>
     </row>
     <row r="29" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
@@ -6650,14 +6668,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="39"/>
-      <c r="CE29" s="39"/>
-      <c r="CF29" s="39"/>
-      <c r="CG29" s="39"/>
-      <c r="CH29" s="39"/>
-      <c r="CI29" s="39"/>
-      <c r="CJ29" s="39"/>
-      <c r="CK29" s="39"/>
+      <c r="CD29" s="105"/>
+      <c r="CE29" s="105"/>
+      <c r="CF29" s="105"/>
+      <c r="CG29" s="105"/>
+      <c r="CH29" s="105"/>
+      <c r="CI29" s="105"/>
+      <c r="CJ29" s="105"/>
+      <c r="CK29" s="105"/>
     </row>
     <row r="30" spans="1:175" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -6673,7 +6691,7 @@
         <v>597A</v>
       </c>
       <c r="CD30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:175" x14ac:dyDescent="0.45">
@@ -6732,7 +6750,7 @@
         <v>597E</v>
       </c>
       <c r="BN34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.45">
@@ -6748,7 +6766,7 @@
         <v>597F</v>
       </c>
       <c r="BN35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.45">
@@ -6785,7 +6803,7 @@
         <v>5981</v>
       </c>
       <c r="BL37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BM37">
         <v>243</v>
@@ -6833,13 +6851,13 @@
         <v>5983</v>
       </c>
       <c r="BL39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BZ39" t="s">
+        <v>76</v>
+      </c>
+      <c r="CE39" t="s">
         <v>77</v>
-      </c>
-      <c r="CE39" t="s">
-        <v>78</v>
       </c>
       <c r="CG39">
         <v>9</v>
@@ -6862,7 +6880,7 @@
         <v>5984</v>
       </c>
       <c r="CE40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CG40">
         <v>7</v>
@@ -7006,6 +7024,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="CD16:CK29"/>
+    <mergeCell ref="GT9:HA14"/>
+    <mergeCell ref="HB9:HI14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="DB9:DQ14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="CD9:CK14"/>
+    <mergeCell ref="CL9:DA14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="DZ2:EG2"/>
+    <mergeCell ref="EH2:EO2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="BF3:BM3"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="CD3:CK3"/>
+    <mergeCell ref="CL3:CS3"/>
+    <mergeCell ref="CT3:DA3"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B1:BM1"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="FF3:FM3"/>
+    <mergeCell ref="FN3:FU3"/>
+    <mergeCell ref="FV3:GC3"/>
+    <mergeCell ref="BN1:HI1"/>
+    <mergeCell ref="DJ3:DQ3"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="DZ3:EG3"/>
+    <mergeCell ref="EH3:EO3"/>
+    <mergeCell ref="EP3:EW3"/>
+    <mergeCell ref="EX3:FE3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="EP7:EW7"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="DR7:DU7"/>
+    <mergeCell ref="FK7:FM7"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="FV7:GA7"/>
+    <mergeCell ref="FN7:FU7"/>
     <mergeCell ref="CX7:DA7"/>
     <mergeCell ref="FV4:GK4"/>
     <mergeCell ref="GH7:GK7"/>
@@ -7030,118 +7160,6 @@
     <mergeCell ref="DV7:EA7"/>
     <mergeCell ref="EB7:EG7"/>
     <mergeCell ref="EH7:EO7"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="DR7:DU7"/>
-    <mergeCell ref="FK7:FM7"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="FV7:GA7"/>
-    <mergeCell ref="FN7:FU7"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="GT2:HA2"/>
-    <mergeCell ref="HB2:HI2"/>
-    <mergeCell ref="B1:BM1"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="FF3:FM3"/>
-    <mergeCell ref="FN3:FU3"/>
-    <mergeCell ref="FV3:GC3"/>
-    <mergeCell ref="BN1:HI1"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="DZ3:EG3"/>
-    <mergeCell ref="EH3:EO3"/>
-    <mergeCell ref="EP3:EW3"/>
-    <mergeCell ref="EX3:FE3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="DZ2:EG2"/>
-    <mergeCell ref="EH2:EO2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CL2:CS2"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="BF3:BM3"/>
-    <mergeCell ref="CT2:DA2"/>
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="CD3:CK3"/>
-    <mergeCell ref="CL3:CS3"/>
-    <mergeCell ref="CT3:DA3"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="CD16:CK29"/>
-    <mergeCell ref="GT9:HA14"/>
-    <mergeCell ref="HB9:HI14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="DB9:DQ14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="CD9:CK14"/>
-    <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7170,7 +7188,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C1">
         <f>HEX2DEC("2654")</f>
@@ -7179,22 +7197,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -7210,10 +7228,10 @@
         <v>2654</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7242,13 +7260,13 @@
         <v>2656</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7277,13 +7295,13 @@
         <v>2658</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -7312,7 +7330,7 @@
         <v>265A</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -7341,7 +7359,7 @@
         <v>265C</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -7370,7 +7388,7 @@
         <v>265E</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -7399,10 +7417,10 @@
         <v>2660</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -7431,7 +7449,7 @@
         <v>2662</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -7460,7 +7478,7 @@
         <v>2664</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -7489,7 +7507,7 @@
         <v>2666</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -7518,10 +7536,10 @@
         <v>2668</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -7550,7 +7568,7 @@
         <v>266A</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -7566,7 +7584,7 @@
         <v>266B</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -7582,7 +7600,7 @@
         <v>266C</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -7598,7 +7616,7 @@
         <v>266D</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -7614,7 +7632,7 @@
         <v>266E</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -7646,7 +7664,7 @@
         <v>2670</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -7675,10 +7693,10 @@
         <v>2672</v>
       </c>
       <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
         <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -7707,7 +7725,7 @@
         <v>2674</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -7736,7 +7754,7 @@
         <v>2676</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -7752,7 +7770,7 @@
         <v>2677</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -7781,7 +7799,7 @@
         <v>2679</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -7797,7 +7815,7 @@
         <v>267A</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C358AB4-646C-47DB-BE30-9CCB0F9BCD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F01444D-66C0-4B1B-B82F-E28973A44531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="14985" windowHeight="10980" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
   <si>
     <t>Static Object</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>ffc0</t>
+  </si>
+  <si>
+    <t>NPC category has an effect here?</t>
+  </si>
+  <si>
+    <t>For NPCs does this mean they are in combat?</t>
   </si>
 </sst>
 </file>
@@ -1688,10 +1694,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="AI9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="BZ23" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9:Z14"/>
+      <selection pane="bottomRight" activeCell="CD34" sqref="CD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6429,6 +6435,9 @@
       <c r="CI21" s="105"/>
       <c r="CJ21" s="105"/>
       <c r="CK21" s="105"/>
+      <c r="CL21" t="s">
+        <v>188</v>
+      </c>
       <c r="DR21" t="s">
         <v>182</v>
       </c>
@@ -6734,6 +6743,9 @@
       <c r="I33" t="str">
         <f t="shared" si="41"/>
         <v>597D</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:87" x14ac:dyDescent="0.45">

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F01444D-66C0-4B1B-B82F-E28973A44531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC9BF2-1939-4623-933E-3DB03D98C529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="14985" windowHeight="10980" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
   <si>
     <t>Static Object</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>For NPCs does this mean they are in combat?</t>
+  </si>
+  <si>
+    <t>Does npc_hunger mean the npc is aware of the player</t>
   </si>
 </sst>
 </file>
@@ -1694,10 +1697,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="BZ23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="AH10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="CD34" sqref="CD34"/>
+      <selection pane="bottomRight" activeCell="BC25" sqref="BC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6242,7 +6245,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
@@ -6286,8 +6289,11 @@
       <c r="FS17" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:175" x14ac:dyDescent="0.45">
+      <c r="GV17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -6329,7 +6335,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>71</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="N20" s="34" t="s">
         <v>161</v>
@@ -6399,7 +6405,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="E21" t="s">
         <v>120</v>
@@ -6451,7 +6457,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="E22">
         <v>5972</v>
@@ -6506,7 +6512,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="G23">
         <v>1</v>
@@ -6548,7 +6554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="G24">
         <v>2</v>
@@ -6573,7 +6579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="G25">
         <v>3</v>
@@ -6598,7 +6604,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="G26">
         <v>4</v>
@@ -6620,7 +6626,7 @@
       <c r="CJ26" s="105"/>
       <c r="CK26" s="105"/>
     </row>
-    <row r="27" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="G27">
         <v>5</v>
@@ -6642,7 +6648,7 @@
       <c r="CJ27" s="105"/>
       <c r="CK27" s="105"/>
     </row>
-    <row r="28" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="G28">
         <v>6</v>
@@ -6664,7 +6670,7 @@
       <c r="CJ28" s="105"/>
       <c r="CK28" s="105"/>
     </row>
-    <row r="29" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="G29">
         <v>7</v>
@@ -6686,7 +6692,7 @@
       <c r="CJ29" s="105"/>
       <c r="CK29" s="105"/>
     </row>
-    <row r="30" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="G30">
         <v>8</v>
@@ -6703,7 +6709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="G31">
         <v>9</v>
@@ -6717,7 +6723,7 @@
         <v>597B</v>
       </c>
     </row>
-    <row r="32" spans="1:175" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="G32">
         <v>10</v>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC9BF2-1939-4623-933E-3DB03D98C529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753185FB-BD57-4937-9FE2-0C5BDAA10960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
   <si>
     <t>Static Object</t>
   </si>
@@ -530,9 +530,6 @@
     <t>/array of object motion params used to calcuate projecile motion</t>
   </si>
   <si>
-    <t>In reality the mobile data can either represent NPC information or  projectile data</t>
-  </si>
-  <si>
     <t>See the rows Data and Alt Data</t>
   </si>
   <si>
@@ -620,6 +617,30 @@
   </si>
   <si>
     <t>Does npc_hunger mean the npc is aware of the player</t>
+  </si>
+  <si>
+    <t>For player object is the item id of the last creature</t>
+  </si>
+  <si>
+    <t>to hit the player? Does this happen for all npcs?</t>
+  </si>
+  <si>
+    <t>Bit 8</t>
+  </si>
+  <si>
+    <t>bit b is used in calculatin enchantments</t>
+  </si>
+  <si>
+    <t>In reality the mobile data can either represent NPC information or  projectile position data</t>
+  </si>
+  <si>
+    <t>Might also be a reference to a target object</t>
+  </si>
+  <si>
+    <t>Related to run code on race.</t>
+  </si>
+  <si>
+    <t>This bit appears to affect loot spawning</t>
   </si>
 </sst>
 </file>
@@ -1206,32 +1227,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1260,6 +1285,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1269,7 +1312,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1281,32 +1357,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1338,46 +1396,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1697,10 +1718,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="AH10" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="CY22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BC25" sqref="BC25"/>
+      <selection pane="bottomRight" activeCell="DE24" sqref="DE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1730,1075 +1751,1075 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
-      <c r="BJ1" s="96"/>
-      <c r="BK1" s="96"/>
-      <c r="BL1" s="96"/>
-      <c r="BM1" s="97"/>
-      <c r="BN1" s="95" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="87"/>
+      <c r="BC1" s="87"/>
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="87"/>
+      <c r="BG1" s="87"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="87"/>
+      <c r="BL1" s="87"/>
+      <c r="BM1" s="88"/>
+      <c r="BN1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="96"/>
-      <c r="BP1" s="96"/>
-      <c r="BQ1" s="96"/>
-      <c r="BR1" s="96"/>
-      <c r="BS1" s="96"/>
-      <c r="BT1" s="96"/>
-      <c r="BU1" s="96"/>
-      <c r="BV1" s="96"/>
-      <c r="BW1" s="96"/>
-      <c r="BX1" s="96"/>
-      <c r="BY1" s="96"/>
-      <c r="BZ1" s="96"/>
-      <c r="CA1" s="96"/>
-      <c r="CB1" s="96"/>
-      <c r="CC1" s="96"/>
-      <c r="CD1" s="96"/>
-      <c r="CE1" s="96"/>
-      <c r="CF1" s="96"/>
-      <c r="CG1" s="96"/>
-      <c r="CH1" s="96"/>
-      <c r="CI1" s="96"/>
-      <c r="CJ1" s="96"/>
-      <c r="CK1" s="96"/>
-      <c r="CL1" s="96"/>
-      <c r="CM1" s="96"/>
-      <c r="CN1" s="96"/>
-      <c r="CO1" s="96"/>
-      <c r="CP1" s="96"/>
-      <c r="CQ1" s="96"/>
-      <c r="CR1" s="96"/>
-      <c r="CS1" s="96"/>
-      <c r="CT1" s="96"/>
-      <c r="CU1" s="96"/>
-      <c r="CV1" s="96"/>
-      <c r="CW1" s="96"/>
-      <c r="CX1" s="96"/>
-      <c r="CY1" s="96"/>
-      <c r="CZ1" s="96"/>
-      <c r="DA1" s="96"/>
-      <c r="DB1" s="96"/>
-      <c r="DC1" s="96"/>
-      <c r="DD1" s="96"/>
-      <c r="DE1" s="96"/>
-      <c r="DF1" s="96"/>
-      <c r="DG1" s="96"/>
-      <c r="DH1" s="96"/>
-      <c r="DI1" s="96"/>
-      <c r="DJ1" s="96"/>
-      <c r="DK1" s="96"/>
-      <c r="DL1" s="96"/>
-      <c r="DM1" s="96"/>
-      <c r="DN1" s="96"/>
-      <c r="DO1" s="96"/>
-      <c r="DP1" s="96"/>
-      <c r="DQ1" s="96"/>
-      <c r="DR1" s="96"/>
-      <c r="DS1" s="96"/>
-      <c r="DT1" s="96"/>
-      <c r="DU1" s="96"/>
-      <c r="DV1" s="96"/>
-      <c r="DW1" s="96"/>
-      <c r="DX1" s="96"/>
-      <c r="DY1" s="96"/>
-      <c r="DZ1" s="96"/>
-      <c r="EA1" s="96"/>
-      <c r="EB1" s="96"/>
-      <c r="EC1" s="96"/>
-      <c r="ED1" s="96"/>
-      <c r="EE1" s="96"/>
-      <c r="EF1" s="96"/>
-      <c r="EG1" s="96"/>
-      <c r="EH1" s="96"/>
-      <c r="EI1" s="96"/>
-      <c r="EJ1" s="96"/>
-      <c r="EK1" s="96"/>
-      <c r="EL1" s="96"/>
-      <c r="EM1" s="96"/>
-      <c r="EN1" s="96"/>
-      <c r="EO1" s="96"/>
-      <c r="EP1" s="96"/>
-      <c r="EQ1" s="96"/>
-      <c r="ER1" s="96"/>
-      <c r="ES1" s="96"/>
-      <c r="ET1" s="96"/>
-      <c r="EU1" s="96"/>
-      <c r="EV1" s="96"/>
-      <c r="EW1" s="96"/>
-      <c r="EX1" s="96"/>
-      <c r="EY1" s="96"/>
-      <c r="EZ1" s="96"/>
-      <c r="FA1" s="96"/>
-      <c r="FB1" s="96"/>
-      <c r="FC1" s="96"/>
-      <c r="FD1" s="96"/>
-      <c r="FE1" s="96"/>
-      <c r="FF1" s="96"/>
-      <c r="FG1" s="96"/>
-      <c r="FH1" s="96"/>
-      <c r="FI1" s="96"/>
-      <c r="FJ1" s="96"/>
-      <c r="FK1" s="96"/>
-      <c r="FL1" s="96"/>
-      <c r="FM1" s="96"/>
-      <c r="FN1" s="96"/>
-      <c r="FO1" s="96"/>
-      <c r="FP1" s="96"/>
-      <c r="FQ1" s="96"/>
-      <c r="FR1" s="96"/>
-      <c r="FS1" s="96"/>
-      <c r="FT1" s="96"/>
-      <c r="FU1" s="96"/>
-      <c r="FV1" s="96"/>
-      <c r="FW1" s="96"/>
-      <c r="FX1" s="96"/>
-      <c r="FY1" s="96"/>
-      <c r="FZ1" s="96"/>
-      <c r="GA1" s="96"/>
-      <c r="GB1" s="96"/>
-      <c r="GC1" s="96"/>
-      <c r="GD1" s="96"/>
-      <c r="GE1" s="96"/>
-      <c r="GF1" s="96"/>
-      <c r="GG1" s="96"/>
-      <c r="GH1" s="96"/>
-      <c r="GI1" s="96"/>
-      <c r="GJ1" s="96"/>
-      <c r="GK1" s="96"/>
-      <c r="GL1" s="96"/>
-      <c r="GM1" s="96"/>
-      <c r="GN1" s="96"/>
-      <c r="GO1" s="96"/>
-      <c r="GP1" s="96"/>
-      <c r="GQ1" s="96"/>
-      <c r="GR1" s="96"/>
-      <c r="GS1" s="96"/>
-      <c r="GT1" s="96"/>
-      <c r="GU1" s="96"/>
-      <c r="GV1" s="96"/>
-      <c r="GW1" s="96"/>
-      <c r="GX1" s="96"/>
-      <c r="GY1" s="96"/>
-      <c r="GZ1" s="96"/>
-      <c r="HA1" s="96"/>
-      <c r="HB1" s="96"/>
-      <c r="HC1" s="96"/>
-      <c r="HD1" s="96"/>
-      <c r="HE1" s="96"/>
-      <c r="HF1" s="96"/>
-      <c r="HG1" s="96"/>
-      <c r="HH1" s="96"/>
-      <c r="HI1" s="96"/>
+      <c r="BO1" s="87"/>
+      <c r="BP1" s="87"/>
+      <c r="BQ1" s="87"/>
+      <c r="BR1" s="87"/>
+      <c r="BS1" s="87"/>
+      <c r="BT1" s="87"/>
+      <c r="BU1" s="87"/>
+      <c r="BV1" s="87"/>
+      <c r="BW1" s="87"/>
+      <c r="BX1" s="87"/>
+      <c r="BY1" s="87"/>
+      <c r="BZ1" s="87"/>
+      <c r="CA1" s="87"/>
+      <c r="CB1" s="87"/>
+      <c r="CC1" s="87"/>
+      <c r="CD1" s="87"/>
+      <c r="CE1" s="87"/>
+      <c r="CF1" s="87"/>
+      <c r="CG1" s="87"/>
+      <c r="CH1" s="87"/>
+      <c r="CI1" s="87"/>
+      <c r="CJ1" s="87"/>
+      <c r="CK1" s="87"/>
+      <c r="CL1" s="87"/>
+      <c r="CM1" s="87"/>
+      <c r="CN1" s="87"/>
+      <c r="CO1" s="87"/>
+      <c r="CP1" s="87"/>
+      <c r="CQ1" s="87"/>
+      <c r="CR1" s="87"/>
+      <c r="CS1" s="87"/>
+      <c r="CT1" s="87"/>
+      <c r="CU1" s="87"/>
+      <c r="CV1" s="87"/>
+      <c r="CW1" s="87"/>
+      <c r="CX1" s="87"/>
+      <c r="CY1" s="87"/>
+      <c r="CZ1" s="87"/>
+      <c r="DA1" s="87"/>
+      <c r="DB1" s="87"/>
+      <c r="DC1" s="87"/>
+      <c r="DD1" s="87"/>
+      <c r="DE1" s="87"/>
+      <c r="DF1" s="87"/>
+      <c r="DG1" s="87"/>
+      <c r="DH1" s="87"/>
+      <c r="DI1" s="87"/>
+      <c r="DJ1" s="87"/>
+      <c r="DK1" s="87"/>
+      <c r="DL1" s="87"/>
+      <c r="DM1" s="87"/>
+      <c r="DN1" s="87"/>
+      <c r="DO1" s="87"/>
+      <c r="DP1" s="87"/>
+      <c r="DQ1" s="87"/>
+      <c r="DR1" s="87"/>
+      <c r="DS1" s="87"/>
+      <c r="DT1" s="87"/>
+      <c r="DU1" s="87"/>
+      <c r="DV1" s="87"/>
+      <c r="DW1" s="87"/>
+      <c r="DX1" s="87"/>
+      <c r="DY1" s="87"/>
+      <c r="DZ1" s="87"/>
+      <c r="EA1" s="87"/>
+      <c r="EB1" s="87"/>
+      <c r="EC1" s="87"/>
+      <c r="ED1" s="87"/>
+      <c r="EE1" s="87"/>
+      <c r="EF1" s="87"/>
+      <c r="EG1" s="87"/>
+      <c r="EH1" s="87"/>
+      <c r="EI1" s="87"/>
+      <c r="EJ1" s="87"/>
+      <c r="EK1" s="87"/>
+      <c r="EL1" s="87"/>
+      <c r="EM1" s="87"/>
+      <c r="EN1" s="87"/>
+      <c r="EO1" s="87"/>
+      <c r="EP1" s="87"/>
+      <c r="EQ1" s="87"/>
+      <c r="ER1" s="87"/>
+      <c r="ES1" s="87"/>
+      <c r="ET1" s="87"/>
+      <c r="EU1" s="87"/>
+      <c r="EV1" s="87"/>
+      <c r="EW1" s="87"/>
+      <c r="EX1" s="87"/>
+      <c r="EY1" s="87"/>
+      <c r="EZ1" s="87"/>
+      <c r="FA1" s="87"/>
+      <c r="FB1" s="87"/>
+      <c r="FC1" s="87"/>
+      <c r="FD1" s="87"/>
+      <c r="FE1" s="87"/>
+      <c r="FF1" s="87"/>
+      <c r="FG1" s="87"/>
+      <c r="FH1" s="87"/>
+      <c r="FI1" s="87"/>
+      <c r="FJ1" s="87"/>
+      <c r="FK1" s="87"/>
+      <c r="FL1" s="87"/>
+      <c r="FM1" s="87"/>
+      <c r="FN1" s="87"/>
+      <c r="FO1" s="87"/>
+      <c r="FP1" s="87"/>
+      <c r="FQ1" s="87"/>
+      <c r="FR1" s="87"/>
+      <c r="FS1" s="87"/>
+      <c r="FT1" s="87"/>
+      <c r="FU1" s="87"/>
+      <c r="FV1" s="87"/>
+      <c r="FW1" s="87"/>
+      <c r="FX1" s="87"/>
+      <c r="FY1" s="87"/>
+      <c r="FZ1" s="87"/>
+      <c r="GA1" s="87"/>
+      <c r="GB1" s="87"/>
+      <c r="GC1" s="87"/>
+      <c r="GD1" s="87"/>
+      <c r="GE1" s="87"/>
+      <c r="GF1" s="87"/>
+      <c r="GG1" s="87"/>
+      <c r="GH1" s="87"/>
+      <c r="GI1" s="87"/>
+      <c r="GJ1" s="87"/>
+      <c r="GK1" s="87"/>
+      <c r="GL1" s="87"/>
+      <c r="GM1" s="87"/>
+      <c r="GN1" s="87"/>
+      <c r="GO1" s="87"/>
+      <c r="GP1" s="87"/>
+      <c r="GQ1" s="87"/>
+      <c r="GR1" s="87"/>
+      <c r="GS1" s="87"/>
+      <c r="GT1" s="87"/>
+      <c r="GU1" s="87"/>
+      <c r="GV1" s="87"/>
+      <c r="GW1" s="87"/>
+      <c r="GX1" s="87"/>
+      <c r="GY1" s="87"/>
+      <c r="GZ1" s="87"/>
+      <c r="HA1" s="87"/>
+      <c r="HB1" s="87"/>
+      <c r="HC1" s="87"/>
+      <c r="HD1" s="87"/>
+      <c r="HE1" s="87"/>
+      <c r="HF1" s="87"/>
+      <c r="HG1" s="87"/>
+      <c r="HH1" s="87"/>
+      <c r="HI1" s="87"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="68">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="51">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68">
         <v>1</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="51">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="68">
         <v>2</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="51">
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="68">
         <v>3</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="51">
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="68">
         <v>4</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="51">
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="68">
         <v>5</v>
       </c>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="51">
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="68">
         <v>6</v>
       </c>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="51">
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="68">
         <v>7</v>
       </c>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="51">
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="68">
         <v>8</v>
       </c>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="51">
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="69"/>
+      <c r="BS2" s="69"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="68">
         <v>9</v>
       </c>
-      <c r="BW2" s="52"/>
-      <c r="BX2" s="52"/>
-      <c r="BY2" s="52"/>
-      <c r="BZ2" s="52"/>
-      <c r="CA2" s="52"/>
-      <c r="CB2" s="52"/>
-      <c r="CC2" s="53"/>
-      <c r="CD2" s="51">
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="69"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="68">
         <v>10</v>
       </c>
-      <c r="CE2" s="52"/>
-      <c r="CF2" s="52"/>
-      <c r="CG2" s="52"/>
-      <c r="CH2" s="52"/>
-      <c r="CI2" s="52"/>
-      <c r="CJ2" s="52"/>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="51">
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="69"/>
+      <c r="CG2" s="69"/>
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
+      <c r="CJ2" s="69"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="68">
         <v>11</v>
       </c>
-      <c r="CM2" s="52"/>
-      <c r="CN2" s="52"/>
-      <c r="CO2" s="52"/>
-      <c r="CP2" s="52"/>
-      <c r="CQ2" s="52"/>
-      <c r="CR2" s="52"/>
-      <c r="CS2" s="53"/>
-      <c r="CT2" s="51">
+      <c r="CM2" s="69"/>
+      <c r="CN2" s="69"/>
+      <c r="CO2" s="69"/>
+      <c r="CP2" s="69"/>
+      <c r="CQ2" s="69"/>
+      <c r="CR2" s="69"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="68">
         <v>12</v>
       </c>
-      <c r="CU2" s="52"/>
-      <c r="CV2" s="52"/>
-      <c r="CW2" s="52"/>
-      <c r="CX2" s="52"/>
-      <c r="CY2" s="52"/>
-      <c r="CZ2" s="52"/>
-      <c r="DA2" s="53"/>
-      <c r="DB2" s="51">
+      <c r="CU2" s="69"/>
+      <c r="CV2" s="69"/>
+      <c r="CW2" s="69"/>
+      <c r="CX2" s="69"/>
+      <c r="CY2" s="69"/>
+      <c r="CZ2" s="69"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="68">
         <v>13</v>
       </c>
-      <c r="DC2" s="52"/>
-      <c r="DD2" s="52"/>
-      <c r="DE2" s="52"/>
-      <c r="DF2" s="52"/>
-      <c r="DG2" s="52"/>
-      <c r="DH2" s="52"/>
-      <c r="DI2" s="53"/>
-      <c r="DJ2" s="51">
+      <c r="DC2" s="69"/>
+      <c r="DD2" s="69"/>
+      <c r="DE2" s="69"/>
+      <c r="DF2" s="69"/>
+      <c r="DG2" s="69"/>
+      <c r="DH2" s="69"/>
+      <c r="DI2" s="70"/>
+      <c r="DJ2" s="68">
         <v>14</v>
       </c>
-      <c r="DK2" s="52"/>
-      <c r="DL2" s="52"/>
-      <c r="DM2" s="52"/>
-      <c r="DN2" s="52"/>
-      <c r="DO2" s="52"/>
-      <c r="DP2" s="52"/>
-      <c r="DQ2" s="53"/>
-      <c r="DR2" s="51">
+      <c r="DK2" s="69"/>
+      <c r="DL2" s="69"/>
+      <c r="DM2" s="69"/>
+      <c r="DN2" s="69"/>
+      <c r="DO2" s="69"/>
+      <c r="DP2" s="69"/>
+      <c r="DQ2" s="70"/>
+      <c r="DR2" s="68">
         <v>15</v>
       </c>
-      <c r="DS2" s="52"/>
-      <c r="DT2" s="52"/>
-      <c r="DU2" s="52"/>
-      <c r="DV2" s="52"/>
-      <c r="DW2" s="52"/>
-      <c r="DX2" s="52"/>
-      <c r="DY2" s="53"/>
-      <c r="DZ2" s="51">
+      <c r="DS2" s="69"/>
+      <c r="DT2" s="69"/>
+      <c r="DU2" s="69"/>
+      <c r="DV2" s="69"/>
+      <c r="DW2" s="69"/>
+      <c r="DX2" s="69"/>
+      <c r="DY2" s="70"/>
+      <c r="DZ2" s="68">
         <v>16</v>
       </c>
-      <c r="EA2" s="52"/>
-      <c r="EB2" s="52"/>
-      <c r="EC2" s="52"/>
-      <c r="ED2" s="52"/>
-      <c r="EE2" s="52"/>
-      <c r="EF2" s="52"/>
-      <c r="EG2" s="53"/>
-      <c r="EH2" s="51">
+      <c r="EA2" s="69"/>
+      <c r="EB2" s="69"/>
+      <c r="EC2" s="69"/>
+      <c r="ED2" s="69"/>
+      <c r="EE2" s="69"/>
+      <c r="EF2" s="69"/>
+      <c r="EG2" s="70"/>
+      <c r="EH2" s="68">
         <v>17</v>
       </c>
-      <c r="EI2" s="52"/>
-      <c r="EJ2" s="52"/>
-      <c r="EK2" s="52"/>
-      <c r="EL2" s="52"/>
-      <c r="EM2" s="52"/>
-      <c r="EN2" s="52"/>
-      <c r="EO2" s="53"/>
-      <c r="EP2" s="51">
+      <c r="EI2" s="69"/>
+      <c r="EJ2" s="69"/>
+      <c r="EK2" s="69"/>
+      <c r="EL2" s="69"/>
+      <c r="EM2" s="69"/>
+      <c r="EN2" s="69"/>
+      <c r="EO2" s="70"/>
+      <c r="EP2" s="68">
         <v>18</v>
       </c>
-      <c r="EQ2" s="52"/>
-      <c r="ER2" s="52"/>
-      <c r="ES2" s="52"/>
-      <c r="ET2" s="52"/>
-      <c r="EU2" s="52"/>
-      <c r="EV2" s="52"/>
-      <c r="EW2" s="53"/>
-      <c r="EX2" s="51">
+      <c r="EQ2" s="69"/>
+      <c r="ER2" s="69"/>
+      <c r="ES2" s="69"/>
+      <c r="ET2" s="69"/>
+      <c r="EU2" s="69"/>
+      <c r="EV2" s="69"/>
+      <c r="EW2" s="70"/>
+      <c r="EX2" s="68">
         <v>19</v>
       </c>
-      <c r="EY2" s="52"/>
-      <c r="EZ2" s="52"/>
-      <c r="FA2" s="52"/>
-      <c r="FB2" s="52"/>
-      <c r="FC2" s="52"/>
-      <c r="FD2" s="52"/>
-      <c r="FE2" s="53"/>
-      <c r="FF2" s="51">
+      <c r="EY2" s="69"/>
+      <c r="EZ2" s="69"/>
+      <c r="FA2" s="69"/>
+      <c r="FB2" s="69"/>
+      <c r="FC2" s="69"/>
+      <c r="FD2" s="69"/>
+      <c r="FE2" s="70"/>
+      <c r="FF2" s="68">
         <v>20</v>
       </c>
-      <c r="FG2" s="52"/>
-      <c r="FH2" s="52"/>
-      <c r="FI2" s="52"/>
-      <c r="FJ2" s="52"/>
-      <c r="FK2" s="52"/>
-      <c r="FL2" s="52"/>
-      <c r="FM2" s="53"/>
-      <c r="FN2" s="51">
+      <c r="FG2" s="69"/>
+      <c r="FH2" s="69"/>
+      <c r="FI2" s="69"/>
+      <c r="FJ2" s="69"/>
+      <c r="FK2" s="69"/>
+      <c r="FL2" s="69"/>
+      <c r="FM2" s="70"/>
+      <c r="FN2" s="68">
         <v>21</v>
       </c>
-      <c r="FO2" s="52"/>
-      <c r="FP2" s="52"/>
-      <c r="FQ2" s="52"/>
-      <c r="FR2" s="52"/>
-      <c r="FS2" s="52"/>
-      <c r="FT2" s="52"/>
-      <c r="FU2" s="53"/>
-      <c r="FV2" s="51">
+      <c r="FO2" s="69"/>
+      <c r="FP2" s="69"/>
+      <c r="FQ2" s="69"/>
+      <c r="FR2" s="69"/>
+      <c r="FS2" s="69"/>
+      <c r="FT2" s="69"/>
+      <c r="FU2" s="70"/>
+      <c r="FV2" s="68">
         <v>22</v>
       </c>
-      <c r="FW2" s="52"/>
-      <c r="FX2" s="52"/>
-      <c r="FY2" s="52"/>
-      <c r="FZ2" s="52"/>
-      <c r="GA2" s="52"/>
-      <c r="GB2" s="52"/>
-      <c r="GC2" s="53"/>
-      <c r="GD2" s="51">
+      <c r="FW2" s="69"/>
+      <c r="FX2" s="69"/>
+      <c r="FY2" s="69"/>
+      <c r="FZ2" s="69"/>
+      <c r="GA2" s="69"/>
+      <c r="GB2" s="69"/>
+      <c r="GC2" s="70"/>
+      <c r="GD2" s="68">
         <v>23</v>
       </c>
-      <c r="GE2" s="52"/>
-      <c r="GF2" s="52"/>
-      <c r="GG2" s="52"/>
-      <c r="GH2" s="52"/>
-      <c r="GI2" s="52"/>
-      <c r="GJ2" s="52"/>
-      <c r="GK2" s="53"/>
-      <c r="GL2" s="51">
+      <c r="GE2" s="69"/>
+      <c r="GF2" s="69"/>
+      <c r="GG2" s="69"/>
+      <c r="GH2" s="69"/>
+      <c r="GI2" s="69"/>
+      <c r="GJ2" s="69"/>
+      <c r="GK2" s="70"/>
+      <c r="GL2" s="68">
         <v>24</v>
       </c>
-      <c r="GM2" s="52"/>
-      <c r="GN2" s="52"/>
-      <c r="GO2" s="52"/>
-      <c r="GP2" s="52"/>
-      <c r="GQ2" s="52"/>
-      <c r="GR2" s="52"/>
-      <c r="GS2" s="53"/>
-      <c r="GT2" s="51">
+      <c r="GM2" s="69"/>
+      <c r="GN2" s="69"/>
+      <c r="GO2" s="69"/>
+      <c r="GP2" s="69"/>
+      <c r="GQ2" s="69"/>
+      <c r="GR2" s="69"/>
+      <c r="GS2" s="70"/>
+      <c r="GT2" s="68">
         <v>25</v>
       </c>
-      <c r="GU2" s="52"/>
-      <c r="GV2" s="52"/>
-      <c r="GW2" s="52"/>
-      <c r="GX2" s="52"/>
-      <c r="GY2" s="52"/>
-      <c r="GZ2" s="52"/>
-      <c r="HA2" s="53"/>
-      <c r="HB2" s="51">
+      <c r="GU2" s="69"/>
+      <c r="GV2" s="69"/>
+      <c r="GW2" s="69"/>
+      <c r="GX2" s="69"/>
+      <c r="GY2" s="69"/>
+      <c r="GZ2" s="69"/>
+      <c r="HA2" s="70"/>
+      <c r="HB2" s="68">
         <v>26</v>
       </c>
-      <c r="HC2" s="52"/>
-      <c r="HD2" s="52"/>
-      <c r="HE2" s="52"/>
-      <c r="HF2" s="52"/>
-      <c r="HG2" s="52"/>
-      <c r="HH2" s="52"/>
-      <c r="HI2" s="53"/>
+      <c r="HC2" s="69"/>
+      <c r="HD2" s="69"/>
+      <c r="HE2" s="69"/>
+      <c r="HF2" s="69"/>
+      <c r="HG2" s="69"/>
+      <c r="HH2" s="69"/>
+      <c r="HI2" s="70"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="68" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="51" t="str">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="68" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="51" t="str">
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="68" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="51" t="str">
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="68" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="51" t="str">
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="68" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="51" t="str">
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="68" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="51" t="str">
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="68" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="51" t="str">
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="68" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="53"/>
-      <c r="BN3" s="51" t="str">
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="68" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="53"/>
-      <c r="BV3" s="51" t="str">
+      <c r="BO3" s="69"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="69"/>
+      <c r="BR3" s="69"/>
+      <c r="BS3" s="69"/>
+      <c r="BT3" s="69"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="68" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="52"/>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52"/>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="53"/>
-      <c r="CD3" s="51" t="str">
+      <c r="BW3" s="69"/>
+      <c r="BX3" s="69"/>
+      <c r="BY3" s="69"/>
+      <c r="BZ3" s="69"/>
+      <c r="CA3" s="69"/>
+      <c r="CB3" s="69"/>
+      <c r="CC3" s="70"/>
+      <c r="CD3" s="68" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="52"/>
-      <c r="CG3" s="52"/>
-      <c r="CH3" s="52"/>
-      <c r="CI3" s="52"/>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="53"/>
-      <c r="CL3" s="51" t="str">
+      <c r="CE3" s="69"/>
+      <c r="CF3" s="69"/>
+      <c r="CG3" s="69"/>
+      <c r="CH3" s="69"/>
+      <c r="CI3" s="69"/>
+      <c r="CJ3" s="69"/>
+      <c r="CK3" s="70"/>
+      <c r="CL3" s="68" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="52"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="52"/>
-      <c r="CP3" s="52"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="52"/>
-      <c r="CS3" s="53"/>
-      <c r="CT3" s="51" t="str">
+      <c r="CM3" s="69"/>
+      <c r="CN3" s="69"/>
+      <c r="CO3" s="69"/>
+      <c r="CP3" s="69"/>
+      <c r="CQ3" s="69"/>
+      <c r="CR3" s="69"/>
+      <c r="CS3" s="70"/>
+      <c r="CT3" s="68" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="52"/>
-      <c r="CV3" s="52"/>
-      <c r="CW3" s="52"/>
-      <c r="CX3" s="52"/>
-      <c r="CY3" s="52"/>
-      <c r="CZ3" s="52"/>
-      <c r="DA3" s="53"/>
-      <c r="DB3" s="51" t="str">
+      <c r="CU3" s="69"/>
+      <c r="CV3" s="69"/>
+      <c r="CW3" s="69"/>
+      <c r="CX3" s="69"/>
+      <c r="CY3" s="69"/>
+      <c r="CZ3" s="69"/>
+      <c r="DA3" s="70"/>
+      <c r="DB3" s="68" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="52"/>
-      <c r="DD3" s="52"/>
-      <c r="DE3" s="52"/>
-      <c r="DF3" s="52"/>
-      <c r="DG3" s="52"/>
-      <c r="DH3" s="52"/>
-      <c r="DI3" s="53"/>
-      <c r="DJ3" s="51" t="str">
+      <c r="DC3" s="69"/>
+      <c r="DD3" s="69"/>
+      <c r="DE3" s="69"/>
+      <c r="DF3" s="69"/>
+      <c r="DG3" s="69"/>
+      <c r="DH3" s="69"/>
+      <c r="DI3" s="70"/>
+      <c r="DJ3" s="68" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="52"/>
-      <c r="DL3" s="52"/>
-      <c r="DM3" s="52"/>
-      <c r="DN3" s="52"/>
-      <c r="DO3" s="52"/>
-      <c r="DP3" s="52"/>
-      <c r="DQ3" s="53"/>
-      <c r="DR3" s="51" t="str">
+      <c r="DK3" s="69"/>
+      <c r="DL3" s="69"/>
+      <c r="DM3" s="69"/>
+      <c r="DN3" s="69"/>
+      <c r="DO3" s="69"/>
+      <c r="DP3" s="69"/>
+      <c r="DQ3" s="70"/>
+      <c r="DR3" s="68" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="52"/>
-      <c r="DT3" s="52"/>
-      <c r="DU3" s="52"/>
-      <c r="DV3" s="52"/>
-      <c r="DW3" s="52"/>
-      <c r="DX3" s="52"/>
-      <c r="DY3" s="53"/>
-      <c r="DZ3" s="51" t="str">
+      <c r="DS3" s="69"/>
+      <c r="DT3" s="69"/>
+      <c r="DU3" s="69"/>
+      <c r="DV3" s="69"/>
+      <c r="DW3" s="69"/>
+      <c r="DX3" s="69"/>
+      <c r="DY3" s="70"/>
+      <c r="DZ3" s="68" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="52"/>
-      <c r="EB3" s="52"/>
-      <c r="EC3" s="52"/>
-      <c r="ED3" s="52"/>
-      <c r="EE3" s="52"/>
-      <c r="EF3" s="52"/>
-      <c r="EG3" s="53"/>
-      <c r="EH3" s="51" t="str">
+      <c r="EA3" s="69"/>
+      <c r="EB3" s="69"/>
+      <c r="EC3" s="69"/>
+      <c r="ED3" s="69"/>
+      <c r="EE3" s="69"/>
+      <c r="EF3" s="69"/>
+      <c r="EG3" s="70"/>
+      <c r="EH3" s="68" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="52"/>
-      <c r="EJ3" s="52"/>
-      <c r="EK3" s="52"/>
-      <c r="EL3" s="52"/>
-      <c r="EM3" s="52"/>
-      <c r="EN3" s="52"/>
-      <c r="EO3" s="53"/>
-      <c r="EP3" s="51" t="str">
+      <c r="EI3" s="69"/>
+      <c r="EJ3" s="69"/>
+      <c r="EK3" s="69"/>
+      <c r="EL3" s="69"/>
+      <c r="EM3" s="69"/>
+      <c r="EN3" s="69"/>
+      <c r="EO3" s="70"/>
+      <c r="EP3" s="68" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="52"/>
-      <c r="ER3" s="52"/>
-      <c r="ES3" s="52"/>
-      <c r="ET3" s="52"/>
-      <c r="EU3" s="52"/>
-      <c r="EV3" s="52"/>
-      <c r="EW3" s="53"/>
-      <c r="EX3" s="51" t="str">
+      <c r="EQ3" s="69"/>
+      <c r="ER3" s="69"/>
+      <c r="ES3" s="69"/>
+      <c r="ET3" s="69"/>
+      <c r="EU3" s="69"/>
+      <c r="EV3" s="69"/>
+      <c r="EW3" s="70"/>
+      <c r="EX3" s="68" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="52"/>
-      <c r="EZ3" s="52"/>
-      <c r="FA3" s="52"/>
-      <c r="FB3" s="52"/>
-      <c r="FC3" s="52"/>
-      <c r="FD3" s="52"/>
-      <c r="FE3" s="53"/>
-      <c r="FF3" s="51" t="str">
+      <c r="EY3" s="69"/>
+      <c r="EZ3" s="69"/>
+      <c r="FA3" s="69"/>
+      <c r="FB3" s="69"/>
+      <c r="FC3" s="69"/>
+      <c r="FD3" s="69"/>
+      <c r="FE3" s="70"/>
+      <c r="FF3" s="68" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="52"/>
-      <c r="FH3" s="52"/>
-      <c r="FI3" s="52"/>
-      <c r="FJ3" s="52"/>
-      <c r="FK3" s="52"/>
-      <c r="FL3" s="52"/>
-      <c r="FM3" s="53"/>
-      <c r="FN3" s="51" t="str">
+      <c r="FG3" s="69"/>
+      <c r="FH3" s="69"/>
+      <c r="FI3" s="69"/>
+      <c r="FJ3" s="69"/>
+      <c r="FK3" s="69"/>
+      <c r="FL3" s="69"/>
+      <c r="FM3" s="70"/>
+      <c r="FN3" s="68" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="52"/>
-      <c r="FP3" s="52"/>
-      <c r="FQ3" s="52"/>
-      <c r="FR3" s="52"/>
-      <c r="FS3" s="52"/>
-      <c r="FT3" s="52"/>
-      <c r="FU3" s="53"/>
-      <c r="FV3" s="51" t="str">
+      <c r="FO3" s="69"/>
+      <c r="FP3" s="69"/>
+      <c r="FQ3" s="69"/>
+      <c r="FR3" s="69"/>
+      <c r="FS3" s="69"/>
+      <c r="FT3" s="69"/>
+      <c r="FU3" s="70"/>
+      <c r="FV3" s="68" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="52"/>
-      <c r="FX3" s="52"/>
-      <c r="FY3" s="52"/>
-      <c r="FZ3" s="52"/>
-      <c r="GA3" s="52"/>
-      <c r="GB3" s="52"/>
-      <c r="GC3" s="53"/>
-      <c r="GD3" s="51" t="str">
+      <c r="FW3" s="69"/>
+      <c r="FX3" s="69"/>
+      <c r="FY3" s="69"/>
+      <c r="FZ3" s="69"/>
+      <c r="GA3" s="69"/>
+      <c r="GB3" s="69"/>
+      <c r="GC3" s="70"/>
+      <c r="GD3" s="68" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="52"/>
-      <c r="GF3" s="52"/>
-      <c r="GG3" s="52"/>
-      <c r="GH3" s="52"/>
-      <c r="GI3" s="52"/>
-      <c r="GJ3" s="52"/>
-      <c r="GK3" s="53"/>
-      <c r="GL3" s="51" t="str">
+      <c r="GE3" s="69"/>
+      <c r="GF3" s="69"/>
+      <c r="GG3" s="69"/>
+      <c r="GH3" s="69"/>
+      <c r="GI3" s="69"/>
+      <c r="GJ3" s="69"/>
+      <c r="GK3" s="70"/>
+      <c r="GL3" s="68" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="52"/>
-      <c r="GN3" s="52"/>
-      <c r="GO3" s="52"/>
-      <c r="GP3" s="52"/>
-      <c r="GQ3" s="52"/>
-      <c r="GR3" s="52"/>
-      <c r="GS3" s="53"/>
-      <c r="GT3" s="51" t="str">
+      <c r="GM3" s="69"/>
+      <c r="GN3" s="69"/>
+      <c r="GO3" s="69"/>
+      <c r="GP3" s="69"/>
+      <c r="GQ3" s="69"/>
+      <c r="GR3" s="69"/>
+      <c r="GS3" s="70"/>
+      <c r="GT3" s="68" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="52"/>
-      <c r="GV3" s="52"/>
-      <c r="GW3" s="52"/>
-      <c r="GX3" s="52"/>
-      <c r="GY3" s="52"/>
-      <c r="GZ3" s="52"/>
-      <c r="HA3" s="53"/>
-      <c r="HB3" s="51" t="str">
+      <c r="GU3" s="69"/>
+      <c r="GV3" s="69"/>
+      <c r="GW3" s="69"/>
+      <c r="GX3" s="69"/>
+      <c r="GY3" s="69"/>
+      <c r="GZ3" s="69"/>
+      <c r="HA3" s="70"/>
+      <c r="HB3" s="68" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="52"/>
-      <c r="HD3" s="52"/>
-      <c r="HE3" s="52"/>
-      <c r="HF3" s="52"/>
-      <c r="HG3" s="52"/>
-      <c r="HH3" s="52"/>
-      <c r="HI3" s="53"/>
+      <c r="HC3" s="69"/>
+      <c r="HD3" s="69"/>
+      <c r="HE3" s="69"/>
+      <c r="HF3" s="69"/>
+      <c r="HG3" s="69"/>
+      <c r="HH3" s="69"/>
+      <c r="HI3" s="70"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="68">
         <v>0</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="51">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="68">
         <v>2</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="51">
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="68">
         <v>4</v>
       </c>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="51">
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="68">
         <v>6</v>
       </c>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="53"/>
-      <c r="BN4" s="51">
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="69"/>
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="70"/>
+      <c r="BN4" s="68">
         <v>8</v>
       </c>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="53"/>
-      <c r="BV4" s="51">
+      <c r="BO4" s="69"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="69"/>
+      <c r="BS4" s="69"/>
+      <c r="BT4" s="69"/>
+      <c r="BU4" s="70"/>
+      <c r="BV4" s="68">
         <v>9</v>
       </c>
-      <c r="BW4" s="52"/>
-      <c r="BX4" s="52"/>
-      <c r="BY4" s="52"/>
-      <c r="BZ4" s="52"/>
-      <c r="CA4" s="52"/>
-      <c r="CB4" s="52"/>
-      <c r="CC4" s="53"/>
-      <c r="CD4" s="51" t="str">
+      <c r="BW4" s="69"/>
+      <c r="BX4" s="69"/>
+      <c r="BY4" s="69"/>
+      <c r="BZ4" s="69"/>
+      <c r="CA4" s="69"/>
+      <c r="CB4" s="69"/>
+      <c r="CC4" s="70"/>
+      <c r="CD4" s="68" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="52"/>
-      <c r="CF4" s="52"/>
-      <c r="CG4" s="52"/>
-      <c r="CH4" s="52"/>
-      <c r="CI4" s="52"/>
-      <c r="CJ4" s="52"/>
-      <c r="CK4" s="53"/>
-      <c r="CL4" s="51" t="str">
+      <c r="CE4" s="69"/>
+      <c r="CF4" s="69"/>
+      <c r="CG4" s="69"/>
+      <c r="CH4" s="69"/>
+      <c r="CI4" s="69"/>
+      <c r="CJ4" s="69"/>
+      <c r="CK4" s="70"/>
+      <c r="CL4" s="68" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="52"/>
-      <c r="CN4" s="52"/>
-      <c r="CO4" s="52"/>
-      <c r="CP4" s="52"/>
-      <c r="CQ4" s="52"/>
-      <c r="CR4" s="52"/>
-      <c r="CS4" s="52"/>
-      <c r="CT4" s="52"/>
-      <c r="CU4" s="52"/>
-      <c r="CV4" s="52"/>
-      <c r="CW4" s="52"/>
-      <c r="CX4" s="52"/>
-      <c r="CY4" s="52"/>
-      <c r="CZ4" s="52"/>
-      <c r="DA4" s="53"/>
-      <c r="DB4" s="51" t="str">
+      <c r="CM4" s="69"/>
+      <c r="CN4" s="69"/>
+      <c r="CO4" s="69"/>
+      <c r="CP4" s="69"/>
+      <c r="CQ4" s="69"/>
+      <c r="CR4" s="69"/>
+      <c r="CS4" s="69"/>
+      <c r="CT4" s="69"/>
+      <c r="CU4" s="69"/>
+      <c r="CV4" s="69"/>
+      <c r="CW4" s="69"/>
+      <c r="CX4" s="69"/>
+      <c r="CY4" s="69"/>
+      <c r="CZ4" s="69"/>
+      <c r="DA4" s="70"/>
+      <c r="DB4" s="68" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="52"/>
-      <c r="DD4" s="52"/>
-      <c r="DE4" s="52"/>
-      <c r="DF4" s="52"/>
-      <c r="DG4" s="52"/>
-      <c r="DH4" s="52"/>
-      <c r="DI4" s="52"/>
-      <c r="DJ4" s="52"/>
-      <c r="DK4" s="52"/>
-      <c r="DL4" s="52"/>
-      <c r="DM4" s="52"/>
-      <c r="DN4" s="52"/>
-      <c r="DO4" s="52"/>
-      <c r="DP4" s="52"/>
-      <c r="DQ4" s="53"/>
-      <c r="DR4" s="51" t="str">
+      <c r="DC4" s="69"/>
+      <c r="DD4" s="69"/>
+      <c r="DE4" s="69"/>
+      <c r="DF4" s="69"/>
+      <c r="DG4" s="69"/>
+      <c r="DH4" s="69"/>
+      <c r="DI4" s="69"/>
+      <c r="DJ4" s="69"/>
+      <c r="DK4" s="69"/>
+      <c r="DL4" s="69"/>
+      <c r="DM4" s="69"/>
+      <c r="DN4" s="69"/>
+      <c r="DO4" s="69"/>
+      <c r="DP4" s="69"/>
+      <c r="DQ4" s="70"/>
+      <c r="DR4" s="68" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="52"/>
-      <c r="DT4" s="52"/>
-      <c r="DU4" s="52"/>
-      <c r="DV4" s="52"/>
-      <c r="DW4" s="52"/>
-      <c r="DX4" s="52"/>
-      <c r="DY4" s="52"/>
-      <c r="DZ4" s="52"/>
-      <c r="EA4" s="52"/>
-      <c r="EB4" s="52"/>
-      <c r="EC4" s="52"/>
-      <c r="ED4" s="52"/>
-      <c r="EE4" s="52"/>
-      <c r="EF4" s="52"/>
-      <c r="EG4" s="53"/>
-      <c r="EH4" s="51" t="str">
+      <c r="DS4" s="69"/>
+      <c r="DT4" s="69"/>
+      <c r="DU4" s="69"/>
+      <c r="DV4" s="69"/>
+      <c r="DW4" s="69"/>
+      <c r="DX4" s="69"/>
+      <c r="DY4" s="69"/>
+      <c r="DZ4" s="69"/>
+      <c r="EA4" s="69"/>
+      <c r="EB4" s="69"/>
+      <c r="EC4" s="69"/>
+      <c r="ED4" s="69"/>
+      <c r="EE4" s="69"/>
+      <c r="EF4" s="69"/>
+      <c r="EG4" s="70"/>
+      <c r="EH4" s="68" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="52"/>
-      <c r="EJ4" s="52"/>
-      <c r="EK4" s="52"/>
-      <c r="EL4" s="52"/>
-      <c r="EM4" s="52"/>
-      <c r="EN4" s="52"/>
-      <c r="EO4" s="53"/>
-      <c r="EP4" s="51" t="str">
+      <c r="EI4" s="69"/>
+      <c r="EJ4" s="69"/>
+      <c r="EK4" s="69"/>
+      <c r="EL4" s="69"/>
+      <c r="EM4" s="69"/>
+      <c r="EN4" s="69"/>
+      <c r="EO4" s="70"/>
+      <c r="EP4" s="68" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="52"/>
-      <c r="ER4" s="52"/>
-      <c r="ES4" s="52"/>
-      <c r="ET4" s="52"/>
-      <c r="EU4" s="52"/>
-      <c r="EV4" s="52"/>
-      <c r="EW4" s="53"/>
-      <c r="EX4" s="51" t="str">
+      <c r="EQ4" s="69"/>
+      <c r="ER4" s="69"/>
+      <c r="ES4" s="69"/>
+      <c r="ET4" s="69"/>
+      <c r="EU4" s="69"/>
+      <c r="EV4" s="69"/>
+      <c r="EW4" s="70"/>
+      <c r="EX4" s="68" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="52"/>
-      <c r="EZ4" s="52"/>
-      <c r="FA4" s="52"/>
-      <c r="FB4" s="52"/>
-      <c r="FC4" s="52"/>
-      <c r="FD4" s="52"/>
-      <c r="FE4" s="53"/>
-      <c r="FF4" s="51" t="str">
+      <c r="EY4" s="69"/>
+      <c r="EZ4" s="69"/>
+      <c r="FA4" s="69"/>
+      <c r="FB4" s="69"/>
+      <c r="FC4" s="69"/>
+      <c r="FD4" s="69"/>
+      <c r="FE4" s="70"/>
+      <c r="FF4" s="68" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="52"/>
-      <c r="FH4" s="52"/>
-      <c r="FI4" s="52"/>
-      <c r="FJ4" s="52"/>
-      <c r="FK4" s="52"/>
-      <c r="FL4" s="52"/>
-      <c r="FM4" s="53"/>
-      <c r="FN4" s="51" t="str">
+      <c r="FG4" s="69"/>
+      <c r="FH4" s="69"/>
+      <c r="FI4" s="69"/>
+      <c r="FJ4" s="69"/>
+      <c r="FK4" s="69"/>
+      <c r="FL4" s="69"/>
+      <c r="FM4" s="70"/>
+      <c r="FN4" s="68" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="52"/>
-      <c r="FP4" s="52"/>
-      <c r="FQ4" s="52"/>
-      <c r="FR4" s="52"/>
-      <c r="FS4" s="52"/>
-      <c r="FT4" s="52"/>
-      <c r="FU4" s="53"/>
-      <c r="FV4" s="51" t="str">
+      <c r="FO4" s="69"/>
+      <c r="FP4" s="69"/>
+      <c r="FQ4" s="69"/>
+      <c r="FR4" s="69"/>
+      <c r="FS4" s="69"/>
+      <c r="FT4" s="69"/>
+      <c r="FU4" s="70"/>
+      <c r="FV4" s="68" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="52"/>
-      <c r="FX4" s="52"/>
-      <c r="FY4" s="52"/>
-      <c r="FZ4" s="52"/>
-      <c r="GA4" s="52"/>
-      <c r="GB4" s="52"/>
-      <c r="GC4" s="52"/>
-      <c r="GD4" s="52"/>
-      <c r="GE4" s="52"/>
-      <c r="GF4" s="52"/>
-      <c r="GG4" s="52"/>
-      <c r="GH4" s="52"/>
-      <c r="GI4" s="52"/>
-      <c r="GJ4" s="52"/>
-      <c r="GK4" s="53"/>
-      <c r="GL4" s="51" t="str">
+      <c r="FW4" s="69"/>
+      <c r="FX4" s="69"/>
+      <c r="FY4" s="69"/>
+      <c r="FZ4" s="69"/>
+      <c r="GA4" s="69"/>
+      <c r="GB4" s="69"/>
+      <c r="GC4" s="69"/>
+      <c r="GD4" s="69"/>
+      <c r="GE4" s="69"/>
+      <c r="GF4" s="69"/>
+      <c r="GG4" s="69"/>
+      <c r="GH4" s="69"/>
+      <c r="GI4" s="69"/>
+      <c r="GJ4" s="69"/>
+      <c r="GK4" s="70"/>
+      <c r="GL4" s="68" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="52"/>
-      <c r="GN4" s="52"/>
-      <c r="GO4" s="52"/>
-      <c r="GP4" s="52"/>
-      <c r="GQ4" s="52"/>
-      <c r="GR4" s="52"/>
-      <c r="GS4" s="53"/>
-      <c r="GT4" s="51" t="str">
+      <c r="GM4" s="69"/>
+      <c r="GN4" s="69"/>
+      <c r="GO4" s="69"/>
+      <c r="GP4" s="69"/>
+      <c r="GQ4" s="69"/>
+      <c r="GR4" s="69"/>
+      <c r="GS4" s="70"/>
+      <c r="GT4" s="68" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="52"/>
-      <c r="GV4" s="52"/>
-      <c r="GW4" s="52"/>
-      <c r="GX4" s="52"/>
-      <c r="GY4" s="52"/>
-      <c r="GZ4" s="52"/>
-      <c r="HA4" s="53"/>
-      <c r="HB4" s="51" t="str">
+      <c r="GU4" s="69"/>
+      <c r="GV4" s="69"/>
+      <c r="GW4" s="69"/>
+      <c r="GX4" s="69"/>
+      <c r="GY4" s="69"/>
+      <c r="GZ4" s="69"/>
+      <c r="HA4" s="70"/>
+      <c r="HB4" s="68" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="52"/>
-      <c r="HD4" s="52"/>
-      <c r="HE4" s="52"/>
-      <c r="HF4" s="52"/>
-      <c r="HG4" s="52"/>
-      <c r="HH4" s="52"/>
-      <c r="HI4" s="53"/>
+      <c r="HC4" s="69"/>
+      <c r="HD4" s="69"/>
+      <c r="HE4" s="69"/>
+      <c r="HF4" s="69"/>
+      <c r="HG4" s="69"/>
+      <c r="HH4" s="69"/>
+      <c r="HI4" s="70"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
@@ -4338,216 +4359,216 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="48" t="s">
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="48" t="s">
+      <c r="S7" s="78"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="49"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="101" t="s">
+      <c r="V7" s="78"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="48" t="s">
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="48" t="s">
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="48" t="s">
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="79"/>
+      <c r="AR7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="48" t="s">
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="79"/>
+      <c r="AX7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="48" t="s">
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="78"/>
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="79"/>
+      <c r="BH7" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="50"/>
-      <c r="BN7" s="48" t="s">
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="79"/>
+      <c r="BN7" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
-      <c r="BQ7" s="49"/>
-      <c r="BR7" s="49"/>
-      <c r="BS7" s="49"/>
-      <c r="BT7" s="49"/>
-      <c r="BU7" s="50"/>
-      <c r="BV7" s="48" t="s">
+      <c r="BO7" s="78"/>
+      <c r="BP7" s="78"/>
+      <c r="BQ7" s="78"/>
+      <c r="BR7" s="78"/>
+      <c r="BS7" s="78"/>
+      <c r="BT7" s="78"/>
+      <c r="BU7" s="79"/>
+      <c r="BV7" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="BW7" s="49"/>
-      <c r="BX7" s="49"/>
-      <c r="BY7" s="49"/>
-      <c r="BZ7" s="49"/>
-      <c r="CA7" s="49"/>
-      <c r="CB7" s="49"/>
-      <c r="CC7" s="50"/>
-      <c r="CD7" s="66" t="s">
+      <c r="BW7" s="78"/>
+      <c r="BX7" s="78"/>
+      <c r="BY7" s="78"/>
+      <c r="BZ7" s="78"/>
+      <c r="CA7" s="78"/>
+      <c r="CB7" s="78"/>
+      <c r="CC7" s="79"/>
+      <c r="CD7" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="67"/>
-      <c r="CF7" s="67"/>
-      <c r="CG7" s="67"/>
-      <c r="CH7" s="67"/>
-      <c r="CI7" s="67"/>
-      <c r="CJ7" s="67"/>
-      <c r="CK7" s="68"/>
-      <c r="CL7" s="66" t="s">
+      <c r="CE7" s="75"/>
+      <c r="CF7" s="75"/>
+      <c r="CG7" s="75"/>
+      <c r="CH7" s="75"/>
+      <c r="CI7" s="75"/>
+      <c r="CJ7" s="75"/>
+      <c r="CK7" s="76"/>
+      <c r="CL7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="CM7" s="67"/>
-      <c r="CN7" s="67"/>
-      <c r="CO7" s="68"/>
-      <c r="CP7" s="70" t="s">
+      <c r="CM7" s="75"/>
+      <c r="CN7" s="75"/>
+      <c r="CO7" s="76"/>
+      <c r="CP7" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="71"/>
-      <c r="CR7" s="71"/>
-      <c r="CS7" s="71"/>
-      <c r="CT7" s="71"/>
-      <c r="CU7" s="71"/>
-      <c r="CV7" s="71"/>
-      <c r="CW7" s="72"/>
-      <c r="CX7" s="48" t="s">
+      <c r="CQ7" s="90"/>
+      <c r="CR7" s="90"/>
+      <c r="CS7" s="90"/>
+      <c r="CT7" s="90"/>
+      <c r="CU7" s="90"/>
+      <c r="CV7" s="90"/>
+      <c r="CW7" s="91"/>
+      <c r="CX7" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="49"/>
-      <c r="CZ7" s="49"/>
-      <c r="DA7" s="50"/>
-      <c r="DB7" s="48" t="s">
+      <c r="CY7" s="78"/>
+      <c r="CZ7" s="78"/>
+      <c r="DA7" s="79"/>
+      <c r="DB7" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="DC7" s="50"/>
+      <c r="DC7" s="79"/>
       <c r="DD7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="DE7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="DF7" s="66" t="s">
+      <c r="DF7" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="DG7" s="67"/>
-      <c r="DH7" s="67"/>
-      <c r="DI7" s="67"/>
-      <c r="DJ7" s="67"/>
-      <c r="DK7" s="67"/>
-      <c r="DL7" s="67"/>
-      <c r="DM7" s="68"/>
-      <c r="DN7" s="66" t="s">
+      <c r="DG7" s="75"/>
+      <c r="DH7" s="75"/>
+      <c r="DI7" s="75"/>
+      <c r="DJ7" s="75"/>
+      <c r="DK7" s="75"/>
+      <c r="DL7" s="75"/>
+      <c r="DM7" s="76"/>
+      <c r="DN7" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="DO7" s="67"/>
-      <c r="DP7" s="67"/>
-      <c r="DQ7" s="68"/>
-      <c r="DR7" s="83" t="s">
+      <c r="DO7" s="75"/>
+      <c r="DP7" s="75"/>
+      <c r="DQ7" s="76"/>
+      <c r="DR7" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="DS7" s="84"/>
-      <c r="DT7" s="84"/>
-      <c r="DU7" s="85"/>
-      <c r="DV7" s="83" t="s">
+      <c r="DS7" s="97"/>
+      <c r="DT7" s="97"/>
+      <c r="DU7" s="98"/>
+      <c r="DV7" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="DW7" s="84"/>
-      <c r="DX7" s="84"/>
-      <c r="DY7" s="84"/>
-      <c r="DZ7" s="84"/>
-      <c r="EA7" s="85"/>
-      <c r="EB7" s="83" t="s">
+      <c r="DW7" s="97"/>
+      <c r="DX7" s="97"/>
+      <c r="DY7" s="97"/>
+      <c r="DZ7" s="97"/>
+      <c r="EA7" s="98"/>
+      <c r="EB7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="EC7" s="84"/>
-      <c r="ED7" s="84"/>
-      <c r="EE7" s="84"/>
-      <c r="EF7" s="84"/>
-      <c r="EG7" s="85"/>
-      <c r="EH7" s="51" t="s">
+      <c r="EC7" s="97"/>
+      <c r="ED7" s="97"/>
+      <c r="EE7" s="97"/>
+      <c r="EF7" s="97"/>
+      <c r="EG7" s="98"/>
+      <c r="EH7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="EI7" s="52"/>
-      <c r="EJ7" s="52"/>
-      <c r="EK7" s="52"/>
-      <c r="EL7" s="52"/>
-      <c r="EM7" s="52"/>
-      <c r="EN7" s="52"/>
-      <c r="EO7" s="53"/>
-      <c r="EP7" s="70" t="s">
+      <c r="EI7" s="69"/>
+      <c r="EJ7" s="69"/>
+      <c r="EK7" s="69"/>
+      <c r="EL7" s="69"/>
+      <c r="EM7" s="69"/>
+      <c r="EN7" s="69"/>
+      <c r="EO7" s="70"/>
+      <c r="EP7" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="EQ7" s="71"/>
-      <c r="ER7" s="71"/>
-      <c r="ES7" s="71"/>
-      <c r="ET7" s="71"/>
-      <c r="EU7" s="71"/>
-      <c r="EV7" s="71"/>
-      <c r="EW7" s="72"/>
+      <c r="EQ7" s="90"/>
+      <c r="ER7" s="90"/>
+      <c r="ES7" s="90"/>
+      <c r="ET7" s="90"/>
+      <c r="EU7" s="90"/>
+      <c r="EV7" s="90"/>
+      <c r="EW7" s="91"/>
       <c r="EX7" s="29"/>
-      <c r="EY7" s="92" t="s">
+      <c r="EY7" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="EZ7" s="93"/>
-      <c r="FA7" s="93"/>
-      <c r="FB7" s="93"/>
-      <c r="FC7" s="93"/>
-      <c r="FD7" s="93"/>
-      <c r="FE7" s="94"/>
+      <c r="EZ7" s="84"/>
+      <c r="FA7" s="84"/>
+      <c r="FB7" s="84"/>
+      <c r="FC7" s="84"/>
+      <c r="FD7" s="84"/>
+      <c r="FE7" s="85"/>
       <c r="FF7" s="2" t="s">
         <v>73</v>
       </c>
@@ -4557,102 +4578,102 @@
       <c r="FH7" s="32"/>
       <c r="FI7" s="32"/>
       <c r="FJ7" s="33"/>
-      <c r="FK7" s="86" t="s">
+      <c r="FK7" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="FL7" s="87"/>
-      <c r="FM7" s="88"/>
-      <c r="FN7" s="89" t="s">
+      <c r="FL7" s="100"/>
+      <c r="FM7" s="101"/>
+      <c r="FN7" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="FO7" s="90"/>
-      <c r="FP7" s="90"/>
-      <c r="FQ7" s="90"/>
-      <c r="FR7" s="90"/>
-      <c r="FS7" s="90"/>
-      <c r="FT7" s="90"/>
-      <c r="FU7" s="91"/>
-      <c r="FV7" s="54" t="s">
+      <c r="FO7" s="103"/>
+      <c r="FP7" s="103"/>
+      <c r="FQ7" s="103"/>
+      <c r="FR7" s="103"/>
+      <c r="FS7" s="103"/>
+      <c r="FT7" s="103"/>
+      <c r="FU7" s="104"/>
+      <c r="FV7" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="FW7" s="55"/>
-      <c r="FX7" s="55"/>
-      <c r="FY7" s="55"/>
-      <c r="FZ7" s="55"/>
-      <c r="GA7" s="56"/>
-      <c r="GB7" s="54" t="s">
+      <c r="FW7" s="93"/>
+      <c r="FX7" s="93"/>
+      <c r="FY7" s="93"/>
+      <c r="FZ7" s="93"/>
+      <c r="GA7" s="94"/>
+      <c r="GB7" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="GC7" s="55"/>
-      <c r="GD7" s="55"/>
-      <c r="GE7" s="55"/>
-      <c r="GF7" s="55"/>
-      <c r="GG7" s="56"/>
-      <c r="GH7" s="51" t="s">
+      <c r="GC7" s="93"/>
+      <c r="GD7" s="93"/>
+      <c r="GE7" s="93"/>
+      <c r="GF7" s="93"/>
+      <c r="GG7" s="94"/>
+      <c r="GH7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="GI7" s="52"/>
-      <c r="GJ7" s="52"/>
-      <c r="GK7" s="53"/>
-      <c r="GL7" s="51" t="s">
+      <c r="GI7" s="69"/>
+      <c r="GJ7" s="69"/>
+      <c r="GK7" s="70"/>
+      <c r="GL7" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="GM7" s="52"/>
-      <c r="GN7" s="53"/>
-      <c r="GO7" s="54" t="s">
+      <c r="GM7" s="69"/>
+      <c r="GN7" s="70"/>
+      <c r="GO7" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="GP7" s="55"/>
-      <c r="GQ7" s="55"/>
-      <c r="GR7" s="55"/>
-      <c r="GS7" s="56"/>
+      <c r="GP7" s="93"/>
+      <c r="GQ7" s="93"/>
+      <c r="GR7" s="93"/>
+      <c r="GS7" s="94"/>
       <c r="GT7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="GU7" s="2"/>
-      <c r="GV7" s="51" t="s">
+      <c r="GV7" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="GW7" s="52"/>
-      <c r="GX7" s="52"/>
-      <c r="GY7" s="52"/>
-      <c r="GZ7" s="52"/>
-      <c r="HA7" s="53"/>
-      <c r="HB7" s="54" t="s">
+      <c r="GW7" s="69"/>
+      <c r="GX7" s="69"/>
+      <c r="GY7" s="69"/>
+      <c r="GZ7" s="69"/>
+      <c r="HA7" s="70"/>
+      <c r="HB7" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="HC7" s="55"/>
-      <c r="HD7" s="55"/>
-      <c r="HE7" s="55"/>
-      <c r="HF7" s="55"/>
-      <c r="HG7" s="55"/>
-      <c r="HH7" s="55"/>
-      <c r="HI7" s="56"/>
+      <c r="HC7" s="93"/>
+      <c r="HD7" s="93"/>
+      <c r="HE7" s="93"/>
+      <c r="HF7" s="93"/>
+      <c r="HG7" s="93"/>
+      <c r="HH7" s="93"/>
+      <c r="HI7" s="94"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
       <c r="R8" t="s">
         <v>151</v>
       </c>
       <c r="U8" t="s">
         <v>150</v>
       </c>
-      <c r="X8" s="92">
+      <c r="X8" s="83">
         <v>380</v>
       </c>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="94"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="85"/>
       <c r="AD8" t="s">
         <v>142</v>
       </c>
@@ -4666,70 +4687,70 @@
         <v>153</v>
       </c>
       <c r="AZ8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BJ8" t="s">
         <v>153</v>
       </c>
-      <c r="CL8" s="82" t="s">
+      <c r="CL8" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="CM8" s="82"/>
-      <c r="CN8" s="82"/>
-      <c r="CO8" s="82"/>
-      <c r="CP8" s="82"/>
-      <c r="CQ8" s="82"/>
-      <c r="CR8" s="82"/>
-      <c r="CS8" s="82"/>
-      <c r="CT8" s="82"/>
-      <c r="CU8" s="82"/>
-      <c r="CV8" s="82"/>
-      <c r="CW8" s="82"/>
-      <c r="CX8" s="82"/>
-      <c r="CY8" s="82"/>
-      <c r="CZ8" s="82"/>
-      <c r="DA8" s="82"/>
-      <c r="DB8" s="82" t="s">
+      <c r="CM8" s="95"/>
+      <c r="CN8" s="95"/>
+      <c r="CO8" s="95"/>
+      <c r="CP8" s="95"/>
+      <c r="CQ8" s="95"/>
+      <c r="CR8" s="95"/>
+      <c r="CS8" s="95"/>
+      <c r="CT8" s="95"/>
+      <c r="CU8" s="95"/>
+      <c r="CV8" s="95"/>
+      <c r="CW8" s="95"/>
+      <c r="CX8" s="95"/>
+      <c r="CY8" s="95"/>
+      <c r="CZ8" s="95"/>
+      <c r="DA8" s="95"/>
+      <c r="DB8" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="DC8" s="82"/>
-      <c r="DD8" s="82"/>
-      <c r="DE8" s="82"/>
-      <c r="DF8" s="82"/>
-      <c r="DG8" s="82"/>
-      <c r="DH8" s="82"/>
-      <c r="DI8" s="82"/>
-      <c r="DJ8" s="82"/>
-      <c r="DK8" s="82"/>
-      <c r="DL8" s="82"/>
-      <c r="DM8" s="82"/>
-      <c r="DN8" s="82"/>
-      <c r="DO8" s="82"/>
-      <c r="DP8" s="82"/>
-      <c r="DQ8" s="82"/>
-      <c r="DR8" s="82" t="s">
+      <c r="DC8" s="95"/>
+      <c r="DD8" s="95"/>
+      <c r="DE8" s="95"/>
+      <c r="DF8" s="95"/>
+      <c r="DG8" s="95"/>
+      <c r="DH8" s="95"/>
+      <c r="DI8" s="95"/>
+      <c r="DJ8" s="95"/>
+      <c r="DK8" s="95"/>
+      <c r="DL8" s="95"/>
+      <c r="DM8" s="95"/>
+      <c r="DN8" s="95"/>
+      <c r="DO8" s="95"/>
+      <c r="DP8" s="95"/>
+      <c r="DQ8" s="95"/>
+      <c r="DR8" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="DS8" s="82"/>
-      <c r="DT8" s="82"/>
-      <c r="DU8" s="82"/>
-      <c r="DV8" s="82"/>
-      <c r="DW8" s="82"/>
-      <c r="DX8" s="82"/>
-      <c r="DY8" s="82"/>
-      <c r="DZ8" s="82"/>
-      <c r="EA8" s="82"/>
-      <c r="EB8" s="82"/>
-      <c r="EC8" s="82"/>
-      <c r="ED8" s="82"/>
-      <c r="EE8" s="82"/>
-      <c r="EF8" s="82"/>
-      <c r="EG8" s="82"/>
+      <c r="DS8" s="95"/>
+      <c r="DT8" s="95"/>
+      <c r="DU8" s="95"/>
+      <c r="DV8" s="95"/>
+      <c r="DW8" s="95"/>
+      <c r="DX8" s="95"/>
+      <c r="DY8" s="95"/>
+      <c r="DZ8" s="95"/>
+      <c r="EA8" s="95"/>
+      <c r="EB8" s="95"/>
+      <c r="EC8" s="95"/>
+      <c r="ED8" s="95"/>
+      <c r="EE8" s="95"/>
+      <c r="EF8" s="95"/>
+      <c r="EG8" s="95"/>
       <c r="FH8" t="s">
         <v>143</v>
       </c>
       <c r="FN8" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="FO8" s="17"/>
       <c r="FP8" s="17"/>
@@ -4747,184 +4768,184 @@
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="57" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="73" t="s">
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="74"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="73" t="s">
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="V9" s="74"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="73" t="s">
+      <c r="V9" s="51"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="73" t="s">
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="73" t="s">
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="73" t="s">
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="74" t="s">
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="74"/>
-      <c r="BC9" s="74"/>
-      <c r="BD9" s="74"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="74"/>
-      <c r="BG9" s="75"/>
-      <c r="BH9" s="73" t="s">
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="51"/>
+      <c r="BA9" s="51"/>
+      <c r="BB9" s="51"/>
+      <c r="BC9" s="51"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="51"/>
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="74"/>
-      <c r="BK9" s="74"/>
-      <c r="BL9" s="74"/>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="57" t="s">
+      <c r="BI9" s="51"/>
+      <c r="BJ9" s="51"/>
+      <c r="BK9" s="51"/>
+      <c r="BL9" s="51"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="BO9" s="58"/>
-      <c r="BP9" s="58"/>
-      <c r="BQ9" s="58"/>
-      <c r="BR9" s="58"/>
-      <c r="BS9" s="58"/>
-      <c r="BT9" s="58"/>
-      <c r="BU9" s="59"/>
-      <c r="BV9" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="BW9" s="58"/>
-      <c r="BX9" s="58"/>
-      <c r="BY9" s="58"/>
-      <c r="BZ9" s="58"/>
-      <c r="CA9" s="58"/>
-      <c r="CB9" s="58"/>
-      <c r="CC9" s="59"/>
-      <c r="CD9" s="73" t="s">
+      <c r="BO9" s="60"/>
+      <c r="BP9" s="60"/>
+      <c r="BQ9" s="60"/>
+      <c r="BR9" s="60"/>
+      <c r="BS9" s="60"/>
+      <c r="BT9" s="60"/>
+      <c r="BU9" s="61"/>
+      <c r="BV9" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW9" s="60"/>
+      <c r="BX9" s="60"/>
+      <c r="BY9" s="60"/>
+      <c r="BZ9" s="60"/>
+      <c r="CA9" s="60"/>
+      <c r="CB9" s="60"/>
+      <c r="CC9" s="61"/>
+      <c r="CD9" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="CE9" s="58"/>
-      <c r="CF9" s="58"/>
-      <c r="CG9" s="58"/>
-      <c r="CH9" s="58"/>
-      <c r="CI9" s="58"/>
-      <c r="CJ9" s="58"/>
-      <c r="CK9" s="59"/>
-      <c r="CL9" s="73" t="s">
+      <c r="CE9" s="60"/>
+      <c r="CF9" s="60"/>
+      <c r="CG9" s="60"/>
+      <c r="CH9" s="60"/>
+      <c r="CI9" s="60"/>
+      <c r="CJ9" s="60"/>
+      <c r="CK9" s="61"/>
+      <c r="CL9" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="CM9" s="58"/>
-      <c r="CN9" s="58"/>
-      <c r="CO9" s="58"/>
-      <c r="CP9" s="58"/>
-      <c r="CQ9" s="58"/>
-      <c r="CR9" s="58"/>
-      <c r="CS9" s="58"/>
-      <c r="CT9" s="58"/>
-      <c r="CU9" s="58"/>
-      <c r="CV9" s="58"/>
-      <c r="CW9" s="58"/>
-      <c r="CX9" s="58"/>
-      <c r="CY9" s="58"/>
-      <c r="CZ9" s="58"/>
-      <c r="DA9" s="59"/>
-      <c r="DB9" s="73" t="s">
+      <c r="CM9" s="60"/>
+      <c r="CN9" s="60"/>
+      <c r="CO9" s="60"/>
+      <c r="CP9" s="60"/>
+      <c r="CQ9" s="60"/>
+      <c r="CR9" s="60"/>
+      <c r="CS9" s="60"/>
+      <c r="CT9" s="60"/>
+      <c r="CU9" s="60"/>
+      <c r="CV9" s="60"/>
+      <c r="CW9" s="60"/>
+      <c r="CX9" s="60"/>
+      <c r="CY9" s="60"/>
+      <c r="CZ9" s="60"/>
+      <c r="DA9" s="61"/>
+      <c r="DB9" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="DC9" s="74"/>
-      <c r="DD9" s="74"/>
-      <c r="DE9" s="74"/>
-      <c r="DF9" s="74"/>
-      <c r="DG9" s="74"/>
-      <c r="DH9" s="74"/>
-      <c r="DI9" s="74"/>
-      <c r="DJ9" s="74"/>
-      <c r="DK9" s="74"/>
-      <c r="DL9" s="74"/>
-      <c r="DM9" s="74"/>
-      <c r="DN9" s="74"/>
-      <c r="DO9" s="74"/>
-      <c r="DP9" s="74"/>
-      <c r="DQ9" s="75"/>
-      <c r="DR9" s="73" t="s">
+      <c r="DC9" s="51"/>
+      <c r="DD9" s="51"/>
+      <c r="DE9" s="51"/>
+      <c r="DF9" s="51"/>
+      <c r="DG9" s="51"/>
+      <c r="DH9" s="51"/>
+      <c r="DI9" s="51"/>
+      <c r="DJ9" s="51"/>
+      <c r="DK9" s="51"/>
+      <c r="DL9" s="51"/>
+      <c r="DM9" s="51"/>
+      <c r="DN9" s="51"/>
+      <c r="DO9" s="51"/>
+      <c r="DP9" s="51"/>
+      <c r="DQ9" s="52"/>
+      <c r="DR9" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="DS9" s="74"/>
-      <c r="DT9" s="74"/>
-      <c r="DU9" s="74"/>
-      <c r="DV9" s="74"/>
-      <c r="DW9" s="74"/>
-      <c r="DX9" s="74"/>
-      <c r="DY9" s="74"/>
-      <c r="DZ9" s="74"/>
-      <c r="EA9" s="74"/>
-      <c r="EB9" s="74"/>
-      <c r="EC9" s="74"/>
-      <c r="ED9" s="74"/>
-      <c r="EE9" s="74"/>
-      <c r="EF9" s="74"/>
-      <c r="EG9" s="75"/>
-      <c r="EP9" s="73" t="s">
+      <c r="DS9" s="51"/>
+      <c r="DT9" s="51"/>
+      <c r="DU9" s="51"/>
+      <c r="DV9" s="51"/>
+      <c r="DW9" s="51"/>
+      <c r="DX9" s="51"/>
+      <c r="DY9" s="51"/>
+      <c r="DZ9" s="51"/>
+      <c r="EA9" s="51"/>
+      <c r="EB9" s="51"/>
+      <c r="EC9" s="51"/>
+      <c r="ED9" s="51"/>
+      <c r="EE9" s="51"/>
+      <c r="EF9" s="51"/>
+      <c r="EG9" s="52"/>
+      <c r="EP9" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="EQ9" s="74"/>
-      <c r="ER9" s="74"/>
-      <c r="ES9" s="74"/>
-      <c r="ET9" s="74"/>
-      <c r="EU9" s="74"/>
-      <c r="EV9" s="74"/>
-      <c r="EW9" s="75"/>
+      <c r="EQ9" s="51"/>
+      <c r="ER9" s="51"/>
+      <c r="ES9" s="51"/>
+      <c r="ET9" s="51"/>
+      <c r="EU9" s="51"/>
+      <c r="EV9" s="51"/>
+      <c r="EW9" s="52"/>
       <c r="EX9" s="21"/>
       <c r="EY9" s="21"/>
       <c r="EZ9" s="22"/>
@@ -4946,189 +4967,189 @@
       <c r="FS9" s="17"/>
       <c r="FT9" s="17"/>
       <c r="FU9" s="41"/>
-      <c r="FV9" s="74" t="s">
+      <c r="FV9" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="FW9" s="58"/>
-      <c r="FX9" s="58"/>
-      <c r="FY9" s="58"/>
-      <c r="FZ9" s="58"/>
-      <c r="GA9" s="59"/>
-      <c r="GB9" s="73" t="s">
+      <c r="FW9" s="60"/>
+      <c r="FX9" s="60"/>
+      <c r="FY9" s="60"/>
+      <c r="FZ9" s="60"/>
+      <c r="GA9" s="61"/>
+      <c r="GB9" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="GC9" s="58"/>
-      <c r="GD9" s="58"/>
-      <c r="GE9" s="58"/>
-      <c r="GF9" s="58"/>
-      <c r="GG9" s="59"/>
-      <c r="GT9" s="73" t="s">
+      <c r="GC9" s="60"/>
+      <c r="GD9" s="60"/>
+      <c r="GE9" s="60"/>
+      <c r="GF9" s="60"/>
+      <c r="GG9" s="61"/>
+      <c r="GT9" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="GU9" s="74"/>
-      <c r="GV9" s="74"/>
-      <c r="GW9" s="74"/>
-      <c r="GX9" s="74"/>
-      <c r="GY9" s="74"/>
-      <c r="GZ9" s="74"/>
-      <c r="HA9" s="75"/>
-      <c r="HB9" s="73" t="s">
+      <c r="GU9" s="51"/>
+      <c r="GV9" s="51"/>
+      <c r="GW9" s="51"/>
+      <c r="GX9" s="51"/>
+      <c r="GY9" s="51"/>
+      <c r="GZ9" s="51"/>
+      <c r="HA9" s="52"/>
+      <c r="HB9" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="HC9" s="74"/>
-      <c r="HD9" s="74"/>
-      <c r="HE9" s="74"/>
-      <c r="HF9" s="74"/>
-      <c r="HG9" s="74"/>
-      <c r="HH9" s="74"/>
-      <c r="HI9" s="75"/>
+      <c r="HC9" s="51"/>
+      <c r="HD9" s="51"/>
+      <c r="HE9" s="51"/>
+      <c r="HF9" s="51"/>
+      <c r="HG9" s="51"/>
+      <c r="HH9" s="51"/>
+      <c r="HI9" s="52"/>
     </row>
     <row r="10" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="77"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="77"/>
-      <c r="BK10" s="77"/>
-      <c r="BL10" s="77"/>
-      <c r="BM10" s="78"/>
-      <c r="BN10" s="60"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
-      <c r="BQ10" s="61"/>
-      <c r="BR10" s="61"/>
-      <c r="BS10" s="61"/>
-      <c r="BT10" s="61"/>
-      <c r="BU10" s="62"/>
-      <c r="BV10" s="60"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="61"/>
-      <c r="BY10" s="61"/>
-      <c r="BZ10" s="61"/>
-      <c r="CA10" s="61"/>
-      <c r="CB10" s="61"/>
-      <c r="CC10" s="62"/>
-      <c r="CD10" s="60"/>
-      <c r="CE10" s="61"/>
-      <c r="CF10" s="61"/>
-      <c r="CG10" s="61"/>
-      <c r="CH10" s="61"/>
-      <c r="CI10" s="61"/>
-      <c r="CJ10" s="61"/>
-      <c r="CK10" s="62"/>
-      <c r="CL10" s="60"/>
-      <c r="CM10" s="61"/>
-      <c r="CN10" s="61"/>
-      <c r="CO10" s="61"/>
-      <c r="CP10" s="61"/>
-      <c r="CQ10" s="61"/>
-      <c r="CR10" s="61"/>
-      <c r="CS10" s="61"/>
-      <c r="CT10" s="61"/>
-      <c r="CU10" s="61"/>
-      <c r="CV10" s="61"/>
-      <c r="CW10" s="61"/>
-      <c r="CX10" s="61"/>
-      <c r="CY10" s="61"/>
-      <c r="CZ10" s="61"/>
-      <c r="DA10" s="62"/>
-      <c r="DB10" s="76"/>
-      <c r="DC10" s="77"/>
-      <c r="DD10" s="77"/>
-      <c r="DE10" s="77"/>
-      <c r="DF10" s="77"/>
-      <c r="DG10" s="77"/>
-      <c r="DH10" s="77"/>
-      <c r="DI10" s="77"/>
-      <c r="DJ10" s="77"/>
-      <c r="DK10" s="77"/>
-      <c r="DL10" s="77"/>
-      <c r="DM10" s="77"/>
-      <c r="DN10" s="77"/>
-      <c r="DO10" s="77"/>
-      <c r="DP10" s="77"/>
-      <c r="DQ10" s="78"/>
-      <c r="DR10" s="76"/>
-      <c r="DS10" s="77"/>
-      <c r="DT10" s="77"/>
-      <c r="DU10" s="77"/>
-      <c r="DV10" s="77"/>
-      <c r="DW10" s="77"/>
-      <c r="DX10" s="77"/>
-      <c r="DY10" s="77"/>
-      <c r="DZ10" s="77"/>
-      <c r="EA10" s="77"/>
-      <c r="EB10" s="77"/>
-      <c r="EC10" s="77"/>
-      <c r="ED10" s="77"/>
-      <c r="EE10" s="77"/>
-      <c r="EF10" s="77"/>
-      <c r="EG10" s="78"/>
-      <c r="EP10" s="76"/>
-      <c r="EQ10" s="77"/>
-      <c r="ER10" s="77"/>
-      <c r="ES10" s="77"/>
-      <c r="ET10" s="77"/>
-      <c r="EU10" s="77"/>
-      <c r="EV10" s="77"/>
-      <c r="EW10" s="78"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="55"/>
+      <c r="AX10" s="54"/>
+      <c r="AY10" s="54"/>
+      <c r="AZ10" s="54"/>
+      <c r="BA10" s="54"/>
+      <c r="BB10" s="54"/>
+      <c r="BC10" s="54"/>
+      <c r="BD10" s="54"/>
+      <c r="BE10" s="54"/>
+      <c r="BF10" s="54"/>
+      <c r="BG10" s="55"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="54"/>
+      <c r="BJ10" s="54"/>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="55"/>
+      <c r="BN10" s="62"/>
+      <c r="BO10" s="63"/>
+      <c r="BP10" s="63"/>
+      <c r="BQ10" s="63"/>
+      <c r="BR10" s="63"/>
+      <c r="BS10" s="63"/>
+      <c r="BT10" s="63"/>
+      <c r="BU10" s="64"/>
+      <c r="BV10" s="62"/>
+      <c r="BW10" s="63"/>
+      <c r="BX10" s="63"/>
+      <c r="BY10" s="63"/>
+      <c r="BZ10" s="63"/>
+      <c r="CA10" s="63"/>
+      <c r="CB10" s="63"/>
+      <c r="CC10" s="64"/>
+      <c r="CD10" s="62"/>
+      <c r="CE10" s="63"/>
+      <c r="CF10" s="63"/>
+      <c r="CG10" s="63"/>
+      <c r="CH10" s="63"/>
+      <c r="CI10" s="63"/>
+      <c r="CJ10" s="63"/>
+      <c r="CK10" s="64"/>
+      <c r="CL10" s="62"/>
+      <c r="CM10" s="63"/>
+      <c r="CN10" s="63"/>
+      <c r="CO10" s="63"/>
+      <c r="CP10" s="63"/>
+      <c r="CQ10" s="63"/>
+      <c r="CR10" s="63"/>
+      <c r="CS10" s="63"/>
+      <c r="CT10" s="63"/>
+      <c r="CU10" s="63"/>
+      <c r="CV10" s="63"/>
+      <c r="CW10" s="63"/>
+      <c r="CX10" s="63"/>
+      <c r="CY10" s="63"/>
+      <c r="CZ10" s="63"/>
+      <c r="DA10" s="64"/>
+      <c r="DB10" s="53"/>
+      <c r="DC10" s="54"/>
+      <c r="DD10" s="54"/>
+      <c r="DE10" s="54"/>
+      <c r="DF10" s="54"/>
+      <c r="DG10" s="54"/>
+      <c r="DH10" s="54"/>
+      <c r="DI10" s="54"/>
+      <c r="DJ10" s="54"/>
+      <c r="DK10" s="54"/>
+      <c r="DL10" s="54"/>
+      <c r="DM10" s="54"/>
+      <c r="DN10" s="54"/>
+      <c r="DO10" s="54"/>
+      <c r="DP10" s="54"/>
+      <c r="DQ10" s="55"/>
+      <c r="DR10" s="53"/>
+      <c r="DS10" s="54"/>
+      <c r="DT10" s="54"/>
+      <c r="DU10" s="54"/>
+      <c r="DV10" s="54"/>
+      <c r="DW10" s="54"/>
+      <c r="DX10" s="54"/>
+      <c r="DY10" s="54"/>
+      <c r="DZ10" s="54"/>
+      <c r="EA10" s="54"/>
+      <c r="EB10" s="54"/>
+      <c r="EC10" s="54"/>
+      <c r="ED10" s="54"/>
+      <c r="EE10" s="54"/>
+      <c r="EF10" s="54"/>
+      <c r="EG10" s="55"/>
+      <c r="EP10" s="53"/>
+      <c r="EQ10" s="54"/>
+      <c r="ER10" s="54"/>
+      <c r="ES10" s="54"/>
+      <c r="ET10" s="54"/>
+      <c r="EU10" s="54"/>
+      <c r="EV10" s="54"/>
+      <c r="EW10" s="55"/>
       <c r="EX10" s="24"/>
       <c r="EY10" s="24"/>
       <c r="EZ10" s="14"/>
@@ -5148,181 +5169,181 @@
       <c r="FS10" s="15"/>
       <c r="FT10" s="15"/>
       <c r="FU10" s="44"/>
-      <c r="FV10" s="61"/>
-      <c r="FW10" s="61"/>
-      <c r="FX10" s="61"/>
-      <c r="FY10" s="61"/>
-      <c r="FZ10" s="61"/>
-      <c r="GA10" s="62"/>
-      <c r="GB10" s="60"/>
-      <c r="GC10" s="61"/>
-      <c r="GD10" s="61"/>
-      <c r="GE10" s="61"/>
-      <c r="GF10" s="61"/>
-      <c r="GG10" s="62"/>
-      <c r="GT10" s="76"/>
-      <c r="GU10" s="77"/>
-      <c r="GV10" s="77"/>
-      <c r="GW10" s="77"/>
-      <c r="GX10" s="77"/>
-      <c r="GY10" s="77"/>
-      <c r="GZ10" s="77"/>
-      <c r="HA10" s="78"/>
-      <c r="HB10" s="76"/>
-      <c r="HC10" s="77"/>
-      <c r="HD10" s="77"/>
-      <c r="HE10" s="77"/>
-      <c r="HF10" s="77"/>
-      <c r="HG10" s="77"/>
-      <c r="HH10" s="77"/>
-      <c r="HI10" s="78"/>
+      <c r="FV10" s="63"/>
+      <c r="FW10" s="63"/>
+      <c r="FX10" s="63"/>
+      <c r="FY10" s="63"/>
+      <c r="FZ10" s="63"/>
+      <c r="GA10" s="64"/>
+      <c r="GB10" s="62"/>
+      <c r="GC10" s="63"/>
+      <c r="GD10" s="63"/>
+      <c r="GE10" s="63"/>
+      <c r="GF10" s="63"/>
+      <c r="GG10" s="64"/>
+      <c r="GT10" s="53"/>
+      <c r="GU10" s="54"/>
+      <c r="GV10" s="54"/>
+      <c r="GW10" s="54"/>
+      <c r="GX10" s="54"/>
+      <c r="GY10" s="54"/>
+      <c r="GZ10" s="54"/>
+      <c r="HA10" s="55"/>
+      <c r="HB10" s="53"/>
+      <c r="HC10" s="54"/>
+      <c r="HD10" s="54"/>
+      <c r="HE10" s="54"/>
+      <c r="HF10" s="54"/>
+      <c r="HG10" s="54"/>
+      <c r="HH10" s="54"/>
+      <c r="HI10" s="55"/>
     </row>
     <row r="11" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="77"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="77"/>
-      <c r="BE11" s="77"/>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="78"/>
-      <c r="BH11" s="76"/>
-      <c r="BI11" s="77"/>
-      <c r="BJ11" s="77"/>
-      <c r="BK11" s="77"/>
-      <c r="BL11" s="77"/>
-      <c r="BM11" s="78"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="61"/>
-      <c r="BP11" s="61"/>
-      <c r="BQ11" s="61"/>
-      <c r="BR11" s="61"/>
-      <c r="BS11" s="61"/>
-      <c r="BT11" s="61"/>
-      <c r="BU11" s="62"/>
-      <c r="BV11" s="60"/>
-      <c r="BW11" s="61"/>
-      <c r="BX11" s="61"/>
-      <c r="BY11" s="61"/>
-      <c r="BZ11" s="61"/>
-      <c r="CA11" s="61"/>
-      <c r="CB11" s="61"/>
-      <c r="CC11" s="62"/>
-      <c r="CD11" s="60"/>
-      <c r="CE11" s="61"/>
-      <c r="CF11" s="61"/>
-      <c r="CG11" s="61"/>
-      <c r="CH11" s="61"/>
-      <c r="CI11" s="61"/>
-      <c r="CJ11" s="61"/>
-      <c r="CK11" s="62"/>
-      <c r="CL11" s="60"/>
-      <c r="CM11" s="61"/>
-      <c r="CN11" s="61"/>
-      <c r="CO11" s="61"/>
-      <c r="CP11" s="61"/>
-      <c r="CQ11" s="61"/>
-      <c r="CR11" s="61"/>
-      <c r="CS11" s="61"/>
-      <c r="CT11" s="61"/>
-      <c r="CU11" s="61"/>
-      <c r="CV11" s="61"/>
-      <c r="CW11" s="61"/>
-      <c r="CX11" s="61"/>
-      <c r="CY11" s="61"/>
-      <c r="CZ11" s="61"/>
-      <c r="DA11" s="62"/>
-      <c r="DB11" s="76"/>
-      <c r="DC11" s="77"/>
-      <c r="DD11" s="77"/>
-      <c r="DE11" s="77"/>
-      <c r="DF11" s="77"/>
-      <c r="DG11" s="77"/>
-      <c r="DH11" s="77"/>
-      <c r="DI11" s="77"/>
-      <c r="DJ11" s="77"/>
-      <c r="DK11" s="77"/>
-      <c r="DL11" s="77"/>
-      <c r="DM11" s="77"/>
-      <c r="DN11" s="77"/>
-      <c r="DO11" s="77"/>
-      <c r="DP11" s="77"/>
-      <c r="DQ11" s="78"/>
-      <c r="DR11" s="76"/>
-      <c r="DS11" s="77"/>
-      <c r="DT11" s="77"/>
-      <c r="DU11" s="77"/>
-      <c r="DV11" s="77"/>
-      <c r="DW11" s="77"/>
-      <c r="DX11" s="77"/>
-      <c r="DY11" s="77"/>
-      <c r="DZ11" s="77"/>
-      <c r="EA11" s="77"/>
-      <c r="EB11" s="77"/>
-      <c r="EC11" s="77"/>
-      <c r="ED11" s="77"/>
-      <c r="EE11" s="77"/>
-      <c r="EF11" s="77"/>
-      <c r="EG11" s="78"/>
-      <c r="EP11" s="76"/>
-      <c r="EQ11" s="77"/>
-      <c r="ER11" s="77"/>
-      <c r="ES11" s="77"/>
-      <c r="ET11" s="77"/>
-      <c r="EU11" s="77"/>
-      <c r="EV11" s="77"/>
-      <c r="EW11" s="78"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="54"/>
+      <c r="BA11" s="54"/>
+      <c r="BB11" s="54"/>
+      <c r="BC11" s="54"/>
+      <c r="BD11" s="54"/>
+      <c r="BE11" s="54"/>
+      <c r="BF11" s="54"/>
+      <c r="BG11" s="55"/>
+      <c r="BH11" s="53"/>
+      <c r="BI11" s="54"/>
+      <c r="BJ11" s="54"/>
+      <c r="BK11" s="54"/>
+      <c r="BL11" s="54"/>
+      <c r="BM11" s="55"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="63"/>
+      <c r="BP11" s="63"/>
+      <c r="BQ11" s="63"/>
+      <c r="BR11" s="63"/>
+      <c r="BS11" s="63"/>
+      <c r="BT11" s="63"/>
+      <c r="BU11" s="64"/>
+      <c r="BV11" s="62"/>
+      <c r="BW11" s="63"/>
+      <c r="BX11" s="63"/>
+      <c r="BY11" s="63"/>
+      <c r="BZ11" s="63"/>
+      <c r="CA11" s="63"/>
+      <c r="CB11" s="63"/>
+      <c r="CC11" s="64"/>
+      <c r="CD11" s="62"/>
+      <c r="CE11" s="63"/>
+      <c r="CF11" s="63"/>
+      <c r="CG11" s="63"/>
+      <c r="CH11" s="63"/>
+      <c r="CI11" s="63"/>
+      <c r="CJ11" s="63"/>
+      <c r="CK11" s="64"/>
+      <c r="CL11" s="62"/>
+      <c r="CM11" s="63"/>
+      <c r="CN11" s="63"/>
+      <c r="CO11" s="63"/>
+      <c r="CP11" s="63"/>
+      <c r="CQ11" s="63"/>
+      <c r="CR11" s="63"/>
+      <c r="CS11" s="63"/>
+      <c r="CT11" s="63"/>
+      <c r="CU11" s="63"/>
+      <c r="CV11" s="63"/>
+      <c r="CW11" s="63"/>
+      <c r="CX11" s="63"/>
+      <c r="CY11" s="63"/>
+      <c r="CZ11" s="63"/>
+      <c r="DA11" s="64"/>
+      <c r="DB11" s="53"/>
+      <c r="DC11" s="54"/>
+      <c r="DD11" s="54"/>
+      <c r="DE11" s="54"/>
+      <c r="DF11" s="54"/>
+      <c r="DG11" s="54"/>
+      <c r="DH11" s="54"/>
+      <c r="DI11" s="54"/>
+      <c r="DJ11" s="54"/>
+      <c r="DK11" s="54"/>
+      <c r="DL11" s="54"/>
+      <c r="DM11" s="54"/>
+      <c r="DN11" s="54"/>
+      <c r="DO11" s="54"/>
+      <c r="DP11" s="54"/>
+      <c r="DQ11" s="55"/>
+      <c r="DR11" s="53"/>
+      <c r="DS11" s="54"/>
+      <c r="DT11" s="54"/>
+      <c r="DU11" s="54"/>
+      <c r="DV11" s="54"/>
+      <c r="DW11" s="54"/>
+      <c r="DX11" s="54"/>
+      <c r="DY11" s="54"/>
+      <c r="DZ11" s="54"/>
+      <c r="EA11" s="54"/>
+      <c r="EB11" s="54"/>
+      <c r="EC11" s="54"/>
+      <c r="ED11" s="54"/>
+      <c r="EE11" s="54"/>
+      <c r="EF11" s="54"/>
+      <c r="EG11" s="55"/>
+      <c r="EP11" s="53"/>
+      <c r="EQ11" s="54"/>
+      <c r="ER11" s="54"/>
+      <c r="ES11" s="54"/>
+      <c r="ET11" s="54"/>
+      <c r="EU11" s="54"/>
+      <c r="EV11" s="54"/>
+      <c r="EW11" s="55"/>
       <c r="EX11" s="24"/>
       <c r="EY11" s="24"/>
       <c r="EZ11" s="14"/>
@@ -5339,187 +5360,187 @@
       <c r="FS11" s="15"/>
       <c r="FT11" s="15"/>
       <c r="FU11" s="44"/>
-      <c r="FV11" s="61"/>
-      <c r="FW11" s="61"/>
-      <c r="FX11" s="61"/>
-      <c r="FY11" s="61"/>
-      <c r="FZ11" s="61"/>
-      <c r="GA11" s="62"/>
-      <c r="GB11" s="60"/>
-      <c r="GC11" s="61"/>
-      <c r="GD11" s="61"/>
-      <c r="GE11" s="61"/>
-      <c r="GF11" s="61"/>
-      <c r="GG11" s="62"/>
+      <c r="FV11" s="63"/>
+      <c r="FW11" s="63"/>
+      <c r="FX11" s="63"/>
+      <c r="FY11" s="63"/>
+      <c r="FZ11" s="63"/>
+      <c r="GA11" s="64"/>
+      <c r="GB11" s="62"/>
+      <c r="GC11" s="63"/>
+      <c r="GD11" s="63"/>
+      <c r="GE11" s="63"/>
+      <c r="GF11" s="63"/>
+      <c r="GG11" s="64"/>
       <c r="GH11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="GM11" t="s">
-        <v>165</v>
-      </c>
-      <c r="GT11" s="76"/>
-      <c r="GU11" s="77"/>
-      <c r="GV11" s="77"/>
-      <c r="GW11" s="77"/>
-      <c r="GX11" s="77"/>
-      <c r="GY11" s="77"/>
-      <c r="GZ11" s="77"/>
-      <c r="HA11" s="78"/>
-      <c r="HB11" s="76"/>
-      <c r="HC11" s="77"/>
-      <c r="HD11" s="77"/>
-      <c r="HE11" s="77"/>
-      <c r="HF11" s="77"/>
-      <c r="HG11" s="77"/>
-      <c r="HH11" s="77"/>
-      <c r="HI11" s="78"/>
+        <v>164</v>
+      </c>
+      <c r="GT11" s="53"/>
+      <c r="GU11" s="54"/>
+      <c r="GV11" s="54"/>
+      <c r="GW11" s="54"/>
+      <c r="GX11" s="54"/>
+      <c r="GY11" s="54"/>
+      <c r="GZ11" s="54"/>
+      <c r="HA11" s="55"/>
+      <c r="HB11" s="53"/>
+      <c r="HC11" s="54"/>
+      <c r="HD11" s="54"/>
+      <c r="HE11" s="54"/>
+      <c r="HF11" s="54"/>
+      <c r="HG11" s="54"/>
+      <c r="HH11" s="54"/>
+      <c r="HI11" s="55"/>
     </row>
     <row r="12" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="77"/>
-      <c r="AZ12" s="77"/>
-      <c r="BA12" s="77"/>
-      <c r="BB12" s="77"/>
-      <c r="BC12" s="77"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="77"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="76"/>
-      <c r="BI12" s="77"/>
-      <c r="BJ12" s="77"/>
-      <c r="BK12" s="77"/>
-      <c r="BL12" s="77"/>
-      <c r="BM12" s="78"/>
-      <c r="BN12" s="60"/>
-      <c r="BO12" s="61"/>
-      <c r="BP12" s="61"/>
-      <c r="BQ12" s="61"/>
-      <c r="BR12" s="61"/>
-      <c r="BS12" s="61"/>
-      <c r="BT12" s="61"/>
-      <c r="BU12" s="62"/>
-      <c r="BV12" s="60"/>
-      <c r="BW12" s="61"/>
-      <c r="BX12" s="61"/>
-      <c r="BY12" s="61"/>
-      <c r="BZ12" s="61"/>
-      <c r="CA12" s="61"/>
-      <c r="CB12" s="61"/>
-      <c r="CC12" s="62"/>
-      <c r="CD12" s="60"/>
-      <c r="CE12" s="61"/>
-      <c r="CF12" s="61"/>
-      <c r="CG12" s="61"/>
-      <c r="CH12" s="61"/>
-      <c r="CI12" s="61"/>
-      <c r="CJ12" s="61"/>
-      <c r="CK12" s="62"/>
-      <c r="CL12" s="60"/>
-      <c r="CM12" s="61"/>
-      <c r="CN12" s="61"/>
-      <c r="CO12" s="61"/>
-      <c r="CP12" s="61"/>
-      <c r="CQ12" s="61"/>
-      <c r="CR12" s="61"/>
-      <c r="CS12" s="61"/>
-      <c r="CT12" s="61"/>
-      <c r="CU12" s="61"/>
-      <c r="CV12" s="61"/>
-      <c r="CW12" s="61"/>
-      <c r="CX12" s="61"/>
-      <c r="CY12" s="61"/>
-      <c r="CZ12" s="61"/>
-      <c r="DA12" s="62"/>
-      <c r="DB12" s="76"/>
-      <c r="DC12" s="77"/>
-      <c r="DD12" s="77"/>
-      <c r="DE12" s="77"/>
-      <c r="DF12" s="77"/>
-      <c r="DG12" s="77"/>
-      <c r="DH12" s="77"/>
-      <c r="DI12" s="77"/>
-      <c r="DJ12" s="77"/>
-      <c r="DK12" s="77"/>
-      <c r="DL12" s="77"/>
-      <c r="DM12" s="77"/>
-      <c r="DN12" s="77"/>
-      <c r="DO12" s="77"/>
-      <c r="DP12" s="77"/>
-      <c r="DQ12" s="78"/>
-      <c r="DR12" s="76"/>
-      <c r="DS12" s="77"/>
-      <c r="DT12" s="77"/>
-      <c r="DU12" s="77"/>
-      <c r="DV12" s="77"/>
-      <c r="DW12" s="77"/>
-      <c r="DX12" s="77"/>
-      <c r="DY12" s="77"/>
-      <c r="DZ12" s="77"/>
-      <c r="EA12" s="77"/>
-      <c r="EB12" s="77"/>
-      <c r="EC12" s="77"/>
-      <c r="ED12" s="77"/>
-      <c r="EE12" s="77"/>
-      <c r="EF12" s="77"/>
-      <c r="EG12" s="78"/>
-      <c r="EP12" s="76"/>
-      <c r="EQ12" s="77"/>
-      <c r="ER12" s="77"/>
-      <c r="ES12" s="77"/>
-      <c r="ET12" s="77"/>
-      <c r="EU12" s="77"/>
-      <c r="EV12" s="77"/>
-      <c r="EW12" s="78"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="54"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="54"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="54"/>
+      <c r="BA12" s="54"/>
+      <c r="BB12" s="54"/>
+      <c r="BC12" s="54"/>
+      <c r="BD12" s="54"/>
+      <c r="BE12" s="54"/>
+      <c r="BF12" s="54"/>
+      <c r="BG12" s="55"/>
+      <c r="BH12" s="53"/>
+      <c r="BI12" s="54"/>
+      <c r="BJ12" s="54"/>
+      <c r="BK12" s="54"/>
+      <c r="BL12" s="54"/>
+      <c r="BM12" s="55"/>
+      <c r="BN12" s="62"/>
+      <c r="BO12" s="63"/>
+      <c r="BP12" s="63"/>
+      <c r="BQ12" s="63"/>
+      <c r="BR12" s="63"/>
+      <c r="BS12" s="63"/>
+      <c r="BT12" s="63"/>
+      <c r="BU12" s="64"/>
+      <c r="BV12" s="62"/>
+      <c r="BW12" s="63"/>
+      <c r="BX12" s="63"/>
+      <c r="BY12" s="63"/>
+      <c r="BZ12" s="63"/>
+      <c r="CA12" s="63"/>
+      <c r="CB12" s="63"/>
+      <c r="CC12" s="64"/>
+      <c r="CD12" s="62"/>
+      <c r="CE12" s="63"/>
+      <c r="CF12" s="63"/>
+      <c r="CG12" s="63"/>
+      <c r="CH12" s="63"/>
+      <c r="CI12" s="63"/>
+      <c r="CJ12" s="63"/>
+      <c r="CK12" s="64"/>
+      <c r="CL12" s="62"/>
+      <c r="CM12" s="63"/>
+      <c r="CN12" s="63"/>
+      <c r="CO12" s="63"/>
+      <c r="CP12" s="63"/>
+      <c r="CQ12" s="63"/>
+      <c r="CR12" s="63"/>
+      <c r="CS12" s="63"/>
+      <c r="CT12" s="63"/>
+      <c r="CU12" s="63"/>
+      <c r="CV12" s="63"/>
+      <c r="CW12" s="63"/>
+      <c r="CX12" s="63"/>
+      <c r="CY12" s="63"/>
+      <c r="CZ12" s="63"/>
+      <c r="DA12" s="64"/>
+      <c r="DB12" s="53"/>
+      <c r="DC12" s="54"/>
+      <c r="DD12" s="54"/>
+      <c r="DE12" s="54"/>
+      <c r="DF12" s="54"/>
+      <c r="DG12" s="54"/>
+      <c r="DH12" s="54"/>
+      <c r="DI12" s="54"/>
+      <c r="DJ12" s="54"/>
+      <c r="DK12" s="54"/>
+      <c r="DL12" s="54"/>
+      <c r="DM12" s="54"/>
+      <c r="DN12" s="54"/>
+      <c r="DO12" s="54"/>
+      <c r="DP12" s="54"/>
+      <c r="DQ12" s="55"/>
+      <c r="DR12" s="53"/>
+      <c r="DS12" s="54"/>
+      <c r="DT12" s="54"/>
+      <c r="DU12" s="54"/>
+      <c r="DV12" s="54"/>
+      <c r="DW12" s="54"/>
+      <c r="DX12" s="54"/>
+      <c r="DY12" s="54"/>
+      <c r="DZ12" s="54"/>
+      <c r="EA12" s="54"/>
+      <c r="EB12" s="54"/>
+      <c r="EC12" s="54"/>
+      <c r="ED12" s="54"/>
+      <c r="EE12" s="54"/>
+      <c r="EF12" s="54"/>
+      <c r="EG12" s="55"/>
+      <c r="EP12" s="53"/>
+      <c r="EQ12" s="54"/>
+      <c r="ER12" s="54"/>
+      <c r="ES12" s="54"/>
+      <c r="ET12" s="54"/>
+      <c r="EU12" s="54"/>
+      <c r="EV12" s="54"/>
+      <c r="EW12" s="55"/>
       <c r="EX12" s="24"/>
       <c r="EY12" s="24"/>
       <c r="EZ12" s="14" t="s">
@@ -5538,184 +5559,184 @@
       <c r="FS12" s="15"/>
       <c r="FT12" s="15"/>
       <c r="FU12" s="44"/>
-      <c r="FV12" s="61"/>
-      <c r="FW12" s="61"/>
-      <c r="FX12" s="61"/>
-      <c r="FY12" s="61"/>
-      <c r="FZ12" s="61"/>
-      <c r="GA12" s="62"/>
-      <c r="GB12" s="60"/>
-      <c r="GC12" s="61"/>
-      <c r="GD12" s="61"/>
-      <c r="GE12" s="61"/>
-      <c r="GF12" s="61"/>
-      <c r="GG12" s="62"/>
+      <c r="FV12" s="63"/>
+      <c r="FW12" s="63"/>
+      <c r="FX12" s="63"/>
+      <c r="FY12" s="63"/>
+      <c r="FZ12" s="63"/>
+      <c r="GA12" s="64"/>
+      <c r="GB12" s="62"/>
+      <c r="GC12" s="63"/>
+      <c r="GD12" s="63"/>
+      <c r="GE12" s="63"/>
+      <c r="GF12" s="63"/>
+      <c r="GG12" s="64"/>
       <c r="GM12" t="s">
-        <v>165</v>
-      </c>
-      <c r="GT12" s="76"/>
-      <c r="GU12" s="77"/>
-      <c r="GV12" s="77"/>
-      <c r="GW12" s="77"/>
-      <c r="GX12" s="77"/>
-      <c r="GY12" s="77"/>
-      <c r="GZ12" s="77"/>
-      <c r="HA12" s="78"/>
-      <c r="HB12" s="76"/>
-      <c r="HC12" s="77"/>
-      <c r="HD12" s="77"/>
-      <c r="HE12" s="77"/>
-      <c r="HF12" s="77"/>
-      <c r="HG12" s="77"/>
-      <c r="HH12" s="77"/>
-      <c r="HI12" s="78"/>
+        <v>164</v>
+      </c>
+      <c r="GT12" s="53"/>
+      <c r="GU12" s="54"/>
+      <c r="GV12" s="54"/>
+      <c r="GW12" s="54"/>
+      <c r="GX12" s="54"/>
+      <c r="GY12" s="54"/>
+      <c r="GZ12" s="54"/>
+      <c r="HA12" s="55"/>
+      <c r="HB12" s="53"/>
+      <c r="HC12" s="54"/>
+      <c r="HD12" s="54"/>
+      <c r="HE12" s="54"/>
+      <c r="HF12" s="54"/>
+      <c r="HG12" s="54"/>
+      <c r="HH12" s="54"/>
+      <c r="HI12" s="55"/>
     </row>
     <row r="13" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="77"/>
-      <c r="BC13" s="77"/>
-      <c r="BD13" s="77"/>
-      <c r="BE13" s="77"/>
-      <c r="BF13" s="77"/>
-      <c r="BG13" s="78"/>
-      <c r="BH13" s="76"/>
-      <c r="BI13" s="77"/>
-      <c r="BJ13" s="77"/>
-      <c r="BK13" s="77"/>
-      <c r="BL13" s="77"/>
-      <c r="BM13" s="78"/>
-      <c r="BN13" s="60"/>
-      <c r="BO13" s="61"/>
-      <c r="BP13" s="61"/>
-      <c r="BQ13" s="61"/>
-      <c r="BR13" s="61"/>
-      <c r="BS13" s="61"/>
-      <c r="BT13" s="61"/>
-      <c r="BU13" s="62"/>
-      <c r="BV13" s="60"/>
-      <c r="BW13" s="61"/>
-      <c r="BX13" s="61"/>
-      <c r="BY13" s="61"/>
-      <c r="BZ13" s="61"/>
-      <c r="CA13" s="61"/>
-      <c r="CB13" s="61"/>
-      <c r="CC13" s="62"/>
-      <c r="CD13" s="60"/>
-      <c r="CE13" s="61"/>
-      <c r="CF13" s="61"/>
-      <c r="CG13" s="61"/>
-      <c r="CH13" s="61"/>
-      <c r="CI13" s="61"/>
-      <c r="CJ13" s="61"/>
-      <c r="CK13" s="62"/>
-      <c r="CL13" s="60"/>
-      <c r="CM13" s="61"/>
-      <c r="CN13" s="61"/>
-      <c r="CO13" s="61"/>
-      <c r="CP13" s="61"/>
-      <c r="CQ13" s="61"/>
-      <c r="CR13" s="61"/>
-      <c r="CS13" s="61"/>
-      <c r="CT13" s="61"/>
-      <c r="CU13" s="61"/>
-      <c r="CV13" s="61"/>
-      <c r="CW13" s="61"/>
-      <c r="CX13" s="61"/>
-      <c r="CY13" s="61"/>
-      <c r="CZ13" s="61"/>
-      <c r="DA13" s="62"/>
-      <c r="DB13" s="76"/>
-      <c r="DC13" s="77"/>
-      <c r="DD13" s="77"/>
-      <c r="DE13" s="77"/>
-      <c r="DF13" s="77"/>
-      <c r="DG13" s="77"/>
-      <c r="DH13" s="77"/>
-      <c r="DI13" s="77"/>
-      <c r="DJ13" s="77"/>
-      <c r="DK13" s="77"/>
-      <c r="DL13" s="77"/>
-      <c r="DM13" s="77"/>
-      <c r="DN13" s="77"/>
-      <c r="DO13" s="77"/>
-      <c r="DP13" s="77"/>
-      <c r="DQ13" s="78"/>
-      <c r="DR13" s="76"/>
-      <c r="DS13" s="77"/>
-      <c r="DT13" s="77"/>
-      <c r="DU13" s="77"/>
-      <c r="DV13" s="77"/>
-      <c r="DW13" s="77"/>
-      <c r="DX13" s="77"/>
-      <c r="DY13" s="77"/>
-      <c r="DZ13" s="77"/>
-      <c r="EA13" s="77"/>
-      <c r="EB13" s="77"/>
-      <c r="EC13" s="77"/>
-      <c r="ED13" s="77"/>
-      <c r="EE13" s="77"/>
-      <c r="EF13" s="77"/>
-      <c r="EG13" s="78"/>
-      <c r="EP13" s="76"/>
-      <c r="EQ13" s="77"/>
-      <c r="ER13" s="77"/>
-      <c r="ES13" s="77"/>
-      <c r="ET13" s="77"/>
-      <c r="EU13" s="77"/>
-      <c r="EV13" s="77"/>
-      <c r="EW13" s="78"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="55"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="55"/>
+      <c r="BH13" s="53"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="54"/>
+      <c r="BM13" s="55"/>
+      <c r="BN13" s="62"/>
+      <c r="BO13" s="63"/>
+      <c r="BP13" s="63"/>
+      <c r="BQ13" s="63"/>
+      <c r="BR13" s="63"/>
+      <c r="BS13" s="63"/>
+      <c r="BT13" s="63"/>
+      <c r="BU13" s="64"/>
+      <c r="BV13" s="62"/>
+      <c r="BW13" s="63"/>
+      <c r="BX13" s="63"/>
+      <c r="BY13" s="63"/>
+      <c r="BZ13" s="63"/>
+      <c r="CA13" s="63"/>
+      <c r="CB13" s="63"/>
+      <c r="CC13" s="64"/>
+      <c r="CD13" s="62"/>
+      <c r="CE13" s="63"/>
+      <c r="CF13" s="63"/>
+      <c r="CG13" s="63"/>
+      <c r="CH13" s="63"/>
+      <c r="CI13" s="63"/>
+      <c r="CJ13" s="63"/>
+      <c r="CK13" s="64"/>
+      <c r="CL13" s="62"/>
+      <c r="CM13" s="63"/>
+      <c r="CN13" s="63"/>
+      <c r="CO13" s="63"/>
+      <c r="CP13" s="63"/>
+      <c r="CQ13" s="63"/>
+      <c r="CR13" s="63"/>
+      <c r="CS13" s="63"/>
+      <c r="CT13" s="63"/>
+      <c r="CU13" s="63"/>
+      <c r="CV13" s="63"/>
+      <c r="CW13" s="63"/>
+      <c r="CX13" s="63"/>
+      <c r="CY13" s="63"/>
+      <c r="CZ13" s="63"/>
+      <c r="DA13" s="64"/>
+      <c r="DB13" s="53"/>
+      <c r="DC13" s="54"/>
+      <c r="DD13" s="54"/>
+      <c r="DE13" s="54"/>
+      <c r="DF13" s="54"/>
+      <c r="DG13" s="54"/>
+      <c r="DH13" s="54"/>
+      <c r="DI13" s="54"/>
+      <c r="DJ13" s="54"/>
+      <c r="DK13" s="54"/>
+      <c r="DL13" s="54"/>
+      <c r="DM13" s="54"/>
+      <c r="DN13" s="54"/>
+      <c r="DO13" s="54"/>
+      <c r="DP13" s="54"/>
+      <c r="DQ13" s="55"/>
+      <c r="DR13" s="53"/>
+      <c r="DS13" s="54"/>
+      <c r="DT13" s="54"/>
+      <c r="DU13" s="54"/>
+      <c r="DV13" s="54"/>
+      <c r="DW13" s="54"/>
+      <c r="DX13" s="54"/>
+      <c r="DY13" s="54"/>
+      <c r="DZ13" s="54"/>
+      <c r="EA13" s="54"/>
+      <c r="EB13" s="54"/>
+      <c r="EC13" s="54"/>
+      <c r="ED13" s="54"/>
+      <c r="EE13" s="54"/>
+      <c r="EF13" s="54"/>
+      <c r="EG13" s="55"/>
+      <c r="EP13" s="53"/>
+      <c r="EQ13" s="54"/>
+      <c r="ER13" s="54"/>
+      <c r="ES13" s="54"/>
+      <c r="ET13" s="54"/>
+      <c r="EU13" s="54"/>
+      <c r="EV13" s="54"/>
+      <c r="EW13" s="55"/>
       <c r="EX13" s="24"/>
       <c r="EY13" s="24"/>
       <c r="EZ13" s="14"/>
@@ -5735,184 +5756,184 @@
       <c r="FS13" s="15"/>
       <c r="FT13" s="15"/>
       <c r="FU13" s="44"/>
-      <c r="FV13" s="61"/>
-      <c r="FW13" s="61"/>
-      <c r="FX13" s="61"/>
-      <c r="FY13" s="61"/>
-      <c r="FZ13" s="61"/>
-      <c r="GA13" s="62"/>
-      <c r="GB13" s="60"/>
-      <c r="GC13" s="61"/>
-      <c r="GD13" s="61"/>
-      <c r="GE13" s="61"/>
-      <c r="GF13" s="61"/>
-      <c r="GG13" s="62"/>
+      <c r="FV13" s="63"/>
+      <c r="FW13" s="63"/>
+      <c r="FX13" s="63"/>
+      <c r="FY13" s="63"/>
+      <c r="FZ13" s="63"/>
+      <c r="GA13" s="64"/>
+      <c r="GB13" s="62"/>
+      <c r="GC13" s="63"/>
+      <c r="GD13" s="63"/>
+      <c r="GE13" s="63"/>
+      <c r="GF13" s="63"/>
+      <c r="GG13" s="64"/>
       <c r="GL13" t="s">
-        <v>166</v>
-      </c>
-      <c r="GT13" s="76"/>
-      <c r="GU13" s="77"/>
-      <c r="GV13" s="77"/>
-      <c r="GW13" s="77"/>
-      <c r="GX13" s="77"/>
-      <c r="GY13" s="77"/>
-      <c r="GZ13" s="77"/>
-      <c r="HA13" s="78"/>
-      <c r="HB13" s="76"/>
-      <c r="HC13" s="77"/>
-      <c r="HD13" s="77"/>
-      <c r="HE13" s="77"/>
-      <c r="HF13" s="77"/>
-      <c r="HG13" s="77"/>
-      <c r="HH13" s="77"/>
-      <c r="HI13" s="78"/>
+        <v>165</v>
+      </c>
+      <c r="GT13" s="53"/>
+      <c r="GU13" s="54"/>
+      <c r="GV13" s="54"/>
+      <c r="GW13" s="54"/>
+      <c r="GX13" s="54"/>
+      <c r="GY13" s="54"/>
+      <c r="GZ13" s="54"/>
+      <c r="HA13" s="55"/>
+      <c r="HB13" s="53"/>
+      <c r="HC13" s="54"/>
+      <c r="HD13" s="54"/>
+      <c r="HE13" s="54"/>
+      <c r="HF13" s="54"/>
+      <c r="HG13" s="54"/>
+      <c r="HH13" s="54"/>
+      <c r="HI13" s="55"/>
     </row>
     <row r="14" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="80"/>
-      <c r="AJ14" s="80"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="80"/>
-      <c r="AO14" s="80"/>
-      <c r="AP14" s="80"/>
-      <c r="AQ14" s="81"/>
-      <c r="AR14" s="79"/>
-      <c r="AS14" s="80"/>
-      <c r="AT14" s="80"/>
-      <c r="AU14" s="80"/>
-      <c r="AV14" s="80"/>
-      <c r="AW14" s="81"/>
-      <c r="AX14" s="80"/>
-      <c r="AY14" s="80"/>
-      <c r="AZ14" s="80"/>
-      <c r="BA14" s="80"/>
-      <c r="BB14" s="80"/>
-      <c r="BC14" s="80"/>
-      <c r="BD14" s="80"/>
-      <c r="BE14" s="80"/>
-      <c r="BF14" s="80"/>
-      <c r="BG14" s="81"/>
-      <c r="BH14" s="79"/>
-      <c r="BI14" s="80"/>
-      <c r="BJ14" s="80"/>
-      <c r="BK14" s="80"/>
-      <c r="BL14" s="80"/>
-      <c r="BM14" s="81"/>
-      <c r="BN14" s="63"/>
-      <c r="BO14" s="64"/>
-      <c r="BP14" s="64"/>
-      <c r="BQ14" s="64"/>
-      <c r="BR14" s="64"/>
-      <c r="BS14" s="64"/>
-      <c r="BT14" s="64"/>
-      <c r="BU14" s="65"/>
-      <c r="BV14" s="63"/>
-      <c r="BW14" s="64"/>
-      <c r="BX14" s="64"/>
-      <c r="BY14" s="64"/>
-      <c r="BZ14" s="64"/>
-      <c r="CA14" s="64"/>
-      <c r="CB14" s="64"/>
-      <c r="CC14" s="65"/>
-      <c r="CD14" s="63"/>
-      <c r="CE14" s="64"/>
-      <c r="CF14" s="64"/>
-      <c r="CG14" s="64"/>
-      <c r="CH14" s="64"/>
-      <c r="CI14" s="64"/>
-      <c r="CJ14" s="64"/>
-      <c r="CK14" s="65"/>
-      <c r="CL14" s="63"/>
-      <c r="CM14" s="64"/>
-      <c r="CN14" s="64"/>
-      <c r="CO14" s="64"/>
-      <c r="CP14" s="64"/>
-      <c r="CQ14" s="64"/>
-      <c r="CR14" s="64"/>
-      <c r="CS14" s="64"/>
-      <c r="CT14" s="64"/>
-      <c r="CU14" s="64"/>
-      <c r="CV14" s="64"/>
-      <c r="CW14" s="64"/>
-      <c r="CX14" s="64"/>
-      <c r="CY14" s="64"/>
-      <c r="CZ14" s="64"/>
-      <c r="DA14" s="65"/>
-      <c r="DB14" s="79"/>
-      <c r="DC14" s="80"/>
-      <c r="DD14" s="80"/>
-      <c r="DE14" s="80"/>
-      <c r="DF14" s="80"/>
-      <c r="DG14" s="80"/>
-      <c r="DH14" s="80"/>
-      <c r="DI14" s="80"/>
-      <c r="DJ14" s="80"/>
-      <c r="DK14" s="80"/>
-      <c r="DL14" s="80"/>
-      <c r="DM14" s="80"/>
-      <c r="DN14" s="80"/>
-      <c r="DO14" s="80"/>
-      <c r="DP14" s="80"/>
-      <c r="DQ14" s="81"/>
-      <c r="DR14" s="79"/>
-      <c r="DS14" s="80"/>
-      <c r="DT14" s="80"/>
-      <c r="DU14" s="80"/>
-      <c r="DV14" s="80"/>
-      <c r="DW14" s="80"/>
-      <c r="DX14" s="80"/>
-      <c r="DY14" s="80"/>
-      <c r="DZ14" s="80"/>
-      <c r="EA14" s="80"/>
-      <c r="EB14" s="80"/>
-      <c r="EC14" s="80"/>
-      <c r="ED14" s="80"/>
-      <c r="EE14" s="80"/>
-      <c r="EF14" s="80"/>
-      <c r="EG14" s="81"/>
-      <c r="EP14" s="79"/>
-      <c r="EQ14" s="80"/>
-      <c r="ER14" s="80"/>
-      <c r="ES14" s="80"/>
-      <c r="ET14" s="80"/>
-      <c r="EU14" s="80"/>
-      <c r="EV14" s="80"/>
-      <c r="EW14" s="81"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="58"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="57"/>
+      <c r="BB14" s="57"/>
+      <c r="BC14" s="57"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="57"/>
+      <c r="BF14" s="57"/>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="56"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="57"/>
+      <c r="BK14" s="57"/>
+      <c r="BL14" s="57"/>
+      <c r="BM14" s="58"/>
+      <c r="BN14" s="65"/>
+      <c r="BO14" s="66"/>
+      <c r="BP14" s="66"/>
+      <c r="BQ14" s="66"/>
+      <c r="BR14" s="66"/>
+      <c r="BS14" s="66"/>
+      <c r="BT14" s="66"/>
+      <c r="BU14" s="67"/>
+      <c r="BV14" s="65"/>
+      <c r="BW14" s="66"/>
+      <c r="BX14" s="66"/>
+      <c r="BY14" s="66"/>
+      <c r="BZ14" s="66"/>
+      <c r="CA14" s="66"/>
+      <c r="CB14" s="66"/>
+      <c r="CC14" s="67"/>
+      <c r="CD14" s="65"/>
+      <c r="CE14" s="66"/>
+      <c r="CF14" s="66"/>
+      <c r="CG14" s="66"/>
+      <c r="CH14" s="66"/>
+      <c r="CI14" s="66"/>
+      <c r="CJ14" s="66"/>
+      <c r="CK14" s="67"/>
+      <c r="CL14" s="65"/>
+      <c r="CM14" s="66"/>
+      <c r="CN14" s="66"/>
+      <c r="CO14" s="66"/>
+      <c r="CP14" s="66"/>
+      <c r="CQ14" s="66"/>
+      <c r="CR14" s="66"/>
+      <c r="CS14" s="66"/>
+      <c r="CT14" s="66"/>
+      <c r="CU14" s="66"/>
+      <c r="CV14" s="66"/>
+      <c r="CW14" s="66"/>
+      <c r="CX14" s="66"/>
+      <c r="CY14" s="66"/>
+      <c r="CZ14" s="66"/>
+      <c r="DA14" s="67"/>
+      <c r="DB14" s="56"/>
+      <c r="DC14" s="57"/>
+      <c r="DD14" s="57"/>
+      <c r="DE14" s="57"/>
+      <c r="DF14" s="57"/>
+      <c r="DG14" s="57"/>
+      <c r="DH14" s="57"/>
+      <c r="DI14" s="57"/>
+      <c r="DJ14" s="57"/>
+      <c r="DK14" s="57"/>
+      <c r="DL14" s="57"/>
+      <c r="DM14" s="57"/>
+      <c r="DN14" s="57"/>
+      <c r="DO14" s="57"/>
+      <c r="DP14" s="57"/>
+      <c r="DQ14" s="58"/>
+      <c r="DR14" s="56"/>
+      <c r="DS14" s="57"/>
+      <c r="DT14" s="57"/>
+      <c r="DU14" s="57"/>
+      <c r="DV14" s="57"/>
+      <c r="DW14" s="57"/>
+      <c r="DX14" s="57"/>
+      <c r="DY14" s="57"/>
+      <c r="DZ14" s="57"/>
+      <c r="EA14" s="57"/>
+      <c r="EB14" s="57"/>
+      <c r="EC14" s="57"/>
+      <c r="ED14" s="57"/>
+      <c r="EE14" s="57"/>
+      <c r="EF14" s="57"/>
+      <c r="EG14" s="58"/>
+      <c r="EP14" s="56"/>
+      <c r="EQ14" s="57"/>
+      <c r="ER14" s="57"/>
+      <c r="ES14" s="57"/>
+      <c r="ET14" s="57"/>
+      <c r="EU14" s="57"/>
+      <c r="EV14" s="57"/>
+      <c r="EW14" s="58"/>
       <c r="EX14" s="26"/>
       <c r="EY14" s="26"/>
       <c r="EZ14" s="27"/>
@@ -5931,37 +5952,37 @@
       <c r="FS14" s="36"/>
       <c r="FT14" s="36"/>
       <c r="FU14" s="37"/>
-      <c r="FV14" s="64"/>
-      <c r="FW14" s="64"/>
-      <c r="FX14" s="64"/>
-      <c r="FY14" s="64"/>
-      <c r="FZ14" s="64"/>
-      <c r="GA14" s="65"/>
-      <c r="GB14" s="63"/>
-      <c r="GC14" s="64"/>
-      <c r="GD14" s="64"/>
-      <c r="GE14" s="64"/>
-      <c r="GF14" s="64"/>
-      <c r="GG14" s="65"/>
+      <c r="FV14" s="66"/>
+      <c r="FW14" s="66"/>
+      <c r="FX14" s="66"/>
+      <c r="FY14" s="66"/>
+      <c r="FZ14" s="66"/>
+      <c r="GA14" s="67"/>
+      <c r="GB14" s="65"/>
+      <c r="GC14" s="66"/>
+      <c r="GD14" s="66"/>
+      <c r="GE14" s="66"/>
+      <c r="GF14" s="66"/>
+      <c r="GG14" s="67"/>
       <c r="GN14" t="s">
-        <v>167</v>
-      </c>
-      <c r="GT14" s="79"/>
-      <c r="GU14" s="80"/>
-      <c r="GV14" s="80"/>
-      <c r="GW14" s="80"/>
-      <c r="GX14" s="80"/>
-      <c r="GY14" s="80"/>
-      <c r="GZ14" s="80"/>
-      <c r="HA14" s="81"/>
-      <c r="HB14" s="79"/>
-      <c r="HC14" s="80"/>
-      <c r="HD14" s="80"/>
-      <c r="HE14" s="80"/>
-      <c r="HF14" s="80"/>
-      <c r="HG14" s="80"/>
-      <c r="HH14" s="80"/>
-      <c r="HI14" s="81"/>
+        <v>166</v>
+      </c>
+      <c r="GT14" s="56"/>
+      <c r="GU14" s="57"/>
+      <c r="GV14" s="57"/>
+      <c r="GW14" s="57"/>
+      <c r="GX14" s="57"/>
+      <c r="GY14" s="57"/>
+      <c r="GZ14" s="57"/>
+      <c r="HA14" s="58"/>
+      <c r="HB14" s="56"/>
+      <c r="HC14" s="57"/>
+      <c r="HD14" s="57"/>
+      <c r="HE14" s="57"/>
+      <c r="HF14" s="57"/>
+      <c r="HG14" s="57"/>
+      <c r="HH14" s="57"/>
+      <c r="HI14" s="58"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
@@ -5969,7 +5990,9 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -6153,7 +6176,7 @@
       <c r="FQ15" s="15"/>
       <c r="FR15" s="15"/>
       <c r="FS15" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="FT15" s="15"/>
       <c r="FU15" s="15"/>
@@ -6174,7 +6197,7 @@
       <c r="GJ15" s="16"/>
       <c r="GK15" s="16"/>
       <c r="GL15" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="GM15" s="16"/>
       <c r="GN15" s="16"/>
@@ -6219,22 +6242,25 @@
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
-      <c r="CD16" s="104" t="s">
+      <c r="CD16" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="CE16" s="105"/>
-      <c r="CF16" s="105"/>
-      <c r="CG16" s="105"/>
-      <c r="CH16" s="105"/>
-      <c r="CI16" s="105"/>
-      <c r="CJ16" s="105"/>
-      <c r="CK16" s="105"/>
+      <c r="CE16" s="49"/>
+      <c r="CF16" s="49"/>
+      <c r="CG16" s="49"/>
+      <c r="CH16" s="49"/>
+      <c r="CI16" s="49"/>
+      <c r="CJ16" s="49"/>
+      <c r="CK16" s="49"/>
       <c r="DE16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="DS16" t="s">
         <v>140</v>
       </c>
+      <c r="EP16" t="s">
+        <v>190</v>
+      </c>
       <c r="FA16" t="s">
         <v>124</v>
       </c>
@@ -6242,7 +6268,7 @@
         <v>126</v>
       </c>
       <c r="FS16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:204" x14ac:dyDescent="0.45">
@@ -6266,31 +6292,34 @@
       <c r="Z17" s="34"/>
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
-      <c r="CD17" s="105"/>
-      <c r="CE17" s="105"/>
-      <c r="CF17" s="105"/>
-      <c r="CG17" s="105"/>
-      <c r="CH17" s="105"/>
-      <c r="CI17" s="105"/>
-      <c r="CJ17" s="105"/>
-      <c r="CK17" s="105"/>
+      <c r="CD17" s="49"/>
+      <c r="CE17" s="49"/>
+      <c r="CF17" s="49"/>
+      <c r="CG17" s="49"/>
+      <c r="CH17" s="49"/>
+      <c r="CI17" s="49"/>
+      <c r="CJ17" s="49"/>
+      <c r="CK17" s="49"/>
       <c r="DE17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="DN17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="EC17" t="s">
         <v>145</v>
       </c>
+      <c r="EP17" t="s">
+        <v>191</v>
+      </c>
       <c r="FG17" t="s">
         <v>127</v>
       </c>
       <c r="FS17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="GV17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:204" x14ac:dyDescent="0.45">
@@ -6314,16 +6343,16 @@
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
       <c r="AB18" s="34"/>
-      <c r="CD18" s="105"/>
-      <c r="CE18" s="105"/>
-      <c r="CF18" s="105"/>
-      <c r="CG18" s="105"/>
-      <c r="CH18" s="105"/>
-      <c r="CI18" s="105"/>
-      <c r="CJ18" s="105"/>
-      <c r="CK18" s="105"/>
+      <c r="CD18" s="49"/>
+      <c r="CE18" s="49"/>
+      <c r="CF18" s="49"/>
+      <c r="CG18" s="49"/>
+      <c r="CH18" s="49"/>
+      <c r="CI18" s="49"/>
+      <c r="CJ18" s="49"/>
+      <c r="CK18" s="49"/>
       <c r="CL18" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CM18" s="36"/>
       <c r="CN18" s="36"/>
@@ -6356,16 +6385,16 @@
       <c r="Z19" s="34"/>
       <c r="AA19" s="34"/>
       <c r="AB19" s="34"/>
-      <c r="CD19" s="105"/>
-      <c r="CE19" s="105"/>
-      <c r="CF19" s="105"/>
-      <c r="CG19" s="105"/>
-      <c r="CH19" s="105"/>
-      <c r="CI19" s="105"/>
-      <c r="CJ19" s="105"/>
-      <c r="CK19" s="105"/>
+      <c r="CD19" s="49"/>
+      <c r="CE19" s="49"/>
+      <c r="CF19" s="49"/>
+      <c r="CG19" s="49"/>
+      <c r="CH19" s="49"/>
+      <c r="CI19" s="49"/>
+      <c r="CJ19" s="49"/>
+      <c r="CK19" s="49"/>
       <c r="CM19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="EC19" t="s">
         <v>147</v>
@@ -6377,7 +6406,7 @@
     <row r="20" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="N20" s="34" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
@@ -6393,14 +6422,14 @@
       <c r="Z20" s="34"/>
       <c r="AA20" s="34"/>
       <c r="AB20" s="34"/>
-      <c r="CD20" s="105"/>
-      <c r="CE20" s="105"/>
-      <c r="CF20" s="105"/>
-      <c r="CG20" s="105"/>
-      <c r="CH20" s="105"/>
-      <c r="CI20" s="105"/>
-      <c r="CJ20" s="105"/>
-      <c r="CK20" s="105"/>
+      <c r="CD20" s="49"/>
+      <c r="CE20" s="49"/>
+      <c r="CF20" s="49"/>
+      <c r="CG20" s="49"/>
+      <c r="CH20" s="49"/>
+      <c r="CI20" s="49"/>
+      <c r="CJ20" s="49"/>
+      <c r="CK20" s="49"/>
       <c r="FG20" t="s">
         <v>131</v>
       </c>
@@ -6417,7 +6446,7 @@
         <v>84</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
@@ -6433,28 +6462,28 @@
       <c r="Z21" s="34"/>
       <c r="AA21" s="34"/>
       <c r="AB21" s="34"/>
-      <c r="CD21" s="105"/>
-      <c r="CE21" s="105"/>
-      <c r="CF21" s="105"/>
-      <c r="CG21" s="105"/>
-      <c r="CH21" s="105"/>
-      <c r="CI21" s="105"/>
-      <c r="CJ21" s="105"/>
-      <c r="CK21" s="105"/>
+      <c r="CD21" s="49"/>
+      <c r="CE21" s="49"/>
+      <c r="CF21" s="49"/>
+      <c r="CG21" s="49"/>
+      <c r="CH21" s="49"/>
+      <c r="CI21" s="49"/>
+      <c r="CJ21" s="49"/>
+      <c r="CK21" s="49"/>
       <c r="CL21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DR21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="EY21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="FG21" t="s">
         <v>129</v>
       </c>
       <c r="FN21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:204" x14ac:dyDescent="0.45">
@@ -6478,7 +6507,7 @@
         <v>5972</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
@@ -6494,22 +6523,22 @@
       <c r="Z22" s="34"/>
       <c r="AA22" s="34"/>
       <c r="AB22" s="34"/>
-      <c r="CD22" s="105"/>
-      <c r="CE22" s="105"/>
-      <c r="CF22" s="105"/>
-      <c r="CG22" s="105"/>
-      <c r="CH22" s="105"/>
-      <c r="CI22" s="105"/>
-      <c r="CJ22" s="105"/>
-      <c r="CK22" s="105"/>
+      <c r="CD22" s="49"/>
+      <c r="CE22" s="49"/>
+      <c r="CF22" s="49"/>
+      <c r="CG22" s="49"/>
+      <c r="CH22" s="49"/>
+      <c r="CI22" s="49"/>
+      <c r="CJ22" s="49"/>
+      <c r="CK22" s="49"/>
       <c r="DR22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="FH22" t="s">
         <v>130</v>
       </c>
       <c r="FO22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:204" x14ac:dyDescent="0.45">
@@ -6526,7 +6555,7 @@
         <v>5973</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
@@ -6542,14 +6571,17 @@
       <c r="Z23" s="34"/>
       <c r="AA23" s="34"/>
       <c r="AB23" s="34"/>
-      <c r="CD23" s="105"/>
-      <c r="CE23" s="105"/>
-      <c r="CF23" s="105"/>
-      <c r="CG23" s="105"/>
-      <c r="CH23" s="105"/>
-      <c r="CI23" s="105"/>
-      <c r="CJ23" s="105"/>
-      <c r="CK23" s="105"/>
+      <c r="CD23" s="49"/>
+      <c r="CE23" s="49"/>
+      <c r="CF23" s="49"/>
+      <c r="CG23" s="49"/>
+      <c r="CH23" s="49"/>
+      <c r="CI23" s="49"/>
+      <c r="CJ23" s="49"/>
+      <c r="CK23" s="49"/>
+      <c r="DE23" t="s">
+        <v>197</v>
+      </c>
       <c r="FH23" t="s">
         <v>132</v>
       </c>
@@ -6567,16 +6599,16 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="105"/>
-      <c r="CE24" s="105"/>
-      <c r="CF24" s="105"/>
-      <c r="CG24" s="105"/>
-      <c r="CH24" s="105"/>
-      <c r="CI24" s="105"/>
-      <c r="CJ24" s="105"/>
-      <c r="CK24" s="105"/>
+      <c r="CD24" s="49"/>
+      <c r="CE24" s="49"/>
+      <c r="CF24" s="49"/>
+      <c r="CG24" s="49"/>
+      <c r="CH24" s="49"/>
+      <c r="CI24" s="49"/>
+      <c r="CJ24" s="49"/>
+      <c r="CK24" s="49"/>
       <c r="EX24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:204" x14ac:dyDescent="0.45">
@@ -6592,16 +6624,16 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="105"/>
-      <c r="CE25" s="105"/>
-      <c r="CF25" s="105"/>
-      <c r="CG25" s="105"/>
-      <c r="CH25" s="105"/>
-      <c r="CI25" s="105"/>
-      <c r="CJ25" s="105"/>
-      <c r="CK25" s="105"/>
+      <c r="CD25" s="49"/>
+      <c r="CE25" s="49"/>
+      <c r="CF25" s="49"/>
+      <c r="CG25" s="49"/>
+      <c r="CH25" s="49"/>
+      <c r="CI25" s="49"/>
+      <c r="CJ25" s="49"/>
+      <c r="CK25" s="49"/>
       <c r="EX25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:204" x14ac:dyDescent="0.45">
@@ -6617,14 +6649,14 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="105"/>
-      <c r="CE26" s="105"/>
-      <c r="CF26" s="105"/>
-      <c r="CG26" s="105"/>
-      <c r="CH26" s="105"/>
-      <c r="CI26" s="105"/>
-      <c r="CJ26" s="105"/>
-      <c r="CK26" s="105"/>
+      <c r="CD26" s="49"/>
+      <c r="CE26" s="49"/>
+      <c r="CF26" s="49"/>
+      <c r="CG26" s="49"/>
+      <c r="CH26" s="49"/>
+      <c r="CI26" s="49"/>
+      <c r="CJ26" s="49"/>
+      <c r="CK26" s="49"/>
     </row>
     <row r="27" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
@@ -6639,14 +6671,14 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="105"/>
-      <c r="CE27" s="105"/>
-      <c r="CF27" s="105"/>
-      <c r="CG27" s="105"/>
-      <c r="CH27" s="105"/>
-      <c r="CI27" s="105"/>
-      <c r="CJ27" s="105"/>
-      <c r="CK27" s="105"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="49"/>
+      <c r="CF27" s="49"/>
+      <c r="CG27" s="49"/>
+      <c r="CH27" s="49"/>
+      <c r="CI27" s="49"/>
+      <c r="CJ27" s="49"/>
+      <c r="CK27" s="49"/>
     </row>
     <row r="28" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
@@ -6661,14 +6693,17 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="105"/>
-      <c r="CE28" s="105"/>
-      <c r="CF28" s="105"/>
-      <c r="CG28" s="105"/>
-      <c r="CH28" s="105"/>
-      <c r="CI28" s="105"/>
-      <c r="CJ28" s="105"/>
-      <c r="CK28" s="105"/>
+      <c r="CD28" s="49"/>
+      <c r="CE28" s="49"/>
+      <c r="CF28" s="49"/>
+      <c r="CG28" s="49"/>
+      <c r="CH28" s="49"/>
+      <c r="CI28" s="49"/>
+      <c r="CJ28" s="49"/>
+      <c r="CK28" s="49"/>
+      <c r="EX28" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="29" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
@@ -6683,14 +6718,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="105"/>
-      <c r="CE29" s="105"/>
-      <c r="CF29" s="105"/>
-      <c r="CG29" s="105"/>
-      <c r="CH29" s="105"/>
-      <c r="CI29" s="105"/>
-      <c r="CJ29" s="105"/>
-      <c r="CK29" s="105"/>
+      <c r="CD29" s="49"/>
+      <c r="CE29" s="49"/>
+      <c r="CF29" s="49"/>
+      <c r="CG29" s="49"/>
+      <c r="CH29" s="49"/>
+      <c r="CI29" s="49"/>
+      <c r="CJ29" s="49"/>
+      <c r="CK29" s="49"/>
     </row>
     <row r="30" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -6725,6 +6760,9 @@
     </row>
     <row r="32" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
+      <c r="F32" t="s">
+        <v>192</v>
+      </c>
       <c r="G32">
         <v>10</v>
       </c>
@@ -6751,7 +6789,7 @@
         <v>597D</v>
       </c>
       <c r="CD33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:87" x14ac:dyDescent="0.45">
@@ -6786,6 +6824,9 @@
       <c r="BN35" t="s">
         <v>133</v>
       </c>
+      <c r="CD35" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.45">
       <c r="G36">
@@ -7042,36 +7083,88 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="CD16:CK29"/>
-    <mergeCell ref="GT9:HA14"/>
-    <mergeCell ref="HB9:HI14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="DB9:DQ14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="CD9:CK14"/>
-    <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="CX7:DA7"/>
+    <mergeCell ref="FV4:GK4"/>
+    <mergeCell ref="GH7:GK7"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="GV7:HA7"/>
+    <mergeCell ref="HB7:HI7"/>
+    <mergeCell ref="I9:Q14"/>
+    <mergeCell ref="CD7:CK7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CL7:CO7"/>
+    <mergeCell ref="DN7:DQ7"/>
+    <mergeCell ref="DB7:DC7"/>
+    <mergeCell ref="DF7:DM7"/>
+    <mergeCell ref="DR9:EG14"/>
+    <mergeCell ref="EP9:EW14"/>
+    <mergeCell ref="FV9:GA14"/>
+    <mergeCell ref="GB9:GG14"/>
+    <mergeCell ref="CL8:DA8"/>
+    <mergeCell ref="DB8:DQ8"/>
+    <mergeCell ref="DV7:EA7"/>
+    <mergeCell ref="EB7:EG7"/>
+    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="EP7:EW7"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="DR7:DU7"/>
+    <mergeCell ref="FK7:FM7"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="FV7:GA7"/>
+    <mergeCell ref="FN7:FU7"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B1:BM1"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="FF3:FM3"/>
+    <mergeCell ref="FN3:FU3"/>
+    <mergeCell ref="FV3:GC3"/>
+    <mergeCell ref="BN1:HI1"/>
+    <mergeCell ref="DJ3:DQ3"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="DZ3:EG3"/>
+    <mergeCell ref="EH3:EO3"/>
+    <mergeCell ref="EP3:EW3"/>
+    <mergeCell ref="EX3:FE3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="B3:I3"/>
     <mergeCell ref="B9:H14"/>
     <mergeCell ref="DJ2:DQ2"/>
     <mergeCell ref="DR2:DY2"/>
@@ -7096,88 +7189,36 @@
     <mergeCell ref="CL3:CS3"/>
     <mergeCell ref="CT3:DA3"/>
     <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="GT2:HA2"/>
-    <mergeCell ref="HB2:HI2"/>
-    <mergeCell ref="B1:BM1"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="FF3:FM3"/>
-    <mergeCell ref="FN3:FU3"/>
-    <mergeCell ref="FV3:GC3"/>
-    <mergeCell ref="BN1:HI1"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="DZ3:EG3"/>
-    <mergeCell ref="EH3:EO3"/>
-    <mergeCell ref="EP3:EW3"/>
-    <mergeCell ref="EX3:FE3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="DR7:DU7"/>
-    <mergeCell ref="FK7:FM7"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="FV7:GA7"/>
-    <mergeCell ref="FN7:FU7"/>
-    <mergeCell ref="CX7:DA7"/>
-    <mergeCell ref="FV4:GK4"/>
-    <mergeCell ref="GH7:GK7"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="GV7:HA7"/>
-    <mergeCell ref="HB7:HI7"/>
-    <mergeCell ref="I9:Q14"/>
-    <mergeCell ref="CD7:CK7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CL7:CO7"/>
-    <mergeCell ref="DN7:DQ7"/>
-    <mergeCell ref="DB7:DC7"/>
-    <mergeCell ref="DF7:DM7"/>
-    <mergeCell ref="DR9:EG14"/>
-    <mergeCell ref="EP9:EW14"/>
-    <mergeCell ref="FV9:GA14"/>
-    <mergeCell ref="GB9:GG14"/>
-    <mergeCell ref="CL8:DA8"/>
-    <mergeCell ref="DB8:DQ8"/>
-    <mergeCell ref="DV7:EA7"/>
-    <mergeCell ref="EB7:EG7"/>
-    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="CD16:CK29"/>
+    <mergeCell ref="GT9:HA14"/>
+    <mergeCell ref="HB9:HI14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="DB9:DQ14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="CD9:CK14"/>
+    <mergeCell ref="CL9:DA14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753185FB-BD57-4937-9FE2-0C5BDAA10960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28464367-2F8E-45DD-B5D9-99BBDFFA6906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
+    <workbookView xWindow="6488" yWindow="195" windowWidth="16222" windowHeight="11550" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
   <si>
     <t>Static Object</t>
   </si>
@@ -641,6 +641,12 @@
   </si>
   <si>
     <t>This bit appears to affect loot spawning</t>
+  </si>
+  <si>
+    <t>Bit A is checked when creature is killled</t>
+  </si>
+  <si>
+    <t>Possibly an EXP bonus flag</t>
   </si>
 </sst>
 </file>
@@ -1227,36 +1233,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1285,24 +1287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,40 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1357,14 +1308,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1396,9 +1365,46 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1721,7 +1727,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="CY22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="DE24" sqref="DE24"/>
+      <selection pane="bottomRight" activeCell="DG26" sqref="DG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1751,1075 +1757,1075 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="87"/>
-      <c r="BD1" s="87"/>
-      <c r="BE1" s="87"/>
-      <c r="BF1" s="87"/>
-      <c r="BG1" s="87"/>
-      <c r="BH1" s="87"/>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="87"/>
-      <c r="BK1" s="87"/>
-      <c r="BL1" s="87"/>
-      <c r="BM1" s="88"/>
-      <c r="BN1" s="86" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+      <c r="AI1" s="96"/>
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="96"/>
+      <c r="AO1" s="96"/>
+      <c r="AP1" s="96"/>
+      <c r="AQ1" s="96"/>
+      <c r="AR1" s="96"/>
+      <c r="AS1" s="96"/>
+      <c r="AT1" s="96"/>
+      <c r="AU1" s="96"/>
+      <c r="AV1" s="96"/>
+      <c r="AW1" s="96"/>
+      <c r="AX1" s="96"/>
+      <c r="AY1" s="96"/>
+      <c r="AZ1" s="96"/>
+      <c r="BA1" s="96"/>
+      <c r="BB1" s="96"/>
+      <c r="BC1" s="96"/>
+      <c r="BD1" s="96"/>
+      <c r="BE1" s="96"/>
+      <c r="BF1" s="96"/>
+      <c r="BG1" s="96"/>
+      <c r="BH1" s="96"/>
+      <c r="BI1" s="96"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="96"/>
+      <c r="BM1" s="97"/>
+      <c r="BN1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="87"/>
-      <c r="BP1" s="87"/>
-      <c r="BQ1" s="87"/>
-      <c r="BR1" s="87"/>
-      <c r="BS1" s="87"/>
-      <c r="BT1" s="87"/>
-      <c r="BU1" s="87"/>
-      <c r="BV1" s="87"/>
-      <c r="BW1" s="87"/>
-      <c r="BX1" s="87"/>
-      <c r="BY1" s="87"/>
-      <c r="BZ1" s="87"/>
-      <c r="CA1" s="87"/>
-      <c r="CB1" s="87"/>
-      <c r="CC1" s="87"/>
-      <c r="CD1" s="87"/>
-      <c r="CE1" s="87"/>
-      <c r="CF1" s="87"/>
-      <c r="CG1" s="87"/>
-      <c r="CH1" s="87"/>
-      <c r="CI1" s="87"/>
-      <c r="CJ1" s="87"/>
-      <c r="CK1" s="87"/>
-      <c r="CL1" s="87"/>
-      <c r="CM1" s="87"/>
-      <c r="CN1" s="87"/>
-      <c r="CO1" s="87"/>
-      <c r="CP1" s="87"/>
-      <c r="CQ1" s="87"/>
-      <c r="CR1" s="87"/>
-      <c r="CS1" s="87"/>
-      <c r="CT1" s="87"/>
-      <c r="CU1" s="87"/>
-      <c r="CV1" s="87"/>
-      <c r="CW1" s="87"/>
-      <c r="CX1" s="87"/>
-      <c r="CY1" s="87"/>
-      <c r="CZ1" s="87"/>
-      <c r="DA1" s="87"/>
-      <c r="DB1" s="87"/>
-      <c r="DC1" s="87"/>
-      <c r="DD1" s="87"/>
-      <c r="DE1" s="87"/>
-      <c r="DF1" s="87"/>
-      <c r="DG1" s="87"/>
-      <c r="DH1" s="87"/>
-      <c r="DI1" s="87"/>
-      <c r="DJ1" s="87"/>
-      <c r="DK1" s="87"/>
-      <c r="DL1" s="87"/>
-      <c r="DM1" s="87"/>
-      <c r="DN1" s="87"/>
-      <c r="DO1" s="87"/>
-      <c r="DP1" s="87"/>
-      <c r="DQ1" s="87"/>
-      <c r="DR1" s="87"/>
-      <c r="DS1" s="87"/>
-      <c r="DT1" s="87"/>
-      <c r="DU1" s="87"/>
-      <c r="DV1" s="87"/>
-      <c r="DW1" s="87"/>
-      <c r="DX1" s="87"/>
-      <c r="DY1" s="87"/>
-      <c r="DZ1" s="87"/>
-      <c r="EA1" s="87"/>
-      <c r="EB1" s="87"/>
-      <c r="EC1" s="87"/>
-      <c r="ED1" s="87"/>
-      <c r="EE1" s="87"/>
-      <c r="EF1" s="87"/>
-      <c r="EG1" s="87"/>
-      <c r="EH1" s="87"/>
-      <c r="EI1" s="87"/>
-      <c r="EJ1" s="87"/>
-      <c r="EK1" s="87"/>
-      <c r="EL1" s="87"/>
-      <c r="EM1" s="87"/>
-      <c r="EN1" s="87"/>
-      <c r="EO1" s="87"/>
-      <c r="EP1" s="87"/>
-      <c r="EQ1" s="87"/>
-      <c r="ER1" s="87"/>
-      <c r="ES1" s="87"/>
-      <c r="ET1" s="87"/>
-      <c r="EU1" s="87"/>
-      <c r="EV1" s="87"/>
-      <c r="EW1" s="87"/>
-      <c r="EX1" s="87"/>
-      <c r="EY1" s="87"/>
-      <c r="EZ1" s="87"/>
-      <c r="FA1" s="87"/>
-      <c r="FB1" s="87"/>
-      <c r="FC1" s="87"/>
-      <c r="FD1" s="87"/>
-      <c r="FE1" s="87"/>
-      <c r="FF1" s="87"/>
-      <c r="FG1" s="87"/>
-      <c r="FH1" s="87"/>
-      <c r="FI1" s="87"/>
-      <c r="FJ1" s="87"/>
-      <c r="FK1" s="87"/>
-      <c r="FL1" s="87"/>
-      <c r="FM1" s="87"/>
-      <c r="FN1" s="87"/>
-      <c r="FO1" s="87"/>
-      <c r="FP1" s="87"/>
-      <c r="FQ1" s="87"/>
-      <c r="FR1" s="87"/>
-      <c r="FS1" s="87"/>
-      <c r="FT1" s="87"/>
-      <c r="FU1" s="87"/>
-      <c r="FV1" s="87"/>
-      <c r="FW1" s="87"/>
-      <c r="FX1" s="87"/>
-      <c r="FY1" s="87"/>
-      <c r="FZ1" s="87"/>
-      <c r="GA1" s="87"/>
-      <c r="GB1" s="87"/>
-      <c r="GC1" s="87"/>
-      <c r="GD1" s="87"/>
-      <c r="GE1" s="87"/>
-      <c r="GF1" s="87"/>
-      <c r="GG1" s="87"/>
-      <c r="GH1" s="87"/>
-      <c r="GI1" s="87"/>
-      <c r="GJ1" s="87"/>
-      <c r="GK1" s="87"/>
-      <c r="GL1" s="87"/>
-      <c r="GM1" s="87"/>
-      <c r="GN1" s="87"/>
-      <c r="GO1" s="87"/>
-      <c r="GP1" s="87"/>
-      <c r="GQ1" s="87"/>
-      <c r="GR1" s="87"/>
-      <c r="GS1" s="87"/>
-      <c r="GT1" s="87"/>
-      <c r="GU1" s="87"/>
-      <c r="GV1" s="87"/>
-      <c r="GW1" s="87"/>
-      <c r="GX1" s="87"/>
-      <c r="GY1" s="87"/>
-      <c r="GZ1" s="87"/>
-      <c r="HA1" s="87"/>
-      <c r="HB1" s="87"/>
-      <c r="HC1" s="87"/>
-      <c r="HD1" s="87"/>
-      <c r="HE1" s="87"/>
-      <c r="HF1" s="87"/>
-      <c r="HG1" s="87"/>
-      <c r="HH1" s="87"/>
-      <c r="HI1" s="87"/>
+      <c r="BO1" s="96"/>
+      <c r="BP1" s="96"/>
+      <c r="BQ1" s="96"/>
+      <c r="BR1" s="96"/>
+      <c r="BS1" s="96"/>
+      <c r="BT1" s="96"/>
+      <c r="BU1" s="96"/>
+      <c r="BV1" s="96"/>
+      <c r="BW1" s="96"/>
+      <c r="BX1" s="96"/>
+      <c r="BY1" s="96"/>
+      <c r="BZ1" s="96"/>
+      <c r="CA1" s="96"/>
+      <c r="CB1" s="96"/>
+      <c r="CC1" s="96"/>
+      <c r="CD1" s="96"/>
+      <c r="CE1" s="96"/>
+      <c r="CF1" s="96"/>
+      <c r="CG1" s="96"/>
+      <c r="CH1" s="96"/>
+      <c r="CI1" s="96"/>
+      <c r="CJ1" s="96"/>
+      <c r="CK1" s="96"/>
+      <c r="CL1" s="96"/>
+      <c r="CM1" s="96"/>
+      <c r="CN1" s="96"/>
+      <c r="CO1" s="96"/>
+      <c r="CP1" s="96"/>
+      <c r="CQ1" s="96"/>
+      <c r="CR1" s="96"/>
+      <c r="CS1" s="96"/>
+      <c r="CT1" s="96"/>
+      <c r="CU1" s="96"/>
+      <c r="CV1" s="96"/>
+      <c r="CW1" s="96"/>
+      <c r="CX1" s="96"/>
+      <c r="CY1" s="96"/>
+      <c r="CZ1" s="96"/>
+      <c r="DA1" s="96"/>
+      <c r="DB1" s="96"/>
+      <c r="DC1" s="96"/>
+      <c r="DD1" s="96"/>
+      <c r="DE1" s="96"/>
+      <c r="DF1" s="96"/>
+      <c r="DG1" s="96"/>
+      <c r="DH1" s="96"/>
+      <c r="DI1" s="96"/>
+      <c r="DJ1" s="96"/>
+      <c r="DK1" s="96"/>
+      <c r="DL1" s="96"/>
+      <c r="DM1" s="96"/>
+      <c r="DN1" s="96"/>
+      <c r="DO1" s="96"/>
+      <c r="DP1" s="96"/>
+      <c r="DQ1" s="96"/>
+      <c r="DR1" s="96"/>
+      <c r="DS1" s="96"/>
+      <c r="DT1" s="96"/>
+      <c r="DU1" s="96"/>
+      <c r="DV1" s="96"/>
+      <c r="DW1" s="96"/>
+      <c r="DX1" s="96"/>
+      <c r="DY1" s="96"/>
+      <c r="DZ1" s="96"/>
+      <c r="EA1" s="96"/>
+      <c r="EB1" s="96"/>
+      <c r="EC1" s="96"/>
+      <c r="ED1" s="96"/>
+      <c r="EE1" s="96"/>
+      <c r="EF1" s="96"/>
+      <c r="EG1" s="96"/>
+      <c r="EH1" s="96"/>
+      <c r="EI1" s="96"/>
+      <c r="EJ1" s="96"/>
+      <c r="EK1" s="96"/>
+      <c r="EL1" s="96"/>
+      <c r="EM1" s="96"/>
+      <c r="EN1" s="96"/>
+      <c r="EO1" s="96"/>
+      <c r="EP1" s="96"/>
+      <c r="EQ1" s="96"/>
+      <c r="ER1" s="96"/>
+      <c r="ES1" s="96"/>
+      <c r="ET1" s="96"/>
+      <c r="EU1" s="96"/>
+      <c r="EV1" s="96"/>
+      <c r="EW1" s="96"/>
+      <c r="EX1" s="96"/>
+      <c r="EY1" s="96"/>
+      <c r="EZ1" s="96"/>
+      <c r="FA1" s="96"/>
+      <c r="FB1" s="96"/>
+      <c r="FC1" s="96"/>
+      <c r="FD1" s="96"/>
+      <c r="FE1" s="96"/>
+      <c r="FF1" s="96"/>
+      <c r="FG1" s="96"/>
+      <c r="FH1" s="96"/>
+      <c r="FI1" s="96"/>
+      <c r="FJ1" s="96"/>
+      <c r="FK1" s="96"/>
+      <c r="FL1" s="96"/>
+      <c r="FM1" s="96"/>
+      <c r="FN1" s="96"/>
+      <c r="FO1" s="96"/>
+      <c r="FP1" s="96"/>
+      <c r="FQ1" s="96"/>
+      <c r="FR1" s="96"/>
+      <c r="FS1" s="96"/>
+      <c r="FT1" s="96"/>
+      <c r="FU1" s="96"/>
+      <c r="FV1" s="96"/>
+      <c r="FW1" s="96"/>
+      <c r="FX1" s="96"/>
+      <c r="FY1" s="96"/>
+      <c r="FZ1" s="96"/>
+      <c r="GA1" s="96"/>
+      <c r="GB1" s="96"/>
+      <c r="GC1" s="96"/>
+      <c r="GD1" s="96"/>
+      <c r="GE1" s="96"/>
+      <c r="GF1" s="96"/>
+      <c r="GG1" s="96"/>
+      <c r="GH1" s="96"/>
+      <c r="GI1" s="96"/>
+      <c r="GJ1" s="96"/>
+      <c r="GK1" s="96"/>
+      <c r="GL1" s="96"/>
+      <c r="GM1" s="96"/>
+      <c r="GN1" s="96"/>
+      <c r="GO1" s="96"/>
+      <c r="GP1" s="96"/>
+      <c r="GQ1" s="96"/>
+      <c r="GR1" s="96"/>
+      <c r="GS1" s="96"/>
+      <c r="GT1" s="96"/>
+      <c r="GU1" s="96"/>
+      <c r="GV1" s="96"/>
+      <c r="GW1" s="96"/>
+      <c r="GX1" s="96"/>
+      <c r="GY1" s="96"/>
+      <c r="GZ1" s="96"/>
+      <c r="HA1" s="96"/>
+      <c r="HB1" s="96"/>
+      <c r="HC1" s="96"/>
+      <c r="HD1" s="96"/>
+      <c r="HE1" s="96"/>
+      <c r="HF1" s="96"/>
+      <c r="HG1" s="96"/>
+      <c r="HH1" s="96"/>
+      <c r="HI1" s="96"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="51">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="51">
         <v>1</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="68">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="51">
         <v>2</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="68">
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="51">
         <v>3</v>
       </c>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="68">
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="51">
         <v>4</v>
       </c>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="68">
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="51">
         <v>5</v>
       </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="68">
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="51">
         <v>6</v>
       </c>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="68">
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="51">
         <v>7</v>
       </c>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="68">
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="51">
         <v>8</v>
       </c>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="69"/>
-      <c r="BS2" s="69"/>
-      <c r="BT2" s="69"/>
-      <c r="BU2" s="70"/>
-      <c r="BV2" s="68">
+      <c r="BO2" s="52"/>
+      <c r="BP2" s="52"/>
+      <c r="BQ2" s="52"/>
+      <c r="BR2" s="52"/>
+      <c r="BS2" s="52"/>
+      <c r="BT2" s="52"/>
+      <c r="BU2" s="53"/>
+      <c r="BV2" s="51">
         <v>9</v>
       </c>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="69"/>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="69"/>
-      <c r="CC2" s="70"/>
-      <c r="CD2" s="68">
+      <c r="BW2" s="52"/>
+      <c r="BX2" s="52"/>
+      <c r="BY2" s="52"/>
+      <c r="BZ2" s="52"/>
+      <c r="CA2" s="52"/>
+      <c r="CB2" s="52"/>
+      <c r="CC2" s="53"/>
+      <c r="CD2" s="51">
         <v>10</v>
       </c>
-      <c r="CE2" s="69"/>
-      <c r="CF2" s="69"/>
-      <c r="CG2" s="69"/>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
-      <c r="CJ2" s="69"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="68">
+      <c r="CE2" s="52"/>
+      <c r="CF2" s="52"/>
+      <c r="CG2" s="52"/>
+      <c r="CH2" s="52"/>
+      <c r="CI2" s="52"/>
+      <c r="CJ2" s="52"/>
+      <c r="CK2" s="53"/>
+      <c r="CL2" s="51">
         <v>11</v>
       </c>
-      <c r="CM2" s="69"/>
-      <c r="CN2" s="69"/>
-      <c r="CO2" s="69"/>
-      <c r="CP2" s="69"/>
-      <c r="CQ2" s="69"/>
-      <c r="CR2" s="69"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="68">
+      <c r="CM2" s="52"/>
+      <c r="CN2" s="52"/>
+      <c r="CO2" s="52"/>
+      <c r="CP2" s="52"/>
+      <c r="CQ2" s="52"/>
+      <c r="CR2" s="52"/>
+      <c r="CS2" s="53"/>
+      <c r="CT2" s="51">
         <v>12</v>
       </c>
-      <c r="CU2" s="69"/>
-      <c r="CV2" s="69"/>
-      <c r="CW2" s="69"/>
-      <c r="CX2" s="69"/>
-      <c r="CY2" s="69"/>
-      <c r="CZ2" s="69"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="68">
+      <c r="CU2" s="52"/>
+      <c r="CV2" s="52"/>
+      <c r="CW2" s="52"/>
+      <c r="CX2" s="52"/>
+      <c r="CY2" s="52"/>
+      <c r="CZ2" s="52"/>
+      <c r="DA2" s="53"/>
+      <c r="DB2" s="51">
         <v>13</v>
       </c>
-      <c r="DC2" s="69"/>
-      <c r="DD2" s="69"/>
-      <c r="DE2" s="69"/>
-      <c r="DF2" s="69"/>
-      <c r="DG2" s="69"/>
-      <c r="DH2" s="69"/>
-      <c r="DI2" s="70"/>
-      <c r="DJ2" s="68">
+      <c r="DC2" s="52"/>
+      <c r="DD2" s="52"/>
+      <c r="DE2" s="52"/>
+      <c r="DF2" s="52"/>
+      <c r="DG2" s="52"/>
+      <c r="DH2" s="52"/>
+      <c r="DI2" s="53"/>
+      <c r="DJ2" s="51">
         <v>14</v>
       </c>
-      <c r="DK2" s="69"/>
-      <c r="DL2" s="69"/>
-      <c r="DM2" s="69"/>
-      <c r="DN2" s="69"/>
-      <c r="DO2" s="69"/>
-      <c r="DP2" s="69"/>
-      <c r="DQ2" s="70"/>
-      <c r="DR2" s="68">
+      <c r="DK2" s="52"/>
+      <c r="DL2" s="52"/>
+      <c r="DM2" s="52"/>
+      <c r="DN2" s="52"/>
+      <c r="DO2" s="52"/>
+      <c r="DP2" s="52"/>
+      <c r="DQ2" s="53"/>
+      <c r="DR2" s="51">
         <v>15</v>
       </c>
-      <c r="DS2" s="69"/>
-      <c r="DT2" s="69"/>
-      <c r="DU2" s="69"/>
-      <c r="DV2" s="69"/>
-      <c r="DW2" s="69"/>
-      <c r="DX2" s="69"/>
-      <c r="DY2" s="70"/>
-      <c r="DZ2" s="68">
+      <c r="DS2" s="52"/>
+      <c r="DT2" s="52"/>
+      <c r="DU2" s="52"/>
+      <c r="DV2" s="52"/>
+      <c r="DW2" s="52"/>
+      <c r="DX2" s="52"/>
+      <c r="DY2" s="53"/>
+      <c r="DZ2" s="51">
         <v>16</v>
       </c>
-      <c r="EA2" s="69"/>
-      <c r="EB2" s="69"/>
-      <c r="EC2" s="69"/>
-      <c r="ED2" s="69"/>
-      <c r="EE2" s="69"/>
-      <c r="EF2" s="69"/>
-      <c r="EG2" s="70"/>
-      <c r="EH2" s="68">
+      <c r="EA2" s="52"/>
+      <c r="EB2" s="52"/>
+      <c r="EC2" s="52"/>
+      <c r="ED2" s="52"/>
+      <c r="EE2" s="52"/>
+      <c r="EF2" s="52"/>
+      <c r="EG2" s="53"/>
+      <c r="EH2" s="51">
         <v>17</v>
       </c>
-      <c r="EI2" s="69"/>
-      <c r="EJ2" s="69"/>
-      <c r="EK2" s="69"/>
-      <c r="EL2" s="69"/>
-      <c r="EM2" s="69"/>
-      <c r="EN2" s="69"/>
-      <c r="EO2" s="70"/>
-      <c r="EP2" s="68">
+      <c r="EI2" s="52"/>
+      <c r="EJ2" s="52"/>
+      <c r="EK2" s="52"/>
+      <c r="EL2" s="52"/>
+      <c r="EM2" s="52"/>
+      <c r="EN2" s="52"/>
+      <c r="EO2" s="53"/>
+      <c r="EP2" s="51">
         <v>18</v>
       </c>
-      <c r="EQ2" s="69"/>
-      <c r="ER2" s="69"/>
-      <c r="ES2" s="69"/>
-      <c r="ET2" s="69"/>
-      <c r="EU2" s="69"/>
-      <c r="EV2" s="69"/>
-      <c r="EW2" s="70"/>
-      <c r="EX2" s="68">
+      <c r="EQ2" s="52"/>
+      <c r="ER2" s="52"/>
+      <c r="ES2" s="52"/>
+      <c r="ET2" s="52"/>
+      <c r="EU2" s="52"/>
+      <c r="EV2" s="52"/>
+      <c r="EW2" s="53"/>
+      <c r="EX2" s="51">
         <v>19</v>
       </c>
-      <c r="EY2" s="69"/>
-      <c r="EZ2" s="69"/>
-      <c r="FA2" s="69"/>
-      <c r="FB2" s="69"/>
-      <c r="FC2" s="69"/>
-      <c r="FD2" s="69"/>
-      <c r="FE2" s="70"/>
-      <c r="FF2" s="68">
+      <c r="EY2" s="52"/>
+      <c r="EZ2" s="52"/>
+      <c r="FA2" s="52"/>
+      <c r="FB2" s="52"/>
+      <c r="FC2" s="52"/>
+      <c r="FD2" s="52"/>
+      <c r="FE2" s="53"/>
+      <c r="FF2" s="51">
         <v>20</v>
       </c>
-      <c r="FG2" s="69"/>
-      <c r="FH2" s="69"/>
-      <c r="FI2" s="69"/>
-      <c r="FJ2" s="69"/>
-      <c r="FK2" s="69"/>
-      <c r="FL2" s="69"/>
-      <c r="FM2" s="70"/>
-      <c r="FN2" s="68">
+      <c r="FG2" s="52"/>
+      <c r="FH2" s="52"/>
+      <c r="FI2" s="52"/>
+      <c r="FJ2" s="52"/>
+      <c r="FK2" s="52"/>
+      <c r="FL2" s="52"/>
+      <c r="FM2" s="53"/>
+      <c r="FN2" s="51">
         <v>21</v>
       </c>
-      <c r="FO2" s="69"/>
-      <c r="FP2" s="69"/>
-      <c r="FQ2" s="69"/>
-      <c r="FR2" s="69"/>
-      <c r="FS2" s="69"/>
-      <c r="FT2" s="69"/>
-      <c r="FU2" s="70"/>
-      <c r="FV2" s="68">
+      <c r="FO2" s="52"/>
+      <c r="FP2" s="52"/>
+      <c r="FQ2" s="52"/>
+      <c r="FR2" s="52"/>
+      <c r="FS2" s="52"/>
+      <c r="FT2" s="52"/>
+      <c r="FU2" s="53"/>
+      <c r="FV2" s="51">
         <v>22</v>
       </c>
-      <c r="FW2" s="69"/>
-      <c r="FX2" s="69"/>
-      <c r="FY2" s="69"/>
-      <c r="FZ2" s="69"/>
-      <c r="GA2" s="69"/>
-      <c r="GB2" s="69"/>
-      <c r="GC2" s="70"/>
-      <c r="GD2" s="68">
+      <c r="FW2" s="52"/>
+      <c r="FX2" s="52"/>
+      <c r="FY2" s="52"/>
+      <c r="FZ2" s="52"/>
+      <c r="GA2" s="52"/>
+      <c r="GB2" s="52"/>
+      <c r="GC2" s="53"/>
+      <c r="GD2" s="51">
         <v>23</v>
       </c>
-      <c r="GE2" s="69"/>
-      <c r="GF2" s="69"/>
-      <c r="GG2" s="69"/>
-      <c r="GH2" s="69"/>
-      <c r="GI2" s="69"/>
-      <c r="GJ2" s="69"/>
-      <c r="GK2" s="70"/>
-      <c r="GL2" s="68">
+      <c r="GE2" s="52"/>
+      <c r="GF2" s="52"/>
+      <c r="GG2" s="52"/>
+      <c r="GH2" s="52"/>
+      <c r="GI2" s="52"/>
+      <c r="GJ2" s="52"/>
+      <c r="GK2" s="53"/>
+      <c r="GL2" s="51">
         <v>24</v>
       </c>
-      <c r="GM2" s="69"/>
-      <c r="GN2" s="69"/>
-      <c r="GO2" s="69"/>
-      <c r="GP2" s="69"/>
-      <c r="GQ2" s="69"/>
-      <c r="GR2" s="69"/>
-      <c r="GS2" s="70"/>
-      <c r="GT2" s="68">
+      <c r="GM2" s="52"/>
+      <c r="GN2" s="52"/>
+      <c r="GO2" s="52"/>
+      <c r="GP2" s="52"/>
+      <c r="GQ2" s="52"/>
+      <c r="GR2" s="52"/>
+      <c r="GS2" s="53"/>
+      <c r="GT2" s="51">
         <v>25</v>
       </c>
-      <c r="GU2" s="69"/>
-      <c r="GV2" s="69"/>
-      <c r="GW2" s="69"/>
-      <c r="GX2" s="69"/>
-      <c r="GY2" s="69"/>
-      <c r="GZ2" s="69"/>
-      <c r="HA2" s="70"/>
-      <c r="HB2" s="68">
+      <c r="GU2" s="52"/>
+      <c r="GV2" s="52"/>
+      <c r="GW2" s="52"/>
+      <c r="GX2" s="52"/>
+      <c r="GY2" s="52"/>
+      <c r="GZ2" s="52"/>
+      <c r="HA2" s="53"/>
+      <c r="HB2" s="51">
         <v>26</v>
       </c>
-      <c r="HC2" s="69"/>
-      <c r="HD2" s="69"/>
-      <c r="HE2" s="69"/>
-      <c r="HF2" s="69"/>
-      <c r="HG2" s="69"/>
-      <c r="HH2" s="69"/>
-      <c r="HI2" s="70"/>
+      <c r="HC2" s="52"/>
+      <c r="HD2" s="52"/>
+      <c r="HE2" s="52"/>
+      <c r="HF2" s="52"/>
+      <c r="HG2" s="52"/>
+      <c r="HH2" s="52"/>
+      <c r="HI2" s="53"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="68" t="str">
+      <c r="B3" s="51" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="68" t="str">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="51" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="68" t="str">
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="68" t="str">
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="51" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="68" t="str">
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="51" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="68" t="str">
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="51" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="68" t="str">
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="51" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="68" t="str">
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="52"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="51" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="70"/>
-      <c r="BN3" s="68" t="str">
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="52"/>
+      <c r="BI3" s="52"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="53"/>
+      <c r="BN3" s="51" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="69"/>
-      <c r="BS3" s="69"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="70"/>
-      <c r="BV3" s="68" t="str">
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
+      <c r="BR3" s="52"/>
+      <c r="BS3" s="52"/>
+      <c r="BT3" s="52"/>
+      <c r="BU3" s="53"/>
+      <c r="BV3" s="51" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="70"/>
-      <c r="CD3" s="68" t="str">
+      <c r="BW3" s="52"/>
+      <c r="BX3" s="52"/>
+      <c r="BY3" s="52"/>
+      <c r="BZ3" s="52"/>
+      <c r="CA3" s="52"/>
+      <c r="CB3" s="52"/>
+      <c r="CC3" s="53"/>
+      <c r="CD3" s="51" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="69"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="69"/>
-      <c r="CH3" s="69"/>
-      <c r="CI3" s="69"/>
-      <c r="CJ3" s="69"/>
-      <c r="CK3" s="70"/>
-      <c r="CL3" s="68" t="str">
+      <c r="CE3" s="52"/>
+      <c r="CF3" s="52"/>
+      <c r="CG3" s="52"/>
+      <c r="CH3" s="52"/>
+      <c r="CI3" s="52"/>
+      <c r="CJ3" s="52"/>
+      <c r="CK3" s="53"/>
+      <c r="CL3" s="51" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="69"/>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="69"/>
-      <c r="CQ3" s="69"/>
-      <c r="CR3" s="69"/>
-      <c r="CS3" s="70"/>
-      <c r="CT3" s="68" t="str">
+      <c r="CM3" s="52"/>
+      <c r="CN3" s="52"/>
+      <c r="CO3" s="52"/>
+      <c r="CP3" s="52"/>
+      <c r="CQ3" s="52"/>
+      <c r="CR3" s="52"/>
+      <c r="CS3" s="53"/>
+      <c r="CT3" s="51" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="69"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="69"/>
-      <c r="CX3" s="69"/>
-      <c r="CY3" s="69"/>
-      <c r="CZ3" s="69"/>
-      <c r="DA3" s="70"/>
-      <c r="DB3" s="68" t="str">
+      <c r="CU3" s="52"/>
+      <c r="CV3" s="52"/>
+      <c r="CW3" s="52"/>
+      <c r="CX3" s="52"/>
+      <c r="CY3" s="52"/>
+      <c r="CZ3" s="52"/>
+      <c r="DA3" s="53"/>
+      <c r="DB3" s="51" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="69"/>
-      <c r="DD3" s="69"/>
-      <c r="DE3" s="69"/>
-      <c r="DF3" s="69"/>
-      <c r="DG3" s="69"/>
-      <c r="DH3" s="69"/>
-      <c r="DI3" s="70"/>
-      <c r="DJ3" s="68" t="str">
+      <c r="DC3" s="52"/>
+      <c r="DD3" s="52"/>
+      <c r="DE3" s="52"/>
+      <c r="DF3" s="52"/>
+      <c r="DG3" s="52"/>
+      <c r="DH3" s="52"/>
+      <c r="DI3" s="53"/>
+      <c r="DJ3" s="51" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="69"/>
-      <c r="DL3" s="69"/>
-      <c r="DM3" s="69"/>
-      <c r="DN3" s="69"/>
-      <c r="DO3" s="69"/>
-      <c r="DP3" s="69"/>
-      <c r="DQ3" s="70"/>
-      <c r="DR3" s="68" t="str">
+      <c r="DK3" s="52"/>
+      <c r="DL3" s="52"/>
+      <c r="DM3" s="52"/>
+      <c r="DN3" s="52"/>
+      <c r="DO3" s="52"/>
+      <c r="DP3" s="52"/>
+      <c r="DQ3" s="53"/>
+      <c r="DR3" s="51" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="69"/>
-      <c r="DT3" s="69"/>
-      <c r="DU3" s="69"/>
-      <c r="DV3" s="69"/>
-      <c r="DW3" s="69"/>
-      <c r="DX3" s="69"/>
-      <c r="DY3" s="70"/>
-      <c r="DZ3" s="68" t="str">
+      <c r="DS3" s="52"/>
+      <c r="DT3" s="52"/>
+      <c r="DU3" s="52"/>
+      <c r="DV3" s="52"/>
+      <c r="DW3" s="52"/>
+      <c r="DX3" s="52"/>
+      <c r="DY3" s="53"/>
+      <c r="DZ3" s="51" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="69"/>
-      <c r="EB3" s="69"/>
-      <c r="EC3" s="69"/>
-      <c r="ED3" s="69"/>
-      <c r="EE3" s="69"/>
-      <c r="EF3" s="69"/>
-      <c r="EG3" s="70"/>
-      <c r="EH3" s="68" t="str">
+      <c r="EA3" s="52"/>
+      <c r="EB3" s="52"/>
+      <c r="EC3" s="52"/>
+      <c r="ED3" s="52"/>
+      <c r="EE3" s="52"/>
+      <c r="EF3" s="52"/>
+      <c r="EG3" s="53"/>
+      <c r="EH3" s="51" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="69"/>
-      <c r="EJ3" s="69"/>
-      <c r="EK3" s="69"/>
-      <c r="EL3" s="69"/>
-      <c r="EM3" s="69"/>
-      <c r="EN3" s="69"/>
-      <c r="EO3" s="70"/>
-      <c r="EP3" s="68" t="str">
+      <c r="EI3" s="52"/>
+      <c r="EJ3" s="52"/>
+      <c r="EK3" s="52"/>
+      <c r="EL3" s="52"/>
+      <c r="EM3" s="52"/>
+      <c r="EN3" s="52"/>
+      <c r="EO3" s="53"/>
+      <c r="EP3" s="51" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="69"/>
-      <c r="ER3" s="69"/>
-      <c r="ES3" s="69"/>
-      <c r="ET3" s="69"/>
-      <c r="EU3" s="69"/>
-      <c r="EV3" s="69"/>
-      <c r="EW3" s="70"/>
-      <c r="EX3" s="68" t="str">
+      <c r="EQ3" s="52"/>
+      <c r="ER3" s="52"/>
+      <c r="ES3" s="52"/>
+      <c r="ET3" s="52"/>
+      <c r="EU3" s="52"/>
+      <c r="EV3" s="52"/>
+      <c r="EW3" s="53"/>
+      <c r="EX3" s="51" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="69"/>
-      <c r="EZ3" s="69"/>
-      <c r="FA3" s="69"/>
-      <c r="FB3" s="69"/>
-      <c r="FC3" s="69"/>
-      <c r="FD3" s="69"/>
-      <c r="FE3" s="70"/>
-      <c r="FF3" s="68" t="str">
+      <c r="EY3" s="52"/>
+      <c r="EZ3" s="52"/>
+      <c r="FA3" s="52"/>
+      <c r="FB3" s="52"/>
+      <c r="FC3" s="52"/>
+      <c r="FD3" s="52"/>
+      <c r="FE3" s="53"/>
+      <c r="FF3" s="51" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="69"/>
-      <c r="FH3" s="69"/>
-      <c r="FI3" s="69"/>
-      <c r="FJ3" s="69"/>
-      <c r="FK3" s="69"/>
-      <c r="FL3" s="69"/>
-      <c r="FM3" s="70"/>
-      <c r="FN3" s="68" t="str">
+      <c r="FG3" s="52"/>
+      <c r="FH3" s="52"/>
+      <c r="FI3" s="52"/>
+      <c r="FJ3" s="52"/>
+      <c r="FK3" s="52"/>
+      <c r="FL3" s="52"/>
+      <c r="FM3" s="53"/>
+      <c r="FN3" s="51" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="69"/>
-      <c r="FP3" s="69"/>
-      <c r="FQ3" s="69"/>
-      <c r="FR3" s="69"/>
-      <c r="FS3" s="69"/>
-      <c r="FT3" s="69"/>
-      <c r="FU3" s="70"/>
-      <c r="FV3" s="68" t="str">
+      <c r="FO3" s="52"/>
+      <c r="FP3" s="52"/>
+      <c r="FQ3" s="52"/>
+      <c r="FR3" s="52"/>
+      <c r="FS3" s="52"/>
+      <c r="FT3" s="52"/>
+      <c r="FU3" s="53"/>
+      <c r="FV3" s="51" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="69"/>
-      <c r="FX3" s="69"/>
-      <c r="FY3" s="69"/>
-      <c r="FZ3" s="69"/>
-      <c r="GA3" s="69"/>
-      <c r="GB3" s="69"/>
-      <c r="GC3" s="70"/>
-      <c r="GD3" s="68" t="str">
+      <c r="FW3" s="52"/>
+      <c r="FX3" s="52"/>
+      <c r="FY3" s="52"/>
+      <c r="FZ3" s="52"/>
+      <c r="GA3" s="52"/>
+      <c r="GB3" s="52"/>
+      <c r="GC3" s="53"/>
+      <c r="GD3" s="51" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="69"/>
-      <c r="GF3" s="69"/>
-      <c r="GG3" s="69"/>
-      <c r="GH3" s="69"/>
-      <c r="GI3" s="69"/>
-      <c r="GJ3" s="69"/>
-      <c r="GK3" s="70"/>
-      <c r="GL3" s="68" t="str">
+      <c r="GE3" s="52"/>
+      <c r="GF3" s="52"/>
+      <c r="GG3" s="52"/>
+      <c r="GH3" s="52"/>
+      <c r="GI3" s="52"/>
+      <c r="GJ3" s="52"/>
+      <c r="GK3" s="53"/>
+      <c r="GL3" s="51" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="69"/>
-      <c r="GN3" s="69"/>
-      <c r="GO3" s="69"/>
-      <c r="GP3" s="69"/>
-      <c r="GQ3" s="69"/>
-      <c r="GR3" s="69"/>
-      <c r="GS3" s="70"/>
-      <c r="GT3" s="68" t="str">
+      <c r="GM3" s="52"/>
+      <c r="GN3" s="52"/>
+      <c r="GO3" s="52"/>
+      <c r="GP3" s="52"/>
+      <c r="GQ3" s="52"/>
+      <c r="GR3" s="52"/>
+      <c r="GS3" s="53"/>
+      <c r="GT3" s="51" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="69"/>
-      <c r="GV3" s="69"/>
-      <c r="GW3" s="69"/>
-      <c r="GX3" s="69"/>
-      <c r="GY3" s="69"/>
-      <c r="GZ3" s="69"/>
-      <c r="HA3" s="70"/>
-      <c r="HB3" s="68" t="str">
+      <c r="GU3" s="52"/>
+      <c r="GV3" s="52"/>
+      <c r="GW3" s="52"/>
+      <c r="GX3" s="52"/>
+      <c r="GY3" s="52"/>
+      <c r="GZ3" s="52"/>
+      <c r="HA3" s="53"/>
+      <c r="HB3" s="51" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="69"/>
-      <c r="HD3" s="69"/>
-      <c r="HE3" s="69"/>
-      <c r="HF3" s="69"/>
-      <c r="HG3" s="69"/>
-      <c r="HH3" s="69"/>
-      <c r="HI3" s="70"/>
+      <c r="HC3" s="52"/>
+      <c r="HD3" s="52"/>
+      <c r="HE3" s="52"/>
+      <c r="HF3" s="52"/>
+      <c r="HG3" s="52"/>
+      <c r="HH3" s="52"/>
+      <c r="HI3" s="53"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="51">
         <v>0</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="68">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="51">
         <v>2</v>
       </c>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="68">
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="51">
         <v>4</v>
       </c>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="68">
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="51">
         <v>6</v>
       </c>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="69"/>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="69"/>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="70"/>
-      <c r="BN4" s="68">
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="52"/>
+      <c r="BL4" s="52"/>
+      <c r="BM4" s="53"/>
+      <c r="BN4" s="51">
         <v>8</v>
       </c>
-      <c r="BO4" s="69"/>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="69"/>
-      <c r="BR4" s="69"/>
-      <c r="BS4" s="69"/>
-      <c r="BT4" s="69"/>
-      <c r="BU4" s="70"/>
-      <c r="BV4" s="68">
+      <c r="BO4" s="52"/>
+      <c r="BP4" s="52"/>
+      <c r="BQ4" s="52"/>
+      <c r="BR4" s="52"/>
+      <c r="BS4" s="52"/>
+      <c r="BT4" s="52"/>
+      <c r="BU4" s="53"/>
+      <c r="BV4" s="51">
         <v>9</v>
       </c>
-      <c r="BW4" s="69"/>
-      <c r="BX4" s="69"/>
-      <c r="BY4" s="69"/>
-      <c r="BZ4" s="69"/>
-      <c r="CA4" s="69"/>
-      <c r="CB4" s="69"/>
-      <c r="CC4" s="70"/>
-      <c r="CD4" s="68" t="str">
+      <c r="BW4" s="52"/>
+      <c r="BX4" s="52"/>
+      <c r="BY4" s="52"/>
+      <c r="BZ4" s="52"/>
+      <c r="CA4" s="52"/>
+      <c r="CB4" s="52"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="51" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="69"/>
-      <c r="CF4" s="69"/>
-      <c r="CG4" s="69"/>
-      <c r="CH4" s="69"/>
-      <c r="CI4" s="69"/>
-      <c r="CJ4" s="69"/>
-      <c r="CK4" s="70"/>
-      <c r="CL4" s="68" t="str">
+      <c r="CE4" s="52"/>
+      <c r="CF4" s="52"/>
+      <c r="CG4" s="52"/>
+      <c r="CH4" s="52"/>
+      <c r="CI4" s="52"/>
+      <c r="CJ4" s="52"/>
+      <c r="CK4" s="53"/>
+      <c r="CL4" s="51" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="69"/>
-      <c r="CN4" s="69"/>
-      <c r="CO4" s="69"/>
-      <c r="CP4" s="69"/>
-      <c r="CQ4" s="69"/>
-      <c r="CR4" s="69"/>
-      <c r="CS4" s="69"/>
-      <c r="CT4" s="69"/>
-      <c r="CU4" s="69"/>
-      <c r="CV4" s="69"/>
-      <c r="CW4" s="69"/>
-      <c r="CX4" s="69"/>
-      <c r="CY4" s="69"/>
-      <c r="CZ4" s="69"/>
-      <c r="DA4" s="70"/>
-      <c r="DB4" s="68" t="str">
+      <c r="CM4" s="52"/>
+      <c r="CN4" s="52"/>
+      <c r="CO4" s="52"/>
+      <c r="CP4" s="52"/>
+      <c r="CQ4" s="52"/>
+      <c r="CR4" s="52"/>
+      <c r="CS4" s="52"/>
+      <c r="CT4" s="52"/>
+      <c r="CU4" s="52"/>
+      <c r="CV4" s="52"/>
+      <c r="CW4" s="52"/>
+      <c r="CX4" s="52"/>
+      <c r="CY4" s="52"/>
+      <c r="CZ4" s="52"/>
+      <c r="DA4" s="53"/>
+      <c r="DB4" s="51" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="69"/>
-      <c r="DD4" s="69"/>
-      <c r="DE4" s="69"/>
-      <c r="DF4" s="69"/>
-      <c r="DG4" s="69"/>
-      <c r="DH4" s="69"/>
-      <c r="DI4" s="69"/>
-      <c r="DJ4" s="69"/>
-      <c r="DK4" s="69"/>
-      <c r="DL4" s="69"/>
-      <c r="DM4" s="69"/>
-      <c r="DN4" s="69"/>
-      <c r="DO4" s="69"/>
-      <c r="DP4" s="69"/>
-      <c r="DQ4" s="70"/>
-      <c r="DR4" s="68" t="str">
+      <c r="DC4" s="52"/>
+      <c r="DD4" s="52"/>
+      <c r="DE4" s="52"/>
+      <c r="DF4" s="52"/>
+      <c r="DG4" s="52"/>
+      <c r="DH4" s="52"/>
+      <c r="DI4" s="52"/>
+      <c r="DJ4" s="52"/>
+      <c r="DK4" s="52"/>
+      <c r="DL4" s="52"/>
+      <c r="DM4" s="52"/>
+      <c r="DN4" s="52"/>
+      <c r="DO4" s="52"/>
+      <c r="DP4" s="52"/>
+      <c r="DQ4" s="53"/>
+      <c r="DR4" s="51" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="69"/>
-      <c r="DT4" s="69"/>
-      <c r="DU4" s="69"/>
-      <c r="DV4" s="69"/>
-      <c r="DW4" s="69"/>
-      <c r="DX4" s="69"/>
-      <c r="DY4" s="69"/>
-      <c r="DZ4" s="69"/>
-      <c r="EA4" s="69"/>
-      <c r="EB4" s="69"/>
-      <c r="EC4" s="69"/>
-      <c r="ED4" s="69"/>
-      <c r="EE4" s="69"/>
-      <c r="EF4" s="69"/>
-      <c r="EG4" s="70"/>
-      <c r="EH4" s="68" t="str">
+      <c r="DS4" s="52"/>
+      <c r="DT4" s="52"/>
+      <c r="DU4" s="52"/>
+      <c r="DV4" s="52"/>
+      <c r="DW4" s="52"/>
+      <c r="DX4" s="52"/>
+      <c r="DY4" s="52"/>
+      <c r="DZ4" s="52"/>
+      <c r="EA4" s="52"/>
+      <c r="EB4" s="52"/>
+      <c r="EC4" s="52"/>
+      <c r="ED4" s="52"/>
+      <c r="EE4" s="52"/>
+      <c r="EF4" s="52"/>
+      <c r="EG4" s="53"/>
+      <c r="EH4" s="51" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="69"/>
-      <c r="EJ4" s="69"/>
-      <c r="EK4" s="69"/>
-      <c r="EL4" s="69"/>
-      <c r="EM4" s="69"/>
-      <c r="EN4" s="69"/>
-      <c r="EO4" s="70"/>
-      <c r="EP4" s="68" t="str">
+      <c r="EI4" s="52"/>
+      <c r="EJ4" s="52"/>
+      <c r="EK4" s="52"/>
+      <c r="EL4" s="52"/>
+      <c r="EM4" s="52"/>
+      <c r="EN4" s="52"/>
+      <c r="EO4" s="53"/>
+      <c r="EP4" s="51" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="69"/>
-      <c r="ER4" s="69"/>
-      <c r="ES4" s="69"/>
-      <c r="ET4" s="69"/>
-      <c r="EU4" s="69"/>
-      <c r="EV4" s="69"/>
-      <c r="EW4" s="70"/>
-      <c r="EX4" s="68" t="str">
+      <c r="EQ4" s="52"/>
+      <c r="ER4" s="52"/>
+      <c r="ES4" s="52"/>
+      <c r="ET4" s="52"/>
+      <c r="EU4" s="52"/>
+      <c r="EV4" s="52"/>
+      <c r="EW4" s="53"/>
+      <c r="EX4" s="51" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="69"/>
-      <c r="EZ4" s="69"/>
-      <c r="FA4" s="69"/>
-      <c r="FB4" s="69"/>
-      <c r="FC4" s="69"/>
-      <c r="FD4" s="69"/>
-      <c r="FE4" s="70"/>
-      <c r="FF4" s="68" t="str">
+      <c r="EY4" s="52"/>
+      <c r="EZ4" s="52"/>
+      <c r="FA4" s="52"/>
+      <c r="FB4" s="52"/>
+      <c r="FC4" s="52"/>
+      <c r="FD4" s="52"/>
+      <c r="FE4" s="53"/>
+      <c r="FF4" s="51" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="69"/>
-      <c r="FH4" s="69"/>
-      <c r="FI4" s="69"/>
-      <c r="FJ4" s="69"/>
-      <c r="FK4" s="69"/>
-      <c r="FL4" s="69"/>
-      <c r="FM4" s="70"/>
-      <c r="FN4" s="68" t="str">
+      <c r="FG4" s="52"/>
+      <c r="FH4" s="52"/>
+      <c r="FI4" s="52"/>
+      <c r="FJ4" s="52"/>
+      <c r="FK4" s="52"/>
+      <c r="FL4" s="52"/>
+      <c r="FM4" s="53"/>
+      <c r="FN4" s="51" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="69"/>
-      <c r="FP4" s="69"/>
-      <c r="FQ4" s="69"/>
-      <c r="FR4" s="69"/>
-      <c r="FS4" s="69"/>
-      <c r="FT4" s="69"/>
-      <c r="FU4" s="70"/>
-      <c r="FV4" s="68" t="str">
+      <c r="FO4" s="52"/>
+      <c r="FP4" s="52"/>
+      <c r="FQ4" s="52"/>
+      <c r="FR4" s="52"/>
+      <c r="FS4" s="52"/>
+      <c r="FT4" s="52"/>
+      <c r="FU4" s="53"/>
+      <c r="FV4" s="51" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="69"/>
-      <c r="FX4" s="69"/>
-      <c r="FY4" s="69"/>
-      <c r="FZ4" s="69"/>
-      <c r="GA4" s="69"/>
-      <c r="GB4" s="69"/>
-      <c r="GC4" s="69"/>
-      <c r="GD4" s="69"/>
-      <c r="GE4" s="69"/>
-      <c r="GF4" s="69"/>
-      <c r="GG4" s="69"/>
-      <c r="GH4" s="69"/>
-      <c r="GI4" s="69"/>
-      <c r="GJ4" s="69"/>
-      <c r="GK4" s="70"/>
-      <c r="GL4" s="68" t="str">
+      <c r="FW4" s="52"/>
+      <c r="FX4" s="52"/>
+      <c r="FY4" s="52"/>
+      <c r="FZ4" s="52"/>
+      <c r="GA4" s="52"/>
+      <c r="GB4" s="52"/>
+      <c r="GC4" s="52"/>
+      <c r="GD4" s="52"/>
+      <c r="GE4" s="52"/>
+      <c r="GF4" s="52"/>
+      <c r="GG4" s="52"/>
+      <c r="GH4" s="52"/>
+      <c r="GI4" s="52"/>
+      <c r="GJ4" s="52"/>
+      <c r="GK4" s="53"/>
+      <c r="GL4" s="51" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="69"/>
-      <c r="GN4" s="69"/>
-      <c r="GO4" s="69"/>
-      <c r="GP4" s="69"/>
-      <c r="GQ4" s="69"/>
-      <c r="GR4" s="69"/>
-      <c r="GS4" s="70"/>
-      <c r="GT4" s="68" t="str">
+      <c r="GM4" s="52"/>
+      <c r="GN4" s="52"/>
+      <c r="GO4" s="52"/>
+      <c r="GP4" s="52"/>
+      <c r="GQ4" s="52"/>
+      <c r="GR4" s="52"/>
+      <c r="GS4" s="53"/>
+      <c r="GT4" s="51" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="69"/>
-      <c r="GV4" s="69"/>
-      <c r="GW4" s="69"/>
-      <c r="GX4" s="69"/>
-      <c r="GY4" s="69"/>
-      <c r="GZ4" s="69"/>
-      <c r="HA4" s="70"/>
-      <c r="HB4" s="68" t="str">
+      <c r="GU4" s="52"/>
+      <c r="GV4" s="52"/>
+      <c r="GW4" s="52"/>
+      <c r="GX4" s="52"/>
+      <c r="GY4" s="52"/>
+      <c r="GZ4" s="52"/>
+      <c r="HA4" s="53"/>
+      <c r="HB4" s="51" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="69"/>
-      <c r="HD4" s="69"/>
-      <c r="HE4" s="69"/>
-      <c r="HF4" s="69"/>
-      <c r="HG4" s="69"/>
-      <c r="HH4" s="69"/>
-      <c r="HI4" s="70"/>
+      <c r="HC4" s="52"/>
+      <c r="HD4" s="52"/>
+      <c r="HE4" s="52"/>
+      <c r="HF4" s="52"/>
+      <c r="HG4" s="52"/>
+      <c r="HH4" s="52"/>
+      <c r="HI4" s="53"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
@@ -4359,216 +4365,216 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="105" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="77" t="s">
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="78"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="77" t="s">
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="78"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="80" t="s">
+      <c r="V7" s="49"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="77" t="s">
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="77" t="s">
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="79"/>
-      <c r="AR7" s="77" t="s">
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="79"/>
-      <c r="AX7" s="77" t="s">
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="78"/>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="78"/>
-      <c r="BF7" s="78"/>
-      <c r="BG7" s="79"/>
-      <c r="BH7" s="77" t="s">
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="78"/>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="79"/>
-      <c r="BN7" s="77" t="s">
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="50"/>
+      <c r="BN7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="78"/>
-      <c r="BP7" s="78"/>
-      <c r="BQ7" s="78"/>
-      <c r="BR7" s="78"/>
-      <c r="BS7" s="78"/>
-      <c r="BT7" s="78"/>
-      <c r="BU7" s="79"/>
-      <c r="BV7" s="77" t="s">
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="49"/>
+      <c r="BU7" s="50"/>
+      <c r="BV7" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="BW7" s="78"/>
-      <c r="BX7" s="78"/>
-      <c r="BY7" s="78"/>
-      <c r="BZ7" s="78"/>
-      <c r="CA7" s="78"/>
-      <c r="CB7" s="78"/>
-      <c r="CC7" s="79"/>
-      <c r="CD7" s="74" t="s">
+      <c r="BW7" s="49"/>
+      <c r="BX7" s="49"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="49"/>
+      <c r="CB7" s="49"/>
+      <c r="CC7" s="50"/>
+      <c r="CD7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="75"/>
-      <c r="CF7" s="75"/>
-      <c r="CG7" s="75"/>
-      <c r="CH7" s="75"/>
-      <c r="CI7" s="75"/>
-      <c r="CJ7" s="75"/>
-      <c r="CK7" s="76"/>
-      <c r="CL7" s="74" t="s">
+      <c r="CE7" s="67"/>
+      <c r="CF7" s="67"/>
+      <c r="CG7" s="67"/>
+      <c r="CH7" s="67"/>
+      <c r="CI7" s="67"/>
+      <c r="CJ7" s="67"/>
+      <c r="CK7" s="68"/>
+      <c r="CL7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="CM7" s="75"/>
-      <c r="CN7" s="75"/>
-      <c r="CO7" s="76"/>
-      <c r="CP7" s="89" t="s">
+      <c r="CM7" s="67"/>
+      <c r="CN7" s="67"/>
+      <c r="CO7" s="68"/>
+      <c r="CP7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="90"/>
-      <c r="CR7" s="90"/>
-      <c r="CS7" s="90"/>
-      <c r="CT7" s="90"/>
-      <c r="CU7" s="90"/>
-      <c r="CV7" s="90"/>
-      <c r="CW7" s="91"/>
-      <c r="CX7" s="77" t="s">
+      <c r="CQ7" s="71"/>
+      <c r="CR7" s="71"/>
+      <c r="CS7" s="71"/>
+      <c r="CT7" s="71"/>
+      <c r="CU7" s="71"/>
+      <c r="CV7" s="71"/>
+      <c r="CW7" s="72"/>
+      <c r="CX7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="78"/>
-      <c r="CZ7" s="78"/>
-      <c r="DA7" s="79"/>
-      <c r="DB7" s="77" t="s">
+      <c r="CY7" s="49"/>
+      <c r="CZ7" s="49"/>
+      <c r="DA7" s="50"/>
+      <c r="DB7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="DC7" s="79"/>
+      <c r="DC7" s="50"/>
       <c r="DD7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="DE7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="DF7" s="74" t="s">
+      <c r="DF7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="DG7" s="75"/>
-      <c r="DH7" s="75"/>
-      <c r="DI7" s="75"/>
-      <c r="DJ7" s="75"/>
-      <c r="DK7" s="75"/>
-      <c r="DL7" s="75"/>
-      <c r="DM7" s="76"/>
-      <c r="DN7" s="74" t="s">
+      <c r="DG7" s="67"/>
+      <c r="DH7" s="67"/>
+      <c r="DI7" s="67"/>
+      <c r="DJ7" s="67"/>
+      <c r="DK7" s="67"/>
+      <c r="DL7" s="67"/>
+      <c r="DM7" s="68"/>
+      <c r="DN7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="DO7" s="75"/>
-      <c r="DP7" s="75"/>
-      <c r="DQ7" s="76"/>
-      <c r="DR7" s="96" t="s">
+      <c r="DO7" s="67"/>
+      <c r="DP7" s="67"/>
+      <c r="DQ7" s="68"/>
+      <c r="DR7" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="DS7" s="97"/>
-      <c r="DT7" s="97"/>
-      <c r="DU7" s="98"/>
-      <c r="DV7" s="96" t="s">
+      <c r="DS7" s="84"/>
+      <c r="DT7" s="84"/>
+      <c r="DU7" s="85"/>
+      <c r="DV7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="DW7" s="97"/>
-      <c r="DX7" s="97"/>
-      <c r="DY7" s="97"/>
-      <c r="DZ7" s="97"/>
-      <c r="EA7" s="98"/>
-      <c r="EB7" s="96" t="s">
+      <c r="DW7" s="84"/>
+      <c r="DX7" s="84"/>
+      <c r="DY7" s="84"/>
+      <c r="DZ7" s="84"/>
+      <c r="EA7" s="85"/>
+      <c r="EB7" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="EC7" s="97"/>
-      <c r="ED7" s="97"/>
-      <c r="EE7" s="97"/>
-      <c r="EF7" s="97"/>
-      <c r="EG7" s="98"/>
-      <c r="EH7" s="68" t="s">
+      <c r="EC7" s="84"/>
+      <c r="ED7" s="84"/>
+      <c r="EE7" s="84"/>
+      <c r="EF7" s="84"/>
+      <c r="EG7" s="85"/>
+      <c r="EH7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="EI7" s="69"/>
-      <c r="EJ7" s="69"/>
-      <c r="EK7" s="69"/>
-      <c r="EL7" s="69"/>
-      <c r="EM7" s="69"/>
-      <c r="EN7" s="69"/>
-      <c r="EO7" s="70"/>
-      <c r="EP7" s="89" t="s">
+      <c r="EI7" s="52"/>
+      <c r="EJ7" s="52"/>
+      <c r="EK7" s="52"/>
+      <c r="EL7" s="52"/>
+      <c r="EM7" s="52"/>
+      <c r="EN7" s="52"/>
+      <c r="EO7" s="53"/>
+      <c r="EP7" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="EQ7" s="90"/>
-      <c r="ER7" s="90"/>
-      <c r="ES7" s="90"/>
-      <c r="ET7" s="90"/>
-      <c r="EU7" s="90"/>
-      <c r="EV7" s="90"/>
-      <c r="EW7" s="91"/>
+      <c r="EQ7" s="71"/>
+      <c r="ER7" s="71"/>
+      <c r="ES7" s="71"/>
+      <c r="ET7" s="71"/>
+      <c r="EU7" s="71"/>
+      <c r="EV7" s="71"/>
+      <c r="EW7" s="72"/>
       <c r="EX7" s="29"/>
-      <c r="EY7" s="83" t="s">
+      <c r="EY7" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="EZ7" s="84"/>
-      <c r="FA7" s="84"/>
-      <c r="FB7" s="84"/>
-      <c r="FC7" s="84"/>
-      <c r="FD7" s="84"/>
-      <c r="FE7" s="85"/>
+      <c r="EZ7" s="93"/>
+      <c r="FA7" s="93"/>
+      <c r="FB7" s="93"/>
+      <c r="FC7" s="93"/>
+      <c r="FD7" s="93"/>
+      <c r="FE7" s="94"/>
       <c r="FF7" s="2" t="s">
         <v>73</v>
       </c>
@@ -4578,102 +4584,102 @@
       <c r="FH7" s="32"/>
       <c r="FI7" s="32"/>
       <c r="FJ7" s="33"/>
-      <c r="FK7" s="99" t="s">
+      <c r="FK7" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="FL7" s="100"/>
-      <c r="FM7" s="101"/>
-      <c r="FN7" s="102" t="s">
+      <c r="FL7" s="87"/>
+      <c r="FM7" s="88"/>
+      <c r="FN7" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="FO7" s="103"/>
-      <c r="FP7" s="103"/>
-      <c r="FQ7" s="103"/>
-      <c r="FR7" s="103"/>
-      <c r="FS7" s="103"/>
-      <c r="FT7" s="103"/>
-      <c r="FU7" s="104"/>
-      <c r="FV7" s="92" t="s">
+      <c r="FO7" s="90"/>
+      <c r="FP7" s="90"/>
+      <c r="FQ7" s="90"/>
+      <c r="FR7" s="90"/>
+      <c r="FS7" s="90"/>
+      <c r="FT7" s="90"/>
+      <c r="FU7" s="91"/>
+      <c r="FV7" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="FW7" s="93"/>
-      <c r="FX7" s="93"/>
-      <c r="FY7" s="93"/>
-      <c r="FZ7" s="93"/>
-      <c r="GA7" s="94"/>
-      <c r="GB7" s="92" t="s">
+      <c r="FW7" s="55"/>
+      <c r="FX7" s="55"/>
+      <c r="FY7" s="55"/>
+      <c r="FZ7" s="55"/>
+      <c r="GA7" s="56"/>
+      <c r="GB7" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="GC7" s="93"/>
-      <c r="GD7" s="93"/>
-      <c r="GE7" s="93"/>
-      <c r="GF7" s="93"/>
-      <c r="GG7" s="94"/>
-      <c r="GH7" s="68" t="s">
+      <c r="GC7" s="55"/>
+      <c r="GD7" s="55"/>
+      <c r="GE7" s="55"/>
+      <c r="GF7" s="55"/>
+      <c r="GG7" s="56"/>
+      <c r="GH7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="GI7" s="69"/>
-      <c r="GJ7" s="69"/>
-      <c r="GK7" s="70"/>
-      <c r="GL7" s="68" t="s">
+      <c r="GI7" s="52"/>
+      <c r="GJ7" s="52"/>
+      <c r="GK7" s="53"/>
+      <c r="GL7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="GM7" s="69"/>
-      <c r="GN7" s="70"/>
-      <c r="GO7" s="92" t="s">
+      <c r="GM7" s="52"/>
+      <c r="GN7" s="53"/>
+      <c r="GO7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="GP7" s="93"/>
-      <c r="GQ7" s="93"/>
-      <c r="GR7" s="93"/>
-      <c r="GS7" s="94"/>
+      <c r="GP7" s="55"/>
+      <c r="GQ7" s="55"/>
+      <c r="GR7" s="55"/>
+      <c r="GS7" s="56"/>
       <c r="GT7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="GU7" s="2"/>
-      <c r="GV7" s="68" t="s">
+      <c r="GV7" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="GW7" s="69"/>
-      <c r="GX7" s="69"/>
-      <c r="GY7" s="69"/>
-      <c r="GZ7" s="69"/>
-      <c r="HA7" s="70"/>
-      <c r="HB7" s="92" t="s">
+      <c r="GW7" s="52"/>
+      <c r="GX7" s="52"/>
+      <c r="GY7" s="52"/>
+      <c r="GZ7" s="52"/>
+      <c r="HA7" s="53"/>
+      <c r="HB7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="HC7" s="93"/>
-      <c r="HD7" s="93"/>
-      <c r="HE7" s="93"/>
-      <c r="HF7" s="93"/>
-      <c r="HG7" s="93"/>
-      <c r="HH7" s="93"/>
-      <c r="HI7" s="94"/>
+      <c r="HC7" s="55"/>
+      <c r="HD7" s="55"/>
+      <c r="HE7" s="55"/>
+      <c r="HF7" s="55"/>
+      <c r="HG7" s="55"/>
+      <c r="HH7" s="55"/>
+      <c r="HI7" s="56"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
       <c r="R8" t="s">
         <v>151</v>
       </c>
       <c r="U8" t="s">
         <v>150</v>
       </c>
-      <c r="X8" s="83">
+      <c r="X8" s="92">
         <v>380</v>
       </c>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="85"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="94"/>
       <c r="AD8" t="s">
         <v>142</v>
       </c>
@@ -4692,60 +4698,60 @@
       <c r="BJ8" t="s">
         <v>153</v>
       </c>
-      <c r="CL8" s="95" t="s">
+      <c r="CL8" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="CM8" s="95"/>
-      <c r="CN8" s="95"/>
-      <c r="CO8" s="95"/>
-      <c r="CP8" s="95"/>
-      <c r="CQ8" s="95"/>
-      <c r="CR8" s="95"/>
-      <c r="CS8" s="95"/>
-      <c r="CT8" s="95"/>
-      <c r="CU8" s="95"/>
-      <c r="CV8" s="95"/>
-      <c r="CW8" s="95"/>
-      <c r="CX8" s="95"/>
-      <c r="CY8" s="95"/>
-      <c r="CZ8" s="95"/>
-      <c r="DA8" s="95"/>
-      <c r="DB8" s="95" t="s">
+      <c r="CM8" s="82"/>
+      <c r="CN8" s="82"/>
+      <c r="CO8" s="82"/>
+      <c r="CP8" s="82"/>
+      <c r="CQ8" s="82"/>
+      <c r="CR8" s="82"/>
+      <c r="CS8" s="82"/>
+      <c r="CT8" s="82"/>
+      <c r="CU8" s="82"/>
+      <c r="CV8" s="82"/>
+      <c r="CW8" s="82"/>
+      <c r="CX8" s="82"/>
+      <c r="CY8" s="82"/>
+      <c r="CZ8" s="82"/>
+      <c r="DA8" s="82"/>
+      <c r="DB8" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="DC8" s="95"/>
-      <c r="DD8" s="95"/>
-      <c r="DE8" s="95"/>
-      <c r="DF8" s="95"/>
-      <c r="DG8" s="95"/>
-      <c r="DH8" s="95"/>
-      <c r="DI8" s="95"/>
-      <c r="DJ8" s="95"/>
-      <c r="DK8" s="95"/>
-      <c r="DL8" s="95"/>
-      <c r="DM8" s="95"/>
-      <c r="DN8" s="95"/>
-      <c r="DO8" s="95"/>
-      <c r="DP8" s="95"/>
-      <c r="DQ8" s="95"/>
-      <c r="DR8" s="95" t="s">
+      <c r="DC8" s="82"/>
+      <c r="DD8" s="82"/>
+      <c r="DE8" s="82"/>
+      <c r="DF8" s="82"/>
+      <c r="DG8" s="82"/>
+      <c r="DH8" s="82"/>
+      <c r="DI8" s="82"/>
+      <c r="DJ8" s="82"/>
+      <c r="DK8" s="82"/>
+      <c r="DL8" s="82"/>
+      <c r="DM8" s="82"/>
+      <c r="DN8" s="82"/>
+      <c r="DO8" s="82"/>
+      <c r="DP8" s="82"/>
+      <c r="DQ8" s="82"/>
+      <c r="DR8" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="DS8" s="95"/>
-      <c r="DT8" s="95"/>
-      <c r="DU8" s="95"/>
-      <c r="DV8" s="95"/>
-      <c r="DW8" s="95"/>
-      <c r="DX8" s="95"/>
-      <c r="DY8" s="95"/>
-      <c r="DZ8" s="95"/>
-      <c r="EA8" s="95"/>
-      <c r="EB8" s="95"/>
-      <c r="EC8" s="95"/>
-      <c r="ED8" s="95"/>
-      <c r="EE8" s="95"/>
-      <c r="EF8" s="95"/>
-      <c r="EG8" s="95"/>
+      <c r="DS8" s="82"/>
+      <c r="DT8" s="82"/>
+      <c r="DU8" s="82"/>
+      <c r="DV8" s="82"/>
+      <c r="DW8" s="82"/>
+      <c r="DX8" s="82"/>
+      <c r="DY8" s="82"/>
+      <c r="DZ8" s="82"/>
+      <c r="EA8" s="82"/>
+      <c r="EB8" s="82"/>
+      <c r="EC8" s="82"/>
+      <c r="ED8" s="82"/>
+      <c r="EE8" s="82"/>
+      <c r="EF8" s="82"/>
+      <c r="EG8" s="82"/>
       <c r="FH8" t="s">
         <v>143</v>
       </c>
@@ -4768,184 +4774,184 @@
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="59" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="50" t="s">
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="50" t="s">
+      <c r="S9" s="74"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="50" t="s">
+      <c r="V9" s="74"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="50" t="s">
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="50" t="s">
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="50" t="s">
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="52"/>
-      <c r="AX9" s="51" t="s">
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="AY9" s="51"/>
-      <c r="AZ9" s="51"/>
-      <c r="BA9" s="51"/>
-      <c r="BB9" s="51"/>
-      <c r="BC9" s="51"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="51"/>
-      <c r="BF9" s="51"/>
-      <c r="BG9" s="52"/>
-      <c r="BH9" s="50" t="s">
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="74"/>
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="BI9" s="51"/>
-      <c r="BJ9" s="51"/>
-      <c r="BK9" s="51"/>
-      <c r="BL9" s="51"/>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="59" t="s">
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="74"/>
+      <c r="BK9" s="74"/>
+      <c r="BL9" s="74"/>
+      <c r="BM9" s="75"/>
+      <c r="BN9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="BO9" s="60"/>
-      <c r="BP9" s="60"/>
-      <c r="BQ9" s="60"/>
-      <c r="BR9" s="60"/>
-      <c r="BS9" s="60"/>
-      <c r="BT9" s="60"/>
-      <c r="BU9" s="61"/>
-      <c r="BV9" s="50" t="s">
+      <c r="BO9" s="58"/>
+      <c r="BP9" s="58"/>
+      <c r="BQ9" s="58"/>
+      <c r="BR9" s="58"/>
+      <c r="BS9" s="58"/>
+      <c r="BT9" s="58"/>
+      <c r="BU9" s="59"/>
+      <c r="BV9" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="BW9" s="60"/>
-      <c r="BX9" s="60"/>
-      <c r="BY9" s="60"/>
-      <c r="BZ9" s="60"/>
-      <c r="CA9" s="60"/>
-      <c r="CB9" s="60"/>
-      <c r="CC9" s="61"/>
-      <c r="CD9" s="50" t="s">
+      <c r="BW9" s="58"/>
+      <c r="BX9" s="58"/>
+      <c r="BY9" s="58"/>
+      <c r="BZ9" s="58"/>
+      <c r="CA9" s="58"/>
+      <c r="CB9" s="58"/>
+      <c r="CC9" s="59"/>
+      <c r="CD9" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="CE9" s="60"/>
-      <c r="CF9" s="60"/>
-      <c r="CG9" s="60"/>
-      <c r="CH9" s="60"/>
-      <c r="CI9" s="60"/>
-      <c r="CJ9" s="60"/>
-      <c r="CK9" s="61"/>
-      <c r="CL9" s="50" t="s">
+      <c r="CE9" s="58"/>
+      <c r="CF9" s="58"/>
+      <c r="CG9" s="58"/>
+      <c r="CH9" s="58"/>
+      <c r="CI9" s="58"/>
+      <c r="CJ9" s="58"/>
+      <c r="CK9" s="59"/>
+      <c r="CL9" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="CM9" s="60"/>
-      <c r="CN9" s="60"/>
-      <c r="CO9" s="60"/>
-      <c r="CP9" s="60"/>
-      <c r="CQ9" s="60"/>
-      <c r="CR9" s="60"/>
-      <c r="CS9" s="60"/>
-      <c r="CT9" s="60"/>
-      <c r="CU9" s="60"/>
-      <c r="CV9" s="60"/>
-      <c r="CW9" s="60"/>
-      <c r="CX9" s="60"/>
-      <c r="CY9" s="60"/>
-      <c r="CZ9" s="60"/>
-      <c r="DA9" s="61"/>
-      <c r="DB9" s="50" t="s">
+      <c r="CM9" s="58"/>
+      <c r="CN9" s="58"/>
+      <c r="CO9" s="58"/>
+      <c r="CP9" s="58"/>
+      <c r="CQ9" s="58"/>
+      <c r="CR9" s="58"/>
+      <c r="CS9" s="58"/>
+      <c r="CT9" s="58"/>
+      <c r="CU9" s="58"/>
+      <c r="CV9" s="58"/>
+      <c r="CW9" s="58"/>
+      <c r="CX9" s="58"/>
+      <c r="CY9" s="58"/>
+      <c r="CZ9" s="58"/>
+      <c r="DA9" s="59"/>
+      <c r="DB9" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="DC9" s="51"/>
-      <c r="DD9" s="51"/>
-      <c r="DE9" s="51"/>
-      <c r="DF9" s="51"/>
-      <c r="DG9" s="51"/>
-      <c r="DH9" s="51"/>
-      <c r="DI9" s="51"/>
-      <c r="DJ9" s="51"/>
-      <c r="DK9" s="51"/>
-      <c r="DL9" s="51"/>
-      <c r="DM9" s="51"/>
-      <c r="DN9" s="51"/>
-      <c r="DO9" s="51"/>
-      <c r="DP9" s="51"/>
-      <c r="DQ9" s="52"/>
-      <c r="DR9" s="50" t="s">
+      <c r="DC9" s="74"/>
+      <c r="DD9" s="74"/>
+      <c r="DE9" s="74"/>
+      <c r="DF9" s="74"/>
+      <c r="DG9" s="74"/>
+      <c r="DH9" s="74"/>
+      <c r="DI9" s="74"/>
+      <c r="DJ9" s="74"/>
+      <c r="DK9" s="74"/>
+      <c r="DL9" s="74"/>
+      <c r="DM9" s="74"/>
+      <c r="DN9" s="74"/>
+      <c r="DO9" s="74"/>
+      <c r="DP9" s="74"/>
+      <c r="DQ9" s="75"/>
+      <c r="DR9" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="DS9" s="51"/>
-      <c r="DT9" s="51"/>
-      <c r="DU9" s="51"/>
-      <c r="DV9" s="51"/>
-      <c r="DW9" s="51"/>
-      <c r="DX9" s="51"/>
-      <c r="DY9" s="51"/>
-      <c r="DZ9" s="51"/>
-      <c r="EA9" s="51"/>
-      <c r="EB9" s="51"/>
-      <c r="EC9" s="51"/>
-      <c r="ED9" s="51"/>
-      <c r="EE9" s="51"/>
-      <c r="EF9" s="51"/>
-      <c r="EG9" s="52"/>
-      <c r="EP9" s="50" t="s">
+      <c r="DS9" s="74"/>
+      <c r="DT9" s="74"/>
+      <c r="DU9" s="74"/>
+      <c r="DV9" s="74"/>
+      <c r="DW9" s="74"/>
+      <c r="DX9" s="74"/>
+      <c r="DY9" s="74"/>
+      <c r="DZ9" s="74"/>
+      <c r="EA9" s="74"/>
+      <c r="EB9" s="74"/>
+      <c r="EC9" s="74"/>
+      <c r="ED9" s="74"/>
+      <c r="EE9" s="74"/>
+      <c r="EF9" s="74"/>
+      <c r="EG9" s="75"/>
+      <c r="EP9" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="EQ9" s="51"/>
-      <c r="ER9" s="51"/>
-      <c r="ES9" s="51"/>
-      <c r="ET9" s="51"/>
-      <c r="EU9" s="51"/>
-      <c r="EV9" s="51"/>
-      <c r="EW9" s="52"/>
+      <c r="EQ9" s="74"/>
+      <c r="ER9" s="74"/>
+      <c r="ES9" s="74"/>
+      <c r="ET9" s="74"/>
+      <c r="EU9" s="74"/>
+      <c r="EV9" s="74"/>
+      <c r="EW9" s="75"/>
       <c r="EX9" s="21"/>
       <c r="EY9" s="21"/>
       <c r="EZ9" s="22"/>
@@ -4967,189 +4973,189 @@
       <c r="FS9" s="17"/>
       <c r="FT9" s="17"/>
       <c r="FU9" s="41"/>
-      <c r="FV9" s="51" t="s">
+      <c r="FV9" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="FW9" s="60"/>
-      <c r="FX9" s="60"/>
-      <c r="FY9" s="60"/>
-      <c r="FZ9" s="60"/>
-      <c r="GA9" s="61"/>
-      <c r="GB9" s="50" t="s">
+      <c r="FW9" s="58"/>
+      <c r="FX9" s="58"/>
+      <c r="FY9" s="58"/>
+      <c r="FZ9" s="58"/>
+      <c r="GA9" s="59"/>
+      <c r="GB9" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="GC9" s="60"/>
-      <c r="GD9" s="60"/>
-      <c r="GE9" s="60"/>
-      <c r="GF9" s="60"/>
-      <c r="GG9" s="61"/>
-      <c r="GT9" s="50" t="s">
+      <c r="GC9" s="58"/>
+      <c r="GD9" s="58"/>
+      <c r="GE9" s="58"/>
+      <c r="GF9" s="58"/>
+      <c r="GG9" s="59"/>
+      <c r="GT9" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="GU9" s="51"/>
-      <c r="GV9" s="51"/>
-      <c r="GW9" s="51"/>
-      <c r="GX9" s="51"/>
-      <c r="GY9" s="51"/>
-      <c r="GZ9" s="51"/>
-      <c r="HA9" s="52"/>
-      <c r="HB9" s="50" t="s">
+      <c r="GU9" s="74"/>
+      <c r="GV9" s="74"/>
+      <c r="GW9" s="74"/>
+      <c r="GX9" s="74"/>
+      <c r="GY9" s="74"/>
+      <c r="GZ9" s="74"/>
+      <c r="HA9" s="75"/>
+      <c r="HB9" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="HC9" s="51"/>
-      <c r="HD9" s="51"/>
-      <c r="HE9" s="51"/>
-      <c r="HF9" s="51"/>
-      <c r="HG9" s="51"/>
-      <c r="HH9" s="51"/>
-      <c r="HI9" s="52"/>
+      <c r="HC9" s="74"/>
+      <c r="HD9" s="74"/>
+      <c r="HE9" s="74"/>
+      <c r="HF9" s="74"/>
+      <c r="HG9" s="74"/>
+      <c r="HH9" s="74"/>
+      <c r="HI9" s="75"/>
     </row>
     <row r="10" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="55"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="55"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
-      <c r="AZ10" s="54"/>
-      <c r="BA10" s="54"/>
-      <c r="BB10" s="54"/>
-      <c r="BC10" s="54"/>
-      <c r="BD10" s="54"/>
-      <c r="BE10" s="54"/>
-      <c r="BF10" s="54"/>
-      <c r="BG10" s="55"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="54"/>
-      <c r="BJ10" s="54"/>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="55"/>
-      <c r="BN10" s="62"/>
-      <c r="BO10" s="63"/>
-      <c r="BP10" s="63"/>
-      <c r="BQ10" s="63"/>
-      <c r="BR10" s="63"/>
-      <c r="BS10" s="63"/>
-      <c r="BT10" s="63"/>
-      <c r="BU10" s="64"/>
-      <c r="BV10" s="62"/>
-      <c r="BW10" s="63"/>
-      <c r="BX10" s="63"/>
-      <c r="BY10" s="63"/>
-      <c r="BZ10" s="63"/>
-      <c r="CA10" s="63"/>
-      <c r="CB10" s="63"/>
-      <c r="CC10" s="64"/>
-      <c r="CD10" s="62"/>
-      <c r="CE10" s="63"/>
-      <c r="CF10" s="63"/>
-      <c r="CG10" s="63"/>
-      <c r="CH10" s="63"/>
-      <c r="CI10" s="63"/>
-      <c r="CJ10" s="63"/>
-      <c r="CK10" s="64"/>
-      <c r="CL10" s="62"/>
-      <c r="CM10" s="63"/>
-      <c r="CN10" s="63"/>
-      <c r="CO10" s="63"/>
-      <c r="CP10" s="63"/>
-      <c r="CQ10" s="63"/>
-      <c r="CR10" s="63"/>
-      <c r="CS10" s="63"/>
-      <c r="CT10" s="63"/>
-      <c r="CU10" s="63"/>
-      <c r="CV10" s="63"/>
-      <c r="CW10" s="63"/>
-      <c r="CX10" s="63"/>
-      <c r="CY10" s="63"/>
-      <c r="CZ10" s="63"/>
-      <c r="DA10" s="64"/>
-      <c r="DB10" s="53"/>
-      <c r="DC10" s="54"/>
-      <c r="DD10" s="54"/>
-      <c r="DE10" s="54"/>
-      <c r="DF10" s="54"/>
-      <c r="DG10" s="54"/>
-      <c r="DH10" s="54"/>
-      <c r="DI10" s="54"/>
-      <c r="DJ10" s="54"/>
-      <c r="DK10" s="54"/>
-      <c r="DL10" s="54"/>
-      <c r="DM10" s="54"/>
-      <c r="DN10" s="54"/>
-      <c r="DO10" s="54"/>
-      <c r="DP10" s="54"/>
-      <c r="DQ10" s="55"/>
-      <c r="DR10" s="53"/>
-      <c r="DS10" s="54"/>
-      <c r="DT10" s="54"/>
-      <c r="DU10" s="54"/>
-      <c r="DV10" s="54"/>
-      <c r="DW10" s="54"/>
-      <c r="DX10" s="54"/>
-      <c r="DY10" s="54"/>
-      <c r="DZ10" s="54"/>
-      <c r="EA10" s="54"/>
-      <c r="EB10" s="54"/>
-      <c r="EC10" s="54"/>
-      <c r="ED10" s="54"/>
-      <c r="EE10" s="54"/>
-      <c r="EF10" s="54"/>
-      <c r="EG10" s="55"/>
-      <c r="EP10" s="53"/>
-      <c r="EQ10" s="54"/>
-      <c r="ER10" s="54"/>
-      <c r="ES10" s="54"/>
-      <c r="ET10" s="54"/>
-      <c r="EU10" s="54"/>
-      <c r="EV10" s="54"/>
-      <c r="EW10" s="55"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="77"/>
+      <c r="BK10" s="77"/>
+      <c r="BL10" s="77"/>
+      <c r="BM10" s="78"/>
+      <c r="BN10" s="60"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="61"/>
+      <c r="BS10" s="61"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="62"/>
+      <c r="BV10" s="60"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="61"/>
+      <c r="BZ10" s="61"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="62"/>
+      <c r="CD10" s="60"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="61"/>
+      <c r="CG10" s="61"/>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="61"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="62"/>
+      <c r="CL10" s="60"/>
+      <c r="CM10" s="61"/>
+      <c r="CN10" s="61"/>
+      <c r="CO10" s="61"/>
+      <c r="CP10" s="61"/>
+      <c r="CQ10" s="61"/>
+      <c r="CR10" s="61"/>
+      <c r="CS10" s="61"/>
+      <c r="CT10" s="61"/>
+      <c r="CU10" s="61"/>
+      <c r="CV10" s="61"/>
+      <c r="CW10" s="61"/>
+      <c r="CX10" s="61"/>
+      <c r="CY10" s="61"/>
+      <c r="CZ10" s="61"/>
+      <c r="DA10" s="62"/>
+      <c r="DB10" s="76"/>
+      <c r="DC10" s="77"/>
+      <c r="DD10" s="77"/>
+      <c r="DE10" s="77"/>
+      <c r="DF10" s="77"/>
+      <c r="DG10" s="77"/>
+      <c r="DH10" s="77"/>
+      <c r="DI10" s="77"/>
+      <c r="DJ10" s="77"/>
+      <c r="DK10" s="77"/>
+      <c r="DL10" s="77"/>
+      <c r="DM10" s="77"/>
+      <c r="DN10" s="77"/>
+      <c r="DO10" s="77"/>
+      <c r="DP10" s="77"/>
+      <c r="DQ10" s="78"/>
+      <c r="DR10" s="76"/>
+      <c r="DS10" s="77"/>
+      <c r="DT10" s="77"/>
+      <c r="DU10" s="77"/>
+      <c r="DV10" s="77"/>
+      <c r="DW10" s="77"/>
+      <c r="DX10" s="77"/>
+      <c r="DY10" s="77"/>
+      <c r="DZ10" s="77"/>
+      <c r="EA10" s="77"/>
+      <c r="EB10" s="77"/>
+      <c r="EC10" s="77"/>
+      <c r="ED10" s="77"/>
+      <c r="EE10" s="77"/>
+      <c r="EF10" s="77"/>
+      <c r="EG10" s="78"/>
+      <c r="EP10" s="76"/>
+      <c r="EQ10" s="77"/>
+      <c r="ER10" s="77"/>
+      <c r="ES10" s="77"/>
+      <c r="ET10" s="77"/>
+      <c r="EU10" s="77"/>
+      <c r="EV10" s="77"/>
+      <c r="EW10" s="78"/>
       <c r="EX10" s="24"/>
       <c r="EY10" s="24"/>
       <c r="EZ10" s="14"/>
@@ -5169,181 +5175,181 @@
       <c r="FS10" s="15"/>
       <c r="FT10" s="15"/>
       <c r="FU10" s="44"/>
-      <c r="FV10" s="63"/>
-      <c r="FW10" s="63"/>
-      <c r="FX10" s="63"/>
-      <c r="FY10" s="63"/>
-      <c r="FZ10" s="63"/>
-      <c r="GA10" s="64"/>
-      <c r="GB10" s="62"/>
-      <c r="GC10" s="63"/>
-      <c r="GD10" s="63"/>
-      <c r="GE10" s="63"/>
-      <c r="GF10" s="63"/>
-      <c r="GG10" s="64"/>
-      <c r="GT10" s="53"/>
-      <c r="GU10" s="54"/>
-      <c r="GV10" s="54"/>
-      <c r="GW10" s="54"/>
-      <c r="GX10" s="54"/>
-      <c r="GY10" s="54"/>
-      <c r="GZ10" s="54"/>
-      <c r="HA10" s="55"/>
-      <c r="HB10" s="53"/>
-      <c r="HC10" s="54"/>
-      <c r="HD10" s="54"/>
-      <c r="HE10" s="54"/>
-      <c r="HF10" s="54"/>
-      <c r="HG10" s="54"/>
-      <c r="HH10" s="54"/>
-      <c r="HI10" s="55"/>
+      <c r="FV10" s="61"/>
+      <c r="FW10" s="61"/>
+      <c r="FX10" s="61"/>
+      <c r="FY10" s="61"/>
+      <c r="FZ10" s="61"/>
+      <c r="GA10" s="62"/>
+      <c r="GB10" s="60"/>
+      <c r="GC10" s="61"/>
+      <c r="GD10" s="61"/>
+      <c r="GE10" s="61"/>
+      <c r="GF10" s="61"/>
+      <c r="GG10" s="62"/>
+      <c r="GT10" s="76"/>
+      <c r="GU10" s="77"/>
+      <c r="GV10" s="77"/>
+      <c r="GW10" s="77"/>
+      <c r="GX10" s="77"/>
+      <c r="GY10" s="77"/>
+      <c r="GZ10" s="77"/>
+      <c r="HA10" s="78"/>
+      <c r="HB10" s="76"/>
+      <c r="HC10" s="77"/>
+      <c r="HD10" s="77"/>
+      <c r="HE10" s="77"/>
+      <c r="HF10" s="77"/>
+      <c r="HG10" s="77"/>
+      <c r="HH10" s="77"/>
+      <c r="HI10" s="78"/>
     </row>
     <row r="11" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="55"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="54"/>
-      <c r="BB11" s="54"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="54"/>
-      <c r="BE11" s="54"/>
-      <c r="BF11" s="54"/>
-      <c r="BG11" s="55"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="54"/>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="54"/>
-      <c r="BM11" s="55"/>
-      <c r="BN11" s="62"/>
-      <c r="BO11" s="63"/>
-      <c r="BP11" s="63"/>
-      <c r="BQ11" s="63"/>
-      <c r="BR11" s="63"/>
-      <c r="BS11" s="63"/>
-      <c r="BT11" s="63"/>
-      <c r="BU11" s="64"/>
-      <c r="BV11" s="62"/>
-      <c r="BW11" s="63"/>
-      <c r="BX11" s="63"/>
-      <c r="BY11" s="63"/>
-      <c r="BZ11" s="63"/>
-      <c r="CA11" s="63"/>
-      <c r="CB11" s="63"/>
-      <c r="CC11" s="64"/>
-      <c r="CD11" s="62"/>
-      <c r="CE11" s="63"/>
-      <c r="CF11" s="63"/>
-      <c r="CG11" s="63"/>
-      <c r="CH11" s="63"/>
-      <c r="CI11" s="63"/>
-      <c r="CJ11" s="63"/>
-      <c r="CK11" s="64"/>
-      <c r="CL11" s="62"/>
-      <c r="CM11" s="63"/>
-      <c r="CN11" s="63"/>
-      <c r="CO11" s="63"/>
-      <c r="CP11" s="63"/>
-      <c r="CQ11" s="63"/>
-      <c r="CR11" s="63"/>
-      <c r="CS11" s="63"/>
-      <c r="CT11" s="63"/>
-      <c r="CU11" s="63"/>
-      <c r="CV11" s="63"/>
-      <c r="CW11" s="63"/>
-      <c r="CX11" s="63"/>
-      <c r="CY11" s="63"/>
-      <c r="CZ11" s="63"/>
-      <c r="DA11" s="64"/>
-      <c r="DB11" s="53"/>
-      <c r="DC11" s="54"/>
-      <c r="DD11" s="54"/>
-      <c r="DE11" s="54"/>
-      <c r="DF11" s="54"/>
-      <c r="DG11" s="54"/>
-      <c r="DH11" s="54"/>
-      <c r="DI11" s="54"/>
-      <c r="DJ11" s="54"/>
-      <c r="DK11" s="54"/>
-      <c r="DL11" s="54"/>
-      <c r="DM11" s="54"/>
-      <c r="DN11" s="54"/>
-      <c r="DO11" s="54"/>
-      <c r="DP11" s="54"/>
-      <c r="DQ11" s="55"/>
-      <c r="DR11" s="53"/>
-      <c r="DS11" s="54"/>
-      <c r="DT11" s="54"/>
-      <c r="DU11" s="54"/>
-      <c r="DV11" s="54"/>
-      <c r="DW11" s="54"/>
-      <c r="DX11" s="54"/>
-      <c r="DY11" s="54"/>
-      <c r="DZ11" s="54"/>
-      <c r="EA11" s="54"/>
-      <c r="EB11" s="54"/>
-      <c r="EC11" s="54"/>
-      <c r="ED11" s="54"/>
-      <c r="EE11" s="54"/>
-      <c r="EF11" s="54"/>
-      <c r="EG11" s="55"/>
-      <c r="EP11" s="53"/>
-      <c r="EQ11" s="54"/>
-      <c r="ER11" s="54"/>
-      <c r="ES11" s="54"/>
-      <c r="ET11" s="54"/>
-      <c r="EU11" s="54"/>
-      <c r="EV11" s="54"/>
-      <c r="EW11" s="55"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="77"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="78"/>
+      <c r="BH11" s="76"/>
+      <c r="BI11" s="77"/>
+      <c r="BJ11" s="77"/>
+      <c r="BK11" s="77"/>
+      <c r="BL11" s="77"/>
+      <c r="BM11" s="78"/>
+      <c r="BN11" s="60"/>
+      <c r="BO11" s="61"/>
+      <c r="BP11" s="61"/>
+      <c r="BQ11" s="61"/>
+      <c r="BR11" s="61"/>
+      <c r="BS11" s="61"/>
+      <c r="BT11" s="61"/>
+      <c r="BU11" s="62"/>
+      <c r="BV11" s="60"/>
+      <c r="BW11" s="61"/>
+      <c r="BX11" s="61"/>
+      <c r="BY11" s="61"/>
+      <c r="BZ11" s="61"/>
+      <c r="CA11" s="61"/>
+      <c r="CB11" s="61"/>
+      <c r="CC11" s="62"/>
+      <c r="CD11" s="60"/>
+      <c r="CE11" s="61"/>
+      <c r="CF11" s="61"/>
+      <c r="CG11" s="61"/>
+      <c r="CH11" s="61"/>
+      <c r="CI11" s="61"/>
+      <c r="CJ11" s="61"/>
+      <c r="CK11" s="62"/>
+      <c r="CL11" s="60"/>
+      <c r="CM11" s="61"/>
+      <c r="CN11" s="61"/>
+      <c r="CO11" s="61"/>
+      <c r="CP11" s="61"/>
+      <c r="CQ11" s="61"/>
+      <c r="CR11" s="61"/>
+      <c r="CS11" s="61"/>
+      <c r="CT11" s="61"/>
+      <c r="CU11" s="61"/>
+      <c r="CV11" s="61"/>
+      <c r="CW11" s="61"/>
+      <c r="CX11" s="61"/>
+      <c r="CY11" s="61"/>
+      <c r="CZ11" s="61"/>
+      <c r="DA11" s="62"/>
+      <c r="DB11" s="76"/>
+      <c r="DC11" s="77"/>
+      <c r="DD11" s="77"/>
+      <c r="DE11" s="77"/>
+      <c r="DF11" s="77"/>
+      <c r="DG11" s="77"/>
+      <c r="DH11" s="77"/>
+      <c r="DI11" s="77"/>
+      <c r="DJ11" s="77"/>
+      <c r="DK11" s="77"/>
+      <c r="DL11" s="77"/>
+      <c r="DM11" s="77"/>
+      <c r="DN11" s="77"/>
+      <c r="DO11" s="77"/>
+      <c r="DP11" s="77"/>
+      <c r="DQ11" s="78"/>
+      <c r="DR11" s="76"/>
+      <c r="DS11" s="77"/>
+      <c r="DT11" s="77"/>
+      <c r="DU11" s="77"/>
+      <c r="DV11" s="77"/>
+      <c r="DW11" s="77"/>
+      <c r="DX11" s="77"/>
+      <c r="DY11" s="77"/>
+      <c r="DZ11" s="77"/>
+      <c r="EA11" s="77"/>
+      <c r="EB11" s="77"/>
+      <c r="EC11" s="77"/>
+      <c r="ED11" s="77"/>
+      <c r="EE11" s="77"/>
+      <c r="EF11" s="77"/>
+      <c r="EG11" s="78"/>
+      <c r="EP11" s="76"/>
+      <c r="EQ11" s="77"/>
+      <c r="ER11" s="77"/>
+      <c r="ES11" s="77"/>
+      <c r="ET11" s="77"/>
+      <c r="EU11" s="77"/>
+      <c r="EV11" s="77"/>
+      <c r="EW11" s="78"/>
       <c r="EX11" s="24"/>
       <c r="EY11" s="24"/>
       <c r="EZ11" s="14"/>
@@ -5360,187 +5366,187 @@
       <c r="FS11" s="15"/>
       <c r="FT11" s="15"/>
       <c r="FU11" s="44"/>
-      <c r="FV11" s="63"/>
-      <c r="FW11" s="63"/>
-      <c r="FX11" s="63"/>
-      <c r="FY11" s="63"/>
-      <c r="FZ11" s="63"/>
-      <c r="GA11" s="64"/>
-      <c r="GB11" s="62"/>
-      <c r="GC11" s="63"/>
-      <c r="GD11" s="63"/>
-      <c r="GE11" s="63"/>
-      <c r="GF11" s="63"/>
-      <c r="GG11" s="64"/>
+      <c r="FV11" s="61"/>
+      <c r="FW11" s="61"/>
+      <c r="FX11" s="61"/>
+      <c r="FY11" s="61"/>
+      <c r="FZ11" s="61"/>
+      <c r="GA11" s="62"/>
+      <c r="GB11" s="60"/>
+      <c r="GC11" s="61"/>
+      <c r="GD11" s="61"/>
+      <c r="GE11" s="61"/>
+      <c r="GF11" s="61"/>
+      <c r="GG11" s="62"/>
       <c r="GH11" t="s">
         <v>167</v>
       </c>
       <c r="GM11" t="s">
         <v>164</v>
       </c>
-      <c r="GT11" s="53"/>
-      <c r="GU11" s="54"/>
-      <c r="GV11" s="54"/>
-      <c r="GW11" s="54"/>
-      <c r="GX11" s="54"/>
-      <c r="GY11" s="54"/>
-      <c r="GZ11" s="54"/>
-      <c r="HA11" s="55"/>
-      <c r="HB11" s="53"/>
-      <c r="HC11" s="54"/>
-      <c r="HD11" s="54"/>
-      <c r="HE11" s="54"/>
-      <c r="HF11" s="54"/>
-      <c r="HG11" s="54"/>
-      <c r="HH11" s="54"/>
-      <c r="HI11" s="55"/>
+      <c r="GT11" s="76"/>
+      <c r="GU11" s="77"/>
+      <c r="GV11" s="77"/>
+      <c r="GW11" s="77"/>
+      <c r="GX11" s="77"/>
+      <c r="GY11" s="77"/>
+      <c r="GZ11" s="77"/>
+      <c r="HA11" s="78"/>
+      <c r="HB11" s="76"/>
+      <c r="HC11" s="77"/>
+      <c r="HD11" s="77"/>
+      <c r="HE11" s="77"/>
+      <c r="HF11" s="77"/>
+      <c r="HG11" s="77"/>
+      <c r="HH11" s="77"/>
+      <c r="HI11" s="78"/>
     </row>
     <row r="12" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="55"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="54"/>
-      <c r="BA12" s="54"/>
-      <c r="BB12" s="54"/>
-      <c r="BC12" s="54"/>
-      <c r="BD12" s="54"/>
-      <c r="BE12" s="54"/>
-      <c r="BF12" s="54"/>
-      <c r="BG12" s="55"/>
-      <c r="BH12" s="53"/>
-      <c r="BI12" s="54"/>
-      <c r="BJ12" s="54"/>
-      <c r="BK12" s="54"/>
-      <c r="BL12" s="54"/>
-      <c r="BM12" s="55"/>
-      <c r="BN12" s="62"/>
-      <c r="BO12" s="63"/>
-      <c r="BP12" s="63"/>
-      <c r="BQ12" s="63"/>
-      <c r="BR12" s="63"/>
-      <c r="BS12" s="63"/>
-      <c r="BT12" s="63"/>
-      <c r="BU12" s="64"/>
-      <c r="BV12" s="62"/>
-      <c r="BW12" s="63"/>
-      <c r="BX12" s="63"/>
-      <c r="BY12" s="63"/>
-      <c r="BZ12" s="63"/>
-      <c r="CA12" s="63"/>
-      <c r="CB12" s="63"/>
-      <c r="CC12" s="64"/>
-      <c r="CD12" s="62"/>
-      <c r="CE12" s="63"/>
-      <c r="CF12" s="63"/>
-      <c r="CG12" s="63"/>
-      <c r="CH12" s="63"/>
-      <c r="CI12" s="63"/>
-      <c r="CJ12" s="63"/>
-      <c r="CK12" s="64"/>
-      <c r="CL12" s="62"/>
-      <c r="CM12" s="63"/>
-      <c r="CN12" s="63"/>
-      <c r="CO12" s="63"/>
-      <c r="CP12" s="63"/>
-      <c r="CQ12" s="63"/>
-      <c r="CR12" s="63"/>
-      <c r="CS12" s="63"/>
-      <c r="CT12" s="63"/>
-      <c r="CU12" s="63"/>
-      <c r="CV12" s="63"/>
-      <c r="CW12" s="63"/>
-      <c r="CX12" s="63"/>
-      <c r="CY12" s="63"/>
-      <c r="CZ12" s="63"/>
-      <c r="DA12" s="64"/>
-      <c r="DB12" s="53"/>
-      <c r="DC12" s="54"/>
-      <c r="DD12" s="54"/>
-      <c r="DE12" s="54"/>
-      <c r="DF12" s="54"/>
-      <c r="DG12" s="54"/>
-      <c r="DH12" s="54"/>
-      <c r="DI12" s="54"/>
-      <c r="DJ12" s="54"/>
-      <c r="DK12" s="54"/>
-      <c r="DL12" s="54"/>
-      <c r="DM12" s="54"/>
-      <c r="DN12" s="54"/>
-      <c r="DO12" s="54"/>
-      <c r="DP12" s="54"/>
-      <c r="DQ12" s="55"/>
-      <c r="DR12" s="53"/>
-      <c r="DS12" s="54"/>
-      <c r="DT12" s="54"/>
-      <c r="DU12" s="54"/>
-      <c r="DV12" s="54"/>
-      <c r="DW12" s="54"/>
-      <c r="DX12" s="54"/>
-      <c r="DY12" s="54"/>
-      <c r="DZ12" s="54"/>
-      <c r="EA12" s="54"/>
-      <c r="EB12" s="54"/>
-      <c r="EC12" s="54"/>
-      <c r="ED12" s="54"/>
-      <c r="EE12" s="54"/>
-      <c r="EF12" s="54"/>
-      <c r="EG12" s="55"/>
-      <c r="EP12" s="53"/>
-      <c r="EQ12" s="54"/>
-      <c r="ER12" s="54"/>
-      <c r="ES12" s="54"/>
-      <c r="ET12" s="54"/>
-      <c r="EU12" s="54"/>
-      <c r="EV12" s="54"/>
-      <c r="EW12" s="55"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+      <c r="AZ12" s="77"/>
+      <c r="BA12" s="77"/>
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="77"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="77"/>
+      <c r="BJ12" s="77"/>
+      <c r="BK12" s="77"/>
+      <c r="BL12" s="77"/>
+      <c r="BM12" s="78"/>
+      <c r="BN12" s="60"/>
+      <c r="BO12" s="61"/>
+      <c r="BP12" s="61"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="61"/>
+      <c r="BS12" s="61"/>
+      <c r="BT12" s="61"/>
+      <c r="BU12" s="62"/>
+      <c r="BV12" s="60"/>
+      <c r="BW12" s="61"/>
+      <c r="BX12" s="61"/>
+      <c r="BY12" s="61"/>
+      <c r="BZ12" s="61"/>
+      <c r="CA12" s="61"/>
+      <c r="CB12" s="61"/>
+      <c r="CC12" s="62"/>
+      <c r="CD12" s="60"/>
+      <c r="CE12" s="61"/>
+      <c r="CF12" s="61"/>
+      <c r="CG12" s="61"/>
+      <c r="CH12" s="61"/>
+      <c r="CI12" s="61"/>
+      <c r="CJ12" s="61"/>
+      <c r="CK12" s="62"/>
+      <c r="CL12" s="60"/>
+      <c r="CM12" s="61"/>
+      <c r="CN12" s="61"/>
+      <c r="CO12" s="61"/>
+      <c r="CP12" s="61"/>
+      <c r="CQ12" s="61"/>
+      <c r="CR12" s="61"/>
+      <c r="CS12" s="61"/>
+      <c r="CT12" s="61"/>
+      <c r="CU12" s="61"/>
+      <c r="CV12" s="61"/>
+      <c r="CW12" s="61"/>
+      <c r="CX12" s="61"/>
+      <c r="CY12" s="61"/>
+      <c r="CZ12" s="61"/>
+      <c r="DA12" s="62"/>
+      <c r="DB12" s="76"/>
+      <c r="DC12" s="77"/>
+      <c r="DD12" s="77"/>
+      <c r="DE12" s="77"/>
+      <c r="DF12" s="77"/>
+      <c r="DG12" s="77"/>
+      <c r="DH12" s="77"/>
+      <c r="DI12" s="77"/>
+      <c r="DJ12" s="77"/>
+      <c r="DK12" s="77"/>
+      <c r="DL12" s="77"/>
+      <c r="DM12" s="77"/>
+      <c r="DN12" s="77"/>
+      <c r="DO12" s="77"/>
+      <c r="DP12" s="77"/>
+      <c r="DQ12" s="78"/>
+      <c r="DR12" s="76"/>
+      <c r="DS12" s="77"/>
+      <c r="DT12" s="77"/>
+      <c r="DU12" s="77"/>
+      <c r="DV12" s="77"/>
+      <c r="DW12" s="77"/>
+      <c r="DX12" s="77"/>
+      <c r="DY12" s="77"/>
+      <c r="DZ12" s="77"/>
+      <c r="EA12" s="77"/>
+      <c r="EB12" s="77"/>
+      <c r="EC12" s="77"/>
+      <c r="ED12" s="77"/>
+      <c r="EE12" s="77"/>
+      <c r="EF12" s="77"/>
+      <c r="EG12" s="78"/>
+      <c r="EP12" s="76"/>
+      <c r="EQ12" s="77"/>
+      <c r="ER12" s="77"/>
+      <c r="ES12" s="77"/>
+      <c r="ET12" s="77"/>
+      <c r="EU12" s="77"/>
+      <c r="EV12" s="77"/>
+      <c r="EW12" s="78"/>
       <c r="EX12" s="24"/>
       <c r="EY12" s="24"/>
       <c r="EZ12" s="14" t="s">
@@ -5559,184 +5565,184 @@
       <c r="FS12" s="15"/>
       <c r="FT12" s="15"/>
       <c r="FU12" s="44"/>
-      <c r="FV12" s="63"/>
-      <c r="FW12" s="63"/>
-      <c r="FX12" s="63"/>
-      <c r="FY12" s="63"/>
-      <c r="FZ12" s="63"/>
-      <c r="GA12" s="64"/>
-      <c r="GB12" s="62"/>
-      <c r="GC12" s="63"/>
-      <c r="GD12" s="63"/>
-      <c r="GE12" s="63"/>
-      <c r="GF12" s="63"/>
-      <c r="GG12" s="64"/>
+      <c r="FV12" s="61"/>
+      <c r="FW12" s="61"/>
+      <c r="FX12" s="61"/>
+      <c r="FY12" s="61"/>
+      <c r="FZ12" s="61"/>
+      <c r="GA12" s="62"/>
+      <c r="GB12" s="60"/>
+      <c r="GC12" s="61"/>
+      <c r="GD12" s="61"/>
+      <c r="GE12" s="61"/>
+      <c r="GF12" s="61"/>
+      <c r="GG12" s="62"/>
       <c r="GM12" t="s">
         <v>164</v>
       </c>
-      <c r="GT12" s="53"/>
-      <c r="GU12" s="54"/>
-      <c r="GV12" s="54"/>
-      <c r="GW12" s="54"/>
-      <c r="GX12" s="54"/>
-      <c r="GY12" s="54"/>
-      <c r="GZ12" s="54"/>
-      <c r="HA12" s="55"/>
-      <c r="HB12" s="53"/>
-      <c r="HC12" s="54"/>
-      <c r="HD12" s="54"/>
-      <c r="HE12" s="54"/>
-      <c r="HF12" s="54"/>
-      <c r="HG12" s="54"/>
-      <c r="HH12" s="54"/>
-      <c r="HI12" s="55"/>
+      <c r="GT12" s="76"/>
+      <c r="GU12" s="77"/>
+      <c r="GV12" s="77"/>
+      <c r="GW12" s="77"/>
+      <c r="GX12" s="77"/>
+      <c r="GY12" s="77"/>
+      <c r="GZ12" s="77"/>
+      <c r="HA12" s="78"/>
+      <c r="HB12" s="76"/>
+      <c r="HC12" s="77"/>
+      <c r="HD12" s="77"/>
+      <c r="HE12" s="77"/>
+      <c r="HF12" s="77"/>
+      <c r="HG12" s="77"/>
+      <c r="HH12" s="77"/>
+      <c r="HI12" s="78"/>
     </row>
     <row r="13" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="55"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="55"/>
-      <c r="BH13" s="53"/>
-      <c r="BI13" s="54"/>
-      <c r="BJ13" s="54"/>
-      <c r="BK13" s="54"/>
-      <c r="BL13" s="54"/>
-      <c r="BM13" s="55"/>
-      <c r="BN13" s="62"/>
-      <c r="BO13" s="63"/>
-      <c r="BP13" s="63"/>
-      <c r="BQ13" s="63"/>
-      <c r="BR13" s="63"/>
-      <c r="BS13" s="63"/>
-      <c r="BT13" s="63"/>
-      <c r="BU13" s="64"/>
-      <c r="BV13" s="62"/>
-      <c r="BW13" s="63"/>
-      <c r="BX13" s="63"/>
-      <c r="BY13" s="63"/>
-      <c r="BZ13" s="63"/>
-      <c r="CA13" s="63"/>
-      <c r="CB13" s="63"/>
-      <c r="CC13" s="64"/>
-      <c r="CD13" s="62"/>
-      <c r="CE13" s="63"/>
-      <c r="CF13" s="63"/>
-      <c r="CG13" s="63"/>
-      <c r="CH13" s="63"/>
-      <c r="CI13" s="63"/>
-      <c r="CJ13" s="63"/>
-      <c r="CK13" s="64"/>
-      <c r="CL13" s="62"/>
-      <c r="CM13" s="63"/>
-      <c r="CN13" s="63"/>
-      <c r="CO13" s="63"/>
-      <c r="CP13" s="63"/>
-      <c r="CQ13" s="63"/>
-      <c r="CR13" s="63"/>
-      <c r="CS13" s="63"/>
-      <c r="CT13" s="63"/>
-      <c r="CU13" s="63"/>
-      <c r="CV13" s="63"/>
-      <c r="CW13" s="63"/>
-      <c r="CX13" s="63"/>
-      <c r="CY13" s="63"/>
-      <c r="CZ13" s="63"/>
-      <c r="DA13" s="64"/>
-      <c r="DB13" s="53"/>
-      <c r="DC13" s="54"/>
-      <c r="DD13" s="54"/>
-      <c r="DE13" s="54"/>
-      <c r="DF13" s="54"/>
-      <c r="DG13" s="54"/>
-      <c r="DH13" s="54"/>
-      <c r="DI13" s="54"/>
-      <c r="DJ13" s="54"/>
-      <c r="DK13" s="54"/>
-      <c r="DL13" s="54"/>
-      <c r="DM13" s="54"/>
-      <c r="DN13" s="54"/>
-      <c r="DO13" s="54"/>
-      <c r="DP13" s="54"/>
-      <c r="DQ13" s="55"/>
-      <c r="DR13" s="53"/>
-      <c r="DS13" s="54"/>
-      <c r="DT13" s="54"/>
-      <c r="DU13" s="54"/>
-      <c r="DV13" s="54"/>
-      <c r="DW13" s="54"/>
-      <c r="DX13" s="54"/>
-      <c r="DY13" s="54"/>
-      <c r="DZ13" s="54"/>
-      <c r="EA13" s="54"/>
-      <c r="EB13" s="54"/>
-      <c r="EC13" s="54"/>
-      <c r="ED13" s="54"/>
-      <c r="EE13" s="54"/>
-      <c r="EF13" s="54"/>
-      <c r="EG13" s="55"/>
-      <c r="EP13" s="53"/>
-      <c r="EQ13" s="54"/>
-      <c r="ER13" s="54"/>
-      <c r="ES13" s="54"/>
-      <c r="ET13" s="54"/>
-      <c r="EU13" s="54"/>
-      <c r="EV13" s="54"/>
-      <c r="EW13" s="55"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="77"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="77"/>
+      <c r="BE13" s="77"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="78"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="77"/>
+      <c r="BJ13" s="77"/>
+      <c r="BK13" s="77"/>
+      <c r="BL13" s="77"/>
+      <c r="BM13" s="78"/>
+      <c r="BN13" s="60"/>
+      <c r="BO13" s="61"/>
+      <c r="BP13" s="61"/>
+      <c r="BQ13" s="61"/>
+      <c r="BR13" s="61"/>
+      <c r="BS13" s="61"/>
+      <c r="BT13" s="61"/>
+      <c r="BU13" s="62"/>
+      <c r="BV13" s="60"/>
+      <c r="BW13" s="61"/>
+      <c r="BX13" s="61"/>
+      <c r="BY13" s="61"/>
+      <c r="BZ13" s="61"/>
+      <c r="CA13" s="61"/>
+      <c r="CB13" s="61"/>
+      <c r="CC13" s="62"/>
+      <c r="CD13" s="60"/>
+      <c r="CE13" s="61"/>
+      <c r="CF13" s="61"/>
+      <c r="CG13" s="61"/>
+      <c r="CH13" s="61"/>
+      <c r="CI13" s="61"/>
+      <c r="CJ13" s="61"/>
+      <c r="CK13" s="62"/>
+      <c r="CL13" s="60"/>
+      <c r="CM13" s="61"/>
+      <c r="CN13" s="61"/>
+      <c r="CO13" s="61"/>
+      <c r="CP13" s="61"/>
+      <c r="CQ13" s="61"/>
+      <c r="CR13" s="61"/>
+      <c r="CS13" s="61"/>
+      <c r="CT13" s="61"/>
+      <c r="CU13" s="61"/>
+      <c r="CV13" s="61"/>
+      <c r="CW13" s="61"/>
+      <c r="CX13" s="61"/>
+      <c r="CY13" s="61"/>
+      <c r="CZ13" s="61"/>
+      <c r="DA13" s="62"/>
+      <c r="DB13" s="76"/>
+      <c r="DC13" s="77"/>
+      <c r="DD13" s="77"/>
+      <c r="DE13" s="77"/>
+      <c r="DF13" s="77"/>
+      <c r="DG13" s="77"/>
+      <c r="DH13" s="77"/>
+      <c r="DI13" s="77"/>
+      <c r="DJ13" s="77"/>
+      <c r="DK13" s="77"/>
+      <c r="DL13" s="77"/>
+      <c r="DM13" s="77"/>
+      <c r="DN13" s="77"/>
+      <c r="DO13" s="77"/>
+      <c r="DP13" s="77"/>
+      <c r="DQ13" s="78"/>
+      <c r="DR13" s="76"/>
+      <c r="DS13" s="77"/>
+      <c r="DT13" s="77"/>
+      <c r="DU13" s="77"/>
+      <c r="DV13" s="77"/>
+      <c r="DW13" s="77"/>
+      <c r="DX13" s="77"/>
+      <c r="DY13" s="77"/>
+      <c r="DZ13" s="77"/>
+      <c r="EA13" s="77"/>
+      <c r="EB13" s="77"/>
+      <c r="EC13" s="77"/>
+      <c r="ED13" s="77"/>
+      <c r="EE13" s="77"/>
+      <c r="EF13" s="77"/>
+      <c r="EG13" s="78"/>
+      <c r="EP13" s="76"/>
+      <c r="EQ13" s="77"/>
+      <c r="ER13" s="77"/>
+      <c r="ES13" s="77"/>
+      <c r="ET13" s="77"/>
+      <c r="EU13" s="77"/>
+      <c r="EV13" s="77"/>
+      <c r="EW13" s="78"/>
       <c r="EX13" s="24"/>
       <c r="EY13" s="24"/>
       <c r="EZ13" s="14"/>
@@ -5756,184 +5762,184 @@
       <c r="FS13" s="15"/>
       <c r="FT13" s="15"/>
       <c r="FU13" s="44"/>
-      <c r="FV13" s="63"/>
-      <c r="FW13" s="63"/>
-      <c r="FX13" s="63"/>
-      <c r="FY13" s="63"/>
-      <c r="FZ13" s="63"/>
-      <c r="GA13" s="64"/>
-      <c r="GB13" s="62"/>
-      <c r="GC13" s="63"/>
-      <c r="GD13" s="63"/>
-      <c r="GE13" s="63"/>
-      <c r="GF13" s="63"/>
-      <c r="GG13" s="64"/>
+      <c r="FV13" s="61"/>
+      <c r="FW13" s="61"/>
+      <c r="FX13" s="61"/>
+      <c r="FY13" s="61"/>
+      <c r="FZ13" s="61"/>
+      <c r="GA13" s="62"/>
+      <c r="GB13" s="60"/>
+      <c r="GC13" s="61"/>
+      <c r="GD13" s="61"/>
+      <c r="GE13" s="61"/>
+      <c r="GF13" s="61"/>
+      <c r="GG13" s="62"/>
       <c r="GL13" t="s">
         <v>165</v>
       </c>
-      <c r="GT13" s="53"/>
-      <c r="GU13" s="54"/>
-      <c r="GV13" s="54"/>
-      <c r="GW13" s="54"/>
-      <c r="GX13" s="54"/>
-      <c r="GY13" s="54"/>
-      <c r="GZ13" s="54"/>
-      <c r="HA13" s="55"/>
-      <c r="HB13" s="53"/>
-      <c r="HC13" s="54"/>
-      <c r="HD13" s="54"/>
-      <c r="HE13" s="54"/>
-      <c r="HF13" s="54"/>
-      <c r="HG13" s="54"/>
-      <c r="HH13" s="54"/>
-      <c r="HI13" s="55"/>
+      <c r="GT13" s="76"/>
+      <c r="GU13" s="77"/>
+      <c r="GV13" s="77"/>
+      <c r="GW13" s="77"/>
+      <c r="GX13" s="77"/>
+      <c r="GY13" s="77"/>
+      <c r="GZ13" s="77"/>
+      <c r="HA13" s="78"/>
+      <c r="HB13" s="76"/>
+      <c r="HC13" s="77"/>
+      <c r="HD13" s="77"/>
+      <c r="HE13" s="77"/>
+      <c r="HF13" s="77"/>
+      <c r="HG13" s="77"/>
+      <c r="HH13" s="77"/>
+      <c r="HI13" s="78"/>
     </row>
     <row r="14" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="57"/>
-      <c r="AY14" s="57"/>
-      <c r="AZ14" s="57"/>
-      <c r="BA14" s="57"/>
-      <c r="BB14" s="57"/>
-      <c r="BC14" s="57"/>
-      <c r="BD14" s="57"/>
-      <c r="BE14" s="57"/>
-      <c r="BF14" s="57"/>
-      <c r="BG14" s="58"/>
-      <c r="BH14" s="56"/>
-      <c r="BI14" s="57"/>
-      <c r="BJ14" s="57"/>
-      <c r="BK14" s="57"/>
-      <c r="BL14" s="57"/>
-      <c r="BM14" s="58"/>
-      <c r="BN14" s="65"/>
-      <c r="BO14" s="66"/>
-      <c r="BP14" s="66"/>
-      <c r="BQ14" s="66"/>
-      <c r="BR14" s="66"/>
-      <c r="BS14" s="66"/>
-      <c r="BT14" s="66"/>
-      <c r="BU14" s="67"/>
-      <c r="BV14" s="65"/>
-      <c r="BW14" s="66"/>
-      <c r="BX14" s="66"/>
-      <c r="BY14" s="66"/>
-      <c r="BZ14" s="66"/>
-      <c r="CA14" s="66"/>
-      <c r="CB14" s="66"/>
-      <c r="CC14" s="67"/>
-      <c r="CD14" s="65"/>
-      <c r="CE14" s="66"/>
-      <c r="CF14" s="66"/>
-      <c r="CG14" s="66"/>
-      <c r="CH14" s="66"/>
-      <c r="CI14" s="66"/>
-      <c r="CJ14" s="66"/>
-      <c r="CK14" s="67"/>
-      <c r="CL14" s="65"/>
-      <c r="CM14" s="66"/>
-      <c r="CN14" s="66"/>
-      <c r="CO14" s="66"/>
-      <c r="CP14" s="66"/>
-      <c r="CQ14" s="66"/>
-      <c r="CR14" s="66"/>
-      <c r="CS14" s="66"/>
-      <c r="CT14" s="66"/>
-      <c r="CU14" s="66"/>
-      <c r="CV14" s="66"/>
-      <c r="CW14" s="66"/>
-      <c r="CX14" s="66"/>
-      <c r="CY14" s="66"/>
-      <c r="CZ14" s="66"/>
-      <c r="DA14" s="67"/>
-      <c r="DB14" s="56"/>
-      <c r="DC14" s="57"/>
-      <c r="DD14" s="57"/>
-      <c r="DE14" s="57"/>
-      <c r="DF14" s="57"/>
-      <c r="DG14" s="57"/>
-      <c r="DH14" s="57"/>
-      <c r="DI14" s="57"/>
-      <c r="DJ14" s="57"/>
-      <c r="DK14" s="57"/>
-      <c r="DL14" s="57"/>
-      <c r="DM14" s="57"/>
-      <c r="DN14" s="57"/>
-      <c r="DO14" s="57"/>
-      <c r="DP14" s="57"/>
-      <c r="DQ14" s="58"/>
-      <c r="DR14" s="56"/>
-      <c r="DS14" s="57"/>
-      <c r="DT14" s="57"/>
-      <c r="DU14" s="57"/>
-      <c r="DV14" s="57"/>
-      <c r="DW14" s="57"/>
-      <c r="DX14" s="57"/>
-      <c r="DY14" s="57"/>
-      <c r="DZ14" s="57"/>
-      <c r="EA14" s="57"/>
-      <c r="EB14" s="57"/>
-      <c r="EC14" s="57"/>
-      <c r="ED14" s="57"/>
-      <c r="EE14" s="57"/>
-      <c r="EF14" s="57"/>
-      <c r="EG14" s="58"/>
-      <c r="EP14" s="56"/>
-      <c r="EQ14" s="57"/>
-      <c r="ER14" s="57"/>
-      <c r="ES14" s="57"/>
-      <c r="ET14" s="57"/>
-      <c r="EU14" s="57"/>
-      <c r="EV14" s="57"/>
-      <c r="EW14" s="58"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="81"/>
+      <c r="AR14" s="79"/>
+      <c r="AS14" s="80"/>
+      <c r="AT14" s="80"/>
+      <c r="AU14" s="80"/>
+      <c r="AV14" s="80"/>
+      <c r="AW14" s="81"/>
+      <c r="AX14" s="80"/>
+      <c r="AY14" s="80"/>
+      <c r="AZ14" s="80"/>
+      <c r="BA14" s="80"/>
+      <c r="BB14" s="80"/>
+      <c r="BC14" s="80"/>
+      <c r="BD14" s="80"/>
+      <c r="BE14" s="80"/>
+      <c r="BF14" s="80"/>
+      <c r="BG14" s="81"/>
+      <c r="BH14" s="79"/>
+      <c r="BI14" s="80"/>
+      <c r="BJ14" s="80"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="80"/>
+      <c r="BM14" s="81"/>
+      <c r="BN14" s="63"/>
+      <c r="BO14" s="64"/>
+      <c r="BP14" s="64"/>
+      <c r="BQ14" s="64"/>
+      <c r="BR14" s="64"/>
+      <c r="BS14" s="64"/>
+      <c r="BT14" s="64"/>
+      <c r="BU14" s="65"/>
+      <c r="BV14" s="63"/>
+      <c r="BW14" s="64"/>
+      <c r="BX14" s="64"/>
+      <c r="BY14" s="64"/>
+      <c r="BZ14" s="64"/>
+      <c r="CA14" s="64"/>
+      <c r="CB14" s="64"/>
+      <c r="CC14" s="65"/>
+      <c r="CD14" s="63"/>
+      <c r="CE14" s="64"/>
+      <c r="CF14" s="64"/>
+      <c r="CG14" s="64"/>
+      <c r="CH14" s="64"/>
+      <c r="CI14" s="64"/>
+      <c r="CJ14" s="64"/>
+      <c r="CK14" s="65"/>
+      <c r="CL14" s="63"/>
+      <c r="CM14" s="64"/>
+      <c r="CN14" s="64"/>
+      <c r="CO14" s="64"/>
+      <c r="CP14" s="64"/>
+      <c r="CQ14" s="64"/>
+      <c r="CR14" s="64"/>
+      <c r="CS14" s="64"/>
+      <c r="CT14" s="64"/>
+      <c r="CU14" s="64"/>
+      <c r="CV14" s="64"/>
+      <c r="CW14" s="64"/>
+      <c r="CX14" s="64"/>
+      <c r="CY14" s="64"/>
+      <c r="CZ14" s="64"/>
+      <c r="DA14" s="65"/>
+      <c r="DB14" s="79"/>
+      <c r="DC14" s="80"/>
+      <c r="DD14" s="80"/>
+      <c r="DE14" s="80"/>
+      <c r="DF14" s="80"/>
+      <c r="DG14" s="80"/>
+      <c r="DH14" s="80"/>
+      <c r="DI14" s="80"/>
+      <c r="DJ14" s="80"/>
+      <c r="DK14" s="80"/>
+      <c r="DL14" s="80"/>
+      <c r="DM14" s="80"/>
+      <c r="DN14" s="80"/>
+      <c r="DO14" s="80"/>
+      <c r="DP14" s="80"/>
+      <c r="DQ14" s="81"/>
+      <c r="DR14" s="79"/>
+      <c r="DS14" s="80"/>
+      <c r="DT14" s="80"/>
+      <c r="DU14" s="80"/>
+      <c r="DV14" s="80"/>
+      <c r="DW14" s="80"/>
+      <c r="DX14" s="80"/>
+      <c r="DY14" s="80"/>
+      <c r="DZ14" s="80"/>
+      <c r="EA14" s="80"/>
+      <c r="EB14" s="80"/>
+      <c r="EC14" s="80"/>
+      <c r="ED14" s="80"/>
+      <c r="EE14" s="80"/>
+      <c r="EF14" s="80"/>
+      <c r="EG14" s="81"/>
+      <c r="EP14" s="79"/>
+      <c r="EQ14" s="80"/>
+      <c r="ER14" s="80"/>
+      <c r="ES14" s="80"/>
+      <c r="ET14" s="80"/>
+      <c r="EU14" s="80"/>
+      <c r="EV14" s="80"/>
+      <c r="EW14" s="81"/>
       <c r="EX14" s="26"/>
       <c r="EY14" s="26"/>
       <c r="EZ14" s="27"/>
@@ -5952,37 +5958,37 @@
       <c r="FS14" s="36"/>
       <c r="FT14" s="36"/>
       <c r="FU14" s="37"/>
-      <c r="FV14" s="66"/>
-      <c r="FW14" s="66"/>
-      <c r="FX14" s="66"/>
-      <c r="FY14" s="66"/>
-      <c r="FZ14" s="66"/>
-      <c r="GA14" s="67"/>
-      <c r="GB14" s="65"/>
-      <c r="GC14" s="66"/>
-      <c r="GD14" s="66"/>
-      <c r="GE14" s="66"/>
-      <c r="GF14" s="66"/>
-      <c r="GG14" s="67"/>
+      <c r="FV14" s="64"/>
+      <c r="FW14" s="64"/>
+      <c r="FX14" s="64"/>
+      <c r="FY14" s="64"/>
+      <c r="FZ14" s="64"/>
+      <c r="GA14" s="65"/>
+      <c r="GB14" s="63"/>
+      <c r="GC14" s="64"/>
+      <c r="GD14" s="64"/>
+      <c r="GE14" s="64"/>
+      <c r="GF14" s="64"/>
+      <c r="GG14" s="65"/>
       <c r="GN14" t="s">
         <v>166</v>
       </c>
-      <c r="GT14" s="56"/>
-      <c r="GU14" s="57"/>
-      <c r="GV14" s="57"/>
-      <c r="GW14" s="57"/>
-      <c r="GX14" s="57"/>
-      <c r="GY14" s="57"/>
-      <c r="GZ14" s="57"/>
-      <c r="HA14" s="58"/>
-      <c r="HB14" s="56"/>
-      <c r="HC14" s="57"/>
-      <c r="HD14" s="57"/>
-      <c r="HE14" s="57"/>
-      <c r="HF14" s="57"/>
-      <c r="HG14" s="57"/>
-      <c r="HH14" s="57"/>
-      <c r="HI14" s="58"/>
+      <c r="GT14" s="79"/>
+      <c r="GU14" s="80"/>
+      <c r="GV14" s="80"/>
+      <c r="GW14" s="80"/>
+      <c r="GX14" s="80"/>
+      <c r="GY14" s="80"/>
+      <c r="GZ14" s="80"/>
+      <c r="HA14" s="81"/>
+      <c r="HB14" s="79"/>
+      <c r="HC14" s="80"/>
+      <c r="HD14" s="80"/>
+      <c r="HE14" s="80"/>
+      <c r="HF14" s="80"/>
+      <c r="HG14" s="80"/>
+      <c r="HH14" s="80"/>
+      <c r="HI14" s="81"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
@@ -6242,16 +6248,16 @@
       <c r="Z16" s="34"/>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
-      <c r="CD16" s="48" t="s">
+      <c r="CD16" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="CE16" s="49"/>
-      <c r="CF16" s="49"/>
-      <c r="CG16" s="49"/>
-      <c r="CH16" s="49"/>
-      <c r="CI16" s="49"/>
-      <c r="CJ16" s="49"/>
-      <c r="CK16" s="49"/>
+      <c r="CE16" s="105"/>
+      <c r="CF16" s="105"/>
+      <c r="CG16" s="105"/>
+      <c r="CH16" s="105"/>
+      <c r="CI16" s="105"/>
+      <c r="CJ16" s="105"/>
+      <c r="CK16" s="105"/>
       <c r="DE16" t="s">
         <v>184</v>
       </c>
@@ -6292,14 +6298,14 @@
       <c r="Z17" s="34"/>
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
-      <c r="CD17" s="49"/>
-      <c r="CE17" s="49"/>
-      <c r="CF17" s="49"/>
-      <c r="CG17" s="49"/>
-      <c r="CH17" s="49"/>
-      <c r="CI17" s="49"/>
-      <c r="CJ17" s="49"/>
-      <c r="CK17" s="49"/>
+      <c r="CD17" s="105"/>
+      <c r="CE17" s="105"/>
+      <c r="CF17" s="105"/>
+      <c r="CG17" s="105"/>
+      <c r="CH17" s="105"/>
+      <c r="CI17" s="105"/>
+      <c r="CJ17" s="105"/>
+      <c r="CK17" s="105"/>
       <c r="DE17" t="s">
         <v>185</v>
       </c>
@@ -6343,14 +6349,14 @@
       <c r="Z18" s="34"/>
       <c r="AA18" s="34"/>
       <c r="AB18" s="34"/>
-      <c r="CD18" s="49"/>
-      <c r="CE18" s="49"/>
-      <c r="CF18" s="49"/>
-      <c r="CG18" s="49"/>
-      <c r="CH18" s="49"/>
-      <c r="CI18" s="49"/>
-      <c r="CJ18" s="49"/>
-      <c r="CK18" s="49"/>
+      <c r="CD18" s="105"/>
+      <c r="CE18" s="105"/>
+      <c r="CF18" s="105"/>
+      <c r="CG18" s="105"/>
+      <c r="CH18" s="105"/>
+      <c r="CI18" s="105"/>
+      <c r="CJ18" s="105"/>
+      <c r="CK18" s="105"/>
       <c r="CL18" s="35" t="s">
         <v>171</v>
       </c>
@@ -6385,14 +6391,14 @@
       <c r="Z19" s="34"/>
       <c r="AA19" s="34"/>
       <c r="AB19" s="34"/>
-      <c r="CD19" s="49"/>
-      <c r="CE19" s="49"/>
-      <c r="CF19" s="49"/>
-      <c r="CG19" s="49"/>
-      <c r="CH19" s="49"/>
-      <c r="CI19" s="49"/>
-      <c r="CJ19" s="49"/>
-      <c r="CK19" s="49"/>
+      <c r="CD19" s="105"/>
+      <c r="CE19" s="105"/>
+      <c r="CF19" s="105"/>
+      <c r="CG19" s="105"/>
+      <c r="CH19" s="105"/>
+      <c r="CI19" s="105"/>
+      <c r="CJ19" s="105"/>
+      <c r="CK19" s="105"/>
       <c r="CM19" t="s">
         <v>183</v>
       </c>
@@ -6422,14 +6428,14 @@
       <c r="Z20" s="34"/>
       <c r="AA20" s="34"/>
       <c r="AB20" s="34"/>
-      <c r="CD20" s="49"/>
-      <c r="CE20" s="49"/>
-      <c r="CF20" s="49"/>
-      <c r="CG20" s="49"/>
-      <c r="CH20" s="49"/>
-      <c r="CI20" s="49"/>
-      <c r="CJ20" s="49"/>
-      <c r="CK20" s="49"/>
+      <c r="CD20" s="105"/>
+      <c r="CE20" s="105"/>
+      <c r="CF20" s="105"/>
+      <c r="CG20" s="105"/>
+      <c r="CH20" s="105"/>
+      <c r="CI20" s="105"/>
+      <c r="CJ20" s="105"/>
+      <c r="CK20" s="105"/>
       <c r="FG20" t="s">
         <v>131</v>
       </c>
@@ -6462,14 +6468,14 @@
       <c r="Z21" s="34"/>
       <c r="AA21" s="34"/>
       <c r="AB21" s="34"/>
-      <c r="CD21" s="49"/>
-      <c r="CE21" s="49"/>
-      <c r="CF21" s="49"/>
-      <c r="CG21" s="49"/>
-      <c r="CH21" s="49"/>
-      <c r="CI21" s="49"/>
-      <c r="CJ21" s="49"/>
-      <c r="CK21" s="49"/>
+      <c r="CD21" s="105"/>
+      <c r="CE21" s="105"/>
+      <c r="CF21" s="105"/>
+      <c r="CG21" s="105"/>
+      <c r="CH21" s="105"/>
+      <c r="CI21" s="105"/>
+      <c r="CJ21" s="105"/>
+      <c r="CK21" s="105"/>
       <c r="CL21" t="s">
         <v>187</v>
       </c>
@@ -6523,14 +6529,14 @@
       <c r="Z22" s="34"/>
       <c r="AA22" s="34"/>
       <c r="AB22" s="34"/>
-      <c r="CD22" s="49"/>
-      <c r="CE22" s="49"/>
-      <c r="CF22" s="49"/>
-      <c r="CG22" s="49"/>
-      <c r="CH22" s="49"/>
-      <c r="CI22" s="49"/>
-      <c r="CJ22" s="49"/>
-      <c r="CK22" s="49"/>
+      <c r="CD22" s="105"/>
+      <c r="CE22" s="105"/>
+      <c r="CF22" s="105"/>
+      <c r="CG22" s="105"/>
+      <c r="CH22" s="105"/>
+      <c r="CI22" s="105"/>
+      <c r="CJ22" s="105"/>
+      <c r="CK22" s="105"/>
       <c r="DR22" t="s">
         <v>182</v>
       </c>
@@ -6571,14 +6577,14 @@
       <c r="Z23" s="34"/>
       <c r="AA23" s="34"/>
       <c r="AB23" s="34"/>
-      <c r="CD23" s="49"/>
-      <c r="CE23" s="49"/>
-      <c r="CF23" s="49"/>
-      <c r="CG23" s="49"/>
-      <c r="CH23" s="49"/>
-      <c r="CI23" s="49"/>
-      <c r="CJ23" s="49"/>
-      <c r="CK23" s="49"/>
+      <c r="CD23" s="105"/>
+      <c r="CE23" s="105"/>
+      <c r="CF23" s="105"/>
+      <c r="CG23" s="105"/>
+      <c r="CH23" s="105"/>
+      <c r="CI23" s="105"/>
+      <c r="CJ23" s="105"/>
+      <c r="CK23" s="105"/>
       <c r="DE23" t="s">
         <v>197</v>
       </c>
@@ -6599,14 +6605,17 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="49"/>
-      <c r="CE24" s="49"/>
-      <c r="CF24" s="49"/>
-      <c r="CG24" s="49"/>
-      <c r="CH24" s="49"/>
-      <c r="CI24" s="49"/>
-      <c r="CJ24" s="49"/>
-      <c r="CK24" s="49"/>
+      <c r="CD24" s="105"/>
+      <c r="CE24" s="105"/>
+      <c r="CF24" s="105"/>
+      <c r="CG24" s="105"/>
+      <c r="CH24" s="105"/>
+      <c r="CI24" s="105"/>
+      <c r="CJ24" s="105"/>
+      <c r="CK24" s="105"/>
+      <c r="DG24" t="s">
+        <v>198</v>
+      </c>
       <c r="EX24" t="s">
         <v>177</v>
       </c>
@@ -6624,14 +6633,17 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="49"/>
-      <c r="CE25" s="49"/>
-      <c r="CF25" s="49"/>
-      <c r="CG25" s="49"/>
-      <c r="CH25" s="49"/>
-      <c r="CI25" s="49"/>
-      <c r="CJ25" s="49"/>
-      <c r="CK25" s="49"/>
+      <c r="CD25" s="105"/>
+      <c r="CE25" s="105"/>
+      <c r="CF25" s="105"/>
+      <c r="CG25" s="105"/>
+      <c r="CH25" s="105"/>
+      <c r="CI25" s="105"/>
+      <c r="CJ25" s="105"/>
+      <c r="CK25" s="105"/>
+      <c r="DG25" t="s">
+        <v>199</v>
+      </c>
       <c r="EX25" t="s">
         <v>176</v>
       </c>
@@ -6649,14 +6661,14 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="49"/>
-      <c r="CE26" s="49"/>
-      <c r="CF26" s="49"/>
-      <c r="CG26" s="49"/>
-      <c r="CH26" s="49"/>
-      <c r="CI26" s="49"/>
-      <c r="CJ26" s="49"/>
-      <c r="CK26" s="49"/>
+      <c r="CD26" s="105"/>
+      <c r="CE26" s="105"/>
+      <c r="CF26" s="105"/>
+      <c r="CG26" s="105"/>
+      <c r="CH26" s="105"/>
+      <c r="CI26" s="105"/>
+      <c r="CJ26" s="105"/>
+      <c r="CK26" s="105"/>
     </row>
     <row r="27" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
@@ -6671,14 +6683,14 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="49"/>
-      <c r="CE27" s="49"/>
-      <c r="CF27" s="49"/>
-      <c r="CG27" s="49"/>
-      <c r="CH27" s="49"/>
-      <c r="CI27" s="49"/>
-      <c r="CJ27" s="49"/>
-      <c r="CK27" s="49"/>
+      <c r="CD27" s="105"/>
+      <c r="CE27" s="105"/>
+      <c r="CF27" s="105"/>
+      <c r="CG27" s="105"/>
+      <c r="CH27" s="105"/>
+      <c r="CI27" s="105"/>
+      <c r="CJ27" s="105"/>
+      <c r="CK27" s="105"/>
     </row>
     <row r="28" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
@@ -6693,14 +6705,14 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="49"/>
-      <c r="CE28" s="49"/>
-      <c r="CF28" s="49"/>
-      <c r="CG28" s="49"/>
-      <c r="CH28" s="49"/>
-      <c r="CI28" s="49"/>
-      <c r="CJ28" s="49"/>
-      <c r="CK28" s="49"/>
+      <c r="CD28" s="105"/>
+      <c r="CE28" s="105"/>
+      <c r="CF28" s="105"/>
+      <c r="CG28" s="105"/>
+      <c r="CH28" s="105"/>
+      <c r="CI28" s="105"/>
+      <c r="CJ28" s="105"/>
+      <c r="CK28" s="105"/>
       <c r="EX28" t="s">
         <v>195</v>
       </c>
@@ -6718,14 +6730,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="49"/>
-      <c r="CE29" s="49"/>
-      <c r="CF29" s="49"/>
-      <c r="CG29" s="49"/>
-      <c r="CH29" s="49"/>
-      <c r="CI29" s="49"/>
-      <c r="CJ29" s="49"/>
-      <c r="CK29" s="49"/>
+      <c r="CD29" s="105"/>
+      <c r="CE29" s="105"/>
+      <c r="CF29" s="105"/>
+      <c r="CG29" s="105"/>
+      <c r="CH29" s="105"/>
+      <c r="CI29" s="105"/>
+      <c r="CJ29" s="105"/>
+      <c r="CK29" s="105"/>
     </row>
     <row r="30" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -7083,6 +7095,118 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="CD16:CK29"/>
+    <mergeCell ref="GT9:HA14"/>
+    <mergeCell ref="HB9:HI14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="DB9:DQ14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="CD9:CK14"/>
+    <mergeCell ref="CL9:DA14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="DZ2:EG2"/>
+    <mergeCell ref="EH2:EO2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="BF3:BM3"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="CD3:CK3"/>
+    <mergeCell ref="CL3:CS3"/>
+    <mergeCell ref="CT3:DA3"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B1:BM1"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="FF3:FM3"/>
+    <mergeCell ref="FN3:FU3"/>
+    <mergeCell ref="FV3:GC3"/>
+    <mergeCell ref="BN1:HI1"/>
+    <mergeCell ref="DJ3:DQ3"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="DZ3:EG3"/>
+    <mergeCell ref="EH3:EO3"/>
+    <mergeCell ref="EP3:EW3"/>
+    <mergeCell ref="EX3:FE3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="EP7:EW7"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="DR7:DU7"/>
+    <mergeCell ref="FK7:FM7"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="FV7:GA7"/>
+    <mergeCell ref="FN7:FU7"/>
     <mergeCell ref="CX7:DA7"/>
     <mergeCell ref="FV4:GK4"/>
     <mergeCell ref="GH7:GK7"/>
@@ -7107,118 +7231,6 @@
     <mergeCell ref="DV7:EA7"/>
     <mergeCell ref="EB7:EG7"/>
     <mergeCell ref="EH7:EO7"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="DR7:DU7"/>
-    <mergeCell ref="FK7:FM7"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="FV7:GA7"/>
-    <mergeCell ref="FN7:FU7"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="GT2:HA2"/>
-    <mergeCell ref="HB2:HI2"/>
-    <mergeCell ref="B1:BM1"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="FF3:FM3"/>
-    <mergeCell ref="FN3:FU3"/>
-    <mergeCell ref="FV3:GC3"/>
-    <mergeCell ref="BN1:HI1"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="DZ3:EG3"/>
-    <mergeCell ref="EH3:EO3"/>
-    <mergeCell ref="EP3:EW3"/>
-    <mergeCell ref="EX3:FE3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="DZ2:EG2"/>
-    <mergeCell ref="EH2:EO2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CL2:CS2"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="BF3:BM3"/>
-    <mergeCell ref="CT2:DA2"/>
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="CD3:CK3"/>
-    <mergeCell ref="CL3:CS3"/>
-    <mergeCell ref="CT3:DA3"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="CD16:CK29"/>
-    <mergeCell ref="GT9:HA14"/>
-    <mergeCell ref="HB9:HI14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="DB9:DQ14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="CD9:CK14"/>
-    <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28464367-2F8E-45DD-B5D9-99BBDFFA6906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC1B3D-7A6C-4DF8-BC9E-C255AB6825BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6488" yWindow="195" windowWidth="16222" windowHeight="11550" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="DSeg 2654" sheetId="3" r:id="rId2"/>
+    <sheet name="Object" sheetId="1" r:id="rId1"/>
+    <sheet name="Tile" sheetId="4" r:id="rId2"/>
+    <sheet name="DSeg 2654" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
   <si>
     <t>Static Object</t>
   </si>
@@ -234,13 +235,7 @@
     <t>Z position of the object in a tile</t>
   </si>
   <si>
-    <t>Generally the health of an object or a general use parameter for a trap</t>
-  </si>
-  <si>
     <t>The spell/enchantment of the object or a pointer to another object</t>
-  </si>
-  <si>
-    <t>Race number of the owner of the object or a general parameter of the object</t>
   </si>
   <si>
     <t>Texture is used for signs, tmaps and other similar objects</t>
@@ -455,10 +450,6 @@
 Bit 0xA is the creature is powerful flag</t>
   </si>
   <si>
-    <t>bit 7 is unset when projectile is launched
-For npcs this value is relevant in Study monstor. When whoamis is 64h this value is used</t>
-  </si>
-  <si>
     <t>also 7CDF</t>
   </si>
   <si>
@@ -545,9 +536,6 @@
     <t>Bit 7 reference a lot</t>
   </si>
   <si>
-    <t>bit 5 referenced</t>
-  </si>
-  <si>
     <t>1 left shifted by this value seems relevant</t>
   </si>
   <si>
@@ -601,9 +589,6 @@
     <t>most likely animation frame no</t>
   </si>
   <si>
-    <t>Powerful creatures mitigate damages</t>
-  </si>
-  <si>
     <t>Formula (creature level *5)/3</t>
   </si>
   <si>
@@ -616,9 +601,6 @@
     <t>For NPCs does this mean they are in combat?</t>
   </si>
   <si>
-    <t>Does npc_hunger mean the npc is aware of the player</t>
-  </si>
-  <si>
     <t>For player object is the item id of the last creature</t>
   </si>
   <si>
@@ -646,7 +628,104 @@
     <t>Bit A is checked when creature is killled</t>
   </si>
   <si>
-    <t>Possibly an EXP bonus flag</t>
+    <t>Bit A also means the creature gets a toughness bonus</t>
+  </si>
+  <si>
+    <t>Eg damage received is reduced by (creature level*5)/3</t>
+  </si>
+  <si>
+    <t>Possibly to award an EXP bonus</t>
+  </si>
+  <si>
+    <t>Bit 8 set when object created by createobject trap</t>
+  </si>
+  <si>
+    <t>bit 5 referenced. Cleared during NPCRaceProcessing</t>
+  </si>
+  <si>
+    <t>Does npc_hunger mean the npc is aware of the player and wants to eat them (ie become hostile)</t>
+  </si>
+  <si>
+    <t>Race number of the owner of the object or a general parameter of the object
+For Npcs tileY</t>
+  </si>
+  <si>
+    <t>Generally the health of an object or a general use parameter for a trap
+For NPCS tileX</t>
+  </si>
+  <si>
+    <t>Bits 4 to 7 are probably a single value</t>
+  </si>
+  <si>
+    <t>Bits 8 to B are probably individual flags</t>
+  </si>
+  <si>
+    <t>Powerful creatures mitigate damage from attacks, give higher exp rewards</t>
+  </si>
+  <si>
+    <t>Tile Type</t>
+  </si>
+  <si>
+    <t>Floor height</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>Floor texture</t>
+  </si>
+  <si>
+    <t>No magic</t>
+  </si>
+  <si>
+    <t>Door bit</t>
+  </si>
+  <si>
+    <t>Wall Texture</t>
+  </si>
+  <si>
+    <t>Index object list</t>
+  </si>
+  <si>
+    <t>Mask 0xF</t>
+  </si>
+  <si>
+    <t>&gt;&gt; 4</t>
+  </si>
+  <si>
+    <t>To extract</t>
+  </si>
+  <si>
+    <t>&gt;&gt;F &amp; 0x1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;E &amp; 0x1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;0xA &amp; 0xF</t>
+  </si>
+  <si>
+    <t>&gt;&gt;9 &amp; 0x1</t>
+  </si>
+  <si>
+    <t>&gt;&gt;8 &amp; 0x1</t>
+  </si>
+  <si>
+    <t>&amp;0x3F</t>
+  </si>
+  <si>
+    <t>&gt;&gt;5 &amp; 3FF</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>bits (byte aligned)</t>
+  </si>
+  <si>
+    <t>bit 7 is unset when projectile is launched
+For npcs this value is relevant in Study monstor. When whoamis is 64h this value is used
+When the avatar is killed the bit 7 is used to check if the avatar has to go to jail in the castle</t>
   </si>
 </sst>
 </file>
@@ -736,7 +815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1152,6 +1231,45 @@
     <border>
       <left/>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1166,26 +1284,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1201,29 +1315,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1233,32 +1339,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1287,6 +1418,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,44 +1445,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1365,46 +1520,33 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1724,10 +1866,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="CY22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="DG26" sqref="DG26"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1754,1078 +1896,1078 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:217" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="96"/>
-      <c r="BB1" s="96"/>
-      <c r="BC1" s="96"/>
-      <c r="BD1" s="96"/>
-      <c r="BE1" s="96"/>
-      <c r="BF1" s="96"/>
-      <c r="BG1" s="96"/>
-      <c r="BH1" s="96"/>
-      <c r="BI1" s="96"/>
-      <c r="BJ1" s="96"/>
-      <c r="BK1" s="96"/>
-      <c r="BL1" s="96"/>
-      <c r="BM1" s="97"/>
-      <c r="BN1" s="95" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="70"/>
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="70"/>
+      <c r="BM1" s="71"/>
+      <c r="BN1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="96"/>
-      <c r="BP1" s="96"/>
-      <c r="BQ1" s="96"/>
-      <c r="BR1" s="96"/>
-      <c r="BS1" s="96"/>
-      <c r="BT1" s="96"/>
-      <c r="BU1" s="96"/>
-      <c r="BV1" s="96"/>
-      <c r="BW1" s="96"/>
-      <c r="BX1" s="96"/>
-      <c r="BY1" s="96"/>
-      <c r="BZ1" s="96"/>
-      <c r="CA1" s="96"/>
-      <c r="CB1" s="96"/>
-      <c r="CC1" s="96"/>
-      <c r="CD1" s="96"/>
-      <c r="CE1" s="96"/>
-      <c r="CF1" s="96"/>
-      <c r="CG1" s="96"/>
-      <c r="CH1" s="96"/>
-      <c r="CI1" s="96"/>
-      <c r="CJ1" s="96"/>
-      <c r="CK1" s="96"/>
-      <c r="CL1" s="96"/>
-      <c r="CM1" s="96"/>
-      <c r="CN1" s="96"/>
-      <c r="CO1" s="96"/>
-      <c r="CP1" s="96"/>
-      <c r="CQ1" s="96"/>
-      <c r="CR1" s="96"/>
-      <c r="CS1" s="96"/>
-      <c r="CT1" s="96"/>
-      <c r="CU1" s="96"/>
-      <c r="CV1" s="96"/>
-      <c r="CW1" s="96"/>
-      <c r="CX1" s="96"/>
-      <c r="CY1" s="96"/>
-      <c r="CZ1" s="96"/>
-      <c r="DA1" s="96"/>
-      <c r="DB1" s="96"/>
-      <c r="DC1" s="96"/>
-      <c r="DD1" s="96"/>
-      <c r="DE1" s="96"/>
-      <c r="DF1" s="96"/>
-      <c r="DG1" s="96"/>
-      <c r="DH1" s="96"/>
-      <c r="DI1" s="96"/>
-      <c r="DJ1" s="96"/>
-      <c r="DK1" s="96"/>
-      <c r="DL1" s="96"/>
-      <c r="DM1" s="96"/>
-      <c r="DN1" s="96"/>
-      <c r="DO1" s="96"/>
-      <c r="DP1" s="96"/>
-      <c r="DQ1" s="96"/>
-      <c r="DR1" s="96"/>
-      <c r="DS1" s="96"/>
-      <c r="DT1" s="96"/>
-      <c r="DU1" s="96"/>
-      <c r="DV1" s="96"/>
-      <c r="DW1" s="96"/>
-      <c r="DX1" s="96"/>
-      <c r="DY1" s="96"/>
-      <c r="DZ1" s="96"/>
-      <c r="EA1" s="96"/>
-      <c r="EB1" s="96"/>
-      <c r="EC1" s="96"/>
-      <c r="ED1" s="96"/>
-      <c r="EE1" s="96"/>
-      <c r="EF1" s="96"/>
-      <c r="EG1" s="96"/>
-      <c r="EH1" s="96"/>
-      <c r="EI1" s="96"/>
-      <c r="EJ1" s="96"/>
-      <c r="EK1" s="96"/>
-      <c r="EL1" s="96"/>
-      <c r="EM1" s="96"/>
-      <c r="EN1" s="96"/>
-      <c r="EO1" s="96"/>
-      <c r="EP1" s="96"/>
-      <c r="EQ1" s="96"/>
-      <c r="ER1" s="96"/>
-      <c r="ES1" s="96"/>
-      <c r="ET1" s="96"/>
-      <c r="EU1" s="96"/>
-      <c r="EV1" s="96"/>
-      <c r="EW1" s="96"/>
-      <c r="EX1" s="96"/>
-      <c r="EY1" s="96"/>
-      <c r="EZ1" s="96"/>
-      <c r="FA1" s="96"/>
-      <c r="FB1" s="96"/>
-      <c r="FC1" s="96"/>
-      <c r="FD1" s="96"/>
-      <c r="FE1" s="96"/>
-      <c r="FF1" s="96"/>
-      <c r="FG1" s="96"/>
-      <c r="FH1" s="96"/>
-      <c r="FI1" s="96"/>
-      <c r="FJ1" s="96"/>
-      <c r="FK1" s="96"/>
-      <c r="FL1" s="96"/>
-      <c r="FM1" s="96"/>
-      <c r="FN1" s="96"/>
-      <c r="FO1" s="96"/>
-      <c r="FP1" s="96"/>
-      <c r="FQ1" s="96"/>
-      <c r="FR1" s="96"/>
-      <c r="FS1" s="96"/>
-      <c r="FT1" s="96"/>
-      <c r="FU1" s="96"/>
-      <c r="FV1" s="96"/>
-      <c r="FW1" s="96"/>
-      <c r="FX1" s="96"/>
-      <c r="FY1" s="96"/>
-      <c r="FZ1" s="96"/>
-      <c r="GA1" s="96"/>
-      <c r="GB1" s="96"/>
-      <c r="GC1" s="96"/>
-      <c r="GD1" s="96"/>
-      <c r="GE1" s="96"/>
-      <c r="GF1" s="96"/>
-      <c r="GG1" s="96"/>
-      <c r="GH1" s="96"/>
-      <c r="GI1" s="96"/>
-      <c r="GJ1" s="96"/>
-      <c r="GK1" s="96"/>
-      <c r="GL1" s="96"/>
-      <c r="GM1" s="96"/>
-      <c r="GN1" s="96"/>
-      <c r="GO1" s="96"/>
-      <c r="GP1" s="96"/>
-      <c r="GQ1" s="96"/>
-      <c r="GR1" s="96"/>
-      <c r="GS1" s="96"/>
-      <c r="GT1" s="96"/>
-      <c r="GU1" s="96"/>
-      <c r="GV1" s="96"/>
-      <c r="GW1" s="96"/>
-      <c r="GX1" s="96"/>
-      <c r="GY1" s="96"/>
-      <c r="GZ1" s="96"/>
-      <c r="HA1" s="96"/>
-      <c r="HB1" s="96"/>
-      <c r="HC1" s="96"/>
-      <c r="HD1" s="96"/>
-      <c r="HE1" s="96"/>
-      <c r="HF1" s="96"/>
-      <c r="HG1" s="96"/>
-      <c r="HH1" s="96"/>
-      <c r="HI1" s="96"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
+      <c r="BR1" s="70"/>
+      <c r="BS1" s="70"/>
+      <c r="BT1" s="70"/>
+      <c r="BU1" s="70"/>
+      <c r="BV1" s="70"/>
+      <c r="BW1" s="70"/>
+      <c r="BX1" s="70"/>
+      <c r="BY1" s="70"/>
+      <c r="BZ1" s="70"/>
+      <c r="CA1" s="70"/>
+      <c r="CB1" s="70"/>
+      <c r="CC1" s="70"/>
+      <c r="CD1" s="70"/>
+      <c r="CE1" s="70"/>
+      <c r="CF1" s="70"/>
+      <c r="CG1" s="70"/>
+      <c r="CH1" s="70"/>
+      <c r="CI1" s="70"/>
+      <c r="CJ1" s="70"/>
+      <c r="CK1" s="70"/>
+      <c r="CL1" s="70"/>
+      <c r="CM1" s="70"/>
+      <c r="CN1" s="70"/>
+      <c r="CO1" s="70"/>
+      <c r="CP1" s="70"/>
+      <c r="CQ1" s="70"/>
+      <c r="CR1" s="70"/>
+      <c r="CS1" s="70"/>
+      <c r="CT1" s="70"/>
+      <c r="CU1" s="70"/>
+      <c r="CV1" s="70"/>
+      <c r="CW1" s="70"/>
+      <c r="CX1" s="70"/>
+      <c r="CY1" s="70"/>
+      <c r="CZ1" s="70"/>
+      <c r="DA1" s="70"/>
+      <c r="DB1" s="70"/>
+      <c r="DC1" s="70"/>
+      <c r="DD1" s="70"/>
+      <c r="DE1" s="70"/>
+      <c r="DF1" s="70"/>
+      <c r="DG1" s="70"/>
+      <c r="DH1" s="70"/>
+      <c r="DI1" s="70"/>
+      <c r="DJ1" s="70"/>
+      <c r="DK1" s="70"/>
+      <c r="DL1" s="70"/>
+      <c r="DM1" s="70"/>
+      <c r="DN1" s="70"/>
+      <c r="DO1" s="70"/>
+      <c r="DP1" s="70"/>
+      <c r="DQ1" s="70"/>
+      <c r="DR1" s="70"/>
+      <c r="DS1" s="70"/>
+      <c r="DT1" s="70"/>
+      <c r="DU1" s="70"/>
+      <c r="DV1" s="70"/>
+      <c r="DW1" s="70"/>
+      <c r="DX1" s="70"/>
+      <c r="DY1" s="70"/>
+      <c r="DZ1" s="70"/>
+      <c r="EA1" s="70"/>
+      <c r="EB1" s="70"/>
+      <c r="EC1" s="70"/>
+      <c r="ED1" s="70"/>
+      <c r="EE1" s="70"/>
+      <c r="EF1" s="70"/>
+      <c r="EG1" s="70"/>
+      <c r="EH1" s="70"/>
+      <c r="EI1" s="70"/>
+      <c r="EJ1" s="70"/>
+      <c r="EK1" s="70"/>
+      <c r="EL1" s="70"/>
+      <c r="EM1" s="70"/>
+      <c r="EN1" s="70"/>
+      <c r="EO1" s="70"/>
+      <c r="EP1" s="70"/>
+      <c r="EQ1" s="70"/>
+      <c r="ER1" s="70"/>
+      <c r="ES1" s="70"/>
+      <c r="ET1" s="70"/>
+      <c r="EU1" s="70"/>
+      <c r="EV1" s="70"/>
+      <c r="EW1" s="70"/>
+      <c r="EX1" s="70"/>
+      <c r="EY1" s="70"/>
+      <c r="EZ1" s="70"/>
+      <c r="FA1" s="70"/>
+      <c r="FB1" s="70"/>
+      <c r="FC1" s="70"/>
+      <c r="FD1" s="70"/>
+      <c r="FE1" s="70"/>
+      <c r="FF1" s="70"/>
+      <c r="FG1" s="70"/>
+      <c r="FH1" s="70"/>
+      <c r="FI1" s="70"/>
+      <c r="FJ1" s="70"/>
+      <c r="FK1" s="70"/>
+      <c r="FL1" s="70"/>
+      <c r="FM1" s="70"/>
+      <c r="FN1" s="70"/>
+      <c r="FO1" s="70"/>
+      <c r="FP1" s="70"/>
+      <c r="FQ1" s="70"/>
+      <c r="FR1" s="70"/>
+      <c r="FS1" s="70"/>
+      <c r="FT1" s="70"/>
+      <c r="FU1" s="70"/>
+      <c r="FV1" s="70"/>
+      <c r="FW1" s="70"/>
+      <c r="FX1" s="70"/>
+      <c r="FY1" s="70"/>
+      <c r="FZ1" s="70"/>
+      <c r="GA1" s="70"/>
+      <c r="GB1" s="70"/>
+      <c r="GC1" s="70"/>
+      <c r="GD1" s="70"/>
+      <c r="GE1" s="70"/>
+      <c r="GF1" s="70"/>
+      <c r="GG1" s="70"/>
+      <c r="GH1" s="70"/>
+      <c r="GI1" s="70"/>
+      <c r="GJ1" s="70"/>
+      <c r="GK1" s="70"/>
+      <c r="GL1" s="70"/>
+      <c r="GM1" s="70"/>
+      <c r="GN1" s="70"/>
+      <c r="GO1" s="70"/>
+      <c r="GP1" s="70"/>
+      <c r="GQ1" s="70"/>
+      <c r="GR1" s="70"/>
+      <c r="GS1" s="70"/>
+      <c r="GT1" s="70"/>
+      <c r="GU1" s="70"/>
+      <c r="GV1" s="70"/>
+      <c r="GW1" s="70"/>
+      <c r="GX1" s="70"/>
+      <c r="GY1" s="70"/>
+      <c r="GZ1" s="70"/>
+      <c r="HA1" s="70"/>
+      <c r="HB1" s="70"/>
+      <c r="HC1" s="70"/>
+      <c r="HD1" s="70"/>
+      <c r="HE1" s="70"/>
+      <c r="HF1" s="70"/>
+      <c r="HG1" s="70"/>
+      <c r="HH1" s="70"/>
+      <c r="HI1" s="70"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="69">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="51">
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="69">
         <v>1</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="51">
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="69">
         <v>2</v>
       </c>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="51">
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="69">
         <v>3</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="51">
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="69">
         <v>4</v>
       </c>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="51">
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="69">
         <v>5</v>
       </c>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="51">
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="69">
         <v>6</v>
       </c>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="53"/>
-      <c r="BF2" s="51">
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="69">
         <v>7</v>
       </c>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="51">
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="69">
         <v>8</v>
       </c>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="52"/>
-      <c r="BQ2" s="52"/>
-      <c r="BR2" s="52"/>
-      <c r="BS2" s="52"/>
-      <c r="BT2" s="52"/>
-      <c r="BU2" s="53"/>
-      <c r="BV2" s="51">
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="71"/>
+      <c r="BV2" s="69">
         <v>9</v>
       </c>
-      <c r="BW2" s="52"/>
-      <c r="BX2" s="52"/>
-      <c r="BY2" s="52"/>
-      <c r="BZ2" s="52"/>
-      <c r="CA2" s="52"/>
-      <c r="CB2" s="52"/>
-      <c r="CC2" s="53"/>
-      <c r="CD2" s="51">
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="71"/>
+      <c r="CD2" s="69">
         <v>10</v>
       </c>
-      <c r="CE2" s="52"/>
-      <c r="CF2" s="52"/>
-      <c r="CG2" s="52"/>
-      <c r="CH2" s="52"/>
-      <c r="CI2" s="52"/>
-      <c r="CJ2" s="52"/>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="51">
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="71"/>
+      <c r="CL2" s="69">
         <v>11</v>
       </c>
-      <c r="CM2" s="52"/>
-      <c r="CN2" s="52"/>
-      <c r="CO2" s="52"/>
-      <c r="CP2" s="52"/>
-      <c r="CQ2" s="52"/>
-      <c r="CR2" s="52"/>
-      <c r="CS2" s="53"/>
-      <c r="CT2" s="51">
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="71"/>
+      <c r="CT2" s="69">
         <v>12</v>
       </c>
-      <c r="CU2" s="52"/>
-      <c r="CV2" s="52"/>
-      <c r="CW2" s="52"/>
-      <c r="CX2" s="52"/>
-      <c r="CY2" s="52"/>
-      <c r="CZ2" s="52"/>
-      <c r="DA2" s="53"/>
-      <c r="DB2" s="51">
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="71"/>
+      <c r="DB2" s="69">
         <v>13</v>
       </c>
-      <c r="DC2" s="52"/>
-      <c r="DD2" s="52"/>
-      <c r="DE2" s="52"/>
-      <c r="DF2" s="52"/>
-      <c r="DG2" s="52"/>
-      <c r="DH2" s="52"/>
-      <c r="DI2" s="53"/>
-      <c r="DJ2" s="51">
+      <c r="DC2" s="70"/>
+      <c r="DD2" s="70"/>
+      <c r="DE2" s="70"/>
+      <c r="DF2" s="70"/>
+      <c r="DG2" s="70"/>
+      <c r="DH2" s="70"/>
+      <c r="DI2" s="71"/>
+      <c r="DJ2" s="69">
         <v>14</v>
       </c>
-      <c r="DK2" s="52"/>
-      <c r="DL2" s="52"/>
-      <c r="DM2" s="52"/>
-      <c r="DN2" s="52"/>
-      <c r="DO2" s="52"/>
-      <c r="DP2" s="52"/>
-      <c r="DQ2" s="53"/>
-      <c r="DR2" s="51">
+      <c r="DK2" s="70"/>
+      <c r="DL2" s="70"/>
+      <c r="DM2" s="70"/>
+      <c r="DN2" s="70"/>
+      <c r="DO2" s="70"/>
+      <c r="DP2" s="70"/>
+      <c r="DQ2" s="71"/>
+      <c r="DR2" s="69">
         <v>15</v>
       </c>
-      <c r="DS2" s="52"/>
-      <c r="DT2" s="52"/>
-      <c r="DU2" s="52"/>
-      <c r="DV2" s="52"/>
-      <c r="DW2" s="52"/>
-      <c r="DX2" s="52"/>
-      <c r="DY2" s="53"/>
-      <c r="DZ2" s="51">
+      <c r="DS2" s="70"/>
+      <c r="DT2" s="70"/>
+      <c r="DU2" s="70"/>
+      <c r="DV2" s="70"/>
+      <c r="DW2" s="70"/>
+      <c r="DX2" s="70"/>
+      <c r="DY2" s="71"/>
+      <c r="DZ2" s="69">
         <v>16</v>
       </c>
-      <c r="EA2" s="52"/>
-      <c r="EB2" s="52"/>
-      <c r="EC2" s="52"/>
-      <c r="ED2" s="52"/>
-      <c r="EE2" s="52"/>
-      <c r="EF2" s="52"/>
-      <c r="EG2" s="53"/>
-      <c r="EH2" s="51">
+      <c r="EA2" s="70"/>
+      <c r="EB2" s="70"/>
+      <c r="EC2" s="70"/>
+      <c r="ED2" s="70"/>
+      <c r="EE2" s="70"/>
+      <c r="EF2" s="70"/>
+      <c r="EG2" s="71"/>
+      <c r="EH2" s="69">
         <v>17</v>
       </c>
-      <c r="EI2" s="52"/>
-      <c r="EJ2" s="52"/>
-      <c r="EK2" s="52"/>
-      <c r="EL2" s="52"/>
-      <c r="EM2" s="52"/>
-      <c r="EN2" s="52"/>
-      <c r="EO2" s="53"/>
-      <c r="EP2" s="51">
+      <c r="EI2" s="70"/>
+      <c r="EJ2" s="70"/>
+      <c r="EK2" s="70"/>
+      <c r="EL2" s="70"/>
+      <c r="EM2" s="70"/>
+      <c r="EN2" s="70"/>
+      <c r="EO2" s="71"/>
+      <c r="EP2" s="69">
         <v>18</v>
       </c>
-      <c r="EQ2" s="52"/>
-      <c r="ER2" s="52"/>
-      <c r="ES2" s="52"/>
-      <c r="ET2" s="52"/>
-      <c r="EU2" s="52"/>
-      <c r="EV2" s="52"/>
-      <c r="EW2" s="53"/>
-      <c r="EX2" s="51">
+      <c r="EQ2" s="70"/>
+      <c r="ER2" s="70"/>
+      <c r="ES2" s="70"/>
+      <c r="ET2" s="70"/>
+      <c r="EU2" s="70"/>
+      <c r="EV2" s="70"/>
+      <c r="EW2" s="71"/>
+      <c r="EX2" s="69">
         <v>19</v>
       </c>
-      <c r="EY2" s="52"/>
-      <c r="EZ2" s="52"/>
-      <c r="FA2" s="52"/>
-      <c r="FB2" s="52"/>
-      <c r="FC2" s="52"/>
-      <c r="FD2" s="52"/>
-      <c r="FE2" s="53"/>
-      <c r="FF2" s="51">
+      <c r="EY2" s="70"/>
+      <c r="EZ2" s="70"/>
+      <c r="FA2" s="70"/>
+      <c r="FB2" s="70"/>
+      <c r="FC2" s="70"/>
+      <c r="FD2" s="70"/>
+      <c r="FE2" s="71"/>
+      <c r="FF2" s="69">
         <v>20</v>
       </c>
-      <c r="FG2" s="52"/>
-      <c r="FH2" s="52"/>
-      <c r="FI2" s="52"/>
-      <c r="FJ2" s="52"/>
-      <c r="FK2" s="52"/>
-      <c r="FL2" s="52"/>
-      <c r="FM2" s="53"/>
-      <c r="FN2" s="51">
+      <c r="FG2" s="70"/>
+      <c r="FH2" s="70"/>
+      <c r="FI2" s="70"/>
+      <c r="FJ2" s="70"/>
+      <c r="FK2" s="70"/>
+      <c r="FL2" s="70"/>
+      <c r="FM2" s="71"/>
+      <c r="FN2" s="69">
         <v>21</v>
       </c>
-      <c r="FO2" s="52"/>
-      <c r="FP2" s="52"/>
-      <c r="FQ2" s="52"/>
-      <c r="FR2" s="52"/>
-      <c r="FS2" s="52"/>
-      <c r="FT2" s="52"/>
-      <c r="FU2" s="53"/>
-      <c r="FV2" s="51">
+      <c r="FO2" s="70"/>
+      <c r="FP2" s="70"/>
+      <c r="FQ2" s="70"/>
+      <c r="FR2" s="70"/>
+      <c r="FS2" s="70"/>
+      <c r="FT2" s="70"/>
+      <c r="FU2" s="71"/>
+      <c r="FV2" s="69">
         <v>22</v>
       </c>
-      <c r="FW2" s="52"/>
-      <c r="FX2" s="52"/>
-      <c r="FY2" s="52"/>
-      <c r="FZ2" s="52"/>
-      <c r="GA2" s="52"/>
-      <c r="GB2" s="52"/>
-      <c r="GC2" s="53"/>
-      <c r="GD2" s="51">
+      <c r="FW2" s="70"/>
+      <c r="FX2" s="70"/>
+      <c r="FY2" s="70"/>
+      <c r="FZ2" s="70"/>
+      <c r="GA2" s="70"/>
+      <c r="GB2" s="70"/>
+      <c r="GC2" s="71"/>
+      <c r="GD2" s="69">
         <v>23</v>
       </c>
-      <c r="GE2" s="52"/>
-      <c r="GF2" s="52"/>
-      <c r="GG2" s="52"/>
-      <c r="GH2" s="52"/>
-      <c r="GI2" s="52"/>
-      <c r="GJ2" s="52"/>
-      <c r="GK2" s="53"/>
-      <c r="GL2" s="51">
+      <c r="GE2" s="70"/>
+      <c r="GF2" s="70"/>
+      <c r="GG2" s="70"/>
+      <c r="GH2" s="70"/>
+      <c r="GI2" s="70"/>
+      <c r="GJ2" s="70"/>
+      <c r="GK2" s="71"/>
+      <c r="GL2" s="69">
         <v>24</v>
       </c>
-      <c r="GM2" s="52"/>
-      <c r="GN2" s="52"/>
-      <c r="GO2" s="52"/>
-      <c r="GP2" s="52"/>
-      <c r="GQ2" s="52"/>
-      <c r="GR2" s="52"/>
-      <c r="GS2" s="53"/>
-      <c r="GT2" s="51">
+      <c r="GM2" s="70"/>
+      <c r="GN2" s="70"/>
+      <c r="GO2" s="70"/>
+      <c r="GP2" s="70"/>
+      <c r="GQ2" s="70"/>
+      <c r="GR2" s="70"/>
+      <c r="GS2" s="71"/>
+      <c r="GT2" s="69">
         <v>25</v>
       </c>
-      <c r="GU2" s="52"/>
-      <c r="GV2" s="52"/>
-      <c r="GW2" s="52"/>
-      <c r="GX2" s="52"/>
-      <c r="GY2" s="52"/>
-      <c r="GZ2" s="52"/>
-      <c r="HA2" s="53"/>
-      <c r="HB2" s="51">
+      <c r="GU2" s="70"/>
+      <c r="GV2" s="70"/>
+      <c r="GW2" s="70"/>
+      <c r="GX2" s="70"/>
+      <c r="GY2" s="70"/>
+      <c r="GZ2" s="70"/>
+      <c r="HA2" s="71"/>
+      <c r="HB2" s="69">
         <v>26</v>
       </c>
-      <c r="HC2" s="52"/>
-      <c r="HD2" s="52"/>
-      <c r="HE2" s="52"/>
-      <c r="HF2" s="52"/>
-      <c r="HG2" s="52"/>
-      <c r="HH2" s="52"/>
-      <c r="HI2" s="53"/>
+      <c r="HC2" s="70"/>
+      <c r="HD2" s="70"/>
+      <c r="HE2" s="70"/>
+      <c r="HF2" s="70"/>
+      <c r="HG2" s="70"/>
+      <c r="HH2" s="70"/>
+      <c r="HI2" s="71"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="69" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="51" t="str">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="69" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="51" t="str">
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="69" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="51" t="str">
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="69" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="51" t="str">
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="69" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="51" t="str">
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="69" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52"/>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="53"/>
-      <c r="AX3" s="51" t="str">
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="69" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="52"/>
-      <c r="AZ3" s="52"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="51" t="str">
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="69" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="52"/>
-      <c r="BH3" s="52"/>
-      <c r="BI3" s="52"/>
-      <c r="BJ3" s="52"/>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="53"/>
-      <c r="BN3" s="51" t="str">
+      <c r="BG3" s="70"/>
+      <c r="BH3" s="70"/>
+      <c r="BI3" s="70"/>
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="69" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
-      <c r="BR3" s="52"/>
-      <c r="BS3" s="52"/>
-      <c r="BT3" s="52"/>
-      <c r="BU3" s="53"/>
-      <c r="BV3" s="51" t="str">
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="71"/>
+      <c r="BV3" s="69" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="52"/>
-      <c r="BX3" s="52"/>
-      <c r="BY3" s="52"/>
-      <c r="BZ3" s="52"/>
-      <c r="CA3" s="52"/>
-      <c r="CB3" s="52"/>
-      <c r="CC3" s="53"/>
-      <c r="CD3" s="51" t="str">
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="70"/>
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="70"/>
+      <c r="CB3" s="70"/>
+      <c r="CC3" s="71"/>
+      <c r="CD3" s="69" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="52"/>
-      <c r="CF3" s="52"/>
-      <c r="CG3" s="52"/>
-      <c r="CH3" s="52"/>
-      <c r="CI3" s="52"/>
-      <c r="CJ3" s="52"/>
-      <c r="CK3" s="53"/>
-      <c r="CL3" s="51" t="str">
+      <c r="CE3" s="70"/>
+      <c r="CF3" s="70"/>
+      <c r="CG3" s="70"/>
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="70"/>
+      <c r="CJ3" s="70"/>
+      <c r="CK3" s="71"/>
+      <c r="CL3" s="69" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="52"/>
-      <c r="CN3" s="52"/>
-      <c r="CO3" s="52"/>
-      <c r="CP3" s="52"/>
-      <c r="CQ3" s="52"/>
-      <c r="CR3" s="52"/>
-      <c r="CS3" s="53"/>
-      <c r="CT3" s="51" t="str">
+      <c r="CM3" s="70"/>
+      <c r="CN3" s="70"/>
+      <c r="CO3" s="70"/>
+      <c r="CP3" s="70"/>
+      <c r="CQ3" s="70"/>
+      <c r="CR3" s="70"/>
+      <c r="CS3" s="71"/>
+      <c r="CT3" s="69" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="52"/>
-      <c r="CV3" s="52"/>
-      <c r="CW3" s="52"/>
-      <c r="CX3" s="52"/>
-      <c r="CY3" s="52"/>
-      <c r="CZ3" s="52"/>
-      <c r="DA3" s="53"/>
-      <c r="DB3" s="51" t="str">
+      <c r="CU3" s="70"/>
+      <c r="CV3" s="70"/>
+      <c r="CW3" s="70"/>
+      <c r="CX3" s="70"/>
+      <c r="CY3" s="70"/>
+      <c r="CZ3" s="70"/>
+      <c r="DA3" s="71"/>
+      <c r="DB3" s="69" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="52"/>
-      <c r="DD3" s="52"/>
-      <c r="DE3" s="52"/>
-      <c r="DF3" s="52"/>
-      <c r="DG3" s="52"/>
-      <c r="DH3" s="52"/>
-      <c r="DI3" s="53"/>
-      <c r="DJ3" s="51" t="str">
+      <c r="DC3" s="70"/>
+      <c r="DD3" s="70"/>
+      <c r="DE3" s="70"/>
+      <c r="DF3" s="70"/>
+      <c r="DG3" s="70"/>
+      <c r="DH3" s="70"/>
+      <c r="DI3" s="71"/>
+      <c r="DJ3" s="69" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="52"/>
-      <c r="DL3" s="52"/>
-      <c r="DM3" s="52"/>
-      <c r="DN3" s="52"/>
-      <c r="DO3" s="52"/>
-      <c r="DP3" s="52"/>
-      <c r="DQ3" s="53"/>
-      <c r="DR3" s="51" t="str">
+      <c r="DK3" s="70"/>
+      <c r="DL3" s="70"/>
+      <c r="DM3" s="70"/>
+      <c r="DN3" s="70"/>
+      <c r="DO3" s="70"/>
+      <c r="DP3" s="70"/>
+      <c r="DQ3" s="71"/>
+      <c r="DR3" s="69" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="52"/>
-      <c r="DT3" s="52"/>
-      <c r="DU3" s="52"/>
-      <c r="DV3" s="52"/>
-      <c r="DW3" s="52"/>
-      <c r="DX3" s="52"/>
-      <c r="DY3" s="53"/>
-      <c r="DZ3" s="51" t="str">
+      <c r="DS3" s="70"/>
+      <c r="DT3" s="70"/>
+      <c r="DU3" s="70"/>
+      <c r="DV3" s="70"/>
+      <c r="DW3" s="70"/>
+      <c r="DX3" s="70"/>
+      <c r="DY3" s="71"/>
+      <c r="DZ3" s="69" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="52"/>
-      <c r="EB3" s="52"/>
-      <c r="EC3" s="52"/>
-      <c r="ED3" s="52"/>
-      <c r="EE3" s="52"/>
-      <c r="EF3" s="52"/>
-      <c r="EG3" s="53"/>
-      <c r="EH3" s="51" t="str">
+      <c r="EA3" s="70"/>
+      <c r="EB3" s="70"/>
+      <c r="EC3" s="70"/>
+      <c r="ED3" s="70"/>
+      <c r="EE3" s="70"/>
+      <c r="EF3" s="70"/>
+      <c r="EG3" s="71"/>
+      <c r="EH3" s="69" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="52"/>
-      <c r="EJ3" s="52"/>
-      <c r="EK3" s="52"/>
-      <c r="EL3" s="52"/>
-      <c r="EM3" s="52"/>
-      <c r="EN3" s="52"/>
-      <c r="EO3" s="53"/>
-      <c r="EP3" s="51" t="str">
+      <c r="EI3" s="70"/>
+      <c r="EJ3" s="70"/>
+      <c r="EK3" s="70"/>
+      <c r="EL3" s="70"/>
+      <c r="EM3" s="70"/>
+      <c r="EN3" s="70"/>
+      <c r="EO3" s="71"/>
+      <c r="EP3" s="69" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="52"/>
-      <c r="ER3" s="52"/>
-      <c r="ES3" s="52"/>
-      <c r="ET3" s="52"/>
-      <c r="EU3" s="52"/>
-      <c r="EV3" s="52"/>
-      <c r="EW3" s="53"/>
-      <c r="EX3" s="51" t="str">
+      <c r="EQ3" s="70"/>
+      <c r="ER3" s="70"/>
+      <c r="ES3" s="70"/>
+      <c r="ET3" s="70"/>
+      <c r="EU3" s="70"/>
+      <c r="EV3" s="70"/>
+      <c r="EW3" s="71"/>
+      <c r="EX3" s="69" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="52"/>
-      <c r="EZ3" s="52"/>
-      <c r="FA3" s="52"/>
-      <c r="FB3" s="52"/>
-      <c r="FC3" s="52"/>
-      <c r="FD3" s="52"/>
-      <c r="FE3" s="53"/>
-      <c r="FF3" s="51" t="str">
+      <c r="EY3" s="70"/>
+      <c r="EZ3" s="70"/>
+      <c r="FA3" s="70"/>
+      <c r="FB3" s="70"/>
+      <c r="FC3" s="70"/>
+      <c r="FD3" s="70"/>
+      <c r="FE3" s="71"/>
+      <c r="FF3" s="69" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="52"/>
-      <c r="FH3" s="52"/>
-      <c r="FI3" s="52"/>
-      <c r="FJ3" s="52"/>
-      <c r="FK3" s="52"/>
-      <c r="FL3" s="52"/>
-      <c r="FM3" s="53"/>
-      <c r="FN3" s="51" t="str">
+      <c r="FG3" s="70"/>
+      <c r="FH3" s="70"/>
+      <c r="FI3" s="70"/>
+      <c r="FJ3" s="70"/>
+      <c r="FK3" s="70"/>
+      <c r="FL3" s="70"/>
+      <c r="FM3" s="71"/>
+      <c r="FN3" s="69" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="52"/>
-      <c r="FP3" s="52"/>
-      <c r="FQ3" s="52"/>
-      <c r="FR3" s="52"/>
-      <c r="FS3" s="52"/>
-      <c r="FT3" s="52"/>
-      <c r="FU3" s="53"/>
-      <c r="FV3" s="51" t="str">
+      <c r="FO3" s="70"/>
+      <c r="FP3" s="70"/>
+      <c r="FQ3" s="70"/>
+      <c r="FR3" s="70"/>
+      <c r="FS3" s="70"/>
+      <c r="FT3" s="70"/>
+      <c r="FU3" s="71"/>
+      <c r="FV3" s="69" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="52"/>
-      <c r="FX3" s="52"/>
-      <c r="FY3" s="52"/>
-      <c r="FZ3" s="52"/>
-      <c r="GA3" s="52"/>
-      <c r="GB3" s="52"/>
-      <c r="GC3" s="53"/>
-      <c r="GD3" s="51" t="str">
+      <c r="FW3" s="70"/>
+      <c r="FX3" s="70"/>
+      <c r="FY3" s="70"/>
+      <c r="FZ3" s="70"/>
+      <c r="GA3" s="70"/>
+      <c r="GB3" s="70"/>
+      <c r="GC3" s="71"/>
+      <c r="GD3" s="69" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="52"/>
-      <c r="GF3" s="52"/>
-      <c r="GG3" s="52"/>
-      <c r="GH3" s="52"/>
-      <c r="GI3" s="52"/>
-      <c r="GJ3" s="52"/>
-      <c r="GK3" s="53"/>
-      <c r="GL3" s="51" t="str">
+      <c r="GE3" s="70"/>
+      <c r="GF3" s="70"/>
+      <c r="GG3" s="70"/>
+      <c r="GH3" s="70"/>
+      <c r="GI3" s="70"/>
+      <c r="GJ3" s="70"/>
+      <c r="GK3" s="71"/>
+      <c r="GL3" s="69" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="52"/>
-      <c r="GN3" s="52"/>
-      <c r="GO3" s="52"/>
-      <c r="GP3" s="52"/>
-      <c r="GQ3" s="52"/>
-      <c r="GR3" s="52"/>
-      <c r="GS3" s="53"/>
-      <c r="GT3" s="51" t="str">
+      <c r="GM3" s="70"/>
+      <c r="GN3" s="70"/>
+      <c r="GO3" s="70"/>
+      <c r="GP3" s="70"/>
+      <c r="GQ3" s="70"/>
+      <c r="GR3" s="70"/>
+      <c r="GS3" s="71"/>
+      <c r="GT3" s="69" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="52"/>
-      <c r="GV3" s="52"/>
-      <c r="GW3" s="52"/>
-      <c r="GX3" s="52"/>
-      <c r="GY3" s="52"/>
-      <c r="GZ3" s="52"/>
-      <c r="HA3" s="53"/>
-      <c r="HB3" s="51" t="str">
+      <c r="GU3" s="70"/>
+      <c r="GV3" s="70"/>
+      <c r="GW3" s="70"/>
+      <c r="GX3" s="70"/>
+      <c r="GY3" s="70"/>
+      <c r="GZ3" s="70"/>
+      <c r="HA3" s="71"/>
+      <c r="HB3" s="69" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="52"/>
-      <c r="HD3" s="52"/>
-      <c r="HE3" s="52"/>
-      <c r="HF3" s="52"/>
-      <c r="HG3" s="52"/>
-      <c r="HH3" s="52"/>
-      <c r="HI3" s="53"/>
+      <c r="HC3" s="70"/>
+      <c r="HD3" s="70"/>
+      <c r="HE3" s="70"/>
+      <c r="HF3" s="70"/>
+      <c r="HG3" s="70"/>
+      <c r="HH3" s="70"/>
+      <c r="HI3" s="71"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="69">
         <v>0</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="51">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="69">
         <v>2</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="51">
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="69">
         <v>4</v>
       </c>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="51">
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="70"/>
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="69">
         <v>6</v>
       </c>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="53"/>
-      <c r="BN4" s="51">
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="70"/>
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="70"/>
+      <c r="BH4" s="70"/>
+      <c r="BI4" s="70"/>
+      <c r="BJ4" s="70"/>
+      <c r="BK4" s="70"/>
+      <c r="BL4" s="70"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="69">
         <v>8</v>
       </c>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="52"/>
-      <c r="BR4" s="52"/>
-      <c r="BS4" s="52"/>
-      <c r="BT4" s="52"/>
-      <c r="BU4" s="53"/>
-      <c r="BV4" s="51">
+      <c r="BO4" s="70"/>
+      <c r="BP4" s="70"/>
+      <c r="BQ4" s="70"/>
+      <c r="BR4" s="70"/>
+      <c r="BS4" s="70"/>
+      <c r="BT4" s="70"/>
+      <c r="BU4" s="71"/>
+      <c r="BV4" s="69">
         <v>9</v>
       </c>
-      <c r="BW4" s="52"/>
-      <c r="BX4" s="52"/>
-      <c r="BY4" s="52"/>
-      <c r="BZ4" s="52"/>
-      <c r="CA4" s="52"/>
-      <c r="CB4" s="52"/>
-      <c r="CC4" s="53"/>
-      <c r="CD4" s="51" t="str">
+      <c r="BW4" s="70"/>
+      <c r="BX4" s="70"/>
+      <c r="BY4" s="70"/>
+      <c r="BZ4" s="70"/>
+      <c r="CA4" s="70"/>
+      <c r="CB4" s="70"/>
+      <c r="CC4" s="71"/>
+      <c r="CD4" s="69" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="52"/>
-      <c r="CF4" s="52"/>
-      <c r="CG4" s="52"/>
-      <c r="CH4" s="52"/>
-      <c r="CI4" s="52"/>
-      <c r="CJ4" s="52"/>
-      <c r="CK4" s="53"/>
-      <c r="CL4" s="51" t="str">
+      <c r="CE4" s="70"/>
+      <c r="CF4" s="70"/>
+      <c r="CG4" s="70"/>
+      <c r="CH4" s="70"/>
+      <c r="CI4" s="70"/>
+      <c r="CJ4" s="70"/>
+      <c r="CK4" s="71"/>
+      <c r="CL4" s="69" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="52"/>
-      <c r="CN4" s="52"/>
-      <c r="CO4" s="52"/>
-      <c r="CP4" s="52"/>
-      <c r="CQ4" s="52"/>
-      <c r="CR4" s="52"/>
-      <c r="CS4" s="52"/>
-      <c r="CT4" s="52"/>
-      <c r="CU4" s="52"/>
-      <c r="CV4" s="52"/>
-      <c r="CW4" s="52"/>
-      <c r="CX4" s="52"/>
-      <c r="CY4" s="52"/>
-      <c r="CZ4" s="52"/>
-      <c r="DA4" s="53"/>
-      <c r="DB4" s="51" t="str">
+      <c r="CM4" s="70"/>
+      <c r="CN4" s="70"/>
+      <c r="CO4" s="70"/>
+      <c r="CP4" s="70"/>
+      <c r="CQ4" s="70"/>
+      <c r="CR4" s="70"/>
+      <c r="CS4" s="70"/>
+      <c r="CT4" s="70"/>
+      <c r="CU4" s="70"/>
+      <c r="CV4" s="70"/>
+      <c r="CW4" s="70"/>
+      <c r="CX4" s="70"/>
+      <c r="CY4" s="70"/>
+      <c r="CZ4" s="70"/>
+      <c r="DA4" s="71"/>
+      <c r="DB4" s="69" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="52"/>
-      <c r="DD4" s="52"/>
-      <c r="DE4" s="52"/>
-      <c r="DF4" s="52"/>
-      <c r="DG4" s="52"/>
-      <c r="DH4" s="52"/>
-      <c r="DI4" s="52"/>
-      <c r="DJ4" s="52"/>
-      <c r="DK4" s="52"/>
-      <c r="DL4" s="52"/>
-      <c r="DM4" s="52"/>
-      <c r="DN4" s="52"/>
-      <c r="DO4" s="52"/>
-      <c r="DP4" s="52"/>
-      <c r="DQ4" s="53"/>
-      <c r="DR4" s="51" t="str">
+      <c r="DC4" s="70"/>
+      <c r="DD4" s="70"/>
+      <c r="DE4" s="70"/>
+      <c r="DF4" s="70"/>
+      <c r="DG4" s="70"/>
+      <c r="DH4" s="70"/>
+      <c r="DI4" s="70"/>
+      <c r="DJ4" s="70"/>
+      <c r="DK4" s="70"/>
+      <c r="DL4" s="70"/>
+      <c r="DM4" s="70"/>
+      <c r="DN4" s="70"/>
+      <c r="DO4" s="70"/>
+      <c r="DP4" s="70"/>
+      <c r="DQ4" s="71"/>
+      <c r="DR4" s="69" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="52"/>
-      <c r="DT4" s="52"/>
-      <c r="DU4" s="52"/>
-      <c r="DV4" s="52"/>
-      <c r="DW4" s="52"/>
-      <c r="DX4" s="52"/>
-      <c r="DY4" s="52"/>
-      <c r="DZ4" s="52"/>
-      <c r="EA4" s="52"/>
-      <c r="EB4" s="52"/>
-      <c r="EC4" s="52"/>
-      <c r="ED4" s="52"/>
-      <c r="EE4" s="52"/>
-      <c r="EF4" s="52"/>
-      <c r="EG4" s="53"/>
-      <c r="EH4" s="51" t="str">
+      <c r="DS4" s="70"/>
+      <c r="DT4" s="70"/>
+      <c r="DU4" s="70"/>
+      <c r="DV4" s="70"/>
+      <c r="DW4" s="70"/>
+      <c r="DX4" s="70"/>
+      <c r="DY4" s="70"/>
+      <c r="DZ4" s="70"/>
+      <c r="EA4" s="70"/>
+      <c r="EB4" s="70"/>
+      <c r="EC4" s="70"/>
+      <c r="ED4" s="70"/>
+      <c r="EE4" s="70"/>
+      <c r="EF4" s="70"/>
+      <c r="EG4" s="71"/>
+      <c r="EH4" s="69" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="52"/>
-      <c r="EJ4" s="52"/>
-      <c r="EK4" s="52"/>
-      <c r="EL4" s="52"/>
-      <c r="EM4" s="52"/>
-      <c r="EN4" s="52"/>
-      <c r="EO4" s="53"/>
-      <c r="EP4" s="51" t="str">
+      <c r="EI4" s="70"/>
+      <c r="EJ4" s="70"/>
+      <c r="EK4" s="70"/>
+      <c r="EL4" s="70"/>
+      <c r="EM4" s="70"/>
+      <c r="EN4" s="70"/>
+      <c r="EO4" s="71"/>
+      <c r="EP4" s="69" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="52"/>
-      <c r="ER4" s="52"/>
-      <c r="ES4" s="52"/>
-      <c r="ET4" s="52"/>
-      <c r="EU4" s="52"/>
-      <c r="EV4" s="52"/>
-      <c r="EW4" s="53"/>
-      <c r="EX4" s="51" t="str">
+      <c r="EQ4" s="70"/>
+      <c r="ER4" s="70"/>
+      <c r="ES4" s="70"/>
+      <c r="ET4" s="70"/>
+      <c r="EU4" s="70"/>
+      <c r="EV4" s="70"/>
+      <c r="EW4" s="71"/>
+      <c r="EX4" s="69" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="52"/>
-      <c r="EZ4" s="52"/>
-      <c r="FA4" s="52"/>
-      <c r="FB4" s="52"/>
-      <c r="FC4" s="52"/>
-      <c r="FD4" s="52"/>
-      <c r="FE4" s="53"/>
-      <c r="FF4" s="51" t="str">
+      <c r="EY4" s="70"/>
+      <c r="EZ4" s="70"/>
+      <c r="FA4" s="70"/>
+      <c r="FB4" s="70"/>
+      <c r="FC4" s="70"/>
+      <c r="FD4" s="70"/>
+      <c r="FE4" s="71"/>
+      <c r="FF4" s="69" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="52"/>
-      <c r="FH4" s="52"/>
-      <c r="FI4" s="52"/>
-      <c r="FJ4" s="52"/>
-      <c r="FK4" s="52"/>
-      <c r="FL4" s="52"/>
-      <c r="FM4" s="53"/>
-      <c r="FN4" s="51" t="str">
+      <c r="FG4" s="70"/>
+      <c r="FH4" s="70"/>
+      <c r="FI4" s="70"/>
+      <c r="FJ4" s="70"/>
+      <c r="FK4" s="70"/>
+      <c r="FL4" s="70"/>
+      <c r="FM4" s="71"/>
+      <c r="FN4" s="69" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="52"/>
-      <c r="FP4" s="52"/>
-      <c r="FQ4" s="52"/>
-      <c r="FR4" s="52"/>
-      <c r="FS4" s="52"/>
-      <c r="FT4" s="52"/>
-      <c r="FU4" s="53"/>
-      <c r="FV4" s="51" t="str">
+      <c r="FO4" s="70"/>
+      <c r="FP4" s="70"/>
+      <c r="FQ4" s="70"/>
+      <c r="FR4" s="70"/>
+      <c r="FS4" s="70"/>
+      <c r="FT4" s="70"/>
+      <c r="FU4" s="71"/>
+      <c r="FV4" s="69" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="52"/>
-      <c r="FX4" s="52"/>
-      <c r="FY4" s="52"/>
-      <c r="FZ4" s="52"/>
-      <c r="GA4" s="52"/>
-      <c r="GB4" s="52"/>
-      <c r="GC4" s="52"/>
-      <c r="GD4" s="52"/>
-      <c r="GE4" s="52"/>
-      <c r="GF4" s="52"/>
-      <c r="GG4" s="52"/>
-      <c r="GH4" s="52"/>
-      <c r="GI4" s="52"/>
-      <c r="GJ4" s="52"/>
-      <c r="GK4" s="53"/>
-      <c r="GL4" s="51" t="str">
+      <c r="FW4" s="70"/>
+      <c r="FX4" s="70"/>
+      <c r="FY4" s="70"/>
+      <c r="FZ4" s="70"/>
+      <c r="GA4" s="70"/>
+      <c r="GB4" s="70"/>
+      <c r="GC4" s="70"/>
+      <c r="GD4" s="70"/>
+      <c r="GE4" s="70"/>
+      <c r="GF4" s="70"/>
+      <c r="GG4" s="70"/>
+      <c r="GH4" s="70"/>
+      <c r="GI4" s="70"/>
+      <c r="GJ4" s="70"/>
+      <c r="GK4" s="71"/>
+      <c r="GL4" s="69" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="52"/>
-      <c r="GN4" s="52"/>
-      <c r="GO4" s="52"/>
-      <c r="GP4" s="52"/>
-      <c r="GQ4" s="52"/>
-      <c r="GR4" s="52"/>
-      <c r="GS4" s="53"/>
-      <c r="GT4" s="51" t="str">
+      <c r="GM4" s="70"/>
+      <c r="GN4" s="70"/>
+      <c r="GO4" s="70"/>
+      <c r="GP4" s="70"/>
+      <c r="GQ4" s="70"/>
+      <c r="GR4" s="70"/>
+      <c r="GS4" s="71"/>
+      <c r="GT4" s="69" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="52"/>
-      <c r="GV4" s="52"/>
-      <c r="GW4" s="52"/>
-      <c r="GX4" s="52"/>
-      <c r="GY4" s="52"/>
-      <c r="GZ4" s="52"/>
-      <c r="HA4" s="53"/>
-      <c r="HB4" s="51" t="str">
+      <c r="GU4" s="70"/>
+      <c r="GV4" s="70"/>
+      <c r="GW4" s="70"/>
+      <c r="GX4" s="70"/>
+      <c r="GY4" s="70"/>
+      <c r="GZ4" s="70"/>
+      <c r="HA4" s="71"/>
+      <c r="HB4" s="69" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="52"/>
-      <c r="HD4" s="52"/>
-      <c r="HE4" s="52"/>
-      <c r="HF4" s="52"/>
-      <c r="HG4" s="52"/>
-      <c r="HH4" s="52"/>
-      <c r="HI4" s="53"/>
+      <c r="HC4" s="70"/>
+      <c r="HD4" s="70"/>
+      <c r="HE4" s="70"/>
+      <c r="HF4" s="70"/>
+      <c r="HG4" s="70"/>
+      <c r="HH4" s="70"/>
+      <c r="HI4" s="71"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
@@ -3484,867 +3626,867 @@
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="10" t="str">
         <f>DEC2HEX(B5)</f>
         <v>F</v>
       </c>
-      <c r="C6" s="12" t="str">
+      <c r="C6" s="11" t="str">
         <f t="shared" ref="C6:BN6" si="36">DEC2HEX(C5)</f>
         <v>E</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>D</v>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>C</v>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>B</v>
       </c>
-      <c r="G6" s="12" t="str">
+      <c r="G6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>A</v>
       </c>
-      <c r="H6" s="12" t="str">
+      <c r="H6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>9</v>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="J6" s="11" t="str">
+      <c r="J6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="K6" s="12" t="str">
+      <c r="K6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="L6" s="12" t="str">
+      <c r="L6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="M6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="N6" s="11" t="str">
+      <c r="N6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>3</v>
       </c>
-      <c r="O6" s="12" t="str">
+      <c r="O6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="P6" s="12" t="str">
+      <c r="P6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="R6" s="11" t="str">
+      <c r="R6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>F</v>
       </c>
-      <c r="S6" s="12" t="str">
+      <c r="S6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>E</v>
       </c>
-      <c r="T6" s="12" t="str">
+      <c r="T6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>D</v>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>C</v>
       </c>
-      <c r="V6" s="11" t="str">
+      <c r="V6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>B</v>
       </c>
-      <c r="W6" s="12" t="str">
+      <c r="W6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>A</v>
       </c>
-      <c r="X6" s="12" t="str">
+      <c r="X6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>9</v>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="Z6" s="11" t="str">
+      <c r="Z6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="AA6" s="12" t="str">
+      <c r="AA6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="AB6" s="12" t="str">
+      <c r="AB6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AC6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="AD6" s="11" t="str">
+      <c r="AD6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>3</v>
       </c>
-      <c r="AE6" s="12" t="str">
+      <c r="AE6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="AF6" s="12" t="str">
+      <c r="AF6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AG6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="11" t="str">
+      <c r="AH6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="12" t="str">
+      <c r="AI6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>E</v>
       </c>
-      <c r="AJ6" s="12" t="str">
+      <c r="AJ6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>D</v>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AK6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>C</v>
       </c>
-      <c r="AL6" s="11" t="str">
+      <c r="AL6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>B</v>
       </c>
-      <c r="AM6" s="12" t="str">
+      <c r="AM6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>A</v>
       </c>
-      <c r="AN6" s="12" t="str">
+      <c r="AN6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>9</v>
       </c>
-      <c r="AO6" s="13" t="str">
+      <c r="AO6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="AP6" s="11" t="str">
+      <c r="AP6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="AQ6" s="12" t="str">
+      <c r="AQ6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="AR6" s="12" t="str">
+      <c r="AR6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="AS6" s="13" t="str">
+      <c r="AS6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="AT6" s="11" t="str">
+      <c r="AT6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>3</v>
       </c>
-      <c r="AU6" s="12" t="str">
+      <c r="AU6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="AV6" s="12" t="str">
+      <c r="AV6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="AW6" s="13" t="str">
+      <c r="AW6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AX6" s="11" t="str">
+      <c r="AX6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>F</v>
       </c>
-      <c r="AY6" s="12" t="str">
+      <c r="AY6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>E</v>
       </c>
-      <c r="AZ6" s="12" t="str">
+      <c r="AZ6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>D</v>
       </c>
-      <c r="BA6" s="13" t="str">
+      <c r="BA6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>C</v>
       </c>
-      <c r="BB6" s="11" t="str">
+      <c r="BB6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>B</v>
       </c>
-      <c r="BC6" s="12" t="str">
+      <c r="BC6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>A</v>
       </c>
-      <c r="BD6" s="12" t="str">
+      <c r="BD6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>9</v>
       </c>
-      <c r="BE6" s="13" t="str">
+      <c r="BE6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="BF6" s="11" t="str">
+      <c r="BF6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="BG6" s="12" t="str">
+      <c r="BG6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>6</v>
       </c>
-      <c r="BH6" s="12" t="str">
+      <c r="BH6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>5</v>
       </c>
-      <c r="BI6" s="13" t="str">
+      <c r="BI6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="BJ6" s="11" t="str">
+      <c r="BJ6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>3</v>
       </c>
-      <c r="BK6" s="12" t="str">
+      <c r="BK6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
-      <c r="BL6" s="12" t="str">
+      <c r="BL6" s="11" t="str">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="BM6" s="13" t="str">
+      <c r="BM6" s="12" t="str">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="BN6" s="11" t="str">
+      <c r="BN6" s="10" t="str">
         <f t="shared" si="36"/>
         <v>7</v>
       </c>
-      <c r="BO6" s="12" t="str">
+      <c r="BO6" s="11" t="str">
         <f t="shared" ref="BO6:DZ6" si="37">DEC2HEX(BO5)</f>
         <v>6</v>
       </c>
-      <c r="BP6" s="12" t="str">
+      <c r="BP6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="BQ6" s="13" t="str">
+      <c r="BQ6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="BR6" s="11" t="str">
+      <c r="BR6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="BS6" s="12" t="str">
+      <c r="BS6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="BT6" s="12" t="str">
+      <c r="BT6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="BU6" s="13" t="str">
+      <c r="BU6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="BV6" s="11" t="str">
+      <c r="BV6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="BW6" s="12" t="str">
+      <c r="BW6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="BX6" s="12" t="str">
+      <c r="BX6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="BY6" s="13" t="str">
+      <c r="BY6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="BZ6" s="11" t="str">
+      <c r="BZ6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="CA6" s="12" t="str">
+      <c r="CA6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="CB6" s="12" t="str">
+      <c r="CB6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="CC6" s="13" t="str">
+      <c r="CC6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="CD6" s="11" t="str">
+      <c r="CD6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="CE6" s="12" t="str">
+      <c r="CE6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="CF6" s="12" t="str">
+      <c r="CF6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="CG6" s="13" t="str">
+      <c r="CG6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="CH6" s="11" t="str">
+      <c r="CH6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="CI6" s="12" t="str">
+      <c r="CI6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="CJ6" s="12" t="str">
+      <c r="CJ6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="CK6" s="13" t="str">
+      <c r="CK6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="CL6" s="11" t="str">
+      <c r="CL6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>F</v>
       </c>
-      <c r="CM6" s="12" t="str">
+      <c r="CM6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>E</v>
       </c>
-      <c r="CN6" s="12" t="str">
+      <c r="CN6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>D</v>
       </c>
-      <c r="CO6" s="13" t="str">
+      <c r="CO6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>C</v>
       </c>
-      <c r="CP6" s="11" t="str">
+      <c r="CP6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>B</v>
       </c>
-      <c r="CQ6" s="12" t="str">
+      <c r="CQ6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>A</v>
       </c>
-      <c r="CR6" s="12" t="str">
+      <c r="CR6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="CS6" s="13" t="str">
+      <c r="CS6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="CT6" s="11" t="str">
+      <c r="CT6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="CU6" s="12" t="str">
+      <c r="CU6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="CV6" s="12" t="str">
+      <c r="CV6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="CW6" s="13" t="str">
+      <c r="CW6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="CX6" s="11" t="str">
+      <c r="CX6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="CY6" s="12" t="str">
+      <c r="CY6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="CZ6" s="12" t="str">
+      <c r="CZ6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="DA6" s="13" t="str">
+      <c r="DA6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="DB6" s="11" t="str">
+      <c r="DB6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>F</v>
       </c>
-      <c r="DC6" s="12" t="str">
+      <c r="DC6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>E</v>
       </c>
-      <c r="DD6" s="12" t="str">
+      <c r="DD6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>D</v>
       </c>
-      <c r="DE6" s="13" t="str">
+      <c r="DE6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>C</v>
       </c>
-      <c r="DF6" s="11" t="str">
+      <c r="DF6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>B</v>
       </c>
-      <c r="DG6" s="12" t="str">
+      <c r="DG6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>A</v>
       </c>
-      <c r="DH6" s="12" t="str">
+      <c r="DH6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="DI6" s="13" t="str">
+      <c r="DI6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="DJ6" s="11" t="str">
+      <c r="DJ6" s="40" t="str">
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="DK6" s="12" t="str">
+      <c r="DK6" s="41" t="str">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="DL6" s="12" t="str">
+      <c r="DL6" s="41" t="str">
         <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="DM6" s="13" t="str">
+      <c r="DM6" s="42" t="str">
         <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="DN6" s="11" t="str">
+      <c r="DN6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="DO6" s="12" t="str">
+      <c r="DO6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="DP6" s="12" t="str">
+      <c r="DP6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="DQ6" s="13" t="str">
+      <c r="DQ6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="DR6" s="11" t="str">
+      <c r="DR6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>F</v>
       </c>
-      <c r="DS6" s="12" t="str">
+      <c r="DS6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>E</v>
       </c>
-      <c r="DT6" s="12" t="str">
+      <c r="DT6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>D</v>
       </c>
-      <c r="DU6" s="13" t="str">
+      <c r="DU6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>C</v>
       </c>
-      <c r="DV6" s="11" t="str">
+      <c r="DV6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>B</v>
       </c>
-      <c r="DW6" s="12" t="str">
+      <c r="DW6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>A</v>
       </c>
-      <c r="DX6" s="12" t="str">
+      <c r="DX6" s="11" t="str">
         <f t="shared" si="37"/>
         <v>9</v>
       </c>
-      <c r="DY6" s="13" t="str">
+      <c r="DY6" s="12" t="str">
         <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="DZ6" s="11" t="str">
+      <c r="DZ6" s="10" t="str">
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="EA6" s="12" t="str">
+      <c r="EA6" s="11" t="str">
         <f t="shared" ref="EA6:GL6" si="38">DEC2HEX(EA5)</f>
         <v>6</v>
       </c>
-      <c r="EB6" s="12" t="str">
+      <c r="EB6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="EC6" s="13" t="str">
+      <c r="EC6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="ED6" s="11" t="str">
+      <c r="ED6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="EE6" s="12" t="str">
+      <c r="EE6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="EF6" s="12" t="str">
+      <c r="EF6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="EG6" s="13" t="str">
+      <c r="EG6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="EH6" s="11" t="str">
+      <c r="EH6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="EI6" s="12" t="str">
+      <c r="EI6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="EJ6" s="12" t="str">
+      <c r="EJ6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="EK6" s="13" t="str">
+      <c r="EK6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="EL6" s="11" t="str">
+      <c r="EL6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="EM6" s="12" t="str">
+      <c r="EM6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="EN6" s="12" t="str">
+      <c r="EN6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="EO6" s="13" t="str">
+      <c r="EO6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="EP6" s="11" t="str">
+      <c r="EP6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="EQ6" s="12" t="str">
+      <c r="EQ6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="ER6" s="12" t="str">
+      <c r="ER6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="ES6" s="13" t="str">
+      <c r="ES6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="ET6" s="11" t="str">
+      <c r="ET6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="EU6" s="12" t="str">
+      <c r="EU6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="EV6" s="12" t="str">
+      <c r="EV6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="EW6" s="13" t="str">
+      <c r="EW6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="EX6" s="11" t="str">
+      <c r="EX6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="EY6" s="12" t="str">
+      <c r="EY6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="EZ6" s="12" t="str">
+      <c r="EZ6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="FA6" s="13" t="str">
+      <c r="FA6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="FB6" s="11" t="str">
+      <c r="FB6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="FC6" s="12" t="str">
+      <c r="FC6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="FD6" s="12" t="str">
+      <c r="FD6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="FE6" s="13" t="str">
+      <c r="FE6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="FF6" s="11" t="str">
+      <c r="FF6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="FG6" s="12" t="str">
+      <c r="FG6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="FH6" s="12" t="str">
+      <c r="FH6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="FI6" s="13" t="str">
+      <c r="FI6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="FJ6" s="11" t="str">
+      <c r="FJ6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="FK6" s="12" t="str">
+      <c r="FK6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="FL6" s="12" t="str">
+      <c r="FL6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="FM6" s="13" t="str">
+      <c r="FM6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="FN6" s="11" t="str">
+      <c r="FN6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="FO6" s="12" t="str">
+      <c r="FO6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="FP6" s="12" t="str">
+      <c r="FP6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="FQ6" s="13" t="str">
+      <c r="FQ6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="FR6" s="11" t="str">
+      <c r="FR6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="FS6" s="12" t="str">
+      <c r="FS6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="FT6" s="12" t="str">
+      <c r="FT6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="FU6" s="13" t="str">
+      <c r="FU6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="FV6" s="11" t="str">
+      <c r="FV6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>F</v>
       </c>
-      <c r="FW6" s="12" t="str">
+      <c r="FW6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>E</v>
       </c>
-      <c r="FX6" s="12" t="str">
+      <c r="FX6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>D</v>
       </c>
-      <c r="FY6" s="13" t="str">
+      <c r="FY6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>C</v>
       </c>
-      <c r="FZ6" s="11" t="str">
+      <c r="FZ6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>B</v>
       </c>
-      <c r="GA6" s="12" t="str">
+      <c r="GA6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>A</v>
       </c>
-      <c r="GB6" s="12" t="str">
+      <c r="GB6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>9</v>
       </c>
-      <c r="GC6" s="13" t="str">
+      <c r="GC6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>8</v>
       </c>
-      <c r="GD6" s="11" t="str">
+      <c r="GD6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="GE6" s="12" t="str">
+      <c r="GE6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="GF6" s="12" t="str">
+      <c r="GF6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="GG6" s="13" t="str">
+      <c r="GG6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="GH6" s="11" t="str">
+      <c r="GH6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="GI6" s="12" t="str">
+      <c r="GI6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="GJ6" s="12" t="str">
+      <c r="GJ6" s="11" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="GK6" s="13" t="str">
+      <c r="GK6" s="12" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="GL6" s="11" t="str">
+      <c r="GL6" s="10" t="str">
         <f t="shared" si="38"/>
         <v>7</v>
       </c>
-      <c r="GM6" s="12" t="str">
+      <c r="GM6" s="11" t="str">
         <f t="shared" ref="GM6:HI6" si="39">DEC2HEX(GM5)</f>
         <v>6</v>
       </c>
-      <c r="GN6" s="12" t="str">
+      <c r="GN6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="GO6" s="13" t="str">
+      <c r="GO6" s="12" t="str">
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="GP6" s="11" t="str">
+      <c r="GP6" s="10" t="str">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="GQ6" s="12" t="str">
+      <c r="GQ6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="GR6" s="12" t="str">
+      <c r="GR6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="GS6" s="13" t="str">
+      <c r="GS6" s="12" t="str">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="GT6" s="11" t="str">
+      <c r="GT6" s="10" t="str">
         <f t="shared" si="39"/>
         <v>7</v>
       </c>
-      <c r="GU6" s="12" t="str">
+      <c r="GU6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="GV6" s="12" t="str">
+      <c r="GV6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="GW6" s="13" t="str">
+      <c r="GW6" s="12" t="str">
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="GX6" s="11" t="str">
+      <c r="GX6" s="10" t="str">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="GY6" s="12" t="str">
+      <c r="GY6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="GZ6" s="12" t="str">
+      <c r="GZ6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="HA6" s="13" t="str">
+      <c r="HA6" s="12" t="str">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="HB6" s="11" t="str">
+      <c r="HB6" s="10" t="str">
         <f t="shared" si="39"/>
         <v>7</v>
       </c>
-      <c r="HC6" s="12" t="str">
+      <c r="HC6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="HD6" s="12" t="str">
+      <c r="HD6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>5</v>
       </c>
-      <c r="HE6" s="13" t="str">
+      <c r="HE6" s="12" t="str">
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="HF6" s="11" t="str">
+      <c r="HF6" s="10" t="str">
         <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="HG6" s="12" t="str">
+      <c r="HG6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="HH6" s="12" t="str">
+      <c r="HH6" s="11" t="str">
         <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="HI6" s="13" t="str">
+      <c r="HI6" s="12" t="str">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -4365,2131 +4507,1943 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="48" t="s">
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="48" t="s">
+      <c r="S7" s="79"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="49"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="101" t="s">
+      <c r="V7" s="79"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="48" t="s">
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="48" t="s">
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="48" t="s">
+      <c r="AI7" s="79"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
+      <c r="AL7" s="79"/>
+      <c r="AM7" s="79"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="79"/>
+      <c r="AP7" s="79"/>
+      <c r="AQ7" s="80"/>
+      <c r="AR7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="48" t="s">
+      <c r="AS7" s="79"/>
+      <c r="AT7" s="79"/>
+      <c r="AU7" s="79"/>
+      <c r="AV7" s="79"/>
+      <c r="AW7" s="80"/>
+      <c r="AX7" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="48" t="s">
+      <c r="AY7" s="79"/>
+      <c r="AZ7" s="79"/>
+      <c r="BA7" s="79"/>
+      <c r="BB7" s="79"/>
+      <c r="BC7" s="79"/>
+      <c r="BD7" s="79"/>
+      <c r="BE7" s="79"/>
+      <c r="BF7" s="79"/>
+      <c r="BG7" s="80"/>
+      <c r="BH7" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="50"/>
-      <c r="BN7" s="48" t="s">
+      <c r="BI7" s="79"/>
+      <c r="BJ7" s="79"/>
+      <c r="BK7" s="79"/>
+      <c r="BL7" s="79"/>
+      <c r="BM7" s="80"/>
+      <c r="BN7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
-      <c r="BQ7" s="49"/>
-      <c r="BR7" s="49"/>
-      <c r="BS7" s="49"/>
-      <c r="BT7" s="49"/>
-      <c r="BU7" s="50"/>
-      <c r="BV7" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="BW7" s="49"/>
-      <c r="BX7" s="49"/>
-      <c r="BY7" s="49"/>
-      <c r="BZ7" s="49"/>
-      <c r="CA7" s="49"/>
-      <c r="CB7" s="49"/>
-      <c r="CC7" s="50"/>
-      <c r="CD7" s="66" t="s">
+      <c r="BO7" s="79"/>
+      <c r="BP7" s="79"/>
+      <c r="BQ7" s="79"/>
+      <c r="BR7" s="79"/>
+      <c r="BS7" s="79"/>
+      <c r="BT7" s="79"/>
+      <c r="BU7" s="80"/>
+      <c r="BV7" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW7" s="79"/>
+      <c r="BX7" s="79"/>
+      <c r="BY7" s="79"/>
+      <c r="BZ7" s="79"/>
+      <c r="CA7" s="79"/>
+      <c r="CB7" s="79"/>
+      <c r="CC7" s="80"/>
+      <c r="CD7" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="67"/>
-      <c r="CF7" s="67"/>
-      <c r="CG7" s="67"/>
-      <c r="CH7" s="67"/>
-      <c r="CI7" s="67"/>
-      <c r="CJ7" s="67"/>
-      <c r="CK7" s="68"/>
-      <c r="CL7" s="66" t="s">
+      <c r="CE7" s="76"/>
+      <c r="CF7" s="76"/>
+      <c r="CG7" s="76"/>
+      <c r="CH7" s="76"/>
+      <c r="CI7" s="76"/>
+      <c r="CJ7" s="76"/>
+      <c r="CK7" s="77"/>
+      <c r="CL7" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="CM7" s="67"/>
-      <c r="CN7" s="67"/>
-      <c r="CO7" s="68"/>
-      <c r="CP7" s="70" t="s">
+      <c r="CM7" s="76"/>
+      <c r="CN7" s="76"/>
+      <c r="CO7" s="77"/>
+      <c r="CP7" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="71"/>
-      <c r="CR7" s="71"/>
-      <c r="CS7" s="71"/>
-      <c r="CT7" s="71"/>
-      <c r="CU7" s="71"/>
-      <c r="CV7" s="71"/>
-      <c r="CW7" s="72"/>
-      <c r="CX7" s="48" t="s">
+      <c r="CQ7" s="88"/>
+      <c r="CR7" s="88"/>
+      <c r="CS7" s="88"/>
+      <c r="CT7" s="88"/>
+      <c r="CU7" s="88"/>
+      <c r="CV7" s="88"/>
+      <c r="CW7" s="89"/>
+      <c r="CX7" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="49"/>
-      <c r="CZ7" s="49"/>
-      <c r="DA7" s="50"/>
-      <c r="DB7" s="48" t="s">
+      <c r="CY7" s="79"/>
+      <c r="CZ7" s="79"/>
+      <c r="DA7" s="80"/>
+      <c r="DB7" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="DC7" s="50"/>
+      <c r="DC7" s="80"/>
       <c r="DD7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="DE7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="DF7" s="66" t="s">
+      <c r="DF7" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="DG7" s="67"/>
-      <c r="DH7" s="67"/>
-      <c r="DI7" s="67"/>
-      <c r="DJ7" s="67"/>
-      <c r="DK7" s="67"/>
-      <c r="DL7" s="67"/>
-      <c r="DM7" s="68"/>
-      <c r="DN7" s="66" t="s">
+      <c r="DG7" s="76"/>
+      <c r="DH7" s="76"/>
+      <c r="DI7" s="76"/>
+      <c r="DJ7" s="76"/>
+      <c r="DK7" s="76"/>
+      <c r="DL7" s="76"/>
+      <c r="DM7" s="77"/>
+      <c r="DN7" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="DO7" s="67"/>
-      <c r="DP7" s="67"/>
-      <c r="DQ7" s="68"/>
-      <c r="DR7" s="83" t="s">
+      <c r="DO7" s="76"/>
+      <c r="DP7" s="76"/>
+      <c r="DQ7" s="77"/>
+      <c r="DR7" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="DS7" s="84"/>
-      <c r="DT7" s="84"/>
-      <c r="DU7" s="85"/>
-      <c r="DV7" s="83" t="s">
+      <c r="DS7" s="95"/>
+      <c r="DT7" s="95"/>
+      <c r="DU7" s="96"/>
+      <c r="DV7" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="DW7" s="84"/>
-      <c r="DX7" s="84"/>
-      <c r="DY7" s="84"/>
-      <c r="DZ7" s="84"/>
-      <c r="EA7" s="85"/>
-      <c r="EB7" s="83" t="s">
+      <c r="DW7" s="95"/>
+      <c r="DX7" s="95"/>
+      <c r="DY7" s="95"/>
+      <c r="DZ7" s="95"/>
+      <c r="EA7" s="96"/>
+      <c r="EB7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="EC7" s="84"/>
-      <c r="ED7" s="84"/>
-      <c r="EE7" s="84"/>
-      <c r="EF7" s="84"/>
-      <c r="EG7" s="85"/>
-      <c r="EH7" s="51" t="s">
+      <c r="EC7" s="95"/>
+      <c r="ED7" s="95"/>
+      <c r="EE7" s="95"/>
+      <c r="EF7" s="95"/>
+      <c r="EG7" s="96"/>
+      <c r="EH7" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="EI7" s="52"/>
-      <c r="EJ7" s="52"/>
-      <c r="EK7" s="52"/>
-      <c r="EL7" s="52"/>
-      <c r="EM7" s="52"/>
-      <c r="EN7" s="52"/>
-      <c r="EO7" s="53"/>
-      <c r="EP7" s="70" t="s">
+      <c r="EI7" s="70"/>
+      <c r="EJ7" s="70"/>
+      <c r="EK7" s="70"/>
+      <c r="EL7" s="70"/>
+      <c r="EM7" s="70"/>
+      <c r="EN7" s="70"/>
+      <c r="EO7" s="71"/>
+      <c r="EP7" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="EQ7" s="71"/>
-      <c r="ER7" s="71"/>
-      <c r="ES7" s="71"/>
-      <c r="ET7" s="71"/>
-      <c r="EU7" s="71"/>
-      <c r="EV7" s="71"/>
-      <c r="EW7" s="72"/>
-      <c r="EX7" s="29"/>
-      <c r="EY7" s="92" t="s">
+      <c r="EQ7" s="88"/>
+      <c r="ER7" s="88"/>
+      <c r="ES7" s="88"/>
+      <c r="ET7" s="88"/>
+      <c r="EU7" s="88"/>
+      <c r="EV7" s="88"/>
+      <c r="EW7" s="89"/>
+      <c r="EX7" s="25"/>
+      <c r="EY7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="EZ7" s="93"/>
-      <c r="FA7" s="93"/>
-      <c r="FB7" s="93"/>
-      <c r="FC7" s="93"/>
-      <c r="FD7" s="93"/>
-      <c r="FE7" s="94"/>
+      <c r="EZ7" s="85"/>
+      <c r="FA7" s="85"/>
+      <c r="FB7" s="85"/>
+      <c r="FC7" s="85"/>
+      <c r="FD7" s="85"/>
+      <c r="FE7" s="86"/>
       <c r="FF7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="FG7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="FG7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="FH7" s="32"/>
-      <c r="FI7" s="32"/>
-      <c r="FJ7" s="33"/>
-      <c r="FK7" s="86" t="s">
+      <c r="FH7" s="27"/>
+      <c r="FI7" s="27"/>
+      <c r="FJ7" s="28"/>
+      <c r="FK7" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="FL7" s="87"/>
-      <c r="FM7" s="88"/>
-      <c r="FN7" s="89" t="s">
+      <c r="FL7" s="98"/>
+      <c r="FM7" s="99"/>
+      <c r="FN7" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="FO7" s="90"/>
-      <c r="FP7" s="90"/>
-      <c r="FQ7" s="90"/>
-      <c r="FR7" s="90"/>
-      <c r="FS7" s="90"/>
-      <c r="FT7" s="90"/>
-      <c r="FU7" s="91"/>
-      <c r="FV7" s="54" t="s">
+      <c r="FO7" s="101"/>
+      <c r="FP7" s="101"/>
+      <c r="FQ7" s="101"/>
+      <c r="FR7" s="101"/>
+      <c r="FS7" s="101"/>
+      <c r="FT7" s="101"/>
+      <c r="FU7" s="102"/>
+      <c r="FV7" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="FW7" s="55"/>
-      <c r="FX7" s="55"/>
-      <c r="FY7" s="55"/>
-      <c r="FZ7" s="55"/>
-      <c r="GA7" s="56"/>
-      <c r="GB7" s="54" t="s">
+      <c r="FW7" s="91"/>
+      <c r="FX7" s="91"/>
+      <c r="FY7" s="91"/>
+      <c r="FZ7" s="91"/>
+      <c r="GA7" s="92"/>
+      <c r="GB7" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="GC7" s="55"/>
-      <c r="GD7" s="55"/>
-      <c r="GE7" s="55"/>
-      <c r="GF7" s="55"/>
-      <c r="GG7" s="56"/>
-      <c r="GH7" s="51" t="s">
+      <c r="GC7" s="91"/>
+      <c r="GD7" s="91"/>
+      <c r="GE7" s="91"/>
+      <c r="GF7" s="91"/>
+      <c r="GG7" s="92"/>
+      <c r="GH7" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="GI7" s="52"/>
-      <c r="GJ7" s="52"/>
-      <c r="GK7" s="53"/>
-      <c r="GL7" s="51" t="s">
+      <c r="GI7" s="70"/>
+      <c r="GJ7" s="70"/>
+      <c r="GK7" s="71"/>
+      <c r="GL7" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="GM7" s="52"/>
-      <c r="GN7" s="53"/>
-      <c r="GO7" s="54" t="s">
+      <c r="GM7" s="70"/>
+      <c r="GN7" s="71"/>
+      <c r="GO7" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="GP7" s="55"/>
-      <c r="GQ7" s="55"/>
-      <c r="GR7" s="55"/>
-      <c r="GS7" s="56"/>
+      <c r="GP7" s="91"/>
+      <c r="GQ7" s="91"/>
+      <c r="GR7" s="91"/>
+      <c r="GS7" s="92"/>
       <c r="GT7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="GU7" s="2"/>
-      <c r="GV7" s="51" t="s">
+      <c r="GV7" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="GW7" s="52"/>
-      <c r="GX7" s="52"/>
-      <c r="GY7" s="52"/>
-      <c r="GZ7" s="52"/>
-      <c r="HA7" s="53"/>
-      <c r="HB7" s="54" t="s">
+      <c r="GW7" s="70"/>
+      <c r="GX7" s="70"/>
+      <c r="GY7" s="70"/>
+      <c r="GZ7" s="70"/>
+      <c r="HA7" s="71"/>
+      <c r="HB7" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="HC7" s="55"/>
-      <c r="HD7" s="55"/>
-      <c r="HE7" s="55"/>
-      <c r="HF7" s="55"/>
-      <c r="HG7" s="55"/>
-      <c r="HH7" s="55"/>
-      <c r="HI7" s="56"/>
+      <c r="HC7" s="91"/>
+      <c r="HD7" s="91"/>
+      <c r="HE7" s="91"/>
+      <c r="HF7" s="91"/>
+      <c r="HG7" s="91"/>
+      <c r="HH7" s="91"/>
+      <c r="HI7" s="92"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
       <c r="R8" t="s">
+        <v>148</v>
+      </c>
+      <c r="U8" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" s="84">
+        <v>380</v>
+      </c>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="86"/>
+      <c r="AD8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL8" t="s">
         <v>151</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AN8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT8" t="s">
         <v>150</v>
       </c>
-      <c r="X8" s="92">
-        <v>380</v>
-      </c>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="94"/>
-      <c r="AD8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>153</v>
-      </c>
       <c r="AZ8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="BJ8" t="s">
-        <v>153</v>
-      </c>
-      <c r="CL8" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM8" s="82"/>
-      <c r="CN8" s="82"/>
-      <c r="CO8" s="82"/>
-      <c r="CP8" s="82"/>
-      <c r="CQ8" s="82"/>
-      <c r="CR8" s="82"/>
-      <c r="CS8" s="82"/>
-      <c r="CT8" s="82"/>
-      <c r="CU8" s="82"/>
-      <c r="CV8" s="82"/>
-      <c r="CW8" s="82"/>
-      <c r="CX8" s="82"/>
-      <c r="CY8" s="82"/>
-      <c r="CZ8" s="82"/>
-      <c r="DA8" s="82"/>
-      <c r="DB8" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="CL8" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="CM8" s="93"/>
+      <c r="CN8" s="93"/>
+      <c r="CO8" s="93"/>
+      <c r="CP8" s="93"/>
+      <c r="CQ8" s="93"/>
+      <c r="CR8" s="93"/>
+      <c r="CS8" s="93"/>
+      <c r="CT8" s="93"/>
+      <c r="CU8" s="93"/>
+      <c r="CV8" s="93"/>
+      <c r="CW8" s="93"/>
+      <c r="CX8" s="93"/>
+      <c r="CY8" s="93"/>
+      <c r="CZ8" s="93"/>
+      <c r="DA8" s="93"/>
+      <c r="DB8" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="DC8" s="93"/>
+      <c r="DD8" s="93"/>
+      <c r="DE8" s="93"/>
+      <c r="DF8" s="93"/>
+      <c r="DG8" s="93"/>
+      <c r="DH8" s="93"/>
+      <c r="DI8" s="93"/>
+      <c r="DJ8" s="93"/>
+      <c r="DK8" s="93"/>
+      <c r="DL8" s="93"/>
+      <c r="DM8" s="93"/>
+      <c r="DN8" s="93"/>
+      <c r="DO8" s="93"/>
+      <c r="DP8" s="93"/>
+      <c r="DQ8" s="93"/>
+      <c r="DR8" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="DC8" s="82"/>
-      <c r="DD8" s="82"/>
-      <c r="DE8" s="82"/>
-      <c r="DF8" s="82"/>
-      <c r="DG8" s="82"/>
-      <c r="DH8" s="82"/>
-      <c r="DI8" s="82"/>
-      <c r="DJ8" s="82"/>
-      <c r="DK8" s="82"/>
-      <c r="DL8" s="82"/>
-      <c r="DM8" s="82"/>
-      <c r="DN8" s="82"/>
-      <c r="DO8" s="82"/>
-      <c r="DP8" s="82"/>
-      <c r="DQ8" s="82"/>
-      <c r="DR8" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="DS8" s="82"/>
-      <c r="DT8" s="82"/>
-      <c r="DU8" s="82"/>
-      <c r="DV8" s="82"/>
-      <c r="DW8" s="82"/>
-      <c r="DX8" s="82"/>
-      <c r="DY8" s="82"/>
-      <c r="DZ8" s="82"/>
-      <c r="EA8" s="82"/>
-      <c r="EB8" s="82"/>
-      <c r="EC8" s="82"/>
-      <c r="ED8" s="82"/>
-      <c r="EE8" s="82"/>
-      <c r="EF8" s="82"/>
-      <c r="EG8" s="82"/>
+      <c r="DS8" s="93"/>
+      <c r="DT8" s="93"/>
+      <c r="DU8" s="93"/>
+      <c r="DV8" s="93"/>
+      <c r="DW8" s="93"/>
+      <c r="DX8" s="93"/>
+      <c r="DY8" s="93"/>
+      <c r="DZ8" s="93"/>
+      <c r="EA8" s="93"/>
+      <c r="EB8" s="93"/>
+      <c r="EC8" s="93"/>
+      <c r="ED8" s="93"/>
+      <c r="EE8" s="93"/>
+      <c r="EF8" s="93"/>
+      <c r="EG8" s="93"/>
       <c r="FH8" t="s">
-        <v>143</v>
-      </c>
-      <c r="FN8" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="FO8" s="17"/>
-      <c r="FP8" s="17"/>
-      <c r="FQ8" s="17"/>
-      <c r="FR8" s="41"/>
+        <v>140</v>
+      </c>
+      <c r="FN8" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="FO8" s="13"/>
+      <c r="FP8" s="13"/>
+      <c r="FQ8" s="13"/>
+      <c r="FR8" s="15"/>
       <c r="FV8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="GB8" t="s">
-        <v>149</v>
-      </c>
-      <c r="HI8" s="19"/>
+        <v>146</v>
+      </c>
+      <c r="HI8" s="15"/>
     </row>
     <row r="9" spans="1:217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="57" t="s">
+      <c r="B9" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="73" t="s">
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="74"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="73" t="s">
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="V9" s="74"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="73" t="s">
+      <c r="V9" s="52"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="73" t="s">
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="73" t="s">
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="73" t="s">
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="52"/>
+      <c r="AV9" s="52"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="74"/>
-      <c r="BC9" s="74"/>
-      <c r="BD9" s="74"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="74"/>
-      <c r="BG9" s="75"/>
-      <c r="BH9" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="74"/>
-      <c r="BK9" s="74"/>
-      <c r="BL9" s="74"/>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="57" t="s">
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="53"/>
+      <c r="BH9" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI9" s="52"/>
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="52"/>
+      <c r="BM9" s="53"/>
+      <c r="BN9" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="BO9" s="58"/>
-      <c r="BP9" s="58"/>
-      <c r="BQ9" s="58"/>
-      <c r="BR9" s="58"/>
-      <c r="BS9" s="58"/>
-      <c r="BT9" s="58"/>
-      <c r="BU9" s="59"/>
-      <c r="BV9" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="BW9" s="58"/>
-      <c r="BX9" s="58"/>
-      <c r="BY9" s="58"/>
-      <c r="BZ9" s="58"/>
-      <c r="CA9" s="58"/>
-      <c r="CB9" s="58"/>
-      <c r="CC9" s="59"/>
-      <c r="CD9" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="CE9" s="58"/>
-      <c r="CF9" s="58"/>
-      <c r="CG9" s="58"/>
-      <c r="CH9" s="58"/>
-      <c r="CI9" s="58"/>
-      <c r="CJ9" s="58"/>
-      <c r="CK9" s="59"/>
-      <c r="CL9" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="CM9" s="58"/>
-      <c r="CN9" s="58"/>
-      <c r="CO9" s="58"/>
-      <c r="CP9" s="58"/>
-      <c r="CQ9" s="58"/>
-      <c r="CR9" s="58"/>
-      <c r="CS9" s="58"/>
-      <c r="CT9" s="58"/>
-      <c r="CU9" s="58"/>
-      <c r="CV9" s="58"/>
-      <c r="CW9" s="58"/>
-      <c r="CX9" s="58"/>
-      <c r="CY9" s="58"/>
-      <c r="CZ9" s="58"/>
-      <c r="DA9" s="59"/>
-      <c r="DB9" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="DC9" s="74"/>
-      <c r="DD9" s="74"/>
-      <c r="DE9" s="74"/>
-      <c r="DF9" s="74"/>
-      <c r="DG9" s="74"/>
-      <c r="DH9" s="74"/>
-      <c r="DI9" s="74"/>
-      <c r="DJ9" s="74"/>
-      <c r="DK9" s="74"/>
-      <c r="DL9" s="74"/>
-      <c r="DM9" s="74"/>
-      <c r="DN9" s="74"/>
-      <c r="DO9" s="74"/>
-      <c r="DP9" s="74"/>
-      <c r="DQ9" s="75"/>
-      <c r="DR9" s="73" t="s">
+      <c r="BO9" s="61"/>
+      <c r="BP9" s="61"/>
+      <c r="BQ9" s="61"/>
+      <c r="BR9" s="61"/>
+      <c r="BS9" s="61"/>
+      <c r="BT9" s="61"/>
+      <c r="BU9" s="62"/>
+      <c r="BV9" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW9" s="61"/>
+      <c r="BX9" s="61"/>
+      <c r="BY9" s="61"/>
+      <c r="BZ9" s="61"/>
+      <c r="CA9" s="61"/>
+      <c r="CB9" s="61"/>
+      <c r="CC9" s="62"/>
+      <c r="CD9" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE9" s="61"/>
+      <c r="CF9" s="61"/>
+      <c r="CG9" s="61"/>
+      <c r="CH9" s="61"/>
+      <c r="CI9" s="61"/>
+      <c r="CJ9" s="61"/>
+      <c r="CK9" s="62"/>
+      <c r="CL9" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM9" s="61"/>
+      <c r="CN9" s="61"/>
+      <c r="CO9" s="61"/>
+      <c r="CP9" s="61"/>
+      <c r="CQ9" s="61"/>
+      <c r="CR9" s="61"/>
+      <c r="CS9" s="61"/>
+      <c r="CT9" s="61"/>
+      <c r="CU9" s="61"/>
+      <c r="CV9" s="61"/>
+      <c r="CW9" s="61"/>
+      <c r="CX9" s="61"/>
+      <c r="CY9" s="61"/>
+      <c r="CZ9" s="61"/>
+      <c r="DA9" s="62"/>
+      <c r="DB9" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="DC9" s="52"/>
+      <c r="DD9" s="52"/>
+      <c r="DE9" s="52"/>
+      <c r="DF9" s="52"/>
+      <c r="DG9" s="52"/>
+      <c r="DH9" s="52"/>
+      <c r="DI9" s="52"/>
+      <c r="DJ9" s="52"/>
+      <c r="DK9" s="52"/>
+      <c r="DL9" s="52"/>
+      <c r="DM9" s="52"/>
+      <c r="DN9" s="52"/>
+      <c r="DO9" s="52"/>
+      <c r="DP9" s="52"/>
+      <c r="DQ9" s="53"/>
+      <c r="DR9" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="DS9" s="74"/>
-      <c r="DT9" s="74"/>
-      <c r="DU9" s="74"/>
-      <c r="DV9" s="74"/>
-      <c r="DW9" s="74"/>
-      <c r="DX9" s="74"/>
-      <c r="DY9" s="74"/>
-      <c r="DZ9" s="74"/>
-      <c r="EA9" s="74"/>
-      <c r="EB9" s="74"/>
-      <c r="EC9" s="74"/>
-      <c r="ED9" s="74"/>
-      <c r="EE9" s="74"/>
-      <c r="EF9" s="74"/>
-      <c r="EG9" s="75"/>
-      <c r="EP9" s="73" t="s">
+      <c r="DS9" s="52"/>
+      <c r="DT9" s="52"/>
+      <c r="DU9" s="52"/>
+      <c r="DV9" s="52"/>
+      <c r="DW9" s="52"/>
+      <c r="DX9" s="52"/>
+      <c r="DY9" s="52"/>
+      <c r="DZ9" s="52"/>
+      <c r="EA9" s="52"/>
+      <c r="EB9" s="52"/>
+      <c r="EC9" s="52"/>
+      <c r="ED9" s="52"/>
+      <c r="EE9" s="52"/>
+      <c r="EF9" s="52"/>
+      <c r="EG9" s="53"/>
+      <c r="EP9" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="EQ9" s="74"/>
-      <c r="ER9" s="74"/>
-      <c r="ES9" s="74"/>
-      <c r="ET9" s="74"/>
-      <c r="EU9" s="74"/>
-      <c r="EV9" s="74"/>
-      <c r="EW9" s="75"/>
-      <c r="EX9" s="21"/>
-      <c r="EY9" s="21"/>
-      <c r="EZ9" s="22"/>
-      <c r="FA9" s="22"/>
-      <c r="FB9" s="22"/>
-      <c r="FC9" s="22"/>
-      <c r="FD9" s="22"/>
-      <c r="FE9" s="23"/>
+      <c r="EQ9" s="52"/>
+      <c r="ER9" s="52"/>
+      <c r="ES9" s="52"/>
+      <c r="ET9" s="52"/>
+      <c r="EU9" s="52"/>
+      <c r="EV9" s="52"/>
+      <c r="EW9" s="53"/>
+      <c r="EX9" s="17"/>
+      <c r="EY9" s="17"/>
+      <c r="EZ9" s="18"/>
+      <c r="FA9" s="18"/>
+      <c r="FB9" s="18"/>
+      <c r="FC9" s="18"/>
+      <c r="FD9" s="18"/>
+      <c r="FE9" s="19"/>
       <c r="FJ9" t="s">
         <v>58</v>
       </c>
-      <c r="FN9" s="40" t="s">
+      <c r="FN9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="FO9" s="42"/>
-      <c r="FP9" s="42"/>
-      <c r="FQ9" s="42"/>
-      <c r="FR9" s="43"/>
-      <c r="FS9" s="17"/>
-      <c r="FT9" s="17"/>
-      <c r="FU9" s="41"/>
-      <c r="FV9" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="FW9" s="58"/>
-      <c r="FX9" s="58"/>
-      <c r="FY9" s="58"/>
-      <c r="FZ9" s="58"/>
-      <c r="GA9" s="59"/>
-      <c r="GB9" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="GC9" s="58"/>
-      <c r="GD9" s="58"/>
-      <c r="GE9" s="58"/>
-      <c r="GF9" s="58"/>
-      <c r="GG9" s="59"/>
-      <c r="GT9" s="73" t="s">
+      <c r="FO9" s="34"/>
+      <c r="FP9" s="34"/>
+      <c r="FQ9" s="34"/>
+      <c r="FR9" s="35"/>
+      <c r="FS9" s="13"/>
+      <c r="FT9" s="13"/>
+      <c r="FU9" s="15"/>
+      <c r="FV9" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="GU9" s="74"/>
-      <c r="GV9" s="74"/>
-      <c r="GW9" s="74"/>
-      <c r="GX9" s="74"/>
-      <c r="GY9" s="74"/>
-      <c r="GZ9" s="74"/>
-      <c r="HA9" s="75"/>
-      <c r="HB9" s="73" t="s">
+      <c r="FW9" s="61"/>
+      <c r="FX9" s="61"/>
+      <c r="FY9" s="61"/>
+      <c r="FZ9" s="61"/>
+      <c r="GA9" s="62"/>
+      <c r="GB9" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="GC9" s="61"/>
+      <c r="GD9" s="61"/>
+      <c r="GE9" s="61"/>
+      <c r="GF9" s="61"/>
+      <c r="GG9" s="62"/>
+      <c r="GT9" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="GU9" s="52"/>
+      <c r="GV9" s="52"/>
+      <c r="GW9" s="52"/>
+      <c r="GX9" s="52"/>
+      <c r="GY9" s="52"/>
+      <c r="GZ9" s="52"/>
+      <c r="HA9" s="53"/>
+      <c r="HB9" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="HC9" s="74"/>
-      <c r="HD9" s="74"/>
-      <c r="HE9" s="74"/>
-      <c r="HF9" s="74"/>
-      <c r="HG9" s="74"/>
-      <c r="HH9" s="74"/>
-      <c r="HI9" s="75"/>
+      <c r="HC9" s="52"/>
+      <c r="HD9" s="52"/>
+      <c r="HE9" s="52"/>
+      <c r="HF9" s="52"/>
+      <c r="HG9" s="52"/>
+      <c r="HH9" s="52"/>
+      <c r="HI9" s="53"/>
     </row>
     <row r="10" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="77"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="77"/>
-      <c r="BK10" s="77"/>
-      <c r="BL10" s="77"/>
-      <c r="BM10" s="78"/>
-      <c r="BN10" s="60"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
-      <c r="BQ10" s="61"/>
-      <c r="BR10" s="61"/>
-      <c r="BS10" s="61"/>
-      <c r="BT10" s="61"/>
-      <c r="BU10" s="62"/>
-      <c r="BV10" s="60"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="61"/>
-      <c r="BY10" s="61"/>
-      <c r="BZ10" s="61"/>
-      <c r="CA10" s="61"/>
-      <c r="CB10" s="61"/>
-      <c r="CC10" s="62"/>
-      <c r="CD10" s="60"/>
-      <c r="CE10" s="61"/>
-      <c r="CF10" s="61"/>
-      <c r="CG10" s="61"/>
-      <c r="CH10" s="61"/>
-      <c r="CI10" s="61"/>
-      <c r="CJ10" s="61"/>
-      <c r="CK10" s="62"/>
-      <c r="CL10" s="60"/>
-      <c r="CM10" s="61"/>
-      <c r="CN10" s="61"/>
-      <c r="CO10" s="61"/>
-      <c r="CP10" s="61"/>
-      <c r="CQ10" s="61"/>
-      <c r="CR10" s="61"/>
-      <c r="CS10" s="61"/>
-      <c r="CT10" s="61"/>
-      <c r="CU10" s="61"/>
-      <c r="CV10" s="61"/>
-      <c r="CW10" s="61"/>
-      <c r="CX10" s="61"/>
-      <c r="CY10" s="61"/>
-      <c r="CZ10" s="61"/>
-      <c r="DA10" s="62"/>
-      <c r="DB10" s="76"/>
-      <c r="DC10" s="77"/>
-      <c r="DD10" s="77"/>
-      <c r="DE10" s="77"/>
-      <c r="DF10" s="77"/>
-      <c r="DG10" s="77"/>
-      <c r="DH10" s="77"/>
-      <c r="DI10" s="77"/>
-      <c r="DJ10" s="77"/>
-      <c r="DK10" s="77"/>
-      <c r="DL10" s="77"/>
-      <c r="DM10" s="77"/>
-      <c r="DN10" s="77"/>
-      <c r="DO10" s="77"/>
-      <c r="DP10" s="77"/>
-      <c r="DQ10" s="78"/>
-      <c r="DR10" s="76"/>
-      <c r="DS10" s="77"/>
-      <c r="DT10" s="77"/>
-      <c r="DU10" s="77"/>
-      <c r="DV10" s="77"/>
-      <c r="DW10" s="77"/>
-      <c r="DX10" s="77"/>
-      <c r="DY10" s="77"/>
-      <c r="DZ10" s="77"/>
-      <c r="EA10" s="77"/>
-      <c r="EB10" s="77"/>
-      <c r="EC10" s="77"/>
-      <c r="ED10" s="77"/>
-      <c r="EE10" s="77"/>
-      <c r="EF10" s="77"/>
-      <c r="EG10" s="78"/>
-      <c r="EP10" s="76"/>
-      <c r="EQ10" s="77"/>
-      <c r="ER10" s="77"/>
-      <c r="ES10" s="77"/>
-      <c r="ET10" s="77"/>
-      <c r="EU10" s="77"/>
-      <c r="EV10" s="77"/>
-      <c r="EW10" s="78"/>
-      <c r="EX10" s="24"/>
-      <c r="EY10" s="24"/>
-      <c r="EZ10" s="14"/>
-      <c r="FA10" s="14"/>
-      <c r="FB10" s="14"/>
-      <c r="FC10" s="14"/>
-      <c r="FD10" s="14"/>
-      <c r="FE10" s="25"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="55"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="55"/>
+      <c r="BA10" s="55"/>
+      <c r="BB10" s="55"/>
+      <c r="BC10" s="55"/>
+      <c r="BD10" s="55"/>
+      <c r="BE10" s="55"/>
+      <c r="BF10" s="55"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="54"/>
+      <c r="BI10" s="55"/>
+      <c r="BJ10" s="55"/>
+      <c r="BK10" s="55"/>
+      <c r="BL10" s="55"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="63"/>
+      <c r="BO10" s="64"/>
+      <c r="BP10" s="64"/>
+      <c r="BQ10" s="64"/>
+      <c r="BR10" s="64"/>
+      <c r="BS10" s="64"/>
+      <c r="BT10" s="64"/>
+      <c r="BU10" s="65"/>
+      <c r="BV10" s="63"/>
+      <c r="BW10" s="64"/>
+      <c r="BX10" s="64"/>
+      <c r="BY10" s="64"/>
+      <c r="BZ10" s="64"/>
+      <c r="CA10" s="64"/>
+      <c r="CB10" s="64"/>
+      <c r="CC10" s="65"/>
+      <c r="CD10" s="63"/>
+      <c r="CE10" s="64"/>
+      <c r="CF10" s="64"/>
+      <c r="CG10" s="64"/>
+      <c r="CH10" s="64"/>
+      <c r="CI10" s="64"/>
+      <c r="CJ10" s="64"/>
+      <c r="CK10" s="65"/>
+      <c r="CL10" s="63"/>
+      <c r="CM10" s="64"/>
+      <c r="CN10" s="64"/>
+      <c r="CO10" s="64"/>
+      <c r="CP10" s="64"/>
+      <c r="CQ10" s="64"/>
+      <c r="CR10" s="64"/>
+      <c r="CS10" s="64"/>
+      <c r="CT10" s="64"/>
+      <c r="CU10" s="64"/>
+      <c r="CV10" s="64"/>
+      <c r="CW10" s="64"/>
+      <c r="CX10" s="64"/>
+      <c r="CY10" s="64"/>
+      <c r="CZ10" s="64"/>
+      <c r="DA10" s="65"/>
+      <c r="DB10" s="54"/>
+      <c r="DC10" s="55"/>
+      <c r="DD10" s="55"/>
+      <c r="DE10" s="55"/>
+      <c r="DF10" s="55"/>
+      <c r="DG10" s="55"/>
+      <c r="DH10" s="55"/>
+      <c r="DI10" s="55"/>
+      <c r="DJ10" s="55"/>
+      <c r="DK10" s="55"/>
+      <c r="DL10" s="55"/>
+      <c r="DM10" s="55"/>
+      <c r="DN10" s="55"/>
+      <c r="DO10" s="55"/>
+      <c r="DP10" s="55"/>
+      <c r="DQ10" s="56"/>
+      <c r="DR10" s="54"/>
+      <c r="DS10" s="55"/>
+      <c r="DT10" s="55"/>
+      <c r="DU10" s="55"/>
+      <c r="DV10" s="55"/>
+      <c r="DW10" s="55"/>
+      <c r="DX10" s="55"/>
+      <c r="DY10" s="55"/>
+      <c r="DZ10" s="55"/>
+      <c r="EA10" s="55"/>
+      <c r="EB10" s="55"/>
+      <c r="EC10" s="55"/>
+      <c r="ED10" s="55"/>
+      <c r="EE10" s="55"/>
+      <c r="EF10" s="55"/>
+      <c r="EG10" s="56"/>
+      <c r="EP10" s="54"/>
+      <c r="EQ10" s="55"/>
+      <c r="ER10" s="55"/>
+      <c r="ES10" s="55"/>
+      <c r="ET10" s="55"/>
+      <c r="EU10" s="55"/>
+      <c r="EV10" s="55"/>
+      <c r="EW10" s="56"/>
+      <c r="EX10" s="20"/>
+      <c r="EY10" s="20"/>
+      <c r="FE10" s="21"/>
       <c r="FJ10" t="s">
-        <v>73</v>
-      </c>
-      <c r="FN10" s="46"/>
-      <c r="FO10" s="38"/>
-      <c r="FP10" s="38"/>
-      <c r="FQ10" s="38"/>
-      <c r="FR10" s="38"/>
-      <c r="FS10" s="15"/>
-      <c r="FT10" s="15"/>
-      <c r="FU10" s="44"/>
-      <c r="FV10" s="61"/>
-      <c r="FW10" s="61"/>
-      <c r="FX10" s="61"/>
-      <c r="FY10" s="61"/>
-      <c r="FZ10" s="61"/>
-      <c r="GA10" s="62"/>
-      <c r="GB10" s="60"/>
-      <c r="GC10" s="61"/>
-      <c r="GD10" s="61"/>
-      <c r="GE10" s="61"/>
-      <c r="GF10" s="61"/>
-      <c r="GG10" s="62"/>
-      <c r="GT10" s="76"/>
-      <c r="GU10" s="77"/>
-      <c r="GV10" s="77"/>
-      <c r="GW10" s="77"/>
-      <c r="GX10" s="77"/>
-      <c r="GY10" s="77"/>
-      <c r="GZ10" s="77"/>
-      <c r="HA10" s="78"/>
-      <c r="HB10" s="76"/>
-      <c r="HC10" s="77"/>
-      <c r="HD10" s="77"/>
-      <c r="HE10" s="77"/>
-      <c r="HF10" s="77"/>
-      <c r="HG10" s="77"/>
-      <c r="HH10" s="77"/>
-      <c r="HI10" s="78"/>
+        <v>71</v>
+      </c>
+      <c r="FN10" s="38"/>
+      <c r="FO10" s="16"/>
+      <c r="FP10" s="16"/>
+      <c r="FQ10" s="16"/>
+      <c r="FR10" s="16"/>
+      <c r="FU10" s="36"/>
+      <c r="FV10" s="64"/>
+      <c r="FW10" s="64"/>
+      <c r="FX10" s="64"/>
+      <c r="FY10" s="64"/>
+      <c r="FZ10" s="64"/>
+      <c r="GA10" s="65"/>
+      <c r="GB10" s="63"/>
+      <c r="GC10" s="64"/>
+      <c r="GD10" s="64"/>
+      <c r="GE10" s="64"/>
+      <c r="GF10" s="64"/>
+      <c r="GG10" s="65"/>
+      <c r="GT10" s="54"/>
+      <c r="GU10" s="55"/>
+      <c r="GV10" s="55"/>
+      <c r="GW10" s="55"/>
+      <c r="GX10" s="55"/>
+      <c r="GY10" s="55"/>
+      <c r="GZ10" s="55"/>
+      <c r="HA10" s="56"/>
+      <c r="HB10" s="54"/>
+      <c r="HC10" s="55"/>
+      <c r="HD10" s="55"/>
+      <c r="HE10" s="55"/>
+      <c r="HF10" s="55"/>
+      <c r="HG10" s="55"/>
+      <c r="HH10" s="55"/>
+      <c r="HI10" s="56"/>
     </row>
     <row r="11" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="77"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="77"/>
-      <c r="BE11" s="77"/>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="78"/>
-      <c r="BH11" s="76"/>
-      <c r="BI11" s="77"/>
-      <c r="BJ11" s="77"/>
-      <c r="BK11" s="77"/>
-      <c r="BL11" s="77"/>
-      <c r="BM11" s="78"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="61"/>
-      <c r="BP11" s="61"/>
-      <c r="BQ11" s="61"/>
-      <c r="BR11" s="61"/>
-      <c r="BS11" s="61"/>
-      <c r="BT11" s="61"/>
-      <c r="BU11" s="62"/>
-      <c r="BV11" s="60"/>
-      <c r="BW11" s="61"/>
-      <c r="BX11" s="61"/>
-      <c r="BY11" s="61"/>
-      <c r="BZ11" s="61"/>
-      <c r="CA11" s="61"/>
-      <c r="CB11" s="61"/>
-      <c r="CC11" s="62"/>
-      <c r="CD11" s="60"/>
-      <c r="CE11" s="61"/>
-      <c r="CF11" s="61"/>
-      <c r="CG11" s="61"/>
-      <c r="CH11" s="61"/>
-      <c r="CI11" s="61"/>
-      <c r="CJ11" s="61"/>
-      <c r="CK11" s="62"/>
-      <c r="CL11" s="60"/>
-      <c r="CM11" s="61"/>
-      <c r="CN11" s="61"/>
-      <c r="CO11" s="61"/>
-      <c r="CP11" s="61"/>
-      <c r="CQ11" s="61"/>
-      <c r="CR11" s="61"/>
-      <c r="CS11" s="61"/>
-      <c r="CT11" s="61"/>
-      <c r="CU11" s="61"/>
-      <c r="CV11" s="61"/>
-      <c r="CW11" s="61"/>
-      <c r="CX11" s="61"/>
-      <c r="CY11" s="61"/>
-      <c r="CZ11" s="61"/>
-      <c r="DA11" s="62"/>
-      <c r="DB11" s="76"/>
-      <c r="DC11" s="77"/>
-      <c r="DD11" s="77"/>
-      <c r="DE11" s="77"/>
-      <c r="DF11" s="77"/>
-      <c r="DG11" s="77"/>
-      <c r="DH11" s="77"/>
-      <c r="DI11" s="77"/>
-      <c r="DJ11" s="77"/>
-      <c r="DK11" s="77"/>
-      <c r="DL11" s="77"/>
-      <c r="DM11" s="77"/>
-      <c r="DN11" s="77"/>
-      <c r="DO11" s="77"/>
-      <c r="DP11" s="77"/>
-      <c r="DQ11" s="78"/>
-      <c r="DR11" s="76"/>
-      <c r="DS11" s="77"/>
-      <c r="DT11" s="77"/>
-      <c r="DU11" s="77"/>
-      <c r="DV11" s="77"/>
-      <c r="DW11" s="77"/>
-      <c r="DX11" s="77"/>
-      <c r="DY11" s="77"/>
-      <c r="DZ11" s="77"/>
-      <c r="EA11" s="77"/>
-      <c r="EB11" s="77"/>
-      <c r="EC11" s="77"/>
-      <c r="ED11" s="77"/>
-      <c r="EE11" s="77"/>
-      <c r="EF11" s="77"/>
-      <c r="EG11" s="78"/>
-      <c r="EP11" s="76"/>
-      <c r="EQ11" s="77"/>
-      <c r="ER11" s="77"/>
-      <c r="ES11" s="77"/>
-      <c r="ET11" s="77"/>
-      <c r="EU11" s="77"/>
-      <c r="EV11" s="77"/>
-      <c r="EW11" s="78"/>
-      <c r="EX11" s="24"/>
-      <c r="EY11" s="24"/>
-      <c r="EZ11" s="14"/>
-      <c r="FA11" s="14"/>
-      <c r="FB11" s="14"/>
-      <c r="FC11" s="14"/>
-      <c r="FD11" s="14"/>
-      <c r="FE11" s="25"/>
-      <c r="FN11" s="46"/>
-      <c r="FO11" s="38"/>
-      <c r="FP11" s="38"/>
-      <c r="FQ11" s="38"/>
-      <c r="FR11" s="38"/>
-      <c r="FS11" s="15"/>
-      <c r="FT11" s="15"/>
-      <c r="FU11" s="44"/>
-      <c r="FV11" s="61"/>
-      <c r="FW11" s="61"/>
-      <c r="FX11" s="61"/>
-      <c r="FY11" s="61"/>
-      <c r="FZ11" s="61"/>
-      <c r="GA11" s="62"/>
-      <c r="GB11" s="60"/>
-      <c r="GC11" s="61"/>
-      <c r="GD11" s="61"/>
-      <c r="GE11" s="61"/>
-      <c r="GF11" s="61"/>
-      <c r="GG11" s="62"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="55"/>
+      <c r="BC11" s="55"/>
+      <c r="BD11" s="55"/>
+      <c r="BE11" s="55"/>
+      <c r="BF11" s="55"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="54"/>
+      <c r="BI11" s="55"/>
+      <c r="BJ11" s="55"/>
+      <c r="BK11" s="55"/>
+      <c r="BL11" s="55"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="63"/>
+      <c r="BO11" s="64"/>
+      <c r="BP11" s="64"/>
+      <c r="BQ11" s="64"/>
+      <c r="BR11" s="64"/>
+      <c r="BS11" s="64"/>
+      <c r="BT11" s="64"/>
+      <c r="BU11" s="65"/>
+      <c r="BV11" s="63"/>
+      <c r="BW11" s="64"/>
+      <c r="BX11" s="64"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="64"/>
+      <c r="CA11" s="64"/>
+      <c r="CB11" s="64"/>
+      <c r="CC11" s="65"/>
+      <c r="CD11" s="63"/>
+      <c r="CE11" s="64"/>
+      <c r="CF11" s="64"/>
+      <c r="CG11" s="64"/>
+      <c r="CH11" s="64"/>
+      <c r="CI11" s="64"/>
+      <c r="CJ11" s="64"/>
+      <c r="CK11" s="65"/>
+      <c r="CL11" s="63"/>
+      <c r="CM11" s="64"/>
+      <c r="CN11" s="64"/>
+      <c r="CO11" s="64"/>
+      <c r="CP11" s="64"/>
+      <c r="CQ11" s="64"/>
+      <c r="CR11" s="64"/>
+      <c r="CS11" s="64"/>
+      <c r="CT11" s="64"/>
+      <c r="CU11" s="64"/>
+      <c r="CV11" s="64"/>
+      <c r="CW11" s="64"/>
+      <c r="CX11" s="64"/>
+      <c r="CY11" s="64"/>
+      <c r="CZ11" s="64"/>
+      <c r="DA11" s="65"/>
+      <c r="DB11" s="54"/>
+      <c r="DC11" s="55"/>
+      <c r="DD11" s="55"/>
+      <c r="DE11" s="55"/>
+      <c r="DF11" s="55"/>
+      <c r="DG11" s="55"/>
+      <c r="DH11" s="55"/>
+      <c r="DI11" s="55"/>
+      <c r="DJ11" s="55"/>
+      <c r="DK11" s="55"/>
+      <c r="DL11" s="55"/>
+      <c r="DM11" s="55"/>
+      <c r="DN11" s="55"/>
+      <c r="DO11" s="55"/>
+      <c r="DP11" s="55"/>
+      <c r="DQ11" s="56"/>
+      <c r="DR11" s="54"/>
+      <c r="DS11" s="55"/>
+      <c r="DT11" s="55"/>
+      <c r="DU11" s="55"/>
+      <c r="DV11" s="55"/>
+      <c r="DW11" s="55"/>
+      <c r="DX11" s="55"/>
+      <c r="DY11" s="55"/>
+      <c r="DZ11" s="55"/>
+      <c r="EA11" s="55"/>
+      <c r="EB11" s="55"/>
+      <c r="EC11" s="55"/>
+      <c r="ED11" s="55"/>
+      <c r="EE11" s="55"/>
+      <c r="EF11" s="55"/>
+      <c r="EG11" s="56"/>
+      <c r="EP11" s="54"/>
+      <c r="EQ11" s="55"/>
+      <c r="ER11" s="55"/>
+      <c r="ES11" s="55"/>
+      <c r="ET11" s="55"/>
+      <c r="EU11" s="55"/>
+      <c r="EV11" s="55"/>
+      <c r="EW11" s="56"/>
+      <c r="EX11" s="20"/>
+      <c r="EY11" s="20"/>
+      <c r="FE11" s="21"/>
+      <c r="FN11" s="38"/>
+      <c r="FO11" s="16"/>
+      <c r="FP11" s="16"/>
+      <c r="FQ11" s="16"/>
+      <c r="FR11" s="16"/>
+      <c r="FU11" s="36"/>
+      <c r="FV11" s="64"/>
+      <c r="FW11" s="64"/>
+      <c r="FX11" s="64"/>
+      <c r="FY11" s="64"/>
+      <c r="FZ11" s="64"/>
+      <c r="GA11" s="65"/>
+      <c r="GB11" s="63"/>
+      <c r="GC11" s="64"/>
+      <c r="GD11" s="64"/>
+      <c r="GE11" s="64"/>
+      <c r="GF11" s="64"/>
+      <c r="GG11" s="65"/>
       <c r="GH11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="GM11" t="s">
-        <v>164</v>
-      </c>
-      <c r="GT11" s="76"/>
-      <c r="GU11" s="77"/>
-      <c r="GV11" s="77"/>
-      <c r="GW11" s="77"/>
-      <c r="GX11" s="77"/>
-      <c r="GY11" s="77"/>
-      <c r="GZ11" s="77"/>
-      <c r="HA11" s="78"/>
-      <c r="HB11" s="76"/>
-      <c r="HC11" s="77"/>
-      <c r="HD11" s="77"/>
-      <c r="HE11" s="77"/>
-      <c r="HF11" s="77"/>
-      <c r="HG11" s="77"/>
-      <c r="HH11" s="77"/>
-      <c r="HI11" s="78"/>
+        <v>161</v>
+      </c>
+      <c r="GT11" s="54"/>
+      <c r="GU11" s="55"/>
+      <c r="GV11" s="55"/>
+      <c r="GW11" s="55"/>
+      <c r="GX11" s="55"/>
+      <c r="GY11" s="55"/>
+      <c r="GZ11" s="55"/>
+      <c r="HA11" s="56"/>
+      <c r="HB11" s="54"/>
+      <c r="HC11" s="55"/>
+      <c r="HD11" s="55"/>
+      <c r="HE11" s="55"/>
+      <c r="HF11" s="55"/>
+      <c r="HG11" s="55"/>
+      <c r="HH11" s="55"/>
+      <c r="HI11" s="56"/>
     </row>
     <row r="12" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="77"/>
-      <c r="AZ12" s="77"/>
-      <c r="BA12" s="77"/>
-      <c r="BB12" s="77"/>
-      <c r="BC12" s="77"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="77"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="76"/>
-      <c r="BI12" s="77"/>
-      <c r="BJ12" s="77"/>
-      <c r="BK12" s="77"/>
-      <c r="BL12" s="77"/>
-      <c r="BM12" s="78"/>
-      <c r="BN12" s="60"/>
-      <c r="BO12" s="61"/>
-      <c r="BP12" s="61"/>
-      <c r="BQ12" s="61"/>
-      <c r="BR12" s="61"/>
-      <c r="BS12" s="61"/>
-      <c r="BT12" s="61"/>
-      <c r="BU12" s="62"/>
-      <c r="BV12" s="60"/>
-      <c r="BW12" s="61"/>
-      <c r="BX12" s="61"/>
-      <c r="BY12" s="61"/>
-      <c r="BZ12" s="61"/>
-      <c r="CA12" s="61"/>
-      <c r="CB12" s="61"/>
-      <c r="CC12" s="62"/>
-      <c r="CD12" s="60"/>
-      <c r="CE12" s="61"/>
-      <c r="CF12" s="61"/>
-      <c r="CG12" s="61"/>
-      <c r="CH12" s="61"/>
-      <c r="CI12" s="61"/>
-      <c r="CJ12" s="61"/>
-      <c r="CK12" s="62"/>
-      <c r="CL12" s="60"/>
-      <c r="CM12" s="61"/>
-      <c r="CN12" s="61"/>
-      <c r="CO12" s="61"/>
-      <c r="CP12" s="61"/>
-      <c r="CQ12" s="61"/>
-      <c r="CR12" s="61"/>
-      <c r="CS12" s="61"/>
-      <c r="CT12" s="61"/>
-      <c r="CU12" s="61"/>
-      <c r="CV12" s="61"/>
-      <c r="CW12" s="61"/>
-      <c r="CX12" s="61"/>
-      <c r="CY12" s="61"/>
-      <c r="CZ12" s="61"/>
-      <c r="DA12" s="62"/>
-      <c r="DB12" s="76"/>
-      <c r="DC12" s="77"/>
-      <c r="DD12" s="77"/>
-      <c r="DE12" s="77"/>
-      <c r="DF12" s="77"/>
-      <c r="DG12" s="77"/>
-      <c r="DH12" s="77"/>
-      <c r="DI12" s="77"/>
-      <c r="DJ12" s="77"/>
-      <c r="DK12" s="77"/>
-      <c r="DL12" s="77"/>
-      <c r="DM12" s="77"/>
-      <c r="DN12" s="77"/>
-      <c r="DO12" s="77"/>
-      <c r="DP12" s="77"/>
-      <c r="DQ12" s="78"/>
-      <c r="DR12" s="76"/>
-      <c r="DS12" s="77"/>
-      <c r="DT12" s="77"/>
-      <c r="DU12" s="77"/>
-      <c r="DV12" s="77"/>
-      <c r="DW12" s="77"/>
-      <c r="DX12" s="77"/>
-      <c r="DY12" s="77"/>
-      <c r="DZ12" s="77"/>
-      <c r="EA12" s="77"/>
-      <c r="EB12" s="77"/>
-      <c r="EC12" s="77"/>
-      <c r="ED12" s="77"/>
-      <c r="EE12" s="77"/>
-      <c r="EF12" s="77"/>
-      <c r="EG12" s="78"/>
-      <c r="EP12" s="76"/>
-      <c r="EQ12" s="77"/>
-      <c r="ER12" s="77"/>
-      <c r="ES12" s="77"/>
-      <c r="ET12" s="77"/>
-      <c r="EU12" s="77"/>
-      <c r="EV12" s="77"/>
-      <c r="EW12" s="78"/>
-      <c r="EX12" s="24"/>
-      <c r="EY12" s="24"/>
-      <c r="EZ12" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="FA12" s="14"/>
-      <c r="FB12" s="14"/>
-      <c r="FC12" s="14"/>
-      <c r="FD12" s="14"/>
-      <c r="FE12" s="25"/>
-      <c r="FN12" s="46"/>
-      <c r="FO12" s="38"/>
-      <c r="FP12" s="38"/>
-      <c r="FQ12" s="38"/>
-      <c r="FR12" s="38"/>
-      <c r="FS12" s="15"/>
-      <c r="FT12" s="15"/>
-      <c r="FU12" s="44"/>
-      <c r="FV12" s="61"/>
-      <c r="FW12" s="61"/>
-      <c r="FX12" s="61"/>
-      <c r="FY12" s="61"/>
-      <c r="FZ12" s="61"/>
-      <c r="GA12" s="62"/>
-      <c r="GB12" s="60"/>
-      <c r="GC12" s="61"/>
-      <c r="GD12" s="61"/>
-      <c r="GE12" s="61"/>
-      <c r="GF12" s="61"/>
-      <c r="GG12" s="62"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="55"/>
+      <c r="BA12" s="55"/>
+      <c r="BB12" s="55"/>
+      <c r="BC12" s="55"/>
+      <c r="BD12" s="55"/>
+      <c r="BE12" s="55"/>
+      <c r="BF12" s="55"/>
+      <c r="BG12" s="56"/>
+      <c r="BH12" s="54"/>
+      <c r="BI12" s="55"/>
+      <c r="BJ12" s="55"/>
+      <c r="BK12" s="55"/>
+      <c r="BL12" s="55"/>
+      <c r="BM12" s="56"/>
+      <c r="BN12" s="63"/>
+      <c r="BO12" s="64"/>
+      <c r="BP12" s="64"/>
+      <c r="BQ12" s="64"/>
+      <c r="BR12" s="64"/>
+      <c r="BS12" s="64"/>
+      <c r="BT12" s="64"/>
+      <c r="BU12" s="65"/>
+      <c r="BV12" s="63"/>
+      <c r="BW12" s="64"/>
+      <c r="BX12" s="64"/>
+      <c r="BY12" s="64"/>
+      <c r="BZ12" s="64"/>
+      <c r="CA12" s="64"/>
+      <c r="CB12" s="64"/>
+      <c r="CC12" s="65"/>
+      <c r="CD12" s="63"/>
+      <c r="CE12" s="64"/>
+      <c r="CF12" s="64"/>
+      <c r="CG12" s="64"/>
+      <c r="CH12" s="64"/>
+      <c r="CI12" s="64"/>
+      <c r="CJ12" s="64"/>
+      <c r="CK12" s="65"/>
+      <c r="CL12" s="63"/>
+      <c r="CM12" s="64"/>
+      <c r="CN12" s="64"/>
+      <c r="CO12" s="64"/>
+      <c r="CP12" s="64"/>
+      <c r="CQ12" s="64"/>
+      <c r="CR12" s="64"/>
+      <c r="CS12" s="64"/>
+      <c r="CT12" s="64"/>
+      <c r="CU12" s="64"/>
+      <c r="CV12" s="64"/>
+      <c r="CW12" s="64"/>
+      <c r="CX12" s="64"/>
+      <c r="CY12" s="64"/>
+      <c r="CZ12" s="64"/>
+      <c r="DA12" s="65"/>
+      <c r="DB12" s="54"/>
+      <c r="DC12" s="55"/>
+      <c r="DD12" s="55"/>
+      <c r="DE12" s="55"/>
+      <c r="DF12" s="55"/>
+      <c r="DG12" s="55"/>
+      <c r="DH12" s="55"/>
+      <c r="DI12" s="55"/>
+      <c r="DJ12" s="55"/>
+      <c r="DK12" s="55"/>
+      <c r="DL12" s="55"/>
+      <c r="DM12" s="55"/>
+      <c r="DN12" s="55"/>
+      <c r="DO12" s="55"/>
+      <c r="DP12" s="55"/>
+      <c r="DQ12" s="56"/>
+      <c r="DR12" s="54"/>
+      <c r="DS12" s="55"/>
+      <c r="DT12" s="55"/>
+      <c r="DU12" s="55"/>
+      <c r="DV12" s="55"/>
+      <c r="DW12" s="55"/>
+      <c r="DX12" s="55"/>
+      <c r="DY12" s="55"/>
+      <c r="DZ12" s="55"/>
+      <c r="EA12" s="55"/>
+      <c r="EB12" s="55"/>
+      <c r="EC12" s="55"/>
+      <c r="ED12" s="55"/>
+      <c r="EE12" s="55"/>
+      <c r="EF12" s="55"/>
+      <c r="EG12" s="56"/>
+      <c r="EP12" s="54"/>
+      <c r="EQ12" s="55"/>
+      <c r="ER12" s="55"/>
+      <c r="ES12" s="55"/>
+      <c r="ET12" s="55"/>
+      <c r="EU12" s="55"/>
+      <c r="EV12" s="55"/>
+      <c r="EW12" s="56"/>
+      <c r="EX12" s="20"/>
+      <c r="EY12" s="20"/>
+      <c r="EZ12" t="s">
+        <v>103</v>
+      </c>
+      <c r="FE12" s="21"/>
+      <c r="FN12" s="38"/>
+      <c r="FO12" s="16"/>
+      <c r="FP12" s="16"/>
+      <c r="FQ12" s="16"/>
+      <c r="FR12" s="16"/>
+      <c r="FU12" s="36"/>
+      <c r="FV12" s="64"/>
+      <c r="FW12" s="64"/>
+      <c r="FX12" s="64"/>
+      <c r="FY12" s="64"/>
+      <c r="FZ12" s="64"/>
+      <c r="GA12" s="65"/>
+      <c r="GB12" s="63"/>
+      <c r="GC12" s="64"/>
+      <c r="GD12" s="64"/>
+      <c r="GE12" s="64"/>
+      <c r="GF12" s="64"/>
+      <c r="GG12" s="65"/>
       <c r="GM12" t="s">
-        <v>164</v>
-      </c>
-      <c r="GT12" s="76"/>
-      <c r="GU12" s="77"/>
-      <c r="GV12" s="77"/>
-      <c r="GW12" s="77"/>
-      <c r="GX12" s="77"/>
-      <c r="GY12" s="77"/>
-      <c r="GZ12" s="77"/>
-      <c r="HA12" s="78"/>
-      <c r="HB12" s="76"/>
-      <c r="HC12" s="77"/>
-      <c r="HD12" s="77"/>
-      <c r="HE12" s="77"/>
-      <c r="HF12" s="77"/>
-      <c r="HG12" s="77"/>
-      <c r="HH12" s="77"/>
-      <c r="HI12" s="78"/>
+        <v>161</v>
+      </c>
+      <c r="GT12" s="54"/>
+      <c r="GU12" s="55"/>
+      <c r="GV12" s="55"/>
+      <c r="GW12" s="55"/>
+      <c r="GX12" s="55"/>
+      <c r="GY12" s="55"/>
+      <c r="GZ12" s="55"/>
+      <c r="HA12" s="56"/>
+      <c r="HB12" s="54"/>
+      <c r="HC12" s="55"/>
+      <c r="HD12" s="55"/>
+      <c r="HE12" s="55"/>
+      <c r="HF12" s="55"/>
+      <c r="HG12" s="55"/>
+      <c r="HH12" s="55"/>
+      <c r="HI12" s="56"/>
     </row>
     <row r="13" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="77"/>
-      <c r="BC13" s="77"/>
-      <c r="BD13" s="77"/>
-      <c r="BE13" s="77"/>
-      <c r="BF13" s="77"/>
-      <c r="BG13" s="78"/>
-      <c r="BH13" s="76"/>
-      <c r="BI13" s="77"/>
-      <c r="BJ13" s="77"/>
-      <c r="BK13" s="77"/>
-      <c r="BL13" s="77"/>
-      <c r="BM13" s="78"/>
-      <c r="BN13" s="60"/>
-      <c r="BO13" s="61"/>
-      <c r="BP13" s="61"/>
-      <c r="BQ13" s="61"/>
-      <c r="BR13" s="61"/>
-      <c r="BS13" s="61"/>
-      <c r="BT13" s="61"/>
-      <c r="BU13" s="62"/>
-      <c r="BV13" s="60"/>
-      <c r="BW13" s="61"/>
-      <c r="BX13" s="61"/>
-      <c r="BY13" s="61"/>
-      <c r="BZ13" s="61"/>
-      <c r="CA13" s="61"/>
-      <c r="CB13" s="61"/>
-      <c r="CC13" s="62"/>
-      <c r="CD13" s="60"/>
-      <c r="CE13" s="61"/>
-      <c r="CF13" s="61"/>
-      <c r="CG13" s="61"/>
-      <c r="CH13" s="61"/>
-      <c r="CI13" s="61"/>
-      <c r="CJ13" s="61"/>
-      <c r="CK13" s="62"/>
-      <c r="CL13" s="60"/>
-      <c r="CM13" s="61"/>
-      <c r="CN13" s="61"/>
-      <c r="CO13" s="61"/>
-      <c r="CP13" s="61"/>
-      <c r="CQ13" s="61"/>
-      <c r="CR13" s="61"/>
-      <c r="CS13" s="61"/>
-      <c r="CT13" s="61"/>
-      <c r="CU13" s="61"/>
-      <c r="CV13" s="61"/>
-      <c r="CW13" s="61"/>
-      <c r="CX13" s="61"/>
-      <c r="CY13" s="61"/>
-      <c r="CZ13" s="61"/>
-      <c r="DA13" s="62"/>
-      <c r="DB13" s="76"/>
-      <c r="DC13" s="77"/>
-      <c r="DD13" s="77"/>
-      <c r="DE13" s="77"/>
-      <c r="DF13" s="77"/>
-      <c r="DG13" s="77"/>
-      <c r="DH13" s="77"/>
-      <c r="DI13" s="77"/>
-      <c r="DJ13" s="77"/>
-      <c r="DK13" s="77"/>
-      <c r="DL13" s="77"/>
-      <c r="DM13" s="77"/>
-      <c r="DN13" s="77"/>
-      <c r="DO13" s="77"/>
-      <c r="DP13" s="77"/>
-      <c r="DQ13" s="78"/>
-      <c r="DR13" s="76"/>
-      <c r="DS13" s="77"/>
-      <c r="DT13" s="77"/>
-      <c r="DU13" s="77"/>
-      <c r="DV13" s="77"/>
-      <c r="DW13" s="77"/>
-      <c r="DX13" s="77"/>
-      <c r="DY13" s="77"/>
-      <c r="DZ13" s="77"/>
-      <c r="EA13" s="77"/>
-      <c r="EB13" s="77"/>
-      <c r="EC13" s="77"/>
-      <c r="ED13" s="77"/>
-      <c r="EE13" s="77"/>
-      <c r="EF13" s="77"/>
-      <c r="EG13" s="78"/>
-      <c r="EP13" s="76"/>
-      <c r="EQ13" s="77"/>
-      <c r="ER13" s="77"/>
-      <c r="ES13" s="77"/>
-      <c r="ET13" s="77"/>
-      <c r="EU13" s="77"/>
-      <c r="EV13" s="77"/>
-      <c r="EW13" s="78"/>
-      <c r="EX13" s="24"/>
-      <c r="EY13" s="24"/>
-      <c r="EZ13" s="14"/>
-      <c r="FA13" s="14"/>
-      <c r="FB13" s="14"/>
-      <c r="FC13" s="14"/>
-      <c r="FD13" s="14"/>
-      <c r="FE13" s="25"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="55"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="55"/>
+      <c r="AY13" s="55"/>
+      <c r="AZ13" s="55"/>
+      <c r="BA13" s="55"/>
+      <c r="BB13" s="55"/>
+      <c r="BC13" s="55"/>
+      <c r="BD13" s="55"/>
+      <c r="BE13" s="55"/>
+      <c r="BF13" s="55"/>
+      <c r="BG13" s="56"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="55"/>
+      <c r="BJ13" s="55"/>
+      <c r="BK13" s="55"/>
+      <c r="BL13" s="55"/>
+      <c r="BM13" s="56"/>
+      <c r="BN13" s="63"/>
+      <c r="BO13" s="64"/>
+      <c r="BP13" s="64"/>
+      <c r="BQ13" s="64"/>
+      <c r="BR13" s="64"/>
+      <c r="BS13" s="64"/>
+      <c r="BT13" s="64"/>
+      <c r="BU13" s="65"/>
+      <c r="BV13" s="63"/>
+      <c r="BW13" s="64"/>
+      <c r="BX13" s="64"/>
+      <c r="BY13" s="64"/>
+      <c r="BZ13" s="64"/>
+      <c r="CA13" s="64"/>
+      <c r="CB13" s="64"/>
+      <c r="CC13" s="65"/>
+      <c r="CD13" s="63"/>
+      <c r="CE13" s="64"/>
+      <c r="CF13" s="64"/>
+      <c r="CG13" s="64"/>
+      <c r="CH13" s="64"/>
+      <c r="CI13" s="64"/>
+      <c r="CJ13" s="64"/>
+      <c r="CK13" s="65"/>
+      <c r="CL13" s="63"/>
+      <c r="CM13" s="64"/>
+      <c r="CN13" s="64"/>
+      <c r="CO13" s="64"/>
+      <c r="CP13" s="64"/>
+      <c r="CQ13" s="64"/>
+      <c r="CR13" s="64"/>
+      <c r="CS13" s="64"/>
+      <c r="CT13" s="64"/>
+      <c r="CU13" s="64"/>
+      <c r="CV13" s="64"/>
+      <c r="CW13" s="64"/>
+      <c r="CX13" s="64"/>
+      <c r="CY13" s="64"/>
+      <c r="CZ13" s="64"/>
+      <c r="DA13" s="65"/>
+      <c r="DB13" s="54"/>
+      <c r="DC13" s="55"/>
+      <c r="DD13" s="55"/>
+      <c r="DE13" s="55"/>
+      <c r="DF13" s="55"/>
+      <c r="DG13" s="55"/>
+      <c r="DH13" s="55"/>
+      <c r="DI13" s="55"/>
+      <c r="DJ13" s="55"/>
+      <c r="DK13" s="55"/>
+      <c r="DL13" s="55"/>
+      <c r="DM13" s="55"/>
+      <c r="DN13" s="55"/>
+      <c r="DO13" s="55"/>
+      <c r="DP13" s="55"/>
+      <c r="DQ13" s="56"/>
+      <c r="DR13" s="54"/>
+      <c r="DS13" s="55"/>
+      <c r="DT13" s="55"/>
+      <c r="DU13" s="55"/>
+      <c r="DV13" s="55"/>
+      <c r="DW13" s="55"/>
+      <c r="DX13" s="55"/>
+      <c r="DY13" s="55"/>
+      <c r="DZ13" s="55"/>
+      <c r="EA13" s="55"/>
+      <c r="EB13" s="55"/>
+      <c r="EC13" s="55"/>
+      <c r="ED13" s="55"/>
+      <c r="EE13" s="55"/>
+      <c r="EF13" s="55"/>
+      <c r="EG13" s="56"/>
+      <c r="EP13" s="54"/>
+      <c r="EQ13" s="55"/>
+      <c r="ER13" s="55"/>
+      <c r="ES13" s="55"/>
+      <c r="ET13" s="55"/>
+      <c r="EU13" s="55"/>
+      <c r="EV13" s="55"/>
+      <c r="EW13" s="56"/>
+      <c r="EX13" s="20"/>
+      <c r="EY13" s="20"/>
+      <c r="FE13" s="21"/>
       <c r="FG13" t="s">
-        <v>97</v>
-      </c>
-      <c r="FN13" s="46"/>
-      <c r="FO13" s="38"/>
-      <c r="FP13" s="38"/>
-      <c r="FQ13" s="38"/>
-      <c r="FR13" s="38"/>
-      <c r="FS13" s="15"/>
-      <c r="FT13" s="15"/>
-      <c r="FU13" s="44"/>
-      <c r="FV13" s="61"/>
-      <c r="FW13" s="61"/>
-      <c r="FX13" s="61"/>
-      <c r="FY13" s="61"/>
-      <c r="FZ13" s="61"/>
-      <c r="GA13" s="62"/>
-      <c r="GB13" s="60"/>
-      <c r="GC13" s="61"/>
-      <c r="GD13" s="61"/>
-      <c r="GE13" s="61"/>
-      <c r="GF13" s="61"/>
-      <c r="GG13" s="62"/>
+        <v>95</v>
+      </c>
+      <c r="FN13" s="38"/>
+      <c r="FO13" s="16"/>
+      <c r="FP13" s="16"/>
+      <c r="FQ13" s="16"/>
+      <c r="FR13" s="16"/>
+      <c r="FU13" s="36"/>
+      <c r="FV13" s="64"/>
+      <c r="FW13" s="64"/>
+      <c r="FX13" s="64"/>
+      <c r="FY13" s="64"/>
+      <c r="FZ13" s="64"/>
+      <c r="GA13" s="65"/>
+      <c r="GB13" s="63"/>
+      <c r="GC13" s="64"/>
+      <c r="GD13" s="64"/>
+      <c r="GE13" s="64"/>
+      <c r="GF13" s="64"/>
+      <c r="GG13" s="65"/>
       <c r="GL13" t="s">
-        <v>165</v>
-      </c>
-      <c r="GT13" s="76"/>
-      <c r="GU13" s="77"/>
-      <c r="GV13" s="77"/>
-      <c r="GW13" s="77"/>
-      <c r="GX13" s="77"/>
-      <c r="GY13" s="77"/>
-      <c r="GZ13" s="77"/>
-      <c r="HA13" s="78"/>
-      <c r="HB13" s="76"/>
-      <c r="HC13" s="77"/>
-      <c r="HD13" s="77"/>
-      <c r="HE13" s="77"/>
-      <c r="HF13" s="77"/>
-      <c r="HG13" s="77"/>
-      <c r="HH13" s="77"/>
-      <c r="HI13" s="78"/>
+        <v>162</v>
+      </c>
+      <c r="GT13" s="54"/>
+      <c r="GU13" s="55"/>
+      <c r="GV13" s="55"/>
+      <c r="GW13" s="55"/>
+      <c r="GX13" s="55"/>
+      <c r="GY13" s="55"/>
+      <c r="GZ13" s="55"/>
+      <c r="HA13" s="56"/>
+      <c r="HB13" s="54"/>
+      <c r="HC13" s="55"/>
+      <c r="HD13" s="55"/>
+      <c r="HE13" s="55"/>
+      <c r="HF13" s="55"/>
+      <c r="HG13" s="55"/>
+      <c r="HH13" s="55"/>
+      <c r="HI13" s="56"/>
     </row>
     <row r="14" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="80"/>
-      <c r="AJ14" s="80"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="80"/>
-      <c r="AO14" s="80"/>
-      <c r="AP14" s="80"/>
-      <c r="AQ14" s="81"/>
-      <c r="AR14" s="79"/>
-      <c r="AS14" s="80"/>
-      <c r="AT14" s="80"/>
-      <c r="AU14" s="80"/>
-      <c r="AV14" s="80"/>
-      <c r="AW14" s="81"/>
-      <c r="AX14" s="80"/>
-      <c r="AY14" s="80"/>
-      <c r="AZ14" s="80"/>
-      <c r="BA14" s="80"/>
-      <c r="BB14" s="80"/>
-      <c r="BC14" s="80"/>
-      <c r="BD14" s="80"/>
-      <c r="BE14" s="80"/>
-      <c r="BF14" s="80"/>
-      <c r="BG14" s="81"/>
-      <c r="BH14" s="79"/>
-      <c r="BI14" s="80"/>
-      <c r="BJ14" s="80"/>
-      <c r="BK14" s="80"/>
-      <c r="BL14" s="80"/>
-      <c r="BM14" s="81"/>
-      <c r="BN14" s="63"/>
-      <c r="BO14" s="64"/>
-      <c r="BP14" s="64"/>
-      <c r="BQ14" s="64"/>
-      <c r="BR14" s="64"/>
-      <c r="BS14" s="64"/>
-      <c r="BT14" s="64"/>
-      <c r="BU14" s="65"/>
-      <c r="BV14" s="63"/>
-      <c r="BW14" s="64"/>
-      <c r="BX14" s="64"/>
-      <c r="BY14" s="64"/>
-      <c r="BZ14" s="64"/>
-      <c r="CA14" s="64"/>
-      <c r="CB14" s="64"/>
-      <c r="CC14" s="65"/>
-      <c r="CD14" s="63"/>
-      <c r="CE14" s="64"/>
-      <c r="CF14" s="64"/>
-      <c r="CG14" s="64"/>
-      <c r="CH14" s="64"/>
-      <c r="CI14" s="64"/>
-      <c r="CJ14" s="64"/>
-      <c r="CK14" s="65"/>
-      <c r="CL14" s="63"/>
-      <c r="CM14" s="64"/>
-      <c r="CN14" s="64"/>
-      <c r="CO14" s="64"/>
-      <c r="CP14" s="64"/>
-      <c r="CQ14" s="64"/>
-      <c r="CR14" s="64"/>
-      <c r="CS14" s="64"/>
-      <c r="CT14" s="64"/>
-      <c r="CU14" s="64"/>
-      <c r="CV14" s="64"/>
-      <c r="CW14" s="64"/>
-      <c r="CX14" s="64"/>
-      <c r="CY14" s="64"/>
-      <c r="CZ14" s="64"/>
-      <c r="DA14" s="65"/>
-      <c r="DB14" s="79"/>
-      <c r="DC14" s="80"/>
-      <c r="DD14" s="80"/>
-      <c r="DE14" s="80"/>
-      <c r="DF14" s="80"/>
-      <c r="DG14" s="80"/>
-      <c r="DH14" s="80"/>
-      <c r="DI14" s="80"/>
-      <c r="DJ14" s="80"/>
-      <c r="DK14" s="80"/>
-      <c r="DL14" s="80"/>
-      <c r="DM14" s="80"/>
-      <c r="DN14" s="80"/>
-      <c r="DO14" s="80"/>
-      <c r="DP14" s="80"/>
-      <c r="DQ14" s="81"/>
-      <c r="DR14" s="79"/>
-      <c r="DS14" s="80"/>
-      <c r="DT14" s="80"/>
-      <c r="DU14" s="80"/>
-      <c r="DV14" s="80"/>
-      <c r="DW14" s="80"/>
-      <c r="DX14" s="80"/>
-      <c r="DY14" s="80"/>
-      <c r="DZ14" s="80"/>
-      <c r="EA14" s="80"/>
-      <c r="EB14" s="80"/>
-      <c r="EC14" s="80"/>
-      <c r="ED14" s="80"/>
-      <c r="EE14" s="80"/>
-      <c r="EF14" s="80"/>
-      <c r="EG14" s="81"/>
-      <c r="EP14" s="79"/>
-      <c r="EQ14" s="80"/>
-      <c r="ER14" s="80"/>
-      <c r="ES14" s="80"/>
-      <c r="ET14" s="80"/>
-      <c r="EU14" s="80"/>
-      <c r="EV14" s="80"/>
-      <c r="EW14" s="81"/>
-      <c r="EX14" s="26"/>
-      <c r="EY14" s="26"/>
-      <c r="EZ14" s="27"/>
-      <c r="FA14" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="FB14" s="27"/>
-      <c r="FC14" s="27"/>
-      <c r="FD14" s="27"/>
-      <c r="FE14" s="28"/>
-      <c r="FN14" s="47"/>
-      <c r="FO14" s="45"/>
-      <c r="FP14" s="45"/>
-      <c r="FQ14" s="45"/>
-      <c r="FR14" s="45"/>
-      <c r="FS14" s="36"/>
-      <c r="FT14" s="36"/>
-      <c r="FU14" s="37"/>
-      <c r="FV14" s="64"/>
-      <c r="FW14" s="64"/>
-      <c r="FX14" s="64"/>
-      <c r="FY14" s="64"/>
-      <c r="FZ14" s="64"/>
-      <c r="GA14" s="65"/>
-      <c r="GB14" s="63"/>
-      <c r="GC14" s="64"/>
-      <c r="GD14" s="64"/>
-      <c r="GE14" s="64"/>
-      <c r="GF14" s="64"/>
-      <c r="GG14" s="65"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="58"/>
+      <c r="AU14" s="58"/>
+      <c r="AV14" s="58"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="58"/>
+      <c r="BC14" s="58"/>
+      <c r="BD14" s="58"/>
+      <c r="BE14" s="58"/>
+      <c r="BF14" s="58"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="57"/>
+      <c r="BI14" s="58"/>
+      <c r="BJ14" s="58"/>
+      <c r="BK14" s="58"/>
+      <c r="BL14" s="58"/>
+      <c r="BM14" s="59"/>
+      <c r="BN14" s="66"/>
+      <c r="BO14" s="67"/>
+      <c r="BP14" s="67"/>
+      <c r="BQ14" s="67"/>
+      <c r="BR14" s="67"/>
+      <c r="BS14" s="67"/>
+      <c r="BT14" s="67"/>
+      <c r="BU14" s="68"/>
+      <c r="BV14" s="66"/>
+      <c r="BW14" s="67"/>
+      <c r="BX14" s="67"/>
+      <c r="BY14" s="67"/>
+      <c r="BZ14" s="67"/>
+      <c r="CA14" s="67"/>
+      <c r="CB14" s="67"/>
+      <c r="CC14" s="68"/>
+      <c r="CD14" s="66"/>
+      <c r="CE14" s="67"/>
+      <c r="CF14" s="67"/>
+      <c r="CG14" s="67"/>
+      <c r="CH14" s="67"/>
+      <c r="CI14" s="67"/>
+      <c r="CJ14" s="67"/>
+      <c r="CK14" s="68"/>
+      <c r="CL14" s="66"/>
+      <c r="CM14" s="67"/>
+      <c r="CN14" s="67"/>
+      <c r="CO14" s="67"/>
+      <c r="CP14" s="67"/>
+      <c r="CQ14" s="67"/>
+      <c r="CR14" s="67"/>
+      <c r="CS14" s="67"/>
+      <c r="CT14" s="67"/>
+      <c r="CU14" s="67"/>
+      <c r="CV14" s="67"/>
+      <c r="CW14" s="67"/>
+      <c r="CX14" s="67"/>
+      <c r="CY14" s="67"/>
+      <c r="CZ14" s="67"/>
+      <c r="DA14" s="68"/>
+      <c r="DB14" s="57"/>
+      <c r="DC14" s="58"/>
+      <c r="DD14" s="58"/>
+      <c r="DE14" s="58"/>
+      <c r="DF14" s="58"/>
+      <c r="DG14" s="58"/>
+      <c r="DH14" s="58"/>
+      <c r="DI14" s="58"/>
+      <c r="DJ14" s="58"/>
+      <c r="DK14" s="58"/>
+      <c r="DL14" s="58"/>
+      <c r="DM14" s="58"/>
+      <c r="DN14" s="58"/>
+      <c r="DO14" s="58"/>
+      <c r="DP14" s="58"/>
+      <c r="DQ14" s="59"/>
+      <c r="DR14" s="57"/>
+      <c r="DS14" s="58"/>
+      <c r="DT14" s="58"/>
+      <c r="DU14" s="58"/>
+      <c r="DV14" s="58"/>
+      <c r="DW14" s="58"/>
+      <c r="DX14" s="58"/>
+      <c r="DY14" s="58"/>
+      <c r="DZ14" s="58"/>
+      <c r="EA14" s="58"/>
+      <c r="EB14" s="58"/>
+      <c r="EC14" s="58"/>
+      <c r="ED14" s="58"/>
+      <c r="EE14" s="58"/>
+      <c r="EF14" s="58"/>
+      <c r="EG14" s="59"/>
+      <c r="EP14" s="57"/>
+      <c r="EQ14" s="58"/>
+      <c r="ER14" s="58"/>
+      <c r="ES14" s="58"/>
+      <c r="ET14" s="58"/>
+      <c r="EU14" s="58"/>
+      <c r="EV14" s="58"/>
+      <c r="EW14" s="59"/>
+      <c r="EX14" s="22"/>
+      <c r="EY14" s="22"/>
+      <c r="EZ14" s="23"/>
+      <c r="FA14" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="FB14" s="23"/>
+      <c r="FC14" s="23"/>
+      <c r="FD14" s="23"/>
+      <c r="FE14" s="24"/>
+      <c r="FN14" s="39"/>
+      <c r="FO14" s="37"/>
+      <c r="FP14" s="37"/>
+      <c r="FQ14" s="37"/>
+      <c r="FR14" s="37"/>
+      <c r="FS14" s="31"/>
+      <c r="FT14" s="31"/>
+      <c r="FU14" s="32"/>
+      <c r="FV14" s="67"/>
+      <c r="FW14" s="67"/>
+      <c r="FX14" s="67"/>
+      <c r="FY14" s="67"/>
+      <c r="FZ14" s="67"/>
+      <c r="GA14" s="68"/>
+      <c r="GB14" s="66"/>
+      <c r="GC14" s="67"/>
+      <c r="GD14" s="67"/>
+      <c r="GE14" s="67"/>
+      <c r="GF14" s="67"/>
+      <c r="GG14" s="68"/>
       <c r="GN14" t="s">
-        <v>166</v>
-      </c>
-      <c r="GT14" s="79"/>
-      <c r="GU14" s="80"/>
-      <c r="GV14" s="80"/>
-      <c r="GW14" s="80"/>
-      <c r="GX14" s="80"/>
-      <c r="GY14" s="80"/>
-      <c r="GZ14" s="80"/>
-      <c r="HA14" s="81"/>
-      <c r="HB14" s="79"/>
-      <c r="HC14" s="80"/>
-      <c r="HD14" s="80"/>
-      <c r="HE14" s="80"/>
-      <c r="HF14" s="80"/>
-      <c r="HG14" s="80"/>
-      <c r="HH14" s="80"/>
-      <c r="HI14" s="81"/>
+        <v>197</v>
+      </c>
+      <c r="GT14" s="57"/>
+      <c r="GU14" s="58"/>
+      <c r="GV14" s="58"/>
+      <c r="GW14" s="58"/>
+      <c r="GX14" s="58"/>
+      <c r="GY14" s="58"/>
+      <c r="GZ14" s="58"/>
+      <c r="HA14" s="59"/>
+      <c r="HB14" s="57"/>
+      <c r="HC14" s="58"/>
+      <c r="HD14" s="58"/>
+      <c r="HE14" s="58"/>
+      <c r="HF14" s="58"/>
+      <c r="HG14" s="58"/>
+      <c r="HH14" s="58"/>
+      <c r="HI14" s="59"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="18"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
-      <c r="BM15" s="14"/>
-      <c r="BN15" s="14"/>
-      <c r="BO15" s="14"/>
-      <c r="BP15" s="14"/>
-      <c r="BQ15" s="14"/>
-      <c r="BR15" s="14"/>
-      <c r="BS15" s="14"/>
-      <c r="BT15" s="14"/>
-      <c r="BU15" s="14"/>
-      <c r="BV15" s="14"/>
-      <c r="BW15" s="14"/>
-      <c r="BX15" s="14"/>
-      <c r="BY15" s="14"/>
-      <c r="BZ15" s="14"/>
-      <c r="CA15" s="14"/>
-      <c r="CB15" s="14"/>
-      <c r="CC15" s="14"/>
-      <c r="CD15" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="CE15" s="14"/>
-      <c r="CF15" s="14"/>
-      <c r="CG15" s="14"/>
-      <c r="CH15" s="14"/>
-      <c r="CI15" s="14"/>
-      <c r="CJ15" s="14"/>
-      <c r="CK15" s="14"/>
-      <c r="CL15" s="14"/>
-      <c r="CM15" s="14"/>
-      <c r="CN15" s="14"/>
-      <c r="CO15" s="14">
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="AX15" s="14"/>
+      <c r="CD15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CO15">
         <v>0</v>
       </c>
-      <c r="CP15" s="14"/>
-      <c r="CQ15" s="14"/>
-      <c r="CR15" s="14"/>
-      <c r="CS15" s="14"/>
-      <c r="CT15" s="14"/>
-      <c r="CU15" s="14"/>
-      <c r="CV15" s="14"/>
-      <c r="CW15" s="14">
+      <c r="CW15">
         <v>150</v>
       </c>
-      <c r="CX15" s="14"/>
-      <c r="CY15" s="14"/>
-      <c r="CZ15" s="14"/>
-      <c r="DA15" s="14">
+      <c r="DA15">
         <v>15</v>
       </c>
-      <c r="DB15" s="15"/>
-      <c r="DC15" s="15"/>
-      <c r="DD15" s="15"/>
-      <c r="DE15" s="15"/>
-      <c r="DF15" s="15"/>
-      <c r="DG15" s="15"/>
-      <c r="DH15" s="15"/>
-      <c r="DI15" s="15"/>
-      <c r="DJ15" s="15"/>
-      <c r="DK15" s="15"/>
-      <c r="DL15" s="15"/>
-      <c r="DM15" s="15"/>
-      <c r="DN15" s="15"/>
-      <c r="DO15" s="15"/>
-      <c r="DP15" s="15"/>
-      <c r="DQ15" s="15"/>
-      <c r="DR15" s="15"/>
-      <c r="DS15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="DT15" s="15"/>
-      <c r="DU15" s="15"/>
-      <c r="DV15" s="15"/>
-      <c r="DW15" s="15"/>
-      <c r="DX15" s="15"/>
-      <c r="DY15" s="15"/>
-      <c r="DZ15" s="15"/>
-      <c r="EA15" s="15"/>
-      <c r="EB15" s="15"/>
-      <c r="EC15" s="15"/>
-      <c r="ED15" s="15"/>
-      <c r="EE15" s="15"/>
-      <c r="EF15" s="15"/>
-      <c r="EG15" s="15"/>
-      <c r="EH15" s="16"/>
-      <c r="EI15" s="16"/>
-      <c r="EJ15" s="16"/>
-      <c r="EK15" s="16"/>
-      <c r="EL15" s="16"/>
-      <c r="EM15" s="16"/>
-      <c r="EN15" s="16"/>
-      <c r="EO15" s="16"/>
-      <c r="EP15" s="14"/>
-      <c r="EQ15" s="14"/>
-      <c r="ER15" s="14"/>
-      <c r="ES15" s="14"/>
-      <c r="ET15" s="14"/>
-      <c r="EU15" s="14"/>
-      <c r="EV15" s="14"/>
-      <c r="EW15" s="14"/>
-      <c r="EX15" s="14"/>
-      <c r="EY15" s="14" t="s">
+      <c r="DS15" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH15" s="13"/>
+      <c r="EI15" s="13"/>
+      <c r="EJ15" s="13"/>
+      <c r="EK15" s="13"/>
+      <c r="EL15" s="13"/>
+      <c r="EM15" s="13"/>
+      <c r="EN15" s="13"/>
+      <c r="EO15" s="13"/>
+      <c r="EY15" t="s">
+        <v>121</v>
+      </c>
+      <c r="FF15" s="13"/>
+      <c r="FG15" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="EZ15" s="14"/>
-      <c r="FA15" s="14"/>
-      <c r="FB15" s="14"/>
-      <c r="FC15" s="14"/>
-      <c r="FD15" s="14"/>
-      <c r="FE15" s="14"/>
-      <c r="FF15" s="16"/>
-      <c r="FG15" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="FH15" s="16"/>
-      <c r="FI15" s="16"/>
-      <c r="FJ15" s="16"/>
-      <c r="FK15" s="16"/>
-      <c r="FL15" s="16"/>
-      <c r="FM15" s="16"/>
-      <c r="FN15" s="15"/>
-      <c r="FO15" s="15"/>
-      <c r="FP15" s="15"/>
-      <c r="FQ15" s="15"/>
-      <c r="FR15" s="15"/>
-      <c r="FS15" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="FT15" s="15"/>
-      <c r="FU15" s="15"/>
-      <c r="FV15" s="14"/>
-      <c r="FW15" s="14"/>
-      <c r="FX15" s="14"/>
-      <c r="FY15" s="14"/>
-      <c r="FZ15" s="14"/>
-      <c r="GA15" s="14"/>
-      <c r="GB15" s="16"/>
-      <c r="GC15" s="16"/>
-      <c r="GD15" s="16"/>
-      <c r="GE15" s="16"/>
-      <c r="GF15" s="16"/>
-      <c r="GG15" s="16"/>
-      <c r="GH15" s="16"/>
-      <c r="GI15" s="16"/>
-      <c r="GJ15" s="16"/>
-      <c r="GK15" s="16"/>
-      <c r="GL15" s="16" t="s">
+      <c r="FH15" s="13"/>
+      <c r="FI15" s="13"/>
+      <c r="FJ15" s="13"/>
+      <c r="FK15" s="13"/>
+      <c r="FL15" s="13"/>
+      <c r="FM15" s="13"/>
+      <c r="FS15" t="s">
         <v>168</v>
       </c>
-      <c r="GM15" s="16"/>
-      <c r="GN15" s="16"/>
-      <c r="GO15" s="16"/>
-      <c r="GP15" s="16"/>
-      <c r="GQ15" s="16"/>
-      <c r="GR15" s="16"/>
-      <c r="GS15" s="16"/>
-      <c r="GT15" s="14"/>
-      <c r="GU15" s="14"/>
-      <c r="GV15" s="14"/>
-      <c r="GW15" s="14"/>
-      <c r="GX15" s="14"/>
-      <c r="GY15" s="14"/>
-      <c r="GZ15" s="14"/>
-      <c r="HA15" s="14"/>
-      <c r="HB15" s="14"/>
-      <c r="HC15" s="14"/>
-      <c r="HD15" s="14"/>
-      <c r="HE15" s="14"/>
-      <c r="HF15" s="14"/>
-      <c r="HG15" s="14"/>
-      <c r="HH15" s="14"/>
-      <c r="HI15" s="14"/>
+      <c r="GB15" s="13"/>
+      <c r="GC15" s="13"/>
+      <c r="GD15" s="13"/>
+      <c r="GE15" s="13"/>
+      <c r="GF15" s="13"/>
+      <c r="GG15" s="13"/>
+      <c r="GH15" s="13"/>
+      <c r="GI15" s="13"/>
+      <c r="GJ15" s="13"/>
+      <c r="GK15" s="13"/>
+      <c r="GL15" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="GM15" s="13"/>
+      <c r="GN15" s="13"/>
+      <c r="GO15" s="13"/>
+      <c r="GP15" s="13"/>
+      <c r="GQ15" s="13"/>
+      <c r="GR15" s="13"/>
+      <c r="GS15" s="13"/>
     </row>
     <row r="16" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
-      <c r="N16" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="CD16" s="104" t="s">
+      <c r="N16" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="CD16" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE16" s="50"/>
+      <c r="CF16" s="50"/>
+      <c r="CG16" s="50"/>
+      <c r="CH16" s="50"/>
+      <c r="CI16" s="50"/>
+      <c r="CJ16" s="50"/>
+      <c r="CK16" s="50"/>
+      <c r="DE16" t="s">
+        <v>203</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>137</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>184</v>
+      </c>
+      <c r="FA16" t="s">
         <v>122</v>
       </c>
-      <c r="CE16" s="105"/>
-      <c r="CF16" s="105"/>
-      <c r="CG16" s="105"/>
-      <c r="CH16" s="105"/>
-      <c r="CI16" s="105"/>
-      <c r="CJ16" s="105"/>
-      <c r="CK16" s="105"/>
-      <c r="DE16" t="s">
-        <v>184</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>140</v>
-      </c>
-      <c r="EP16" t="s">
-        <v>190</v>
-      </c>
-      <c r="FA16" t="s">
+      <c r="FG16" t="s">
         <v>124</v>
       </c>
-      <c r="FG16" t="s">
-        <v>126</v>
-      </c>
       <c r="FS16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="CD17" s="105"/>
-      <c r="CE17" s="105"/>
-      <c r="CF17" s="105"/>
-      <c r="CG17" s="105"/>
-      <c r="CH17" s="105"/>
-      <c r="CI17" s="105"/>
-      <c r="CJ17" s="105"/>
-      <c r="CK17" s="105"/>
+      <c r="N17" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="CD17" s="50"/>
+      <c r="CE17" s="50"/>
+      <c r="CF17" s="50"/>
+      <c r="CG17" s="50"/>
+      <c r="CH17" s="50"/>
+      <c r="CI17" s="50"/>
+      <c r="CJ17" s="50"/>
+      <c r="CK17" s="50"/>
       <c r="DE17" t="s">
+        <v>180</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>171</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>142</v>
+      </c>
+      <c r="EP17" t="s">
         <v>185</v>
       </c>
-      <c r="DN17" t="s">
-        <v>175</v>
-      </c>
-      <c r="EC17" t="s">
-        <v>145</v>
-      </c>
-      <c r="EP17" t="s">
-        <v>191</v>
-      </c>
       <c r="FG17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="FS17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="GV17" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="CD18" s="105"/>
-      <c r="CE18" s="105"/>
-      <c r="CF18" s="105"/>
-      <c r="CG18" s="105"/>
-      <c r="CH18" s="105"/>
-      <c r="CI18" s="105"/>
-      <c r="CJ18" s="105"/>
-      <c r="CK18" s="105"/>
-      <c r="CL18" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="CM18" s="36"/>
-      <c r="CN18" s="36"/>
-      <c r="CO18" s="37"/>
+      <c r="N18" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="CD18" s="50"/>
+      <c r="CE18" s="50"/>
+      <c r="CF18" s="50"/>
+      <c r="CG18" s="50"/>
+      <c r="CH18" s="50"/>
+      <c r="CI18" s="50"/>
+      <c r="CJ18" s="50"/>
+      <c r="CK18" s="50"/>
+      <c r="CL18" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="CM18" s="31"/>
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="32"/>
+      <c r="DE18" t="s">
+        <v>201</v>
+      </c>
       <c r="EC18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="EY18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="CD19" s="105"/>
-      <c r="CE19" s="105"/>
-      <c r="CF19" s="105"/>
-      <c r="CG19" s="105"/>
-      <c r="CH19" s="105"/>
-      <c r="CI19" s="105"/>
-      <c r="CJ19" s="105"/>
-      <c r="CK19" s="105"/>
+        <v>69</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="CD19" s="50"/>
+      <c r="CE19" s="50"/>
+      <c r="CF19" s="50"/>
+      <c r="CG19" s="50"/>
+      <c r="CH19" s="50"/>
+      <c r="CI19" s="50"/>
+      <c r="CJ19" s="50"/>
+      <c r="CK19" s="50"/>
       <c r="CM19" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="DE19" t="s">
+        <v>202</v>
       </c>
       <c r="EC19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="FG19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
-      <c r="N20" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="CD20" s="105"/>
-      <c r="CE20" s="105"/>
-      <c r="CF20" s="105"/>
-      <c r="CG20" s="105"/>
-      <c r="CH20" s="105"/>
-      <c r="CI20" s="105"/>
-      <c r="CJ20" s="105"/>
-      <c r="CK20" s="105"/>
+      <c r="N20" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="CD20" s="50"/>
+      <c r="CE20" s="50"/>
+      <c r="CF20" s="50"/>
+      <c r="CG20" s="50"/>
+      <c r="CH20" s="50"/>
+      <c r="CI20" s="50"/>
+      <c r="CJ20" s="50"/>
+      <c r="CK20" s="50"/>
+      <c r="DI20" t="s">
+        <v>196</v>
+      </c>
       <c r="FG20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="CD21" s="105"/>
-      <c r="CE21" s="105"/>
-      <c r="CF21" s="105"/>
-      <c r="CG21" s="105"/>
-      <c r="CH21" s="105"/>
-      <c r="CI21" s="105"/>
-      <c r="CJ21" s="105"/>
-      <c r="CK21" s="105"/>
+        <v>82</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="CD21" s="50"/>
+      <c r="CE21" s="50"/>
+      <c r="CF21" s="50"/>
+      <c r="CG21" s="50"/>
+      <c r="CH21" s="50"/>
+      <c r="CI21" s="50"/>
+      <c r="CJ21" s="50"/>
+      <c r="CK21" s="50"/>
       <c r="CL21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="DR21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="EY21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="FG21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="FN21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:204" x14ac:dyDescent="0.45">
@@ -6512,39 +6466,39 @@
         <f>DEC2HEX(G22+$F$22)</f>
         <v>5972</v>
       </c>
-      <c r="N22" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="CD22" s="105"/>
-      <c r="CE22" s="105"/>
-      <c r="CF22" s="105"/>
-      <c r="CG22" s="105"/>
-      <c r="CH22" s="105"/>
-      <c r="CI22" s="105"/>
-      <c r="CJ22" s="105"/>
-      <c r="CK22" s="105"/>
+      <c r="N22" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="CD22" s="50"/>
+      <c r="CE22" s="50"/>
+      <c r="CF22" s="50"/>
+      <c r="CG22" s="50"/>
+      <c r="CH22" s="50"/>
+      <c r="CI22" s="50"/>
+      <c r="CJ22" s="50"/>
+      <c r="CK22" s="50"/>
       <c r="DR22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="FH22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="FO22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:204" x14ac:dyDescent="0.45">
@@ -6560,36 +6514,36 @@
         <f t="shared" ref="I23:I48" si="41">DEC2HEX(G23+$F$22)</f>
         <v>5973</v>
       </c>
-      <c r="N23" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="CD23" s="105"/>
-      <c r="CE23" s="105"/>
-      <c r="CF23" s="105"/>
-      <c r="CG23" s="105"/>
-      <c r="CH23" s="105"/>
-      <c r="CI23" s="105"/>
-      <c r="CJ23" s="105"/>
-      <c r="CK23" s="105"/>
+      <c r="N23" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="CD23" s="50"/>
+      <c r="CE23" s="50"/>
+      <c r="CF23" s="50"/>
+      <c r="CG23" s="50"/>
+      <c r="CH23" s="50"/>
+      <c r="CI23" s="50"/>
+      <c r="CJ23" s="50"/>
+      <c r="CK23" s="50"/>
       <c r="DE23" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="FH23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:204" x14ac:dyDescent="0.45">
@@ -6605,19 +6559,19 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="105"/>
-      <c r="CE24" s="105"/>
-      <c r="CF24" s="105"/>
-      <c r="CG24" s="105"/>
-      <c r="CH24" s="105"/>
-      <c r="CI24" s="105"/>
-      <c r="CJ24" s="105"/>
-      <c r="CK24" s="105"/>
+      <c r="CD24" s="50"/>
+      <c r="CE24" s="50"/>
+      <c r="CF24" s="50"/>
+      <c r="CG24" s="50"/>
+      <c r="CH24" s="50"/>
+      <c r="CI24" s="50"/>
+      <c r="CJ24" s="50"/>
+      <c r="CK24" s="50"/>
       <c r="DG24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="EX24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:204" x14ac:dyDescent="0.45">
@@ -6633,19 +6587,19 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="105"/>
-      <c r="CE25" s="105"/>
-      <c r="CF25" s="105"/>
-      <c r="CG25" s="105"/>
-      <c r="CH25" s="105"/>
-      <c r="CI25" s="105"/>
-      <c r="CJ25" s="105"/>
-      <c r="CK25" s="105"/>
+      <c r="CD25" s="50"/>
+      <c r="CE25" s="50"/>
+      <c r="CF25" s="50"/>
+      <c r="CG25" s="50"/>
+      <c r="CH25" s="50"/>
+      <c r="CI25" s="50"/>
+      <c r="CJ25" s="50"/>
+      <c r="CK25" s="50"/>
       <c r="DG25" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="EX25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:204" x14ac:dyDescent="0.45">
@@ -6661,14 +6615,17 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="105"/>
-      <c r="CE26" s="105"/>
-      <c r="CF26" s="105"/>
-      <c r="CG26" s="105"/>
-      <c r="CH26" s="105"/>
-      <c r="CI26" s="105"/>
-      <c r="CJ26" s="105"/>
-      <c r="CK26" s="105"/>
+      <c r="CD26" s="50"/>
+      <c r="CE26" s="50"/>
+      <c r="CF26" s="50"/>
+      <c r="CG26" s="50"/>
+      <c r="CH26" s="50"/>
+      <c r="CI26" s="50"/>
+      <c r="CJ26" s="50"/>
+      <c r="CK26" s="50"/>
+      <c r="DG26" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="27" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
@@ -6683,14 +6640,17 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="105"/>
-      <c r="CE27" s="105"/>
-      <c r="CF27" s="105"/>
-      <c r="CG27" s="105"/>
-      <c r="CH27" s="105"/>
-      <c r="CI27" s="105"/>
-      <c r="CJ27" s="105"/>
-      <c r="CK27" s="105"/>
+      <c r="CD27" s="50"/>
+      <c r="CE27" s="50"/>
+      <c r="CF27" s="50"/>
+      <c r="CG27" s="50"/>
+      <c r="CH27" s="50"/>
+      <c r="CI27" s="50"/>
+      <c r="CJ27" s="50"/>
+      <c r="CK27" s="50"/>
+      <c r="DG27" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="28" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
@@ -6705,16 +6665,16 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="105"/>
-      <c r="CE28" s="105"/>
-      <c r="CF28" s="105"/>
-      <c r="CG28" s="105"/>
-      <c r="CH28" s="105"/>
-      <c r="CI28" s="105"/>
-      <c r="CJ28" s="105"/>
-      <c r="CK28" s="105"/>
+      <c r="CD28" s="50"/>
+      <c r="CE28" s="50"/>
+      <c r="CF28" s="50"/>
+      <c r="CG28" s="50"/>
+      <c r="CH28" s="50"/>
+      <c r="CI28" s="50"/>
+      <c r="CJ28" s="50"/>
+      <c r="CK28" s="50"/>
       <c r="EX28" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:204" x14ac:dyDescent="0.45">
@@ -6730,14 +6690,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="105"/>
-      <c r="CE29" s="105"/>
-      <c r="CF29" s="105"/>
-      <c r="CG29" s="105"/>
-      <c r="CH29" s="105"/>
-      <c r="CI29" s="105"/>
-      <c r="CJ29" s="105"/>
-      <c r="CK29" s="105"/>
+      <c r="CD29" s="50"/>
+      <c r="CE29" s="50"/>
+      <c r="CF29" s="50"/>
+      <c r="CG29" s="50"/>
+      <c r="CH29" s="50"/>
+      <c r="CI29" s="50"/>
+      <c r="CJ29" s="50"/>
+      <c r="CK29" s="50"/>
     </row>
     <row r="30" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -6753,7 +6713,7 @@
         <v>597A</v>
       </c>
       <c r="CD30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:204" x14ac:dyDescent="0.45">
@@ -6773,7 +6733,7 @@
     <row r="32" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -6801,7 +6761,7 @@
         <v>597D</v>
       </c>
       <c r="CD33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:87" x14ac:dyDescent="0.45">
@@ -6818,7 +6778,7 @@
         <v>597E</v>
       </c>
       <c r="BN34" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.45">
@@ -6834,10 +6794,10 @@
         <v>597F</v>
       </c>
       <c r="BN35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CD35" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.45">
@@ -6874,7 +6834,7 @@
         <v>5981</v>
       </c>
       <c r="BL37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BM37">
         <v>243</v>
@@ -6922,13 +6882,13 @@
         <v>5983</v>
       </c>
       <c r="BL39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="BZ39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="CE39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CG39">
         <v>9</v>
@@ -6951,7 +6911,7 @@
         <v>5984</v>
       </c>
       <c r="CE40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CG40">
         <v>7</v>
@@ -7095,36 +7055,88 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="CD16:CK29"/>
-    <mergeCell ref="GT9:HA14"/>
-    <mergeCell ref="HB9:HI14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="DB9:DQ14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="CD9:CK14"/>
-    <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="CX7:DA7"/>
+    <mergeCell ref="FV4:GK4"/>
+    <mergeCell ref="GH7:GK7"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="GV7:HA7"/>
+    <mergeCell ref="HB7:HI7"/>
+    <mergeCell ref="I9:Q14"/>
+    <mergeCell ref="CD7:CK7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CL7:CO7"/>
+    <mergeCell ref="DN7:DQ7"/>
+    <mergeCell ref="DB7:DC7"/>
+    <mergeCell ref="DF7:DM7"/>
+    <mergeCell ref="DR9:EG14"/>
+    <mergeCell ref="EP9:EW14"/>
+    <mergeCell ref="FV9:GA14"/>
+    <mergeCell ref="GB9:GG14"/>
+    <mergeCell ref="CL8:DA8"/>
+    <mergeCell ref="DB8:DQ8"/>
+    <mergeCell ref="DV7:EA7"/>
+    <mergeCell ref="EB7:EG7"/>
+    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="EP7:EW7"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="DR7:DU7"/>
+    <mergeCell ref="FK7:FM7"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="FV7:GA7"/>
+    <mergeCell ref="FN7:FU7"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B1:BM1"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="FF3:FM3"/>
+    <mergeCell ref="FN3:FU3"/>
+    <mergeCell ref="FV3:GC3"/>
+    <mergeCell ref="BN1:HI1"/>
+    <mergeCell ref="DJ3:DQ3"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="DZ3:EG3"/>
+    <mergeCell ref="EH3:EO3"/>
+    <mergeCell ref="EP3:EW3"/>
+    <mergeCell ref="EX3:FE3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="B3:I3"/>
     <mergeCell ref="B9:H14"/>
     <mergeCell ref="DJ2:DQ2"/>
     <mergeCell ref="DR2:DY2"/>
@@ -7149,88 +7161,36 @@
     <mergeCell ref="CL3:CS3"/>
     <mergeCell ref="CT3:DA3"/>
     <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="GT2:HA2"/>
-    <mergeCell ref="HB2:HI2"/>
-    <mergeCell ref="B1:BM1"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="FF3:FM3"/>
-    <mergeCell ref="FN3:FU3"/>
-    <mergeCell ref="FV3:GC3"/>
-    <mergeCell ref="BN1:HI1"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="DZ3:EG3"/>
-    <mergeCell ref="EH3:EO3"/>
-    <mergeCell ref="EP3:EW3"/>
-    <mergeCell ref="EX3:FE3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="DR7:DU7"/>
-    <mergeCell ref="FK7:FM7"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="FV7:GA7"/>
-    <mergeCell ref="FN7:FU7"/>
-    <mergeCell ref="CX7:DA7"/>
-    <mergeCell ref="FV4:GK4"/>
-    <mergeCell ref="GH7:GK7"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="GV7:HA7"/>
-    <mergeCell ref="HB7:HI7"/>
-    <mergeCell ref="I9:Q14"/>
-    <mergeCell ref="CD7:CK7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CL7:CO7"/>
-    <mergeCell ref="DN7:DQ7"/>
-    <mergeCell ref="DB7:DC7"/>
-    <mergeCell ref="DF7:DM7"/>
-    <mergeCell ref="DR9:EG14"/>
-    <mergeCell ref="EP9:EW14"/>
-    <mergeCell ref="FV9:GA14"/>
-    <mergeCell ref="GB9:GG14"/>
-    <mergeCell ref="CL8:DA8"/>
-    <mergeCell ref="DB8:DQ8"/>
-    <mergeCell ref="DV7:EA7"/>
-    <mergeCell ref="EB7:EG7"/>
-    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="CD16:CK29"/>
+    <mergeCell ref="GT9:HA14"/>
+    <mergeCell ref="HB9:HI14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="DB9:DQ14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="CD9:CK14"/>
+    <mergeCell ref="CL9:DA14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7238,6 +7198,599 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5CA2CF-6944-4336-B9A5-4B4B7F5A8A0E}">
+  <dimension ref="A1:AG8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:AA6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="104">
+        <v>0</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="104">
+        <v>2</v>
+      </c>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
+      <c r="AG1" s="106"/>
+    </row>
+    <row r="2" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="43">
+        <v>15</v>
+      </c>
+      <c r="C2" s="43">
+        <v>14</v>
+      </c>
+      <c r="D2" s="43">
+        <v>13</v>
+      </c>
+      <c r="E2" s="43">
+        <v>12</v>
+      </c>
+      <c r="F2" s="43">
+        <v>11</v>
+      </c>
+      <c r="G2" s="43">
+        <v>10</v>
+      </c>
+      <c r="H2" s="43">
+        <v>9</v>
+      </c>
+      <c r="I2" s="43">
+        <v>8</v>
+      </c>
+      <c r="J2" s="43">
+        <v>7</v>
+      </c>
+      <c r="K2" s="43">
+        <v>6</v>
+      </c>
+      <c r="L2" s="43">
+        <v>5</v>
+      </c>
+      <c r="M2" s="43">
+        <v>4</v>
+      </c>
+      <c r="N2" s="43">
+        <v>3</v>
+      </c>
+      <c r="O2" s="43">
+        <v>2</v>
+      </c>
+      <c r="P2" s="43">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>0</v>
+      </c>
+      <c r="R2" s="43">
+        <v>15</v>
+      </c>
+      <c r="S2" s="43">
+        <v>14</v>
+      </c>
+      <c r="T2" s="43">
+        <v>13</v>
+      </c>
+      <c r="U2" s="43">
+        <v>12</v>
+      </c>
+      <c r="V2" s="43">
+        <v>11</v>
+      </c>
+      <c r="W2" s="43">
+        <v>10</v>
+      </c>
+      <c r="X2" s="43">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="43">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="43">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="43">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="43">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="43">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="43">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="43">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="44" t="str">
+        <f>DEC2HEX(B2)</f>
+        <v>F</v>
+      </c>
+      <c r="C3" s="45" t="str">
+        <f t="shared" ref="C3:AG3" si="0">DEC2HEX(C2)</f>
+        <v>E</v>
+      </c>
+      <c r="D3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E3" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="G3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="H3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I3" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M3" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="S3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="T3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="U3" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="V3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="W3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="X3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y3" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Z3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AA3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC3" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD3" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF3" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG3" s="46" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="111">
+        <v>1</v>
+      </c>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111">
+        <v>0</v>
+      </c>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111">
+        <v>3</v>
+      </c>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="111"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="47">
+        <f t="shared" ref="B5:H5" si="1">B2-8</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D5" s="47">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="47">
+        <f>I2-8</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="47" t="str">
+        <f t="shared" ref="J5:Q5" si="2">DEC2HEX(J3)</f>
+        <v>7</v>
+      </c>
+      <c r="K5" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L5" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M5" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P5" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="47" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="47">
+        <f t="shared" ref="R5:X5" si="3">R2-8</f>
+        <v>7</v>
+      </c>
+      <c r="S5" s="47">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T5" s="47">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U5" s="47">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V5" s="47">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="W5" s="47">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X5" s="47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="47">
+        <f>Y2-8</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="47">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="47">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="47">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="47">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="47">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="47">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="47">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="S6" s="108"/>
+      <c r="T6" s="108"/>
+      <c r="U6" s="108"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="108"/>
+      <c r="X6" s="108"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC6" s="108"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="109"/>
+    </row>
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110" t="s">
+        <v>221</v>
+      </c>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="R6:AA6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF520BAE-2D35-4D5B-9DEC-B633C8DBB197}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -7259,7 +7812,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C1">
         <f>HEX2DEC("2654")</f>
@@ -7268,22 +7821,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -7299,10 +7852,10 @@
         <v>2654</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7331,13 +7884,13 @@
         <v>2656</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7366,13 +7919,13 @@
         <v>2658</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -7401,7 +7954,7 @@
         <v>265A</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -7430,7 +7983,7 @@
         <v>265C</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -7459,7 +8012,7 @@
         <v>265E</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -7488,10 +8041,10 @@
         <v>2660</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -7520,7 +8073,7 @@
         <v>2662</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -7549,7 +8102,7 @@
         <v>2664</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -7578,7 +8131,7 @@
         <v>2666</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -7607,10 +8160,10 @@
         <v>2668</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -7639,7 +8192,7 @@
         <v>266A</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -7655,7 +8208,7 @@
         <v>266B</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -7671,7 +8224,7 @@
         <v>266C</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -7687,7 +8240,7 @@
         <v>266D</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -7703,7 +8256,7 @@
         <v>266E</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -7735,7 +8288,7 @@
         <v>2670</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -7764,10 +8317,10 @@
         <v>2672</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -7796,7 +8349,7 @@
         <v>2674</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -7825,7 +8378,7 @@
         <v>2676</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -7841,7 +8394,7 @@
         <v>2677</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -7870,7 +8423,7 @@
         <v>2679</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -7886,7 +8439,7 @@
         <v>267A</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EC1B3D-7A6C-4DF8-BC9E-C255AB6825BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C35419-3A35-4086-8A52-9A28BE15790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
   <si>
     <t>Static Object</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Goal Target</t>
   </si>
   <si>
-    <t>Unk0xB_12_F</t>
-  </si>
-  <si>
     <t>npc_level</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>Needs research</t>
-  </si>
-  <si>
-    <t>animation</t>
   </si>
   <si>
     <t>Unk0x16_0_F</t>
@@ -204,18 +198,12 @@
 (zpos&lt;&lt;3) + 0xFh is stored here</t>
   </si>
   <si>
-    <t>When a projectile is launched this value contains the index of the npc that threw it</t>
-  </si>
-  <si>
     <t>Maybe speed does not contain bit 3?</t>
   </si>
   <si>
     <t>ProjectilePitch</t>
   </si>
   <si>
-    <t>Identifier of whom the NPC is</t>
-  </si>
-  <si>
     <t>NPC (&amp; player) hit points</t>
   </si>
   <si>
@@ -228,10 +216,6 @@
     <t>Y position of the object in a tile</t>
   </si>
   <si>
-    <t>Facing direction of the object
-For magical objectsthe value(s) to show it has been identified</t>
-  </si>
-  <si>
     <t>Z position of the object in a tile</t>
   </si>
   <si>
@@ -242,9 +226,6 @@
   </si>
   <si>
     <t>Possibly wrong</t>
-  </si>
-  <si>
-    <t>Bit 6 and 7 stop npcs from hurting each other in combat when they are the same?</t>
   </si>
   <si>
     <t>Sign?</t>
@@ -445,11 +426,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Tracks world Y co-ordinate of the projectile
-(yhome&lt;&lt;8) + (ypos&lt;&lt;5) +0xFh
-Bit 0xA is the creature is powerful flag</t>
-  </si>
-  <si>
     <t>also 7CDF</t>
   </si>
   <si>
@@ -601,12 +577,6 @@
     <t>For NPCs does this mean they are in combat?</t>
   </si>
   <si>
-    <t>For player object is the item id of the last creature</t>
-  </si>
-  <si>
-    <t>to hit the player? Does this happen for all npcs?</t>
-  </si>
-  <si>
     <t>Bit 8</t>
   </si>
   <si>
@@ -723,9 +693,53 @@
     <t>bits (byte aligned)</t>
   </si>
   <si>
+    <t>bits 0-2 are set when NPC Goal is 13 or 14.</t>
+  </si>
+  <si>
+    <t>Identifier of whom the NPC is
+When a static object becomes mobile this value is set to the static heading value. The value is restored to heading when the object comes to a halt. This is because the heading value is used to track if the object has been identified.</t>
+  </si>
+  <si>
+    <t>Facing direction of the object
+For magical objectsthe value(s) to show it has been identified (0=unidentified, 1=know it is magical, 2=fully identified)</t>
+  </si>
+  <si>
+    <t>if set, set npc_goal to this value aimed at avatar when resetting NPC goals</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Animation Frame</t>
+  </si>
+  <si>
     <t>bit 7 is unset when projectile is launched
+bit 7 might mean the npc is in combat?
 For npcs this value is relevant in Study monstor. When whoamis is 64h this value is used
 When the avatar is killed the bit 7 is used to check if the avatar has to go to jail in the castle</t>
+  </si>
+  <si>
+    <t>When a projectile is launched this value contains the index of the npc that threw it
+For player object is the item id of the last creature to hit the player? 
+For NPCs the last character to hit the NPC (usually the avatar)</t>
+  </si>
+  <si>
+    <t>Used in relation to checking HP before fleeing in combat</t>
+  </si>
+  <si>
+    <t>Tracks world Y co-ordinate of a projectile
+(yhome&lt;&lt;8) + (ypos&lt;&lt;5) +0xFh
+Bit 0xA is the creature is powerful flag
+When spawning an NPC bit 9 sets hp to  (npc_hp+critter hp)/2</t>
+  </si>
+  <si>
+    <t>When standing still with an attitude of 0 an attempt will be made to detect the player. If found set bit 0 and set attack goals
+Bit 0 indicates that the npc is aware of the avatar's position, use in combat to chase the avatar
+Bit 1 is somehow connect to bit 0 behaviours.
+Bits 2 &amp; 3 related to magic attackers - maybe set when a magic attack is possible?
+Bit 6 and 7 stop npcs from hurting each other in combat when they are the same? 
+Bit 6 checked after the avatar hits an npc
+Possibly a series of bit fields representing combat and AI decisions</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1298,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1360,168 +1374,212 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1545,6 +1603,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1866,10 +1930,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="CH9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="GT15" sqref="GT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1899,1079 +1963,1079 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="71"/>
-      <c r="BN1" s="69" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
-      <c r="BR1" s="70"/>
-      <c r="BS1" s="70"/>
-      <c r="BT1" s="70"/>
-      <c r="BU1" s="70"/>
-      <c r="BV1" s="70"/>
-      <c r="BW1" s="70"/>
-      <c r="BX1" s="70"/>
-      <c r="BY1" s="70"/>
-      <c r="BZ1" s="70"/>
-      <c r="CA1" s="70"/>
-      <c r="CB1" s="70"/>
-      <c r="CC1" s="70"/>
-      <c r="CD1" s="70"/>
-      <c r="CE1" s="70"/>
-      <c r="CF1" s="70"/>
-      <c r="CG1" s="70"/>
-      <c r="CH1" s="70"/>
-      <c r="CI1" s="70"/>
-      <c r="CJ1" s="70"/>
-      <c r="CK1" s="70"/>
-      <c r="CL1" s="70"/>
-      <c r="CM1" s="70"/>
-      <c r="CN1" s="70"/>
-      <c r="CO1" s="70"/>
-      <c r="CP1" s="70"/>
-      <c r="CQ1" s="70"/>
-      <c r="CR1" s="70"/>
-      <c r="CS1" s="70"/>
-      <c r="CT1" s="70"/>
-      <c r="CU1" s="70"/>
-      <c r="CV1" s="70"/>
-      <c r="CW1" s="70"/>
-      <c r="CX1" s="70"/>
-      <c r="CY1" s="70"/>
-      <c r="CZ1" s="70"/>
-      <c r="DA1" s="70"/>
-      <c r="DB1" s="70"/>
-      <c r="DC1" s="70"/>
-      <c r="DD1" s="70"/>
-      <c r="DE1" s="70"/>
-      <c r="DF1" s="70"/>
-      <c r="DG1" s="70"/>
-      <c r="DH1" s="70"/>
-      <c r="DI1" s="70"/>
-      <c r="DJ1" s="70"/>
-      <c r="DK1" s="70"/>
-      <c r="DL1" s="70"/>
-      <c r="DM1" s="70"/>
-      <c r="DN1" s="70"/>
-      <c r="DO1" s="70"/>
-      <c r="DP1" s="70"/>
-      <c r="DQ1" s="70"/>
-      <c r="DR1" s="70"/>
-      <c r="DS1" s="70"/>
-      <c r="DT1" s="70"/>
-      <c r="DU1" s="70"/>
-      <c r="DV1" s="70"/>
-      <c r="DW1" s="70"/>
-      <c r="DX1" s="70"/>
-      <c r="DY1" s="70"/>
-      <c r="DZ1" s="70"/>
-      <c r="EA1" s="70"/>
-      <c r="EB1" s="70"/>
-      <c r="EC1" s="70"/>
-      <c r="ED1" s="70"/>
-      <c r="EE1" s="70"/>
-      <c r="EF1" s="70"/>
-      <c r="EG1" s="70"/>
-      <c r="EH1" s="70"/>
-      <c r="EI1" s="70"/>
-      <c r="EJ1" s="70"/>
-      <c r="EK1" s="70"/>
-      <c r="EL1" s="70"/>
-      <c r="EM1" s="70"/>
-      <c r="EN1" s="70"/>
-      <c r="EO1" s="70"/>
-      <c r="EP1" s="70"/>
-      <c r="EQ1" s="70"/>
-      <c r="ER1" s="70"/>
-      <c r="ES1" s="70"/>
-      <c r="ET1" s="70"/>
-      <c r="EU1" s="70"/>
-      <c r="EV1" s="70"/>
-      <c r="EW1" s="70"/>
-      <c r="EX1" s="70"/>
-      <c r="EY1" s="70"/>
-      <c r="EZ1" s="70"/>
-      <c r="FA1" s="70"/>
-      <c r="FB1" s="70"/>
-      <c r="FC1" s="70"/>
-      <c r="FD1" s="70"/>
-      <c r="FE1" s="70"/>
-      <c r="FF1" s="70"/>
-      <c r="FG1" s="70"/>
-      <c r="FH1" s="70"/>
-      <c r="FI1" s="70"/>
-      <c r="FJ1" s="70"/>
-      <c r="FK1" s="70"/>
-      <c r="FL1" s="70"/>
-      <c r="FM1" s="70"/>
-      <c r="FN1" s="70"/>
-      <c r="FO1" s="70"/>
-      <c r="FP1" s="70"/>
-      <c r="FQ1" s="70"/>
-      <c r="FR1" s="70"/>
-      <c r="FS1" s="70"/>
-      <c r="FT1" s="70"/>
-      <c r="FU1" s="70"/>
-      <c r="FV1" s="70"/>
-      <c r="FW1" s="70"/>
-      <c r="FX1" s="70"/>
-      <c r="FY1" s="70"/>
-      <c r="FZ1" s="70"/>
-      <c r="GA1" s="70"/>
-      <c r="GB1" s="70"/>
-      <c r="GC1" s="70"/>
-      <c r="GD1" s="70"/>
-      <c r="GE1" s="70"/>
-      <c r="GF1" s="70"/>
-      <c r="GG1" s="70"/>
-      <c r="GH1" s="70"/>
-      <c r="GI1" s="70"/>
-      <c r="GJ1" s="70"/>
-      <c r="GK1" s="70"/>
-      <c r="GL1" s="70"/>
-      <c r="GM1" s="70"/>
-      <c r="GN1" s="70"/>
-      <c r="GO1" s="70"/>
-      <c r="GP1" s="70"/>
-      <c r="GQ1" s="70"/>
-      <c r="GR1" s="70"/>
-      <c r="GS1" s="70"/>
-      <c r="GT1" s="70"/>
-      <c r="GU1" s="70"/>
-      <c r="GV1" s="70"/>
-      <c r="GW1" s="70"/>
-      <c r="GX1" s="70"/>
-      <c r="GY1" s="70"/>
-      <c r="GZ1" s="70"/>
-      <c r="HA1" s="70"/>
-      <c r="HB1" s="70"/>
-      <c r="HC1" s="70"/>
-      <c r="HD1" s="70"/>
-      <c r="HE1" s="70"/>
-      <c r="HF1" s="70"/>
-      <c r="HG1" s="70"/>
-      <c r="HH1" s="70"/>
-      <c r="HI1" s="70"/>
+      <c r="BO1" s="60"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="60"/>
+      <c r="BY1" s="60"/>
+      <c r="BZ1" s="60"/>
+      <c r="CA1" s="60"/>
+      <c r="CB1" s="60"/>
+      <c r="CC1" s="60"/>
+      <c r="CD1" s="60"/>
+      <c r="CE1" s="60"/>
+      <c r="CF1" s="60"/>
+      <c r="CG1" s="60"/>
+      <c r="CH1" s="60"/>
+      <c r="CI1" s="60"/>
+      <c r="CJ1" s="60"/>
+      <c r="CK1" s="60"/>
+      <c r="CL1" s="60"/>
+      <c r="CM1" s="60"/>
+      <c r="CN1" s="60"/>
+      <c r="CO1" s="60"/>
+      <c r="CP1" s="60"/>
+      <c r="CQ1" s="60"/>
+      <c r="CR1" s="60"/>
+      <c r="CS1" s="60"/>
+      <c r="CT1" s="60"/>
+      <c r="CU1" s="60"/>
+      <c r="CV1" s="60"/>
+      <c r="CW1" s="60"/>
+      <c r="CX1" s="60"/>
+      <c r="CY1" s="60"/>
+      <c r="CZ1" s="60"/>
+      <c r="DA1" s="60"/>
+      <c r="DB1" s="60"/>
+      <c r="DC1" s="60"/>
+      <c r="DD1" s="60"/>
+      <c r="DE1" s="60"/>
+      <c r="DF1" s="60"/>
+      <c r="DG1" s="60"/>
+      <c r="DH1" s="60"/>
+      <c r="DI1" s="60"/>
+      <c r="DJ1" s="60"/>
+      <c r="DK1" s="60"/>
+      <c r="DL1" s="60"/>
+      <c r="DM1" s="60"/>
+      <c r="DN1" s="60"/>
+      <c r="DO1" s="60"/>
+      <c r="DP1" s="60"/>
+      <c r="DQ1" s="60"/>
+      <c r="DR1" s="60"/>
+      <c r="DS1" s="60"/>
+      <c r="DT1" s="60"/>
+      <c r="DU1" s="60"/>
+      <c r="DV1" s="60"/>
+      <c r="DW1" s="60"/>
+      <c r="DX1" s="60"/>
+      <c r="DY1" s="60"/>
+      <c r="DZ1" s="60"/>
+      <c r="EA1" s="60"/>
+      <c r="EB1" s="60"/>
+      <c r="EC1" s="60"/>
+      <c r="ED1" s="60"/>
+      <c r="EE1" s="60"/>
+      <c r="EF1" s="60"/>
+      <c r="EG1" s="60"/>
+      <c r="EH1" s="60"/>
+      <c r="EI1" s="60"/>
+      <c r="EJ1" s="60"/>
+      <c r="EK1" s="60"/>
+      <c r="EL1" s="60"/>
+      <c r="EM1" s="60"/>
+      <c r="EN1" s="60"/>
+      <c r="EO1" s="60"/>
+      <c r="EP1" s="60"/>
+      <c r="EQ1" s="60"/>
+      <c r="ER1" s="60"/>
+      <c r="ES1" s="60"/>
+      <c r="ET1" s="60"/>
+      <c r="EU1" s="60"/>
+      <c r="EV1" s="60"/>
+      <c r="EW1" s="60"/>
+      <c r="EX1" s="60"/>
+      <c r="EY1" s="60"/>
+      <c r="EZ1" s="60"/>
+      <c r="FA1" s="60"/>
+      <c r="FB1" s="60"/>
+      <c r="FC1" s="60"/>
+      <c r="FD1" s="60"/>
+      <c r="FE1" s="60"/>
+      <c r="FF1" s="60"/>
+      <c r="FG1" s="60"/>
+      <c r="FH1" s="60"/>
+      <c r="FI1" s="60"/>
+      <c r="FJ1" s="60"/>
+      <c r="FK1" s="60"/>
+      <c r="FL1" s="60"/>
+      <c r="FM1" s="60"/>
+      <c r="FN1" s="60"/>
+      <c r="FO1" s="60"/>
+      <c r="FP1" s="60"/>
+      <c r="FQ1" s="60"/>
+      <c r="FR1" s="60"/>
+      <c r="FS1" s="60"/>
+      <c r="FT1" s="60"/>
+      <c r="FU1" s="60"/>
+      <c r="FV1" s="60"/>
+      <c r="FW1" s="60"/>
+      <c r="FX1" s="60"/>
+      <c r="FY1" s="60"/>
+      <c r="FZ1" s="60"/>
+      <c r="GA1" s="60"/>
+      <c r="GB1" s="60"/>
+      <c r="GC1" s="60"/>
+      <c r="GD1" s="60"/>
+      <c r="GE1" s="60"/>
+      <c r="GF1" s="60"/>
+      <c r="GG1" s="60"/>
+      <c r="GH1" s="60"/>
+      <c r="GI1" s="60"/>
+      <c r="GJ1" s="60"/>
+      <c r="GK1" s="60"/>
+      <c r="GL1" s="60"/>
+      <c r="GM1" s="60"/>
+      <c r="GN1" s="60"/>
+      <c r="GO1" s="60"/>
+      <c r="GP1" s="60"/>
+      <c r="GQ1" s="60"/>
+      <c r="GR1" s="60"/>
+      <c r="GS1" s="60"/>
+      <c r="GT1" s="60"/>
+      <c r="GU1" s="60"/>
+      <c r="GV1" s="60"/>
+      <c r="GW1" s="60"/>
+      <c r="GX1" s="60"/>
+      <c r="GY1" s="60"/>
+      <c r="GZ1" s="60"/>
+      <c r="HA1" s="60"/>
+      <c r="HB1" s="60"/>
+      <c r="HC1" s="60"/>
+      <c r="HD1" s="60"/>
+      <c r="HE1" s="60"/>
+      <c r="HF1" s="60"/>
+      <c r="HG1" s="60"/>
+      <c r="HH1" s="60"/>
+      <c r="HI1" s="60"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="59">
         <v>0</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="69">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="59">
         <v>1</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="69">
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="59">
         <v>2</v>
       </c>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="69">
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="59">
         <v>3</v>
       </c>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="69">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="59">
         <v>4</v>
       </c>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="69">
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="59">
         <v>5</v>
       </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="69">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="59">
         <v>6</v>
       </c>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="69">
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="59">
         <v>7</v>
       </c>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="69">
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="59">
         <v>8</v>
       </c>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="70"/>
-      <c r="BU2" s="71"/>
-      <c r="BV2" s="69">
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
+      <c r="BR2" s="60"/>
+      <c r="BS2" s="60"/>
+      <c r="BT2" s="60"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="59">
         <v>9</v>
       </c>
-      <c r="BW2" s="70"/>
-      <c r="BX2" s="70"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="70"/>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="69">
+      <c r="BW2" s="60"/>
+      <c r="BX2" s="60"/>
+      <c r="BY2" s="60"/>
+      <c r="BZ2" s="60"/>
+      <c r="CA2" s="60"/>
+      <c r="CB2" s="60"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="59">
         <v>10</v>
       </c>
-      <c r="CE2" s="70"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="71"/>
-      <c r="CL2" s="69">
+      <c r="CE2" s="60"/>
+      <c r="CF2" s="60"/>
+      <c r="CG2" s="60"/>
+      <c r="CH2" s="60"/>
+      <c r="CI2" s="60"/>
+      <c r="CJ2" s="60"/>
+      <c r="CK2" s="61"/>
+      <c r="CL2" s="59">
         <v>11</v>
       </c>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="71"/>
-      <c r="CT2" s="69">
+      <c r="CM2" s="60"/>
+      <c r="CN2" s="60"/>
+      <c r="CO2" s="60"/>
+      <c r="CP2" s="60"/>
+      <c r="CQ2" s="60"/>
+      <c r="CR2" s="60"/>
+      <c r="CS2" s="61"/>
+      <c r="CT2" s="59">
         <v>12</v>
       </c>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="71"/>
-      <c r="DB2" s="69">
+      <c r="CU2" s="60"/>
+      <c r="CV2" s="60"/>
+      <c r="CW2" s="60"/>
+      <c r="CX2" s="60"/>
+      <c r="CY2" s="60"/>
+      <c r="CZ2" s="60"/>
+      <c r="DA2" s="61"/>
+      <c r="DB2" s="59">
         <v>13</v>
       </c>
-      <c r="DC2" s="70"/>
-      <c r="DD2" s="70"/>
-      <c r="DE2" s="70"/>
-      <c r="DF2" s="70"/>
-      <c r="DG2" s="70"/>
-      <c r="DH2" s="70"/>
-      <c r="DI2" s="71"/>
-      <c r="DJ2" s="69">
+      <c r="DC2" s="60"/>
+      <c r="DD2" s="60"/>
+      <c r="DE2" s="60"/>
+      <c r="DF2" s="60"/>
+      <c r="DG2" s="60"/>
+      <c r="DH2" s="60"/>
+      <c r="DI2" s="61"/>
+      <c r="DJ2" s="59">
         <v>14</v>
       </c>
-      <c r="DK2" s="70"/>
-      <c r="DL2" s="70"/>
-      <c r="DM2" s="70"/>
-      <c r="DN2" s="70"/>
-      <c r="DO2" s="70"/>
-      <c r="DP2" s="70"/>
-      <c r="DQ2" s="71"/>
-      <c r="DR2" s="69">
+      <c r="DK2" s="60"/>
+      <c r="DL2" s="60"/>
+      <c r="DM2" s="60"/>
+      <c r="DN2" s="60"/>
+      <c r="DO2" s="60"/>
+      <c r="DP2" s="60"/>
+      <c r="DQ2" s="61"/>
+      <c r="DR2" s="59">
         <v>15</v>
       </c>
-      <c r="DS2" s="70"/>
-      <c r="DT2" s="70"/>
-      <c r="DU2" s="70"/>
-      <c r="DV2" s="70"/>
-      <c r="DW2" s="70"/>
-      <c r="DX2" s="70"/>
-      <c r="DY2" s="71"/>
-      <c r="DZ2" s="69">
+      <c r="DS2" s="60"/>
+      <c r="DT2" s="60"/>
+      <c r="DU2" s="60"/>
+      <c r="DV2" s="60"/>
+      <c r="DW2" s="60"/>
+      <c r="DX2" s="60"/>
+      <c r="DY2" s="61"/>
+      <c r="DZ2" s="59">
         <v>16</v>
       </c>
-      <c r="EA2" s="70"/>
-      <c r="EB2" s="70"/>
-      <c r="EC2" s="70"/>
-      <c r="ED2" s="70"/>
-      <c r="EE2" s="70"/>
-      <c r="EF2" s="70"/>
-      <c r="EG2" s="71"/>
-      <c r="EH2" s="69">
+      <c r="EA2" s="60"/>
+      <c r="EB2" s="60"/>
+      <c r="EC2" s="60"/>
+      <c r="ED2" s="60"/>
+      <c r="EE2" s="60"/>
+      <c r="EF2" s="60"/>
+      <c r="EG2" s="61"/>
+      <c r="EH2" s="59">
         <v>17</v>
       </c>
-      <c r="EI2" s="70"/>
-      <c r="EJ2" s="70"/>
-      <c r="EK2" s="70"/>
-      <c r="EL2" s="70"/>
-      <c r="EM2" s="70"/>
-      <c r="EN2" s="70"/>
-      <c r="EO2" s="71"/>
-      <c r="EP2" s="69">
+      <c r="EI2" s="60"/>
+      <c r="EJ2" s="60"/>
+      <c r="EK2" s="60"/>
+      <c r="EL2" s="60"/>
+      <c r="EM2" s="60"/>
+      <c r="EN2" s="60"/>
+      <c r="EO2" s="61"/>
+      <c r="EP2" s="59">
         <v>18</v>
       </c>
-      <c r="EQ2" s="70"/>
-      <c r="ER2" s="70"/>
-      <c r="ES2" s="70"/>
-      <c r="ET2" s="70"/>
-      <c r="EU2" s="70"/>
-      <c r="EV2" s="70"/>
-      <c r="EW2" s="71"/>
-      <c r="EX2" s="69">
+      <c r="EQ2" s="60"/>
+      <c r="ER2" s="60"/>
+      <c r="ES2" s="60"/>
+      <c r="ET2" s="60"/>
+      <c r="EU2" s="60"/>
+      <c r="EV2" s="60"/>
+      <c r="EW2" s="61"/>
+      <c r="EX2" s="59">
         <v>19</v>
       </c>
-      <c r="EY2" s="70"/>
-      <c r="EZ2" s="70"/>
-      <c r="FA2" s="70"/>
-      <c r="FB2" s="70"/>
-      <c r="FC2" s="70"/>
-      <c r="FD2" s="70"/>
-      <c r="FE2" s="71"/>
-      <c r="FF2" s="69">
+      <c r="EY2" s="60"/>
+      <c r="EZ2" s="60"/>
+      <c r="FA2" s="60"/>
+      <c r="FB2" s="60"/>
+      <c r="FC2" s="60"/>
+      <c r="FD2" s="60"/>
+      <c r="FE2" s="61"/>
+      <c r="FF2" s="59">
         <v>20</v>
       </c>
-      <c r="FG2" s="70"/>
-      <c r="FH2" s="70"/>
-      <c r="FI2" s="70"/>
-      <c r="FJ2" s="70"/>
-      <c r="FK2" s="70"/>
-      <c r="FL2" s="70"/>
-      <c r="FM2" s="71"/>
-      <c r="FN2" s="69">
+      <c r="FG2" s="60"/>
+      <c r="FH2" s="60"/>
+      <c r="FI2" s="60"/>
+      <c r="FJ2" s="60"/>
+      <c r="FK2" s="60"/>
+      <c r="FL2" s="60"/>
+      <c r="FM2" s="61"/>
+      <c r="FN2" s="59">
         <v>21</v>
       </c>
-      <c r="FO2" s="70"/>
-      <c r="FP2" s="70"/>
-      <c r="FQ2" s="70"/>
-      <c r="FR2" s="70"/>
-      <c r="FS2" s="70"/>
-      <c r="FT2" s="70"/>
-      <c r="FU2" s="71"/>
-      <c r="FV2" s="69">
+      <c r="FO2" s="60"/>
+      <c r="FP2" s="60"/>
+      <c r="FQ2" s="60"/>
+      <c r="FR2" s="60"/>
+      <c r="FS2" s="60"/>
+      <c r="FT2" s="60"/>
+      <c r="FU2" s="61"/>
+      <c r="FV2" s="59">
         <v>22</v>
       </c>
-      <c r="FW2" s="70"/>
-      <c r="FX2" s="70"/>
-      <c r="FY2" s="70"/>
-      <c r="FZ2" s="70"/>
-      <c r="GA2" s="70"/>
-      <c r="GB2" s="70"/>
-      <c r="GC2" s="71"/>
-      <c r="GD2" s="69">
+      <c r="FW2" s="60"/>
+      <c r="FX2" s="60"/>
+      <c r="FY2" s="60"/>
+      <c r="FZ2" s="60"/>
+      <c r="GA2" s="60"/>
+      <c r="GB2" s="60"/>
+      <c r="GC2" s="61"/>
+      <c r="GD2" s="59">
         <v>23</v>
       </c>
-      <c r="GE2" s="70"/>
-      <c r="GF2" s="70"/>
-      <c r="GG2" s="70"/>
-      <c r="GH2" s="70"/>
-      <c r="GI2" s="70"/>
-      <c r="GJ2" s="70"/>
-      <c r="GK2" s="71"/>
-      <c r="GL2" s="69">
+      <c r="GE2" s="60"/>
+      <c r="GF2" s="60"/>
+      <c r="GG2" s="60"/>
+      <c r="GH2" s="60"/>
+      <c r="GI2" s="60"/>
+      <c r="GJ2" s="60"/>
+      <c r="GK2" s="61"/>
+      <c r="GL2" s="59">
         <v>24</v>
       </c>
-      <c r="GM2" s="70"/>
-      <c r="GN2" s="70"/>
-      <c r="GO2" s="70"/>
-      <c r="GP2" s="70"/>
-      <c r="GQ2" s="70"/>
-      <c r="GR2" s="70"/>
-      <c r="GS2" s="71"/>
-      <c r="GT2" s="69">
+      <c r="GM2" s="60"/>
+      <c r="GN2" s="60"/>
+      <c r="GO2" s="60"/>
+      <c r="GP2" s="60"/>
+      <c r="GQ2" s="60"/>
+      <c r="GR2" s="60"/>
+      <c r="GS2" s="61"/>
+      <c r="GT2" s="59">
         <v>25</v>
       </c>
-      <c r="GU2" s="70"/>
-      <c r="GV2" s="70"/>
-      <c r="GW2" s="70"/>
-      <c r="GX2" s="70"/>
-      <c r="GY2" s="70"/>
-      <c r="GZ2" s="70"/>
-      <c r="HA2" s="71"/>
-      <c r="HB2" s="69">
+      <c r="GU2" s="60"/>
+      <c r="GV2" s="60"/>
+      <c r="GW2" s="60"/>
+      <c r="GX2" s="60"/>
+      <c r="GY2" s="60"/>
+      <c r="GZ2" s="60"/>
+      <c r="HA2" s="61"/>
+      <c r="HB2" s="59">
         <v>26</v>
       </c>
-      <c r="HC2" s="70"/>
-      <c r="HD2" s="70"/>
-      <c r="HE2" s="70"/>
-      <c r="HF2" s="70"/>
-      <c r="HG2" s="70"/>
-      <c r="HH2" s="70"/>
-      <c r="HI2" s="71"/>
+      <c r="HC2" s="60"/>
+      <c r="HD2" s="60"/>
+      <c r="HE2" s="60"/>
+      <c r="HF2" s="60"/>
+      <c r="HG2" s="60"/>
+      <c r="HH2" s="60"/>
+      <c r="HI2" s="61"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="59" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="69" t="str">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="59" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="69" t="str">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="59" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="69" t="str">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="59" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="69" t="str">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="59" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="69" t="str">
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="59" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="69" t="str">
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="59" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="70"/>
-      <c r="BC3" s="70"/>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="69" t="str">
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="59" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="70"/>
-      <c r="BH3" s="70"/>
-      <c r="BI3" s="70"/>
-      <c r="BJ3" s="70"/>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="69" t="str">
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60"/>
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="59" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="70"/>
-      <c r="BP3" s="70"/>
-      <c r="BQ3" s="70"/>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="70"/>
-      <c r="BT3" s="70"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="69" t="str">
+      <c r="BO3" s="60"/>
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="60"/>
+      <c r="BR3" s="60"/>
+      <c r="BS3" s="60"/>
+      <c r="BT3" s="60"/>
+      <c r="BU3" s="61"/>
+      <c r="BV3" s="59" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="70"/>
-      <c r="BX3" s="70"/>
-      <c r="BY3" s="70"/>
-      <c r="BZ3" s="70"/>
-      <c r="CA3" s="70"/>
-      <c r="CB3" s="70"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="69" t="str">
+      <c r="BW3" s="60"/>
+      <c r="BX3" s="60"/>
+      <c r="BY3" s="60"/>
+      <c r="BZ3" s="60"/>
+      <c r="CA3" s="60"/>
+      <c r="CB3" s="60"/>
+      <c r="CC3" s="61"/>
+      <c r="CD3" s="59" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="70"/>
-      <c r="CF3" s="70"/>
-      <c r="CG3" s="70"/>
-      <c r="CH3" s="70"/>
-      <c r="CI3" s="70"/>
-      <c r="CJ3" s="70"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="69" t="str">
+      <c r="CE3" s="60"/>
+      <c r="CF3" s="60"/>
+      <c r="CG3" s="60"/>
+      <c r="CH3" s="60"/>
+      <c r="CI3" s="60"/>
+      <c r="CJ3" s="60"/>
+      <c r="CK3" s="61"/>
+      <c r="CL3" s="59" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="70"/>
-      <c r="CN3" s="70"/>
-      <c r="CO3" s="70"/>
-      <c r="CP3" s="70"/>
-      <c r="CQ3" s="70"/>
-      <c r="CR3" s="70"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="69" t="str">
+      <c r="CM3" s="60"/>
+      <c r="CN3" s="60"/>
+      <c r="CO3" s="60"/>
+      <c r="CP3" s="60"/>
+      <c r="CQ3" s="60"/>
+      <c r="CR3" s="60"/>
+      <c r="CS3" s="61"/>
+      <c r="CT3" s="59" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="70"/>
-      <c r="CV3" s="70"/>
-      <c r="CW3" s="70"/>
-      <c r="CX3" s="70"/>
-      <c r="CY3" s="70"/>
-      <c r="CZ3" s="70"/>
-      <c r="DA3" s="71"/>
-      <c r="DB3" s="69" t="str">
+      <c r="CU3" s="60"/>
+      <c r="CV3" s="60"/>
+      <c r="CW3" s="60"/>
+      <c r="CX3" s="60"/>
+      <c r="CY3" s="60"/>
+      <c r="CZ3" s="60"/>
+      <c r="DA3" s="61"/>
+      <c r="DB3" s="59" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="70"/>
-      <c r="DD3" s="70"/>
-      <c r="DE3" s="70"/>
-      <c r="DF3" s="70"/>
-      <c r="DG3" s="70"/>
-      <c r="DH3" s="70"/>
-      <c r="DI3" s="71"/>
-      <c r="DJ3" s="69" t="str">
+      <c r="DC3" s="60"/>
+      <c r="DD3" s="60"/>
+      <c r="DE3" s="60"/>
+      <c r="DF3" s="60"/>
+      <c r="DG3" s="60"/>
+      <c r="DH3" s="60"/>
+      <c r="DI3" s="61"/>
+      <c r="DJ3" s="59" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="70"/>
-      <c r="DL3" s="70"/>
-      <c r="DM3" s="70"/>
-      <c r="DN3" s="70"/>
-      <c r="DO3" s="70"/>
-      <c r="DP3" s="70"/>
-      <c r="DQ3" s="71"/>
-      <c r="DR3" s="69" t="str">
+      <c r="DK3" s="60"/>
+      <c r="DL3" s="60"/>
+      <c r="DM3" s="60"/>
+      <c r="DN3" s="60"/>
+      <c r="DO3" s="60"/>
+      <c r="DP3" s="60"/>
+      <c r="DQ3" s="61"/>
+      <c r="DR3" s="59" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="70"/>
-      <c r="DT3" s="70"/>
-      <c r="DU3" s="70"/>
-      <c r="DV3" s="70"/>
-      <c r="DW3" s="70"/>
-      <c r="DX3" s="70"/>
-      <c r="DY3" s="71"/>
-      <c r="DZ3" s="69" t="str">
+      <c r="DS3" s="60"/>
+      <c r="DT3" s="60"/>
+      <c r="DU3" s="60"/>
+      <c r="DV3" s="60"/>
+      <c r="DW3" s="60"/>
+      <c r="DX3" s="60"/>
+      <c r="DY3" s="61"/>
+      <c r="DZ3" s="59" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="70"/>
-      <c r="EB3" s="70"/>
-      <c r="EC3" s="70"/>
-      <c r="ED3" s="70"/>
-      <c r="EE3" s="70"/>
-      <c r="EF3" s="70"/>
-      <c r="EG3" s="71"/>
-      <c r="EH3" s="69" t="str">
+      <c r="EA3" s="60"/>
+      <c r="EB3" s="60"/>
+      <c r="EC3" s="60"/>
+      <c r="ED3" s="60"/>
+      <c r="EE3" s="60"/>
+      <c r="EF3" s="60"/>
+      <c r="EG3" s="61"/>
+      <c r="EH3" s="59" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="70"/>
-      <c r="EJ3" s="70"/>
-      <c r="EK3" s="70"/>
-      <c r="EL3" s="70"/>
-      <c r="EM3" s="70"/>
-      <c r="EN3" s="70"/>
-      <c r="EO3" s="71"/>
-      <c r="EP3" s="69" t="str">
+      <c r="EI3" s="60"/>
+      <c r="EJ3" s="60"/>
+      <c r="EK3" s="60"/>
+      <c r="EL3" s="60"/>
+      <c r="EM3" s="60"/>
+      <c r="EN3" s="60"/>
+      <c r="EO3" s="61"/>
+      <c r="EP3" s="59" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="70"/>
-      <c r="ER3" s="70"/>
-      <c r="ES3" s="70"/>
-      <c r="ET3" s="70"/>
-      <c r="EU3" s="70"/>
-      <c r="EV3" s="70"/>
-      <c r="EW3" s="71"/>
-      <c r="EX3" s="69" t="str">
+      <c r="EQ3" s="60"/>
+      <c r="ER3" s="60"/>
+      <c r="ES3" s="60"/>
+      <c r="ET3" s="60"/>
+      <c r="EU3" s="60"/>
+      <c r="EV3" s="60"/>
+      <c r="EW3" s="61"/>
+      <c r="EX3" s="59" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="70"/>
-      <c r="EZ3" s="70"/>
-      <c r="FA3" s="70"/>
-      <c r="FB3" s="70"/>
-      <c r="FC3" s="70"/>
-      <c r="FD3" s="70"/>
-      <c r="FE3" s="71"/>
-      <c r="FF3" s="69" t="str">
+      <c r="EY3" s="60"/>
+      <c r="EZ3" s="60"/>
+      <c r="FA3" s="60"/>
+      <c r="FB3" s="60"/>
+      <c r="FC3" s="60"/>
+      <c r="FD3" s="60"/>
+      <c r="FE3" s="61"/>
+      <c r="FF3" s="59" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="70"/>
-      <c r="FH3" s="70"/>
-      <c r="FI3" s="70"/>
-      <c r="FJ3" s="70"/>
-      <c r="FK3" s="70"/>
-      <c r="FL3" s="70"/>
-      <c r="FM3" s="71"/>
-      <c r="FN3" s="69" t="str">
+      <c r="FG3" s="60"/>
+      <c r="FH3" s="60"/>
+      <c r="FI3" s="60"/>
+      <c r="FJ3" s="60"/>
+      <c r="FK3" s="60"/>
+      <c r="FL3" s="60"/>
+      <c r="FM3" s="61"/>
+      <c r="FN3" s="59" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="70"/>
-      <c r="FP3" s="70"/>
-      <c r="FQ3" s="70"/>
-      <c r="FR3" s="70"/>
-      <c r="FS3" s="70"/>
-      <c r="FT3" s="70"/>
-      <c r="FU3" s="71"/>
-      <c r="FV3" s="69" t="str">
+      <c r="FO3" s="60"/>
+      <c r="FP3" s="60"/>
+      <c r="FQ3" s="60"/>
+      <c r="FR3" s="60"/>
+      <c r="FS3" s="60"/>
+      <c r="FT3" s="60"/>
+      <c r="FU3" s="61"/>
+      <c r="FV3" s="59" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="70"/>
-      <c r="FX3" s="70"/>
-      <c r="FY3" s="70"/>
-      <c r="FZ3" s="70"/>
-      <c r="GA3" s="70"/>
-      <c r="GB3" s="70"/>
-      <c r="GC3" s="71"/>
-      <c r="GD3" s="69" t="str">
+      <c r="FW3" s="60"/>
+      <c r="FX3" s="60"/>
+      <c r="FY3" s="60"/>
+      <c r="FZ3" s="60"/>
+      <c r="GA3" s="60"/>
+      <c r="GB3" s="60"/>
+      <c r="GC3" s="61"/>
+      <c r="GD3" s="59" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="70"/>
-      <c r="GF3" s="70"/>
-      <c r="GG3" s="70"/>
-      <c r="GH3" s="70"/>
-      <c r="GI3" s="70"/>
-      <c r="GJ3" s="70"/>
-      <c r="GK3" s="71"/>
-      <c r="GL3" s="69" t="str">
+      <c r="GE3" s="60"/>
+      <c r="GF3" s="60"/>
+      <c r="GG3" s="60"/>
+      <c r="GH3" s="60"/>
+      <c r="GI3" s="60"/>
+      <c r="GJ3" s="60"/>
+      <c r="GK3" s="61"/>
+      <c r="GL3" s="59" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="70"/>
-      <c r="GN3" s="70"/>
-      <c r="GO3" s="70"/>
-      <c r="GP3" s="70"/>
-      <c r="GQ3" s="70"/>
-      <c r="GR3" s="70"/>
-      <c r="GS3" s="71"/>
-      <c r="GT3" s="69" t="str">
+      <c r="GM3" s="60"/>
+      <c r="GN3" s="60"/>
+      <c r="GO3" s="60"/>
+      <c r="GP3" s="60"/>
+      <c r="GQ3" s="60"/>
+      <c r="GR3" s="60"/>
+      <c r="GS3" s="61"/>
+      <c r="GT3" s="59" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="70"/>
-      <c r="GV3" s="70"/>
-      <c r="GW3" s="70"/>
-      <c r="GX3" s="70"/>
-      <c r="GY3" s="70"/>
-      <c r="GZ3" s="70"/>
-      <c r="HA3" s="71"/>
-      <c r="HB3" s="69" t="str">
+      <c r="GU3" s="60"/>
+      <c r="GV3" s="60"/>
+      <c r="GW3" s="60"/>
+      <c r="GX3" s="60"/>
+      <c r="GY3" s="60"/>
+      <c r="GZ3" s="60"/>
+      <c r="HA3" s="61"/>
+      <c r="HB3" s="59" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="70"/>
-      <c r="HD3" s="70"/>
-      <c r="HE3" s="70"/>
-      <c r="HF3" s="70"/>
-      <c r="HG3" s="70"/>
-      <c r="HH3" s="70"/>
-      <c r="HI3" s="71"/>
+      <c r="HC3" s="60"/>
+      <c r="HD3" s="60"/>
+      <c r="HE3" s="60"/>
+      <c r="HF3" s="60"/>
+      <c r="HG3" s="60"/>
+      <c r="HH3" s="60"/>
+      <c r="HI3" s="61"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="59">
         <v>0</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="69">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="59">
         <v>2</v>
       </c>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="69">
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="59">
         <v>4</v>
       </c>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="69">
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="59">
         <v>6</v>
       </c>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="70"/>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="70"/>
-      <c r="BK4" s="70"/>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="69">
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="61"/>
+      <c r="BN4" s="59">
         <v>8</v>
       </c>
-      <c r="BO4" s="70"/>
-      <c r="BP4" s="70"/>
-      <c r="BQ4" s="70"/>
-      <c r="BR4" s="70"/>
-      <c r="BS4" s="70"/>
-      <c r="BT4" s="70"/>
-      <c r="BU4" s="71"/>
-      <c r="BV4" s="69">
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="60"/>
+      <c r="BU4" s="61"/>
+      <c r="BV4" s="59">
         <v>9</v>
       </c>
-      <c r="BW4" s="70"/>
-      <c r="BX4" s="70"/>
-      <c r="BY4" s="70"/>
-      <c r="BZ4" s="70"/>
-      <c r="CA4" s="70"/>
-      <c r="CB4" s="70"/>
-      <c r="CC4" s="71"/>
-      <c r="CD4" s="69" t="str">
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="61"/>
+      <c r="CD4" s="59" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="70"/>
-      <c r="CF4" s="70"/>
-      <c r="CG4" s="70"/>
-      <c r="CH4" s="70"/>
-      <c r="CI4" s="70"/>
-      <c r="CJ4" s="70"/>
-      <c r="CK4" s="71"/>
-      <c r="CL4" s="69" t="str">
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="60"/>
+      <c r="CI4" s="60"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="61"/>
+      <c r="CL4" s="59" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="70"/>
-      <c r="CN4" s="70"/>
-      <c r="CO4" s="70"/>
-      <c r="CP4" s="70"/>
-      <c r="CQ4" s="70"/>
-      <c r="CR4" s="70"/>
-      <c r="CS4" s="70"/>
-      <c r="CT4" s="70"/>
-      <c r="CU4" s="70"/>
-      <c r="CV4" s="70"/>
-      <c r="CW4" s="70"/>
-      <c r="CX4" s="70"/>
-      <c r="CY4" s="70"/>
-      <c r="CZ4" s="70"/>
-      <c r="DA4" s="71"/>
-      <c r="DB4" s="69" t="str">
+      <c r="CM4" s="60"/>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="60"/>
+      <c r="DA4" s="61"/>
+      <c r="DB4" s="59" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="70"/>
-      <c r="DD4" s="70"/>
-      <c r="DE4" s="70"/>
-      <c r="DF4" s="70"/>
-      <c r="DG4" s="70"/>
-      <c r="DH4" s="70"/>
-      <c r="DI4" s="70"/>
-      <c r="DJ4" s="70"/>
-      <c r="DK4" s="70"/>
-      <c r="DL4" s="70"/>
-      <c r="DM4" s="70"/>
-      <c r="DN4" s="70"/>
-      <c r="DO4" s="70"/>
-      <c r="DP4" s="70"/>
-      <c r="DQ4" s="71"/>
-      <c r="DR4" s="69" t="str">
+      <c r="DC4" s="60"/>
+      <c r="DD4" s="60"/>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
+      <c r="DG4" s="60"/>
+      <c r="DH4" s="60"/>
+      <c r="DI4" s="60"/>
+      <c r="DJ4" s="60"/>
+      <c r="DK4" s="60"/>
+      <c r="DL4" s="60"/>
+      <c r="DM4" s="60"/>
+      <c r="DN4" s="60"/>
+      <c r="DO4" s="60"/>
+      <c r="DP4" s="60"/>
+      <c r="DQ4" s="61"/>
+      <c r="DR4" s="59" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="70"/>
-      <c r="DT4" s="70"/>
-      <c r="DU4" s="70"/>
-      <c r="DV4" s="70"/>
-      <c r="DW4" s="70"/>
-      <c r="DX4" s="70"/>
-      <c r="DY4" s="70"/>
-      <c r="DZ4" s="70"/>
-      <c r="EA4" s="70"/>
-      <c r="EB4" s="70"/>
-      <c r="EC4" s="70"/>
-      <c r="ED4" s="70"/>
-      <c r="EE4" s="70"/>
-      <c r="EF4" s="70"/>
-      <c r="EG4" s="71"/>
-      <c r="EH4" s="69" t="str">
+      <c r="DS4" s="60"/>
+      <c r="DT4" s="60"/>
+      <c r="DU4" s="60"/>
+      <c r="DV4" s="60"/>
+      <c r="DW4" s="60"/>
+      <c r="DX4" s="60"/>
+      <c r="DY4" s="60"/>
+      <c r="DZ4" s="60"/>
+      <c r="EA4" s="60"/>
+      <c r="EB4" s="60"/>
+      <c r="EC4" s="60"/>
+      <c r="ED4" s="60"/>
+      <c r="EE4" s="60"/>
+      <c r="EF4" s="60"/>
+      <c r="EG4" s="61"/>
+      <c r="EH4" s="59" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="70"/>
-      <c r="EJ4" s="70"/>
-      <c r="EK4" s="70"/>
-      <c r="EL4" s="70"/>
-      <c r="EM4" s="70"/>
-      <c r="EN4" s="70"/>
-      <c r="EO4" s="71"/>
-      <c r="EP4" s="69" t="str">
+      <c r="EI4" s="60"/>
+      <c r="EJ4" s="60"/>
+      <c r="EK4" s="60"/>
+      <c r="EL4" s="60"/>
+      <c r="EM4" s="60"/>
+      <c r="EN4" s="60"/>
+      <c r="EO4" s="61"/>
+      <c r="EP4" s="59" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="70"/>
-      <c r="ER4" s="70"/>
-      <c r="ES4" s="70"/>
-      <c r="ET4" s="70"/>
-      <c r="EU4" s="70"/>
-      <c r="EV4" s="70"/>
-      <c r="EW4" s="71"/>
-      <c r="EX4" s="69" t="str">
+      <c r="EQ4" s="60"/>
+      <c r="ER4" s="60"/>
+      <c r="ES4" s="60"/>
+      <c r="ET4" s="60"/>
+      <c r="EU4" s="60"/>
+      <c r="EV4" s="60"/>
+      <c r="EW4" s="61"/>
+      <c r="EX4" s="59" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="70"/>
-      <c r="EZ4" s="70"/>
-      <c r="FA4" s="70"/>
-      <c r="FB4" s="70"/>
-      <c r="FC4" s="70"/>
-      <c r="FD4" s="70"/>
-      <c r="FE4" s="71"/>
-      <c r="FF4" s="69" t="str">
+      <c r="EY4" s="60"/>
+      <c r="EZ4" s="60"/>
+      <c r="FA4" s="60"/>
+      <c r="FB4" s="60"/>
+      <c r="FC4" s="60"/>
+      <c r="FD4" s="60"/>
+      <c r="FE4" s="61"/>
+      <c r="FF4" s="59" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="70"/>
-      <c r="FH4" s="70"/>
-      <c r="FI4" s="70"/>
-      <c r="FJ4" s="70"/>
-      <c r="FK4" s="70"/>
-      <c r="FL4" s="70"/>
-      <c r="FM4" s="71"/>
-      <c r="FN4" s="69" t="str">
+      <c r="FG4" s="60"/>
+      <c r="FH4" s="60"/>
+      <c r="FI4" s="60"/>
+      <c r="FJ4" s="60"/>
+      <c r="FK4" s="60"/>
+      <c r="FL4" s="60"/>
+      <c r="FM4" s="61"/>
+      <c r="FN4" s="59" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="70"/>
-      <c r="FP4" s="70"/>
-      <c r="FQ4" s="70"/>
-      <c r="FR4" s="70"/>
-      <c r="FS4" s="70"/>
-      <c r="FT4" s="70"/>
-      <c r="FU4" s="71"/>
-      <c r="FV4" s="69" t="str">
+      <c r="FO4" s="60"/>
+      <c r="FP4" s="60"/>
+      <c r="FQ4" s="60"/>
+      <c r="FR4" s="60"/>
+      <c r="FS4" s="60"/>
+      <c r="FT4" s="60"/>
+      <c r="FU4" s="61"/>
+      <c r="FV4" s="59" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="70"/>
-      <c r="FX4" s="70"/>
-      <c r="FY4" s="70"/>
-      <c r="FZ4" s="70"/>
-      <c r="GA4" s="70"/>
-      <c r="GB4" s="70"/>
-      <c r="GC4" s="70"/>
-      <c r="GD4" s="70"/>
-      <c r="GE4" s="70"/>
-      <c r="GF4" s="70"/>
-      <c r="GG4" s="70"/>
-      <c r="GH4" s="70"/>
-      <c r="GI4" s="70"/>
-      <c r="GJ4" s="70"/>
-      <c r="GK4" s="71"/>
-      <c r="GL4" s="69" t="str">
+      <c r="FW4" s="60"/>
+      <c r="FX4" s="60"/>
+      <c r="FY4" s="60"/>
+      <c r="FZ4" s="60"/>
+      <c r="GA4" s="60"/>
+      <c r="GB4" s="60"/>
+      <c r="GC4" s="60"/>
+      <c r="GD4" s="60"/>
+      <c r="GE4" s="60"/>
+      <c r="GF4" s="60"/>
+      <c r="GG4" s="60"/>
+      <c r="GH4" s="60"/>
+      <c r="GI4" s="60"/>
+      <c r="GJ4" s="60"/>
+      <c r="GK4" s="61"/>
+      <c r="GL4" s="59" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="70"/>
-      <c r="GN4" s="70"/>
-      <c r="GO4" s="70"/>
-      <c r="GP4" s="70"/>
-      <c r="GQ4" s="70"/>
-      <c r="GR4" s="70"/>
-      <c r="GS4" s="71"/>
-      <c r="GT4" s="69" t="str">
+      <c r="GM4" s="60"/>
+      <c r="GN4" s="60"/>
+      <c r="GO4" s="60"/>
+      <c r="GP4" s="60"/>
+      <c r="GQ4" s="60"/>
+      <c r="GR4" s="60"/>
+      <c r="GS4" s="61"/>
+      <c r="GT4" s="59" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="70"/>
-      <c r="GV4" s="70"/>
-      <c r="GW4" s="70"/>
-      <c r="GX4" s="70"/>
-      <c r="GY4" s="70"/>
-      <c r="GZ4" s="70"/>
-      <c r="HA4" s="71"/>
-      <c r="HB4" s="69" t="str">
+      <c r="GU4" s="60"/>
+      <c r="GV4" s="60"/>
+      <c r="GW4" s="60"/>
+      <c r="GX4" s="60"/>
+      <c r="GY4" s="60"/>
+      <c r="GZ4" s="60"/>
+      <c r="HA4" s="61"/>
+      <c r="HB4" s="59" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="70"/>
-      <c r="HD4" s="70"/>
-      <c r="HE4" s="70"/>
-      <c r="HF4" s="70"/>
-      <c r="HG4" s="70"/>
-      <c r="HH4" s="70"/>
-      <c r="HI4" s="71"/>
+      <c r="HC4" s="60"/>
+      <c r="HD4" s="60"/>
+      <c r="HE4" s="60"/>
+      <c r="HF4" s="60"/>
+      <c r="HG4" s="60"/>
+      <c r="HH4" s="60"/>
+      <c r="HI4" s="61"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>15</v>
@@ -3624,7 +3688,7 @@
     </row>
     <row r="6" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="10" t="str">
         <f>DEC2HEX(B5)</f>
@@ -4306,27 +4370,27 @@
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="FP6" s="11" t="str">
+      <c r="FP6" s="53" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="FQ6" s="12" t="str">
+      <c r="FQ6" s="54" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="FR6" s="10" t="str">
+      <c r="FR6" s="55" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="FS6" s="11" t="str">
+      <c r="FS6" s="53" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="FT6" s="11" t="str">
+      <c r="FT6" s="53" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="FU6" s="12" t="str">
+      <c r="FU6" s="54" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -4512,101 +4576,101 @@
       </c>
       <c r="G7" s="76"/>
       <c r="H7" s="77"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="78" t="s">
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="79"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="78" t="s">
+      <c r="S7" s="57"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="79"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="81" t="s">
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="78" t="s">
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
-      <c r="AD7" s="79"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="78" t="s">
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="79"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
-      <c r="AL7" s="79"/>
-      <c r="AM7" s="79"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="79"/>
-      <c r="AP7" s="79"/>
-      <c r="AQ7" s="80"/>
-      <c r="AR7" s="78" t="s">
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="79"/>
-      <c r="AT7" s="79"/>
-      <c r="AU7" s="79"/>
-      <c r="AV7" s="79"/>
-      <c r="AW7" s="80"/>
-      <c r="AX7" s="78" t="s">
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="58"/>
+      <c r="AX7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="79"/>
-      <c r="AZ7" s="79"/>
-      <c r="BA7" s="79"/>
-      <c r="BB7" s="79"/>
-      <c r="BC7" s="79"/>
-      <c r="BD7" s="79"/>
-      <c r="BE7" s="79"/>
-      <c r="BF7" s="79"/>
-      <c r="BG7" s="80"/>
-      <c r="BH7" s="78" t="s">
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="58"/>
+      <c r="BH7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="79"/>
-      <c r="BJ7" s="79"/>
-      <c r="BK7" s="79"/>
-      <c r="BL7" s="79"/>
-      <c r="BM7" s="80"/>
-      <c r="BN7" s="78" t="s">
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="58"/>
+      <c r="BN7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="79"/>
-      <c r="BP7" s="79"/>
-      <c r="BQ7" s="79"/>
-      <c r="BR7" s="79"/>
-      <c r="BS7" s="79"/>
-      <c r="BT7" s="79"/>
-      <c r="BU7" s="80"/>
-      <c r="BV7" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW7" s="79"/>
-      <c r="BX7" s="79"/>
-      <c r="BY7" s="79"/>
-      <c r="BZ7" s="79"/>
-      <c r="CA7" s="79"/>
-      <c r="CB7" s="79"/>
-      <c r="CC7" s="80"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="57"/>
+      <c r="BQ7" s="57"/>
+      <c r="BR7" s="57"/>
+      <c r="BS7" s="57"/>
+      <c r="BT7" s="57"/>
+      <c r="BU7" s="58"/>
+      <c r="BV7" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW7" s="57"/>
+      <c r="BX7" s="57"/>
+      <c r="BY7" s="57"/>
+      <c r="BZ7" s="57"/>
+      <c r="CA7" s="57"/>
+      <c r="CB7" s="57"/>
+      <c r="CC7" s="58"/>
       <c r="CD7" s="75" t="s">
         <v>24</v>
       </c>
@@ -4618,39 +4682,39 @@
       <c r="CJ7" s="76"/>
       <c r="CK7" s="77"/>
       <c r="CL7" s="75" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="CM7" s="76"/>
       <c r="CN7" s="76"/>
       <c r="CO7" s="77"/>
-      <c r="CP7" s="87" t="s">
+      <c r="CP7" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="88"/>
-      <c r="CR7" s="88"/>
-      <c r="CS7" s="88"/>
-      <c r="CT7" s="88"/>
-      <c r="CU7" s="88"/>
-      <c r="CV7" s="88"/>
-      <c r="CW7" s="89"/>
-      <c r="CX7" s="78" t="s">
+      <c r="CQ7" s="80"/>
+      <c r="CR7" s="80"/>
+      <c r="CS7" s="80"/>
+      <c r="CT7" s="80"/>
+      <c r="CU7" s="80"/>
+      <c r="CV7" s="80"/>
+      <c r="CW7" s="81"/>
+      <c r="CX7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="79"/>
-      <c r="CZ7" s="79"/>
-      <c r="DA7" s="80"/>
-      <c r="DB7" s="78" t="s">
+      <c r="CY7" s="57"/>
+      <c r="CZ7" s="57"/>
+      <c r="DA7" s="58"/>
+      <c r="DB7" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="DC7" s="58"/>
+      <c r="DD7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="DC7" s="80"/>
-      <c r="DD7" s="6" t="s">
+      <c r="DE7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="DE7" s="5" t="s">
+      <c r="DF7" s="75" t="s">
         <v>31</v>
-      </c>
-      <c r="DF7" s="75" t="s">
-        <v>32</v>
       </c>
       <c r="DG7" s="76"/>
       <c r="DH7" s="76"/>
@@ -4660,440 +4724,443 @@
       <c r="DL7" s="76"/>
       <c r="DM7" s="77"/>
       <c r="DN7" s="75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DO7" s="76"/>
       <c r="DP7" s="76"/>
       <c r="DQ7" s="77"/>
-      <c r="DR7" s="94" t="s">
+      <c r="DR7" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="DS7" s="93"/>
+      <c r="DT7" s="93"/>
+      <c r="DU7" s="94"/>
+      <c r="DV7" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="DS7" s="95"/>
-      <c r="DT7" s="95"/>
-      <c r="DU7" s="96"/>
-      <c r="DV7" s="94" t="s">
+      <c r="DW7" s="93"/>
+      <c r="DX7" s="93"/>
+      <c r="DY7" s="93"/>
+      <c r="DZ7" s="93"/>
+      <c r="EA7" s="94"/>
+      <c r="EB7" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC7" s="93"/>
+      <c r="ED7" s="93"/>
+      <c r="EE7" s="93"/>
+      <c r="EF7" s="93"/>
+      <c r="EG7" s="94"/>
+      <c r="EH7" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="DW7" s="95"/>
-      <c r="DX7" s="95"/>
-      <c r="DY7" s="95"/>
-      <c r="DZ7" s="95"/>
-      <c r="EA7" s="96"/>
-      <c r="EB7" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC7" s="95"/>
-      <c r="ED7" s="95"/>
-      <c r="EE7" s="95"/>
-      <c r="EF7" s="95"/>
-      <c r="EG7" s="96"/>
-      <c r="EH7" s="69" t="s">
+      <c r="EI7" s="60"/>
+      <c r="EJ7" s="60"/>
+      <c r="EK7" s="60"/>
+      <c r="EL7" s="60"/>
+      <c r="EM7" s="60"/>
+      <c r="EN7" s="60"/>
+      <c r="EO7" s="61"/>
+      <c r="EP7" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="EQ7" s="80"/>
+      <c r="ER7" s="80"/>
+      <c r="ES7" s="80"/>
+      <c r="ET7" s="80"/>
+      <c r="EU7" s="80"/>
+      <c r="EV7" s="80"/>
+      <c r="EW7" s="81"/>
+      <c r="EX7" s="25"/>
+      <c r="EY7" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="EI7" s="70"/>
-      <c r="EJ7" s="70"/>
-      <c r="EK7" s="70"/>
-      <c r="EL7" s="70"/>
-      <c r="EM7" s="70"/>
-      <c r="EN7" s="70"/>
-      <c r="EO7" s="71"/>
-      <c r="EP7" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="EQ7" s="88"/>
-      <c r="ER7" s="88"/>
-      <c r="ES7" s="88"/>
-      <c r="ET7" s="88"/>
-      <c r="EU7" s="88"/>
-      <c r="EV7" s="88"/>
-      <c r="EW7" s="89"/>
-      <c r="EX7" s="25"/>
-      <c r="EY7" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="EZ7" s="85"/>
-      <c r="FA7" s="85"/>
-      <c r="FB7" s="85"/>
-      <c r="FC7" s="85"/>
-      <c r="FD7" s="85"/>
-      <c r="FE7" s="86"/>
+      <c r="EZ7" s="102"/>
+      <c r="FA7" s="102"/>
+      <c r="FB7" s="102"/>
+      <c r="FC7" s="102"/>
+      <c r="FD7" s="102"/>
+      <c r="FE7" s="103"/>
       <c r="FF7" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="FG7" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="FH7" s="27"/>
       <c r="FI7" s="27"/>
       <c r="FJ7" s="28"/>
-      <c r="FK7" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="FL7" s="98"/>
-      <c r="FM7" s="99"/>
-      <c r="FN7" s="100" t="s">
+      <c r="FK7" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="FL7" s="96"/>
+      <c r="FM7" s="97"/>
+      <c r="FN7" s="51"/>
+      <c r="FO7" s="52"/>
+      <c r="FP7" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="FQ7" s="99"/>
+      <c r="FR7" s="99"/>
+      <c r="FS7" s="99"/>
+      <c r="FT7" s="99"/>
+      <c r="FU7" s="100"/>
+      <c r="FV7" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="FO7" s="101"/>
-      <c r="FP7" s="101"/>
-      <c r="FQ7" s="101"/>
-      <c r="FR7" s="101"/>
-      <c r="FS7" s="101"/>
-      <c r="FT7" s="101"/>
-      <c r="FU7" s="102"/>
-      <c r="FV7" s="90" t="s">
+      <c r="FW7" s="64"/>
+      <c r="FX7" s="64"/>
+      <c r="FY7" s="64"/>
+      <c r="FZ7" s="64"/>
+      <c r="GA7" s="65"/>
+      <c r="GB7" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="GC7" s="64"/>
+      <c r="GD7" s="64"/>
+      <c r="GE7" s="64"/>
+      <c r="GF7" s="64"/>
+      <c r="GG7" s="65"/>
+      <c r="GH7" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="GI7" s="60"/>
+      <c r="GJ7" s="60"/>
+      <c r="GK7" s="61"/>
+      <c r="GL7" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="GM7" s="60"/>
+      <c r="GN7" s="61"/>
+      <c r="GO7" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="FW7" s="91"/>
-      <c r="FX7" s="91"/>
-      <c r="FY7" s="91"/>
-      <c r="FZ7" s="91"/>
-      <c r="GA7" s="92"/>
-      <c r="GB7" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="GC7" s="91"/>
-      <c r="GD7" s="91"/>
-      <c r="GE7" s="91"/>
-      <c r="GF7" s="91"/>
-      <c r="GG7" s="92"/>
-      <c r="GH7" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="GI7" s="70"/>
-      <c r="GJ7" s="70"/>
-      <c r="GK7" s="71"/>
-      <c r="GL7" s="69" t="s">
+      <c r="GP7" s="64"/>
+      <c r="GQ7" s="64"/>
+      <c r="GR7" s="64"/>
+      <c r="GS7" s="65"/>
+      <c r="GT7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="GM7" s="70"/>
-      <c r="GN7" s="71"/>
-      <c r="GO7" s="90" t="s">
+      <c r="GU7" s="2"/>
+      <c r="GV7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="GP7" s="91"/>
-      <c r="GQ7" s="91"/>
-      <c r="GR7" s="91"/>
-      <c r="GS7" s="92"/>
-      <c r="GT7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="GU7" s="2"/>
-      <c r="GV7" s="69" t="s">
+      <c r="GW7" s="60"/>
+      <c r="GX7" s="131"/>
+      <c r="GY7" s="131"/>
+      <c r="GZ7" s="131"/>
+      <c r="HA7" s="62"/>
+      <c r="HB7" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="GW7" s="70"/>
-      <c r="GX7" s="70"/>
-      <c r="GY7" s="70"/>
-      <c r="GZ7" s="70"/>
-      <c r="HA7" s="71"/>
-      <c r="HB7" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="HC7" s="91"/>
-      <c r="HD7" s="91"/>
-      <c r="HE7" s="91"/>
-      <c r="HF7" s="91"/>
-      <c r="HG7" s="91"/>
-      <c r="HH7" s="91"/>
-      <c r="HI7" s="92"/>
+      <c r="HC7" s="64"/>
+      <c r="HD7" s="64"/>
+      <c r="HE7" s="64"/>
+      <c r="HF7" s="64"/>
+      <c r="HG7" s="64"/>
+      <c r="HH7" s="64"/>
+      <c r="HI7" s="65"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
       <c r="R8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="U8" t="s">
-        <v>147</v>
-      </c>
-      <c r="X8" s="84">
+        <v>140</v>
+      </c>
+      <c r="X8" s="101">
         <v>380</v>
       </c>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="86"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="103"/>
       <c r="AD8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>143</v>
+      </c>
+      <c r="CL8" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="CM8" s="91"/>
+      <c r="CN8" s="91"/>
+      <c r="CO8" s="91"/>
+      <c r="CP8" s="91"/>
+      <c r="CQ8" s="91"/>
+      <c r="CR8" s="91"/>
+      <c r="CS8" s="91"/>
+      <c r="CT8" s="91"/>
+      <c r="CU8" s="91"/>
+      <c r="CV8" s="91"/>
+      <c r="CW8" s="91"/>
+      <c r="CX8" s="91"/>
+      <c r="CY8" s="91"/>
+      <c r="CZ8" s="91"/>
+      <c r="DA8" s="91"/>
+      <c r="DB8" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="DC8" s="91"/>
+      <c r="DD8" s="91"/>
+      <c r="DE8" s="91"/>
+      <c r="DF8" s="91"/>
+      <c r="DG8" s="91"/>
+      <c r="DH8" s="91"/>
+      <c r="DI8" s="91"/>
+      <c r="DJ8" s="91"/>
+      <c r="DK8" s="91"/>
+      <c r="DL8" s="91"/>
+      <c r="DM8" s="91"/>
+      <c r="DN8" s="91"/>
+      <c r="DO8" s="91"/>
+      <c r="DP8" s="91"/>
+      <c r="DQ8" s="91"/>
+      <c r="DR8" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="DS8" s="91"/>
+      <c r="DT8" s="91"/>
+      <c r="DU8" s="91"/>
+      <c r="DV8" s="91"/>
+      <c r="DW8" s="91"/>
+      <c r="DX8" s="91"/>
+      <c r="DY8" s="91"/>
+      <c r="DZ8" s="91"/>
+      <c r="EA8" s="91"/>
+      <c r="EB8" s="91"/>
+      <c r="EC8" s="91"/>
+      <c r="ED8" s="91"/>
+      <c r="EE8" s="91"/>
+      <c r="EF8" s="91"/>
+      <c r="EG8" s="91"/>
+      <c r="FH8" t="s">
+        <v>133</v>
+      </c>
+      <c r="FN8" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="FO8" s="13"/>
+      <c r="FR8" s="36"/>
+      <c r="FV8" t="s">
+        <v>138</v>
+      </c>
+      <c r="GB8" t="s">
         <v>139</v>
       </c>
-      <c r="AL8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>150</v>
-      </c>
-      <c r="CL8" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="CM8" s="93"/>
-      <c r="CN8" s="93"/>
-      <c r="CO8" s="93"/>
-      <c r="CP8" s="93"/>
-      <c r="CQ8" s="93"/>
-      <c r="CR8" s="93"/>
-      <c r="CS8" s="93"/>
-      <c r="CT8" s="93"/>
-      <c r="CU8" s="93"/>
-      <c r="CV8" s="93"/>
-      <c r="CW8" s="93"/>
-      <c r="CX8" s="93"/>
-      <c r="CY8" s="93"/>
-      <c r="CZ8" s="93"/>
-      <c r="DA8" s="93"/>
-      <c r="DB8" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="DC8" s="93"/>
-      <c r="DD8" s="93"/>
-      <c r="DE8" s="93"/>
-      <c r="DF8" s="93"/>
-      <c r="DG8" s="93"/>
-      <c r="DH8" s="93"/>
-      <c r="DI8" s="93"/>
-      <c r="DJ8" s="93"/>
-      <c r="DK8" s="93"/>
-      <c r="DL8" s="93"/>
-      <c r="DM8" s="93"/>
-      <c r="DN8" s="93"/>
-      <c r="DO8" s="93"/>
-      <c r="DP8" s="93"/>
-      <c r="DQ8" s="93"/>
-      <c r="DR8" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="DS8" s="93"/>
-      <c r="DT8" s="93"/>
-      <c r="DU8" s="93"/>
-      <c r="DV8" s="93"/>
-      <c r="DW8" s="93"/>
-      <c r="DX8" s="93"/>
-      <c r="DY8" s="93"/>
-      <c r="DZ8" s="93"/>
-      <c r="EA8" s="93"/>
-      <c r="EB8" s="93"/>
-      <c r="EC8" s="93"/>
-      <c r="ED8" s="93"/>
-      <c r="EE8" s="93"/>
-      <c r="EF8" s="93"/>
-      <c r="EG8" s="93"/>
-      <c r="FH8" t="s">
-        <v>140</v>
-      </c>
-      <c r="FN8" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="FO8" s="13"/>
-      <c r="FP8" s="13"/>
-      <c r="FQ8" s="13"/>
-      <c r="FR8" s="15"/>
-      <c r="FV8" t="s">
-        <v>145</v>
-      </c>
-      <c r="GB8" t="s">
-        <v>146</v>
-      </c>
+      <c r="GV8" s="25"/>
+      <c r="GX8" s="101"/>
+      <c r="GY8" s="103"/>
+      <c r="GZ8" s="25"/>
+      <c r="HA8" s="25"/>
       <c r="HI8" s="15"/>
     </row>
-    <row r="9" spans="1:217" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:217" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="51" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="82"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="52"/>
-      <c r="AU9" s="52"/>
-      <c r="AV9" s="52"/>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY9" s="52"/>
-      <c r="AZ9" s="52"/>
-      <c r="BA9" s="52"/>
-      <c r="BB9" s="52"/>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="52"/>
-      <c r="BF9" s="52"/>
-      <c r="BG9" s="53"/>
-      <c r="BH9" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="BI9" s="52"/>
-      <c r="BJ9" s="52"/>
-      <c r="BK9" s="52"/>
-      <c r="BL9" s="52"/>
-      <c r="BM9" s="53"/>
-      <c r="BN9" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO9" s="61"/>
-      <c r="BP9" s="61"/>
-      <c r="BQ9" s="61"/>
-      <c r="BR9" s="61"/>
-      <c r="BS9" s="61"/>
-      <c r="BT9" s="61"/>
-      <c r="BU9" s="62"/>
-      <c r="BV9" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="BW9" s="61"/>
-      <c r="BX9" s="61"/>
-      <c r="BY9" s="61"/>
-      <c r="BZ9" s="61"/>
-      <c r="CA9" s="61"/>
-      <c r="CB9" s="61"/>
-      <c r="CC9" s="62"/>
-      <c r="CD9" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="CE9" s="61"/>
-      <c r="CF9" s="61"/>
-      <c r="CG9" s="61"/>
-      <c r="CH9" s="61"/>
-      <c r="CI9" s="61"/>
-      <c r="CJ9" s="61"/>
-      <c r="CK9" s="62"/>
-      <c r="CL9" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="CM9" s="61"/>
-      <c r="CN9" s="61"/>
-      <c r="CO9" s="61"/>
-      <c r="CP9" s="61"/>
-      <c r="CQ9" s="61"/>
-      <c r="CR9" s="61"/>
-      <c r="CS9" s="61"/>
-      <c r="CT9" s="61"/>
-      <c r="CU9" s="61"/>
-      <c r="CV9" s="61"/>
-      <c r="CW9" s="61"/>
-      <c r="CX9" s="61"/>
-      <c r="CY9" s="61"/>
-      <c r="CZ9" s="61"/>
-      <c r="DA9" s="62"/>
-      <c r="DB9" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="DC9" s="52"/>
-      <c r="DD9" s="52"/>
-      <c r="DE9" s="52"/>
-      <c r="DF9" s="52"/>
-      <c r="DG9" s="52"/>
-      <c r="DH9" s="52"/>
-      <c r="DI9" s="52"/>
-      <c r="DJ9" s="52"/>
-      <c r="DK9" s="52"/>
-      <c r="DL9" s="52"/>
-      <c r="DM9" s="52"/>
-      <c r="DN9" s="52"/>
-      <c r="DO9" s="52"/>
-      <c r="DP9" s="52"/>
-      <c r="DQ9" s="53"/>
-      <c r="DR9" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="DS9" s="52"/>
-      <c r="DT9" s="52"/>
-      <c r="DU9" s="52"/>
-      <c r="DV9" s="52"/>
-      <c r="DW9" s="52"/>
-      <c r="DX9" s="52"/>
-      <c r="DY9" s="52"/>
-      <c r="DZ9" s="52"/>
-      <c r="EA9" s="52"/>
-      <c r="EB9" s="52"/>
-      <c r="EC9" s="52"/>
-      <c r="ED9" s="52"/>
-      <c r="EE9" s="52"/>
-      <c r="EF9" s="52"/>
-      <c r="EG9" s="53"/>
-      <c r="EP9" s="51" t="s">
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="82"/>
+      <c r="BF9" s="82"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI9" s="82"/>
+      <c r="BJ9" s="82"/>
+      <c r="BK9" s="82"/>
+      <c r="BL9" s="82"/>
+      <c r="BM9" s="83"/>
+      <c r="BN9" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="EQ9" s="52"/>
-      <c r="ER9" s="52"/>
-      <c r="ES9" s="52"/>
-      <c r="ET9" s="52"/>
-      <c r="EU9" s="52"/>
-      <c r="EV9" s="52"/>
-      <c r="EW9" s="53"/>
+      <c r="BO9" s="67"/>
+      <c r="BP9" s="67"/>
+      <c r="BQ9" s="67"/>
+      <c r="BR9" s="67"/>
+      <c r="BS9" s="67"/>
+      <c r="BT9" s="67"/>
+      <c r="BU9" s="68"/>
+      <c r="BV9" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="BW9" s="67"/>
+      <c r="BX9" s="67"/>
+      <c r="BY9" s="67"/>
+      <c r="BZ9" s="67"/>
+      <c r="CA9" s="67"/>
+      <c r="CB9" s="67"/>
+      <c r="CC9" s="68"/>
+      <c r="CD9" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="CE9" s="67"/>
+      <c r="CF9" s="67"/>
+      <c r="CG9" s="67"/>
+      <c r="CH9" s="67"/>
+      <c r="CI9" s="67"/>
+      <c r="CJ9" s="67"/>
+      <c r="CK9" s="68"/>
+      <c r="CL9" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="CM9" s="67"/>
+      <c r="CN9" s="67"/>
+      <c r="CO9" s="67"/>
+      <c r="CP9" s="67"/>
+      <c r="CQ9" s="67"/>
+      <c r="CR9" s="67"/>
+      <c r="CS9" s="67"/>
+      <c r="CT9" s="67"/>
+      <c r="CU9" s="67"/>
+      <c r="CV9" s="67"/>
+      <c r="CW9" s="67"/>
+      <c r="CX9" s="67"/>
+      <c r="CY9" s="67"/>
+      <c r="CZ9" s="67"/>
+      <c r="DA9" s="68"/>
+      <c r="DB9" s="49"/>
+      <c r="DC9" s="50"/>
+      <c r="DD9" s="50"/>
+      <c r="DE9" s="50"/>
+      <c r="DF9" s="50"/>
+      <c r="DG9" s="50"/>
+      <c r="DH9" s="50"/>
+      <c r="DI9" s="50"/>
+      <c r="DJ9" s="50"/>
+      <c r="DK9" s="50"/>
+      <c r="DL9" s="50"/>
+      <c r="DM9" s="50"/>
+      <c r="DN9" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="DO9" s="115"/>
+      <c r="DP9" s="115"/>
+      <c r="DQ9" s="116"/>
+      <c r="DR9" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="DS9" s="82"/>
+      <c r="DT9" s="82"/>
+      <c r="DU9" s="82"/>
+      <c r="DV9" s="82"/>
+      <c r="DW9" s="82"/>
+      <c r="DX9" s="82"/>
+      <c r="DY9" s="82"/>
+      <c r="DZ9" s="82"/>
+      <c r="EA9" s="82"/>
+      <c r="EB9" s="82"/>
+      <c r="EC9" s="82"/>
+      <c r="ED9" s="82"/>
+      <c r="EE9" s="82"/>
+      <c r="EF9" s="82"/>
+      <c r="EG9" s="83"/>
+      <c r="EP9" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="EQ9" s="82"/>
+      <c r="ER9" s="82"/>
+      <c r="ES9" s="82"/>
+      <c r="ET9" s="82"/>
+      <c r="EU9" s="82"/>
+      <c r="EV9" s="82"/>
+      <c r="EW9" s="83"/>
       <c r="EX9" s="17"/>
       <c r="EY9" s="17"/>
       <c r="EZ9" s="18"/>
@@ -5103,10 +5170,10 @@
       <c r="FD9" s="18"/>
       <c r="FE9" s="19"/>
       <c r="FJ9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="FN9" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="FO9" s="34"/>
       <c r="FP9" s="34"/>
@@ -5115,194 +5182,196 @@
       <c r="FS9" s="13"/>
       <c r="FT9" s="13"/>
       <c r="FU9" s="15"/>
-      <c r="FV9" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="FW9" s="61"/>
-      <c r="FX9" s="61"/>
-      <c r="FY9" s="61"/>
-      <c r="FZ9" s="61"/>
-      <c r="GA9" s="62"/>
-      <c r="GB9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="GC9" s="61"/>
-      <c r="GD9" s="61"/>
-      <c r="GE9" s="61"/>
-      <c r="GF9" s="61"/>
-      <c r="GG9" s="62"/>
-      <c r="GT9" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="GU9" s="52"/>
-      <c r="GV9" s="52"/>
-      <c r="GW9" s="52"/>
-      <c r="GX9" s="52"/>
-      <c r="GY9" s="52"/>
-      <c r="GZ9" s="52"/>
-      <c r="HA9" s="53"/>
-      <c r="HB9" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="HC9" s="52"/>
-      <c r="HD9" s="52"/>
-      <c r="HE9" s="52"/>
-      <c r="HF9" s="52"/>
-      <c r="HG9" s="52"/>
-      <c r="HH9" s="52"/>
-      <c r="HI9" s="53"/>
-    </row>
-    <row r="10" spans="1:217" x14ac:dyDescent="0.45">
+      <c r="FV9" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="FW9" s="67"/>
+      <c r="FX9" s="67"/>
+      <c r="FY9" s="67"/>
+      <c r="FZ9" s="67"/>
+      <c r="GA9" s="68"/>
+      <c r="GB9" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="GC9" s="67"/>
+      <c r="GD9" s="67"/>
+      <c r="GE9" s="67"/>
+      <c r="GF9" s="67"/>
+      <c r="GG9" s="68"/>
+      <c r="GT9" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="GU9" s="82"/>
+      <c r="GV9" s="82"/>
+      <c r="GW9" s="82"/>
+      <c r="GX9" s="82"/>
+      <c r="GY9" s="82"/>
+      <c r="GZ9" s="82"/>
+      <c r="HA9" s="85"/>
+      <c r="HB9" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="HC9" s="82"/>
+      <c r="HD9" s="82"/>
+      <c r="HE9" s="82"/>
+      <c r="HF9" s="82"/>
+      <c r="HG9" s="82"/>
+      <c r="HH9" s="82"/>
+      <c r="HI9" s="83"/>
+    </row>
+    <row r="10" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="55"/>
-      <c r="AP10" s="55"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="55"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="55"/>
-      <c r="AY10" s="55"/>
-      <c r="AZ10" s="55"/>
-      <c r="BA10" s="55"/>
-      <c r="BB10" s="55"/>
-      <c r="BC10" s="55"/>
-      <c r="BD10" s="55"/>
-      <c r="BE10" s="55"/>
-      <c r="BF10" s="55"/>
-      <c r="BG10" s="56"/>
-      <c r="BH10" s="54"/>
-      <c r="BI10" s="55"/>
-      <c r="BJ10" s="55"/>
-      <c r="BK10" s="55"/>
-      <c r="BL10" s="55"/>
-      <c r="BM10" s="56"/>
-      <c r="BN10" s="63"/>
-      <c r="BO10" s="64"/>
-      <c r="BP10" s="64"/>
-      <c r="BQ10" s="64"/>
-      <c r="BR10" s="64"/>
-      <c r="BS10" s="64"/>
-      <c r="BT10" s="64"/>
-      <c r="BU10" s="65"/>
-      <c r="BV10" s="63"/>
-      <c r="BW10" s="64"/>
-      <c r="BX10" s="64"/>
-      <c r="BY10" s="64"/>
-      <c r="BZ10" s="64"/>
-      <c r="CA10" s="64"/>
-      <c r="CB10" s="64"/>
-      <c r="CC10" s="65"/>
-      <c r="CD10" s="63"/>
-      <c r="CE10" s="64"/>
-      <c r="CF10" s="64"/>
-      <c r="CG10" s="64"/>
-      <c r="CH10" s="64"/>
-      <c r="CI10" s="64"/>
-      <c r="CJ10" s="64"/>
-      <c r="CK10" s="65"/>
-      <c r="CL10" s="63"/>
-      <c r="CM10" s="64"/>
-      <c r="CN10" s="64"/>
-      <c r="CO10" s="64"/>
-      <c r="CP10" s="64"/>
-      <c r="CQ10" s="64"/>
-      <c r="CR10" s="64"/>
-      <c r="CS10" s="64"/>
-      <c r="CT10" s="64"/>
-      <c r="CU10" s="64"/>
-      <c r="CV10" s="64"/>
-      <c r="CW10" s="64"/>
-      <c r="CX10" s="64"/>
-      <c r="CY10" s="64"/>
-      <c r="CZ10" s="64"/>
-      <c r="DA10" s="65"/>
-      <c r="DB10" s="54"/>
-      <c r="DC10" s="55"/>
-      <c r="DD10" s="55"/>
-      <c r="DE10" s="55"/>
-      <c r="DF10" s="55"/>
-      <c r="DG10" s="55"/>
-      <c r="DH10" s="55"/>
-      <c r="DI10" s="55"/>
-      <c r="DJ10" s="55"/>
-      <c r="DK10" s="55"/>
-      <c r="DL10" s="55"/>
-      <c r="DM10" s="55"/>
-      <c r="DN10" s="55"/>
-      <c r="DO10" s="55"/>
-      <c r="DP10" s="55"/>
-      <c r="DQ10" s="56"/>
-      <c r="DR10" s="54"/>
-      <c r="DS10" s="55"/>
-      <c r="DT10" s="55"/>
-      <c r="DU10" s="55"/>
-      <c r="DV10" s="55"/>
-      <c r="DW10" s="55"/>
-      <c r="DX10" s="55"/>
-      <c r="DY10" s="55"/>
-      <c r="DZ10" s="55"/>
-      <c r="EA10" s="55"/>
-      <c r="EB10" s="55"/>
-      <c r="EC10" s="55"/>
-      <c r="ED10" s="55"/>
-      <c r="EE10" s="55"/>
-      <c r="EF10" s="55"/>
-      <c r="EG10" s="56"/>
-      <c r="EP10" s="54"/>
-      <c r="EQ10" s="55"/>
-      <c r="ER10" s="55"/>
-      <c r="ES10" s="55"/>
-      <c r="ET10" s="55"/>
-      <c r="EU10" s="55"/>
-      <c r="EV10" s="55"/>
-      <c r="EW10" s="56"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="84"/>
+      <c r="BE10" s="84"/>
+      <c r="BF10" s="84"/>
+      <c r="BG10" s="85"/>
+      <c r="BH10" s="89"/>
+      <c r="BI10" s="84"/>
+      <c r="BJ10" s="84"/>
+      <c r="BK10" s="84"/>
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="85"/>
+      <c r="BN10" s="69"/>
+      <c r="BO10" s="70"/>
+      <c r="BP10" s="70"/>
+      <c r="BQ10" s="70"/>
+      <c r="BR10" s="70"/>
+      <c r="BS10" s="70"/>
+      <c r="BT10" s="70"/>
+      <c r="BU10" s="71"/>
+      <c r="BV10" s="69"/>
+      <c r="BW10" s="70"/>
+      <c r="BX10" s="70"/>
+      <c r="BY10" s="70"/>
+      <c r="BZ10" s="70"/>
+      <c r="CA10" s="70"/>
+      <c r="CB10" s="70"/>
+      <c r="CC10" s="71"/>
+      <c r="CD10" s="69"/>
+      <c r="CE10" s="70"/>
+      <c r="CF10" s="70"/>
+      <c r="CG10" s="70"/>
+      <c r="CH10" s="70"/>
+      <c r="CI10" s="70"/>
+      <c r="CJ10" s="70"/>
+      <c r="CK10" s="71"/>
+      <c r="CL10" s="69"/>
+      <c r="CM10" s="70"/>
+      <c r="CN10" s="70"/>
+      <c r="CO10" s="70"/>
+      <c r="CP10" s="70"/>
+      <c r="CQ10" s="70"/>
+      <c r="CR10" s="70"/>
+      <c r="CS10" s="70"/>
+      <c r="CT10" s="70"/>
+      <c r="CU10" s="70"/>
+      <c r="CV10" s="70"/>
+      <c r="CW10" s="70"/>
+      <c r="CX10" s="70"/>
+      <c r="CY10" s="70"/>
+      <c r="CZ10" s="70"/>
+      <c r="DA10" s="70"/>
+      <c r="DB10" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="DC10" s="115"/>
+      <c r="DD10" s="115"/>
+      <c r="DE10" s="115"/>
+      <c r="DF10" s="115"/>
+      <c r="DG10" s="115"/>
+      <c r="DH10" s="115"/>
+      <c r="DI10" s="115"/>
+      <c r="DJ10" s="115"/>
+      <c r="DK10" s="115"/>
+      <c r="DL10" s="115"/>
+      <c r="DM10" s="115"/>
+      <c r="DN10" s="115"/>
+      <c r="DO10" s="115"/>
+      <c r="DP10" s="115"/>
+      <c r="DQ10" s="116"/>
+      <c r="DR10" s="84"/>
+      <c r="DS10" s="84"/>
+      <c r="DT10" s="84"/>
+      <c r="DU10" s="84"/>
+      <c r="DV10" s="84"/>
+      <c r="DW10" s="84"/>
+      <c r="DX10" s="84"/>
+      <c r="DY10" s="84"/>
+      <c r="DZ10" s="84"/>
+      <c r="EA10" s="84"/>
+      <c r="EB10" s="84"/>
+      <c r="EC10" s="84"/>
+      <c r="ED10" s="84"/>
+      <c r="EE10" s="84"/>
+      <c r="EF10" s="84"/>
+      <c r="EG10" s="85"/>
+      <c r="EP10" s="89"/>
+      <c r="EQ10" s="84"/>
+      <c r="ER10" s="84"/>
+      <c r="ES10" s="84"/>
+      <c r="ET10" s="84"/>
+      <c r="EU10" s="84"/>
+      <c r="EV10" s="84"/>
+      <c r="EW10" s="85"/>
       <c r="EX10" s="20"/>
       <c r="EY10" s="20"/>
       <c r="FE10" s="21"/>
       <c r="FJ10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="FN10" s="38"/>
       <c r="FO10" s="16"/>
@@ -5310,181 +5379,184 @@
       <c r="FQ10" s="16"/>
       <c r="FR10" s="16"/>
       <c r="FU10" s="36"/>
-      <c r="FV10" s="64"/>
-      <c r="FW10" s="64"/>
-      <c r="FX10" s="64"/>
-      <c r="FY10" s="64"/>
-      <c r="FZ10" s="64"/>
-      <c r="GA10" s="65"/>
-      <c r="GB10" s="63"/>
-      <c r="GC10" s="64"/>
-      <c r="GD10" s="64"/>
-      <c r="GE10" s="64"/>
-      <c r="GF10" s="64"/>
-      <c r="GG10" s="65"/>
-      <c r="GT10" s="54"/>
-      <c r="GU10" s="55"/>
-      <c r="GV10" s="55"/>
-      <c r="GW10" s="55"/>
-      <c r="GX10" s="55"/>
-      <c r="GY10" s="55"/>
-      <c r="GZ10" s="55"/>
-      <c r="HA10" s="56"/>
-      <c r="HB10" s="54"/>
-      <c r="HC10" s="55"/>
-      <c r="HD10" s="55"/>
-      <c r="HE10" s="55"/>
-      <c r="HF10" s="55"/>
-      <c r="HG10" s="55"/>
-      <c r="HH10" s="55"/>
-      <c r="HI10" s="56"/>
-    </row>
-    <row r="11" spans="1:217" x14ac:dyDescent="0.45">
+      <c r="FV10" s="70"/>
+      <c r="FW10" s="70"/>
+      <c r="FX10" s="70"/>
+      <c r="FY10" s="70"/>
+      <c r="FZ10" s="70"/>
+      <c r="GA10" s="71"/>
+      <c r="GB10" s="69"/>
+      <c r="GC10" s="70"/>
+      <c r="GD10" s="70"/>
+      <c r="GE10" s="70"/>
+      <c r="GF10" s="70"/>
+      <c r="GG10" s="71"/>
+      <c r="GT10" s="89"/>
+      <c r="GU10" s="84"/>
+      <c r="GV10" s="84"/>
+      <c r="GW10" s="84"/>
+      <c r="GX10" s="84"/>
+      <c r="GY10" s="84"/>
+      <c r="GZ10" s="84"/>
+      <c r="HA10" s="85"/>
+      <c r="HB10" s="89"/>
+      <c r="HC10" s="84"/>
+      <c r="HD10" s="84"/>
+      <c r="HE10" s="84"/>
+      <c r="HF10" s="84"/>
+      <c r="HG10" s="84"/>
+      <c r="HH10" s="84"/>
+      <c r="HI10" s="85"/>
+    </row>
+    <row r="11" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="55"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="56"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="55"/>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="55"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="55"/>
-      <c r="AY11" s="55"/>
-      <c r="AZ11" s="55"/>
-      <c r="BA11" s="55"/>
-      <c r="BB11" s="55"/>
-      <c r="BC11" s="55"/>
-      <c r="BD11" s="55"/>
-      <c r="BE11" s="55"/>
-      <c r="BF11" s="55"/>
-      <c r="BG11" s="56"/>
-      <c r="BH11" s="54"/>
-      <c r="BI11" s="55"/>
-      <c r="BJ11" s="55"/>
-      <c r="BK11" s="55"/>
-      <c r="BL11" s="55"/>
-      <c r="BM11" s="56"/>
-      <c r="BN11" s="63"/>
-      <c r="BO11" s="64"/>
-      <c r="BP11" s="64"/>
-      <c r="BQ11" s="64"/>
-      <c r="BR11" s="64"/>
-      <c r="BS11" s="64"/>
-      <c r="BT11" s="64"/>
-      <c r="BU11" s="65"/>
-      <c r="BV11" s="63"/>
-      <c r="BW11" s="64"/>
-      <c r="BX11" s="64"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
-      <c r="CA11" s="64"/>
-      <c r="CB11" s="64"/>
-      <c r="CC11" s="65"/>
-      <c r="CD11" s="63"/>
-      <c r="CE11" s="64"/>
-      <c r="CF11" s="64"/>
-      <c r="CG11" s="64"/>
-      <c r="CH11" s="64"/>
-      <c r="CI11" s="64"/>
-      <c r="CJ11" s="64"/>
-      <c r="CK11" s="65"/>
-      <c r="CL11" s="63"/>
-      <c r="CM11" s="64"/>
-      <c r="CN11" s="64"/>
-      <c r="CO11" s="64"/>
-      <c r="CP11" s="64"/>
-      <c r="CQ11" s="64"/>
-      <c r="CR11" s="64"/>
-      <c r="CS11" s="64"/>
-      <c r="CT11" s="64"/>
-      <c r="CU11" s="64"/>
-      <c r="CV11" s="64"/>
-      <c r="CW11" s="64"/>
-      <c r="CX11" s="64"/>
-      <c r="CY11" s="64"/>
-      <c r="CZ11" s="64"/>
-      <c r="DA11" s="65"/>
-      <c r="DB11" s="54"/>
-      <c r="DC11" s="55"/>
-      <c r="DD11" s="55"/>
-      <c r="DE11" s="55"/>
-      <c r="DF11" s="55"/>
-      <c r="DG11" s="55"/>
-      <c r="DH11" s="55"/>
-      <c r="DI11" s="55"/>
-      <c r="DJ11" s="55"/>
-      <c r="DK11" s="55"/>
-      <c r="DL11" s="55"/>
-      <c r="DM11" s="55"/>
-      <c r="DN11" s="55"/>
-      <c r="DO11" s="55"/>
-      <c r="DP11" s="55"/>
-      <c r="DQ11" s="56"/>
-      <c r="DR11" s="54"/>
-      <c r="DS11" s="55"/>
-      <c r="DT11" s="55"/>
-      <c r="DU11" s="55"/>
-      <c r="DV11" s="55"/>
-      <c r="DW11" s="55"/>
-      <c r="DX11" s="55"/>
-      <c r="DY11" s="55"/>
-      <c r="DZ11" s="55"/>
-      <c r="EA11" s="55"/>
-      <c r="EB11" s="55"/>
-      <c r="EC11" s="55"/>
-      <c r="ED11" s="55"/>
-      <c r="EE11" s="55"/>
-      <c r="EF11" s="55"/>
-      <c r="EG11" s="56"/>
-      <c r="EP11" s="54"/>
-      <c r="EQ11" s="55"/>
-      <c r="ER11" s="55"/>
-      <c r="ES11" s="55"/>
-      <c r="ET11" s="55"/>
-      <c r="EU11" s="55"/>
-      <c r="EV11" s="55"/>
-      <c r="EW11" s="56"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="84"/>
+      <c r="BD11" s="84"/>
+      <c r="BE11" s="84"/>
+      <c r="BF11" s="84"/>
+      <c r="BG11" s="85"/>
+      <c r="BH11" s="89"/>
+      <c r="BI11" s="84"/>
+      <c r="BJ11" s="84"/>
+      <c r="BK11" s="84"/>
+      <c r="BL11" s="84"/>
+      <c r="BM11" s="85"/>
+      <c r="BN11" s="69"/>
+      <c r="BO11" s="70"/>
+      <c r="BP11" s="70"/>
+      <c r="BQ11" s="70"/>
+      <c r="BR11" s="70"/>
+      <c r="BS11" s="70"/>
+      <c r="BT11" s="70"/>
+      <c r="BU11" s="71"/>
+      <c r="BV11" s="69"/>
+      <c r="BW11" s="70"/>
+      <c r="BX11" s="70"/>
+      <c r="BY11" s="70"/>
+      <c r="BZ11" s="70"/>
+      <c r="CA11" s="70"/>
+      <c r="CB11" s="70"/>
+      <c r="CC11" s="71"/>
+      <c r="CD11" s="69"/>
+      <c r="CE11" s="70"/>
+      <c r="CF11" s="70"/>
+      <c r="CG11" s="70"/>
+      <c r="CH11" s="70"/>
+      <c r="CI11" s="70"/>
+      <c r="CJ11" s="70"/>
+      <c r="CK11" s="71"/>
+      <c r="CL11" s="69"/>
+      <c r="CM11" s="70"/>
+      <c r="CN11" s="70"/>
+      <c r="CO11" s="70"/>
+      <c r="CP11" s="70"/>
+      <c r="CQ11" s="70"/>
+      <c r="CR11" s="70"/>
+      <c r="CS11" s="70"/>
+      <c r="CT11" s="70"/>
+      <c r="CU11" s="70"/>
+      <c r="CV11" s="70"/>
+      <c r="CW11" s="70"/>
+      <c r="CX11" s="70"/>
+      <c r="CY11" s="70"/>
+      <c r="CZ11" s="70"/>
+      <c r="DA11" s="70"/>
+      <c r="DB11" s="117"/>
+      <c r="DC11" s="84"/>
+      <c r="DD11" s="84"/>
+      <c r="DE11" s="84"/>
+      <c r="DF11" s="84"/>
+      <c r="DG11" s="84"/>
+      <c r="DH11" s="84"/>
+      <c r="DI11" s="84"/>
+      <c r="DJ11" s="84"/>
+      <c r="DK11" s="84"/>
+      <c r="DL11" s="84"/>
+      <c r="DM11" s="84"/>
+      <c r="DN11" s="84"/>
+      <c r="DO11" s="84"/>
+      <c r="DP11" s="84"/>
+      <c r="DQ11" s="118"/>
+      <c r="DR11" s="84"/>
+      <c r="DS11" s="84"/>
+      <c r="DT11" s="84"/>
+      <c r="DU11" s="84"/>
+      <c r="DV11" s="84"/>
+      <c r="DW11" s="84"/>
+      <c r="DX11" s="84"/>
+      <c r="DY11" s="84"/>
+      <c r="DZ11" s="84"/>
+      <c r="EA11" s="84"/>
+      <c r="EB11" s="84"/>
+      <c r="EC11" s="84"/>
+      <c r="ED11" s="84"/>
+      <c r="EE11" s="84"/>
+      <c r="EF11" s="84"/>
+      <c r="EG11" s="85"/>
+      <c r="EH11" t="s">
+        <v>223</v>
+      </c>
+      <c r="EP11" s="89"/>
+      <c r="EQ11" s="84"/>
+      <c r="ER11" s="84"/>
+      <c r="ES11" s="84"/>
+      <c r="ET11" s="84"/>
+      <c r="EU11" s="84"/>
+      <c r="EV11" s="84"/>
+      <c r="EW11" s="85"/>
       <c r="EX11" s="20"/>
       <c r="EY11" s="20"/>
       <c r="FE11" s="21"/>
@@ -5494,382 +5566,387 @@
       <c r="FQ11" s="16"/>
       <c r="FR11" s="16"/>
       <c r="FU11" s="36"/>
-      <c r="FV11" s="64"/>
-      <c r="FW11" s="64"/>
-      <c r="FX11" s="64"/>
-      <c r="FY11" s="64"/>
-      <c r="FZ11" s="64"/>
-      <c r="GA11" s="65"/>
-      <c r="GB11" s="63"/>
-      <c r="GC11" s="64"/>
-      <c r="GD11" s="64"/>
-      <c r="GE11" s="64"/>
-      <c r="GF11" s="64"/>
-      <c r="GG11" s="65"/>
+      <c r="FV11" s="70"/>
+      <c r="FW11" s="70"/>
+      <c r="FX11" s="70"/>
+      <c r="FY11" s="70"/>
+      <c r="FZ11" s="70"/>
+      <c r="GA11" s="71"/>
+      <c r="GB11" s="69"/>
+      <c r="GC11" s="70"/>
+      <c r="GD11" s="70"/>
+      <c r="GE11" s="70"/>
+      <c r="GF11" s="70"/>
+      <c r="GG11" s="71"/>
       <c r="GH11" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="GM11" t="s">
-        <v>161</v>
-      </c>
-      <c r="GT11" s="54"/>
-      <c r="GU11" s="55"/>
-      <c r="GV11" s="55"/>
-      <c r="GW11" s="55"/>
-      <c r="GX11" s="55"/>
-      <c r="GY11" s="55"/>
-      <c r="GZ11" s="55"/>
-      <c r="HA11" s="56"/>
-      <c r="HB11" s="54"/>
-      <c r="HC11" s="55"/>
-      <c r="HD11" s="55"/>
-      <c r="HE11" s="55"/>
-      <c r="HF11" s="55"/>
-      <c r="HG11" s="55"/>
-      <c r="HH11" s="55"/>
-      <c r="HI11" s="56"/>
-    </row>
-    <row r="12" spans="1:217" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="GT11" s="89"/>
+      <c r="GU11" s="84"/>
+      <c r="GV11" s="84"/>
+      <c r="GW11" s="84"/>
+      <c r="GX11" s="84"/>
+      <c r="GY11" s="84"/>
+      <c r="GZ11" s="84"/>
+      <c r="HA11" s="85"/>
+      <c r="HB11" s="89"/>
+      <c r="HC11" s="84"/>
+      <c r="HD11" s="84"/>
+      <c r="HE11" s="84"/>
+      <c r="HF11" s="84"/>
+      <c r="HG11" s="84"/>
+      <c r="HH11" s="84"/>
+      <c r="HI11" s="85"/>
+    </row>
+    <row r="12" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="55"/>
-      <c r="AY12" s="55"/>
-      <c r="AZ12" s="55"/>
-      <c r="BA12" s="55"/>
-      <c r="BB12" s="55"/>
-      <c r="BC12" s="55"/>
-      <c r="BD12" s="55"/>
-      <c r="BE12" s="55"/>
-      <c r="BF12" s="55"/>
-      <c r="BG12" s="56"/>
-      <c r="BH12" s="54"/>
-      <c r="BI12" s="55"/>
-      <c r="BJ12" s="55"/>
-      <c r="BK12" s="55"/>
-      <c r="BL12" s="55"/>
-      <c r="BM12" s="56"/>
-      <c r="BN12" s="63"/>
-      <c r="BO12" s="64"/>
-      <c r="BP12" s="64"/>
-      <c r="BQ12" s="64"/>
-      <c r="BR12" s="64"/>
-      <c r="BS12" s="64"/>
-      <c r="BT12" s="64"/>
-      <c r="BU12" s="65"/>
-      <c r="BV12" s="63"/>
-      <c r="BW12" s="64"/>
-      <c r="BX12" s="64"/>
-      <c r="BY12" s="64"/>
-      <c r="BZ12" s="64"/>
-      <c r="CA12" s="64"/>
-      <c r="CB12" s="64"/>
-      <c r="CC12" s="65"/>
-      <c r="CD12" s="63"/>
-      <c r="CE12" s="64"/>
-      <c r="CF12" s="64"/>
-      <c r="CG12" s="64"/>
-      <c r="CH12" s="64"/>
-      <c r="CI12" s="64"/>
-      <c r="CJ12" s="64"/>
-      <c r="CK12" s="65"/>
-      <c r="CL12" s="63"/>
-      <c r="CM12" s="64"/>
-      <c r="CN12" s="64"/>
-      <c r="CO12" s="64"/>
-      <c r="CP12" s="64"/>
-      <c r="CQ12" s="64"/>
-      <c r="CR12" s="64"/>
-      <c r="CS12" s="64"/>
-      <c r="CT12" s="64"/>
-      <c r="CU12" s="64"/>
-      <c r="CV12" s="64"/>
-      <c r="CW12" s="64"/>
-      <c r="CX12" s="64"/>
-      <c r="CY12" s="64"/>
-      <c r="CZ12" s="64"/>
-      <c r="DA12" s="65"/>
-      <c r="DB12" s="54"/>
-      <c r="DC12" s="55"/>
-      <c r="DD12" s="55"/>
-      <c r="DE12" s="55"/>
-      <c r="DF12" s="55"/>
-      <c r="DG12" s="55"/>
-      <c r="DH12" s="55"/>
-      <c r="DI12" s="55"/>
-      <c r="DJ12" s="55"/>
-      <c r="DK12" s="55"/>
-      <c r="DL12" s="55"/>
-      <c r="DM12" s="55"/>
-      <c r="DN12" s="55"/>
-      <c r="DO12" s="55"/>
-      <c r="DP12" s="55"/>
-      <c r="DQ12" s="56"/>
-      <c r="DR12" s="54"/>
-      <c r="DS12" s="55"/>
-      <c r="DT12" s="55"/>
-      <c r="DU12" s="55"/>
-      <c r="DV12" s="55"/>
-      <c r="DW12" s="55"/>
-      <c r="DX12" s="55"/>
-      <c r="DY12" s="55"/>
-      <c r="DZ12" s="55"/>
-      <c r="EA12" s="55"/>
-      <c r="EB12" s="55"/>
-      <c r="EC12" s="55"/>
-      <c r="ED12" s="55"/>
-      <c r="EE12" s="55"/>
-      <c r="EF12" s="55"/>
-      <c r="EG12" s="56"/>
-      <c r="EP12" s="54"/>
-      <c r="EQ12" s="55"/>
-      <c r="ER12" s="55"/>
-      <c r="ES12" s="55"/>
-      <c r="ET12" s="55"/>
-      <c r="EU12" s="55"/>
-      <c r="EV12" s="55"/>
-      <c r="EW12" s="56"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="85"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="85"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="84"/>
+      <c r="BD12" s="84"/>
+      <c r="BE12" s="84"/>
+      <c r="BF12" s="84"/>
+      <c r="BG12" s="85"/>
+      <c r="BH12" s="89"/>
+      <c r="BI12" s="84"/>
+      <c r="BJ12" s="84"/>
+      <c r="BK12" s="84"/>
+      <c r="BL12" s="84"/>
+      <c r="BM12" s="85"/>
+      <c r="BN12" s="69"/>
+      <c r="BO12" s="70"/>
+      <c r="BP12" s="70"/>
+      <c r="BQ12" s="70"/>
+      <c r="BR12" s="70"/>
+      <c r="BS12" s="70"/>
+      <c r="BT12" s="70"/>
+      <c r="BU12" s="71"/>
+      <c r="BV12" s="69"/>
+      <c r="BW12" s="70"/>
+      <c r="BX12" s="70"/>
+      <c r="BY12" s="70"/>
+      <c r="BZ12" s="70"/>
+      <c r="CA12" s="70"/>
+      <c r="CB12" s="70"/>
+      <c r="CC12" s="71"/>
+      <c r="CD12" s="69"/>
+      <c r="CE12" s="70"/>
+      <c r="CF12" s="70"/>
+      <c r="CG12" s="70"/>
+      <c r="CH12" s="70"/>
+      <c r="CI12" s="70"/>
+      <c r="CJ12" s="70"/>
+      <c r="CK12" s="71"/>
+      <c r="CL12" s="69"/>
+      <c r="CM12" s="70"/>
+      <c r="CN12" s="70"/>
+      <c r="CO12" s="70"/>
+      <c r="CP12" s="70"/>
+      <c r="CQ12" s="70"/>
+      <c r="CR12" s="70"/>
+      <c r="CS12" s="70"/>
+      <c r="CT12" s="70"/>
+      <c r="CU12" s="70"/>
+      <c r="CV12" s="70"/>
+      <c r="CW12" s="70"/>
+      <c r="CX12" s="70"/>
+      <c r="CY12" s="70"/>
+      <c r="CZ12" s="70"/>
+      <c r="DA12" s="70"/>
+      <c r="DB12" s="117"/>
+      <c r="DC12" s="84"/>
+      <c r="DD12" s="84"/>
+      <c r="DE12" s="84"/>
+      <c r="DF12" s="84"/>
+      <c r="DG12" s="84"/>
+      <c r="DH12" s="84"/>
+      <c r="DI12" s="84"/>
+      <c r="DJ12" s="84"/>
+      <c r="DK12" s="84"/>
+      <c r="DL12" s="84"/>
+      <c r="DM12" s="84"/>
+      <c r="DN12" s="84"/>
+      <c r="DO12" s="84"/>
+      <c r="DP12" s="84"/>
+      <c r="DQ12" s="118"/>
+      <c r="DR12" s="84"/>
+      <c r="DS12" s="84"/>
+      <c r="DT12" s="84"/>
+      <c r="DU12" s="84"/>
+      <c r="DV12" s="84"/>
+      <c r="DW12" s="84"/>
+      <c r="DX12" s="84"/>
+      <c r="DY12" s="84"/>
+      <c r="DZ12" s="84"/>
+      <c r="EA12" s="84"/>
+      <c r="EB12" s="84"/>
+      <c r="EC12" s="84"/>
+      <c r="ED12" s="84"/>
+      <c r="EE12" s="84"/>
+      <c r="EF12" s="84"/>
+      <c r="EG12" s="85"/>
+      <c r="EP12" s="89"/>
+      <c r="EQ12" s="84"/>
+      <c r="ER12" s="84"/>
+      <c r="ES12" s="84"/>
+      <c r="ET12" s="84"/>
+      <c r="EU12" s="84"/>
+      <c r="EV12" s="84"/>
+      <c r="EW12" s="85"/>
       <c r="EX12" s="20"/>
       <c r="EY12" s="20"/>
       <c r="EZ12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="FE12" s="21"/>
+      <c r="FK12" s="112" t="s">
+        <v>215</v>
+      </c>
+      <c r="FL12" s="112"/>
+      <c r="FM12" s="113"/>
       <c r="FN12" s="38"/>
       <c r="FO12" s="16"/>
       <c r="FP12" s="16"/>
       <c r="FQ12" s="16"/>
       <c r="FR12" s="16"/>
       <c r="FU12" s="36"/>
-      <c r="FV12" s="64"/>
-      <c r="FW12" s="64"/>
-      <c r="FX12" s="64"/>
-      <c r="FY12" s="64"/>
-      <c r="FZ12" s="64"/>
-      <c r="GA12" s="65"/>
-      <c r="GB12" s="63"/>
-      <c r="GC12" s="64"/>
-      <c r="GD12" s="64"/>
-      <c r="GE12" s="64"/>
-      <c r="GF12" s="64"/>
-      <c r="GG12" s="65"/>
+      <c r="FV12" s="70"/>
+      <c r="FW12" s="70"/>
+      <c r="FX12" s="70"/>
+      <c r="FY12" s="70"/>
+      <c r="FZ12" s="70"/>
+      <c r="GA12" s="71"/>
+      <c r="GB12" s="69"/>
+      <c r="GC12" s="70"/>
+      <c r="GD12" s="70"/>
+      <c r="GE12" s="70"/>
+      <c r="GF12" s="70"/>
+      <c r="GG12" s="71"/>
       <c r="GM12" t="s">
-        <v>161</v>
-      </c>
-      <c r="GT12" s="54"/>
-      <c r="GU12" s="55"/>
-      <c r="GV12" s="55"/>
-      <c r="GW12" s="55"/>
-      <c r="GX12" s="55"/>
-      <c r="GY12" s="55"/>
-      <c r="GZ12" s="55"/>
-      <c r="HA12" s="56"/>
-      <c r="HB12" s="54"/>
-      <c r="HC12" s="55"/>
-      <c r="HD12" s="55"/>
-      <c r="HE12" s="55"/>
-      <c r="HF12" s="55"/>
-      <c r="HG12" s="55"/>
-      <c r="HH12" s="55"/>
-      <c r="HI12" s="56"/>
-    </row>
-    <row r="13" spans="1:217" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="GT12" s="89"/>
+      <c r="GU12" s="84"/>
+      <c r="GV12" s="84"/>
+      <c r="GW12" s="84"/>
+      <c r="GX12" s="84"/>
+      <c r="GY12" s="84"/>
+      <c r="GZ12" s="84"/>
+      <c r="HA12" s="85"/>
+      <c r="HB12" s="89"/>
+      <c r="HC12" s="84"/>
+      <c r="HD12" s="84"/>
+      <c r="HE12" s="84"/>
+      <c r="HF12" s="84"/>
+      <c r="HG12" s="84"/>
+      <c r="HH12" s="84"/>
+      <c r="HI12" s="85"/>
+    </row>
+    <row r="13" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="55"/>
-      <c r="AT13" s="55"/>
-      <c r="AU13" s="55"/>
-      <c r="AV13" s="55"/>
-      <c r="AW13" s="56"/>
-      <c r="AX13" s="55"/>
-      <c r="AY13" s="55"/>
-      <c r="AZ13" s="55"/>
-      <c r="BA13" s="55"/>
-      <c r="BB13" s="55"/>
-      <c r="BC13" s="55"/>
-      <c r="BD13" s="55"/>
-      <c r="BE13" s="55"/>
-      <c r="BF13" s="55"/>
-      <c r="BG13" s="56"/>
-      <c r="BH13" s="54"/>
-      <c r="BI13" s="55"/>
-      <c r="BJ13" s="55"/>
-      <c r="BK13" s="55"/>
-      <c r="BL13" s="55"/>
-      <c r="BM13" s="56"/>
-      <c r="BN13" s="63"/>
-      <c r="BO13" s="64"/>
-      <c r="BP13" s="64"/>
-      <c r="BQ13" s="64"/>
-      <c r="BR13" s="64"/>
-      <c r="BS13" s="64"/>
-      <c r="BT13" s="64"/>
-      <c r="BU13" s="65"/>
-      <c r="BV13" s="63"/>
-      <c r="BW13" s="64"/>
-      <c r="BX13" s="64"/>
-      <c r="BY13" s="64"/>
-      <c r="BZ13" s="64"/>
-      <c r="CA13" s="64"/>
-      <c r="CB13" s="64"/>
-      <c r="CC13" s="65"/>
-      <c r="CD13" s="63"/>
-      <c r="CE13" s="64"/>
-      <c r="CF13" s="64"/>
-      <c r="CG13" s="64"/>
-      <c r="CH13" s="64"/>
-      <c r="CI13" s="64"/>
-      <c r="CJ13" s="64"/>
-      <c r="CK13" s="65"/>
-      <c r="CL13" s="63"/>
-      <c r="CM13" s="64"/>
-      <c r="CN13" s="64"/>
-      <c r="CO13" s="64"/>
-      <c r="CP13" s="64"/>
-      <c r="CQ13" s="64"/>
-      <c r="CR13" s="64"/>
-      <c r="CS13" s="64"/>
-      <c r="CT13" s="64"/>
-      <c r="CU13" s="64"/>
-      <c r="CV13" s="64"/>
-      <c r="CW13" s="64"/>
-      <c r="CX13" s="64"/>
-      <c r="CY13" s="64"/>
-      <c r="CZ13" s="64"/>
-      <c r="DA13" s="65"/>
-      <c r="DB13" s="54"/>
-      <c r="DC13" s="55"/>
-      <c r="DD13" s="55"/>
-      <c r="DE13" s="55"/>
-      <c r="DF13" s="55"/>
-      <c r="DG13" s="55"/>
-      <c r="DH13" s="55"/>
-      <c r="DI13" s="55"/>
-      <c r="DJ13" s="55"/>
-      <c r="DK13" s="55"/>
-      <c r="DL13" s="55"/>
-      <c r="DM13" s="55"/>
-      <c r="DN13" s="55"/>
-      <c r="DO13" s="55"/>
-      <c r="DP13" s="55"/>
-      <c r="DQ13" s="56"/>
-      <c r="DR13" s="54"/>
-      <c r="DS13" s="55"/>
-      <c r="DT13" s="55"/>
-      <c r="DU13" s="55"/>
-      <c r="DV13" s="55"/>
-      <c r="DW13" s="55"/>
-      <c r="DX13" s="55"/>
-      <c r="DY13" s="55"/>
-      <c r="DZ13" s="55"/>
-      <c r="EA13" s="55"/>
-      <c r="EB13" s="55"/>
-      <c r="EC13" s="55"/>
-      <c r="ED13" s="55"/>
-      <c r="EE13" s="55"/>
-      <c r="EF13" s="55"/>
-      <c r="EG13" s="56"/>
-      <c r="EP13" s="54"/>
-      <c r="EQ13" s="55"/>
-      <c r="ER13" s="55"/>
-      <c r="ES13" s="55"/>
-      <c r="ET13" s="55"/>
-      <c r="EU13" s="55"/>
-      <c r="EV13" s="55"/>
-      <c r="EW13" s="56"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="85"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="84"/>
+      <c r="AY13" s="84"/>
+      <c r="AZ13" s="84"/>
+      <c r="BA13" s="84"/>
+      <c r="BB13" s="84"/>
+      <c r="BC13" s="84"/>
+      <c r="BD13" s="84"/>
+      <c r="BE13" s="84"/>
+      <c r="BF13" s="84"/>
+      <c r="BG13" s="85"/>
+      <c r="BH13" s="89"/>
+      <c r="BI13" s="84"/>
+      <c r="BJ13" s="84"/>
+      <c r="BK13" s="84"/>
+      <c r="BL13" s="84"/>
+      <c r="BM13" s="85"/>
+      <c r="BN13" s="69"/>
+      <c r="BO13" s="70"/>
+      <c r="BP13" s="70"/>
+      <c r="BQ13" s="70"/>
+      <c r="BR13" s="70"/>
+      <c r="BS13" s="70"/>
+      <c r="BT13" s="70"/>
+      <c r="BU13" s="71"/>
+      <c r="BV13" s="69"/>
+      <c r="BW13" s="70"/>
+      <c r="BX13" s="70"/>
+      <c r="BY13" s="70"/>
+      <c r="BZ13" s="70"/>
+      <c r="CA13" s="70"/>
+      <c r="CB13" s="70"/>
+      <c r="CC13" s="71"/>
+      <c r="CD13" s="69"/>
+      <c r="CE13" s="70"/>
+      <c r="CF13" s="70"/>
+      <c r="CG13" s="70"/>
+      <c r="CH13" s="70"/>
+      <c r="CI13" s="70"/>
+      <c r="CJ13" s="70"/>
+      <c r="CK13" s="71"/>
+      <c r="CL13" s="69"/>
+      <c r="CM13" s="70"/>
+      <c r="CN13" s="70"/>
+      <c r="CO13" s="70"/>
+      <c r="CP13" s="70"/>
+      <c r="CQ13" s="70"/>
+      <c r="CR13" s="70"/>
+      <c r="CS13" s="70"/>
+      <c r="CT13" s="70"/>
+      <c r="CU13" s="70"/>
+      <c r="CV13" s="70"/>
+      <c r="CW13" s="70"/>
+      <c r="CX13" s="70"/>
+      <c r="CY13" s="70"/>
+      <c r="CZ13" s="70"/>
+      <c r="DA13" s="70"/>
+      <c r="DB13" s="117"/>
+      <c r="DC13" s="84"/>
+      <c r="DD13" s="84"/>
+      <c r="DE13" s="84"/>
+      <c r="DF13" s="84"/>
+      <c r="DG13" s="84"/>
+      <c r="DH13" s="84"/>
+      <c r="DI13" s="84"/>
+      <c r="DJ13" s="84"/>
+      <c r="DK13" s="84"/>
+      <c r="DL13" s="84"/>
+      <c r="DM13" s="84"/>
+      <c r="DN13" s="84"/>
+      <c r="DO13" s="84"/>
+      <c r="DP13" s="84"/>
+      <c r="DQ13" s="118"/>
+      <c r="DR13" s="84"/>
+      <c r="DS13" s="84"/>
+      <c r="DT13" s="84"/>
+      <c r="DU13" s="84"/>
+      <c r="DV13" s="84"/>
+      <c r="DW13" s="84"/>
+      <c r="DX13" s="84"/>
+      <c r="DY13" s="84"/>
+      <c r="DZ13" s="84"/>
+      <c r="EA13" s="84"/>
+      <c r="EB13" s="84"/>
+      <c r="EC13" s="84"/>
+      <c r="ED13" s="84"/>
+      <c r="EE13" s="84"/>
+      <c r="EF13" s="84"/>
+      <c r="EG13" s="85"/>
+      <c r="EP13" s="89"/>
+      <c r="EQ13" s="84"/>
+      <c r="ER13" s="84"/>
+      <c r="ES13" s="84"/>
+      <c r="ET13" s="84"/>
+      <c r="EU13" s="84"/>
+      <c r="EV13" s="84"/>
+      <c r="EW13" s="85"/>
       <c r="EX13" s="20"/>
       <c r="EY13" s="20"/>
       <c r="FE13" s="21"/>
       <c r="FG13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="FN13" s="38"/>
       <c r="FO13" s="16"/>
@@ -5877,189 +5954,189 @@
       <c r="FQ13" s="16"/>
       <c r="FR13" s="16"/>
       <c r="FU13" s="36"/>
-      <c r="FV13" s="64"/>
-      <c r="FW13" s="64"/>
-      <c r="FX13" s="64"/>
-      <c r="FY13" s="64"/>
-      <c r="FZ13" s="64"/>
-      <c r="GA13" s="65"/>
-      <c r="GB13" s="63"/>
-      <c r="GC13" s="64"/>
-      <c r="GD13" s="64"/>
-      <c r="GE13" s="64"/>
-      <c r="GF13" s="64"/>
-      <c r="GG13" s="65"/>
+      <c r="FV13" s="70"/>
+      <c r="FW13" s="70"/>
+      <c r="FX13" s="70"/>
+      <c r="FY13" s="70"/>
+      <c r="FZ13" s="70"/>
+      <c r="GA13" s="71"/>
+      <c r="GB13" s="69"/>
+      <c r="GC13" s="70"/>
+      <c r="GD13" s="70"/>
+      <c r="GE13" s="70"/>
+      <c r="GF13" s="70"/>
+      <c r="GG13" s="71"/>
       <c r="GL13" t="s">
-        <v>162</v>
-      </c>
-      <c r="GT13" s="54"/>
-      <c r="GU13" s="55"/>
-      <c r="GV13" s="55"/>
-      <c r="GW13" s="55"/>
-      <c r="GX13" s="55"/>
-      <c r="GY13" s="55"/>
-      <c r="GZ13" s="55"/>
-      <c r="HA13" s="56"/>
-      <c r="HB13" s="54"/>
-      <c r="HC13" s="55"/>
-      <c r="HD13" s="55"/>
-      <c r="HE13" s="55"/>
-      <c r="HF13" s="55"/>
-      <c r="HG13" s="55"/>
-      <c r="HH13" s="55"/>
-      <c r="HI13" s="56"/>
-    </row>
-    <row r="14" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>155</v>
+      </c>
+      <c r="GT13" s="89"/>
+      <c r="GU13" s="84"/>
+      <c r="GV13" s="84"/>
+      <c r="GW13" s="84"/>
+      <c r="GX13" s="84"/>
+      <c r="GY13" s="84"/>
+      <c r="GZ13" s="84"/>
+      <c r="HA13" s="85"/>
+      <c r="HB13" s="89"/>
+      <c r="HC13" s="84"/>
+      <c r="HD13" s="84"/>
+      <c r="HE13" s="84"/>
+      <c r="HF13" s="84"/>
+      <c r="HG13" s="84"/>
+      <c r="HH13" s="84"/>
+      <c r="HI13" s="85"/>
+    </row>
+    <row r="14" spans="1:217" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="58"/>
-      <c r="BC14" s="58"/>
-      <c r="BD14" s="58"/>
-      <c r="BE14" s="58"/>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="57"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="58"/>
-      <c r="BM14" s="59"/>
-      <c r="BN14" s="66"/>
-      <c r="BO14" s="67"/>
-      <c r="BP14" s="67"/>
-      <c r="BQ14" s="67"/>
-      <c r="BR14" s="67"/>
-      <c r="BS14" s="67"/>
-      <c r="BT14" s="67"/>
-      <c r="BU14" s="68"/>
-      <c r="BV14" s="66"/>
-      <c r="BW14" s="67"/>
-      <c r="BX14" s="67"/>
-      <c r="BY14" s="67"/>
-      <c r="BZ14" s="67"/>
-      <c r="CA14" s="67"/>
-      <c r="CB14" s="67"/>
-      <c r="CC14" s="68"/>
-      <c r="CD14" s="66"/>
-      <c r="CE14" s="67"/>
-      <c r="CF14" s="67"/>
-      <c r="CG14" s="67"/>
-      <c r="CH14" s="67"/>
-      <c r="CI14" s="67"/>
-      <c r="CJ14" s="67"/>
-      <c r="CK14" s="68"/>
-      <c r="CL14" s="66"/>
-      <c r="CM14" s="67"/>
-      <c r="CN14" s="67"/>
-      <c r="CO14" s="67"/>
-      <c r="CP14" s="67"/>
-      <c r="CQ14" s="67"/>
-      <c r="CR14" s="67"/>
-      <c r="CS14" s="67"/>
-      <c r="CT14" s="67"/>
-      <c r="CU14" s="67"/>
-      <c r="CV14" s="67"/>
-      <c r="CW14" s="67"/>
-      <c r="CX14" s="67"/>
-      <c r="CY14" s="67"/>
-      <c r="CZ14" s="67"/>
-      <c r="DA14" s="68"/>
-      <c r="DB14" s="57"/>
-      <c r="DC14" s="58"/>
-      <c r="DD14" s="58"/>
-      <c r="DE14" s="58"/>
-      <c r="DF14" s="58"/>
-      <c r="DG14" s="58"/>
-      <c r="DH14" s="58"/>
-      <c r="DI14" s="58"/>
-      <c r="DJ14" s="58"/>
-      <c r="DK14" s="58"/>
-      <c r="DL14" s="58"/>
-      <c r="DM14" s="58"/>
-      <c r="DN14" s="58"/>
-      <c r="DO14" s="58"/>
-      <c r="DP14" s="58"/>
-      <c r="DQ14" s="59"/>
-      <c r="DR14" s="57"/>
-      <c r="DS14" s="58"/>
-      <c r="DT14" s="58"/>
-      <c r="DU14" s="58"/>
-      <c r="DV14" s="58"/>
-      <c r="DW14" s="58"/>
-      <c r="DX14" s="58"/>
-      <c r="DY14" s="58"/>
-      <c r="DZ14" s="58"/>
-      <c r="EA14" s="58"/>
-      <c r="EB14" s="58"/>
-      <c r="EC14" s="58"/>
-      <c r="ED14" s="58"/>
-      <c r="EE14" s="58"/>
-      <c r="EF14" s="58"/>
-      <c r="EG14" s="59"/>
-      <c r="EP14" s="57"/>
-      <c r="EQ14" s="58"/>
-      <c r="ER14" s="58"/>
-      <c r="ES14" s="58"/>
-      <c r="ET14" s="58"/>
-      <c r="EU14" s="58"/>
-      <c r="EV14" s="58"/>
-      <c r="EW14" s="59"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="86"/>
+      <c r="BA14" s="86"/>
+      <c r="BB14" s="86"/>
+      <c r="BC14" s="86"/>
+      <c r="BD14" s="86"/>
+      <c r="BE14" s="86"/>
+      <c r="BF14" s="86"/>
+      <c r="BG14" s="87"/>
+      <c r="BH14" s="90"/>
+      <c r="BI14" s="86"/>
+      <c r="BJ14" s="86"/>
+      <c r="BK14" s="86"/>
+      <c r="BL14" s="86"/>
+      <c r="BM14" s="87"/>
+      <c r="BN14" s="72"/>
+      <c r="BO14" s="73"/>
+      <c r="BP14" s="73"/>
+      <c r="BQ14" s="73"/>
+      <c r="BR14" s="73"/>
+      <c r="BS14" s="73"/>
+      <c r="BT14" s="73"/>
+      <c r="BU14" s="74"/>
+      <c r="BV14" s="72"/>
+      <c r="BW14" s="73"/>
+      <c r="BX14" s="73"/>
+      <c r="BY14" s="73"/>
+      <c r="BZ14" s="73"/>
+      <c r="CA14" s="73"/>
+      <c r="CB14" s="73"/>
+      <c r="CC14" s="74"/>
+      <c r="CD14" s="72"/>
+      <c r="CE14" s="73"/>
+      <c r="CF14" s="73"/>
+      <c r="CG14" s="73"/>
+      <c r="CH14" s="73"/>
+      <c r="CI14" s="73"/>
+      <c r="CJ14" s="73"/>
+      <c r="CK14" s="74"/>
+      <c r="CL14" s="72"/>
+      <c r="CM14" s="73"/>
+      <c r="CN14" s="73"/>
+      <c r="CO14" s="73"/>
+      <c r="CP14" s="73"/>
+      <c r="CQ14" s="73"/>
+      <c r="CR14" s="73"/>
+      <c r="CS14" s="73"/>
+      <c r="CT14" s="73"/>
+      <c r="CU14" s="73"/>
+      <c r="CV14" s="73"/>
+      <c r="CW14" s="73"/>
+      <c r="CX14" s="73"/>
+      <c r="CY14" s="73"/>
+      <c r="CZ14" s="73"/>
+      <c r="DA14" s="73"/>
+      <c r="DB14" s="119"/>
+      <c r="DC14" s="120"/>
+      <c r="DD14" s="120"/>
+      <c r="DE14" s="120"/>
+      <c r="DF14" s="120"/>
+      <c r="DG14" s="120"/>
+      <c r="DH14" s="120"/>
+      <c r="DI14" s="120"/>
+      <c r="DJ14" s="120"/>
+      <c r="DK14" s="120"/>
+      <c r="DL14" s="120"/>
+      <c r="DM14" s="120"/>
+      <c r="DN14" s="120"/>
+      <c r="DO14" s="120"/>
+      <c r="DP14" s="120"/>
+      <c r="DQ14" s="121"/>
+      <c r="DR14" s="86"/>
+      <c r="DS14" s="86"/>
+      <c r="DT14" s="86"/>
+      <c r="DU14" s="86"/>
+      <c r="DV14" s="86"/>
+      <c r="DW14" s="86"/>
+      <c r="DX14" s="86"/>
+      <c r="DY14" s="86"/>
+      <c r="DZ14" s="86"/>
+      <c r="EA14" s="86"/>
+      <c r="EB14" s="86"/>
+      <c r="EC14" s="86"/>
+      <c r="ED14" s="86"/>
+      <c r="EE14" s="86"/>
+      <c r="EF14" s="86"/>
+      <c r="EG14" s="87"/>
+      <c r="EP14" s="90"/>
+      <c r="EQ14" s="86"/>
+      <c r="ER14" s="86"/>
+      <c r="ES14" s="86"/>
+      <c r="ET14" s="86"/>
+      <c r="EU14" s="86"/>
+      <c r="EV14" s="86"/>
+      <c r="EW14" s="87"/>
       <c r="EX14" s="22"/>
       <c r="EY14" s="22"/>
       <c r="EZ14" s="23"/>
       <c r="FA14" s="23" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="FB14" s="23"/>
       <c r="FC14" s="23"/>
@@ -6073,49 +6150,49 @@
       <c r="FS14" s="31"/>
       <c r="FT14" s="31"/>
       <c r="FU14" s="32"/>
-      <c r="FV14" s="67"/>
-      <c r="FW14" s="67"/>
-      <c r="FX14" s="67"/>
-      <c r="FY14" s="67"/>
-      <c r="FZ14" s="67"/>
-      <c r="GA14" s="68"/>
-      <c r="GB14" s="66"/>
-      <c r="GC14" s="67"/>
-      <c r="GD14" s="67"/>
-      <c r="GE14" s="67"/>
-      <c r="GF14" s="67"/>
-      <c r="GG14" s="68"/>
+      <c r="FV14" s="73"/>
+      <c r="FW14" s="73"/>
+      <c r="FX14" s="73"/>
+      <c r="FY14" s="73"/>
+      <c r="FZ14" s="73"/>
+      <c r="GA14" s="74"/>
+      <c r="GB14" s="72"/>
+      <c r="GC14" s="73"/>
+      <c r="GD14" s="73"/>
+      <c r="GE14" s="73"/>
+      <c r="GF14" s="73"/>
+      <c r="GG14" s="74"/>
       <c r="GN14" t="s">
-        <v>197</v>
-      </c>
-      <c r="GT14" s="57"/>
-      <c r="GU14" s="58"/>
-      <c r="GV14" s="58"/>
-      <c r="GW14" s="58"/>
-      <c r="GX14" s="58"/>
-      <c r="GY14" s="58"/>
-      <c r="GZ14" s="58"/>
-      <c r="HA14" s="59"/>
-      <c r="HB14" s="57"/>
-      <c r="HC14" s="58"/>
-      <c r="HD14" s="58"/>
-      <c r="HE14" s="58"/>
-      <c r="HF14" s="58"/>
-      <c r="HG14" s="58"/>
-      <c r="HH14" s="58"/>
-      <c r="HI14" s="59"/>
+        <v>188</v>
+      </c>
+      <c r="GT14" s="90"/>
+      <c r="GU14" s="86"/>
+      <c r="GV14" s="86"/>
+      <c r="GW14" s="86"/>
+      <c r="GX14" s="86"/>
+      <c r="GY14" s="86"/>
+      <c r="GZ14" s="86"/>
+      <c r="HA14" s="87"/>
+      <c r="HB14" s="90"/>
+      <c r="HC14" s="86"/>
+      <c r="HD14" s="86"/>
+      <c r="HE14" s="86"/>
+      <c r="HF14" s="86"/>
+      <c r="HG14" s="86"/>
+      <c r="HH14" s="86"/>
+      <c r="HI14" s="87"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="AX15" s="14"/>
       <c r="CD15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="CO15">
         <v>0</v>
@@ -6127,7 +6204,7 @@
         <v>15</v>
       </c>
       <c r="DS15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="EH15" s="13"/>
       <c r="EI15" s="13"/>
@@ -6138,11 +6215,11 @@
       <c r="EN15" s="13"/>
       <c r="EO15" s="13"/>
       <c r="EY15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="FF15" s="13"/>
       <c r="FG15" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="FH15" s="13"/>
       <c r="FI15" s="13"/>
@@ -6151,7 +6228,7 @@
       <c r="FL15" s="13"/>
       <c r="FM15" s="13"/>
       <c r="FS15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="GB15" s="13"/>
       <c r="GC15" s="13"/>
@@ -6164,7 +6241,7 @@
       <c r="GJ15" s="13"/>
       <c r="GK15" s="13"/>
       <c r="GL15" s="13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="GM15" s="13"/>
       <c r="GN15" s="13"/>
@@ -6177,7 +6254,7 @@
     <row r="16" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="N16" s="29" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -6193,41 +6270,38 @@
       <c r="Z16" s="29"/>
       <c r="AA16" s="29"/>
       <c r="AB16" s="29"/>
-      <c r="CD16" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="CE16" s="50"/>
-      <c r="CF16" s="50"/>
-      <c r="CG16" s="50"/>
-      <c r="CH16" s="50"/>
-      <c r="CI16" s="50"/>
-      <c r="CJ16" s="50"/>
-      <c r="CK16" s="50"/>
+      <c r="CD16" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="CE16" s="111"/>
+      <c r="CF16" s="111"/>
+      <c r="CG16" s="111"/>
+      <c r="CH16" s="111"/>
+      <c r="CI16" s="111"/>
+      <c r="CJ16" s="111"/>
+      <c r="CK16" s="111"/>
       <c r="DE16" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="DS16" t="s">
-        <v>137</v>
-      </c>
-      <c r="EP16" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="FA16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="FG16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="FS16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -6243,42 +6317,39 @@
       <c r="Z17" s="29"/>
       <c r="AA17" s="29"/>
       <c r="AB17" s="29"/>
-      <c r="CD17" s="50"/>
-      <c r="CE17" s="50"/>
-      <c r="CF17" s="50"/>
-      <c r="CG17" s="50"/>
-      <c r="CH17" s="50"/>
-      <c r="CI17" s="50"/>
-      <c r="CJ17" s="50"/>
-      <c r="CK17" s="50"/>
+      <c r="CD17" s="111"/>
+      <c r="CE17" s="111"/>
+      <c r="CF17" s="111"/>
+      <c r="CG17" s="111"/>
+      <c r="CH17" s="111"/>
+      <c r="CI17" s="111"/>
+      <c r="CJ17" s="111"/>
+      <c r="CK17" s="111"/>
       <c r="DE17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="DN17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="EC17" t="s">
-        <v>142</v>
-      </c>
-      <c r="EP17" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="FG17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="FS17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="GV17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -6294,36 +6365,36 @@
       <c r="Z18" s="29"/>
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
-      <c r="CD18" s="50"/>
-      <c r="CE18" s="50"/>
-      <c r="CF18" s="50"/>
-      <c r="CG18" s="50"/>
-      <c r="CH18" s="50"/>
-      <c r="CI18" s="50"/>
-      <c r="CJ18" s="50"/>
-      <c r="CK18" s="50"/>
+      <c r="CD18" s="111"/>
+      <c r="CE18" s="111"/>
+      <c r="CF18" s="111"/>
+      <c r="CG18" s="111"/>
+      <c r="CH18" s="111"/>
+      <c r="CI18" s="111"/>
+      <c r="CJ18" s="111"/>
+      <c r="CK18" s="111"/>
       <c r="CL18" s="30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="CM18" s="31"/>
       <c r="CN18" s="31"/>
       <c r="CO18" s="32"/>
       <c r="DE18" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="EC18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="EY18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -6339,31 +6410,31 @@
       <c r="Z19" s="29"/>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
-      <c r="CD19" s="50"/>
-      <c r="CE19" s="50"/>
-      <c r="CF19" s="50"/>
-      <c r="CG19" s="50"/>
-      <c r="CH19" s="50"/>
-      <c r="CI19" s="50"/>
-      <c r="CJ19" s="50"/>
-      <c r="CK19" s="50"/>
+      <c r="CD19" s="111"/>
+      <c r="CE19" s="111"/>
+      <c r="CF19" s="111"/>
+      <c r="CG19" s="111"/>
+      <c r="CH19" s="111"/>
+      <c r="CI19" s="111"/>
+      <c r="CJ19" s="111"/>
+      <c r="CK19" s="111"/>
       <c r="CM19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="DE19" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="EC19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="FG19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="N20" s="29" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
@@ -6379,34 +6450,34 @@
       <c r="Z20" s="29"/>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
-      <c r="CD20" s="50"/>
-      <c r="CE20" s="50"/>
-      <c r="CF20" s="50"/>
-      <c r="CG20" s="50"/>
-      <c r="CH20" s="50"/>
-      <c r="CI20" s="50"/>
-      <c r="CJ20" s="50"/>
-      <c r="CK20" s="50"/>
+      <c r="CD20" s="111"/>
+      <c r="CE20" s="111"/>
+      <c r="CF20" s="111"/>
+      <c r="CG20" s="111"/>
+      <c r="CH20" s="111"/>
+      <c r="CI20" s="111"/>
+      <c r="CJ20" s="111"/>
+      <c r="CK20" s="111"/>
       <c r="DI20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="FG20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
@@ -6422,28 +6493,28 @@
       <c r="Z21" s="29"/>
       <c r="AA21" s="29"/>
       <c r="AB21" s="29"/>
-      <c r="CD21" s="50"/>
-      <c r="CE21" s="50"/>
-      <c r="CF21" s="50"/>
-      <c r="CG21" s="50"/>
-      <c r="CH21" s="50"/>
-      <c r="CI21" s="50"/>
-      <c r="CJ21" s="50"/>
-      <c r="CK21" s="50"/>
+      <c r="CD21" s="111"/>
+      <c r="CE21" s="111"/>
+      <c r="CF21" s="111"/>
+      <c r="CG21" s="111"/>
+      <c r="CH21" s="111"/>
+      <c r="CI21" s="111"/>
+      <c r="CJ21" s="111"/>
+      <c r="CK21" s="111"/>
       <c r="CL21" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="DR21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="EY21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="FG21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="FN21" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:204" x14ac:dyDescent="0.45">
@@ -6467,7 +6538,7 @@
         <v>5972</v>
       </c>
       <c r="N22" s="29" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
@@ -6483,22 +6554,22 @@
       <c r="Z22" s="29"/>
       <c r="AA22" s="29"/>
       <c r="AB22" s="29"/>
-      <c r="CD22" s="50"/>
-      <c r="CE22" s="50"/>
-      <c r="CF22" s="50"/>
-      <c r="CG22" s="50"/>
-      <c r="CH22" s="50"/>
-      <c r="CI22" s="50"/>
-      <c r="CJ22" s="50"/>
-      <c r="CK22" s="50"/>
+      <c r="CD22" s="111"/>
+      <c r="CE22" s="111"/>
+      <c r="CF22" s="111"/>
+      <c r="CG22" s="111"/>
+      <c r="CH22" s="111"/>
+      <c r="CI22" s="111"/>
+      <c r="CJ22" s="111"/>
+      <c r="CK22" s="111"/>
       <c r="DR22" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="FH22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="FO22" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:204" x14ac:dyDescent="0.45">
@@ -6515,7 +6586,7 @@
         <v>5973</v>
       </c>
       <c r="N23" s="29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
@@ -6531,19 +6602,19 @@
       <c r="Z23" s="29"/>
       <c r="AA23" s="29"/>
       <c r="AB23" s="29"/>
-      <c r="CD23" s="50"/>
-      <c r="CE23" s="50"/>
-      <c r="CF23" s="50"/>
-      <c r="CG23" s="50"/>
-      <c r="CH23" s="50"/>
-      <c r="CI23" s="50"/>
-      <c r="CJ23" s="50"/>
-      <c r="CK23" s="50"/>
+      <c r="CD23" s="111"/>
+      <c r="CE23" s="111"/>
+      <c r="CF23" s="111"/>
+      <c r="CG23" s="111"/>
+      <c r="CH23" s="111"/>
+      <c r="CI23" s="111"/>
+      <c r="CJ23" s="111"/>
+      <c r="CK23" s="111"/>
       <c r="DE23" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="FH23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:204" x14ac:dyDescent="0.45">
@@ -6559,19 +6630,19 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="50"/>
-      <c r="CE24" s="50"/>
-      <c r="CF24" s="50"/>
-      <c r="CG24" s="50"/>
-      <c r="CH24" s="50"/>
-      <c r="CI24" s="50"/>
-      <c r="CJ24" s="50"/>
-      <c r="CK24" s="50"/>
+      <c r="CD24" s="111"/>
+      <c r="CE24" s="111"/>
+      <c r="CF24" s="111"/>
+      <c r="CG24" s="111"/>
+      <c r="CH24" s="111"/>
+      <c r="CI24" s="111"/>
+      <c r="CJ24" s="111"/>
+      <c r="CK24" s="111"/>
       <c r="DG24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="EX24" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:204" x14ac:dyDescent="0.45">
@@ -6587,19 +6658,19 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="50"/>
-      <c r="CE25" s="50"/>
-      <c r="CF25" s="50"/>
-      <c r="CG25" s="50"/>
-      <c r="CH25" s="50"/>
-      <c r="CI25" s="50"/>
-      <c r="CJ25" s="50"/>
-      <c r="CK25" s="50"/>
+      <c r="CD25" s="111"/>
+      <c r="CE25" s="111"/>
+      <c r="CF25" s="111"/>
+      <c r="CG25" s="111"/>
+      <c r="CH25" s="111"/>
+      <c r="CI25" s="111"/>
+      <c r="CJ25" s="111"/>
+      <c r="CK25" s="111"/>
       <c r="DG25" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="EX25" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:204" x14ac:dyDescent="0.45">
@@ -6615,16 +6686,16 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="50"/>
-      <c r="CE26" s="50"/>
-      <c r="CF26" s="50"/>
-      <c r="CG26" s="50"/>
-      <c r="CH26" s="50"/>
-      <c r="CI26" s="50"/>
-      <c r="CJ26" s="50"/>
-      <c r="CK26" s="50"/>
+      <c r="CD26" s="111"/>
+      <c r="CE26" s="111"/>
+      <c r="CF26" s="111"/>
+      <c r="CG26" s="111"/>
+      <c r="CH26" s="111"/>
+      <c r="CI26" s="111"/>
+      <c r="CJ26" s="111"/>
+      <c r="CK26" s="111"/>
       <c r="DG26" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:204" x14ac:dyDescent="0.45">
@@ -6640,16 +6711,16 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="50"/>
-      <c r="CE27" s="50"/>
-      <c r="CF27" s="50"/>
-      <c r="CG27" s="50"/>
-      <c r="CH27" s="50"/>
-      <c r="CI27" s="50"/>
-      <c r="CJ27" s="50"/>
-      <c r="CK27" s="50"/>
+      <c r="CD27" s="111"/>
+      <c r="CE27" s="111"/>
+      <c r="CF27" s="111"/>
+      <c r="CG27" s="111"/>
+      <c r="CH27" s="111"/>
+      <c r="CI27" s="111"/>
+      <c r="CJ27" s="111"/>
+      <c r="CK27" s="111"/>
       <c r="DG27" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:204" x14ac:dyDescent="0.45">
@@ -6665,16 +6736,16 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="50"/>
-      <c r="CE28" s="50"/>
-      <c r="CF28" s="50"/>
-      <c r="CG28" s="50"/>
-      <c r="CH28" s="50"/>
-      <c r="CI28" s="50"/>
-      <c r="CJ28" s="50"/>
-      <c r="CK28" s="50"/>
+      <c r="CD28" s="111"/>
+      <c r="CE28" s="111"/>
+      <c r="CF28" s="111"/>
+      <c r="CG28" s="111"/>
+      <c r="CH28" s="111"/>
+      <c r="CI28" s="111"/>
+      <c r="CJ28" s="111"/>
+      <c r="CK28" s="111"/>
       <c r="EX28" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:204" x14ac:dyDescent="0.45">
@@ -6690,14 +6761,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="50"/>
-      <c r="CE29" s="50"/>
-      <c r="CF29" s="50"/>
-      <c r="CG29" s="50"/>
-      <c r="CH29" s="50"/>
-      <c r="CI29" s="50"/>
-      <c r="CJ29" s="50"/>
-      <c r="CK29" s="50"/>
+      <c r="CD29" s="111"/>
+      <c r="CE29" s="111"/>
+      <c r="CF29" s="111"/>
+      <c r="CG29" s="111"/>
+      <c r="CH29" s="111"/>
+      <c r="CI29" s="111"/>
+      <c r="CJ29" s="111"/>
+      <c r="CK29" s="111"/>
     </row>
     <row r="30" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -6713,7 +6784,7 @@
         <v>597A</v>
       </c>
       <c r="CD30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:204" x14ac:dyDescent="0.45">
@@ -6733,7 +6804,7 @@
     <row r="32" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="F32" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -6761,7 +6832,7 @@
         <v>597D</v>
       </c>
       <c r="CD33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:87" x14ac:dyDescent="0.45">
@@ -6778,7 +6849,7 @@
         <v>597E</v>
       </c>
       <c r="BN34" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.45">
@@ -6794,10 +6865,10 @@
         <v>597F</v>
       </c>
       <c r="BN35" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="CD35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.45">
@@ -6834,7 +6905,7 @@
         <v>5981</v>
       </c>
       <c r="BL37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="BM37">
         <v>243</v>
@@ -6882,13 +6953,13 @@
         <v>5983</v>
       </c>
       <c r="BL39" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="BZ39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="CE39" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="CG39">
         <v>9</v>
@@ -6911,7 +6982,7 @@
         <v>5984</v>
       </c>
       <c r="CE40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="CG40">
         <v>7</v>
@@ -7054,7 +7125,122 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="139">
+    <mergeCell ref="GX8:GY8"/>
+    <mergeCell ref="CD16:CK29"/>
+    <mergeCell ref="GT9:HA14"/>
+    <mergeCell ref="HB9:HI14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="CD9:CK14"/>
+    <mergeCell ref="CL9:DA14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
+    <mergeCell ref="FK12:FM12"/>
+    <mergeCell ref="DB10:DQ14"/>
+    <mergeCell ref="DN9:DQ9"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="B9:H14"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="DZ2:EG2"/>
+    <mergeCell ref="EH2:EO2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="BF3:BM3"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="CD3:CK3"/>
+    <mergeCell ref="CL3:CS3"/>
+    <mergeCell ref="CT3:DA3"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B1:BM1"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="FF3:FM3"/>
+    <mergeCell ref="FN3:FU3"/>
+    <mergeCell ref="FV3:GC3"/>
+    <mergeCell ref="BN1:HI1"/>
+    <mergeCell ref="DJ3:DQ3"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="DZ3:EG3"/>
+    <mergeCell ref="EH3:EO3"/>
+    <mergeCell ref="EP3:EW3"/>
+    <mergeCell ref="EX3:FE3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="EP7:EW7"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="DR7:DU7"/>
+    <mergeCell ref="FK7:FM7"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="FV7:GA7"/>
+    <mergeCell ref="FP7:FU7"/>
     <mergeCell ref="CX7:DA7"/>
     <mergeCell ref="FV4:GK4"/>
     <mergeCell ref="GH7:GK7"/>
@@ -7079,118 +7265,6 @@
     <mergeCell ref="DV7:EA7"/>
     <mergeCell ref="EB7:EG7"/>
     <mergeCell ref="EH7:EO7"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="DR7:DU7"/>
-    <mergeCell ref="FK7:FM7"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="FV7:GA7"/>
-    <mergeCell ref="FN7:FU7"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="GT2:HA2"/>
-    <mergeCell ref="HB2:HI2"/>
-    <mergeCell ref="B1:BM1"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="FF3:FM3"/>
-    <mergeCell ref="FN3:FU3"/>
-    <mergeCell ref="FV3:GC3"/>
-    <mergeCell ref="BN1:HI1"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="DZ3:EG3"/>
-    <mergeCell ref="EH3:EO3"/>
-    <mergeCell ref="EP3:EW3"/>
-    <mergeCell ref="EX3:FE3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="DZ2:EG2"/>
-    <mergeCell ref="EH2:EO2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CL2:CS2"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="BF3:BM3"/>
-    <mergeCell ref="CT2:DA2"/>
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="CD3:CK3"/>
-    <mergeCell ref="CL3:CS3"/>
-    <mergeCell ref="CT3:DA3"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="CD16:CK29"/>
-    <mergeCell ref="GT9:HA14"/>
-    <mergeCell ref="HB9:HI14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="DB9:DQ14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="CD9:CK14"/>
-    <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7212,48 +7286,48 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="104">
+        <v>213</v>
+      </c>
+      <c r="B1" s="122">
         <v>0</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="104">
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="122">
         <v>2</v>
       </c>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="106"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="124"/>
     </row>
     <row r="2" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="43">
         <v>15</v>
@@ -7354,7 +7428,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="44" t="str">
         <f>DEC2HEX(B2)</f>
@@ -7487,50 +7561,50 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
-      <c r="B4" s="111">
+      <c r="B4" s="129">
         <v>1</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111">
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129">
         <v>0</v>
       </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111">
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129">
         <v>3</v>
       </c>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111">
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129">
         <v>2</v>
       </c>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="111"/>
-      <c r="AC4" s="111"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="111"/>
-      <c r="AF4" s="111"/>
-      <c r="AG4" s="111"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
+      <c r="AG4" s="129"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B5" s="47">
         <f t="shared" ref="B5:H5" si="1">B2-8</f>
@@ -7658,110 +7732,110 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
+        <v>199</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="47" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="J6" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="107" t="s">
-        <v>204</v>
-      </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="107" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="109"/>
+        <v>197</v>
+      </c>
+      <c r="J6" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="125" t="s">
+        <v>202</v>
+      </c>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="127"/>
     </row>
     <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+        <v>207</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="33" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="J7" s="110" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="128" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110" t="s">
-        <v>221</v>
-      </c>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="128"/>
+      <c r="Y7" s="128"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC7" s="128"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="128"/>
+      <c r="AG7" s="128"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
@@ -7812,7 +7886,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C1">
         <f>HEX2DEC("2654")</f>
@@ -7821,22 +7895,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -7852,10 +7926,10 @@
         <v>2654</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7884,13 +7958,13 @@
         <v>2656</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7919,13 +7993,13 @@
         <v>2658</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -7954,7 +8028,7 @@
         <v>265A</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -7983,7 +8057,7 @@
         <v>265C</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -8012,7 +8086,7 @@
         <v>265E</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -8041,10 +8115,10 @@
         <v>2660</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -8073,7 +8147,7 @@
         <v>2662</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -8102,7 +8176,7 @@
         <v>2664</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -8131,7 +8205,7 @@
         <v>2666</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -8160,10 +8234,10 @@
         <v>2668</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -8192,7 +8266,7 @@
         <v>266A</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -8208,7 +8282,7 @@
         <v>266B</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -8224,7 +8298,7 @@
         <v>266C</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -8240,7 +8314,7 @@
         <v>266D</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -8256,7 +8330,7 @@
         <v>266E</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -8288,7 +8362,7 @@
         <v>2670</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -8317,10 +8391,10 @@
         <v>2672</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -8349,7 +8423,7 @@
         <v>2674</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -8378,7 +8452,7 @@
         <v>2676</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -8394,7 +8468,7 @@
         <v>2677</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -8423,7 +8497,7 @@
         <v>2679</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -8439,7 +8513,7 @@
         <v>267A</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C35419-3A35-4086-8A52-9A28BE15790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE9759-B540-4DF3-B298-526278502255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
   <si>
     <t>Static Object</t>
   </si>
@@ -194,10 +194,6 @@
     <t>Bit 7 is unset when projectile is launched</t>
   </si>
   <si>
-    <t>When projectile is launched the value 
-(zpos&lt;&lt;3) + 0xFh is stored here</t>
-  </si>
-  <si>
     <t>Maybe speed does not contain bit 3?</t>
   </si>
   <si>
@@ -229,10 +225,6 @@
   </si>
   <si>
     <t>Sign?</t>
-  </si>
-  <si>
-    <t>Destination for NPC
-When projectile, is the tile the projectile is in</t>
   </si>
   <si>
     <t>ProjectileHeading</t>
@@ -506,18 +498,6 @@
     <t xml:space="preserve">get that data </t>
   </si>
   <si>
-    <t>Bit 6 occassionally</t>
-  </si>
-  <si>
-    <t>Bit 7 reference a lot</t>
-  </si>
-  <si>
-    <t>1 left shifted by this value seems relevant</t>
-  </si>
-  <si>
-    <t>maybe 3 separate vals</t>
-  </si>
-  <si>
     <t>Same format as player heading.
 NPC used in study(). Possibly a power?
 Static heading &lt;&lt; 5</t>
@@ -529,15 +509,6 @@
     <t>Unk0xB_12_F appears related to animations</t>
   </si>
   <si>
-    <t>Set to attack no +3</t>
-  </si>
-  <si>
-    <t>in seg007_17A2_C08:</t>
-  </si>
-  <si>
-    <t>(attack no is from criiter data probabilities)</t>
-  </si>
-  <si>
     <t>seg007_17A2 uses npc_level to "reset" gtarg and goal?</t>
   </si>
   <si>
@@ -547,15 +518,9 @@
     <t>Does this mean the npc has magic or a specia defence.</t>
   </si>
   <si>
-    <t>animation is the animation index from the animation associations</t>
-  </si>
-  <si>
     <t>Unk0x15_7_80</t>
   </si>
   <si>
-    <t>still need to confirm the link to mr jaws</t>
-  </si>
-  <si>
     <t>unk0f_c_f appears to be a lookup index into a table of values</t>
   </si>
   <si>
@@ -608,9 +573,6 @@
   </si>
   <si>
     <t>Bit 8 set when object created by createobject trap</t>
-  </si>
-  <si>
-    <t>bit 5 referenced. Cleared during NPCRaceProcessing</t>
   </si>
   <si>
     <t>Does npc_hunger mean the npc is aware of the player and wants to eat them (ie become hostile)</t>
@@ -711,20 +673,11 @@
   </si>
   <si>
     <t>Animation Frame</t>
-  </si>
-  <si>
-    <t>bit 7 is unset when projectile is launched
-bit 7 might mean the npc is in combat?
-For npcs this value is relevant in Study monstor. When whoamis is 64h this value is used
-When the avatar is killed the bit 7 is used to check if the avatar has to go to jail in the castle</t>
   </si>
   <si>
     <t>When a projectile is launched this value contains the index of the npc that threw it
 For player object is the item id of the last creature to hit the player? 
 For NPCs the last character to hit the NPC (usually the avatar)</t>
-  </si>
-  <si>
-    <t>Used in relation to checking HP before fleeing in combat</t>
   </si>
   <si>
     <t>Tracks world Y co-ordinate of a projectile
@@ -733,13 +686,107 @@
 When spawning an NPC bit 9 sets hp to  (npc_hp+critter hp)/2</t>
   </si>
   <si>
+    <t>Unk0xF_C_F appears related the the swing type of an attacking NPC</t>
+  </si>
+  <si>
+    <t>When projectile is launched the value  (zpos&lt;&lt;3) + 0xFh is stored here</t>
+  </si>
+  <si>
+    <t>Provides additional precision to the static heading in byte 2</t>
+  </si>
+  <si>
+    <t>eg when wandering does character stop or start moving?</t>
+  </si>
+  <si>
+    <t>TargetFloorHeight - zpos the NPC wants to go to gets compared to a Floorheight Param to see if npc is at a target tile</t>
+  </si>
+  <si>
+    <t>TargetTileY - tile the NPC wants to go to
+gets compared to a TileY Param to see if npc is at a target tile</t>
+  </si>
+  <si>
+    <t>TargetTileX - tile the NPC wants to go to
+ gets compared to a TileX Param to see if npc is at a target tile</t>
+  </si>
+  <si>
+    <t>bits 5, 6 and 7 are AI flags to determine what moves a NPC 
+needs to take depending on their AI goal</t>
+  </si>
+  <si>
+    <t>If set the NPC needs to move to a target?</t>
+  </si>
+  <si>
+    <t>Referenced in npcgoto
+Value used as a lookup
+into a table in Seg57,
+Record size 0x1Ch (28d)
+relationship to bit 7 in 0x15h</t>
+  </si>
+  <si>
+    <t>Used in relation to checking HP before fleeing in combat
+also a tileY reference?</t>
+  </si>
+  <si>
+    <t>Home Y for NPC
+When projectile, is the tile the projectile is in</t>
+  </si>
+  <si>
+    <t>Home X for NPC
+When projectile, is the tile the projectile is in</t>
+  </si>
+  <si>
+    <t>Light level flag
+Use lighting palette from dl.dat</t>
+  </si>
+  <si>
+    <t>In npcwanderupate() this gets set to bit 7 from 0x15 || critter data[0xB]</t>
+  </si>
+  <si>
+    <t>for NPCs bits 3,4,5,6,7 define the attack being executed,
+Slash,stab,bash, missile or magic (values to be confirmed)</t>
+  </si>
+  <si>
     <t>When standing still with an attitude of 0 an attempt will be made to detect the player. If found set bit 0 and set attack goals
 Bit 0 indicates that the npc is aware of the avatar's position, use in combat to chase the avatar
-Bit 1 is somehow connect to bit 0 behaviours.
-Bits 2 &amp; 3 related to magic attackers - maybe set when a magic attack is possible?
+Bit 1 is somehow connect to bit 0 behaviours, maybe used to indicate npc should turn towards target
+Bits 2 &amp; 3 when &lt;&gt; 0 the npc will execute a magic attack when it's animation is a ranged attack, value is alookup into critter data at 0x2Ah (bytes 2Ah to 2Ch) to get spell effect id to use. Value of lookup is based on RNG call in NpcStartMagicAttack()
+Bit 4 referenced in NpcFlee(),
+Bit 5   set when unable to do a magic attack
+Bit 6 - related to checking has the avatar struck the npc with a weapon? If unset npc in combat with avatar. if set npc in combat with last npc to damage them?? Impacts npc_attitude in conversations.
+Bit 7 can be set after a conversation
+Bits 6 and 7 randomly set in a subfunction of player updates()!!!
 Bit 6 and 7 stop npcs from hurting each other in combat when they are the same? 
 Bit 6 checked after the avatar hits an npc
 Possibly a series of bit fields representing combat and AI decisions</t>
+  </si>
+  <si>
+    <t>Bits 6 &amp; 7 set when NPC based on npc active state
+Bit 6 might have something to do with the need to move to a location
+If Bit 7 is set then the unk value in 0x16 is used for an unknown reason</t>
+  </si>
+  <si>
+    <t>Bit 2 is set when NPC is dying</t>
+  </si>
+  <si>
+    <t>bit 7 is unset when projectile is launched
+bit 7 might mean the npc is in combat?
+For npcs this value is relevant in Study monstor. When whoamis is 64h this value is used
+When the avatar is killed the bit 7 is used to check if the avatar has to go to jail in the castle
+bit 7 checked in set_Race_attitude
+DOES IT MEAN OBJECT IS AN NPC???? not sure since bit 7 is unset after a missile hits it target
+possibly a tileY reference used closely with projectilesourceID value</t>
+  </si>
+  <si>
+    <t>Defines the NPCs animation to play</t>
+  </si>
+  <si>
+    <t>in npcgoto() critter value can be[0xB] or[0xC]</t>
+  </si>
+  <si>
+    <t>In attacks maybe the detail or spell for the attack being execute</t>
+  </si>
+  <si>
+    <t>Bits 0-6 cleared at start of ranged attack</t>
   </si>
 </sst>
 </file>
@@ -829,7 +876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1221,17 +1268,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1290,6 +1326,54 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1298,7 +1382,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1320,9 +1404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1337,37 +1418,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,11 +1446,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1394,193 +1605,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1605,10 +1692,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1919,7 +2025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1930,10 +2036,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="CH9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="EL9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="GT15" sqref="GT15"/>
+      <selection pane="bottomRight" activeCell="EY14" sqref="EY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1957,1081 +2063,1083 @@
     <col min="112" max="113" width="1.86328125" bestFit="1" customWidth="1"/>
     <col min="162" max="168" width="7.265625" customWidth="1"/>
     <col min="169" max="169" width="9.73046875" customWidth="1"/>
+    <col min="196" max="196" width="14.6640625" customWidth="1"/>
+    <col min="202" max="209" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="60"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="59" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="90"/>
+      <c r="BN1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="60"/>
-      <c r="BP1" s="60"/>
-      <c r="BQ1" s="60"/>
-      <c r="BR1" s="60"/>
-      <c r="BS1" s="60"/>
-      <c r="BT1" s="60"/>
-      <c r="BU1" s="60"/>
-      <c r="BV1" s="60"/>
-      <c r="BW1" s="60"/>
-      <c r="BX1" s="60"/>
-      <c r="BY1" s="60"/>
-      <c r="BZ1" s="60"/>
-      <c r="CA1" s="60"/>
-      <c r="CB1" s="60"/>
-      <c r="CC1" s="60"/>
-      <c r="CD1" s="60"/>
-      <c r="CE1" s="60"/>
-      <c r="CF1" s="60"/>
-      <c r="CG1" s="60"/>
-      <c r="CH1" s="60"/>
-      <c r="CI1" s="60"/>
-      <c r="CJ1" s="60"/>
-      <c r="CK1" s="60"/>
-      <c r="CL1" s="60"/>
-      <c r="CM1" s="60"/>
-      <c r="CN1" s="60"/>
-      <c r="CO1" s="60"/>
-      <c r="CP1" s="60"/>
-      <c r="CQ1" s="60"/>
-      <c r="CR1" s="60"/>
-      <c r="CS1" s="60"/>
-      <c r="CT1" s="60"/>
-      <c r="CU1" s="60"/>
-      <c r="CV1" s="60"/>
-      <c r="CW1" s="60"/>
-      <c r="CX1" s="60"/>
-      <c r="CY1" s="60"/>
-      <c r="CZ1" s="60"/>
-      <c r="DA1" s="60"/>
-      <c r="DB1" s="60"/>
-      <c r="DC1" s="60"/>
-      <c r="DD1" s="60"/>
-      <c r="DE1" s="60"/>
-      <c r="DF1" s="60"/>
-      <c r="DG1" s="60"/>
-      <c r="DH1" s="60"/>
-      <c r="DI1" s="60"/>
-      <c r="DJ1" s="60"/>
-      <c r="DK1" s="60"/>
-      <c r="DL1" s="60"/>
-      <c r="DM1" s="60"/>
-      <c r="DN1" s="60"/>
-      <c r="DO1" s="60"/>
-      <c r="DP1" s="60"/>
-      <c r="DQ1" s="60"/>
-      <c r="DR1" s="60"/>
-      <c r="DS1" s="60"/>
-      <c r="DT1" s="60"/>
-      <c r="DU1" s="60"/>
-      <c r="DV1" s="60"/>
-      <c r="DW1" s="60"/>
-      <c r="DX1" s="60"/>
-      <c r="DY1" s="60"/>
-      <c r="DZ1" s="60"/>
-      <c r="EA1" s="60"/>
-      <c r="EB1" s="60"/>
-      <c r="EC1" s="60"/>
-      <c r="ED1" s="60"/>
-      <c r="EE1" s="60"/>
-      <c r="EF1" s="60"/>
-      <c r="EG1" s="60"/>
-      <c r="EH1" s="60"/>
-      <c r="EI1" s="60"/>
-      <c r="EJ1" s="60"/>
-      <c r="EK1" s="60"/>
-      <c r="EL1" s="60"/>
-      <c r="EM1" s="60"/>
-      <c r="EN1" s="60"/>
-      <c r="EO1" s="60"/>
-      <c r="EP1" s="60"/>
-      <c r="EQ1" s="60"/>
-      <c r="ER1" s="60"/>
-      <c r="ES1" s="60"/>
-      <c r="ET1" s="60"/>
-      <c r="EU1" s="60"/>
-      <c r="EV1" s="60"/>
-      <c r="EW1" s="60"/>
-      <c r="EX1" s="60"/>
-      <c r="EY1" s="60"/>
-      <c r="EZ1" s="60"/>
-      <c r="FA1" s="60"/>
-      <c r="FB1" s="60"/>
-      <c r="FC1" s="60"/>
-      <c r="FD1" s="60"/>
-      <c r="FE1" s="60"/>
-      <c r="FF1" s="60"/>
-      <c r="FG1" s="60"/>
-      <c r="FH1" s="60"/>
-      <c r="FI1" s="60"/>
-      <c r="FJ1" s="60"/>
-      <c r="FK1" s="60"/>
-      <c r="FL1" s="60"/>
-      <c r="FM1" s="60"/>
-      <c r="FN1" s="60"/>
-      <c r="FO1" s="60"/>
-      <c r="FP1" s="60"/>
-      <c r="FQ1" s="60"/>
-      <c r="FR1" s="60"/>
-      <c r="FS1" s="60"/>
-      <c r="FT1" s="60"/>
-      <c r="FU1" s="60"/>
-      <c r="FV1" s="60"/>
-      <c r="FW1" s="60"/>
-      <c r="FX1" s="60"/>
-      <c r="FY1" s="60"/>
-      <c r="FZ1" s="60"/>
-      <c r="GA1" s="60"/>
-      <c r="GB1" s="60"/>
-      <c r="GC1" s="60"/>
-      <c r="GD1" s="60"/>
-      <c r="GE1" s="60"/>
-      <c r="GF1" s="60"/>
-      <c r="GG1" s="60"/>
-      <c r="GH1" s="60"/>
-      <c r="GI1" s="60"/>
-      <c r="GJ1" s="60"/>
-      <c r="GK1" s="60"/>
-      <c r="GL1" s="60"/>
-      <c r="GM1" s="60"/>
-      <c r="GN1" s="60"/>
-      <c r="GO1" s="60"/>
-      <c r="GP1" s="60"/>
-      <c r="GQ1" s="60"/>
-      <c r="GR1" s="60"/>
-      <c r="GS1" s="60"/>
-      <c r="GT1" s="60"/>
-      <c r="GU1" s="60"/>
-      <c r="GV1" s="60"/>
-      <c r="GW1" s="60"/>
-      <c r="GX1" s="60"/>
-      <c r="GY1" s="60"/>
-      <c r="GZ1" s="60"/>
-      <c r="HA1" s="60"/>
-      <c r="HB1" s="60"/>
-      <c r="HC1" s="60"/>
-      <c r="HD1" s="60"/>
-      <c r="HE1" s="60"/>
-      <c r="HF1" s="60"/>
-      <c r="HG1" s="60"/>
-      <c r="HH1" s="60"/>
-      <c r="HI1" s="60"/>
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="89"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
+      <c r="BT1" s="89"/>
+      <c r="BU1" s="89"/>
+      <c r="BV1" s="89"/>
+      <c r="BW1" s="89"/>
+      <c r="BX1" s="89"/>
+      <c r="BY1" s="89"/>
+      <c r="BZ1" s="89"/>
+      <c r="CA1" s="89"/>
+      <c r="CB1" s="89"/>
+      <c r="CC1" s="89"/>
+      <c r="CD1" s="89"/>
+      <c r="CE1" s="89"/>
+      <c r="CF1" s="89"/>
+      <c r="CG1" s="89"/>
+      <c r="CH1" s="89"/>
+      <c r="CI1" s="89"/>
+      <c r="CJ1" s="89"/>
+      <c r="CK1" s="89"/>
+      <c r="CL1" s="89"/>
+      <c r="CM1" s="89"/>
+      <c r="CN1" s="89"/>
+      <c r="CO1" s="89"/>
+      <c r="CP1" s="89"/>
+      <c r="CQ1" s="89"/>
+      <c r="CR1" s="89"/>
+      <c r="CS1" s="89"/>
+      <c r="CT1" s="89"/>
+      <c r="CU1" s="89"/>
+      <c r="CV1" s="89"/>
+      <c r="CW1" s="89"/>
+      <c r="CX1" s="89"/>
+      <c r="CY1" s="89"/>
+      <c r="CZ1" s="89"/>
+      <c r="DA1" s="89"/>
+      <c r="DB1" s="89"/>
+      <c r="DC1" s="89"/>
+      <c r="DD1" s="89"/>
+      <c r="DE1" s="89"/>
+      <c r="DF1" s="89"/>
+      <c r="DG1" s="89"/>
+      <c r="DH1" s="89"/>
+      <c r="DI1" s="89"/>
+      <c r="DJ1" s="89"/>
+      <c r="DK1" s="89"/>
+      <c r="DL1" s="89"/>
+      <c r="DM1" s="89"/>
+      <c r="DN1" s="89"/>
+      <c r="DO1" s="89"/>
+      <c r="DP1" s="89"/>
+      <c r="DQ1" s="89"/>
+      <c r="DR1" s="89"/>
+      <c r="DS1" s="89"/>
+      <c r="DT1" s="89"/>
+      <c r="DU1" s="89"/>
+      <c r="DV1" s="89"/>
+      <c r="DW1" s="89"/>
+      <c r="DX1" s="89"/>
+      <c r="DY1" s="89"/>
+      <c r="DZ1" s="89"/>
+      <c r="EA1" s="89"/>
+      <c r="EB1" s="89"/>
+      <c r="EC1" s="89"/>
+      <c r="ED1" s="89"/>
+      <c r="EE1" s="89"/>
+      <c r="EF1" s="89"/>
+      <c r="EG1" s="89"/>
+      <c r="EH1" s="89"/>
+      <c r="EI1" s="89"/>
+      <c r="EJ1" s="89"/>
+      <c r="EK1" s="89"/>
+      <c r="EL1" s="89"/>
+      <c r="EM1" s="89"/>
+      <c r="EN1" s="89"/>
+      <c r="EO1" s="89"/>
+      <c r="EP1" s="89"/>
+      <c r="EQ1" s="89"/>
+      <c r="ER1" s="89"/>
+      <c r="ES1" s="89"/>
+      <c r="ET1" s="89"/>
+      <c r="EU1" s="89"/>
+      <c r="EV1" s="89"/>
+      <c r="EW1" s="89"/>
+      <c r="EX1" s="89"/>
+      <c r="EY1" s="89"/>
+      <c r="EZ1" s="89"/>
+      <c r="FA1" s="89"/>
+      <c r="FB1" s="89"/>
+      <c r="FC1" s="89"/>
+      <c r="FD1" s="89"/>
+      <c r="FE1" s="89"/>
+      <c r="FF1" s="89"/>
+      <c r="FG1" s="89"/>
+      <c r="FH1" s="89"/>
+      <c r="FI1" s="89"/>
+      <c r="FJ1" s="89"/>
+      <c r="FK1" s="89"/>
+      <c r="FL1" s="89"/>
+      <c r="FM1" s="89"/>
+      <c r="FN1" s="89"/>
+      <c r="FO1" s="89"/>
+      <c r="FP1" s="89"/>
+      <c r="FQ1" s="89"/>
+      <c r="FR1" s="89"/>
+      <c r="FS1" s="89"/>
+      <c r="FT1" s="89"/>
+      <c r="FU1" s="89"/>
+      <c r="FV1" s="89"/>
+      <c r="FW1" s="89"/>
+      <c r="FX1" s="89"/>
+      <c r="FY1" s="89"/>
+      <c r="FZ1" s="89"/>
+      <c r="GA1" s="89"/>
+      <c r="GB1" s="89"/>
+      <c r="GC1" s="89"/>
+      <c r="GD1" s="89"/>
+      <c r="GE1" s="89"/>
+      <c r="GF1" s="89"/>
+      <c r="GG1" s="89"/>
+      <c r="GH1" s="89"/>
+      <c r="GI1" s="89"/>
+      <c r="GJ1" s="89"/>
+      <c r="GK1" s="89"/>
+      <c r="GL1" s="89"/>
+      <c r="GM1" s="89"/>
+      <c r="GN1" s="89"/>
+      <c r="GO1" s="89"/>
+      <c r="GP1" s="89"/>
+      <c r="GQ1" s="89"/>
+      <c r="GR1" s="89"/>
+      <c r="GS1" s="89"/>
+      <c r="GT1" s="89"/>
+      <c r="GU1" s="89"/>
+      <c r="GV1" s="89"/>
+      <c r="GW1" s="89"/>
+      <c r="GX1" s="89"/>
+      <c r="GY1" s="89"/>
+      <c r="GZ1" s="89"/>
+      <c r="HA1" s="89"/>
+      <c r="HB1" s="89"/>
+      <c r="HC1" s="89"/>
+      <c r="HD1" s="89"/>
+      <c r="HE1" s="89"/>
+      <c r="HF1" s="89"/>
+      <c r="HG1" s="89"/>
+      <c r="HH1" s="89"/>
+      <c r="HI1" s="89"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="88">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="59">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="88">
         <v>1</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="59">
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="88">
         <v>2</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="59">
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="88">
         <v>3</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="59">
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="88">
         <v>4</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="59">
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="88">
         <v>5</v>
       </c>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="59">
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="88">
         <v>6</v>
       </c>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="59">
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="90"/>
+      <c r="BF2" s="88">
         <v>7</v>
       </c>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="61"/>
-      <c r="BN2" s="59">
+      <c r="BG2" s="89"/>
+      <c r="BH2" s="89"/>
+      <c r="BI2" s="89"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="90"/>
+      <c r="BN2" s="88">
         <v>8</v>
       </c>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="59">
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="89"/>
+      <c r="BR2" s="89"/>
+      <c r="BS2" s="89"/>
+      <c r="BT2" s="89"/>
+      <c r="BU2" s="90"/>
+      <c r="BV2" s="88">
         <v>9</v>
       </c>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BY2" s="60"/>
-      <c r="BZ2" s="60"/>
-      <c r="CA2" s="60"/>
-      <c r="CB2" s="60"/>
-      <c r="CC2" s="61"/>
-      <c r="CD2" s="59">
+      <c r="BW2" s="89"/>
+      <c r="BX2" s="89"/>
+      <c r="BY2" s="89"/>
+      <c r="BZ2" s="89"/>
+      <c r="CA2" s="89"/>
+      <c r="CB2" s="89"/>
+      <c r="CC2" s="90"/>
+      <c r="CD2" s="88">
         <v>10</v>
       </c>
-      <c r="CE2" s="60"/>
-      <c r="CF2" s="60"/>
-      <c r="CG2" s="60"/>
-      <c r="CH2" s="60"/>
-      <c r="CI2" s="60"/>
-      <c r="CJ2" s="60"/>
-      <c r="CK2" s="61"/>
-      <c r="CL2" s="59">
+      <c r="CE2" s="89"/>
+      <c r="CF2" s="89"/>
+      <c r="CG2" s="89"/>
+      <c r="CH2" s="89"/>
+      <c r="CI2" s="89"/>
+      <c r="CJ2" s="89"/>
+      <c r="CK2" s="90"/>
+      <c r="CL2" s="88">
         <v>11</v>
       </c>
-      <c r="CM2" s="60"/>
-      <c r="CN2" s="60"/>
-      <c r="CO2" s="60"/>
-      <c r="CP2" s="60"/>
-      <c r="CQ2" s="60"/>
-      <c r="CR2" s="60"/>
-      <c r="CS2" s="61"/>
-      <c r="CT2" s="59">
+      <c r="CM2" s="89"/>
+      <c r="CN2" s="89"/>
+      <c r="CO2" s="89"/>
+      <c r="CP2" s="89"/>
+      <c r="CQ2" s="89"/>
+      <c r="CR2" s="89"/>
+      <c r="CS2" s="90"/>
+      <c r="CT2" s="88">
         <v>12</v>
       </c>
-      <c r="CU2" s="60"/>
-      <c r="CV2" s="60"/>
-      <c r="CW2" s="60"/>
-      <c r="CX2" s="60"/>
-      <c r="CY2" s="60"/>
-      <c r="CZ2" s="60"/>
-      <c r="DA2" s="61"/>
-      <c r="DB2" s="59">
+      <c r="CU2" s="89"/>
+      <c r="CV2" s="89"/>
+      <c r="CW2" s="89"/>
+      <c r="CX2" s="89"/>
+      <c r="CY2" s="89"/>
+      <c r="CZ2" s="89"/>
+      <c r="DA2" s="90"/>
+      <c r="DB2" s="88">
         <v>13</v>
       </c>
-      <c r="DC2" s="60"/>
-      <c r="DD2" s="60"/>
-      <c r="DE2" s="60"/>
-      <c r="DF2" s="60"/>
-      <c r="DG2" s="60"/>
-      <c r="DH2" s="60"/>
-      <c r="DI2" s="61"/>
-      <c r="DJ2" s="59">
+      <c r="DC2" s="89"/>
+      <c r="DD2" s="89"/>
+      <c r="DE2" s="89"/>
+      <c r="DF2" s="89"/>
+      <c r="DG2" s="89"/>
+      <c r="DH2" s="89"/>
+      <c r="DI2" s="90"/>
+      <c r="DJ2" s="88">
         <v>14</v>
       </c>
-      <c r="DK2" s="60"/>
-      <c r="DL2" s="60"/>
-      <c r="DM2" s="60"/>
-      <c r="DN2" s="60"/>
-      <c r="DO2" s="60"/>
-      <c r="DP2" s="60"/>
-      <c r="DQ2" s="61"/>
-      <c r="DR2" s="59">
+      <c r="DK2" s="89"/>
+      <c r="DL2" s="89"/>
+      <c r="DM2" s="89"/>
+      <c r="DN2" s="89"/>
+      <c r="DO2" s="89"/>
+      <c r="DP2" s="89"/>
+      <c r="DQ2" s="90"/>
+      <c r="DR2" s="88">
         <v>15</v>
       </c>
-      <c r="DS2" s="60"/>
-      <c r="DT2" s="60"/>
-      <c r="DU2" s="60"/>
-      <c r="DV2" s="60"/>
-      <c r="DW2" s="60"/>
-      <c r="DX2" s="60"/>
-      <c r="DY2" s="61"/>
-      <c r="DZ2" s="59">
+      <c r="DS2" s="89"/>
+      <c r="DT2" s="89"/>
+      <c r="DU2" s="89"/>
+      <c r="DV2" s="89"/>
+      <c r="DW2" s="89"/>
+      <c r="DX2" s="89"/>
+      <c r="DY2" s="90"/>
+      <c r="DZ2" s="88">
         <v>16</v>
       </c>
-      <c r="EA2" s="60"/>
-      <c r="EB2" s="60"/>
-      <c r="EC2" s="60"/>
-      <c r="ED2" s="60"/>
-      <c r="EE2" s="60"/>
-      <c r="EF2" s="60"/>
-      <c r="EG2" s="61"/>
-      <c r="EH2" s="59">
+      <c r="EA2" s="89"/>
+      <c r="EB2" s="89"/>
+      <c r="EC2" s="89"/>
+      <c r="ED2" s="89"/>
+      <c r="EE2" s="89"/>
+      <c r="EF2" s="89"/>
+      <c r="EG2" s="90"/>
+      <c r="EH2" s="88">
         <v>17</v>
       </c>
-      <c r="EI2" s="60"/>
-      <c r="EJ2" s="60"/>
-      <c r="EK2" s="60"/>
-      <c r="EL2" s="60"/>
-      <c r="EM2" s="60"/>
-      <c r="EN2" s="60"/>
-      <c r="EO2" s="61"/>
-      <c r="EP2" s="59">
+      <c r="EI2" s="89"/>
+      <c r="EJ2" s="89"/>
+      <c r="EK2" s="89"/>
+      <c r="EL2" s="89"/>
+      <c r="EM2" s="89"/>
+      <c r="EN2" s="89"/>
+      <c r="EO2" s="90"/>
+      <c r="EP2" s="88">
         <v>18</v>
       </c>
-      <c r="EQ2" s="60"/>
-      <c r="ER2" s="60"/>
-      <c r="ES2" s="60"/>
-      <c r="ET2" s="60"/>
-      <c r="EU2" s="60"/>
-      <c r="EV2" s="60"/>
-      <c r="EW2" s="61"/>
-      <c r="EX2" s="59">
+      <c r="EQ2" s="89"/>
+      <c r="ER2" s="89"/>
+      <c r="ES2" s="89"/>
+      <c r="ET2" s="89"/>
+      <c r="EU2" s="89"/>
+      <c r="EV2" s="89"/>
+      <c r="EW2" s="90"/>
+      <c r="EX2" s="88">
         <v>19</v>
       </c>
-      <c r="EY2" s="60"/>
-      <c r="EZ2" s="60"/>
-      <c r="FA2" s="60"/>
-      <c r="FB2" s="60"/>
-      <c r="FC2" s="60"/>
-      <c r="FD2" s="60"/>
-      <c r="FE2" s="61"/>
-      <c r="FF2" s="59">
+      <c r="EY2" s="89"/>
+      <c r="EZ2" s="89"/>
+      <c r="FA2" s="89"/>
+      <c r="FB2" s="89"/>
+      <c r="FC2" s="89"/>
+      <c r="FD2" s="89"/>
+      <c r="FE2" s="90"/>
+      <c r="FF2" s="88">
         <v>20</v>
       </c>
-      <c r="FG2" s="60"/>
-      <c r="FH2" s="60"/>
-      <c r="FI2" s="60"/>
-      <c r="FJ2" s="60"/>
-      <c r="FK2" s="60"/>
-      <c r="FL2" s="60"/>
-      <c r="FM2" s="61"/>
-      <c r="FN2" s="59">
+      <c r="FG2" s="89"/>
+      <c r="FH2" s="89"/>
+      <c r="FI2" s="89"/>
+      <c r="FJ2" s="89"/>
+      <c r="FK2" s="89"/>
+      <c r="FL2" s="89"/>
+      <c r="FM2" s="90"/>
+      <c r="FN2" s="88">
         <v>21</v>
       </c>
-      <c r="FO2" s="60"/>
-      <c r="FP2" s="60"/>
-      <c r="FQ2" s="60"/>
-      <c r="FR2" s="60"/>
-      <c r="FS2" s="60"/>
-      <c r="FT2" s="60"/>
-      <c r="FU2" s="61"/>
-      <c r="FV2" s="59">
+      <c r="FO2" s="89"/>
+      <c r="FP2" s="89"/>
+      <c r="FQ2" s="89"/>
+      <c r="FR2" s="89"/>
+      <c r="FS2" s="89"/>
+      <c r="FT2" s="89"/>
+      <c r="FU2" s="90"/>
+      <c r="FV2" s="88">
         <v>22</v>
       </c>
-      <c r="FW2" s="60"/>
-      <c r="FX2" s="60"/>
-      <c r="FY2" s="60"/>
-      <c r="FZ2" s="60"/>
-      <c r="GA2" s="60"/>
-      <c r="GB2" s="60"/>
-      <c r="GC2" s="61"/>
-      <c r="GD2" s="59">
+      <c r="FW2" s="89"/>
+      <c r="FX2" s="89"/>
+      <c r="FY2" s="89"/>
+      <c r="FZ2" s="89"/>
+      <c r="GA2" s="89"/>
+      <c r="GB2" s="89"/>
+      <c r="GC2" s="90"/>
+      <c r="GD2" s="88">
         <v>23</v>
       </c>
-      <c r="GE2" s="60"/>
-      <c r="GF2" s="60"/>
-      <c r="GG2" s="60"/>
-      <c r="GH2" s="60"/>
-      <c r="GI2" s="60"/>
-      <c r="GJ2" s="60"/>
-      <c r="GK2" s="61"/>
-      <c r="GL2" s="59">
+      <c r="GE2" s="89"/>
+      <c r="GF2" s="89"/>
+      <c r="GG2" s="89"/>
+      <c r="GH2" s="89"/>
+      <c r="GI2" s="89"/>
+      <c r="GJ2" s="89"/>
+      <c r="GK2" s="90"/>
+      <c r="GL2" s="88">
         <v>24</v>
       </c>
-      <c r="GM2" s="60"/>
-      <c r="GN2" s="60"/>
-      <c r="GO2" s="60"/>
-      <c r="GP2" s="60"/>
-      <c r="GQ2" s="60"/>
-      <c r="GR2" s="60"/>
-      <c r="GS2" s="61"/>
-      <c r="GT2" s="59">
+      <c r="GM2" s="89"/>
+      <c r="GN2" s="89"/>
+      <c r="GO2" s="89"/>
+      <c r="GP2" s="89"/>
+      <c r="GQ2" s="89"/>
+      <c r="GR2" s="89"/>
+      <c r="GS2" s="90"/>
+      <c r="GT2" s="88">
         <v>25</v>
       </c>
-      <c r="GU2" s="60"/>
-      <c r="GV2" s="60"/>
-      <c r="GW2" s="60"/>
-      <c r="GX2" s="60"/>
-      <c r="GY2" s="60"/>
-      <c r="GZ2" s="60"/>
-      <c r="HA2" s="61"/>
-      <c r="HB2" s="59">
+      <c r="GU2" s="89"/>
+      <c r="GV2" s="89"/>
+      <c r="GW2" s="89"/>
+      <c r="GX2" s="89"/>
+      <c r="GY2" s="89"/>
+      <c r="GZ2" s="89"/>
+      <c r="HA2" s="90"/>
+      <c r="HB2" s="88">
         <v>26</v>
       </c>
-      <c r="HC2" s="60"/>
-      <c r="HD2" s="60"/>
-      <c r="HE2" s="60"/>
-      <c r="HF2" s="60"/>
-      <c r="HG2" s="60"/>
-      <c r="HH2" s="60"/>
-      <c r="HI2" s="61"/>
+      <c r="HC2" s="89"/>
+      <c r="HD2" s="89"/>
+      <c r="HE2" s="89"/>
+      <c r="HF2" s="89"/>
+      <c r="HG2" s="89"/>
+      <c r="HH2" s="89"/>
+      <c r="HI2" s="90"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="88" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="59" t="str">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="88" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="59" t="str">
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="88" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="59" t="str">
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="88" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="59" t="str">
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="88" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="59" t="str">
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="88" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="59" t="str">
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="90"/>
+      <c r="AX3" s="88" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="59" t="str">
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="89"/>
+      <c r="BA3" s="89"/>
+      <c r="BB3" s="89"/>
+      <c r="BC3" s="89"/>
+      <c r="BD3" s="89"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="88" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="59" t="str">
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="89"/>
+      <c r="BI3" s="89"/>
+      <c r="BJ3" s="89"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="90"/>
+      <c r="BN3" s="88" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
-      <c r="BR3" s="60"/>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="60"/>
-      <c r="BU3" s="61"/>
-      <c r="BV3" s="59" t="str">
+      <c r="BO3" s="89"/>
+      <c r="BP3" s="89"/>
+      <c r="BQ3" s="89"/>
+      <c r="BR3" s="89"/>
+      <c r="BS3" s="89"/>
+      <c r="BT3" s="89"/>
+      <c r="BU3" s="90"/>
+      <c r="BV3" s="88" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="60"/>
-      <c r="BX3" s="60"/>
-      <c r="BY3" s="60"/>
-      <c r="BZ3" s="60"/>
-      <c r="CA3" s="60"/>
-      <c r="CB3" s="60"/>
-      <c r="CC3" s="61"/>
-      <c r="CD3" s="59" t="str">
+      <c r="BW3" s="89"/>
+      <c r="BX3" s="89"/>
+      <c r="BY3" s="89"/>
+      <c r="BZ3" s="89"/>
+      <c r="CA3" s="89"/>
+      <c r="CB3" s="89"/>
+      <c r="CC3" s="90"/>
+      <c r="CD3" s="88" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="60"/>
-      <c r="CF3" s="60"/>
-      <c r="CG3" s="60"/>
-      <c r="CH3" s="60"/>
-      <c r="CI3" s="60"/>
-      <c r="CJ3" s="60"/>
-      <c r="CK3" s="61"/>
-      <c r="CL3" s="59" t="str">
+      <c r="CE3" s="89"/>
+      <c r="CF3" s="89"/>
+      <c r="CG3" s="89"/>
+      <c r="CH3" s="89"/>
+      <c r="CI3" s="89"/>
+      <c r="CJ3" s="89"/>
+      <c r="CK3" s="90"/>
+      <c r="CL3" s="88" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="60"/>
-      <c r="CN3" s="60"/>
-      <c r="CO3" s="60"/>
-      <c r="CP3" s="60"/>
-      <c r="CQ3" s="60"/>
-      <c r="CR3" s="60"/>
-      <c r="CS3" s="61"/>
-      <c r="CT3" s="59" t="str">
+      <c r="CM3" s="89"/>
+      <c r="CN3" s="89"/>
+      <c r="CO3" s="89"/>
+      <c r="CP3" s="89"/>
+      <c r="CQ3" s="89"/>
+      <c r="CR3" s="89"/>
+      <c r="CS3" s="90"/>
+      <c r="CT3" s="88" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="60"/>
-      <c r="CV3" s="60"/>
-      <c r="CW3" s="60"/>
-      <c r="CX3" s="60"/>
-      <c r="CY3" s="60"/>
-      <c r="CZ3" s="60"/>
-      <c r="DA3" s="61"/>
-      <c r="DB3" s="59" t="str">
+      <c r="CU3" s="89"/>
+      <c r="CV3" s="89"/>
+      <c r="CW3" s="89"/>
+      <c r="CX3" s="89"/>
+      <c r="CY3" s="89"/>
+      <c r="CZ3" s="89"/>
+      <c r="DA3" s="90"/>
+      <c r="DB3" s="88" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="60"/>
-      <c r="DD3" s="60"/>
-      <c r="DE3" s="60"/>
-      <c r="DF3" s="60"/>
-      <c r="DG3" s="60"/>
-      <c r="DH3" s="60"/>
-      <c r="DI3" s="61"/>
-      <c r="DJ3" s="59" t="str">
+      <c r="DC3" s="89"/>
+      <c r="DD3" s="89"/>
+      <c r="DE3" s="89"/>
+      <c r="DF3" s="89"/>
+      <c r="DG3" s="89"/>
+      <c r="DH3" s="89"/>
+      <c r="DI3" s="90"/>
+      <c r="DJ3" s="88" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="60"/>
-      <c r="DL3" s="60"/>
-      <c r="DM3" s="60"/>
-      <c r="DN3" s="60"/>
-      <c r="DO3" s="60"/>
-      <c r="DP3" s="60"/>
-      <c r="DQ3" s="61"/>
-      <c r="DR3" s="59" t="str">
+      <c r="DK3" s="89"/>
+      <c r="DL3" s="89"/>
+      <c r="DM3" s="89"/>
+      <c r="DN3" s="89"/>
+      <c r="DO3" s="89"/>
+      <c r="DP3" s="89"/>
+      <c r="DQ3" s="90"/>
+      <c r="DR3" s="88" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="60"/>
-      <c r="DT3" s="60"/>
-      <c r="DU3" s="60"/>
-      <c r="DV3" s="60"/>
-      <c r="DW3" s="60"/>
-      <c r="DX3" s="60"/>
-      <c r="DY3" s="61"/>
-      <c r="DZ3" s="59" t="str">
+      <c r="DS3" s="89"/>
+      <c r="DT3" s="89"/>
+      <c r="DU3" s="89"/>
+      <c r="DV3" s="89"/>
+      <c r="DW3" s="89"/>
+      <c r="DX3" s="89"/>
+      <c r="DY3" s="90"/>
+      <c r="DZ3" s="88" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="60"/>
-      <c r="EB3" s="60"/>
-      <c r="EC3" s="60"/>
-      <c r="ED3" s="60"/>
-      <c r="EE3" s="60"/>
-      <c r="EF3" s="60"/>
-      <c r="EG3" s="61"/>
-      <c r="EH3" s="59" t="str">
+      <c r="EA3" s="89"/>
+      <c r="EB3" s="89"/>
+      <c r="EC3" s="89"/>
+      <c r="ED3" s="89"/>
+      <c r="EE3" s="89"/>
+      <c r="EF3" s="89"/>
+      <c r="EG3" s="90"/>
+      <c r="EH3" s="88" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="60"/>
-      <c r="EJ3" s="60"/>
-      <c r="EK3" s="60"/>
-      <c r="EL3" s="60"/>
-      <c r="EM3" s="60"/>
-      <c r="EN3" s="60"/>
-      <c r="EO3" s="61"/>
-      <c r="EP3" s="59" t="str">
+      <c r="EI3" s="89"/>
+      <c r="EJ3" s="89"/>
+      <c r="EK3" s="89"/>
+      <c r="EL3" s="89"/>
+      <c r="EM3" s="89"/>
+      <c r="EN3" s="89"/>
+      <c r="EO3" s="90"/>
+      <c r="EP3" s="88" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="60"/>
-      <c r="ER3" s="60"/>
-      <c r="ES3" s="60"/>
-      <c r="ET3" s="60"/>
-      <c r="EU3" s="60"/>
-      <c r="EV3" s="60"/>
-      <c r="EW3" s="61"/>
-      <c r="EX3" s="59" t="str">
+      <c r="EQ3" s="89"/>
+      <c r="ER3" s="89"/>
+      <c r="ES3" s="89"/>
+      <c r="ET3" s="89"/>
+      <c r="EU3" s="89"/>
+      <c r="EV3" s="89"/>
+      <c r="EW3" s="90"/>
+      <c r="EX3" s="88" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="60"/>
-      <c r="EZ3" s="60"/>
-      <c r="FA3" s="60"/>
-      <c r="FB3" s="60"/>
-      <c r="FC3" s="60"/>
-      <c r="FD3" s="60"/>
-      <c r="FE3" s="61"/>
-      <c r="FF3" s="59" t="str">
+      <c r="EY3" s="89"/>
+      <c r="EZ3" s="89"/>
+      <c r="FA3" s="89"/>
+      <c r="FB3" s="89"/>
+      <c r="FC3" s="89"/>
+      <c r="FD3" s="89"/>
+      <c r="FE3" s="90"/>
+      <c r="FF3" s="88" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="60"/>
-      <c r="FH3" s="60"/>
-      <c r="FI3" s="60"/>
-      <c r="FJ3" s="60"/>
-      <c r="FK3" s="60"/>
-      <c r="FL3" s="60"/>
-      <c r="FM3" s="61"/>
-      <c r="FN3" s="59" t="str">
+      <c r="FG3" s="89"/>
+      <c r="FH3" s="89"/>
+      <c r="FI3" s="89"/>
+      <c r="FJ3" s="89"/>
+      <c r="FK3" s="89"/>
+      <c r="FL3" s="89"/>
+      <c r="FM3" s="90"/>
+      <c r="FN3" s="88" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="60"/>
-      <c r="FP3" s="60"/>
-      <c r="FQ3" s="60"/>
-      <c r="FR3" s="60"/>
-      <c r="FS3" s="60"/>
-      <c r="FT3" s="60"/>
-      <c r="FU3" s="61"/>
-      <c r="FV3" s="59" t="str">
+      <c r="FO3" s="89"/>
+      <c r="FP3" s="89"/>
+      <c r="FQ3" s="89"/>
+      <c r="FR3" s="89"/>
+      <c r="FS3" s="89"/>
+      <c r="FT3" s="89"/>
+      <c r="FU3" s="90"/>
+      <c r="FV3" s="88" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="60"/>
-      <c r="FX3" s="60"/>
-      <c r="FY3" s="60"/>
-      <c r="FZ3" s="60"/>
-      <c r="GA3" s="60"/>
-      <c r="GB3" s="60"/>
-      <c r="GC3" s="61"/>
-      <c r="GD3" s="59" t="str">
+      <c r="FW3" s="89"/>
+      <c r="FX3" s="89"/>
+      <c r="FY3" s="89"/>
+      <c r="FZ3" s="89"/>
+      <c r="GA3" s="89"/>
+      <c r="GB3" s="89"/>
+      <c r="GC3" s="90"/>
+      <c r="GD3" s="88" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="60"/>
-      <c r="GF3" s="60"/>
-      <c r="GG3" s="60"/>
-      <c r="GH3" s="60"/>
-      <c r="GI3" s="60"/>
-      <c r="GJ3" s="60"/>
-      <c r="GK3" s="61"/>
-      <c r="GL3" s="59" t="str">
+      <c r="GE3" s="89"/>
+      <c r="GF3" s="89"/>
+      <c r="GG3" s="89"/>
+      <c r="GH3" s="89"/>
+      <c r="GI3" s="89"/>
+      <c r="GJ3" s="89"/>
+      <c r="GK3" s="90"/>
+      <c r="GL3" s="88" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="60"/>
-      <c r="GN3" s="60"/>
-      <c r="GO3" s="60"/>
-      <c r="GP3" s="60"/>
-      <c r="GQ3" s="60"/>
-      <c r="GR3" s="60"/>
-      <c r="GS3" s="61"/>
-      <c r="GT3" s="59" t="str">
+      <c r="GM3" s="89"/>
+      <c r="GN3" s="89"/>
+      <c r="GO3" s="89"/>
+      <c r="GP3" s="89"/>
+      <c r="GQ3" s="89"/>
+      <c r="GR3" s="89"/>
+      <c r="GS3" s="90"/>
+      <c r="GT3" s="88" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="60"/>
-      <c r="GV3" s="60"/>
-      <c r="GW3" s="60"/>
-      <c r="GX3" s="60"/>
-      <c r="GY3" s="60"/>
-      <c r="GZ3" s="60"/>
-      <c r="HA3" s="61"/>
-      <c r="HB3" s="59" t="str">
+      <c r="GU3" s="89"/>
+      <c r="GV3" s="89"/>
+      <c r="GW3" s="89"/>
+      <c r="GX3" s="89"/>
+      <c r="GY3" s="89"/>
+      <c r="GZ3" s="89"/>
+      <c r="HA3" s="90"/>
+      <c r="HB3" s="88" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="60"/>
-      <c r="HD3" s="60"/>
-      <c r="HE3" s="60"/>
-      <c r="HF3" s="60"/>
-      <c r="HG3" s="60"/>
-      <c r="HH3" s="60"/>
-      <c r="HI3" s="61"/>
+      <c r="HC3" s="89"/>
+      <c r="HD3" s="89"/>
+      <c r="HE3" s="89"/>
+      <c r="HF3" s="89"/>
+      <c r="HG3" s="89"/>
+      <c r="HH3" s="89"/>
+      <c r="HI3" s="90"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="88">
         <v>0</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="59">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="88">
         <v>2</v>
       </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="59">
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="88">
         <v>4</v>
       </c>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="59">
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="88">
         <v>6</v>
       </c>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="59">
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="89"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="90"/>
+      <c r="BN4" s="88">
         <v>8</v>
       </c>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="61"/>
-      <c r="BV4" s="59">
+      <c r="BO4" s="89"/>
+      <c r="BP4" s="89"/>
+      <c r="BQ4" s="89"/>
+      <c r="BR4" s="89"/>
+      <c r="BS4" s="89"/>
+      <c r="BT4" s="89"/>
+      <c r="BU4" s="90"/>
+      <c r="BV4" s="88">
         <v>9</v>
       </c>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="60"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="61"/>
-      <c r="CD4" s="59" t="str">
+      <c r="BW4" s="89"/>
+      <c r="BX4" s="89"/>
+      <c r="BY4" s="89"/>
+      <c r="BZ4" s="89"/>
+      <c r="CA4" s="89"/>
+      <c r="CB4" s="89"/>
+      <c r="CC4" s="90"/>
+      <c r="CD4" s="88" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="60"/>
-      <c r="CF4" s="60"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="60"/>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="60"/>
-      <c r="CK4" s="61"/>
-      <c r="CL4" s="59" t="str">
+      <c r="CE4" s="89"/>
+      <c r="CF4" s="89"/>
+      <c r="CG4" s="89"/>
+      <c r="CH4" s="89"/>
+      <c r="CI4" s="89"/>
+      <c r="CJ4" s="89"/>
+      <c r="CK4" s="90"/>
+      <c r="CL4" s="88" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="60"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="60"/>
-      <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="60"/>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="60"/>
-      <c r="DA4" s="61"/>
-      <c r="DB4" s="59" t="str">
+      <c r="CM4" s="89"/>
+      <c r="CN4" s="89"/>
+      <c r="CO4" s="89"/>
+      <c r="CP4" s="89"/>
+      <c r="CQ4" s="89"/>
+      <c r="CR4" s="89"/>
+      <c r="CS4" s="89"/>
+      <c r="CT4" s="89"/>
+      <c r="CU4" s="89"/>
+      <c r="CV4" s="89"/>
+      <c r="CW4" s="89"/>
+      <c r="CX4" s="89"/>
+      <c r="CY4" s="89"/>
+      <c r="CZ4" s="89"/>
+      <c r="DA4" s="90"/>
+      <c r="DB4" s="88" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="60"/>
-      <c r="DD4" s="60"/>
-      <c r="DE4" s="60"/>
-      <c r="DF4" s="60"/>
-      <c r="DG4" s="60"/>
-      <c r="DH4" s="60"/>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="60"/>
-      <c r="DK4" s="60"/>
-      <c r="DL4" s="60"/>
-      <c r="DM4" s="60"/>
-      <c r="DN4" s="60"/>
-      <c r="DO4" s="60"/>
-      <c r="DP4" s="60"/>
-      <c r="DQ4" s="61"/>
-      <c r="DR4" s="59" t="str">
+      <c r="DC4" s="89"/>
+      <c r="DD4" s="89"/>
+      <c r="DE4" s="89"/>
+      <c r="DF4" s="89"/>
+      <c r="DG4" s="89"/>
+      <c r="DH4" s="89"/>
+      <c r="DI4" s="89"/>
+      <c r="DJ4" s="89"/>
+      <c r="DK4" s="89"/>
+      <c r="DL4" s="89"/>
+      <c r="DM4" s="89"/>
+      <c r="DN4" s="89"/>
+      <c r="DO4" s="89"/>
+      <c r="DP4" s="89"/>
+      <c r="DQ4" s="90"/>
+      <c r="DR4" s="88" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="60"/>
-      <c r="DT4" s="60"/>
-      <c r="DU4" s="60"/>
-      <c r="DV4" s="60"/>
-      <c r="DW4" s="60"/>
-      <c r="DX4" s="60"/>
-      <c r="DY4" s="60"/>
-      <c r="DZ4" s="60"/>
-      <c r="EA4" s="60"/>
-      <c r="EB4" s="60"/>
-      <c r="EC4" s="60"/>
-      <c r="ED4" s="60"/>
-      <c r="EE4" s="60"/>
-      <c r="EF4" s="60"/>
-      <c r="EG4" s="61"/>
-      <c r="EH4" s="59" t="str">
+      <c r="DS4" s="89"/>
+      <c r="DT4" s="89"/>
+      <c r="DU4" s="89"/>
+      <c r="DV4" s="89"/>
+      <c r="DW4" s="89"/>
+      <c r="DX4" s="89"/>
+      <c r="DY4" s="89"/>
+      <c r="DZ4" s="89"/>
+      <c r="EA4" s="89"/>
+      <c r="EB4" s="89"/>
+      <c r="EC4" s="89"/>
+      <c r="ED4" s="89"/>
+      <c r="EE4" s="89"/>
+      <c r="EF4" s="89"/>
+      <c r="EG4" s="90"/>
+      <c r="EH4" s="88" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="60"/>
-      <c r="EJ4" s="60"/>
-      <c r="EK4" s="60"/>
-      <c r="EL4" s="60"/>
-      <c r="EM4" s="60"/>
-      <c r="EN4" s="60"/>
-      <c r="EO4" s="61"/>
-      <c r="EP4" s="59" t="str">
+      <c r="EI4" s="89"/>
+      <c r="EJ4" s="89"/>
+      <c r="EK4" s="89"/>
+      <c r="EL4" s="89"/>
+      <c r="EM4" s="89"/>
+      <c r="EN4" s="89"/>
+      <c r="EO4" s="90"/>
+      <c r="EP4" s="88" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="60"/>
-      <c r="ER4" s="60"/>
-      <c r="ES4" s="60"/>
-      <c r="ET4" s="60"/>
-      <c r="EU4" s="60"/>
-      <c r="EV4" s="60"/>
-      <c r="EW4" s="61"/>
-      <c r="EX4" s="59" t="str">
+      <c r="EQ4" s="89"/>
+      <c r="ER4" s="89"/>
+      <c r="ES4" s="89"/>
+      <c r="ET4" s="89"/>
+      <c r="EU4" s="89"/>
+      <c r="EV4" s="89"/>
+      <c r="EW4" s="90"/>
+      <c r="EX4" s="88" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="60"/>
-      <c r="EZ4" s="60"/>
-      <c r="FA4" s="60"/>
-      <c r="FB4" s="60"/>
-      <c r="FC4" s="60"/>
-      <c r="FD4" s="60"/>
-      <c r="FE4" s="61"/>
-      <c r="FF4" s="59" t="str">
+      <c r="EY4" s="89"/>
+      <c r="EZ4" s="89"/>
+      <c r="FA4" s="89"/>
+      <c r="FB4" s="89"/>
+      <c r="FC4" s="89"/>
+      <c r="FD4" s="89"/>
+      <c r="FE4" s="90"/>
+      <c r="FF4" s="88" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="60"/>
-      <c r="FH4" s="60"/>
-      <c r="FI4" s="60"/>
-      <c r="FJ4" s="60"/>
-      <c r="FK4" s="60"/>
-      <c r="FL4" s="60"/>
-      <c r="FM4" s="61"/>
-      <c r="FN4" s="59" t="str">
+      <c r="FG4" s="89"/>
+      <c r="FH4" s="89"/>
+      <c r="FI4" s="89"/>
+      <c r="FJ4" s="89"/>
+      <c r="FK4" s="89"/>
+      <c r="FL4" s="89"/>
+      <c r="FM4" s="90"/>
+      <c r="FN4" s="88" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="60"/>
-      <c r="FP4" s="60"/>
-      <c r="FQ4" s="60"/>
-      <c r="FR4" s="60"/>
-      <c r="FS4" s="60"/>
-      <c r="FT4" s="60"/>
-      <c r="FU4" s="61"/>
-      <c r="FV4" s="59" t="str">
+      <c r="FO4" s="89"/>
+      <c r="FP4" s="89"/>
+      <c r="FQ4" s="89"/>
+      <c r="FR4" s="89"/>
+      <c r="FS4" s="89"/>
+      <c r="FT4" s="89"/>
+      <c r="FU4" s="90"/>
+      <c r="FV4" s="88" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="60"/>
-      <c r="FX4" s="60"/>
-      <c r="FY4" s="60"/>
-      <c r="FZ4" s="60"/>
-      <c r="GA4" s="60"/>
-      <c r="GB4" s="60"/>
-      <c r="GC4" s="60"/>
-      <c r="GD4" s="60"/>
-      <c r="GE4" s="60"/>
-      <c r="GF4" s="60"/>
-      <c r="GG4" s="60"/>
-      <c r="GH4" s="60"/>
-      <c r="GI4" s="60"/>
-      <c r="GJ4" s="60"/>
-      <c r="GK4" s="61"/>
-      <c r="GL4" s="59" t="str">
+      <c r="FW4" s="89"/>
+      <c r="FX4" s="89"/>
+      <c r="FY4" s="89"/>
+      <c r="FZ4" s="89"/>
+      <c r="GA4" s="89"/>
+      <c r="GB4" s="89"/>
+      <c r="GC4" s="89"/>
+      <c r="GD4" s="89"/>
+      <c r="GE4" s="89"/>
+      <c r="GF4" s="89"/>
+      <c r="GG4" s="89"/>
+      <c r="GH4" s="89"/>
+      <c r="GI4" s="89"/>
+      <c r="GJ4" s="89"/>
+      <c r="GK4" s="90"/>
+      <c r="GL4" s="88" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="60"/>
-      <c r="GN4" s="60"/>
-      <c r="GO4" s="60"/>
-      <c r="GP4" s="60"/>
-      <c r="GQ4" s="60"/>
-      <c r="GR4" s="60"/>
-      <c r="GS4" s="61"/>
-      <c r="GT4" s="59" t="str">
+      <c r="GM4" s="89"/>
+      <c r="GN4" s="89"/>
+      <c r="GO4" s="89"/>
+      <c r="GP4" s="89"/>
+      <c r="GQ4" s="89"/>
+      <c r="GR4" s="89"/>
+      <c r="GS4" s="90"/>
+      <c r="GT4" s="88" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="60"/>
-      <c r="GV4" s="60"/>
-      <c r="GW4" s="60"/>
-      <c r="GX4" s="60"/>
-      <c r="GY4" s="60"/>
-      <c r="GZ4" s="60"/>
-      <c r="HA4" s="61"/>
-      <c r="HB4" s="59" t="str">
+      <c r="GU4" s="89"/>
+      <c r="GV4" s="89"/>
+      <c r="GW4" s="89"/>
+      <c r="GX4" s="89"/>
+      <c r="GY4" s="89"/>
+      <c r="GZ4" s="89"/>
+      <c r="HA4" s="90"/>
+      <c r="HB4" s="88" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="60"/>
-      <c r="HD4" s="60"/>
-      <c r="HE4" s="60"/>
-      <c r="HF4" s="60"/>
-      <c r="HG4" s="60"/>
-      <c r="HH4" s="60"/>
-      <c r="HI4" s="61"/>
+      <c r="HC4" s="89"/>
+      <c r="HD4" s="89"/>
+      <c r="HE4" s="89"/>
+      <c r="HF4" s="89"/>
+      <c r="HG4" s="89"/>
+      <c r="HH4" s="89"/>
+      <c r="HI4" s="90"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
@@ -4138,19 +4246,19 @@
         <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="DJ6" s="40" t="str">
+      <c r="DJ6" s="32" t="str">
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="DK6" s="41" t="str">
+      <c r="DK6" s="33" t="str">
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="DL6" s="41" t="str">
+      <c r="DL6" s="33" t="str">
         <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="DM6" s="42" t="str">
+      <c r="DM6" s="34" t="str">
         <f t="shared" si="37"/>
         <v>4</v>
       </c>
@@ -4370,27 +4478,27 @@
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="FP6" s="53" t="str">
+      <c r="FP6" s="45" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="FQ6" s="54" t="str">
+      <c r="FQ6" s="46" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="FR6" s="55" t="str">
+      <c r="FR6" s="47" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="FS6" s="53" t="str">
+      <c r="FS6" s="45" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="FT6" s="53" t="str">
+      <c r="FT6" s="45" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="FU6" s="54" t="str">
+      <c r="FU6" s="46" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -4571,1628 +4679,1717 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78" t="s">
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="56" t="s">
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="57"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="56" t="s">
+      <c r="S7" s="98"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="107" t="s">
+      <c r="V7" s="98"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="56" t="s">
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="56" t="s">
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="56" t="s">
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="58"/>
-      <c r="AX7" s="56" t="s">
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="58"/>
-      <c r="BH7" s="56" t="s">
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="99"/>
+      <c r="BH7" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="58"/>
-      <c r="BN7" s="56" t="s">
+      <c r="BI7" s="98"/>
+      <c r="BJ7" s="98"/>
+      <c r="BK7" s="98"/>
+      <c r="BL7" s="98"/>
+      <c r="BM7" s="99"/>
+      <c r="BN7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="57"/>
-      <c r="BQ7" s="57"/>
-      <c r="BR7" s="57"/>
-      <c r="BS7" s="57"/>
-      <c r="BT7" s="57"/>
-      <c r="BU7" s="58"/>
-      <c r="BV7" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BW7" s="57"/>
-      <c r="BX7" s="57"/>
-      <c r="BY7" s="57"/>
-      <c r="BZ7" s="57"/>
-      <c r="CA7" s="57"/>
-      <c r="CB7" s="57"/>
-      <c r="CC7" s="58"/>
-      <c r="CD7" s="75" t="s">
+      <c r="BO7" s="98"/>
+      <c r="BP7" s="98"/>
+      <c r="BQ7" s="98"/>
+      <c r="BR7" s="98"/>
+      <c r="BS7" s="98"/>
+      <c r="BT7" s="98"/>
+      <c r="BU7" s="99"/>
+      <c r="BV7" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW7" s="98"/>
+      <c r="BX7" s="98"/>
+      <c r="BY7" s="98"/>
+      <c r="BZ7" s="98"/>
+      <c r="CA7" s="98"/>
+      <c r="CB7" s="98"/>
+      <c r="CC7" s="99"/>
+      <c r="CD7" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="76"/>
-      <c r="CF7" s="76"/>
-      <c r="CG7" s="76"/>
-      <c r="CH7" s="76"/>
-      <c r="CI7" s="76"/>
-      <c r="CJ7" s="76"/>
-      <c r="CK7" s="77"/>
-      <c r="CL7" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="CM7" s="76"/>
-      <c r="CN7" s="76"/>
-      <c r="CO7" s="77"/>
-      <c r="CP7" s="79" t="s">
+      <c r="CE7" s="95"/>
+      <c r="CF7" s="95"/>
+      <c r="CG7" s="95"/>
+      <c r="CH7" s="95"/>
+      <c r="CI7" s="95"/>
+      <c r="CJ7" s="95"/>
+      <c r="CK7" s="96"/>
+      <c r="CL7" s="94" t="s">
+        <v>208</v>
+      </c>
+      <c r="CM7" s="95"/>
+      <c r="CN7" s="95"/>
+      <c r="CO7" s="96"/>
+      <c r="CP7" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="80"/>
-      <c r="CR7" s="80"/>
-      <c r="CS7" s="80"/>
-      <c r="CT7" s="80"/>
-      <c r="CU7" s="80"/>
-      <c r="CV7" s="80"/>
-      <c r="CW7" s="81"/>
-      <c r="CX7" s="56" t="s">
+      <c r="CQ7" s="119"/>
+      <c r="CR7" s="119"/>
+      <c r="CS7" s="119"/>
+      <c r="CT7" s="119"/>
+      <c r="CU7" s="119"/>
+      <c r="CV7" s="119"/>
+      <c r="CW7" s="120"/>
+      <c r="CX7" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="57"/>
-      <c r="CZ7" s="57"/>
-      <c r="DA7" s="58"/>
-      <c r="DB7" s="56" t="s">
+      <c r="CY7" s="98"/>
+      <c r="CZ7" s="98"/>
+      <c r="DA7" s="99"/>
+      <c r="DB7" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="DC7" s="58"/>
+      <c r="DC7" s="99"/>
       <c r="DD7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="DE7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="DF7" s="75" t="s">
+      <c r="DF7" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="DG7" s="76"/>
-      <c r="DH7" s="76"/>
-      <c r="DI7" s="76"/>
-      <c r="DJ7" s="76"/>
-      <c r="DK7" s="76"/>
-      <c r="DL7" s="76"/>
-      <c r="DM7" s="77"/>
-      <c r="DN7" s="75" t="s">
+      <c r="DG7" s="95"/>
+      <c r="DH7" s="95"/>
+      <c r="DI7" s="95"/>
+      <c r="DJ7" s="95"/>
+      <c r="DK7" s="95"/>
+      <c r="DL7" s="95"/>
+      <c r="DM7" s="96"/>
+      <c r="DN7" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="DO7" s="76"/>
-      <c r="DP7" s="76"/>
-      <c r="DQ7" s="77"/>
-      <c r="DR7" s="92" t="s">
+      <c r="DO7" s="95"/>
+      <c r="DP7" s="95"/>
+      <c r="DQ7" s="96"/>
+      <c r="DR7" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="DS7" s="93"/>
-      <c r="DT7" s="93"/>
-      <c r="DU7" s="94"/>
-      <c r="DV7" s="92" t="s">
+      <c r="DS7" s="109"/>
+      <c r="DT7" s="109"/>
+      <c r="DU7" s="110"/>
+      <c r="DV7" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="DW7" s="93"/>
-      <c r="DX7" s="93"/>
-      <c r="DY7" s="93"/>
-      <c r="DZ7" s="93"/>
-      <c r="EA7" s="94"/>
-      <c r="EB7" s="92" t="s">
+      <c r="DW7" s="109"/>
+      <c r="DX7" s="109"/>
+      <c r="DY7" s="109"/>
+      <c r="DZ7" s="109"/>
+      <c r="EA7" s="110"/>
+      <c r="EB7" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="EC7" s="93"/>
-      <c r="ED7" s="93"/>
-      <c r="EE7" s="93"/>
-      <c r="EF7" s="93"/>
-      <c r="EG7" s="94"/>
-      <c r="EH7" s="59" t="s">
+      <c r="EC7" s="109"/>
+      <c r="ED7" s="109"/>
+      <c r="EE7" s="109"/>
+      <c r="EF7" s="109"/>
+      <c r="EG7" s="110"/>
+      <c r="EH7" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="EI7" s="60"/>
-      <c r="EJ7" s="60"/>
-      <c r="EK7" s="60"/>
-      <c r="EL7" s="60"/>
-      <c r="EM7" s="60"/>
-      <c r="EN7" s="60"/>
-      <c r="EO7" s="61"/>
-      <c r="EP7" s="79" t="s">
+      <c r="EI7" s="89"/>
+      <c r="EJ7" s="89"/>
+      <c r="EK7" s="89"/>
+      <c r="EL7" s="89"/>
+      <c r="EM7" s="89"/>
+      <c r="EN7" s="89"/>
+      <c r="EO7" s="90"/>
+      <c r="EP7" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="EQ7" s="80"/>
-      <c r="ER7" s="80"/>
-      <c r="ES7" s="80"/>
-      <c r="ET7" s="80"/>
-      <c r="EU7" s="80"/>
-      <c r="EV7" s="80"/>
-      <c r="EW7" s="81"/>
-      <c r="EX7" s="25"/>
-      <c r="EY7" s="101" t="s">
+      <c r="EQ7" s="119"/>
+      <c r="ER7" s="119"/>
+      <c r="ES7" s="119"/>
+      <c r="ET7" s="119"/>
+      <c r="EU7" s="119"/>
+      <c r="EV7" s="119"/>
+      <c r="EW7" s="120"/>
+      <c r="EX7" s="22"/>
+      <c r="EY7" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="EZ7" s="102"/>
-      <c r="FA7" s="102"/>
-      <c r="FB7" s="102"/>
-      <c r="FC7" s="102"/>
-      <c r="FD7" s="102"/>
-      <c r="FE7" s="103"/>
+      <c r="EZ7" s="103"/>
+      <c r="FA7" s="103"/>
+      <c r="FB7" s="103"/>
+      <c r="FC7" s="103"/>
+      <c r="FD7" s="103"/>
+      <c r="FE7" s="58"/>
       <c r="FF7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="FG7" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="FH7" s="27"/>
-      <c r="FI7" s="27"/>
-      <c r="FJ7" s="28"/>
-      <c r="FK7" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="FG7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="FH7" s="24"/>
+      <c r="FI7" s="24"/>
+      <c r="FJ7" s="25"/>
+      <c r="FK7" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="FL7" s="96"/>
-      <c r="FM7" s="97"/>
-      <c r="FN7" s="51"/>
-      <c r="FO7" s="52"/>
-      <c r="FP7" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="FQ7" s="99"/>
-      <c r="FR7" s="99"/>
-      <c r="FS7" s="99"/>
-      <c r="FT7" s="99"/>
-      <c r="FU7" s="100"/>
-      <c r="FV7" s="64" t="s">
+      <c r="FL7" s="112"/>
+      <c r="FM7" s="113"/>
+      <c r="FN7" s="43"/>
+      <c r="FO7" s="44"/>
+      <c r="FP7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="FQ7" s="138"/>
+      <c r="FR7" s="138"/>
+      <c r="FS7" s="138"/>
+      <c r="FT7" s="138"/>
+      <c r="FU7" s="139"/>
+      <c r="FV7" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="FW7" s="64"/>
-      <c r="FX7" s="64"/>
-      <c r="FY7" s="64"/>
-      <c r="FZ7" s="64"/>
-      <c r="GA7" s="65"/>
-      <c r="GB7" s="63" t="s">
+      <c r="FW7" s="105"/>
+      <c r="FX7" s="105"/>
+      <c r="FY7" s="105"/>
+      <c r="FZ7" s="105"/>
+      <c r="GA7" s="106"/>
+      <c r="GB7" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="GC7" s="64"/>
-      <c r="GD7" s="64"/>
-      <c r="GE7" s="64"/>
-      <c r="GF7" s="64"/>
-      <c r="GG7" s="65"/>
-      <c r="GH7" s="59" t="s">
+      <c r="GC7" s="105"/>
+      <c r="GD7" s="105"/>
+      <c r="GE7" s="105"/>
+      <c r="GF7" s="105"/>
+      <c r="GG7" s="106"/>
+      <c r="GH7" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="GI7" s="60"/>
-      <c r="GJ7" s="60"/>
-      <c r="GK7" s="61"/>
-      <c r="GL7" s="59" t="s">
+      <c r="GI7" s="89"/>
+      <c r="GJ7" s="89"/>
+      <c r="GK7" s="90"/>
+      <c r="GL7" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="GM7" s="60"/>
-      <c r="GN7" s="61"/>
-      <c r="GO7" s="63" t="s">
+      <c r="GM7" s="89"/>
+      <c r="GN7" s="90"/>
+      <c r="GO7" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="GP7" s="64"/>
-      <c r="GQ7" s="64"/>
-      <c r="GR7" s="64"/>
-      <c r="GS7" s="65"/>
+      <c r="GP7" s="105"/>
+      <c r="GQ7" s="105"/>
+      <c r="GR7" s="105"/>
+      <c r="GS7" s="106"/>
       <c r="GT7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="GU7" s="2"/>
-      <c r="GV7" s="130" t="s">
+      <c r="GV7" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="GW7" s="60"/>
-      <c r="GX7" s="131"/>
-      <c r="GY7" s="131"/>
-      <c r="GZ7" s="131"/>
-      <c r="HA7" s="62"/>
-      <c r="HB7" s="63" t="s">
+      <c r="GW7" s="115"/>
+      <c r="GX7" s="115"/>
+      <c r="GY7" s="115"/>
+      <c r="GZ7" s="115"/>
+      <c r="HA7" s="116"/>
+      <c r="HB7" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="HC7" s="64"/>
-      <c r="HD7" s="64"/>
-      <c r="HE7" s="64"/>
-      <c r="HF7" s="64"/>
-      <c r="HG7" s="64"/>
-      <c r="HH7" s="64"/>
-      <c r="HI7" s="65"/>
+      <c r="HC7" s="105"/>
+      <c r="HD7" s="105"/>
+      <c r="HE7" s="105"/>
+      <c r="HF7" s="105"/>
+      <c r="HG7" s="105"/>
+      <c r="HH7" s="105"/>
+      <c r="HI7" s="106"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
       <c r="R8" t="s">
+        <v>139</v>
+      </c>
+      <c r="U8" t="s">
+        <v>138</v>
+      </c>
+      <c r="X8" s="57">
+        <v>380</v>
+      </c>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="58"/>
+      <c r="AD8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT8" t="s">
         <v>141</v>
       </c>
-      <c r="U8" t="s">
-        <v>140</v>
-      </c>
-      <c r="X8" s="101">
-        <v>380</v>
-      </c>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="103"/>
-      <c r="AD8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>143</v>
-      </c>
       <c r="AZ8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="BJ8" t="s">
-        <v>143</v>
-      </c>
-      <c r="CL8" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="CM8" s="91"/>
-      <c r="CN8" s="91"/>
-      <c r="CO8" s="91"/>
-      <c r="CP8" s="91"/>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="91"/>
-      <c r="CS8" s="91"/>
-      <c r="CT8" s="91"/>
-      <c r="CU8" s="91"/>
-      <c r="CV8" s="91"/>
-      <c r="CW8" s="91"/>
-      <c r="CX8" s="91"/>
-      <c r="CY8" s="91"/>
-      <c r="CZ8" s="91"/>
-      <c r="DA8" s="91"/>
-      <c r="DB8" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL8" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="CM8" s="107"/>
+      <c r="CN8" s="107"/>
+      <c r="CO8" s="107"/>
+      <c r="CP8" s="107"/>
+      <c r="CQ8" s="107"/>
+      <c r="CR8" s="107"/>
+      <c r="CS8" s="107"/>
+      <c r="CT8" s="107"/>
+      <c r="CU8" s="107"/>
+      <c r="CV8" s="107"/>
+      <c r="CW8" s="107"/>
+      <c r="CX8" s="107"/>
+      <c r="CY8" s="107"/>
+      <c r="CZ8" s="107"/>
+      <c r="DA8" s="107"/>
+      <c r="DB8" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="DC8" s="107"/>
+      <c r="DD8" s="107"/>
+      <c r="DE8" s="107"/>
+      <c r="DF8" s="107"/>
+      <c r="DG8" s="107"/>
+      <c r="DH8" s="107"/>
+      <c r="DI8" s="107"/>
+      <c r="DJ8" s="107"/>
+      <c r="DK8" s="107"/>
+      <c r="DL8" s="107"/>
+      <c r="DM8" s="107"/>
+      <c r="DN8" s="107"/>
+      <c r="DO8" s="107"/>
+      <c r="DP8" s="107"/>
+      <c r="DQ8" s="107"/>
+      <c r="DR8" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="DC8" s="91"/>
-      <c r="DD8" s="91"/>
-      <c r="DE8" s="91"/>
-      <c r="DF8" s="91"/>
-      <c r="DG8" s="91"/>
-      <c r="DH8" s="91"/>
-      <c r="DI8" s="91"/>
-      <c r="DJ8" s="91"/>
-      <c r="DK8" s="91"/>
-      <c r="DL8" s="91"/>
-      <c r="DM8" s="91"/>
-      <c r="DN8" s="91"/>
-      <c r="DO8" s="91"/>
-      <c r="DP8" s="91"/>
-      <c r="DQ8" s="91"/>
-      <c r="DR8" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="DS8" s="91"/>
-      <c r="DT8" s="91"/>
-      <c r="DU8" s="91"/>
-      <c r="DV8" s="91"/>
-      <c r="DW8" s="91"/>
-      <c r="DX8" s="91"/>
-      <c r="DY8" s="91"/>
-      <c r="DZ8" s="91"/>
-      <c r="EA8" s="91"/>
-      <c r="EB8" s="91"/>
-      <c r="EC8" s="91"/>
-      <c r="ED8" s="91"/>
-      <c r="EE8" s="91"/>
-      <c r="EF8" s="91"/>
-      <c r="EG8" s="91"/>
+      <c r="DS8" s="107"/>
+      <c r="DT8" s="107"/>
+      <c r="DU8" s="107"/>
+      <c r="DV8" s="107"/>
+      <c r="DW8" s="107"/>
+      <c r="DX8" s="107"/>
+      <c r="DY8" s="107"/>
+      <c r="DZ8" s="107"/>
+      <c r="EA8" s="107"/>
+      <c r="EB8" s="107"/>
+      <c r="EC8" s="107"/>
+      <c r="ED8" s="107"/>
+      <c r="EE8" s="107"/>
+      <c r="EF8" s="107"/>
+      <c r="EG8" s="107"/>
       <c r="FH8" t="s">
-        <v>133</v>
-      </c>
-      <c r="FN8" s="33" t="s">
-        <v>168</v>
+        <v>131</v>
+      </c>
+      <c r="FN8" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="FO8" s="13"/>
-      <c r="FR8" s="36"/>
+      <c r="FP8" s="132"/>
+      <c r="FQ8" s="133"/>
+      <c r="FR8" s="133"/>
+      <c r="FS8" s="133"/>
+      <c r="FT8" s="133"/>
+      <c r="FU8" s="134"/>
       <c r="FV8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="GB8" t="s">
-        <v>139</v>
-      </c>
-      <c r="GV8" s="25"/>
-      <c r="GX8" s="101"/>
-      <c r="GY8" s="103"/>
-      <c r="GZ8" s="25"/>
-      <c r="HA8" s="25"/>
+        <v>137</v>
+      </c>
+      <c r="GV8" s="22"/>
+      <c r="GW8" s="22"/>
+      <c r="GX8" s="57"/>
+      <c r="GY8" s="58"/>
+      <c r="GZ8" s="22"/>
+      <c r="HA8" s="22"/>
       <c r="HI8" s="15"/>
     </row>
-    <row r="9" spans="1:217" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:217" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="66" t="s">
+      <c r="B9" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="88" t="s">
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="62"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="82"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="88" t="s">
+      <c r="V9" s="62"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="V9" s="82"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="88" t="s">
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="62"/>
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="62"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
+      <c r="BG9" s="66"/>
+      <c r="BH9" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI9" s="62"/>
+      <c r="BJ9" s="62"/>
+      <c r="BK9" s="62"/>
+      <c r="BL9" s="62"/>
+      <c r="BM9" s="66"/>
+      <c r="BN9" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO9" s="68"/>
+      <c r="BP9" s="68"/>
+      <c r="BQ9" s="68"/>
+      <c r="BR9" s="68"/>
+      <c r="BS9" s="68"/>
+      <c r="BT9" s="68"/>
+      <c r="BU9" s="69"/>
+      <c r="BV9" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW9" s="68"/>
+      <c r="BX9" s="68"/>
+      <c r="BY9" s="68"/>
+      <c r="BZ9" s="68"/>
+      <c r="CA9" s="68"/>
+      <c r="CB9" s="68"/>
+      <c r="CC9" s="69"/>
+      <c r="CD9" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="CE9" s="68"/>
+      <c r="CF9" s="68"/>
+      <c r="CG9" s="68"/>
+      <c r="CH9" s="68"/>
+      <c r="CI9" s="68"/>
+      <c r="CJ9" s="68"/>
+      <c r="CK9" s="69"/>
+      <c r="CL9" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="CM9" s="68"/>
+      <c r="CN9" s="68"/>
+      <c r="CO9" s="68"/>
+      <c r="CP9" s="68"/>
+      <c r="CQ9" s="68"/>
+      <c r="CR9" s="68"/>
+      <c r="CS9" s="68"/>
+      <c r="CT9" s="68"/>
+      <c r="CU9" s="68"/>
+      <c r="CV9" s="68"/>
+      <c r="CW9" s="68"/>
+      <c r="CX9" s="68"/>
+      <c r="CY9" s="68"/>
+      <c r="CZ9" s="68"/>
+      <c r="DA9" s="69"/>
+      <c r="DB9" s="41"/>
+      <c r="DC9" s="42"/>
+      <c r="DD9" s="42"/>
+      <c r="DE9" s="42"/>
+      <c r="DF9" s="42"/>
+      <c r="DG9" s="42"/>
+      <c r="DH9" s="42"/>
+      <c r="DI9" s="42"/>
+      <c r="DJ9" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="DK9" s="85"/>
+      <c r="DL9" s="85"/>
+      <c r="DM9" s="87"/>
+      <c r="DN9" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="DO9" s="78"/>
+      <c r="DP9" s="78"/>
+      <c r="DQ9" s="78"/>
+      <c r="DR9" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="DS9" s="85"/>
+      <c r="DT9" s="85"/>
+      <c r="DU9" s="85"/>
+      <c r="DV9" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="DW9" s="62"/>
+      <c r="DX9" s="62"/>
+      <c r="DY9" s="62"/>
+      <c r="DZ9" s="62"/>
+      <c r="EA9" s="66"/>
+      <c r="EB9" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB9" s="82"/>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="82"/>
-      <c r="AF9" s="82"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="88" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="82"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY9" s="82"/>
-      <c r="AZ9" s="82"/>
-      <c r="BA9" s="82"/>
-      <c r="BB9" s="82"/>
-      <c r="BC9" s="82"/>
-      <c r="BD9" s="82"/>
-      <c r="BE9" s="82"/>
-      <c r="BF9" s="82"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI9" s="82"/>
-      <c r="BJ9" s="82"/>
-      <c r="BK9" s="82"/>
-      <c r="BL9" s="82"/>
-      <c r="BM9" s="83"/>
-      <c r="BN9" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="BO9" s="67"/>
-      <c r="BP9" s="67"/>
-      <c r="BQ9" s="67"/>
-      <c r="BR9" s="67"/>
-      <c r="BS9" s="67"/>
-      <c r="BT9" s="67"/>
-      <c r="BU9" s="68"/>
-      <c r="BV9" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="BW9" s="67"/>
-      <c r="BX9" s="67"/>
-      <c r="BY9" s="67"/>
-      <c r="BZ9" s="67"/>
-      <c r="CA9" s="67"/>
-      <c r="CB9" s="67"/>
-      <c r="CC9" s="68"/>
-      <c r="CD9" s="88" t="s">
+      <c r="EC9" s="62"/>
+      <c r="ED9" s="62"/>
+      <c r="EE9" s="62"/>
+      <c r="EF9" s="62"/>
+      <c r="EG9" s="66"/>
+      <c r="EP9" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="EQ9" s="62"/>
+      <c r="ER9" s="62"/>
+      <c r="ES9" s="62"/>
+      <c r="ET9" s="62"/>
+      <c r="EU9" s="62"/>
+      <c r="EV9" s="62"/>
+      <c r="EW9" s="66"/>
+      <c r="EX9" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="EY9" s="62"/>
+      <c r="EZ9" s="62"/>
+      <c r="FA9" s="62"/>
+      <c r="FB9" s="62"/>
+      <c r="FC9" s="62"/>
+      <c r="FD9" s="62"/>
+      <c r="FE9" s="66"/>
+      <c r="FJ9" t="s">
+        <v>54</v>
+      </c>
+      <c r="FN9" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="FO9" s="66"/>
+      <c r="FP9" s="129"/>
+      <c r="FQ9" s="136"/>
+      <c r="FR9" s="136"/>
+      <c r="FS9" s="131"/>
+      <c r="FT9" s="131"/>
+      <c r="FU9" s="31"/>
+      <c r="FV9" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="FW9" s="68"/>
+      <c r="FX9" s="68"/>
+      <c r="FY9" s="68"/>
+      <c r="FZ9" s="68"/>
+      <c r="GA9" s="69"/>
+      <c r="GB9" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="GC9" s="68"/>
+      <c r="GD9" s="68"/>
+      <c r="GE9" s="68"/>
+      <c r="GF9" s="68"/>
+      <c r="GG9" s="69"/>
+      <c r="GH9" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="GI9" s="53"/>
+      <c r="GJ9" s="53"/>
+      <c r="GK9" s="53"/>
+      <c r="GL9" s="48"/>
+      <c r="GM9" s="48"/>
+      <c r="GN9" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="GO9" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="GP9" s="62"/>
+      <c r="GQ9" s="62"/>
+      <c r="GR9" s="62"/>
+      <c r="GS9" s="66"/>
+      <c r="GT9" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="GU9" s="62"/>
+      <c r="GV9" s="62"/>
+      <c r="GW9" s="62"/>
+      <c r="GX9" s="62"/>
+      <c r="GY9" s="62"/>
+      <c r="GZ9" s="62"/>
+      <c r="HA9" s="56"/>
+      <c r="HB9" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="HC9" s="62"/>
+      <c r="HD9" s="62"/>
+      <c r="HE9" s="62"/>
+      <c r="HF9" s="62"/>
+      <c r="HG9" s="62"/>
+      <c r="HH9" s="62"/>
+      <c r="HI9" s="66"/>
+    </row>
+    <row r="10" spans="1:217" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="52"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="53"/>
+      <c r="BK10" s="53"/>
+      <c r="BL10" s="53"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="70"/>
+      <c r="BO10" s="71"/>
+      <c r="BP10" s="71"/>
+      <c r="BQ10" s="71"/>
+      <c r="BR10" s="71"/>
+      <c r="BS10" s="71"/>
+      <c r="BT10" s="71"/>
+      <c r="BU10" s="72"/>
+      <c r="BV10" s="70"/>
+      <c r="BW10" s="71"/>
+      <c r="BX10" s="71"/>
+      <c r="BY10" s="71"/>
+      <c r="BZ10" s="71"/>
+      <c r="CA10" s="71"/>
+      <c r="CB10" s="71"/>
+      <c r="CC10" s="72"/>
+      <c r="CD10" s="70"/>
+      <c r="CE10" s="71"/>
+      <c r="CF10" s="71"/>
+      <c r="CG10" s="71"/>
+      <c r="CH10" s="71"/>
+      <c r="CI10" s="71"/>
+      <c r="CJ10" s="71"/>
+      <c r="CK10" s="72"/>
+      <c r="CL10" s="70"/>
+      <c r="CM10" s="71"/>
+      <c r="CN10" s="71"/>
+      <c r="CO10" s="71"/>
+      <c r="CP10" s="71"/>
+      <c r="CQ10" s="71"/>
+      <c r="CR10" s="71"/>
+      <c r="CS10" s="71"/>
+      <c r="CT10" s="71"/>
+      <c r="CU10" s="71"/>
+      <c r="CV10" s="71"/>
+      <c r="CW10" s="71"/>
+      <c r="CX10" s="71"/>
+      <c r="CY10" s="71"/>
+      <c r="CZ10" s="71"/>
+      <c r="DA10" s="71"/>
+      <c r="DB10" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="DC10" s="78"/>
+      <c r="DD10" s="78"/>
+      <c r="DE10" s="78"/>
+      <c r="DF10" s="78"/>
+      <c r="DG10" s="78"/>
+      <c r="DH10" s="78"/>
+      <c r="DI10" s="78"/>
+      <c r="DJ10" s="53"/>
+      <c r="DK10" s="53"/>
+      <c r="DL10" s="53"/>
+      <c r="DM10" s="53"/>
+      <c r="DN10" s="78"/>
+      <c r="DO10" s="78"/>
+      <c r="DP10" s="78"/>
+      <c r="DQ10" s="79"/>
+      <c r="DR10" s="16"/>
+      <c r="DS10" s="16"/>
+      <c r="DT10" s="16"/>
+      <c r="DU10" s="16"/>
+      <c r="DV10" s="63"/>
+      <c r="DW10" s="64"/>
+      <c r="DX10" s="64"/>
+      <c r="DY10" s="64"/>
+      <c r="DZ10" s="64"/>
+      <c r="EA10" s="65"/>
+      <c r="EB10" s="63"/>
+      <c r="EC10" s="64"/>
+      <c r="ED10" s="64"/>
+      <c r="EE10" s="64"/>
+      <c r="EF10" s="64"/>
+      <c r="EG10" s="65"/>
+      <c r="EP10" s="52"/>
+      <c r="EQ10" s="53"/>
+      <c r="ER10" s="53"/>
+      <c r="ES10" s="53"/>
+      <c r="ET10" s="53"/>
+      <c r="EU10" s="53"/>
+      <c r="EV10" s="53"/>
+      <c r="EW10" s="56"/>
+      <c r="EX10" s="17"/>
+      <c r="EY10" t="s">
+        <v>232</v>
+      </c>
+      <c r="FE10" s="18"/>
+      <c r="FJ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="FN10" s="63"/>
+      <c r="FO10" s="65"/>
+      <c r="FP10" s="129"/>
+      <c r="FQ10" s="129"/>
+      <c r="FR10" s="129"/>
+      <c r="FS10" s="131"/>
+      <c r="FT10" s="131"/>
+      <c r="FU10" s="31"/>
+      <c r="FV10" s="71"/>
+      <c r="FW10" s="71"/>
+      <c r="FX10" s="71"/>
+      <c r="FY10" s="71"/>
+      <c r="FZ10" s="71"/>
+      <c r="GA10" s="72"/>
+      <c r="GB10" s="70"/>
+      <c r="GC10" s="71"/>
+      <c r="GD10" s="71"/>
+      <c r="GE10" s="71"/>
+      <c r="GF10" s="71"/>
+      <c r="GG10" s="72"/>
+      <c r="GH10" s="52"/>
+      <c r="GI10" s="53"/>
+      <c r="GJ10" s="53"/>
+      <c r="GK10" s="53"/>
+      <c r="GL10" s="49"/>
+      <c r="GM10" s="49"/>
+      <c r="GN10" s="51"/>
+      <c r="GO10" s="63"/>
+      <c r="GP10" s="64"/>
+      <c r="GQ10" s="64"/>
+      <c r="GR10" s="64"/>
+      <c r="GS10" s="65"/>
+      <c r="GT10" s="52"/>
+      <c r="GU10" s="53"/>
+      <c r="GV10" s="53"/>
+      <c r="GW10" s="53"/>
+      <c r="GX10" s="53"/>
+      <c r="GY10" s="53"/>
+      <c r="GZ10" s="53"/>
+      <c r="HA10" s="56"/>
+      <c r="HB10" s="52"/>
+      <c r="HC10" s="53"/>
+      <c r="HD10" s="53"/>
+      <c r="HE10" s="53"/>
+      <c r="HF10" s="53"/>
+      <c r="HG10" s="53"/>
+      <c r="HH10" s="53"/>
+      <c r="HI10" s="56"/>
+    </row>
+    <row r="11" spans="1:217" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="52"/>
+      <c r="BI11" s="53"/>
+      <c r="BJ11" s="53"/>
+      <c r="BK11" s="53"/>
+      <c r="BL11" s="53"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="70"/>
+      <c r="BO11" s="71"/>
+      <c r="BP11" s="71"/>
+      <c r="BQ11" s="71"/>
+      <c r="BR11" s="71"/>
+      <c r="BS11" s="71"/>
+      <c r="BT11" s="71"/>
+      <c r="BU11" s="72"/>
+      <c r="BV11" s="70"/>
+      <c r="BW11" s="71"/>
+      <c r="BX11" s="71"/>
+      <c r="BY11" s="71"/>
+      <c r="BZ11" s="71"/>
+      <c r="CA11" s="71"/>
+      <c r="CB11" s="71"/>
+      <c r="CC11" s="72"/>
+      <c r="CD11" s="70"/>
+      <c r="CE11" s="71"/>
+      <c r="CF11" s="71"/>
+      <c r="CG11" s="71"/>
+      <c r="CH11" s="71"/>
+      <c r="CI11" s="71"/>
+      <c r="CJ11" s="71"/>
+      <c r="CK11" s="72"/>
+      <c r="CL11" s="70"/>
+      <c r="CM11" s="71"/>
+      <c r="CN11" s="71"/>
+      <c r="CO11" s="71"/>
+      <c r="CP11" s="71"/>
+      <c r="CQ11" s="71"/>
+      <c r="CR11" s="71"/>
+      <c r="CS11" s="71"/>
+      <c r="CT11" s="71"/>
+      <c r="CU11" s="71"/>
+      <c r="CV11" s="71"/>
+      <c r="CW11" s="71"/>
+      <c r="CX11" s="71"/>
+      <c r="CY11" s="71"/>
+      <c r="CZ11" s="71"/>
+      <c r="DA11" s="71"/>
+      <c r="DB11" s="80"/>
+      <c r="DC11" s="53"/>
+      <c r="DD11" s="53"/>
+      <c r="DE11" s="53"/>
+      <c r="DF11" s="53"/>
+      <c r="DG11" s="53"/>
+      <c r="DH11" s="53"/>
+      <c r="DI11" s="53"/>
+      <c r="DJ11" s="53"/>
+      <c r="DK11" s="53"/>
+      <c r="DL11" s="53"/>
+      <c r="DM11" s="53"/>
+      <c r="DN11" s="53"/>
+      <c r="DO11" s="53"/>
+      <c r="DP11" s="53"/>
+      <c r="DQ11" s="81"/>
+      <c r="DR11" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS11" s="53"/>
+      <c r="DT11" s="53"/>
+      <c r="DU11" s="53"/>
+      <c r="DV11" s="53"/>
+      <c r="DW11" s="53"/>
+      <c r="DX11" s="53"/>
+      <c r="DY11" s="53"/>
+      <c r="DZ11" s="53"/>
+      <c r="EA11" s="53"/>
+      <c r="EB11" s="53"/>
+      <c r="EC11" s="53"/>
+      <c r="ED11" s="53"/>
+      <c r="EE11" s="53"/>
+      <c r="EF11" s="53"/>
+      <c r="EG11" s="56"/>
+      <c r="EH11" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="CE9" s="67"/>
-      <c r="CF9" s="67"/>
-      <c r="CG9" s="67"/>
-      <c r="CH9" s="67"/>
-      <c r="CI9" s="67"/>
-      <c r="CJ9" s="67"/>
-      <c r="CK9" s="68"/>
-      <c r="CL9" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM9" s="67"/>
-      <c r="CN9" s="67"/>
-      <c r="CO9" s="67"/>
-      <c r="CP9" s="67"/>
-      <c r="CQ9" s="67"/>
-      <c r="CR9" s="67"/>
-      <c r="CS9" s="67"/>
-      <c r="CT9" s="67"/>
-      <c r="CU9" s="67"/>
-      <c r="CV9" s="67"/>
-      <c r="CW9" s="67"/>
-      <c r="CX9" s="67"/>
-      <c r="CY9" s="67"/>
-      <c r="CZ9" s="67"/>
-      <c r="DA9" s="68"/>
-      <c r="DB9" s="49"/>
-      <c r="DC9" s="50"/>
-      <c r="DD9" s="50"/>
-      <c r="DE9" s="50"/>
-      <c r="DF9" s="50"/>
-      <c r="DG9" s="50"/>
-      <c r="DH9" s="50"/>
-      <c r="DI9" s="50"/>
-      <c r="DJ9" s="50"/>
-      <c r="DK9" s="50"/>
-      <c r="DL9" s="50"/>
-      <c r="DM9" s="50"/>
-      <c r="DN9" s="114" t="s">
+      <c r="EI11" s="53"/>
+      <c r="EJ11" s="53"/>
+      <c r="EK11" s="53"/>
+      <c r="EL11" s="53"/>
+      <c r="EM11" s="53"/>
+      <c r="EN11" s="53"/>
+      <c r="EO11" s="56"/>
+      <c r="EP11" s="52"/>
+      <c r="EQ11" s="53"/>
+      <c r="ER11" s="53"/>
+      <c r="ES11" s="53"/>
+      <c r="ET11" s="53"/>
+      <c r="EU11" s="53"/>
+      <c r="EV11" s="53"/>
+      <c r="EW11" s="56"/>
+      <c r="EX11" s="17"/>
+      <c r="EY11" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="FE11" s="18"/>
+      <c r="FF11" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="FG11" s="85"/>
+      <c r="FH11" s="85"/>
+      <c r="FI11" s="87"/>
+      <c r="FN11" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="FO11" s="81"/>
+      <c r="FP11" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="FQ11" s="135"/>
+      <c r="FR11" s="135"/>
+      <c r="FS11" s="135"/>
+      <c r="FT11" s="135"/>
+      <c r="FU11" s="81"/>
+      <c r="FV11" s="71"/>
+      <c r="FW11" s="71"/>
+      <c r="FX11" s="71"/>
+      <c r="FY11" s="71"/>
+      <c r="FZ11" s="71"/>
+      <c r="GA11" s="72"/>
+      <c r="GB11" s="70"/>
+      <c r="GC11" s="71"/>
+      <c r="GD11" s="71"/>
+      <c r="GE11" s="71"/>
+      <c r="GF11" s="71"/>
+      <c r="GG11" s="72"/>
+      <c r="GH11" s="52"/>
+      <c r="GI11" s="53"/>
+      <c r="GJ11" s="53"/>
+      <c r="GK11" s="53"/>
+      <c r="GL11" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="DO9" s="115"/>
-      <c r="DP9" s="115"/>
-      <c r="DQ9" s="116"/>
-      <c r="DR9" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="DS9" s="82"/>
-      <c r="DT9" s="82"/>
-      <c r="DU9" s="82"/>
-      <c r="DV9" s="82"/>
-      <c r="DW9" s="82"/>
-      <c r="DX9" s="82"/>
-      <c r="DY9" s="82"/>
-      <c r="DZ9" s="82"/>
-      <c r="EA9" s="82"/>
-      <c r="EB9" s="82"/>
-      <c r="EC9" s="82"/>
-      <c r="ED9" s="82"/>
-      <c r="EE9" s="82"/>
-      <c r="EF9" s="82"/>
-      <c r="EG9" s="83"/>
-      <c r="EP9" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="EQ9" s="82"/>
-      <c r="ER9" s="82"/>
-      <c r="ES9" s="82"/>
-      <c r="ET9" s="82"/>
-      <c r="EU9" s="82"/>
-      <c r="EV9" s="82"/>
-      <c r="EW9" s="83"/>
-      <c r="EX9" s="17"/>
-      <c r="EY9" s="17"/>
-      <c r="EZ9" s="18"/>
-      <c r="FA9" s="18"/>
-      <c r="FB9" s="18"/>
-      <c r="FC9" s="18"/>
-      <c r="FD9" s="18"/>
-      <c r="FE9" s="19"/>
-      <c r="FJ9" t="s">
-        <v>55</v>
-      </c>
-      <c r="FN9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="FO9" s="34"/>
-      <c r="FP9" s="34"/>
-      <c r="FQ9" s="34"/>
-      <c r="FR9" s="35"/>
-      <c r="FS9" s="13"/>
-      <c r="FT9" s="13"/>
-      <c r="FU9" s="15"/>
-      <c r="FV9" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="FW9" s="67"/>
-      <c r="FX9" s="67"/>
-      <c r="FY9" s="67"/>
-      <c r="FZ9" s="67"/>
-      <c r="GA9" s="68"/>
-      <c r="GB9" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="GC9" s="67"/>
-      <c r="GD9" s="67"/>
-      <c r="GE9" s="67"/>
-      <c r="GF9" s="67"/>
-      <c r="GG9" s="68"/>
-      <c r="GT9" s="88" t="s">
-        <v>225</v>
-      </c>
-      <c r="GU9" s="82"/>
-      <c r="GV9" s="82"/>
-      <c r="GW9" s="82"/>
-      <c r="GX9" s="82"/>
-      <c r="GY9" s="82"/>
-      <c r="GZ9" s="82"/>
-      <c r="HA9" s="85"/>
-      <c r="HB9" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="HC9" s="82"/>
-      <c r="HD9" s="82"/>
-      <c r="HE9" s="82"/>
-      <c r="HF9" s="82"/>
-      <c r="HG9" s="82"/>
-      <c r="HH9" s="82"/>
-      <c r="HI9" s="83"/>
-    </row>
-    <row r="10" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="84"/>
-      <c r="BG10" s="85"/>
-      <c r="BH10" s="89"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="84"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="85"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="70"/>
-      <c r="BP10" s="70"/>
-      <c r="BQ10" s="70"/>
-      <c r="BR10" s="70"/>
-      <c r="BS10" s="70"/>
-      <c r="BT10" s="70"/>
-      <c r="BU10" s="71"/>
-      <c r="BV10" s="69"/>
-      <c r="BW10" s="70"/>
-      <c r="BX10" s="70"/>
-      <c r="BY10" s="70"/>
-      <c r="BZ10" s="70"/>
-      <c r="CA10" s="70"/>
-      <c r="CB10" s="70"/>
-      <c r="CC10" s="71"/>
-      <c r="CD10" s="69"/>
-      <c r="CE10" s="70"/>
-      <c r="CF10" s="70"/>
-      <c r="CG10" s="70"/>
-      <c r="CH10" s="70"/>
-      <c r="CI10" s="70"/>
-      <c r="CJ10" s="70"/>
-      <c r="CK10" s="71"/>
-      <c r="CL10" s="69"/>
-      <c r="CM10" s="70"/>
-      <c r="CN10" s="70"/>
-      <c r="CO10" s="70"/>
-      <c r="CP10" s="70"/>
-      <c r="CQ10" s="70"/>
-      <c r="CR10" s="70"/>
-      <c r="CS10" s="70"/>
-      <c r="CT10" s="70"/>
-      <c r="CU10" s="70"/>
-      <c r="CV10" s="70"/>
-      <c r="CW10" s="70"/>
-      <c r="CX10" s="70"/>
-      <c r="CY10" s="70"/>
-      <c r="CZ10" s="70"/>
-      <c r="DA10" s="70"/>
-      <c r="DB10" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="DC10" s="115"/>
-      <c r="DD10" s="115"/>
-      <c r="DE10" s="115"/>
-      <c r="DF10" s="115"/>
-      <c r="DG10" s="115"/>
-      <c r="DH10" s="115"/>
-      <c r="DI10" s="115"/>
-      <c r="DJ10" s="115"/>
-      <c r="DK10" s="115"/>
-      <c r="DL10" s="115"/>
-      <c r="DM10" s="115"/>
-      <c r="DN10" s="115"/>
-      <c r="DO10" s="115"/>
-      <c r="DP10" s="115"/>
-      <c r="DQ10" s="116"/>
-      <c r="DR10" s="84"/>
-      <c r="DS10" s="84"/>
-      <c r="DT10" s="84"/>
-      <c r="DU10" s="84"/>
-      <c r="DV10" s="84"/>
-      <c r="DW10" s="84"/>
-      <c r="DX10" s="84"/>
-      <c r="DY10" s="84"/>
-      <c r="DZ10" s="84"/>
-      <c r="EA10" s="84"/>
-      <c r="EB10" s="84"/>
-      <c r="EC10" s="84"/>
-      <c r="ED10" s="84"/>
-      <c r="EE10" s="84"/>
-      <c r="EF10" s="84"/>
-      <c r="EG10" s="85"/>
-      <c r="EP10" s="89"/>
-      <c r="EQ10" s="84"/>
-      <c r="ER10" s="84"/>
-      <c r="ES10" s="84"/>
-      <c r="ET10" s="84"/>
-      <c r="EU10" s="84"/>
-      <c r="EV10" s="84"/>
-      <c r="EW10" s="85"/>
-      <c r="EX10" s="20"/>
-      <c r="EY10" s="20"/>
-      <c r="FE10" s="21"/>
-      <c r="FJ10" t="s">
-        <v>65</v>
-      </c>
-      <c r="FN10" s="38"/>
-      <c r="FO10" s="16"/>
-      <c r="FP10" s="16"/>
-      <c r="FQ10" s="16"/>
-      <c r="FR10" s="16"/>
-      <c r="FU10" s="36"/>
-      <c r="FV10" s="70"/>
-      <c r="FW10" s="70"/>
-      <c r="FX10" s="70"/>
-      <c r="FY10" s="70"/>
-      <c r="FZ10" s="70"/>
-      <c r="GA10" s="71"/>
-      <c r="GB10" s="69"/>
-      <c r="GC10" s="70"/>
-      <c r="GD10" s="70"/>
-      <c r="GE10" s="70"/>
-      <c r="GF10" s="70"/>
-      <c r="GG10" s="71"/>
-      <c r="GT10" s="89"/>
-      <c r="GU10" s="84"/>
-      <c r="GV10" s="84"/>
-      <c r="GW10" s="84"/>
-      <c r="GX10" s="84"/>
-      <c r="GY10" s="84"/>
-      <c r="GZ10" s="84"/>
-      <c r="HA10" s="85"/>
-      <c r="HB10" s="89"/>
-      <c r="HC10" s="84"/>
-      <c r="HD10" s="84"/>
-      <c r="HE10" s="84"/>
-      <c r="HF10" s="84"/>
-      <c r="HG10" s="84"/>
-      <c r="HH10" s="84"/>
-      <c r="HI10" s="85"/>
-    </row>
-    <row r="11" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="84"/>
-      <c r="BE11" s="84"/>
-      <c r="BF11" s="84"/>
-      <c r="BG11" s="85"/>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="84"/>
-      <c r="BJ11" s="84"/>
-      <c r="BK11" s="84"/>
-      <c r="BL11" s="84"/>
-      <c r="BM11" s="85"/>
-      <c r="BN11" s="69"/>
-      <c r="BO11" s="70"/>
-      <c r="BP11" s="70"/>
-      <c r="BQ11" s="70"/>
-      <c r="BR11" s="70"/>
-      <c r="BS11" s="70"/>
-      <c r="BT11" s="70"/>
-      <c r="BU11" s="71"/>
-      <c r="BV11" s="69"/>
-      <c r="BW11" s="70"/>
-      <c r="BX11" s="70"/>
-      <c r="BY11" s="70"/>
-      <c r="BZ11" s="70"/>
-      <c r="CA11" s="70"/>
-      <c r="CB11" s="70"/>
-      <c r="CC11" s="71"/>
-      <c r="CD11" s="69"/>
-      <c r="CE11" s="70"/>
-      <c r="CF11" s="70"/>
-      <c r="CG11" s="70"/>
-      <c r="CH11" s="70"/>
-      <c r="CI11" s="70"/>
-      <c r="CJ11" s="70"/>
-      <c r="CK11" s="71"/>
-      <c r="CL11" s="69"/>
-      <c r="CM11" s="70"/>
-      <c r="CN11" s="70"/>
-      <c r="CO11" s="70"/>
-      <c r="CP11" s="70"/>
-      <c r="CQ11" s="70"/>
-      <c r="CR11" s="70"/>
-      <c r="CS11" s="70"/>
-      <c r="CT11" s="70"/>
-      <c r="CU11" s="70"/>
-      <c r="CV11" s="70"/>
-      <c r="CW11" s="70"/>
-      <c r="CX11" s="70"/>
-      <c r="CY11" s="70"/>
-      <c r="CZ11" s="70"/>
-      <c r="DA11" s="70"/>
-      <c r="DB11" s="117"/>
-      <c r="DC11" s="84"/>
-      <c r="DD11" s="84"/>
-      <c r="DE11" s="84"/>
-      <c r="DF11" s="84"/>
-      <c r="DG11" s="84"/>
-      <c r="DH11" s="84"/>
-      <c r="DI11" s="84"/>
-      <c r="DJ11" s="84"/>
-      <c r="DK11" s="84"/>
-      <c r="DL11" s="84"/>
-      <c r="DM11" s="84"/>
-      <c r="DN11" s="84"/>
-      <c r="DO11" s="84"/>
-      <c r="DP11" s="84"/>
-      <c r="DQ11" s="118"/>
-      <c r="DR11" s="84"/>
-      <c r="DS11" s="84"/>
-      <c r="DT11" s="84"/>
-      <c r="DU11" s="84"/>
-      <c r="DV11" s="84"/>
-      <c r="DW11" s="84"/>
-      <c r="DX11" s="84"/>
-      <c r="DY11" s="84"/>
-      <c r="DZ11" s="84"/>
-      <c r="EA11" s="84"/>
-      <c r="EB11" s="84"/>
-      <c r="EC11" s="84"/>
-      <c r="ED11" s="84"/>
-      <c r="EE11" s="84"/>
-      <c r="EF11" s="84"/>
-      <c r="EG11" s="85"/>
-      <c r="EH11" t="s">
-        <v>223</v>
-      </c>
-      <c r="EP11" s="89"/>
-      <c r="EQ11" s="84"/>
-      <c r="ER11" s="84"/>
-      <c r="ES11" s="84"/>
-      <c r="ET11" s="84"/>
-      <c r="EU11" s="84"/>
-      <c r="EV11" s="84"/>
-      <c r="EW11" s="85"/>
-      <c r="EX11" s="20"/>
-      <c r="EY11" s="20"/>
-      <c r="FE11" s="21"/>
-      <c r="FN11" s="38"/>
-      <c r="FO11" s="16"/>
-      <c r="FP11" s="16"/>
-      <c r="FQ11" s="16"/>
-      <c r="FR11" s="16"/>
-      <c r="FU11" s="36"/>
-      <c r="FV11" s="70"/>
-      <c r="FW11" s="70"/>
-      <c r="FX11" s="70"/>
-      <c r="FY11" s="70"/>
-      <c r="FZ11" s="70"/>
-      <c r="GA11" s="71"/>
-      <c r="GB11" s="69"/>
-      <c r="GC11" s="70"/>
-      <c r="GD11" s="70"/>
-      <c r="GE11" s="70"/>
-      <c r="GF11" s="70"/>
-      <c r="GG11" s="71"/>
-      <c r="GH11" t="s">
-        <v>156</v>
-      </c>
-      <c r="GM11" t="s">
-        <v>154</v>
-      </c>
-      <c r="GT11" s="89"/>
-      <c r="GU11" s="84"/>
-      <c r="GV11" s="84"/>
-      <c r="GW11" s="84"/>
-      <c r="GX11" s="84"/>
-      <c r="GY11" s="84"/>
-      <c r="GZ11" s="84"/>
-      <c r="HA11" s="85"/>
-      <c r="HB11" s="89"/>
-      <c r="HC11" s="84"/>
-      <c r="HD11" s="84"/>
-      <c r="HE11" s="84"/>
-      <c r="HF11" s="84"/>
-      <c r="HG11" s="84"/>
-      <c r="HH11" s="84"/>
-      <c r="HI11" s="85"/>
+      <c r="GM11" s="62"/>
+      <c r="GN11" s="62"/>
+      <c r="GT11" s="52"/>
+      <c r="GU11" s="53"/>
+      <c r="GV11" s="53"/>
+      <c r="GW11" s="53"/>
+      <c r="GX11" s="53"/>
+      <c r="GY11" s="53"/>
+      <c r="GZ11" s="53"/>
+      <c r="HA11" s="56"/>
+      <c r="HB11" s="52"/>
+      <c r="HC11" s="53"/>
+      <c r="HD11" s="53"/>
+      <c r="HE11" s="53"/>
+      <c r="HF11" s="53"/>
+      <c r="HG11" s="53"/>
+      <c r="HH11" s="53"/>
+      <c r="HI11" s="56"/>
     </row>
     <row r="12" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="84"/>
-      <c r="BD12" s="84"/>
-      <c r="BE12" s="84"/>
-      <c r="BF12" s="84"/>
-      <c r="BG12" s="85"/>
-      <c r="BH12" s="89"/>
-      <c r="BI12" s="84"/>
-      <c r="BJ12" s="84"/>
-      <c r="BK12" s="84"/>
-      <c r="BL12" s="84"/>
-      <c r="BM12" s="85"/>
-      <c r="BN12" s="69"/>
-      <c r="BO12" s="70"/>
-      <c r="BP12" s="70"/>
-      <c r="BQ12" s="70"/>
-      <c r="BR12" s="70"/>
-      <c r="BS12" s="70"/>
-      <c r="BT12" s="70"/>
-      <c r="BU12" s="71"/>
-      <c r="BV12" s="69"/>
-      <c r="BW12" s="70"/>
-      <c r="BX12" s="70"/>
-      <c r="BY12" s="70"/>
-      <c r="BZ12" s="70"/>
-      <c r="CA12" s="70"/>
-      <c r="CB12" s="70"/>
-      <c r="CC12" s="71"/>
-      <c r="CD12" s="69"/>
-      <c r="CE12" s="70"/>
-      <c r="CF12" s="70"/>
-      <c r="CG12" s="70"/>
-      <c r="CH12" s="70"/>
-      <c r="CI12" s="70"/>
-      <c r="CJ12" s="70"/>
-      <c r="CK12" s="71"/>
-      <c r="CL12" s="69"/>
-      <c r="CM12" s="70"/>
-      <c r="CN12" s="70"/>
-      <c r="CO12" s="70"/>
-      <c r="CP12" s="70"/>
-      <c r="CQ12" s="70"/>
-      <c r="CR12" s="70"/>
-      <c r="CS12" s="70"/>
-      <c r="CT12" s="70"/>
-      <c r="CU12" s="70"/>
-      <c r="CV12" s="70"/>
-      <c r="CW12" s="70"/>
-      <c r="CX12" s="70"/>
-      <c r="CY12" s="70"/>
-      <c r="CZ12" s="70"/>
-      <c r="DA12" s="70"/>
-      <c r="DB12" s="117"/>
-      <c r="DC12" s="84"/>
-      <c r="DD12" s="84"/>
-      <c r="DE12" s="84"/>
-      <c r="DF12" s="84"/>
-      <c r="DG12" s="84"/>
-      <c r="DH12" s="84"/>
-      <c r="DI12" s="84"/>
-      <c r="DJ12" s="84"/>
-      <c r="DK12" s="84"/>
-      <c r="DL12" s="84"/>
-      <c r="DM12" s="84"/>
-      <c r="DN12" s="84"/>
-      <c r="DO12" s="84"/>
-      <c r="DP12" s="84"/>
-      <c r="DQ12" s="118"/>
-      <c r="DR12" s="84"/>
-      <c r="DS12" s="84"/>
-      <c r="DT12" s="84"/>
-      <c r="DU12" s="84"/>
-      <c r="DV12" s="84"/>
-      <c r="DW12" s="84"/>
-      <c r="DX12" s="84"/>
-      <c r="DY12" s="84"/>
-      <c r="DZ12" s="84"/>
-      <c r="EA12" s="84"/>
-      <c r="EB12" s="84"/>
-      <c r="EC12" s="84"/>
-      <c r="ED12" s="84"/>
-      <c r="EE12" s="84"/>
-      <c r="EF12" s="84"/>
-      <c r="EG12" s="85"/>
-      <c r="EP12" s="89"/>
-      <c r="EQ12" s="84"/>
-      <c r="ER12" s="84"/>
-      <c r="ES12" s="84"/>
-      <c r="ET12" s="84"/>
-      <c r="EU12" s="84"/>
-      <c r="EV12" s="84"/>
-      <c r="EW12" s="85"/>
-      <c r="EX12" s="20"/>
-      <c r="EY12" s="20"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="53"/>
+      <c r="BC12" s="53"/>
+      <c r="BD12" s="53"/>
+      <c r="BE12" s="53"/>
+      <c r="BF12" s="53"/>
+      <c r="BG12" s="56"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="53"/>
+      <c r="BJ12" s="53"/>
+      <c r="BK12" s="53"/>
+      <c r="BL12" s="53"/>
+      <c r="BM12" s="56"/>
+      <c r="BN12" s="70"/>
+      <c r="BO12" s="71"/>
+      <c r="BP12" s="71"/>
+      <c r="BQ12" s="71"/>
+      <c r="BR12" s="71"/>
+      <c r="BS12" s="71"/>
+      <c r="BT12" s="71"/>
+      <c r="BU12" s="72"/>
+      <c r="BV12" s="70"/>
+      <c r="BW12" s="71"/>
+      <c r="BX12" s="71"/>
+      <c r="BY12" s="71"/>
+      <c r="BZ12" s="71"/>
+      <c r="CA12" s="71"/>
+      <c r="CB12" s="71"/>
+      <c r="CC12" s="72"/>
+      <c r="CD12" s="70"/>
+      <c r="CE12" s="71"/>
+      <c r="CF12" s="71"/>
+      <c r="CG12" s="71"/>
+      <c r="CH12" s="71"/>
+      <c r="CI12" s="71"/>
+      <c r="CJ12" s="71"/>
+      <c r="CK12" s="72"/>
+      <c r="CL12" s="70"/>
+      <c r="CM12" s="71"/>
+      <c r="CN12" s="71"/>
+      <c r="CO12" s="71"/>
+      <c r="CP12" s="71"/>
+      <c r="CQ12" s="71"/>
+      <c r="CR12" s="71"/>
+      <c r="CS12" s="71"/>
+      <c r="CT12" s="71"/>
+      <c r="CU12" s="71"/>
+      <c r="CV12" s="71"/>
+      <c r="CW12" s="71"/>
+      <c r="CX12" s="71"/>
+      <c r="CY12" s="71"/>
+      <c r="CZ12" s="71"/>
+      <c r="DA12" s="71"/>
+      <c r="DB12" s="80"/>
+      <c r="DC12" s="53"/>
+      <c r="DD12" s="53"/>
+      <c r="DE12" s="53"/>
+      <c r="DF12" s="53"/>
+      <c r="DG12" s="53"/>
+      <c r="DH12" s="53"/>
+      <c r="DI12" s="53"/>
+      <c r="DJ12" s="53"/>
+      <c r="DK12" s="53"/>
+      <c r="DL12" s="53"/>
+      <c r="DM12" s="53"/>
+      <c r="DN12" s="53"/>
+      <c r="DO12" s="53"/>
+      <c r="DP12" s="53"/>
+      <c r="DQ12" s="81"/>
+      <c r="DR12" s="80"/>
+      <c r="DS12" s="53"/>
+      <c r="DT12" s="53"/>
+      <c r="DU12" s="53"/>
+      <c r="DV12" s="53"/>
+      <c r="DW12" s="53"/>
+      <c r="DX12" s="53"/>
+      <c r="DY12" s="53"/>
+      <c r="DZ12" s="53"/>
+      <c r="EA12" s="53"/>
+      <c r="EB12" s="53"/>
+      <c r="EC12" s="53"/>
+      <c r="ED12" s="53"/>
+      <c r="EE12" s="53"/>
+      <c r="EF12" s="53"/>
+      <c r="EG12" s="56"/>
+      <c r="EP12" s="52"/>
+      <c r="EQ12" s="53"/>
+      <c r="ER12" s="53"/>
+      <c r="ES12" s="53"/>
+      <c r="ET12" s="53"/>
+      <c r="EU12" s="53"/>
+      <c r="EV12" s="53"/>
+      <c r="EW12" s="56"/>
+      <c r="EX12" s="17"/>
+      <c r="EY12" s="17"/>
       <c r="EZ12" t="s">
-        <v>97</v>
-      </c>
-      <c r="FE12" s="21"/>
-      <c r="FK12" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="FL12" s="112"/>
-      <c r="FM12" s="113"/>
-      <c r="FN12" s="38"/>
-      <c r="FO12" s="16"/>
-      <c r="FP12" s="16"/>
-      <c r="FQ12" s="16"/>
-      <c r="FR12" s="16"/>
-      <c r="FU12" s="36"/>
-      <c r="FV12" s="70"/>
-      <c r="FW12" s="70"/>
-      <c r="FX12" s="70"/>
-      <c r="FY12" s="70"/>
-      <c r="FZ12" s="70"/>
-      <c r="GA12" s="71"/>
-      <c r="GB12" s="69"/>
-      <c r="GC12" s="70"/>
-      <c r="GD12" s="70"/>
-      <c r="GE12" s="70"/>
-      <c r="GF12" s="70"/>
-      <c r="GG12" s="71"/>
-      <c r="GM12" t="s">
-        <v>154</v>
-      </c>
-      <c r="GT12" s="89"/>
-      <c r="GU12" s="84"/>
-      <c r="GV12" s="84"/>
-      <c r="GW12" s="84"/>
-      <c r="GX12" s="84"/>
-      <c r="GY12" s="84"/>
-      <c r="GZ12" s="84"/>
-      <c r="HA12" s="85"/>
-      <c r="HB12" s="89"/>
-      <c r="HC12" s="84"/>
-      <c r="HD12" s="84"/>
-      <c r="HE12" s="84"/>
-      <c r="HF12" s="84"/>
-      <c r="HG12" s="84"/>
-      <c r="HH12" s="84"/>
-      <c r="HI12" s="85"/>
+        <v>95</v>
+      </c>
+      <c r="FE12" s="18"/>
+      <c r="FK12" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="FL12" s="76"/>
+      <c r="FM12" s="130"/>
+      <c r="FN12" s="80"/>
+      <c r="FO12" s="81"/>
+      <c r="FP12" s="80"/>
+      <c r="FQ12" s="135"/>
+      <c r="FR12" s="135"/>
+      <c r="FS12" s="135"/>
+      <c r="FT12" s="135"/>
+      <c r="FU12" s="81"/>
+      <c r="FV12" s="71"/>
+      <c r="FW12" s="71"/>
+      <c r="FX12" s="71"/>
+      <c r="FY12" s="71"/>
+      <c r="FZ12" s="71"/>
+      <c r="GA12" s="72"/>
+      <c r="GB12" s="70"/>
+      <c r="GC12" s="71"/>
+      <c r="GD12" s="71"/>
+      <c r="GE12" s="71"/>
+      <c r="GF12" s="71"/>
+      <c r="GG12" s="72"/>
+      <c r="GH12" s="52"/>
+      <c r="GI12" s="53"/>
+      <c r="GJ12" s="53"/>
+      <c r="GK12" s="53"/>
+      <c r="GL12" t="s">
+        <v>214</v>
+      </c>
+      <c r="GT12" s="52"/>
+      <c r="GU12" s="53"/>
+      <c r="GV12" s="53"/>
+      <c r="GW12" s="53"/>
+      <c r="GX12" s="53"/>
+      <c r="GY12" s="53"/>
+      <c r="GZ12" s="53"/>
+      <c r="HA12" s="56"/>
+      <c r="HB12" s="52"/>
+      <c r="HC12" s="53"/>
+      <c r="HD12" s="53"/>
+      <c r="HE12" s="53"/>
+      <c r="HF12" s="53"/>
+      <c r="HG12" s="53"/>
+      <c r="HH12" s="53"/>
+      <c r="HI12" s="56"/>
     </row>
     <row r="13" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="84"/>
-      <c r="BD13" s="84"/>
-      <c r="BE13" s="84"/>
-      <c r="BF13" s="84"/>
-      <c r="BG13" s="85"/>
-      <c r="BH13" s="89"/>
-      <c r="BI13" s="84"/>
-      <c r="BJ13" s="84"/>
-      <c r="BK13" s="84"/>
-      <c r="BL13" s="84"/>
-      <c r="BM13" s="85"/>
-      <c r="BN13" s="69"/>
-      <c r="BO13" s="70"/>
-      <c r="BP13" s="70"/>
-      <c r="BQ13" s="70"/>
-      <c r="BR13" s="70"/>
-      <c r="BS13" s="70"/>
-      <c r="BT13" s="70"/>
-      <c r="BU13" s="71"/>
-      <c r="BV13" s="69"/>
-      <c r="BW13" s="70"/>
-      <c r="BX13" s="70"/>
-      <c r="BY13" s="70"/>
-      <c r="BZ13" s="70"/>
-      <c r="CA13" s="70"/>
-      <c r="CB13" s="70"/>
-      <c r="CC13" s="71"/>
-      <c r="CD13" s="69"/>
-      <c r="CE13" s="70"/>
-      <c r="CF13" s="70"/>
-      <c r="CG13" s="70"/>
-      <c r="CH13" s="70"/>
-      <c r="CI13" s="70"/>
-      <c r="CJ13" s="70"/>
-      <c r="CK13" s="71"/>
-      <c r="CL13" s="69"/>
-      <c r="CM13" s="70"/>
-      <c r="CN13" s="70"/>
-      <c r="CO13" s="70"/>
-      <c r="CP13" s="70"/>
-      <c r="CQ13" s="70"/>
-      <c r="CR13" s="70"/>
-      <c r="CS13" s="70"/>
-      <c r="CT13" s="70"/>
-      <c r="CU13" s="70"/>
-      <c r="CV13" s="70"/>
-      <c r="CW13" s="70"/>
-      <c r="CX13" s="70"/>
-      <c r="CY13" s="70"/>
-      <c r="CZ13" s="70"/>
-      <c r="DA13" s="70"/>
-      <c r="DB13" s="117"/>
-      <c r="DC13" s="84"/>
-      <c r="DD13" s="84"/>
-      <c r="DE13" s="84"/>
-      <c r="DF13" s="84"/>
-      <c r="DG13" s="84"/>
-      <c r="DH13" s="84"/>
-      <c r="DI13" s="84"/>
-      <c r="DJ13" s="84"/>
-      <c r="DK13" s="84"/>
-      <c r="DL13" s="84"/>
-      <c r="DM13" s="84"/>
-      <c r="DN13" s="84"/>
-      <c r="DO13" s="84"/>
-      <c r="DP13" s="84"/>
-      <c r="DQ13" s="118"/>
-      <c r="DR13" s="84"/>
-      <c r="DS13" s="84"/>
-      <c r="DT13" s="84"/>
-      <c r="DU13" s="84"/>
-      <c r="DV13" s="84"/>
-      <c r="DW13" s="84"/>
-      <c r="DX13" s="84"/>
-      <c r="DY13" s="84"/>
-      <c r="DZ13" s="84"/>
-      <c r="EA13" s="84"/>
-      <c r="EB13" s="84"/>
-      <c r="EC13" s="84"/>
-      <c r="ED13" s="84"/>
-      <c r="EE13" s="84"/>
-      <c r="EF13" s="84"/>
-      <c r="EG13" s="85"/>
-      <c r="EP13" s="89"/>
-      <c r="EQ13" s="84"/>
-      <c r="ER13" s="84"/>
-      <c r="ES13" s="84"/>
-      <c r="ET13" s="84"/>
-      <c r="EU13" s="84"/>
-      <c r="EV13" s="84"/>
-      <c r="EW13" s="85"/>
-      <c r="EX13" s="20"/>
-      <c r="EY13" s="20"/>
-      <c r="FE13" s="21"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="52"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="56"/>
+      <c r="BH13" s="52"/>
+      <c r="BI13" s="53"/>
+      <c r="BJ13" s="53"/>
+      <c r="BK13" s="53"/>
+      <c r="BL13" s="53"/>
+      <c r="BM13" s="56"/>
+      <c r="BN13" s="70"/>
+      <c r="BO13" s="71"/>
+      <c r="BP13" s="71"/>
+      <c r="BQ13" s="71"/>
+      <c r="BR13" s="71"/>
+      <c r="BS13" s="71"/>
+      <c r="BT13" s="71"/>
+      <c r="BU13" s="72"/>
+      <c r="BV13" s="70"/>
+      <c r="BW13" s="71"/>
+      <c r="BX13" s="71"/>
+      <c r="BY13" s="71"/>
+      <c r="BZ13" s="71"/>
+      <c r="CA13" s="71"/>
+      <c r="CB13" s="71"/>
+      <c r="CC13" s="72"/>
+      <c r="CD13" s="70"/>
+      <c r="CE13" s="71"/>
+      <c r="CF13" s="71"/>
+      <c r="CG13" s="71"/>
+      <c r="CH13" s="71"/>
+      <c r="CI13" s="71"/>
+      <c r="CJ13" s="71"/>
+      <c r="CK13" s="72"/>
+      <c r="CL13" s="70"/>
+      <c r="CM13" s="71"/>
+      <c r="CN13" s="71"/>
+      <c r="CO13" s="71"/>
+      <c r="CP13" s="71"/>
+      <c r="CQ13" s="71"/>
+      <c r="CR13" s="71"/>
+      <c r="CS13" s="71"/>
+      <c r="CT13" s="71"/>
+      <c r="CU13" s="71"/>
+      <c r="CV13" s="71"/>
+      <c r="CW13" s="71"/>
+      <c r="CX13" s="71"/>
+      <c r="CY13" s="71"/>
+      <c r="CZ13" s="71"/>
+      <c r="DA13" s="71"/>
+      <c r="DB13" s="80"/>
+      <c r="DC13" s="53"/>
+      <c r="DD13" s="53"/>
+      <c r="DE13" s="53"/>
+      <c r="DF13" s="53"/>
+      <c r="DG13" s="53"/>
+      <c r="DH13" s="53"/>
+      <c r="DI13" s="53"/>
+      <c r="DJ13" s="53"/>
+      <c r="DK13" s="53"/>
+      <c r="DL13" s="53"/>
+      <c r="DM13" s="53"/>
+      <c r="DN13" s="53"/>
+      <c r="DO13" s="53"/>
+      <c r="DP13" s="53"/>
+      <c r="DQ13" s="81"/>
+      <c r="DR13" s="80"/>
+      <c r="DS13" s="53"/>
+      <c r="DT13" s="53"/>
+      <c r="DU13" s="53"/>
+      <c r="DV13" s="53"/>
+      <c r="DW13" s="53"/>
+      <c r="DX13" s="53"/>
+      <c r="DY13" s="53"/>
+      <c r="DZ13" s="53"/>
+      <c r="EA13" s="53"/>
+      <c r="EB13" s="53"/>
+      <c r="EC13" s="53"/>
+      <c r="ED13" s="53"/>
+      <c r="EE13" s="53"/>
+      <c r="EF13" s="53"/>
+      <c r="EG13" s="56"/>
+      <c r="EP13" s="52"/>
+      <c r="EQ13" s="53"/>
+      <c r="ER13" s="53"/>
+      <c r="ES13" s="53"/>
+      <c r="ET13" s="53"/>
+      <c r="EU13" s="53"/>
+      <c r="EV13" s="53"/>
+      <c r="EW13" s="56"/>
+      <c r="EX13" s="17"/>
+      <c r="EY13" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="FE13" s="18"/>
       <c r="FG13" t="s">
-        <v>89</v>
-      </c>
-      <c r="FN13" s="38"/>
-      <c r="FO13" s="16"/>
-      <c r="FP13" s="16"/>
-      <c r="FQ13" s="16"/>
-      <c r="FR13" s="16"/>
-      <c r="FU13" s="36"/>
-      <c r="FV13" s="70"/>
-      <c r="FW13" s="70"/>
-      <c r="FX13" s="70"/>
-      <c r="FY13" s="70"/>
-      <c r="FZ13" s="70"/>
-      <c r="GA13" s="71"/>
-      <c r="GB13" s="69"/>
-      <c r="GC13" s="70"/>
-      <c r="GD13" s="70"/>
-      <c r="GE13" s="70"/>
-      <c r="GF13" s="70"/>
-      <c r="GG13" s="71"/>
-      <c r="GL13" t="s">
-        <v>155</v>
-      </c>
-      <c r="GT13" s="89"/>
-      <c r="GU13" s="84"/>
-      <c r="GV13" s="84"/>
-      <c r="GW13" s="84"/>
-      <c r="GX13" s="84"/>
-      <c r="GY13" s="84"/>
-      <c r="GZ13" s="84"/>
-      <c r="HA13" s="85"/>
-      <c r="HB13" s="89"/>
-      <c r="HC13" s="84"/>
-      <c r="HD13" s="84"/>
-      <c r="HE13" s="84"/>
-      <c r="HF13" s="84"/>
-      <c r="HG13" s="84"/>
-      <c r="HH13" s="84"/>
-      <c r="HI13" s="85"/>
+        <v>87</v>
+      </c>
+      <c r="FN13" s="80"/>
+      <c r="FO13" s="81"/>
+      <c r="FP13" s="80"/>
+      <c r="FQ13" s="135"/>
+      <c r="FR13" s="135"/>
+      <c r="FS13" s="135"/>
+      <c r="FT13" s="135"/>
+      <c r="FU13" s="81"/>
+      <c r="FV13" s="71"/>
+      <c r="FW13" s="71"/>
+      <c r="FX13" s="71"/>
+      <c r="FY13" s="71"/>
+      <c r="FZ13" s="71"/>
+      <c r="GA13" s="72"/>
+      <c r="GB13" s="70"/>
+      <c r="GC13" s="71"/>
+      <c r="GD13" s="71"/>
+      <c r="GE13" s="71"/>
+      <c r="GF13" s="71"/>
+      <c r="GG13" s="72"/>
+      <c r="GH13" s="52"/>
+      <c r="GI13" s="53"/>
+      <c r="GJ13" s="53"/>
+      <c r="GK13" s="53"/>
+      <c r="GT13" s="52"/>
+      <c r="GU13" s="53"/>
+      <c r="GV13" s="53"/>
+      <c r="GW13" s="53"/>
+      <c r="GX13" s="53"/>
+      <c r="GY13" s="53"/>
+      <c r="GZ13" s="53"/>
+      <c r="HA13" s="56"/>
+      <c r="HB13" s="52"/>
+      <c r="HC13" s="53"/>
+      <c r="HD13" s="53"/>
+      <c r="HE13" s="53"/>
+      <c r="HF13" s="53"/>
+      <c r="HG13" s="53"/>
+      <c r="HH13" s="53"/>
+      <c r="HI13" s="56"/>
     </row>
     <row r="14" spans="1:217" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="86"/>
-      <c r="BD14" s="86"/>
-      <c r="BE14" s="86"/>
-      <c r="BF14" s="86"/>
-      <c r="BG14" s="87"/>
-      <c r="BH14" s="90"/>
-      <c r="BI14" s="86"/>
-      <c r="BJ14" s="86"/>
-      <c r="BK14" s="86"/>
-      <c r="BL14" s="86"/>
-      <c r="BM14" s="87"/>
-      <c r="BN14" s="72"/>
-      <c r="BO14" s="73"/>
-      <c r="BP14" s="73"/>
-      <c r="BQ14" s="73"/>
-      <c r="BR14" s="73"/>
-      <c r="BS14" s="73"/>
-      <c r="BT14" s="73"/>
-      <c r="BU14" s="74"/>
-      <c r="BV14" s="72"/>
-      <c r="BW14" s="73"/>
-      <c r="BX14" s="73"/>
-      <c r="BY14" s="73"/>
-      <c r="BZ14" s="73"/>
-      <c r="CA14" s="73"/>
-      <c r="CB14" s="73"/>
-      <c r="CC14" s="74"/>
-      <c r="CD14" s="72"/>
-      <c r="CE14" s="73"/>
-      <c r="CF14" s="73"/>
-      <c r="CG14" s="73"/>
-      <c r="CH14" s="73"/>
-      <c r="CI14" s="73"/>
-      <c r="CJ14" s="73"/>
-      <c r="CK14" s="74"/>
-      <c r="CL14" s="72"/>
-      <c r="CM14" s="73"/>
-      <c r="CN14" s="73"/>
-      <c r="CO14" s="73"/>
-      <c r="CP14" s="73"/>
-      <c r="CQ14" s="73"/>
-      <c r="CR14" s="73"/>
-      <c r="CS14" s="73"/>
-      <c r="CT14" s="73"/>
-      <c r="CU14" s="73"/>
-      <c r="CV14" s="73"/>
-      <c r="CW14" s="73"/>
-      <c r="CX14" s="73"/>
-      <c r="CY14" s="73"/>
-      <c r="CZ14" s="73"/>
-      <c r="DA14" s="73"/>
-      <c r="DB14" s="119"/>
-      <c r="DC14" s="120"/>
-      <c r="DD14" s="120"/>
-      <c r="DE14" s="120"/>
-      <c r="DF14" s="120"/>
-      <c r="DG14" s="120"/>
-      <c r="DH14" s="120"/>
-      <c r="DI14" s="120"/>
-      <c r="DJ14" s="120"/>
-      <c r="DK14" s="120"/>
-      <c r="DL14" s="120"/>
-      <c r="DM14" s="120"/>
-      <c r="DN14" s="120"/>
-      <c r="DO14" s="120"/>
-      <c r="DP14" s="120"/>
-      <c r="DQ14" s="121"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="65"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="65"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="65"/>
+      <c r="BH14" s="63"/>
+      <c r="BI14" s="64"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="65"/>
+      <c r="BN14" s="73"/>
+      <c r="BO14" s="74"/>
+      <c r="BP14" s="74"/>
+      <c r="BQ14" s="74"/>
+      <c r="BR14" s="74"/>
+      <c r="BS14" s="74"/>
+      <c r="BT14" s="74"/>
+      <c r="BU14" s="75"/>
+      <c r="BV14" s="73"/>
+      <c r="BW14" s="74"/>
+      <c r="BX14" s="74"/>
+      <c r="BY14" s="74"/>
+      <c r="BZ14" s="74"/>
+      <c r="CA14" s="74"/>
+      <c r="CB14" s="74"/>
+      <c r="CC14" s="75"/>
+      <c r="CD14" s="73"/>
+      <c r="CE14" s="74"/>
+      <c r="CF14" s="74"/>
+      <c r="CG14" s="74"/>
+      <c r="CH14" s="74"/>
+      <c r="CI14" s="74"/>
+      <c r="CJ14" s="74"/>
+      <c r="CK14" s="75"/>
+      <c r="CL14" s="73"/>
+      <c r="CM14" s="74"/>
+      <c r="CN14" s="74"/>
+      <c r="CO14" s="74"/>
+      <c r="CP14" s="74"/>
+      <c r="CQ14" s="74"/>
+      <c r="CR14" s="74"/>
+      <c r="CS14" s="74"/>
+      <c r="CT14" s="74"/>
+      <c r="CU14" s="74"/>
+      <c r="CV14" s="74"/>
+      <c r="CW14" s="74"/>
+      <c r="CX14" s="74"/>
+      <c r="CY14" s="74"/>
+      <c r="CZ14" s="74"/>
+      <c r="DA14" s="74"/>
+      <c r="DB14" s="82"/>
+      <c r="DC14" s="55"/>
+      <c r="DD14" s="55"/>
+      <c r="DE14" s="55"/>
+      <c r="DF14" s="55"/>
+      <c r="DG14" s="55"/>
+      <c r="DH14" s="55"/>
+      <c r="DI14" s="55"/>
+      <c r="DJ14" s="55"/>
+      <c r="DK14" s="55"/>
+      <c r="DL14" s="55"/>
+      <c r="DM14" s="55"/>
+      <c r="DN14" s="55"/>
+      <c r="DO14" s="55"/>
+      <c r="DP14" s="55"/>
+      <c r="DQ14" s="83"/>
       <c r="DR14" s="86"/>
-      <c r="DS14" s="86"/>
-      <c r="DT14" s="86"/>
-      <c r="DU14" s="86"/>
-      <c r="DV14" s="86"/>
-      <c r="DW14" s="86"/>
-      <c r="DX14" s="86"/>
-      <c r="DY14" s="86"/>
-      <c r="DZ14" s="86"/>
-      <c r="EA14" s="86"/>
-      <c r="EB14" s="86"/>
-      <c r="EC14" s="86"/>
-      <c r="ED14" s="86"/>
-      <c r="EE14" s="86"/>
-      <c r="EF14" s="86"/>
-      <c r="EG14" s="87"/>
-      <c r="EP14" s="90"/>
-      <c r="EQ14" s="86"/>
-      <c r="ER14" s="86"/>
-      <c r="ES14" s="86"/>
-      <c r="ET14" s="86"/>
-      <c r="EU14" s="86"/>
-      <c r="EV14" s="86"/>
-      <c r="EW14" s="87"/>
-      <c r="EX14" s="22"/>
-      <c r="EY14" s="22"/>
-      <c r="EZ14" s="23"/>
-      <c r="FA14" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="FB14" s="23"/>
-      <c r="FC14" s="23"/>
-      <c r="FD14" s="23"/>
-      <c r="FE14" s="24"/>
-      <c r="FN14" s="39"/>
-      <c r="FO14" s="37"/>
-      <c r="FP14" s="37"/>
-      <c r="FQ14" s="37"/>
-      <c r="FR14" s="37"/>
-      <c r="FS14" s="31"/>
-      <c r="FT14" s="31"/>
-      <c r="FU14" s="32"/>
-      <c r="FV14" s="73"/>
-      <c r="FW14" s="73"/>
-      <c r="FX14" s="73"/>
-      <c r="FY14" s="73"/>
-      <c r="FZ14" s="73"/>
-      <c r="GA14" s="74"/>
-      <c r="GB14" s="72"/>
-      <c r="GC14" s="73"/>
-      <c r="GD14" s="73"/>
-      <c r="GE14" s="73"/>
-      <c r="GF14" s="73"/>
-      <c r="GG14" s="74"/>
-      <c r="GN14" t="s">
-        <v>188</v>
-      </c>
-      <c r="GT14" s="90"/>
-      <c r="GU14" s="86"/>
-      <c r="GV14" s="86"/>
-      <c r="GW14" s="86"/>
-      <c r="GX14" s="86"/>
-      <c r="GY14" s="86"/>
-      <c r="GZ14" s="86"/>
-      <c r="HA14" s="87"/>
-      <c r="HB14" s="90"/>
-      <c r="HC14" s="86"/>
-      <c r="HD14" s="86"/>
-      <c r="HE14" s="86"/>
-      <c r="HF14" s="86"/>
-      <c r="HG14" s="86"/>
-      <c r="HH14" s="86"/>
-      <c r="HI14" s="87"/>
+      <c r="DS14" s="64"/>
+      <c r="DT14" s="64"/>
+      <c r="DU14" s="64"/>
+      <c r="DV14" s="64"/>
+      <c r="DW14" s="64"/>
+      <c r="DX14" s="64"/>
+      <c r="DY14" s="64"/>
+      <c r="DZ14" s="64"/>
+      <c r="EA14" s="64"/>
+      <c r="EB14" s="64"/>
+      <c r="EC14" s="64"/>
+      <c r="ED14" s="64"/>
+      <c r="EE14" s="64"/>
+      <c r="EF14" s="64"/>
+      <c r="EG14" s="65"/>
+      <c r="EP14" s="63"/>
+      <c r="EQ14" s="64"/>
+      <c r="ER14" s="64"/>
+      <c r="ES14" s="64"/>
+      <c r="ET14" s="64"/>
+      <c r="EU14" s="64"/>
+      <c r="EV14" s="64"/>
+      <c r="EW14" s="65"/>
+      <c r="EX14" s="19"/>
+      <c r="EY14" s="19"/>
+      <c r="EZ14" s="20"/>
+      <c r="FA14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="FB14" s="20"/>
+      <c r="FC14" s="20"/>
+      <c r="FD14" s="20"/>
+      <c r="FE14" s="21"/>
+      <c r="FK14" t="s">
+        <v>229</v>
+      </c>
+      <c r="FN14" s="82"/>
+      <c r="FO14" s="83"/>
+      <c r="FP14" s="82"/>
+      <c r="FQ14" s="55"/>
+      <c r="FR14" s="55"/>
+      <c r="FS14" s="55"/>
+      <c r="FT14" s="55"/>
+      <c r="FU14" s="83"/>
+      <c r="FV14" s="74"/>
+      <c r="FW14" s="74"/>
+      <c r="FX14" s="74"/>
+      <c r="FY14" s="74"/>
+      <c r="FZ14" s="74"/>
+      <c r="GA14" s="75"/>
+      <c r="GB14" s="73"/>
+      <c r="GC14" s="74"/>
+      <c r="GD14" s="74"/>
+      <c r="GE14" s="74"/>
+      <c r="GF14" s="74"/>
+      <c r="GG14" s="75"/>
+      <c r="GH14" s="54"/>
+      <c r="GI14" s="55"/>
+      <c r="GJ14" s="55"/>
+      <c r="GK14" s="55"/>
+      <c r="GT14" s="63"/>
+      <c r="GU14" s="64"/>
+      <c r="GV14" s="64"/>
+      <c r="GW14" s="64"/>
+      <c r="GX14" s="64"/>
+      <c r="GY14" s="64"/>
+      <c r="GZ14" s="64"/>
+      <c r="HA14" s="65"/>
+      <c r="HB14" s="63"/>
+      <c r="HC14" s="64"/>
+      <c r="HD14" s="64"/>
+      <c r="HE14" s="64"/>
+      <c r="HF14" s="64"/>
+      <c r="HG14" s="64"/>
+      <c r="HH14" s="64"/>
+      <c r="HI14" s="65"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="AX15" s="14"/>
       <c r="CD15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="CO15">
         <v>0</v>
@@ -6204,7 +6401,7 @@
         <v>15</v>
       </c>
       <c r="DS15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="EH15" s="13"/>
       <c r="EI15" s="13"/>
@@ -6215,11 +6412,11 @@
       <c r="EN15" s="13"/>
       <c r="EO15" s="13"/>
       <c r="EY15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="FF15" s="13"/>
       <c r="FG15" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="FH15" s="13"/>
       <c r="FI15" s="13"/>
@@ -6227,9 +6424,6 @@
       <c r="FK15" s="13"/>
       <c r="FL15" s="13"/>
       <c r="FM15" s="13"/>
-      <c r="FS15" t="s">
-        <v>161</v>
-      </c>
       <c r="GB15" s="13"/>
       <c r="GC15" s="13"/>
       <c r="GD15" s="13"/>
@@ -6240,9 +6434,7 @@
       <c r="GI15" s="13"/>
       <c r="GJ15" s="13"/>
       <c r="GK15" s="13"/>
-      <c r="GL15" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="GL15" s="13"/>
       <c r="GM15" s="13"/>
       <c r="GN15" s="13"/>
       <c r="GO15" s="13"/>
@@ -6253,268 +6445,259 @@
     </row>
     <row r="16" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
-      <c r="N16" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="CD16" s="110" t="s">
+      <c r="N16" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="CD16" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="CE16" s="60"/>
+      <c r="CF16" s="60"/>
+      <c r="CG16" s="60"/>
+      <c r="CH16" s="60"/>
+      <c r="CI16" s="60"/>
+      <c r="CJ16" s="60"/>
+      <c r="CK16" s="60"/>
+      <c r="DE16" t="s">
+        <v>182</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>128</v>
+      </c>
+      <c r="FA16" t="s">
         <v>114</v>
       </c>
-      <c r="CE16" s="111"/>
-      <c r="CF16" s="111"/>
-      <c r="CG16" s="111"/>
-      <c r="CH16" s="111"/>
-      <c r="CI16" s="111"/>
-      <c r="CJ16" s="111"/>
-      <c r="CK16" s="111"/>
-      <c r="DE16" t="s">
-        <v>194</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>130</v>
-      </c>
-      <c r="FA16" t="s">
+      <c r="FG16" t="s">
         <v>116</v>
-      </c>
-      <c r="FG16" t="s">
-        <v>118</v>
-      </c>
-      <c r="FS16" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N17" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="CD17" s="111"/>
-      <c r="CE17" s="111"/>
-      <c r="CF17" s="111"/>
-      <c r="CG17" s="111"/>
-      <c r="CH17" s="111"/>
-      <c r="CI17" s="111"/>
-      <c r="CJ17" s="111"/>
-      <c r="CK17" s="111"/>
+      <c r="N17" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="CD17" s="60"/>
+      <c r="CE17" s="60"/>
+      <c r="CF17" s="60"/>
+      <c r="CG17" s="60"/>
+      <c r="CH17" s="60"/>
+      <c r="CI17" s="60"/>
+      <c r="CJ17" s="60"/>
+      <c r="CK17" s="60"/>
       <c r="DE17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="DN17" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="EC17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="FG17" t="s">
-        <v>119</v>
-      </c>
-      <c r="FS17" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="GV17" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="CD18" s="111"/>
-      <c r="CE18" s="111"/>
-      <c r="CF18" s="111"/>
-      <c r="CG18" s="111"/>
-      <c r="CH18" s="111"/>
-      <c r="CI18" s="111"/>
-      <c r="CJ18" s="111"/>
-      <c r="CK18" s="111"/>
-      <c r="CL18" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="CM18" s="31"/>
-      <c r="CN18" s="31"/>
-      <c r="CO18" s="32"/>
+      <c r="N18" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="CD18" s="60"/>
+      <c r="CE18" s="60"/>
+      <c r="CF18" s="60"/>
+      <c r="CG18" s="60"/>
+      <c r="CH18" s="60"/>
+      <c r="CI18" s="60"/>
+      <c r="CJ18" s="60"/>
+      <c r="CK18" s="60"/>
+      <c r="CL18" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="28"/>
+      <c r="CO18" s="29"/>
       <c r="DE18" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="EC18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EY18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="CD19" s="111"/>
-      <c r="CE19" s="111"/>
-      <c r="CF19" s="111"/>
-      <c r="CG19" s="111"/>
-      <c r="CH19" s="111"/>
-      <c r="CI19" s="111"/>
-      <c r="CJ19" s="111"/>
-      <c r="CK19" s="111"/>
+        <v>63</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="CD19" s="60"/>
+      <c r="CE19" s="60"/>
+      <c r="CF19" s="60"/>
+      <c r="CG19" s="60"/>
+      <c r="CH19" s="60"/>
+      <c r="CI19" s="60"/>
+      <c r="CJ19" s="60"/>
+      <c r="CK19" s="60"/>
       <c r="CM19" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="DE19" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="EC19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="FG19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
-      <c r="N20" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="CD20" s="111"/>
-      <c r="CE20" s="111"/>
-      <c r="CF20" s="111"/>
-      <c r="CG20" s="111"/>
-      <c r="CH20" s="111"/>
-      <c r="CI20" s="111"/>
-      <c r="CJ20" s="111"/>
-      <c r="CK20" s="111"/>
+      <c r="N20" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="CD20" s="60"/>
+      <c r="CE20" s="60"/>
+      <c r="CF20" s="60"/>
+      <c r="CG20" s="60"/>
+      <c r="CH20" s="60"/>
+      <c r="CI20" s="60"/>
+      <c r="CJ20" s="60"/>
+      <c r="CK20" s="60"/>
       <c r="DI20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="FG20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="CD21" s="111"/>
-      <c r="CE21" s="111"/>
-      <c r="CF21" s="111"/>
-      <c r="CG21" s="111"/>
-      <c r="CH21" s="111"/>
-      <c r="CI21" s="111"/>
-      <c r="CJ21" s="111"/>
-      <c r="CK21" s="111"/>
+        <v>74</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="CD21" s="60"/>
+      <c r="CE21" s="60"/>
+      <c r="CF21" s="60"/>
+      <c r="CG21" s="60"/>
+      <c r="CH21" s="60"/>
+      <c r="CI21" s="60"/>
+      <c r="CJ21" s="60"/>
+      <c r="CK21" s="60"/>
       <c r="CL21" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="DR21" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="EY21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="FG21" t="s">
-        <v>121</v>
-      </c>
-      <c r="FN21" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:204" x14ac:dyDescent="0.45">
@@ -6537,39 +6720,36 @@
         <f>DEC2HEX(G22+$F$22)</f>
         <v>5972</v>
       </c>
-      <c r="N22" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="CD22" s="111"/>
-      <c r="CE22" s="111"/>
-      <c r="CF22" s="111"/>
-      <c r="CG22" s="111"/>
-      <c r="CH22" s="111"/>
-      <c r="CI22" s="111"/>
-      <c r="CJ22" s="111"/>
-      <c r="CK22" s="111"/>
+      <c r="N22" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="CD22" s="60"/>
+      <c r="CE22" s="60"/>
+      <c r="CF22" s="60"/>
+      <c r="CG22" s="60"/>
+      <c r="CH22" s="60"/>
+      <c r="CI22" s="60"/>
+      <c r="CJ22" s="60"/>
+      <c r="CK22" s="60"/>
       <c r="DR22" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="FH22" t="s">
-        <v>122</v>
-      </c>
-      <c r="FO22" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:204" x14ac:dyDescent="0.45">
@@ -6585,36 +6765,36 @@
         <f t="shared" ref="I23:I48" si="41">DEC2HEX(G23+$F$22)</f>
         <v>5973</v>
       </c>
-      <c r="N23" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="CD23" s="111"/>
-      <c r="CE23" s="111"/>
-      <c r="CF23" s="111"/>
-      <c r="CG23" s="111"/>
-      <c r="CH23" s="111"/>
-      <c r="CI23" s="111"/>
-      <c r="CJ23" s="111"/>
-      <c r="CK23" s="111"/>
+      <c r="N23" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="CD23" s="60"/>
+      <c r="CE23" s="60"/>
+      <c r="CF23" s="60"/>
+      <c r="CG23" s="60"/>
+      <c r="CH23" s="60"/>
+      <c r="CI23" s="60"/>
+      <c r="CJ23" s="60"/>
+      <c r="CK23" s="60"/>
       <c r="DE23" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="FH23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:204" x14ac:dyDescent="0.45">
@@ -6630,19 +6810,19 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="111"/>
-      <c r="CE24" s="111"/>
-      <c r="CF24" s="111"/>
-      <c r="CG24" s="111"/>
-      <c r="CH24" s="111"/>
-      <c r="CI24" s="111"/>
-      <c r="CJ24" s="111"/>
-      <c r="CK24" s="111"/>
+      <c r="CD24" s="60"/>
+      <c r="CE24" s="60"/>
+      <c r="CF24" s="60"/>
+      <c r="CG24" s="60"/>
+      <c r="CH24" s="60"/>
+      <c r="CI24" s="60"/>
+      <c r="CJ24" s="60"/>
+      <c r="CK24" s="60"/>
       <c r="DG24" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="EX24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:204" x14ac:dyDescent="0.45">
@@ -6658,19 +6838,19 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="111"/>
-      <c r="CE25" s="111"/>
-      <c r="CF25" s="111"/>
-      <c r="CG25" s="111"/>
-      <c r="CH25" s="111"/>
-      <c r="CI25" s="111"/>
-      <c r="CJ25" s="111"/>
-      <c r="CK25" s="111"/>
+      <c r="CD25" s="60"/>
+      <c r="CE25" s="60"/>
+      <c r="CF25" s="60"/>
+      <c r="CG25" s="60"/>
+      <c r="CH25" s="60"/>
+      <c r="CI25" s="60"/>
+      <c r="CJ25" s="60"/>
+      <c r="CK25" s="60"/>
       <c r="DG25" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="EX25" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:204" x14ac:dyDescent="0.45">
@@ -6686,16 +6866,16 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="111"/>
-      <c r="CE26" s="111"/>
-      <c r="CF26" s="111"/>
-      <c r="CG26" s="111"/>
-      <c r="CH26" s="111"/>
-      <c r="CI26" s="111"/>
-      <c r="CJ26" s="111"/>
-      <c r="CK26" s="111"/>
+      <c r="CD26" s="60"/>
+      <c r="CE26" s="60"/>
+      <c r="CF26" s="60"/>
+      <c r="CG26" s="60"/>
+      <c r="CH26" s="60"/>
+      <c r="CI26" s="60"/>
+      <c r="CJ26" s="60"/>
+      <c r="CK26" s="60"/>
       <c r="DG26" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:204" x14ac:dyDescent="0.45">
@@ -6711,16 +6891,16 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="111"/>
-      <c r="CE27" s="111"/>
-      <c r="CF27" s="111"/>
-      <c r="CG27" s="111"/>
-      <c r="CH27" s="111"/>
-      <c r="CI27" s="111"/>
-      <c r="CJ27" s="111"/>
-      <c r="CK27" s="111"/>
+      <c r="CD27" s="60"/>
+      <c r="CE27" s="60"/>
+      <c r="CF27" s="60"/>
+      <c r="CG27" s="60"/>
+      <c r="CH27" s="60"/>
+      <c r="CI27" s="60"/>
+      <c r="CJ27" s="60"/>
+      <c r="CK27" s="60"/>
       <c r="DG27" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:204" x14ac:dyDescent="0.45">
@@ -6736,16 +6916,16 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="111"/>
-      <c r="CE28" s="111"/>
-      <c r="CF28" s="111"/>
-      <c r="CG28" s="111"/>
-      <c r="CH28" s="111"/>
-      <c r="CI28" s="111"/>
-      <c r="CJ28" s="111"/>
-      <c r="CK28" s="111"/>
+      <c r="CD28" s="60"/>
+      <c r="CE28" s="60"/>
+      <c r="CF28" s="60"/>
+      <c r="CG28" s="60"/>
+      <c r="CH28" s="60"/>
+      <c r="CI28" s="60"/>
+      <c r="CJ28" s="60"/>
+      <c r="CK28" s="60"/>
       <c r="EX28" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:204" x14ac:dyDescent="0.45">
@@ -6761,14 +6941,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="111"/>
-      <c r="CE29" s="111"/>
-      <c r="CF29" s="111"/>
-      <c r="CG29" s="111"/>
-      <c r="CH29" s="111"/>
-      <c r="CI29" s="111"/>
-      <c r="CJ29" s="111"/>
-      <c r="CK29" s="111"/>
+      <c r="CD29" s="60"/>
+      <c r="CE29" s="60"/>
+      <c r="CF29" s="60"/>
+      <c r="CG29" s="60"/>
+      <c r="CH29" s="60"/>
+      <c r="CI29" s="60"/>
+      <c r="CJ29" s="60"/>
+      <c r="CK29" s="60"/>
     </row>
     <row r="30" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -6784,7 +6964,7 @@
         <v>597A</v>
       </c>
       <c r="CD30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:204" x14ac:dyDescent="0.45">
@@ -6804,7 +6984,7 @@
     <row r="32" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -6832,7 +7012,7 @@
         <v>597D</v>
       </c>
       <c r="CD33" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:87" x14ac:dyDescent="0.45">
@@ -6849,7 +7029,7 @@
         <v>597E</v>
       </c>
       <c r="BN34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.45">
@@ -6865,10 +7045,10 @@
         <v>597F</v>
       </c>
       <c r="BN35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="CD35" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.45">
@@ -6905,7 +7085,7 @@
         <v>5981</v>
       </c>
       <c r="BL37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BM37">
         <v>243</v>
@@ -6953,13 +7133,13 @@
         <v>5983</v>
       </c>
       <c r="BL39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BZ39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CE39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="CG39">
         <v>9</v>
@@ -6982,7 +7162,7 @@
         <v>5984</v>
       </c>
       <c r="CE40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="CG40">
         <v>7</v>
@@ -7125,40 +7305,89 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="GX8:GY8"/>
-    <mergeCell ref="CD16:CK29"/>
-    <mergeCell ref="GT9:HA14"/>
-    <mergeCell ref="HB9:HI14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="CD9:CK14"/>
-    <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
-    <mergeCell ref="FK12:FM12"/>
-    <mergeCell ref="DB10:DQ14"/>
-    <mergeCell ref="DN9:DQ9"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
+  <mergeCells count="155">
+    <mergeCell ref="FN9:FO10"/>
+    <mergeCell ref="CX7:DA7"/>
+    <mergeCell ref="FV4:GK4"/>
+    <mergeCell ref="GH7:GK7"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="GV7:HA7"/>
+    <mergeCell ref="HB7:HI7"/>
+    <mergeCell ref="I9:Q14"/>
+    <mergeCell ref="CD7:CK7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CL7:CO7"/>
+    <mergeCell ref="DN7:DQ7"/>
+    <mergeCell ref="DB7:DC7"/>
+    <mergeCell ref="DF7:DM7"/>
+    <mergeCell ref="EP9:EW14"/>
+    <mergeCell ref="FV9:GA14"/>
+    <mergeCell ref="GB9:GG14"/>
+    <mergeCell ref="CL8:DA8"/>
+    <mergeCell ref="DB8:DQ8"/>
+    <mergeCell ref="DV7:EA7"/>
+    <mergeCell ref="EB7:EG7"/>
+    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="EP7:EW7"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="DR7:DU7"/>
+    <mergeCell ref="FK7:FM7"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="FV7:GA7"/>
+    <mergeCell ref="FP7:FU7"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B1:BM1"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="FF3:FM3"/>
+    <mergeCell ref="FN3:FU3"/>
+    <mergeCell ref="FV3:GC3"/>
+    <mergeCell ref="BN1:HI1"/>
+    <mergeCell ref="DJ3:DQ3"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="DZ3:EG3"/>
+    <mergeCell ref="EH3:EO3"/>
+    <mergeCell ref="EP3:EW3"/>
+    <mergeCell ref="EX3:FE3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="B3:I3"/>
     <mergeCell ref="B9:H14"/>
     <mergeCell ref="DJ2:DQ2"/>
     <mergeCell ref="DR2:DY2"/>
@@ -7183,88 +7412,55 @@
     <mergeCell ref="CL3:CS3"/>
     <mergeCell ref="CT3:DA3"/>
     <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="GT2:HA2"/>
-    <mergeCell ref="HB2:HI2"/>
-    <mergeCell ref="B1:BM1"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="FF3:FM3"/>
-    <mergeCell ref="FN3:FU3"/>
-    <mergeCell ref="FV3:GC3"/>
-    <mergeCell ref="BN1:HI1"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="DZ3:EG3"/>
-    <mergeCell ref="EH3:EO3"/>
-    <mergeCell ref="EP3:EW3"/>
-    <mergeCell ref="EX3:FE3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="DR7:DU7"/>
-    <mergeCell ref="FK7:FM7"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="FV7:GA7"/>
-    <mergeCell ref="FP7:FU7"/>
-    <mergeCell ref="CX7:DA7"/>
-    <mergeCell ref="FV4:GK4"/>
-    <mergeCell ref="GH7:GK7"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="GV7:HA7"/>
-    <mergeCell ref="HB7:HI7"/>
-    <mergeCell ref="I9:Q14"/>
-    <mergeCell ref="CD7:CK7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CL7:CO7"/>
-    <mergeCell ref="DN7:DQ7"/>
-    <mergeCell ref="DB7:DC7"/>
-    <mergeCell ref="DF7:DM7"/>
-    <mergeCell ref="DR9:EG14"/>
-    <mergeCell ref="EP9:EW14"/>
-    <mergeCell ref="FV9:GA14"/>
-    <mergeCell ref="GB9:GG14"/>
-    <mergeCell ref="CL8:DA8"/>
-    <mergeCell ref="DB8:DQ8"/>
-    <mergeCell ref="DV7:EA7"/>
-    <mergeCell ref="EB7:EG7"/>
-    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="CD9:CK14"/>
+    <mergeCell ref="CL9:DA14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
+    <mergeCell ref="GM9:GM10"/>
+    <mergeCell ref="GN9:GN10"/>
+    <mergeCell ref="GH9:GK14"/>
+    <mergeCell ref="EH11:EO11"/>
+    <mergeCell ref="GX8:GY8"/>
+    <mergeCell ref="CD16:CK29"/>
+    <mergeCell ref="GT9:HA14"/>
+    <mergeCell ref="HB9:HI14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="FK12:FM12"/>
+    <mergeCell ref="DB10:DQ14"/>
+    <mergeCell ref="DN9:DQ9"/>
+    <mergeCell ref="DR9:DU9"/>
+    <mergeCell ref="DR11:EG14"/>
+    <mergeCell ref="GO9:GS10"/>
+    <mergeCell ref="EB9:EG10"/>
+    <mergeCell ref="DV9:EA10"/>
+    <mergeCell ref="DJ9:DM9"/>
+    <mergeCell ref="GL11:GN11"/>
+    <mergeCell ref="GL9:GL10"/>
+    <mergeCell ref="FN11:FO14"/>
+    <mergeCell ref="EX9:FE9"/>
+    <mergeCell ref="FF11:FI11"/>
+    <mergeCell ref="FP11:FU14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7276,7 +7472,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:AA6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7286,143 +7482,143 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="122">
+        <v>201</v>
+      </c>
+      <c r="B1" s="121">
         <v>0</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="122">
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="121">
         <v>2</v>
       </c>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="124"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="123"/>
     </row>
     <row r="2" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="35">
         <v>15</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="35">
         <v>14</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="35">
         <v>13</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="35">
         <v>12</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="35">
         <v>11</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="35">
         <v>10</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="35">
         <v>9</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="35">
         <v>8</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="35">
         <v>7</v>
       </c>
-      <c r="K2" s="43">
+      <c r="K2" s="35">
         <v>6</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="35">
         <v>5</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="35">
         <v>4</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="35">
         <v>3</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="35">
         <v>2</v>
       </c>
-      <c r="P2" s="43">
+      <c r="P2" s="35">
         <v>1</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="Q2" s="35">
         <v>0</v>
       </c>
-      <c r="R2" s="43">
+      <c r="R2" s="35">
         <v>15</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="35">
         <v>14</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="35">
         <v>13</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="35">
         <v>12</v>
       </c>
-      <c r="V2" s="43">
+      <c r="V2" s="35">
         <v>11</v>
       </c>
-      <c r="W2" s="43">
+      <c r="W2" s="35">
         <v>10</v>
       </c>
-      <c r="X2" s="43">
+      <c r="X2" s="35">
         <v>9</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="35">
         <v>8</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="35">
         <v>7</v>
       </c>
-      <c r="AA2" s="43">
+      <c r="AA2" s="35">
         <v>6</v>
       </c>
-      <c r="AB2" s="43">
+      <c r="AB2" s="35">
         <v>5</v>
       </c>
-      <c r="AC2" s="43">
+      <c r="AC2" s="35">
         <v>4</v>
       </c>
-      <c r="AD2" s="43">
+      <c r="AD2" s="35">
         <v>3</v>
       </c>
-      <c r="AE2" s="43">
+      <c r="AE2" s="35">
         <v>2</v>
       </c>
-      <c r="AF2" s="43">
+      <c r="AF2" s="35">
         <v>1</v>
       </c>
-      <c r="AG2" s="43">
+      <c r="AG2" s="35">
         <v>0</v>
       </c>
     </row>
@@ -7430,300 +7626,300 @@
       <c r="A3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="36" t="str">
         <f>DEC2HEX(B2)</f>
         <v>F</v>
       </c>
-      <c r="C3" s="45" t="str">
+      <c r="C3" s="37" t="str">
         <f t="shared" ref="C3:AG3" si="0">DEC2HEX(C2)</f>
         <v>E</v>
       </c>
-      <c r="D3" s="45" t="str">
+      <c r="D3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E3" s="46" t="str">
+      <c r="E3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="F3" s="44" t="str">
+      <c r="F3" s="36" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="G3" s="45" t="str">
+      <c r="G3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="H3" s="45" t="str">
+      <c r="H3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I3" s="46" t="str">
+      <c r="I3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J3" s="44" t="str">
+      <c r="J3" s="36" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K3" s="45" t="str">
+      <c r="K3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L3" s="45" t="str">
+      <c r="L3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M3" s="46" t="str">
+      <c r="M3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N3" s="44" t="str">
+      <c r="N3" s="36" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O3" s="45" t="str">
+      <c r="O3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="P3" s="45" t="str">
+      <c r="P3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q3" s="46" t="str">
+      <c r="Q3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="44" t="str">
+      <c r="R3" s="36" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="S3" s="45" t="str">
+      <c r="S3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="T3" s="45" t="str">
+      <c r="T3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="U3" s="46" t="str">
+      <c r="U3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="V3" s="44" t="str">
+      <c r="V3" s="36" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="W3" s="45" t="str">
+      <c r="W3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="X3" s="45" t="str">
+      <c r="X3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Y3" s="46" t="str">
+      <c r="Y3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Z3" s="44" t="str">
+      <c r="Z3" s="36" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AA3" s="45" t="str">
+      <c r="AA3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB3" s="45" t="str">
+      <c r="AB3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AC3" s="46" t="str">
+      <c r="AC3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AD3" s="44" t="str">
+      <c r="AD3" s="36" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AE3" s="45" t="str">
+      <c r="AE3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AF3" s="45" t="str">
+      <c r="AF3" s="37" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AG3" s="46" t="str">
+      <c r="AG3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
-      <c r="B4" s="129">
+      <c r="B4" s="128">
         <v>1</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129">
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128">
         <v>0</v>
       </c>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129">
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128">
         <v>3</v>
       </c>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129">
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128">
         <v>2</v>
       </c>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="47">
+        <v>202</v>
+      </c>
+      <c r="B5" s="39">
         <f t="shared" ref="B5:H5" si="1">B2-8</f>
         <v>7</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="39">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="39">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="39">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="39">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="39">
         <f>I2-8</f>
         <v>0</v>
       </c>
-      <c r="J5" s="47" t="str">
+      <c r="J5" s="39" t="str">
         <f t="shared" ref="J5:Q5" si="2">DEC2HEX(J3)</f>
         <v>7</v>
       </c>
-      <c r="K5" s="47" t="str">
+      <c r="K5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L5" s="47" t="str">
+      <c r="L5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M5" s="47" t="str">
+      <c r="M5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N5" s="47" t="str">
+      <c r="N5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O5" s="47" t="str">
+      <c r="O5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P5" s="47" t="str">
+      <c r="P5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="47" t="str">
+      <c r="Q5" s="39" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="39">
         <f t="shared" ref="R5:X5" si="3">R2-8</f>
         <v>7</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="39">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="39">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="U5" s="47">
+      <c r="U5" s="39">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="V5" s="47">
+      <c r="V5" s="39">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="W5" s="47">
+      <c r="W5" s="39">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="X5" s="47">
+      <c r="X5" s="39">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Y5" s="47">
+      <c r="Y5" s="39">
         <f>Y2-8</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="47">
+      <c r="Z5" s="39">
         <v>7</v>
       </c>
-      <c r="AA5" s="47">
+      <c r="AA5" s="39">
         <v>6</v>
       </c>
-      <c r="AB5" s="47">
+      <c r="AB5" s="39">
         <v>5</v>
       </c>
-      <c r="AC5" s="47">
+      <c r="AC5" s="39">
         <v>4</v>
       </c>
-      <c r="AD5" s="47">
+      <c r="AD5" s="39">
         <v>3</v>
       </c>
-      <c r="AE5" s="47">
+      <c r="AE5" s="39">
         <v>2</v>
       </c>
-      <c r="AF5" s="47">
+      <c r="AF5" s="39">
         <v>1</v>
       </c>
-      <c r="AG5" s="47">
+      <c r="AG5" s="39">
         <v>0</v>
       </c>
     </row>
@@ -7731,114 +7927,117 @@
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="125" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="125" t="s">
-        <v>202</v>
-      </c>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="125" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="127"/>
+      <c r="B6" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="126"/>
     </row>
     <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="128" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="128" t="s">
-        <v>204</v>
-      </c>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128" t="s">
-        <v>203</v>
-      </c>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128" t="s">
-        <v>212</v>
-      </c>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="128"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="127" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="127" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127" t="s">
+        <v>200</v>
+      </c>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
+    </row>
+    <row r="8" spans="1:33" ht="114" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
+      <c r="I8" s="16" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7869,7 +8068,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7886,7 +8085,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1">
         <f>HEX2DEC("2654")</f>
@@ -7895,22 +8094,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -7926,10 +8125,10 @@
         <v>2654</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7958,13 +8157,13 @@
         <v>2656</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -7993,13 +8192,13 @@
         <v>2658</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -8028,7 +8227,7 @@
         <v>265A</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -8057,7 +8256,7 @@
         <v>265C</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -8086,7 +8285,7 @@
         <v>265E</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -8115,10 +8314,10 @@
         <v>2660</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -8147,7 +8346,7 @@
         <v>2662</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -8176,7 +8375,7 @@
         <v>2664</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -8205,7 +8404,7 @@
         <v>2666</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -8234,10 +8433,10 @@
         <v>2668</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -8266,7 +8465,7 @@
         <v>266A</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -8282,7 +8481,7 @@
         <v>266B</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -8298,7 +8497,7 @@
         <v>266C</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -8314,7 +8513,7 @@
         <v>266D</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -8330,7 +8529,7 @@
         <v>266E</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -8362,7 +8561,7 @@
         <v>2670</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -8391,10 +8590,10 @@
         <v>2672</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -8423,7 +8622,7 @@
         <v>2674</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -8452,7 +8651,7 @@
         <v>2676</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -8468,7 +8667,7 @@
         <v>2677</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -8497,7 +8696,7 @@
         <v>2679</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -8513,7 +8712,7 @@
         <v>267A</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BE9759-B540-4DF3-B298-526278502255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E827A816-101C-40D7-A0C9-BEA1FC33354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="259">
   <si>
     <t>Static Object</t>
   </si>
@@ -122,24 +122,12 @@
     <t>talked to</t>
   </si>
   <si>
-    <t>unk0xD_12_1</t>
-  </si>
-  <si>
-    <t>unk0xD_4_FF</t>
-  </si>
-  <si>
-    <t>unk0xF_0_3f</t>
-  </si>
-  <si>
     <t>Bits (d)</t>
   </si>
   <si>
     <t>bits (h)</t>
   </si>
   <si>
-    <t>unk0xF_C_F</t>
-  </si>
-  <si>
     <t>npc_height</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
   </si>
   <si>
     <t>Bit 7 is unset when projectile is launched</t>
-  </si>
-  <si>
-    <t>Maybe speed does not contain bit 3?</t>
   </si>
   <si>
     <t>ProjectilePitch</t>
@@ -249,9 +234,6 @@
 (xhome&lt;&lt; 8) + (xpos &lt;&lt;5) +0xFh</t>
   </si>
   <si>
-    <t>Z Co-Ordinate of the projectile</t>
-  </si>
-  <si>
     <t>(d)</t>
   </si>
   <si>
@@ -292,9 +274,6 @@
   </si>
   <si>
     <t>1  &lt;&lt; ( (Unk0xA &amp; 0x70h)&lt;&lt;4)</t>
-  </si>
-  <si>
-    <t>Bit 3 might be part of pitch!</t>
   </si>
   <si>
     <t>((Pitch&gt;&gt;3) - 16 )&lt;&lt;6</t>
@@ -318,9 +297,6 @@
   </si>
   <si>
     <t>y coordinate</t>
-  </si>
-  <si>
-    <t>maybe magic related</t>
   </si>
   <si>
     <t>if magic bit set multiply value by 0x2Fh</t>
@@ -666,18 +642,10 @@
 For magical objectsthe value(s) to show it has been identified (0=unidentified, 1=know it is magical, 2=fully identified)</t>
   </si>
   <si>
-    <t>if set, set npc_goal to this value aimed at avatar when resetting NPC goals</t>
-  </si>
-  <si>
     <t>Animation</t>
   </si>
   <si>
     <t>Animation Frame</t>
-  </si>
-  <si>
-    <t>When a projectile is launched this value contains the index of the npc that threw it
-For player object is the item id of the last creature to hit the player? 
-For NPCs the last character to hit the NPC (usually the avatar)</t>
   </si>
   <si>
     <t>Tracks world Y co-ordinate of a projectile
@@ -686,12 +654,6 @@
 When spawning an NPC bit 9 sets hp to  (npc_hp+critter hp)/2</t>
   </si>
   <si>
-    <t>Unk0xF_C_F appears related the the swing type of an attacking NPC</t>
-  </si>
-  <si>
-    <t>When projectile is launched the value  (zpos&lt;&lt;3) + 0xFh is stored here</t>
-  </si>
-  <si>
     <t>Provides additional precision to the static heading in byte 2</t>
   </si>
   <si>
@@ -699,14 +661,6 @@
   </si>
   <si>
     <t>TargetFloorHeight - zpos the NPC wants to go to gets compared to a Floorheight Param to see if npc is at a target tile</t>
-  </si>
-  <si>
-    <t>TargetTileY - tile the NPC wants to go to
-gets compared to a TileY Param to see if npc is at a target tile</t>
-  </si>
-  <si>
-    <t>TargetTileX - tile the NPC wants to go to
- gets compared to a TileX Param to see if npc is at a target tile</t>
   </si>
   <si>
     <t>bits 5, 6 and 7 are AI flags to determine what moves a NPC 
@@ -723,10 +677,6 @@
 relationship to bit 7 in 0x15h</t>
   </si>
   <si>
-    <t>Used in relation to checking HP before fleeing in combat
-also a tileY reference?</t>
-  </si>
-  <si>
     <t>Home Y for NPC
 When projectile, is the tile the projectile is in</t>
   </si>
@@ -744,15 +694,142 @@
   <si>
     <t>for NPCs bits 3,4,5,6,7 define the attack being executed,
 Slash,stab,bash, missile or magic (values to be confirmed)</t>
+  </si>
+  <si>
+    <t>Bits 6 &amp; 7 set when NPC based on npc active state
+Bit 6 might have something to do with the need to move to a location
+If Bit 7 is set then the unk value in 0x16 is used for an unknown reason</t>
+  </si>
+  <si>
+    <t>Bit 2 is set when NPC is dying</t>
+  </si>
+  <si>
+    <t>Defines the NPCs animation to play</t>
+  </si>
+  <si>
+    <t>in npcgoto() critter value can be[0xB] or[0xC]</t>
+  </si>
+  <si>
+    <t>Bits 0-6 cleared at start of ranged attack</t>
+  </si>
+  <si>
+    <t>In attacks maybe the detail or spell for the attack being execute. For ranged ammo it uses the value in the ranged table @0x1</t>
+  </si>
+  <si>
+    <t>Possibly projectile subject to Gravity</t>
+  </si>
+  <si>
+    <t>If commobj[3] is set this bit can be set in initMobileObj()</t>
+  </si>
+  <si>
+    <t>Is this very very wrong?</t>
+  </si>
+  <si>
+    <t>Is this a multipler for the critter type speed?</t>
+  </si>
+  <si>
+    <t>This value is set based on a calculation involving 0xB bits 0-2)</t>
+  </si>
+  <si>
+    <t>Used to calc a value in 0xA bits 0-3</t>
+  </si>
+  <si>
+    <t>Possibly 16 is level?</t>
+  </si>
+  <si>
+    <t>Might be a bit field?</t>
+  </si>
+  <si>
+    <t>When a projectile is launched this value contains the index of the npc that threw it
+For player object is the item id of the last creature to hit the player
+For NPCs the last character to hit the NPC (usually the avatar)</t>
+  </si>
+  <si>
+    <t>Temporary storage of damaged applied to an NPC in combat in a gametick. Cleared when the NPC reevaluates it's goals
+Evaluated against critterinfo 0x1C in same frame to decide if the npc should engage in melee or ranged combat</t>
+  </si>
+  <si>
+    <t>CombatDamageReceivedInGameTick()</t>
+  </si>
+  <si>
+    <t>TargetTileX - tile the NPC wants to go to
+ gets compared to a TileX Param to see if npc is at a target tile
+0x3F</t>
+  </si>
+  <si>
+    <t>TargetTileY - tile the NPC wants to go to
+gets compared to a TileY Param to see if npc is at a target tile
+0xFC0</t>
+  </si>
+  <si>
+    <t>Bit 5 set when arrived at destination in function DetermineIfAtTarget()</t>
+  </si>
+  <si>
+    <t>Bit 6 cleared when NPC is at target in Determine if At Target</t>
+  </si>
+  <si>
+    <t>Value increments by 1 in choose attack to make to a max of 0xF</t>
+  </si>
+  <si>
+    <t>Index in to a table at seg060 of the exe. Size 2 bytes x 0x15h. Values in table increase up to 0xFF</t>
+  </si>
+  <si>
+    <t>When this is a  projectile the value  (zpos&lt;&lt;3) + 0xFh is stored here</t>
+  </si>
+  <si>
+    <t>Index into Swing charge table for an attacking NPC</t>
+  </si>
+  <si>
+    <t>Swing Charge Index</t>
+  </si>
+  <si>
+    <t>Z Co-Ordinate of a projectile</t>
+  </si>
+  <si>
+    <t>Mood towards the player (0 hostile to 4 friendly)</t>
+  </si>
+  <si>
+    <t>Is Object Rendered</t>
+  </si>
+  <si>
+    <t>Is this a quantity of items (value stored in link) or does the link refer to another object</t>
+  </si>
+  <si>
+    <t>Use in AI processing?</t>
+  </si>
+  <si>
+    <t>When setting a new goal this value stores the old goal when not goal 4</t>
+  </si>
+  <si>
+    <t>IsPowerful</t>
+  </si>
+  <si>
+    <t>Powerful Creature Flag
+if set reduce damage by (creature level * 5 )/3
+if not set damage is just reduced by creature level.
+If set increase attack score by rng(0-5)+7
+If set increase damage by rng(0-11) + 4
+EXP bonus of 24+ rng(0-23d)
+Pit fighters have a probabilty of this being set</t>
+  </si>
+  <si>
+    <t>Use to control spawing of the NPC default loot list. Loot only generated when first talked to 
+Possibly this is actually talked to</t>
+  </si>
+  <si>
+    <t>LootSpawned</t>
+  </si>
+  <si>
+    <t>set to 1 after conversation</t>
   </si>
   <si>
     <t>When standing still with an attitude of 0 an attempt will be made to detect the player. If found set bit 0 and set attack goals
 Bit 0 indicates that the npc is aware of the avatar's position, use in combat to chase the avatar
 Bit 1 is somehow connect to bit 0 behaviours, maybe used to indicate npc should turn towards target
 Bits 2 &amp; 3 when &lt;&gt; 0 the npc will execute a magic attack when it's animation is a ranged attack, value is alookup into critter data at 0x2Ah (bytes 2Ah to 2Ch) to get spell effect id to use. Value of lookup is based on RNG call in NpcStartMagicAttack()
-Bit 4 referenced in NpcFlee(),
-Bit 5   set when unable to do a magic attack
-Bit 6 - related to checking has the avatar struck the npc with a weapon? If unset npc in combat with avatar. if set npc in combat with last npc to damage them?? Impacts npc_attitude in conversations.
+Bit 4 referenced in NpcGoal6(ranged attack),
+Bit 5 set when unable to do a magic attack
+Bit 6 - related to checking has the avatar struck the npc with a weapon? If unset npc in combat with avatar. if set npc in combat with last npc to damage them?? Impacts npc_attitude in conversations. When set an attitude of 6 is imported to the conversation???? If attitude&gt;3 at end of conversation bit is set again???
 Bit 7 can be set after a conversation
 Bits 6 and 7 randomly set in a subfunction of player updates()!!!
 Bit 6 and 7 stop npcs from hurting each other in combat when they are the same? 
@@ -760,33 +837,42 @@
 Possibly a series of bit fields representing combat and AI decisions</t>
   </si>
   <si>
-    <t>Bits 6 &amp; 7 set when NPC based on npc active state
-Bit 6 might have something to do with the need to move to a location
-If Bit 7 is set then the unk value in 0x16 is used for an unknown reason</t>
-  </si>
-  <si>
-    <t>Bit 2 is set when NPC is dying</t>
+    <t>TargetTileX</t>
   </si>
   <si>
     <t>bit 7 is unset when projectile is launched
 bit 7 might mean the npc is in combat?
-For npcs this value is relevant in Study monstor. When whoamis is 64h this value is used
+For npcs this value is relevant in Study monstor. When whoamis is 64h(krillner?) this value is used
 When the avatar is killed the bit 7 is used to check if the avatar has to go to jail in the castle
 bit 7 checked in set_Race_attitude
+bit 7 is checked in special death cases relating to lady tory
 DOES IT MEAN OBJECT IS AN NPC???? not sure since bit 7 is unset after a missile hits it target
 possibly a tileY reference used closely with projectilesourceID value</t>
   </si>
   <si>
-    <t>Defines the NPCs animation to play</t>
-  </si>
-  <si>
-    <t>in npcgoto() critter value can be[0xB] or[0xC]</t>
-  </si>
-  <si>
-    <t>In attacks maybe the detail or spell for the attack being execute</t>
-  </si>
-  <si>
-    <t>Bits 0-6 cleared at start of ranged attack</t>
+    <t>Bit 7 is set for lady tori, mors and some guards in the castle and is 
+checked when they die</t>
+  </si>
+  <si>
+    <t>Bit set when creating pit fighter
+Later checked for skipping when spawning npcs.
+References with createobject traps</t>
+  </si>
+  <si>
+    <t>Relevant to projectile motion</t>
+  </si>
+  <si>
+    <t>In a homing dart/satellite if bit 7 is set projectile hp is set to 0. (hp in this case is ticking down slowly)</t>
+  </si>
+  <si>
+    <t>Bit 7 gets set in a babl_hack</t>
+  </si>
+  <si>
+    <t>If unset set_race_attitude does not apply to the NPC
+In anger npc if owner is 32d then owner is only angered if bit 7 set</t>
+  </si>
+  <si>
+    <t>if set ignore code been ran on similar npcs. Probably an isSpecial Flag for NPCs</t>
   </si>
 </sst>
 </file>
@@ -846,7 +932,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,6 +961,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -1329,17 +1421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1374,6 +1455,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1382,7 +1474,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1440,274 +1532,224 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1716,6 +1758,157 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2025,7 +2218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2035,18 +2228,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B84199-9409-432B-9DD0-663C6CE0C43E}">
   <dimension ref="A1:HI48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="EL9" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="99" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="BU11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="EY14" sqref="EY14"/>
+      <selection pane="bottomRight" activeCell="CD14" sqref="CD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -2055,15 +2248,20 @@
     <col min="66" max="66" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="5.73046875" customWidth="1"/>
     <col min="69" max="69" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="82" max="89" width="6.73046875" customWidth="1"/>
-    <col min="106" max="107" width="3" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="12" bestFit="1" customWidth="1"/>
-    <col min="110" max="111" width="3" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="1.86328125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="31.46484375" customWidth="1"/>
+    <col min="83" max="89" width="6.73046875" customWidth="1"/>
+    <col min="106" max="107" width="6.265625" customWidth="1"/>
+    <col min="108" max="108" width="18.1328125" customWidth="1"/>
+    <col min="109" max="109" width="19.53125" customWidth="1"/>
+    <col min="110" max="110" width="6.265625" customWidth="1"/>
+    <col min="111" max="111" width="23.59765625" customWidth="1"/>
+    <col min="112" max="112" width="6.265625" customWidth="1"/>
+    <col min="113" max="113" width="15.3984375" customWidth="1"/>
+    <col min="154" max="154" width="17.9296875" customWidth="1"/>
     <col min="162" max="168" width="7.265625" customWidth="1"/>
     <col min="169" max="169" width="9.73046875" customWidth="1"/>
-    <col min="196" max="196" width="14.6640625" customWidth="1"/>
+    <col min="195" max="195" width="17.9296875" customWidth="1"/>
+    <col min="196" max="196" width="20.59765625" customWidth="1"/>
     <col min="202" max="209" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2071,1079 +2269,1079 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
-      <c r="BC1" s="89"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
-      <c r="BF1" s="89"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="89"/>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
-      <c r="BK1" s="89"/>
-      <c r="BL1" s="89"/>
-      <c r="BM1" s="90"/>
-      <c r="BN1" s="88" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="89"/>
-      <c r="BP1" s="89"/>
-      <c r="BQ1" s="89"/>
-      <c r="BR1" s="89"/>
-      <c r="BS1" s="89"/>
-      <c r="BT1" s="89"/>
-      <c r="BU1" s="89"/>
-      <c r="BV1" s="89"/>
-      <c r="BW1" s="89"/>
-      <c r="BX1" s="89"/>
-      <c r="BY1" s="89"/>
-      <c r="BZ1" s="89"/>
-      <c r="CA1" s="89"/>
-      <c r="CB1" s="89"/>
-      <c r="CC1" s="89"/>
-      <c r="CD1" s="89"/>
-      <c r="CE1" s="89"/>
-      <c r="CF1" s="89"/>
-      <c r="CG1" s="89"/>
-      <c r="CH1" s="89"/>
-      <c r="CI1" s="89"/>
-      <c r="CJ1" s="89"/>
-      <c r="CK1" s="89"/>
-      <c r="CL1" s="89"/>
-      <c r="CM1" s="89"/>
-      <c r="CN1" s="89"/>
-      <c r="CO1" s="89"/>
-      <c r="CP1" s="89"/>
-      <c r="CQ1" s="89"/>
-      <c r="CR1" s="89"/>
-      <c r="CS1" s="89"/>
-      <c r="CT1" s="89"/>
-      <c r="CU1" s="89"/>
-      <c r="CV1" s="89"/>
-      <c r="CW1" s="89"/>
-      <c r="CX1" s="89"/>
-      <c r="CY1" s="89"/>
-      <c r="CZ1" s="89"/>
-      <c r="DA1" s="89"/>
-      <c r="DB1" s="89"/>
-      <c r="DC1" s="89"/>
-      <c r="DD1" s="89"/>
-      <c r="DE1" s="89"/>
-      <c r="DF1" s="89"/>
-      <c r="DG1" s="89"/>
-      <c r="DH1" s="89"/>
-      <c r="DI1" s="89"/>
-      <c r="DJ1" s="89"/>
-      <c r="DK1" s="89"/>
-      <c r="DL1" s="89"/>
-      <c r="DM1" s="89"/>
-      <c r="DN1" s="89"/>
-      <c r="DO1" s="89"/>
-      <c r="DP1" s="89"/>
-      <c r="DQ1" s="89"/>
-      <c r="DR1" s="89"/>
-      <c r="DS1" s="89"/>
-      <c r="DT1" s="89"/>
-      <c r="DU1" s="89"/>
-      <c r="DV1" s="89"/>
-      <c r="DW1" s="89"/>
-      <c r="DX1" s="89"/>
-      <c r="DY1" s="89"/>
-      <c r="DZ1" s="89"/>
-      <c r="EA1" s="89"/>
-      <c r="EB1" s="89"/>
-      <c r="EC1" s="89"/>
-      <c r="ED1" s="89"/>
-      <c r="EE1" s="89"/>
-      <c r="EF1" s="89"/>
-      <c r="EG1" s="89"/>
-      <c r="EH1" s="89"/>
-      <c r="EI1" s="89"/>
-      <c r="EJ1" s="89"/>
-      <c r="EK1" s="89"/>
-      <c r="EL1" s="89"/>
-      <c r="EM1" s="89"/>
-      <c r="EN1" s="89"/>
-      <c r="EO1" s="89"/>
-      <c r="EP1" s="89"/>
-      <c r="EQ1" s="89"/>
-      <c r="ER1" s="89"/>
-      <c r="ES1" s="89"/>
-      <c r="ET1" s="89"/>
-      <c r="EU1" s="89"/>
-      <c r="EV1" s="89"/>
-      <c r="EW1" s="89"/>
-      <c r="EX1" s="89"/>
-      <c r="EY1" s="89"/>
-      <c r="EZ1" s="89"/>
-      <c r="FA1" s="89"/>
-      <c r="FB1" s="89"/>
-      <c r="FC1" s="89"/>
-      <c r="FD1" s="89"/>
-      <c r="FE1" s="89"/>
-      <c r="FF1" s="89"/>
-      <c r="FG1" s="89"/>
-      <c r="FH1" s="89"/>
-      <c r="FI1" s="89"/>
-      <c r="FJ1" s="89"/>
-      <c r="FK1" s="89"/>
-      <c r="FL1" s="89"/>
-      <c r="FM1" s="89"/>
-      <c r="FN1" s="89"/>
-      <c r="FO1" s="89"/>
-      <c r="FP1" s="89"/>
-      <c r="FQ1" s="89"/>
-      <c r="FR1" s="89"/>
-      <c r="FS1" s="89"/>
-      <c r="FT1" s="89"/>
-      <c r="FU1" s="89"/>
-      <c r="FV1" s="89"/>
-      <c r="FW1" s="89"/>
-      <c r="FX1" s="89"/>
-      <c r="FY1" s="89"/>
-      <c r="FZ1" s="89"/>
-      <c r="GA1" s="89"/>
-      <c r="GB1" s="89"/>
-      <c r="GC1" s="89"/>
-      <c r="GD1" s="89"/>
-      <c r="GE1" s="89"/>
-      <c r="GF1" s="89"/>
-      <c r="GG1" s="89"/>
-      <c r="GH1" s="89"/>
-      <c r="GI1" s="89"/>
-      <c r="GJ1" s="89"/>
-      <c r="GK1" s="89"/>
-      <c r="GL1" s="89"/>
-      <c r="GM1" s="89"/>
-      <c r="GN1" s="89"/>
-      <c r="GO1" s="89"/>
-      <c r="GP1" s="89"/>
-      <c r="GQ1" s="89"/>
-      <c r="GR1" s="89"/>
-      <c r="GS1" s="89"/>
-      <c r="GT1" s="89"/>
-      <c r="GU1" s="89"/>
-      <c r="GV1" s="89"/>
-      <c r="GW1" s="89"/>
-      <c r="GX1" s="89"/>
-      <c r="GY1" s="89"/>
-      <c r="GZ1" s="89"/>
-      <c r="HA1" s="89"/>
-      <c r="HB1" s="89"/>
-      <c r="HC1" s="89"/>
-      <c r="HD1" s="89"/>
-      <c r="HE1" s="89"/>
-      <c r="HF1" s="89"/>
-      <c r="HG1" s="89"/>
-      <c r="HH1" s="89"/>
-      <c r="HI1" s="89"/>
+      <c r="BO1" s="60"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
+      <c r="BR1" s="60"/>
+      <c r="BS1" s="60"/>
+      <c r="BT1" s="60"/>
+      <c r="BU1" s="60"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="60"/>
+      <c r="BY1" s="60"/>
+      <c r="BZ1" s="60"/>
+      <c r="CA1" s="60"/>
+      <c r="CB1" s="60"/>
+      <c r="CC1" s="60"/>
+      <c r="CD1" s="60"/>
+      <c r="CE1" s="60"/>
+      <c r="CF1" s="60"/>
+      <c r="CG1" s="60"/>
+      <c r="CH1" s="60"/>
+      <c r="CI1" s="60"/>
+      <c r="CJ1" s="60"/>
+      <c r="CK1" s="60"/>
+      <c r="CL1" s="60"/>
+      <c r="CM1" s="60"/>
+      <c r="CN1" s="60"/>
+      <c r="CO1" s="60"/>
+      <c r="CP1" s="60"/>
+      <c r="CQ1" s="60"/>
+      <c r="CR1" s="60"/>
+      <c r="CS1" s="60"/>
+      <c r="CT1" s="60"/>
+      <c r="CU1" s="60"/>
+      <c r="CV1" s="60"/>
+      <c r="CW1" s="60"/>
+      <c r="CX1" s="60"/>
+      <c r="CY1" s="60"/>
+      <c r="CZ1" s="60"/>
+      <c r="DA1" s="60"/>
+      <c r="DB1" s="60"/>
+      <c r="DC1" s="60"/>
+      <c r="DD1" s="60"/>
+      <c r="DE1" s="60"/>
+      <c r="DF1" s="60"/>
+      <c r="DG1" s="60"/>
+      <c r="DH1" s="60"/>
+      <c r="DI1" s="60"/>
+      <c r="DJ1" s="60"/>
+      <c r="DK1" s="60"/>
+      <c r="DL1" s="60"/>
+      <c r="DM1" s="60"/>
+      <c r="DN1" s="60"/>
+      <c r="DO1" s="60"/>
+      <c r="DP1" s="60"/>
+      <c r="DQ1" s="60"/>
+      <c r="DR1" s="60"/>
+      <c r="DS1" s="60"/>
+      <c r="DT1" s="60"/>
+      <c r="DU1" s="60"/>
+      <c r="DV1" s="60"/>
+      <c r="DW1" s="60"/>
+      <c r="DX1" s="60"/>
+      <c r="DY1" s="60"/>
+      <c r="DZ1" s="60"/>
+      <c r="EA1" s="60"/>
+      <c r="EB1" s="60"/>
+      <c r="EC1" s="60"/>
+      <c r="ED1" s="60"/>
+      <c r="EE1" s="60"/>
+      <c r="EF1" s="60"/>
+      <c r="EG1" s="60"/>
+      <c r="EH1" s="60"/>
+      <c r="EI1" s="60"/>
+      <c r="EJ1" s="60"/>
+      <c r="EK1" s="60"/>
+      <c r="EL1" s="60"/>
+      <c r="EM1" s="60"/>
+      <c r="EN1" s="60"/>
+      <c r="EO1" s="60"/>
+      <c r="EP1" s="60"/>
+      <c r="EQ1" s="60"/>
+      <c r="ER1" s="60"/>
+      <c r="ES1" s="60"/>
+      <c r="ET1" s="60"/>
+      <c r="EU1" s="60"/>
+      <c r="EV1" s="60"/>
+      <c r="EW1" s="60"/>
+      <c r="EX1" s="60"/>
+      <c r="EY1" s="60"/>
+      <c r="EZ1" s="60"/>
+      <c r="FA1" s="60"/>
+      <c r="FB1" s="60"/>
+      <c r="FC1" s="60"/>
+      <c r="FD1" s="60"/>
+      <c r="FE1" s="60"/>
+      <c r="FF1" s="60"/>
+      <c r="FG1" s="60"/>
+      <c r="FH1" s="60"/>
+      <c r="FI1" s="60"/>
+      <c r="FJ1" s="60"/>
+      <c r="FK1" s="60"/>
+      <c r="FL1" s="60"/>
+      <c r="FM1" s="60"/>
+      <c r="FN1" s="60"/>
+      <c r="FO1" s="60"/>
+      <c r="FP1" s="60"/>
+      <c r="FQ1" s="60"/>
+      <c r="FR1" s="60"/>
+      <c r="FS1" s="60"/>
+      <c r="FT1" s="60"/>
+      <c r="FU1" s="60"/>
+      <c r="FV1" s="60"/>
+      <c r="FW1" s="60"/>
+      <c r="FX1" s="60"/>
+      <c r="FY1" s="60"/>
+      <c r="FZ1" s="60"/>
+      <c r="GA1" s="60"/>
+      <c r="GB1" s="60"/>
+      <c r="GC1" s="60"/>
+      <c r="GD1" s="60"/>
+      <c r="GE1" s="60"/>
+      <c r="GF1" s="60"/>
+      <c r="GG1" s="60"/>
+      <c r="GH1" s="60"/>
+      <c r="GI1" s="60"/>
+      <c r="GJ1" s="60"/>
+      <c r="GK1" s="60"/>
+      <c r="GL1" s="60"/>
+      <c r="GM1" s="60"/>
+      <c r="GN1" s="60"/>
+      <c r="GO1" s="60"/>
+      <c r="GP1" s="60"/>
+      <c r="GQ1" s="60"/>
+      <c r="GR1" s="60"/>
+      <c r="GS1" s="60"/>
+      <c r="GT1" s="60"/>
+      <c r="GU1" s="60"/>
+      <c r="GV1" s="60"/>
+      <c r="GW1" s="60"/>
+      <c r="GX1" s="60"/>
+      <c r="GY1" s="60"/>
+      <c r="GZ1" s="60"/>
+      <c r="HA1" s="60"/>
+      <c r="HB1" s="60"/>
+      <c r="HC1" s="60"/>
+      <c r="HD1" s="60"/>
+      <c r="HE1" s="60"/>
+      <c r="HF1" s="60"/>
+      <c r="HG1" s="60"/>
+      <c r="HH1" s="60"/>
+      <c r="HI1" s="60"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="59">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="88">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="59">
         <v>1</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="88">
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="59">
         <v>2</v>
       </c>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="88">
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="59">
         <v>3</v>
       </c>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="88">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="59">
         <v>4</v>
       </c>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="88">
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="59">
         <v>5</v>
       </c>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="90"/>
-      <c r="AX2" s="88">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="59">
         <v>6</v>
       </c>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="89"/>
-      <c r="BE2" s="90"/>
-      <c r="BF2" s="88">
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="59">
         <v>7</v>
       </c>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="89"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="89"/>
-      <c r="BM2" s="90"/>
-      <c r="BN2" s="88">
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="59">
         <v>8</v>
       </c>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="89"/>
-      <c r="BQ2" s="89"/>
-      <c r="BR2" s="89"/>
-      <c r="BS2" s="89"/>
-      <c r="BT2" s="89"/>
-      <c r="BU2" s="90"/>
-      <c r="BV2" s="88">
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
+      <c r="BR2" s="60"/>
+      <c r="BS2" s="60"/>
+      <c r="BT2" s="60"/>
+      <c r="BU2" s="61"/>
+      <c r="BV2" s="59">
         <v>9</v>
       </c>
-      <c r="BW2" s="89"/>
-      <c r="BX2" s="89"/>
-      <c r="BY2" s="89"/>
-      <c r="BZ2" s="89"/>
-      <c r="CA2" s="89"/>
-      <c r="CB2" s="89"/>
-      <c r="CC2" s="90"/>
-      <c r="CD2" s="88">
+      <c r="BW2" s="60"/>
+      <c r="BX2" s="60"/>
+      <c r="BY2" s="60"/>
+      <c r="BZ2" s="60"/>
+      <c r="CA2" s="60"/>
+      <c r="CB2" s="60"/>
+      <c r="CC2" s="61"/>
+      <c r="CD2" s="59">
         <v>10</v>
       </c>
-      <c r="CE2" s="89"/>
-      <c r="CF2" s="89"/>
-      <c r="CG2" s="89"/>
-      <c r="CH2" s="89"/>
-      <c r="CI2" s="89"/>
-      <c r="CJ2" s="89"/>
-      <c r="CK2" s="90"/>
-      <c r="CL2" s="88">
+      <c r="CE2" s="60"/>
+      <c r="CF2" s="60"/>
+      <c r="CG2" s="60"/>
+      <c r="CH2" s="60"/>
+      <c r="CI2" s="60"/>
+      <c r="CJ2" s="60"/>
+      <c r="CK2" s="61"/>
+      <c r="CL2" s="59">
         <v>11</v>
       </c>
-      <c r="CM2" s="89"/>
-      <c r="CN2" s="89"/>
-      <c r="CO2" s="89"/>
-      <c r="CP2" s="89"/>
-      <c r="CQ2" s="89"/>
-      <c r="CR2" s="89"/>
-      <c r="CS2" s="90"/>
-      <c r="CT2" s="88">
+      <c r="CM2" s="60"/>
+      <c r="CN2" s="60"/>
+      <c r="CO2" s="60"/>
+      <c r="CP2" s="60"/>
+      <c r="CQ2" s="60"/>
+      <c r="CR2" s="60"/>
+      <c r="CS2" s="61"/>
+      <c r="CT2" s="59">
         <v>12</v>
       </c>
-      <c r="CU2" s="89"/>
-      <c r="CV2" s="89"/>
-      <c r="CW2" s="89"/>
-      <c r="CX2" s="89"/>
-      <c r="CY2" s="89"/>
-      <c r="CZ2" s="89"/>
-      <c r="DA2" s="90"/>
-      <c r="DB2" s="88">
+      <c r="CU2" s="60"/>
+      <c r="CV2" s="60"/>
+      <c r="CW2" s="60"/>
+      <c r="CX2" s="60"/>
+      <c r="CY2" s="60"/>
+      <c r="CZ2" s="60"/>
+      <c r="DA2" s="61"/>
+      <c r="DB2" s="59">
         <v>13</v>
       </c>
-      <c r="DC2" s="89"/>
-      <c r="DD2" s="89"/>
-      <c r="DE2" s="89"/>
-      <c r="DF2" s="89"/>
-      <c r="DG2" s="89"/>
-      <c r="DH2" s="89"/>
-      <c r="DI2" s="90"/>
-      <c r="DJ2" s="88">
+      <c r="DC2" s="60"/>
+      <c r="DD2" s="60"/>
+      <c r="DE2" s="60"/>
+      <c r="DF2" s="60"/>
+      <c r="DG2" s="60"/>
+      <c r="DH2" s="60"/>
+      <c r="DI2" s="61"/>
+      <c r="DJ2" s="59">
         <v>14</v>
       </c>
-      <c r="DK2" s="89"/>
-      <c r="DL2" s="89"/>
-      <c r="DM2" s="89"/>
-      <c r="DN2" s="89"/>
-      <c r="DO2" s="89"/>
-      <c r="DP2" s="89"/>
-      <c r="DQ2" s="90"/>
-      <c r="DR2" s="88">
+      <c r="DK2" s="60"/>
+      <c r="DL2" s="60"/>
+      <c r="DM2" s="60"/>
+      <c r="DN2" s="60"/>
+      <c r="DO2" s="60"/>
+      <c r="DP2" s="60"/>
+      <c r="DQ2" s="61"/>
+      <c r="DR2" s="59">
         <v>15</v>
       </c>
-      <c r="DS2" s="89"/>
-      <c r="DT2" s="89"/>
-      <c r="DU2" s="89"/>
-      <c r="DV2" s="89"/>
-      <c r="DW2" s="89"/>
-      <c r="DX2" s="89"/>
-      <c r="DY2" s="90"/>
-      <c r="DZ2" s="88">
+      <c r="DS2" s="60"/>
+      <c r="DT2" s="60"/>
+      <c r="DU2" s="60"/>
+      <c r="DV2" s="60"/>
+      <c r="DW2" s="60"/>
+      <c r="DX2" s="60"/>
+      <c r="DY2" s="61"/>
+      <c r="DZ2" s="59">
         <v>16</v>
       </c>
-      <c r="EA2" s="89"/>
-      <c r="EB2" s="89"/>
-      <c r="EC2" s="89"/>
-      <c r="ED2" s="89"/>
-      <c r="EE2" s="89"/>
-      <c r="EF2" s="89"/>
-      <c r="EG2" s="90"/>
-      <c r="EH2" s="88">
+      <c r="EA2" s="60"/>
+      <c r="EB2" s="60"/>
+      <c r="EC2" s="60"/>
+      <c r="ED2" s="60"/>
+      <c r="EE2" s="60"/>
+      <c r="EF2" s="60"/>
+      <c r="EG2" s="61"/>
+      <c r="EH2" s="59">
         <v>17</v>
       </c>
-      <c r="EI2" s="89"/>
-      <c r="EJ2" s="89"/>
-      <c r="EK2" s="89"/>
-      <c r="EL2" s="89"/>
-      <c r="EM2" s="89"/>
-      <c r="EN2" s="89"/>
-      <c r="EO2" s="90"/>
-      <c r="EP2" s="88">
+      <c r="EI2" s="60"/>
+      <c r="EJ2" s="60"/>
+      <c r="EK2" s="60"/>
+      <c r="EL2" s="60"/>
+      <c r="EM2" s="60"/>
+      <c r="EN2" s="60"/>
+      <c r="EO2" s="61"/>
+      <c r="EP2" s="59">
         <v>18</v>
       </c>
-      <c r="EQ2" s="89"/>
-      <c r="ER2" s="89"/>
-      <c r="ES2" s="89"/>
-      <c r="ET2" s="89"/>
-      <c r="EU2" s="89"/>
-      <c r="EV2" s="89"/>
-      <c r="EW2" s="90"/>
-      <c r="EX2" s="88">
+      <c r="EQ2" s="60"/>
+      <c r="ER2" s="60"/>
+      <c r="ES2" s="60"/>
+      <c r="ET2" s="60"/>
+      <c r="EU2" s="60"/>
+      <c r="EV2" s="60"/>
+      <c r="EW2" s="61"/>
+      <c r="EX2" s="59">
         <v>19</v>
       </c>
-      <c r="EY2" s="89"/>
-      <c r="EZ2" s="89"/>
-      <c r="FA2" s="89"/>
-      <c r="FB2" s="89"/>
-      <c r="FC2" s="89"/>
-      <c r="FD2" s="89"/>
-      <c r="FE2" s="90"/>
-      <c r="FF2" s="88">
+      <c r="EY2" s="60"/>
+      <c r="EZ2" s="60"/>
+      <c r="FA2" s="60"/>
+      <c r="FB2" s="60"/>
+      <c r="FC2" s="60"/>
+      <c r="FD2" s="60"/>
+      <c r="FE2" s="61"/>
+      <c r="FF2" s="59">
         <v>20</v>
       </c>
-      <c r="FG2" s="89"/>
-      <c r="FH2" s="89"/>
-      <c r="FI2" s="89"/>
-      <c r="FJ2" s="89"/>
-      <c r="FK2" s="89"/>
-      <c r="FL2" s="89"/>
-      <c r="FM2" s="90"/>
-      <c r="FN2" s="88">
+      <c r="FG2" s="60"/>
+      <c r="FH2" s="60"/>
+      <c r="FI2" s="60"/>
+      <c r="FJ2" s="60"/>
+      <c r="FK2" s="60"/>
+      <c r="FL2" s="60"/>
+      <c r="FM2" s="61"/>
+      <c r="FN2" s="59">
         <v>21</v>
       </c>
-      <c r="FO2" s="89"/>
-      <c r="FP2" s="89"/>
-      <c r="FQ2" s="89"/>
-      <c r="FR2" s="89"/>
-      <c r="FS2" s="89"/>
-      <c r="FT2" s="89"/>
-      <c r="FU2" s="90"/>
-      <c r="FV2" s="88">
+      <c r="FO2" s="60"/>
+      <c r="FP2" s="60"/>
+      <c r="FQ2" s="60"/>
+      <c r="FR2" s="60"/>
+      <c r="FS2" s="60"/>
+      <c r="FT2" s="60"/>
+      <c r="FU2" s="61"/>
+      <c r="FV2" s="59">
         <v>22</v>
       </c>
-      <c r="FW2" s="89"/>
-      <c r="FX2" s="89"/>
-      <c r="FY2" s="89"/>
-      <c r="FZ2" s="89"/>
-      <c r="GA2" s="89"/>
-      <c r="GB2" s="89"/>
-      <c r="GC2" s="90"/>
-      <c r="GD2" s="88">
+      <c r="FW2" s="60"/>
+      <c r="FX2" s="60"/>
+      <c r="FY2" s="60"/>
+      <c r="FZ2" s="60"/>
+      <c r="GA2" s="60"/>
+      <c r="GB2" s="60"/>
+      <c r="GC2" s="61"/>
+      <c r="GD2" s="59">
         <v>23</v>
       </c>
-      <c r="GE2" s="89"/>
-      <c r="GF2" s="89"/>
-      <c r="GG2" s="89"/>
-      <c r="GH2" s="89"/>
-      <c r="GI2" s="89"/>
-      <c r="GJ2" s="89"/>
-      <c r="GK2" s="90"/>
-      <c r="GL2" s="88">
+      <c r="GE2" s="60"/>
+      <c r="GF2" s="60"/>
+      <c r="GG2" s="60"/>
+      <c r="GH2" s="60"/>
+      <c r="GI2" s="60"/>
+      <c r="GJ2" s="60"/>
+      <c r="GK2" s="61"/>
+      <c r="GL2" s="59">
         <v>24</v>
       </c>
-      <c r="GM2" s="89"/>
-      <c r="GN2" s="89"/>
-      <c r="GO2" s="89"/>
-      <c r="GP2" s="89"/>
-      <c r="GQ2" s="89"/>
-      <c r="GR2" s="89"/>
-      <c r="GS2" s="90"/>
-      <c r="GT2" s="88">
+      <c r="GM2" s="60"/>
+      <c r="GN2" s="60"/>
+      <c r="GO2" s="60"/>
+      <c r="GP2" s="60"/>
+      <c r="GQ2" s="60"/>
+      <c r="GR2" s="60"/>
+      <c r="GS2" s="61"/>
+      <c r="GT2" s="59">
         <v>25</v>
       </c>
-      <c r="GU2" s="89"/>
-      <c r="GV2" s="89"/>
-      <c r="GW2" s="89"/>
-      <c r="GX2" s="89"/>
-      <c r="GY2" s="89"/>
-      <c r="GZ2" s="89"/>
-      <c r="HA2" s="90"/>
-      <c r="HB2" s="88">
+      <c r="GU2" s="60"/>
+      <c r="GV2" s="60"/>
+      <c r="GW2" s="60"/>
+      <c r="GX2" s="60"/>
+      <c r="GY2" s="60"/>
+      <c r="GZ2" s="60"/>
+      <c r="HA2" s="61"/>
+      <c r="HB2" s="59">
         <v>26</v>
       </c>
-      <c r="HC2" s="89"/>
-      <c r="HD2" s="89"/>
-      <c r="HE2" s="89"/>
-      <c r="HF2" s="89"/>
-      <c r="HG2" s="89"/>
-      <c r="HH2" s="89"/>
-      <c r="HI2" s="90"/>
+      <c r="HC2" s="60"/>
+      <c r="HD2" s="60"/>
+      <c r="HE2" s="60"/>
+      <c r="HF2" s="60"/>
+      <c r="HG2" s="60"/>
+      <c r="HH2" s="60"/>
+      <c r="HI2" s="61"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="88" t="str">
+      <c r="B3" s="59" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="88" t="str">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="59" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="88" t="str">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="59" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="88" t="str">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="59" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="88" t="str">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="59" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="88" t="str">
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="59" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89"/>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="89"/>
-      <c r="AW3" s="90"/>
-      <c r="AX3" s="88" t="str">
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="60"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="59" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="89"/>
-      <c r="AZ3" s="89"/>
-      <c r="BA3" s="89"/>
-      <c r="BB3" s="89"/>
-      <c r="BC3" s="89"/>
-      <c r="BD3" s="89"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="88" t="str">
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="59" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="89"/>
-      <c r="BH3" s="89"/>
-      <c r="BI3" s="89"/>
-      <c r="BJ3" s="89"/>
-      <c r="BK3" s="89"/>
-      <c r="BL3" s="89"/>
-      <c r="BM3" s="90"/>
-      <c r="BN3" s="88" t="str">
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60"/>
+      <c r="BJ3" s="60"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="59" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="89"/>
-      <c r="BQ3" s="89"/>
-      <c r="BR3" s="89"/>
-      <c r="BS3" s="89"/>
-      <c r="BT3" s="89"/>
-      <c r="BU3" s="90"/>
-      <c r="BV3" s="88" t="str">
+      <c r="BO3" s="60"/>
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="60"/>
+      <c r="BR3" s="60"/>
+      <c r="BS3" s="60"/>
+      <c r="BT3" s="60"/>
+      <c r="BU3" s="61"/>
+      <c r="BV3" s="59" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="89"/>
-      <c r="BX3" s="89"/>
-      <c r="BY3" s="89"/>
-      <c r="BZ3" s="89"/>
-      <c r="CA3" s="89"/>
-      <c r="CB3" s="89"/>
-      <c r="CC3" s="90"/>
-      <c r="CD3" s="88" t="str">
+      <c r="BW3" s="60"/>
+      <c r="BX3" s="60"/>
+      <c r="BY3" s="60"/>
+      <c r="BZ3" s="60"/>
+      <c r="CA3" s="60"/>
+      <c r="CB3" s="60"/>
+      <c r="CC3" s="61"/>
+      <c r="CD3" s="59" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="89"/>
-      <c r="CF3" s="89"/>
-      <c r="CG3" s="89"/>
-      <c r="CH3" s="89"/>
-      <c r="CI3" s="89"/>
-      <c r="CJ3" s="89"/>
-      <c r="CK3" s="90"/>
-      <c r="CL3" s="88" t="str">
+      <c r="CE3" s="60"/>
+      <c r="CF3" s="60"/>
+      <c r="CG3" s="60"/>
+      <c r="CH3" s="60"/>
+      <c r="CI3" s="60"/>
+      <c r="CJ3" s="60"/>
+      <c r="CK3" s="61"/>
+      <c r="CL3" s="59" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="89"/>
-      <c r="CN3" s="89"/>
-      <c r="CO3" s="89"/>
-      <c r="CP3" s="89"/>
-      <c r="CQ3" s="89"/>
-      <c r="CR3" s="89"/>
-      <c r="CS3" s="90"/>
-      <c r="CT3" s="88" t="str">
+      <c r="CM3" s="60"/>
+      <c r="CN3" s="60"/>
+      <c r="CO3" s="60"/>
+      <c r="CP3" s="60"/>
+      <c r="CQ3" s="60"/>
+      <c r="CR3" s="60"/>
+      <c r="CS3" s="61"/>
+      <c r="CT3" s="59" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="89"/>
-      <c r="CV3" s="89"/>
-      <c r="CW3" s="89"/>
-      <c r="CX3" s="89"/>
-      <c r="CY3" s="89"/>
-      <c r="CZ3" s="89"/>
-      <c r="DA3" s="90"/>
-      <c r="DB3" s="88" t="str">
+      <c r="CU3" s="60"/>
+      <c r="CV3" s="60"/>
+      <c r="CW3" s="60"/>
+      <c r="CX3" s="60"/>
+      <c r="CY3" s="60"/>
+      <c r="CZ3" s="60"/>
+      <c r="DA3" s="61"/>
+      <c r="DB3" s="59" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="89"/>
-      <c r="DD3" s="89"/>
-      <c r="DE3" s="89"/>
-      <c r="DF3" s="89"/>
-      <c r="DG3" s="89"/>
-      <c r="DH3" s="89"/>
-      <c r="DI3" s="90"/>
-      <c r="DJ3" s="88" t="str">
+      <c r="DC3" s="60"/>
+      <c r="DD3" s="60"/>
+      <c r="DE3" s="60"/>
+      <c r="DF3" s="60"/>
+      <c r="DG3" s="60"/>
+      <c r="DH3" s="60"/>
+      <c r="DI3" s="61"/>
+      <c r="DJ3" s="59" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="89"/>
-      <c r="DL3" s="89"/>
-      <c r="DM3" s="89"/>
-      <c r="DN3" s="89"/>
-      <c r="DO3" s="89"/>
-      <c r="DP3" s="89"/>
-      <c r="DQ3" s="90"/>
-      <c r="DR3" s="88" t="str">
+      <c r="DK3" s="60"/>
+      <c r="DL3" s="60"/>
+      <c r="DM3" s="60"/>
+      <c r="DN3" s="60"/>
+      <c r="DO3" s="60"/>
+      <c r="DP3" s="60"/>
+      <c r="DQ3" s="61"/>
+      <c r="DR3" s="59" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="89"/>
-      <c r="DT3" s="89"/>
-      <c r="DU3" s="89"/>
-      <c r="DV3" s="89"/>
-      <c r="DW3" s="89"/>
-      <c r="DX3" s="89"/>
-      <c r="DY3" s="90"/>
-      <c r="DZ3" s="88" t="str">
+      <c r="DS3" s="60"/>
+      <c r="DT3" s="60"/>
+      <c r="DU3" s="60"/>
+      <c r="DV3" s="60"/>
+      <c r="DW3" s="60"/>
+      <c r="DX3" s="60"/>
+      <c r="DY3" s="61"/>
+      <c r="DZ3" s="59" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="89"/>
-      <c r="EB3" s="89"/>
-      <c r="EC3" s="89"/>
-      <c r="ED3" s="89"/>
-      <c r="EE3" s="89"/>
-      <c r="EF3" s="89"/>
-      <c r="EG3" s="90"/>
-      <c r="EH3" s="88" t="str">
+      <c r="EA3" s="60"/>
+      <c r="EB3" s="60"/>
+      <c r="EC3" s="60"/>
+      <c r="ED3" s="60"/>
+      <c r="EE3" s="60"/>
+      <c r="EF3" s="60"/>
+      <c r="EG3" s="61"/>
+      <c r="EH3" s="59" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="89"/>
-      <c r="EJ3" s="89"/>
-      <c r="EK3" s="89"/>
-      <c r="EL3" s="89"/>
-      <c r="EM3" s="89"/>
-      <c r="EN3" s="89"/>
-      <c r="EO3" s="90"/>
-      <c r="EP3" s="88" t="str">
+      <c r="EI3" s="60"/>
+      <c r="EJ3" s="60"/>
+      <c r="EK3" s="60"/>
+      <c r="EL3" s="60"/>
+      <c r="EM3" s="60"/>
+      <c r="EN3" s="60"/>
+      <c r="EO3" s="61"/>
+      <c r="EP3" s="59" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="89"/>
-      <c r="ER3" s="89"/>
-      <c r="ES3" s="89"/>
-      <c r="ET3" s="89"/>
-      <c r="EU3" s="89"/>
-      <c r="EV3" s="89"/>
-      <c r="EW3" s="90"/>
-      <c r="EX3" s="88" t="str">
+      <c r="EQ3" s="60"/>
+      <c r="ER3" s="60"/>
+      <c r="ES3" s="60"/>
+      <c r="ET3" s="60"/>
+      <c r="EU3" s="60"/>
+      <c r="EV3" s="60"/>
+      <c r="EW3" s="61"/>
+      <c r="EX3" s="59" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="89"/>
-      <c r="EZ3" s="89"/>
-      <c r="FA3" s="89"/>
-      <c r="FB3" s="89"/>
-      <c r="FC3" s="89"/>
-      <c r="FD3" s="89"/>
-      <c r="FE3" s="90"/>
-      <c r="FF3" s="88" t="str">
+      <c r="EY3" s="60"/>
+      <c r="EZ3" s="60"/>
+      <c r="FA3" s="60"/>
+      <c r="FB3" s="60"/>
+      <c r="FC3" s="60"/>
+      <c r="FD3" s="60"/>
+      <c r="FE3" s="61"/>
+      <c r="FF3" s="59" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="89"/>
-      <c r="FH3" s="89"/>
-      <c r="FI3" s="89"/>
-      <c r="FJ3" s="89"/>
-      <c r="FK3" s="89"/>
-      <c r="FL3" s="89"/>
-      <c r="FM3" s="90"/>
-      <c r="FN3" s="88" t="str">
+      <c r="FG3" s="60"/>
+      <c r="FH3" s="60"/>
+      <c r="FI3" s="60"/>
+      <c r="FJ3" s="60"/>
+      <c r="FK3" s="60"/>
+      <c r="FL3" s="60"/>
+      <c r="FM3" s="61"/>
+      <c r="FN3" s="59" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="89"/>
-      <c r="FP3" s="89"/>
-      <c r="FQ3" s="89"/>
-      <c r="FR3" s="89"/>
-      <c r="FS3" s="89"/>
-      <c r="FT3" s="89"/>
-      <c r="FU3" s="90"/>
-      <c r="FV3" s="88" t="str">
+      <c r="FO3" s="60"/>
+      <c r="FP3" s="60"/>
+      <c r="FQ3" s="60"/>
+      <c r="FR3" s="60"/>
+      <c r="FS3" s="60"/>
+      <c r="FT3" s="60"/>
+      <c r="FU3" s="61"/>
+      <c r="FV3" s="59" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="89"/>
-      <c r="FX3" s="89"/>
-      <c r="FY3" s="89"/>
-      <c r="FZ3" s="89"/>
-      <c r="GA3" s="89"/>
-      <c r="GB3" s="89"/>
-      <c r="GC3" s="90"/>
-      <c r="GD3" s="88" t="str">
+      <c r="FW3" s="60"/>
+      <c r="FX3" s="60"/>
+      <c r="FY3" s="60"/>
+      <c r="FZ3" s="60"/>
+      <c r="GA3" s="60"/>
+      <c r="GB3" s="60"/>
+      <c r="GC3" s="61"/>
+      <c r="GD3" s="59" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="89"/>
-      <c r="GF3" s="89"/>
-      <c r="GG3" s="89"/>
-      <c r="GH3" s="89"/>
-      <c r="GI3" s="89"/>
-      <c r="GJ3" s="89"/>
-      <c r="GK3" s="90"/>
-      <c r="GL3" s="88" t="str">
+      <c r="GE3" s="60"/>
+      <c r="GF3" s="60"/>
+      <c r="GG3" s="60"/>
+      <c r="GH3" s="60"/>
+      <c r="GI3" s="60"/>
+      <c r="GJ3" s="60"/>
+      <c r="GK3" s="61"/>
+      <c r="GL3" s="59" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="89"/>
-      <c r="GN3" s="89"/>
-      <c r="GO3" s="89"/>
-      <c r="GP3" s="89"/>
-      <c r="GQ3" s="89"/>
-      <c r="GR3" s="89"/>
-      <c r="GS3" s="90"/>
-      <c r="GT3" s="88" t="str">
+      <c r="GM3" s="60"/>
+      <c r="GN3" s="60"/>
+      <c r="GO3" s="60"/>
+      <c r="GP3" s="60"/>
+      <c r="GQ3" s="60"/>
+      <c r="GR3" s="60"/>
+      <c r="GS3" s="61"/>
+      <c r="GT3" s="59" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="89"/>
-      <c r="GV3" s="89"/>
-      <c r="GW3" s="89"/>
-      <c r="GX3" s="89"/>
-      <c r="GY3" s="89"/>
-      <c r="GZ3" s="89"/>
-      <c r="HA3" s="90"/>
-      <c r="HB3" s="88" t="str">
+      <c r="GU3" s="60"/>
+      <c r="GV3" s="60"/>
+      <c r="GW3" s="60"/>
+      <c r="GX3" s="60"/>
+      <c r="GY3" s="60"/>
+      <c r="GZ3" s="60"/>
+      <c r="HA3" s="61"/>
+      <c r="HB3" s="59" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="89"/>
-      <c r="HD3" s="89"/>
-      <c r="HE3" s="89"/>
-      <c r="HF3" s="89"/>
-      <c r="HG3" s="89"/>
-      <c r="HH3" s="89"/>
-      <c r="HI3" s="90"/>
+      <c r="HC3" s="60"/>
+      <c r="HD3" s="60"/>
+      <c r="HE3" s="60"/>
+      <c r="HF3" s="60"/>
+      <c r="HG3" s="60"/>
+      <c r="HH3" s="60"/>
+      <c r="HI3" s="61"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="59">
         <v>0</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="88">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="59">
         <v>2</v>
       </c>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="88">
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="59">
         <v>4</v>
       </c>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="88">
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="59">
         <v>6</v>
       </c>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="89"/>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="89"/>
-      <c r="BM4" s="90"/>
-      <c r="BN4" s="88">
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="61"/>
+      <c r="BN4" s="59">
         <v>8</v>
       </c>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="89"/>
-      <c r="BR4" s="89"/>
-      <c r="BS4" s="89"/>
-      <c r="BT4" s="89"/>
-      <c r="BU4" s="90"/>
-      <c r="BV4" s="88">
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="60"/>
+      <c r="BU4" s="61"/>
+      <c r="BV4" s="59">
         <v>9</v>
       </c>
-      <c r="BW4" s="89"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="89"/>
-      <c r="BZ4" s="89"/>
-      <c r="CA4" s="89"/>
-      <c r="CB4" s="89"/>
-      <c r="CC4" s="90"/>
-      <c r="CD4" s="88" t="str">
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="61"/>
+      <c r="CD4" s="59" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="89"/>
-      <c r="CF4" s="89"/>
-      <c r="CG4" s="89"/>
-      <c r="CH4" s="89"/>
-      <c r="CI4" s="89"/>
-      <c r="CJ4" s="89"/>
-      <c r="CK4" s="90"/>
-      <c r="CL4" s="88" t="str">
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="60"/>
+      <c r="CI4" s="60"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="61"/>
+      <c r="CL4" s="59" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="89"/>
-      <c r="CN4" s="89"/>
-      <c r="CO4" s="89"/>
-      <c r="CP4" s="89"/>
-      <c r="CQ4" s="89"/>
-      <c r="CR4" s="89"/>
-      <c r="CS4" s="89"/>
-      <c r="CT4" s="89"/>
-      <c r="CU4" s="89"/>
-      <c r="CV4" s="89"/>
-      <c r="CW4" s="89"/>
-      <c r="CX4" s="89"/>
-      <c r="CY4" s="89"/>
-      <c r="CZ4" s="89"/>
-      <c r="DA4" s="90"/>
-      <c r="DB4" s="88" t="str">
+      <c r="CM4" s="60"/>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="60"/>
+      <c r="DA4" s="61"/>
+      <c r="DB4" s="59" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="89"/>
-      <c r="DD4" s="89"/>
-      <c r="DE4" s="89"/>
-      <c r="DF4" s="89"/>
-      <c r="DG4" s="89"/>
-      <c r="DH4" s="89"/>
-      <c r="DI4" s="89"/>
-      <c r="DJ4" s="89"/>
-      <c r="DK4" s="89"/>
-      <c r="DL4" s="89"/>
-      <c r="DM4" s="89"/>
-      <c r="DN4" s="89"/>
-      <c r="DO4" s="89"/>
-      <c r="DP4" s="89"/>
-      <c r="DQ4" s="90"/>
-      <c r="DR4" s="88" t="str">
+      <c r="DC4" s="60"/>
+      <c r="DD4" s="60"/>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
+      <c r="DG4" s="60"/>
+      <c r="DH4" s="60"/>
+      <c r="DI4" s="60"/>
+      <c r="DJ4" s="60"/>
+      <c r="DK4" s="60"/>
+      <c r="DL4" s="60"/>
+      <c r="DM4" s="60"/>
+      <c r="DN4" s="60"/>
+      <c r="DO4" s="60"/>
+      <c r="DP4" s="60"/>
+      <c r="DQ4" s="61"/>
+      <c r="DR4" s="59" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="89"/>
-      <c r="DT4" s="89"/>
-      <c r="DU4" s="89"/>
-      <c r="DV4" s="89"/>
-      <c r="DW4" s="89"/>
-      <c r="DX4" s="89"/>
-      <c r="DY4" s="89"/>
-      <c r="DZ4" s="89"/>
-      <c r="EA4" s="89"/>
-      <c r="EB4" s="89"/>
-      <c r="EC4" s="89"/>
-      <c r="ED4" s="89"/>
-      <c r="EE4" s="89"/>
-      <c r="EF4" s="89"/>
-      <c r="EG4" s="90"/>
-      <c r="EH4" s="88" t="str">
+      <c r="DS4" s="60"/>
+      <c r="DT4" s="60"/>
+      <c r="DU4" s="60"/>
+      <c r="DV4" s="60"/>
+      <c r="DW4" s="60"/>
+      <c r="DX4" s="60"/>
+      <c r="DY4" s="60"/>
+      <c r="DZ4" s="60"/>
+      <c r="EA4" s="60"/>
+      <c r="EB4" s="60"/>
+      <c r="EC4" s="60"/>
+      <c r="ED4" s="60"/>
+      <c r="EE4" s="60"/>
+      <c r="EF4" s="60"/>
+      <c r="EG4" s="61"/>
+      <c r="EH4" s="59" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="89"/>
-      <c r="EJ4" s="89"/>
-      <c r="EK4" s="89"/>
-      <c r="EL4" s="89"/>
-      <c r="EM4" s="89"/>
-      <c r="EN4" s="89"/>
-      <c r="EO4" s="90"/>
-      <c r="EP4" s="88" t="str">
+      <c r="EI4" s="60"/>
+      <c r="EJ4" s="60"/>
+      <c r="EK4" s="60"/>
+      <c r="EL4" s="60"/>
+      <c r="EM4" s="60"/>
+      <c r="EN4" s="60"/>
+      <c r="EO4" s="61"/>
+      <c r="EP4" s="59" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="89"/>
-      <c r="ER4" s="89"/>
-      <c r="ES4" s="89"/>
-      <c r="ET4" s="89"/>
-      <c r="EU4" s="89"/>
-      <c r="EV4" s="89"/>
-      <c r="EW4" s="90"/>
-      <c r="EX4" s="88" t="str">
+      <c r="EQ4" s="60"/>
+      <c r="ER4" s="60"/>
+      <c r="ES4" s="60"/>
+      <c r="ET4" s="60"/>
+      <c r="EU4" s="60"/>
+      <c r="EV4" s="60"/>
+      <c r="EW4" s="61"/>
+      <c r="EX4" s="59" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="89"/>
-      <c r="EZ4" s="89"/>
-      <c r="FA4" s="89"/>
-      <c r="FB4" s="89"/>
-      <c r="FC4" s="89"/>
-      <c r="FD4" s="89"/>
-      <c r="FE4" s="90"/>
-      <c r="FF4" s="88" t="str">
+      <c r="EY4" s="60"/>
+      <c r="EZ4" s="60"/>
+      <c r="FA4" s="60"/>
+      <c r="FB4" s="60"/>
+      <c r="FC4" s="60"/>
+      <c r="FD4" s="60"/>
+      <c r="FE4" s="61"/>
+      <c r="FF4" s="59" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="89"/>
-      <c r="FH4" s="89"/>
-      <c r="FI4" s="89"/>
-      <c r="FJ4" s="89"/>
-      <c r="FK4" s="89"/>
-      <c r="FL4" s="89"/>
-      <c r="FM4" s="90"/>
-      <c r="FN4" s="88" t="str">
+      <c r="FG4" s="60"/>
+      <c r="FH4" s="60"/>
+      <c r="FI4" s="60"/>
+      <c r="FJ4" s="60"/>
+      <c r="FK4" s="60"/>
+      <c r="FL4" s="60"/>
+      <c r="FM4" s="61"/>
+      <c r="FN4" s="59" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="89"/>
-      <c r="FP4" s="89"/>
-      <c r="FQ4" s="89"/>
-      <c r="FR4" s="89"/>
-      <c r="FS4" s="89"/>
-      <c r="FT4" s="89"/>
-      <c r="FU4" s="90"/>
-      <c r="FV4" s="88" t="str">
+      <c r="FO4" s="60"/>
+      <c r="FP4" s="60"/>
+      <c r="FQ4" s="60"/>
+      <c r="FR4" s="60"/>
+      <c r="FS4" s="60"/>
+      <c r="FT4" s="60"/>
+      <c r="FU4" s="61"/>
+      <c r="FV4" s="59" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="89"/>
-      <c r="FX4" s="89"/>
-      <c r="FY4" s="89"/>
-      <c r="FZ4" s="89"/>
-      <c r="GA4" s="89"/>
-      <c r="GB4" s="89"/>
-      <c r="GC4" s="89"/>
-      <c r="GD4" s="89"/>
-      <c r="GE4" s="89"/>
-      <c r="GF4" s="89"/>
-      <c r="GG4" s="89"/>
-      <c r="GH4" s="89"/>
-      <c r="GI4" s="89"/>
-      <c r="GJ4" s="89"/>
-      <c r="GK4" s="90"/>
-      <c r="GL4" s="88" t="str">
+      <c r="FW4" s="60"/>
+      <c r="FX4" s="60"/>
+      <c r="FY4" s="60"/>
+      <c r="FZ4" s="60"/>
+      <c r="GA4" s="60"/>
+      <c r="GB4" s="60"/>
+      <c r="GC4" s="60"/>
+      <c r="GD4" s="60"/>
+      <c r="GE4" s="60"/>
+      <c r="GF4" s="60"/>
+      <c r="GG4" s="60"/>
+      <c r="GH4" s="60"/>
+      <c r="GI4" s="60"/>
+      <c r="GJ4" s="60"/>
+      <c r="GK4" s="61"/>
+      <c r="GL4" s="59" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="89"/>
-      <c r="GN4" s="89"/>
-      <c r="GO4" s="89"/>
-      <c r="GP4" s="89"/>
-      <c r="GQ4" s="89"/>
-      <c r="GR4" s="89"/>
-      <c r="GS4" s="90"/>
-      <c r="GT4" s="88" t="str">
+      <c r="GM4" s="60"/>
+      <c r="GN4" s="60"/>
+      <c r="GO4" s="60"/>
+      <c r="GP4" s="60"/>
+      <c r="GQ4" s="60"/>
+      <c r="GR4" s="60"/>
+      <c r="GS4" s="61"/>
+      <c r="GT4" s="59" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="89"/>
-      <c r="GV4" s="89"/>
-      <c r="GW4" s="89"/>
-      <c r="GX4" s="89"/>
-      <c r="GY4" s="89"/>
-      <c r="GZ4" s="89"/>
-      <c r="HA4" s="90"/>
-      <c r="HB4" s="88" t="str">
+      <c r="GU4" s="60"/>
+      <c r="GV4" s="60"/>
+      <c r="GW4" s="60"/>
+      <c r="GX4" s="60"/>
+      <c r="GY4" s="60"/>
+      <c r="GZ4" s="60"/>
+      <c r="HA4" s="61"/>
+      <c r="HB4" s="59" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="89"/>
-      <c r="HD4" s="89"/>
-      <c r="HE4" s="89"/>
-      <c r="HF4" s="89"/>
-      <c r="HG4" s="89"/>
-      <c r="HH4" s="89"/>
-      <c r="HI4" s="90"/>
+      <c r="HC4" s="60"/>
+      <c r="HD4" s="60"/>
+      <c r="HE4" s="60"/>
+      <c r="HF4" s="60"/>
+      <c r="HG4" s="60"/>
+      <c r="HH4" s="60"/>
+      <c r="HI4" s="61"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>15</v>
@@ -3796,7 +3994,7 @@
     </row>
     <row r="6" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10" t="str">
         <f>DEC2HEX(B5)</f>
@@ -4478,27 +4676,27 @@
         <f t="shared" si="38"/>
         <v>6</v>
       </c>
-      <c r="FP6" s="45" t="str">
+      <c r="FP6" s="43" t="str">
         <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="FQ6" s="46" t="str">
+      <c r="FQ6" s="44" t="str">
         <f t="shared" si="38"/>
         <v>4</v>
       </c>
-      <c r="FR6" s="47" t="str">
+      <c r="FR6" s="45" t="str">
         <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="FS6" s="45" t="str">
+      <c r="FS6" s="43" t="str">
         <f t="shared" si="38"/>
         <v>2</v>
       </c>
-      <c r="FT6" s="45" t="str">
+      <c r="FT6" s="43" t="str">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="FU6" s="46" t="str">
+      <c r="FU6" s="44" t="str">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -4679,810 +4877,845 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="117" t="s">
+      <c r="G7" s="84"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="97" t="s">
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="98"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="97" t="s">
+      <c r="S7" s="87"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="98"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="100" t="s">
+      <c r="V7" s="87"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="102"/>
-      <c r="AA7" s="97" t="s">
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="97" t="s">
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="97" t="s">
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="88"/>
+      <c r="AR7" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="97" t="s">
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="98"/>
-      <c r="BF7" s="98"/>
-      <c r="BG7" s="99"/>
-      <c r="BH7" s="97" t="s">
+      <c r="AY7" s="87"/>
+      <c r="AZ7" s="87"/>
+      <c r="BA7" s="87"/>
+      <c r="BB7" s="87"/>
+      <c r="BC7" s="87"/>
+      <c r="BD7" s="87"/>
+      <c r="BE7" s="87"/>
+      <c r="BF7" s="87"/>
+      <c r="BG7" s="88"/>
+      <c r="BH7" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="98"/>
-      <c r="BJ7" s="98"/>
-      <c r="BK7" s="98"/>
-      <c r="BL7" s="98"/>
-      <c r="BM7" s="99"/>
-      <c r="BN7" s="97" t="s">
+      <c r="BI7" s="87"/>
+      <c r="BJ7" s="87"/>
+      <c r="BK7" s="87"/>
+      <c r="BL7" s="87"/>
+      <c r="BM7" s="88"/>
+      <c r="BN7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="98"/>
-      <c r="BP7" s="98"/>
-      <c r="BQ7" s="98"/>
-      <c r="BR7" s="98"/>
-      <c r="BS7" s="98"/>
-      <c r="BT7" s="98"/>
-      <c r="BU7" s="99"/>
-      <c r="BV7" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW7" s="98"/>
-      <c r="BX7" s="98"/>
-      <c r="BY7" s="98"/>
-      <c r="BZ7" s="98"/>
-      <c r="CA7" s="98"/>
-      <c r="CB7" s="98"/>
-      <c r="CC7" s="99"/>
-      <c r="CD7" s="94" t="s">
+      <c r="BO7" s="87"/>
+      <c r="BP7" s="87"/>
+      <c r="BQ7" s="87"/>
+      <c r="BR7" s="87"/>
+      <c r="BS7" s="87"/>
+      <c r="BT7" s="87"/>
+      <c r="BU7" s="88"/>
+      <c r="BV7" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="BW7" s="87"/>
+      <c r="BX7" s="87"/>
+      <c r="BY7" s="87"/>
+      <c r="BZ7" s="87"/>
+      <c r="CA7" s="87"/>
+      <c r="CB7" s="87"/>
+      <c r="CC7" s="88"/>
+      <c r="CD7" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="95"/>
-      <c r="CF7" s="95"/>
-      <c r="CG7" s="95"/>
-      <c r="CH7" s="95"/>
-      <c r="CI7" s="95"/>
-      <c r="CJ7" s="95"/>
-      <c r="CK7" s="96"/>
-      <c r="CL7" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="CM7" s="95"/>
-      <c r="CN7" s="95"/>
-      <c r="CO7" s="96"/>
-      <c r="CP7" s="118" t="s">
+      <c r="CE7" s="168"/>
+      <c r="CF7" s="168"/>
+      <c r="CG7" s="168"/>
+      <c r="CH7" s="77"/>
+      <c r="CI7" s="77"/>
+      <c r="CJ7" s="77"/>
+      <c r="CK7" s="85"/>
+      <c r="CL7" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM7" s="87"/>
+      <c r="CN7" s="87"/>
+      <c r="CO7" s="88"/>
+      <c r="CP7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="119"/>
-      <c r="CR7" s="119"/>
-      <c r="CS7" s="119"/>
-      <c r="CT7" s="119"/>
-      <c r="CU7" s="119"/>
-      <c r="CV7" s="119"/>
-      <c r="CW7" s="120"/>
-      <c r="CX7" s="97" t="s">
+      <c r="CQ7" s="91"/>
+      <c r="CR7" s="91"/>
+      <c r="CS7" s="91"/>
+      <c r="CT7" s="91"/>
+      <c r="CU7" s="91"/>
+      <c r="CV7" s="91"/>
+      <c r="CW7" s="92"/>
+      <c r="CX7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="98"/>
-      <c r="CZ7" s="98"/>
-      <c r="DA7" s="99"/>
-      <c r="DB7" s="97" t="s">
+      <c r="CY7" s="87"/>
+      <c r="CZ7" s="87"/>
+      <c r="DA7" s="88"/>
+      <c r="DB7" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="DC7" s="99"/>
+      <c r="DC7" s="88"/>
       <c r="DD7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="DE7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="DF7" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="DG7" s="95"/>
-      <c r="DH7" s="95"/>
-      <c r="DI7" s="95"/>
-      <c r="DJ7" s="95"/>
-      <c r="DK7" s="95"/>
-      <c r="DL7" s="95"/>
-      <c r="DM7" s="96"/>
-      <c r="DN7" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="DF7" s="27"/>
+      <c r="DG7" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="DH7" s="28"/>
+      <c r="DI7" s="28"/>
+      <c r="DJ7" s="28"/>
+      <c r="DK7" s="28"/>
+      <c r="DL7" s="28"/>
+      <c r="DM7" s="29"/>
+      <c r="DN7" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="DO7" s="95"/>
-      <c r="DP7" s="95"/>
-      <c r="DQ7" s="96"/>
-      <c r="DR7" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="DS7" s="109"/>
-      <c r="DT7" s="109"/>
-      <c r="DU7" s="110"/>
-      <c r="DV7" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW7" s="109"/>
-      <c r="DX7" s="109"/>
-      <c r="DY7" s="109"/>
-      <c r="DZ7" s="109"/>
-      <c r="EA7" s="110"/>
-      <c r="EB7" s="108" t="s">
+      <c r="DO7" s="84"/>
+      <c r="DP7" s="84"/>
+      <c r="DQ7" s="93"/>
+      <c r="DR7" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="DS7" s="73"/>
+      <c r="DT7" s="73"/>
+      <c r="DU7" s="74"/>
+      <c r="DV7" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="EC7" s="109"/>
-      <c r="ED7" s="109"/>
-      <c r="EE7" s="109"/>
-      <c r="EF7" s="109"/>
-      <c r="EG7" s="110"/>
-      <c r="EH7" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="EI7" s="89"/>
-      <c r="EJ7" s="89"/>
-      <c r="EK7" s="89"/>
-      <c r="EL7" s="89"/>
-      <c r="EM7" s="89"/>
-      <c r="EN7" s="89"/>
-      <c r="EO7" s="90"/>
-      <c r="EP7" s="118" t="s">
-        <v>52</v>
-      </c>
-      <c r="EQ7" s="119"/>
-      <c r="ER7" s="119"/>
-      <c r="ES7" s="119"/>
-      <c r="ET7" s="119"/>
-      <c r="EU7" s="119"/>
-      <c r="EV7" s="119"/>
-      <c r="EW7" s="120"/>
+      <c r="DW7" s="103"/>
+      <c r="DX7" s="103"/>
+      <c r="DY7" s="103"/>
+      <c r="DZ7" s="103"/>
+      <c r="EA7" s="104"/>
+      <c r="EB7" s="105" t="s">
+        <v>250</v>
+      </c>
+      <c r="EC7" s="103"/>
+      <c r="ED7" s="103"/>
+      <c r="EE7" s="103"/>
+      <c r="EF7" s="103"/>
+      <c r="EG7" s="104"/>
+      <c r="EH7" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="EI7" s="60"/>
+      <c r="EJ7" s="60"/>
+      <c r="EK7" s="60"/>
+      <c r="EL7" s="60"/>
+      <c r="EM7" s="60"/>
+      <c r="EN7" s="60"/>
+      <c r="EO7" s="61"/>
+      <c r="EP7" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="EQ7" s="91"/>
+      <c r="ER7" s="91"/>
+      <c r="ES7" s="91"/>
+      <c r="ET7" s="91"/>
+      <c r="EU7" s="91"/>
+      <c r="EV7" s="91"/>
+      <c r="EW7" s="92"/>
       <c r="EX7" s="22"/>
-      <c r="EY7" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="EZ7" s="103"/>
-      <c r="FA7" s="103"/>
-      <c r="FB7" s="103"/>
-      <c r="FC7" s="103"/>
-      <c r="FD7" s="103"/>
-      <c r="FE7" s="58"/>
+      <c r="EY7" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="EZ7" s="115"/>
+      <c r="FA7" s="115"/>
+      <c r="FB7" s="115"/>
+      <c r="FC7" s="115"/>
+      <c r="FD7" s="115"/>
+      <c r="FE7" s="71"/>
       <c r="FF7" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="FG7" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="FH7" s="24"/>
       <c r="FI7" s="24"/>
       <c r="FJ7" s="25"/>
-      <c r="FK7" s="111" t="s">
+      <c r="FK7" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="FL7" s="117"/>
+      <c r="FM7" s="118"/>
+      <c r="FN7" s="41"/>
+      <c r="FO7" s="42"/>
+      <c r="FP7" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="FQ7" s="120"/>
+      <c r="FR7" s="120"/>
+      <c r="FS7" s="120"/>
+      <c r="FT7" s="120"/>
+      <c r="FU7" s="121"/>
+      <c r="FV7" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="FL7" s="112"/>
-      <c r="FM7" s="113"/>
-      <c r="FN7" s="43"/>
-      <c r="FO7" s="44"/>
-      <c r="FP7" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="FQ7" s="138"/>
-      <c r="FR7" s="138"/>
-      <c r="FS7" s="138"/>
-      <c r="FT7" s="138"/>
-      <c r="FU7" s="139"/>
-      <c r="FV7" s="105" t="s">
+      <c r="FW7" s="73"/>
+      <c r="FX7" s="73"/>
+      <c r="FY7" s="73"/>
+      <c r="FZ7" s="73"/>
+      <c r="GA7" s="74"/>
+      <c r="GB7" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="GC7" s="73"/>
+      <c r="GD7" s="73"/>
+      <c r="GE7" s="73"/>
+      <c r="GF7" s="73"/>
+      <c r="GG7" s="74"/>
+      <c r="GH7" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="GI7" s="60"/>
+      <c r="GJ7" s="60"/>
+      <c r="GK7" s="61"/>
+      <c r="GL7" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="GM7" s="60"/>
+      <c r="GN7" s="61"/>
+      <c r="GO7" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="GP7" s="73"/>
+      <c r="GQ7" s="73"/>
+      <c r="GR7" s="73"/>
+      <c r="GS7" s="74"/>
+      <c r="GT7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="GU7" s="2"/>
+      <c r="GV7" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="FW7" s="105"/>
-      <c r="FX7" s="105"/>
-      <c r="FY7" s="105"/>
-      <c r="FZ7" s="105"/>
-      <c r="GA7" s="106"/>
-      <c r="GB7" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="GC7" s="105"/>
-      <c r="GD7" s="105"/>
-      <c r="GE7" s="105"/>
-      <c r="GF7" s="105"/>
-      <c r="GG7" s="106"/>
-      <c r="GH7" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="GI7" s="89"/>
-      <c r="GJ7" s="89"/>
-      <c r="GK7" s="90"/>
-      <c r="GL7" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="GM7" s="89"/>
-      <c r="GN7" s="90"/>
-      <c r="GO7" s="104" t="s">
+      <c r="GW7" s="66"/>
+      <c r="GX7" s="66"/>
+      <c r="GY7" s="66"/>
+      <c r="GZ7" s="66"/>
+      <c r="HA7" s="67"/>
+      <c r="HB7" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="GP7" s="105"/>
-      <c r="GQ7" s="105"/>
-      <c r="GR7" s="105"/>
-      <c r="GS7" s="106"/>
-      <c r="GT7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="GU7" s="2"/>
-      <c r="GV7" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="GW7" s="115"/>
-      <c r="GX7" s="115"/>
-      <c r="GY7" s="115"/>
-      <c r="GZ7" s="115"/>
-      <c r="HA7" s="116"/>
-      <c r="HB7" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="HC7" s="105"/>
-      <c r="HD7" s="105"/>
-      <c r="HE7" s="105"/>
-      <c r="HF7" s="105"/>
-      <c r="HG7" s="105"/>
-      <c r="HH7" s="105"/>
-      <c r="HI7" s="106"/>
+      <c r="HC7" s="73"/>
+      <c r="HD7" s="73"/>
+      <c r="HE7" s="73"/>
+      <c r="HF7" s="73"/>
+      <c r="HG7" s="73"/>
+      <c r="HH7" s="73"/>
+      <c r="HI7" s="74"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="124"/>
       <c r="R8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="U8" t="s">
-        <v>138</v>
-      </c>
-      <c r="X8" s="57">
+        <v>130</v>
+      </c>
+      <c r="X8" s="70">
         <v>380</v>
       </c>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="58"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="71"/>
       <c r="AD8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AL8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AT8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AZ8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="BJ8" t="s">
-        <v>141</v>
-      </c>
-      <c r="CL8" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="CM8" s="107"/>
-      <c r="CN8" s="107"/>
-      <c r="CO8" s="107"/>
-      <c r="CP8" s="107"/>
-      <c r="CQ8" s="107"/>
-      <c r="CR8" s="107"/>
-      <c r="CS8" s="107"/>
-      <c r="CT8" s="107"/>
-      <c r="CU8" s="107"/>
-      <c r="CV8" s="107"/>
-      <c r="CW8" s="107"/>
-      <c r="CX8" s="107"/>
-      <c r="CY8" s="107"/>
-      <c r="CZ8" s="107"/>
-      <c r="DA8" s="107"/>
-      <c r="DB8" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="DC8" s="107"/>
-      <c r="DD8" s="107"/>
-      <c r="DE8" s="107"/>
-      <c r="DF8" s="107"/>
-      <c r="DG8" s="107"/>
-      <c r="DH8" s="107"/>
-      <c r="DI8" s="107"/>
-      <c r="DJ8" s="107"/>
-      <c r="DK8" s="107"/>
-      <c r="DL8" s="107"/>
-      <c r="DM8" s="107"/>
-      <c r="DN8" s="107"/>
-      <c r="DO8" s="107"/>
-      <c r="DP8" s="107"/>
-      <c r="DQ8" s="107"/>
-      <c r="DR8" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="DS8" s="107"/>
-      <c r="DT8" s="107"/>
-      <c r="DU8" s="107"/>
-      <c r="DV8" s="107"/>
-      <c r="DW8" s="107"/>
-      <c r="DX8" s="107"/>
-      <c r="DY8" s="107"/>
-      <c r="DZ8" s="107"/>
-      <c r="EA8" s="107"/>
-      <c r="EB8" s="107"/>
-      <c r="EC8" s="107"/>
-      <c r="ED8" s="107"/>
-      <c r="EE8" s="107"/>
-      <c r="EF8" s="107"/>
-      <c r="EG8" s="107"/>
+        <v>133</v>
+      </c>
+      <c r="CD8" s="22"/>
+      <c r="CE8" s="46"/>
+      <c r="CF8" s="47"/>
+      <c r="CG8" s="48"/>
+      <c r="CH8" s="46"/>
+      <c r="CI8" s="47"/>
+      <c r="CJ8" s="47"/>
+      <c r="CK8" s="48"/>
+      <c r="CL8" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="CM8" s="62"/>
+      <c r="CN8" s="62"/>
+      <c r="CO8" s="62"/>
+      <c r="CP8" s="62"/>
+      <c r="CQ8" s="62"/>
+      <c r="CR8" s="62"/>
+      <c r="CS8" s="62"/>
+      <c r="CT8" s="62"/>
+      <c r="CU8" s="62"/>
+      <c r="CV8" s="62"/>
+      <c r="CW8" s="62"/>
+      <c r="CX8" s="62"/>
+      <c r="CY8" s="62"/>
+      <c r="CZ8" s="62"/>
+      <c r="DA8" s="62"/>
+      <c r="DB8" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="DC8" s="62"/>
+      <c r="DD8" s="62"/>
+      <c r="DE8" s="62"/>
+      <c r="DF8" s="62"/>
+      <c r="DG8" s="101"/>
+      <c r="DH8" s="62"/>
+      <c r="DI8" s="62"/>
+      <c r="DJ8" s="62"/>
+      <c r="DK8" s="62"/>
+      <c r="DL8" s="62"/>
+      <c r="DM8" s="62"/>
+      <c r="DN8" s="62"/>
+      <c r="DO8" s="62"/>
+      <c r="DP8" s="62"/>
+      <c r="DQ8" s="62"/>
+      <c r="DR8" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="DS8" s="62"/>
+      <c r="DT8" s="62"/>
+      <c r="DU8" s="62"/>
+      <c r="DV8" s="62"/>
+      <c r="DW8" s="62"/>
+      <c r="DX8" s="62"/>
+      <c r="DY8" s="62"/>
+      <c r="DZ8" s="62"/>
+      <c r="EA8" s="62"/>
+      <c r="EB8" s="62"/>
+      <c r="EC8" s="62"/>
+      <c r="ED8" s="62"/>
+      <c r="EE8" s="62"/>
+      <c r="EF8" s="62"/>
+      <c r="EG8" s="62"/>
+      <c r="EH8" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="EI8" s="66"/>
+      <c r="EJ8" s="66"/>
+      <c r="EK8" s="66"/>
+      <c r="EL8" s="66"/>
+      <c r="EM8" s="66"/>
+      <c r="EN8" s="66"/>
+      <c r="EO8" s="66"/>
       <c r="FH8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="FN8" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="FO8" s="13"/>
-      <c r="FP8" s="132"/>
-      <c r="FQ8" s="133"/>
-      <c r="FR8" s="133"/>
-      <c r="FS8" s="133"/>
-      <c r="FT8" s="133"/>
-      <c r="FU8" s="134"/>
+      <c r="FP8" s="46"/>
+      <c r="FQ8" s="47"/>
+      <c r="FR8" s="47"/>
+      <c r="FS8" s="47"/>
+      <c r="FT8" s="47"/>
+      <c r="FU8" s="48"/>
       <c r="FV8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="GB8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="GV8" s="22"/>
       <c r="GW8" s="22"/>
-      <c r="GX8" s="57"/>
-      <c r="GY8" s="58"/>
+      <c r="GX8" s="70"/>
+      <c r="GY8" s="71"/>
       <c r="GZ8" s="22"/>
       <c r="HA8" s="22"/>
       <c r="HI8" s="15"/>
     </row>
-    <row r="9" spans="1:217" ht="64.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:217" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="95"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="95"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" s="95"/>
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="95"/>
+      <c r="AO9" s="95"/>
+      <c r="AP9" s="95"/>
+      <c r="AQ9" s="96"/>
+      <c r="AR9" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS9" s="95"/>
+      <c r="AT9" s="95"/>
+      <c r="AU9" s="95"/>
+      <c r="AV9" s="95"/>
+      <c r="AW9" s="96"/>
+      <c r="AX9" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY9" s="95"/>
+      <c r="AZ9" s="95"/>
+      <c r="BA9" s="95"/>
+      <c r="BB9" s="95"/>
+      <c r="BC9" s="95"/>
+      <c r="BD9" s="95"/>
+      <c r="BE9" s="95"/>
+      <c r="BF9" s="95"/>
+      <c r="BG9" s="96"/>
+      <c r="BH9" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI9" s="95"/>
+      <c r="BJ9" s="95"/>
+      <c r="BK9" s="95"/>
+      <c r="BL9" s="95"/>
+      <c r="BM9" s="96"/>
+      <c r="BN9" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" s="62"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="61" t="s">
+      <c r="BO9" s="75"/>
+      <c r="BP9" s="75"/>
+      <c r="BQ9" s="75"/>
+      <c r="BR9" s="75"/>
+      <c r="BS9" s="75"/>
+      <c r="BT9" s="75"/>
+      <c r="BU9" s="76"/>
+      <c r="BV9" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW9" s="75"/>
+      <c r="BX9" s="75"/>
+      <c r="BY9" s="75"/>
+      <c r="BZ9" s="75"/>
+      <c r="CA9" s="75"/>
+      <c r="CB9" s="75"/>
+      <c r="CC9" s="76"/>
+      <c r="CD9" s="171" t="s">
+        <v>251</v>
+      </c>
+      <c r="CE9" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF9" s="95"/>
+      <c r="CG9" s="95"/>
+      <c r="CH9" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI9" s="95"/>
+      <c r="CJ9" s="95"/>
+      <c r="CK9" s="96"/>
+      <c r="CL9" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="CM9" s="75"/>
+      <c r="CN9" s="75"/>
+      <c r="CO9" s="75"/>
+      <c r="CP9" s="75"/>
+      <c r="CQ9" s="75"/>
+      <c r="CR9" s="75"/>
+      <c r="CS9" s="75"/>
+      <c r="CT9" s="75"/>
+      <c r="CU9" s="75"/>
+      <c r="CV9" s="75"/>
+      <c r="CW9" s="75"/>
+      <c r="CX9" s="75"/>
+      <c r="CY9" s="75"/>
+      <c r="CZ9" s="75"/>
+      <c r="DA9" s="75"/>
+      <c r="DB9" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="DC9" s="146"/>
+      <c r="DD9" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="DE9" s="157" t="s">
+        <v>246</v>
+      </c>
+      <c r="DF9" s="54"/>
+      <c r="DG9" s="151" t="s">
+        <v>245</v>
+      </c>
+      <c r="DH9" s="54"/>
+      <c r="DI9" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="DJ9" s="145" t="s">
+        <v>203</v>
+      </c>
+      <c r="DK9" s="154"/>
+      <c r="DL9" s="154"/>
+      <c r="DM9" s="146"/>
+      <c r="DN9" s="145" t="s">
+        <v>243</v>
+      </c>
+      <c r="DO9" s="154"/>
+      <c r="DP9" s="154"/>
+      <c r="DQ9" s="146"/>
+      <c r="DR9" s="132" t="s">
+        <v>236</v>
+      </c>
+      <c r="DS9" s="132"/>
+      <c r="DT9" s="132"/>
+      <c r="DU9" s="132"/>
+      <c r="DV9" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="DW9" s="95"/>
+      <c r="DX9" s="95"/>
+      <c r="DY9" s="95"/>
+      <c r="DZ9" s="95"/>
+      <c r="EA9" s="96"/>
+      <c r="EB9" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="EC9" s="95"/>
+      <c r="ED9" s="95"/>
+      <c r="EE9" s="95"/>
+      <c r="EF9" s="95"/>
+      <c r="EG9" s="96"/>
+      <c r="EP9" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="EQ9" s="95"/>
+      <c r="ER9" s="95"/>
+      <c r="ES9" s="95"/>
+      <c r="ET9" s="95"/>
+      <c r="EU9" s="95"/>
+      <c r="EV9" s="95"/>
+      <c r="EW9" s="96"/>
+      <c r="EX9" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="EY9" s="95"/>
+      <c r="EZ9" s="95"/>
+      <c r="FA9" s="95"/>
+      <c r="FB9" s="95"/>
+      <c r="FC9" s="95"/>
+      <c r="FD9" s="95"/>
+      <c r="FE9" s="96"/>
+      <c r="FG9" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK9" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="FL9" s="108"/>
+      <c r="FM9" s="139"/>
+      <c r="FN9" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="FO9" s="96"/>
+      <c r="FP9" s="16"/>
+      <c r="FQ9" s="49"/>
+      <c r="FR9" s="49"/>
+      <c r="FU9" s="31"/>
+      <c r="FV9" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="FW9" s="75"/>
+      <c r="FX9" s="75"/>
+      <c r="FY9" s="75"/>
+      <c r="FZ9" s="75"/>
+      <c r="GA9" s="76"/>
+      <c r="GB9" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="GC9" s="75"/>
+      <c r="GD9" s="75"/>
+      <c r="GE9" s="75"/>
+      <c r="GF9" s="75"/>
+      <c r="GG9" s="76"/>
+      <c r="GH9" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="GI9" s="64"/>
+      <c r="GJ9" s="64"/>
+      <c r="GK9" s="64"/>
+      <c r="GL9" s="112"/>
+      <c r="GM9" s="112"/>
+      <c r="GN9" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="62"/>
-      <c r="BG9" s="66"/>
-      <c r="BH9" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="BI9" s="62"/>
-      <c r="BJ9" s="62"/>
-      <c r="BK9" s="62"/>
-      <c r="BL9" s="62"/>
-      <c r="BM9" s="66"/>
-      <c r="BN9" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO9" s="68"/>
-      <c r="BP9" s="68"/>
-      <c r="BQ9" s="68"/>
-      <c r="BR9" s="68"/>
-      <c r="BS9" s="68"/>
-      <c r="BT9" s="68"/>
-      <c r="BU9" s="69"/>
-      <c r="BV9" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="BW9" s="68"/>
-      <c r="BX9" s="68"/>
-      <c r="BY9" s="68"/>
-      <c r="BZ9" s="68"/>
-      <c r="CA9" s="68"/>
-      <c r="CB9" s="68"/>
-      <c r="CC9" s="69"/>
-      <c r="CD9" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="CE9" s="68"/>
-      <c r="CF9" s="68"/>
-      <c r="CG9" s="68"/>
-      <c r="CH9" s="68"/>
-      <c r="CI9" s="68"/>
-      <c r="CJ9" s="68"/>
-      <c r="CK9" s="69"/>
-      <c r="CL9" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="CM9" s="68"/>
-      <c r="CN9" s="68"/>
-      <c r="CO9" s="68"/>
-      <c r="CP9" s="68"/>
-      <c r="CQ9" s="68"/>
-      <c r="CR9" s="68"/>
-      <c r="CS9" s="68"/>
-      <c r="CT9" s="68"/>
-      <c r="CU9" s="68"/>
-      <c r="CV9" s="68"/>
-      <c r="CW9" s="68"/>
-      <c r="CX9" s="68"/>
-      <c r="CY9" s="68"/>
-      <c r="CZ9" s="68"/>
-      <c r="DA9" s="69"/>
-      <c r="DB9" s="41"/>
-      <c r="DC9" s="42"/>
-      <c r="DD9" s="42"/>
-      <c r="DE9" s="42"/>
-      <c r="DF9" s="42"/>
-      <c r="DG9" s="42"/>
-      <c r="DH9" s="42"/>
-      <c r="DI9" s="42"/>
-      <c r="DJ9" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="DK9" s="85"/>
-      <c r="DL9" s="85"/>
-      <c r="DM9" s="87"/>
-      <c r="DN9" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="DO9" s="78"/>
-      <c r="DP9" s="78"/>
-      <c r="DQ9" s="78"/>
-      <c r="DR9" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="DS9" s="85"/>
-      <c r="DT9" s="85"/>
-      <c r="DU9" s="85"/>
-      <c r="DV9" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="DW9" s="62"/>
-      <c r="DX9" s="62"/>
-      <c r="DY9" s="62"/>
-      <c r="DZ9" s="62"/>
-      <c r="EA9" s="66"/>
-      <c r="EB9" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="EC9" s="62"/>
-      <c r="ED9" s="62"/>
-      <c r="EE9" s="62"/>
-      <c r="EF9" s="62"/>
-      <c r="EG9" s="66"/>
-      <c r="EP9" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="EQ9" s="62"/>
-      <c r="ER9" s="62"/>
-      <c r="ES9" s="62"/>
-      <c r="ET9" s="62"/>
-      <c r="EU9" s="62"/>
-      <c r="EV9" s="62"/>
-      <c r="EW9" s="66"/>
-      <c r="EX9" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="EY9" s="62"/>
-      <c r="EZ9" s="62"/>
-      <c r="FA9" s="62"/>
-      <c r="FB9" s="62"/>
-      <c r="FC9" s="62"/>
-      <c r="FD9" s="62"/>
-      <c r="FE9" s="66"/>
-      <c r="FJ9" t="s">
-        <v>54</v>
-      </c>
-      <c r="FN9" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="FO9" s="66"/>
-      <c r="FP9" s="129"/>
-      <c r="FQ9" s="136"/>
-      <c r="FR9" s="136"/>
-      <c r="FS9" s="131"/>
-      <c r="FT9" s="131"/>
-      <c r="FU9" s="31"/>
-      <c r="FV9" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="FW9" s="68"/>
-      <c r="FX9" s="68"/>
-      <c r="FY9" s="68"/>
-      <c r="FZ9" s="68"/>
-      <c r="GA9" s="69"/>
-      <c r="GB9" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="GC9" s="68"/>
-      <c r="GD9" s="68"/>
-      <c r="GE9" s="68"/>
-      <c r="GF9" s="68"/>
-      <c r="GG9" s="69"/>
-      <c r="GH9" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="GI9" s="53"/>
-      <c r="GJ9" s="53"/>
-      <c r="GK9" s="53"/>
-      <c r="GL9" s="48"/>
-      <c r="GM9" s="48"/>
-      <c r="GN9" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="GO9" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="GP9" s="62"/>
-      <c r="GQ9" s="62"/>
-      <c r="GR9" s="62"/>
-      <c r="GS9" s="66"/>
-      <c r="GT9" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="GU9" s="62"/>
-      <c r="GV9" s="62"/>
-      <c r="GW9" s="62"/>
-      <c r="GX9" s="62"/>
-      <c r="GY9" s="62"/>
-      <c r="GZ9" s="62"/>
-      <c r="HA9" s="56"/>
-      <c r="HB9" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="HC9" s="62"/>
-      <c r="HD9" s="62"/>
-      <c r="HE9" s="62"/>
-      <c r="HF9" s="62"/>
-      <c r="HG9" s="62"/>
-      <c r="HH9" s="62"/>
-      <c r="HI9" s="66"/>
-    </row>
-    <row r="10" spans="1:217" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="GO9" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="GP9" s="95"/>
+      <c r="GQ9" s="95"/>
+      <c r="GR9" s="95"/>
+      <c r="GS9" s="96"/>
+      <c r="GT9" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="GU9" s="95"/>
+      <c r="GV9" s="95"/>
+      <c r="GW9" s="95"/>
+      <c r="GX9" s="95"/>
+      <c r="GY9" s="95"/>
+      <c r="GZ9" s="95"/>
+      <c r="HA9" s="97"/>
+      <c r="HB9" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="HC9" s="95"/>
+      <c r="HD9" s="95"/>
+      <c r="HE9" s="95"/>
+      <c r="HF9" s="95"/>
+      <c r="HG9" s="95"/>
+      <c r="HH9" s="95"/>
+      <c r="HI9" s="96"/>
+    </row>
+    <row r="10" spans="1:217" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="7"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="56"/>
-      <c r="BH10" s="52"/>
-      <c r="BI10" s="53"/>
-      <c r="BJ10" s="53"/>
-      <c r="BK10" s="53"/>
-      <c r="BL10" s="53"/>
-      <c r="BM10" s="56"/>
-      <c r="BN10" s="70"/>
-      <c r="BO10" s="71"/>
-      <c r="BP10" s="71"/>
-      <c r="BQ10" s="71"/>
-      <c r="BR10" s="71"/>
-      <c r="BS10" s="71"/>
-      <c r="BT10" s="71"/>
-      <c r="BU10" s="72"/>
-      <c r="BV10" s="70"/>
-      <c r="BW10" s="71"/>
-      <c r="BX10" s="71"/>
-      <c r="BY10" s="71"/>
-      <c r="BZ10" s="71"/>
-      <c r="CA10" s="71"/>
-      <c r="CB10" s="71"/>
-      <c r="CC10" s="72"/>
-      <c r="CD10" s="70"/>
-      <c r="CE10" s="71"/>
-      <c r="CF10" s="71"/>
-      <c r="CG10" s="71"/>
-      <c r="CH10" s="71"/>
-      <c r="CI10" s="71"/>
-      <c r="CJ10" s="71"/>
-      <c r="CK10" s="72"/>
-      <c r="CL10" s="70"/>
-      <c r="CM10" s="71"/>
-      <c r="CN10" s="71"/>
-      <c r="CO10" s="71"/>
-      <c r="CP10" s="71"/>
-      <c r="CQ10" s="71"/>
-      <c r="CR10" s="71"/>
-      <c r="CS10" s="71"/>
-      <c r="CT10" s="71"/>
-      <c r="CU10" s="71"/>
-      <c r="CV10" s="71"/>
-      <c r="CW10" s="71"/>
-      <c r="CX10" s="71"/>
-      <c r="CY10" s="71"/>
-      <c r="CZ10" s="71"/>
-      <c r="DA10" s="71"/>
-      <c r="DB10" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="DC10" s="78"/>
-      <c r="DD10" s="78"/>
-      <c r="DE10" s="78"/>
-      <c r="DF10" s="78"/>
-      <c r="DG10" s="78"/>
-      <c r="DH10" s="78"/>
-      <c r="DI10" s="78"/>
-      <c r="DJ10" s="53"/>
-      <c r="DK10" s="53"/>
-      <c r="DL10" s="53"/>
-      <c r="DM10" s="53"/>
-      <c r="DN10" s="78"/>
-      <c r="DO10" s="78"/>
-      <c r="DP10" s="78"/>
-      <c r="DQ10" s="79"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="97"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="97"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="97"/>
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="64"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="64"/>
+      <c r="BM10" s="97"/>
+      <c r="BN10" s="79"/>
+      <c r="BO10" s="77"/>
+      <c r="BP10" s="77"/>
+      <c r="BQ10" s="77"/>
+      <c r="BR10" s="77"/>
+      <c r="BS10" s="77"/>
+      <c r="BT10" s="77"/>
+      <c r="BU10" s="78"/>
+      <c r="BV10" s="79"/>
+      <c r="BW10" s="77"/>
+      <c r="BX10" s="77"/>
+      <c r="BY10" s="77"/>
+      <c r="BZ10" s="77"/>
+      <c r="CA10" s="77"/>
+      <c r="CB10" s="77"/>
+      <c r="CC10" s="78"/>
+      <c r="CD10" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="16"/>
+      <c r="CI10" s="16"/>
+      <c r="CJ10" s="16"/>
+      <c r="CK10" s="51"/>
+      <c r="CL10" s="79"/>
+      <c r="CM10" s="77"/>
+      <c r="CN10" s="77"/>
+      <c r="CO10" s="77"/>
+      <c r="CP10" s="77"/>
+      <c r="CQ10" s="77"/>
+      <c r="CR10" s="77"/>
+      <c r="CS10" s="77"/>
+      <c r="CT10" s="77"/>
+      <c r="CU10" s="77"/>
+      <c r="CV10" s="77"/>
+      <c r="CW10" s="77"/>
+      <c r="CX10" s="77"/>
+      <c r="CY10" s="77"/>
+      <c r="CZ10" s="77"/>
+      <c r="DA10" s="77"/>
+      <c r="DB10" s="147"/>
+      <c r="DC10" s="148"/>
+      <c r="DD10" s="158"/>
+      <c r="DE10" s="158"/>
+      <c r="DF10" s="56"/>
+      <c r="DG10" s="152"/>
+      <c r="DH10" s="56"/>
+      <c r="DI10" s="55"/>
+      <c r="DJ10" s="147"/>
+      <c r="DK10" s="155"/>
+      <c r="DL10" s="155"/>
+      <c r="DM10" s="148"/>
+      <c r="DN10" s="147"/>
+      <c r="DO10" s="155"/>
+      <c r="DP10" s="155"/>
+      <c r="DQ10" s="148"/>
       <c r="DR10" s="16"/>
       <c r="DS10" s="16"/>
       <c r="DT10" s="16"/>
@@ -5492,904 +5725,960 @@
       <c r="DX10" s="64"/>
       <c r="DY10" s="64"/>
       <c r="DZ10" s="64"/>
-      <c r="EA10" s="65"/>
+      <c r="EA10" s="97"/>
       <c r="EB10" s="63"/>
       <c r="EC10" s="64"/>
       <c r="ED10" s="64"/>
       <c r="EE10" s="64"/>
       <c r="EF10" s="64"/>
-      <c r="EG10" s="65"/>
-      <c r="EP10" s="52"/>
-      <c r="EQ10" s="53"/>
-      <c r="ER10" s="53"/>
-      <c r="ES10" s="53"/>
-      <c r="ET10" s="53"/>
-      <c r="EU10" s="53"/>
-      <c r="EV10" s="53"/>
-      <c r="EW10" s="56"/>
+      <c r="EG10" s="97"/>
+      <c r="EP10" s="63"/>
+      <c r="EQ10" s="64"/>
+      <c r="ER10" s="64"/>
+      <c r="ES10" s="64"/>
+      <c r="ET10" s="64"/>
+      <c r="EU10" s="64"/>
+      <c r="EV10" s="64"/>
+      <c r="EW10" s="97"/>
       <c r="EX10" s="17"/>
       <c r="EY10" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="FE10" s="18"/>
-      <c r="FJ10" t="s">
-        <v>64</v>
-      </c>
-      <c r="FN10" s="63"/>
-      <c r="FO10" s="65"/>
-      <c r="FP10" s="129"/>
-      <c r="FQ10" s="129"/>
-      <c r="FR10" s="129"/>
-      <c r="FS10" s="131"/>
-      <c r="FT10" s="131"/>
+      <c r="FK10" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="FL10" s="108"/>
+      <c r="FM10" s="139"/>
+      <c r="FN10" s="98"/>
+      <c r="FO10" s="100"/>
+      <c r="FP10" s="16"/>
+      <c r="FQ10" s="16"/>
+      <c r="FR10" s="16"/>
       <c r="FU10" s="31"/>
-      <c r="FV10" s="71"/>
-      <c r="FW10" s="71"/>
-      <c r="FX10" s="71"/>
-      <c r="FY10" s="71"/>
-      <c r="FZ10" s="71"/>
-      <c r="GA10" s="72"/>
-      <c r="GB10" s="70"/>
-      <c r="GC10" s="71"/>
-      <c r="GD10" s="71"/>
-      <c r="GE10" s="71"/>
-      <c r="GF10" s="71"/>
-      <c r="GG10" s="72"/>
-      <c r="GH10" s="52"/>
-      <c r="GI10" s="53"/>
-      <c r="GJ10" s="53"/>
-      <c r="GK10" s="53"/>
-      <c r="GL10" s="49"/>
-      <c r="GM10" s="49"/>
-      <c r="GN10" s="51"/>
-      <c r="GO10" s="63"/>
-      <c r="GP10" s="64"/>
-      <c r="GQ10" s="64"/>
-      <c r="GR10" s="64"/>
-      <c r="GS10" s="65"/>
-      <c r="GT10" s="52"/>
-      <c r="GU10" s="53"/>
-      <c r="GV10" s="53"/>
-      <c r="GW10" s="53"/>
-      <c r="GX10" s="53"/>
-      <c r="GY10" s="53"/>
-      <c r="GZ10" s="53"/>
-      <c r="HA10" s="56"/>
-      <c r="HB10" s="52"/>
-      <c r="HC10" s="53"/>
-      <c r="HD10" s="53"/>
-      <c r="HE10" s="53"/>
-      <c r="HF10" s="53"/>
-      <c r="HG10" s="53"/>
-      <c r="HH10" s="53"/>
-      <c r="HI10" s="56"/>
+      <c r="FV10" s="77"/>
+      <c r="FW10" s="77"/>
+      <c r="FX10" s="77"/>
+      <c r="FY10" s="77"/>
+      <c r="FZ10" s="77"/>
+      <c r="GA10" s="78"/>
+      <c r="GB10" s="79"/>
+      <c r="GC10" s="77"/>
+      <c r="GD10" s="77"/>
+      <c r="GE10" s="77"/>
+      <c r="GF10" s="77"/>
+      <c r="GG10" s="78"/>
+      <c r="GH10" s="63"/>
+      <c r="GI10" s="64"/>
+      <c r="GJ10" s="64"/>
+      <c r="GK10" s="64"/>
+      <c r="GL10" s="113"/>
+      <c r="GM10" s="113"/>
+      <c r="GN10" s="111"/>
+      <c r="GO10" s="98"/>
+      <c r="GP10" s="99"/>
+      <c r="GQ10" s="99"/>
+      <c r="GR10" s="99"/>
+      <c r="GS10" s="100"/>
+      <c r="GT10" s="63"/>
+      <c r="GU10" s="64"/>
+      <c r="GV10" s="64"/>
+      <c r="GW10" s="64"/>
+      <c r="GX10" s="64"/>
+      <c r="GY10" s="64"/>
+      <c r="GZ10" s="64"/>
+      <c r="HA10" s="97"/>
+      <c r="HB10" s="63"/>
+      <c r="HC10" s="64"/>
+      <c r="HD10" s="64"/>
+      <c r="HE10" s="64"/>
+      <c r="HF10" s="64"/>
+      <c r="HG10" s="64"/>
+      <c r="HH10" s="64"/>
+      <c r="HI10" s="97"/>
     </row>
     <row r="11" spans="1:217" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="56"/>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="56"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53"/>
-      <c r="BK11" s="53"/>
-      <c r="BL11" s="53"/>
-      <c r="BM11" s="56"/>
-      <c r="BN11" s="70"/>
-      <c r="BO11" s="71"/>
-      <c r="BP11" s="71"/>
-      <c r="BQ11" s="71"/>
-      <c r="BR11" s="71"/>
-      <c r="BS11" s="71"/>
-      <c r="BT11" s="71"/>
-      <c r="BU11" s="72"/>
-      <c r="BV11" s="70"/>
-      <c r="BW11" s="71"/>
-      <c r="BX11" s="71"/>
-      <c r="BY11" s="71"/>
-      <c r="BZ11" s="71"/>
-      <c r="CA11" s="71"/>
-      <c r="CB11" s="71"/>
-      <c r="CC11" s="72"/>
-      <c r="CD11" s="70"/>
-      <c r="CE11" s="71"/>
-      <c r="CF11" s="71"/>
-      <c r="CG11" s="71"/>
-      <c r="CH11" s="71"/>
-      <c r="CI11" s="71"/>
-      <c r="CJ11" s="71"/>
-      <c r="CK11" s="72"/>
-      <c r="CL11" s="70"/>
-      <c r="CM11" s="71"/>
-      <c r="CN11" s="71"/>
-      <c r="CO11" s="71"/>
-      <c r="CP11" s="71"/>
-      <c r="CQ11" s="71"/>
-      <c r="CR11" s="71"/>
-      <c r="CS11" s="71"/>
-      <c r="CT11" s="71"/>
-      <c r="CU11" s="71"/>
-      <c r="CV11" s="71"/>
-      <c r="CW11" s="71"/>
-      <c r="CX11" s="71"/>
-      <c r="CY11" s="71"/>
-      <c r="CZ11" s="71"/>
-      <c r="DA11" s="71"/>
-      <c r="DB11" s="80"/>
-      <c r="DC11" s="53"/>
-      <c r="DD11" s="53"/>
-      <c r="DE11" s="53"/>
-      <c r="DF11" s="53"/>
-      <c r="DG11" s="53"/>
-      <c r="DH11" s="53"/>
-      <c r="DI11" s="53"/>
-      <c r="DJ11" s="53"/>
-      <c r="DK11" s="53"/>
-      <c r="DL11" s="53"/>
-      <c r="DM11" s="53"/>
-      <c r="DN11" s="53"/>
-      <c r="DO11" s="53"/>
-      <c r="DP11" s="53"/>
-      <c r="DQ11" s="81"/>
-      <c r="DR11" s="80" t="s">
+      <c r="B11" s="135"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="97"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="97"/>
+      <c r="BN11" s="79"/>
+      <c r="BO11" s="77"/>
+      <c r="BP11" s="77"/>
+      <c r="BQ11" s="77"/>
+      <c r="BR11" s="77"/>
+      <c r="BS11" s="77"/>
+      <c r="BT11" s="77"/>
+      <c r="BU11" s="78"/>
+      <c r="BV11" s="79"/>
+      <c r="BW11" s="77"/>
+      <c r="BX11" s="77"/>
+      <c r="BY11" s="77"/>
+      <c r="BZ11" s="77"/>
+      <c r="CA11" s="77"/>
+      <c r="CB11" s="77"/>
+      <c r="CC11" s="78"/>
+      <c r="CD11" s="170" t="s">
+        <v>255</v>
+      </c>
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="16"/>
+      <c r="CG11" s="16"/>
+      <c r="CH11" s="16"/>
+      <c r="CI11" s="16"/>
+      <c r="CJ11" s="16"/>
+      <c r="CK11" s="51"/>
+      <c r="CL11" s="79"/>
+      <c r="CM11" s="77"/>
+      <c r="CN11" s="77"/>
+      <c r="CO11" s="77"/>
+      <c r="CP11" s="77"/>
+      <c r="CQ11" s="77"/>
+      <c r="CR11" s="77"/>
+      <c r="CS11" s="77"/>
+      <c r="CT11" s="77"/>
+      <c r="CU11" s="77"/>
+      <c r="CV11" s="77"/>
+      <c r="CW11" s="77"/>
+      <c r="CX11" s="77"/>
+      <c r="CY11" s="77"/>
+      <c r="CZ11" s="77"/>
+      <c r="DA11" s="77"/>
+      <c r="DB11" s="147"/>
+      <c r="DC11" s="148"/>
+      <c r="DD11" s="158"/>
+      <c r="DE11" s="158"/>
+      <c r="DF11" s="55"/>
+      <c r="DG11" s="152"/>
+      <c r="DH11" s="55"/>
+      <c r="DI11" s="55"/>
+      <c r="DJ11" s="147"/>
+      <c r="DK11" s="155"/>
+      <c r="DL11" s="155"/>
+      <c r="DM11" s="148"/>
+      <c r="DN11" s="147"/>
+      <c r="DO11" s="155"/>
+      <c r="DP11" s="155"/>
+      <c r="DQ11" s="148"/>
+      <c r="DR11" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="DS11" s="106"/>
+      <c r="DT11" s="106"/>
+      <c r="DU11" s="106"/>
+      <c r="DV11" s="106"/>
+      <c r="DW11" s="106"/>
+      <c r="DX11" s="106"/>
+      <c r="DY11" s="106"/>
+      <c r="DZ11" s="106"/>
+      <c r="EA11" s="106"/>
+      <c r="EB11" s="106"/>
+      <c r="EC11" s="106"/>
+      <c r="ED11" s="106"/>
+      <c r="EE11" s="106"/>
+      <c r="EF11" s="106"/>
+      <c r="EG11" s="107"/>
+      <c r="EH11" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="EI11" s="64"/>
+      <c r="EJ11" s="64"/>
+      <c r="EK11" s="64"/>
+      <c r="EL11" s="64"/>
+      <c r="EM11" s="64"/>
+      <c r="EN11" s="64"/>
+      <c r="EO11" s="97"/>
+      <c r="EP11" s="63"/>
+      <c r="EQ11" s="64"/>
+      <c r="ER11" s="64"/>
+      <c r="ES11" s="64"/>
+      <c r="ET11" s="64"/>
+      <c r="EU11" s="64"/>
+      <c r="EV11" s="64"/>
+      <c r="EW11" s="97"/>
+      <c r="EX11" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="EY11" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="EZ11" s="64"/>
+      <c r="FA11" s="64"/>
+      <c r="FB11" s="64"/>
+      <c r="FC11" s="64"/>
+      <c r="FD11" s="64"/>
+      <c r="FE11" s="97"/>
+      <c r="FF11" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="FG11" s="132"/>
+      <c r="FH11" s="132"/>
+      <c r="FI11" s="138"/>
+      <c r="FK11" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="FL11" s="108"/>
+      <c r="FM11" s="109"/>
+      <c r="FN11" s="133" t="s">
         <v>212</v>
       </c>
-      <c r="DS11" s="53"/>
-      <c r="DT11" s="53"/>
-      <c r="DU11" s="53"/>
-      <c r="DV11" s="53"/>
-      <c r="DW11" s="53"/>
-      <c r="DX11" s="53"/>
-      <c r="DY11" s="53"/>
-      <c r="DZ11" s="53"/>
-      <c r="EA11" s="53"/>
-      <c r="EB11" s="53"/>
-      <c r="EC11" s="53"/>
-      <c r="ED11" s="53"/>
-      <c r="EE11" s="53"/>
-      <c r="EF11" s="53"/>
-      <c r="EG11" s="56"/>
-      <c r="EH11" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="EI11" s="53"/>
-      <c r="EJ11" s="53"/>
-      <c r="EK11" s="53"/>
-      <c r="EL11" s="53"/>
-      <c r="EM11" s="53"/>
-      <c r="EN11" s="53"/>
-      <c r="EO11" s="56"/>
-      <c r="EP11" s="52"/>
-      <c r="EQ11" s="53"/>
-      <c r="ER11" s="53"/>
-      <c r="ES11" s="53"/>
-      <c r="ET11" s="53"/>
-      <c r="EU11" s="53"/>
-      <c r="EV11" s="53"/>
-      <c r="EW11" s="56"/>
-      <c r="EX11" s="17"/>
-      <c r="EY11" s="17" t="s">
+      <c r="FO11" s="134"/>
+      <c r="FP11" s="133" t="s">
+        <v>214</v>
+      </c>
+      <c r="FQ11" s="64"/>
+      <c r="FR11" s="64"/>
+      <c r="FS11" s="64"/>
+      <c r="FT11" s="64"/>
+      <c r="FU11" s="134"/>
+      <c r="FV11" s="77"/>
+      <c r="FW11" s="77"/>
+      <c r="FX11" s="77"/>
+      <c r="FY11" s="77"/>
+      <c r="FZ11" s="77"/>
+      <c r="GA11" s="78"/>
+      <c r="GB11" s="79"/>
+      <c r="GC11" s="77"/>
+      <c r="GD11" s="77"/>
+      <c r="GE11" s="77"/>
+      <c r="GF11" s="77"/>
+      <c r="GG11" s="78"/>
+      <c r="GH11" s="63"/>
+      <c r="GI11" s="64"/>
+      <c r="GJ11" s="64"/>
+      <c r="GK11" s="64"/>
+      <c r="GL11" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="GM11" s="95"/>
+      <c r="GN11" s="95"/>
+      <c r="GT11" s="63"/>
+      <c r="GU11" s="64"/>
+      <c r="GV11" s="64"/>
+      <c r="GW11" s="64"/>
+      <c r="GX11" s="64"/>
+      <c r="GY11" s="64"/>
+      <c r="GZ11" s="64"/>
+      <c r="HA11" s="97"/>
+      <c r="HB11" s="63"/>
+      <c r="HC11" s="64"/>
+      <c r="HD11" s="64"/>
+      <c r="HE11" s="64"/>
+      <c r="HF11" s="64"/>
+      <c r="HG11" s="64"/>
+      <c r="HH11" s="64"/>
+      <c r="HI11" s="97"/>
+    </row>
+    <row r="12" spans="1:217" ht="88.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="97"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="97"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="64"/>
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="64"/>
+      <c r="BD12" s="64"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="64"/>
+      <c r="BG12" s="97"/>
+      <c r="BH12" s="63"/>
+      <c r="BI12" s="64"/>
+      <c r="BJ12" s="64"/>
+      <c r="BK12" s="64"/>
+      <c r="BL12" s="64"/>
+      <c r="BM12" s="97"/>
+      <c r="BN12" s="79"/>
+      <c r="BO12" s="77"/>
+      <c r="BP12" s="77"/>
+      <c r="BQ12" s="77"/>
+      <c r="BR12" s="77"/>
+      <c r="BS12" s="77"/>
+      <c r="BT12" s="77"/>
+      <c r="BU12" s="78"/>
+      <c r="BV12" s="79"/>
+      <c r="BW12" s="77"/>
+      <c r="BX12" s="77"/>
+      <c r="BY12" s="77"/>
+      <c r="BZ12" s="77"/>
+      <c r="CA12" s="77"/>
+      <c r="CB12" s="77"/>
+      <c r="CC12" s="78"/>
+      <c r="CD12" s="172" t="s">
+        <v>256</v>
+      </c>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="16"/>
+      <c r="CG12" s="16"/>
+      <c r="CI12" s="16"/>
+      <c r="CJ12" s="16"/>
+      <c r="CK12" s="51"/>
+      <c r="CL12" s="79"/>
+      <c r="CM12" s="77"/>
+      <c r="CN12" s="77"/>
+      <c r="CO12" s="77"/>
+      <c r="CP12" s="77"/>
+      <c r="CQ12" s="77"/>
+      <c r="CR12" s="77"/>
+      <c r="CS12" s="77"/>
+      <c r="CT12" s="77"/>
+      <c r="CU12" s="77"/>
+      <c r="CV12" s="77"/>
+      <c r="CW12" s="77"/>
+      <c r="CX12" s="77"/>
+      <c r="CY12" s="77"/>
+      <c r="CZ12" s="77"/>
+      <c r="DA12" s="77"/>
+      <c r="DB12" s="149"/>
+      <c r="DC12" s="150"/>
+      <c r="DD12" s="158"/>
+      <c r="DE12" s="158"/>
+      <c r="DF12" s="55"/>
+      <c r="DG12" s="153"/>
+      <c r="DH12" s="55"/>
+      <c r="DI12" s="55"/>
+      <c r="DJ12" s="149"/>
+      <c r="DK12" s="156"/>
+      <c r="DL12" s="156"/>
+      <c r="DM12" s="150"/>
+      <c r="DN12" s="149"/>
+      <c r="DO12" s="156"/>
+      <c r="DP12" s="156"/>
+      <c r="DQ12" s="150"/>
+      <c r="DR12" s="16"/>
+      <c r="DS12" s="16"/>
+      <c r="DT12" s="16"/>
+      <c r="DU12" s="16"/>
+      <c r="DV12" s="16"/>
+      <c r="DW12" s="16"/>
+      <c r="DX12" s="16"/>
+      <c r="DY12" s="16"/>
+      <c r="DZ12" s="16"/>
+      <c r="EA12" s="16"/>
+      <c r="EB12" s="16"/>
+      <c r="EC12" s="16"/>
+      <c r="ED12" s="16"/>
+      <c r="EE12" s="16"/>
+      <c r="EF12" s="16"/>
+      <c r="EG12" s="51"/>
+      <c r="EH12" s="64"/>
+      <c r="EI12" s="64"/>
+      <c r="EJ12" s="64"/>
+      <c r="EK12" s="64"/>
+      <c r="EL12" s="64"/>
+      <c r="EM12" s="64"/>
+      <c r="EN12" s="64"/>
+      <c r="EO12" s="97"/>
+      <c r="EP12" s="63"/>
+      <c r="EQ12" s="64"/>
+      <c r="ER12" s="64"/>
+      <c r="ES12" s="64"/>
+      <c r="ET12" s="64"/>
+      <c r="EU12" s="64"/>
+      <c r="EV12" s="64"/>
+      <c r="EW12" s="97"/>
+      <c r="EX12" s="110" t="s">
+        <v>218</v>
+      </c>
+      <c r="EY12" s="17"/>
+      <c r="FE12" s="18"/>
+      <c r="FK12" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="FL12" s="131"/>
+      <c r="FM12" s="131"/>
+      <c r="FN12" s="133"/>
+      <c r="FO12" s="134"/>
+      <c r="FP12" s="133"/>
+      <c r="FQ12" s="64"/>
+      <c r="FR12" s="64"/>
+      <c r="FS12" s="64"/>
+      <c r="FT12" s="64"/>
+      <c r="FU12" s="134"/>
+      <c r="FV12" s="77"/>
+      <c r="FW12" s="77"/>
+      <c r="FX12" s="77"/>
+      <c r="FY12" s="77"/>
+      <c r="FZ12" s="77"/>
+      <c r="GA12" s="78"/>
+      <c r="GB12" s="79"/>
+      <c r="GC12" s="77"/>
+      <c r="GD12" s="77"/>
+      <c r="GE12" s="77"/>
+      <c r="GF12" s="77"/>
+      <c r="GG12" s="78"/>
+      <c r="GH12" s="63"/>
+      <c r="GI12" s="64"/>
+      <c r="GJ12" s="64"/>
+      <c r="GK12" s="64"/>
+      <c r="GL12" t="s">
+        <v>202</v>
+      </c>
+      <c r="GT12" s="63"/>
+      <c r="GU12" s="64"/>
+      <c r="GV12" s="64"/>
+      <c r="GW12" s="64"/>
+      <c r="GX12" s="64"/>
+      <c r="GY12" s="64"/>
+      <c r="GZ12" s="64"/>
+      <c r="HA12" s="97"/>
+      <c r="HB12" s="63"/>
+      <c r="HC12" s="64"/>
+      <c r="HD12" s="64"/>
+      <c r="HE12" s="64"/>
+      <c r="HF12" s="64"/>
+      <c r="HG12" s="64"/>
+      <c r="HH12" s="64"/>
+      <c r="HI12" s="97"/>
+    </row>
+    <row r="13" spans="1:217" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="64"/>
+      <c r="BD13" s="64"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="64"/>
+      <c r="BG13" s="97"/>
+      <c r="BH13" s="63"/>
+      <c r="BI13" s="64"/>
+      <c r="BJ13" s="64"/>
+      <c r="BK13" s="64"/>
+      <c r="BL13" s="64"/>
+      <c r="BM13" s="97"/>
+      <c r="BN13" s="79"/>
+      <c r="BO13" s="77"/>
+      <c r="BP13" s="77"/>
+      <c r="BQ13" s="77"/>
+      <c r="BR13" s="77"/>
+      <c r="BS13" s="77"/>
+      <c r="BT13" s="77"/>
+      <c r="BU13" s="78"/>
+      <c r="BV13" s="79"/>
+      <c r="BW13" s="77"/>
+      <c r="BX13" s="77"/>
+      <c r="BY13" s="77"/>
+      <c r="BZ13" s="77"/>
+      <c r="CA13" s="77"/>
+      <c r="CB13" s="77"/>
+      <c r="CC13" s="78"/>
+      <c r="CD13" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="16"/>
+      <c r="CG13" s="16"/>
+      <c r="CH13" s="16"/>
+      <c r="CI13" s="16"/>
+      <c r="CJ13" s="16"/>
+      <c r="CK13" s="51"/>
+      <c r="CL13" s="79"/>
+      <c r="CM13" s="77"/>
+      <c r="CN13" s="77"/>
+      <c r="CO13" s="77"/>
+      <c r="CP13" s="77"/>
+      <c r="CQ13" s="77"/>
+      <c r="CR13" s="77"/>
+      <c r="CS13" s="77"/>
+      <c r="CT13" s="77"/>
+      <c r="CU13" s="77"/>
+      <c r="CV13" s="77"/>
+      <c r="CW13" s="77"/>
+      <c r="CX13" s="77"/>
+      <c r="CY13" s="77"/>
+      <c r="CZ13" s="77"/>
+      <c r="DA13" s="77"/>
+      <c r="DB13" s="133" t="s">
+        <v>200</v>
+      </c>
+      <c r="DC13" s="64"/>
+      <c r="DD13" s="64"/>
+      <c r="DE13" s="64"/>
+      <c r="DF13" s="64"/>
+      <c r="DG13" s="64"/>
+      <c r="DH13" s="64"/>
+      <c r="DI13" s="64"/>
+      <c r="DJ13" s="64"/>
+      <c r="DK13" s="64"/>
+      <c r="DL13" s="64"/>
+      <c r="DM13" s="64"/>
+      <c r="DN13" s="64"/>
+      <c r="DO13" s="64"/>
+      <c r="DP13" s="64"/>
+      <c r="DQ13" s="134"/>
+      <c r="DR13" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="FE11" s="18"/>
-      <c r="FF11" s="84" t="s">
-        <v>226</v>
-      </c>
-      <c r="FG11" s="85"/>
-      <c r="FH11" s="85"/>
-      <c r="FI11" s="87"/>
-      <c r="FN11" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="FO11" s="81"/>
-      <c r="FP11" s="80" t="s">
+      <c r="DS13" s="130"/>
+      <c r="DT13" s="130"/>
+      <c r="DU13" s="130"/>
+      <c r="DV13" s="16"/>
+      <c r="DW13" s="16"/>
+      <c r="DX13" s="16"/>
+      <c r="DY13" s="16"/>
+      <c r="DZ13" s="16"/>
+      <c r="EA13" s="16"/>
+      <c r="EB13" s="16"/>
+      <c r="EC13" s="16"/>
+      <c r="ED13" s="16"/>
+      <c r="EE13" s="16"/>
+      <c r="EF13" s="16"/>
+      <c r="EG13" s="51"/>
+      <c r="EH13" s="64"/>
+      <c r="EI13" s="64"/>
+      <c r="EJ13" s="64"/>
+      <c r="EK13" s="64"/>
+      <c r="EL13" s="64"/>
+      <c r="EM13" s="64"/>
+      <c r="EN13" s="64"/>
+      <c r="EO13" s="97"/>
+      <c r="EP13" s="63"/>
+      <c r="EQ13" s="64"/>
+      <c r="ER13" s="64"/>
+      <c r="ES13" s="64"/>
+      <c r="ET13" s="64"/>
+      <c r="EU13" s="64"/>
+      <c r="EV13" s="64"/>
+      <c r="EW13" s="97"/>
+      <c r="EX13" s="110"/>
+      <c r="EY13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="FE13" s="18"/>
+      <c r="FK13" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="FL13" s="108"/>
+      <c r="FM13" s="109"/>
+      <c r="FN13" s="133"/>
+      <c r="FO13" s="134"/>
+      <c r="FP13" s="133"/>
+      <c r="FQ13" s="64"/>
+      <c r="FR13" s="64"/>
+      <c r="FS13" s="64"/>
+      <c r="FT13" s="64"/>
+      <c r="FU13" s="134"/>
+      <c r="FV13" s="77"/>
+      <c r="FW13" s="77"/>
+      <c r="FX13" s="77"/>
+      <c r="FY13" s="77"/>
+      <c r="FZ13" s="77"/>
+      <c r="GA13" s="78"/>
+      <c r="GB13" s="79"/>
+      <c r="GC13" s="77"/>
+      <c r="GD13" s="77"/>
+      <c r="GE13" s="77"/>
+      <c r="GF13" s="77"/>
+      <c r="GG13" s="78"/>
+      <c r="GH13" s="63"/>
+      <c r="GI13" s="64"/>
+      <c r="GJ13" s="64"/>
+      <c r="GK13" s="64"/>
+      <c r="GN13" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="FQ11" s="135"/>
-      <c r="FR11" s="135"/>
-      <c r="FS11" s="135"/>
-      <c r="FT11" s="135"/>
-      <c r="FU11" s="81"/>
-      <c r="FV11" s="71"/>
-      <c r="FW11" s="71"/>
-      <c r="FX11" s="71"/>
-      <c r="FY11" s="71"/>
-      <c r="FZ11" s="71"/>
-      <c r="GA11" s="72"/>
-      <c r="GB11" s="70"/>
-      <c r="GC11" s="71"/>
-      <c r="GD11" s="71"/>
-      <c r="GE11" s="71"/>
-      <c r="GF11" s="71"/>
-      <c r="GG11" s="72"/>
-      <c r="GH11" s="52"/>
-      <c r="GI11" s="53"/>
-      <c r="GJ11" s="53"/>
-      <c r="GK11" s="53"/>
-      <c r="GL11" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="GM11" s="62"/>
-      <c r="GN11" s="62"/>
-      <c r="GT11" s="52"/>
-      <c r="GU11" s="53"/>
-      <c r="GV11" s="53"/>
-      <c r="GW11" s="53"/>
-      <c r="GX11" s="53"/>
-      <c r="GY11" s="53"/>
-      <c r="GZ11" s="53"/>
-      <c r="HA11" s="56"/>
-      <c r="HB11" s="52"/>
-      <c r="HC11" s="53"/>
-      <c r="HD11" s="53"/>
-      <c r="HE11" s="53"/>
-      <c r="HF11" s="53"/>
-      <c r="HG11" s="53"/>
-      <c r="HH11" s="53"/>
-      <c r="HI11" s="56"/>
-    </row>
-    <row r="12" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
-      <c r="BB12" s="53"/>
-      <c r="BC12" s="53"/>
-      <c r="BD12" s="53"/>
-      <c r="BE12" s="53"/>
-      <c r="BF12" s="53"/>
-      <c r="BG12" s="56"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="53"/>
-      <c r="BJ12" s="53"/>
-      <c r="BK12" s="53"/>
-      <c r="BL12" s="53"/>
-      <c r="BM12" s="56"/>
-      <c r="BN12" s="70"/>
-      <c r="BO12" s="71"/>
-      <c r="BP12" s="71"/>
-      <c r="BQ12" s="71"/>
-      <c r="BR12" s="71"/>
-      <c r="BS12" s="71"/>
-      <c r="BT12" s="71"/>
-      <c r="BU12" s="72"/>
-      <c r="BV12" s="70"/>
-      <c r="BW12" s="71"/>
-      <c r="BX12" s="71"/>
-      <c r="BY12" s="71"/>
-      <c r="BZ12" s="71"/>
-      <c r="CA12" s="71"/>
-      <c r="CB12" s="71"/>
-      <c r="CC12" s="72"/>
-      <c r="CD12" s="70"/>
-      <c r="CE12" s="71"/>
-      <c r="CF12" s="71"/>
-      <c r="CG12" s="71"/>
-      <c r="CH12" s="71"/>
-      <c r="CI12" s="71"/>
-      <c r="CJ12" s="71"/>
-      <c r="CK12" s="72"/>
-      <c r="CL12" s="70"/>
-      <c r="CM12" s="71"/>
-      <c r="CN12" s="71"/>
-      <c r="CO12" s="71"/>
-      <c r="CP12" s="71"/>
-      <c r="CQ12" s="71"/>
-      <c r="CR12" s="71"/>
-      <c r="CS12" s="71"/>
-      <c r="CT12" s="71"/>
-      <c r="CU12" s="71"/>
-      <c r="CV12" s="71"/>
-      <c r="CW12" s="71"/>
-      <c r="CX12" s="71"/>
-      <c r="CY12" s="71"/>
-      <c r="CZ12" s="71"/>
-      <c r="DA12" s="71"/>
-      <c r="DB12" s="80"/>
-      <c r="DC12" s="53"/>
-      <c r="DD12" s="53"/>
-      <c r="DE12" s="53"/>
-      <c r="DF12" s="53"/>
-      <c r="DG12" s="53"/>
-      <c r="DH12" s="53"/>
-      <c r="DI12" s="53"/>
-      <c r="DJ12" s="53"/>
-      <c r="DK12" s="53"/>
-      <c r="DL12" s="53"/>
-      <c r="DM12" s="53"/>
-      <c r="DN12" s="53"/>
-      <c r="DO12" s="53"/>
-      <c r="DP12" s="53"/>
-      <c r="DQ12" s="81"/>
-      <c r="DR12" s="80"/>
-      <c r="DS12" s="53"/>
-      <c r="DT12" s="53"/>
-      <c r="DU12" s="53"/>
-      <c r="DV12" s="53"/>
-      <c r="DW12" s="53"/>
-      <c r="DX12" s="53"/>
-      <c r="DY12" s="53"/>
-      <c r="DZ12" s="53"/>
-      <c r="EA12" s="53"/>
-      <c r="EB12" s="53"/>
-      <c r="EC12" s="53"/>
-      <c r="ED12" s="53"/>
-      <c r="EE12" s="53"/>
-      <c r="EF12" s="53"/>
-      <c r="EG12" s="56"/>
-      <c r="EP12" s="52"/>
-      <c r="EQ12" s="53"/>
-      <c r="ER12" s="53"/>
-      <c r="ES12" s="53"/>
-      <c r="ET12" s="53"/>
-      <c r="EU12" s="53"/>
-      <c r="EV12" s="53"/>
-      <c r="EW12" s="56"/>
-      <c r="EX12" s="17"/>
-      <c r="EY12" s="17"/>
-      <c r="EZ12" t="s">
-        <v>95</v>
-      </c>
-      <c r="FE12" s="18"/>
-      <c r="FK12" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="FL12" s="76"/>
-      <c r="FM12" s="130"/>
-      <c r="FN12" s="80"/>
-      <c r="FO12" s="81"/>
-      <c r="FP12" s="80"/>
-      <c r="FQ12" s="135"/>
-      <c r="FR12" s="135"/>
-      <c r="FS12" s="135"/>
-      <c r="FT12" s="135"/>
-      <c r="FU12" s="81"/>
-      <c r="FV12" s="71"/>
-      <c r="FW12" s="71"/>
-      <c r="FX12" s="71"/>
-      <c r="FY12" s="71"/>
-      <c r="FZ12" s="71"/>
-      <c r="GA12" s="72"/>
-      <c r="GB12" s="70"/>
-      <c r="GC12" s="71"/>
-      <c r="GD12" s="71"/>
-      <c r="GE12" s="71"/>
-      <c r="GF12" s="71"/>
-      <c r="GG12" s="72"/>
-      <c r="GH12" s="52"/>
-      <c r="GI12" s="53"/>
-      <c r="GJ12" s="53"/>
-      <c r="GK12" s="53"/>
-      <c r="GL12" t="s">
-        <v>214</v>
-      </c>
-      <c r="GT12" s="52"/>
-      <c r="GU12" s="53"/>
-      <c r="GV12" s="53"/>
-      <c r="GW12" s="53"/>
-      <c r="GX12" s="53"/>
-      <c r="GY12" s="53"/>
-      <c r="GZ12" s="53"/>
-      <c r="HA12" s="56"/>
-      <c r="HB12" s="52"/>
-      <c r="HC12" s="53"/>
-      <c r="HD12" s="53"/>
-      <c r="HE12" s="53"/>
-      <c r="HF12" s="53"/>
-      <c r="HG12" s="53"/>
-      <c r="HH12" s="53"/>
-      <c r="HI12" s="56"/>
-    </row>
-    <row r="13" spans="1:217" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="52"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="56"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-      <c r="BF13" s="53"/>
-      <c r="BG13" s="56"/>
-      <c r="BH13" s="52"/>
-      <c r="BI13" s="53"/>
-      <c r="BJ13" s="53"/>
-      <c r="BK13" s="53"/>
-      <c r="BL13" s="53"/>
-      <c r="BM13" s="56"/>
-      <c r="BN13" s="70"/>
-      <c r="BO13" s="71"/>
-      <c r="BP13" s="71"/>
-      <c r="BQ13" s="71"/>
-      <c r="BR13" s="71"/>
-      <c r="BS13" s="71"/>
-      <c r="BT13" s="71"/>
-      <c r="BU13" s="72"/>
-      <c r="BV13" s="70"/>
-      <c r="BW13" s="71"/>
-      <c r="BX13" s="71"/>
-      <c r="BY13" s="71"/>
-      <c r="BZ13" s="71"/>
-      <c r="CA13" s="71"/>
-      <c r="CB13" s="71"/>
-      <c r="CC13" s="72"/>
-      <c r="CD13" s="70"/>
-      <c r="CE13" s="71"/>
-      <c r="CF13" s="71"/>
-      <c r="CG13" s="71"/>
-      <c r="CH13" s="71"/>
-      <c r="CI13" s="71"/>
-      <c r="CJ13" s="71"/>
-      <c r="CK13" s="72"/>
-      <c r="CL13" s="70"/>
-      <c r="CM13" s="71"/>
-      <c r="CN13" s="71"/>
-      <c r="CO13" s="71"/>
-      <c r="CP13" s="71"/>
-      <c r="CQ13" s="71"/>
-      <c r="CR13" s="71"/>
-      <c r="CS13" s="71"/>
-      <c r="CT13" s="71"/>
-      <c r="CU13" s="71"/>
-      <c r="CV13" s="71"/>
-      <c r="CW13" s="71"/>
-      <c r="CX13" s="71"/>
-      <c r="CY13" s="71"/>
-      <c r="CZ13" s="71"/>
-      <c r="DA13" s="71"/>
-      <c r="DB13" s="80"/>
-      <c r="DC13" s="53"/>
-      <c r="DD13" s="53"/>
-      <c r="DE13" s="53"/>
-      <c r="DF13" s="53"/>
-      <c r="DG13" s="53"/>
-      <c r="DH13" s="53"/>
-      <c r="DI13" s="53"/>
-      <c r="DJ13" s="53"/>
-      <c r="DK13" s="53"/>
-      <c r="DL13" s="53"/>
-      <c r="DM13" s="53"/>
-      <c r="DN13" s="53"/>
-      <c r="DO13" s="53"/>
-      <c r="DP13" s="53"/>
-      <c r="DQ13" s="81"/>
-      <c r="DR13" s="80"/>
-      <c r="DS13" s="53"/>
-      <c r="DT13" s="53"/>
-      <c r="DU13" s="53"/>
-      <c r="DV13" s="53"/>
-      <c r="DW13" s="53"/>
-      <c r="DX13" s="53"/>
-      <c r="DY13" s="53"/>
-      <c r="DZ13" s="53"/>
-      <c r="EA13" s="53"/>
-      <c r="EB13" s="53"/>
-      <c r="EC13" s="53"/>
-      <c r="ED13" s="53"/>
-      <c r="EE13" s="53"/>
-      <c r="EF13" s="53"/>
-      <c r="EG13" s="56"/>
-      <c r="EP13" s="52"/>
-      <c r="EQ13" s="53"/>
-      <c r="ER13" s="53"/>
-      <c r="ES13" s="53"/>
-      <c r="ET13" s="53"/>
-      <c r="EU13" s="53"/>
-      <c r="EV13" s="53"/>
-      <c r="EW13" s="56"/>
-      <c r="EX13" s="17"/>
-      <c r="EY13" s="17" t="s">
+      <c r="GT13" s="63"/>
+      <c r="GU13" s="64"/>
+      <c r="GV13" s="64"/>
+      <c r="GW13" s="64"/>
+      <c r="GX13" s="64"/>
+      <c r="GY13" s="64"/>
+      <c r="GZ13" s="64"/>
+      <c r="HA13" s="97"/>
+      <c r="HB13" s="63"/>
+      <c r="HC13" s="64"/>
+      <c r="HD13" s="64"/>
+      <c r="HE13" s="64"/>
+      <c r="HF13" s="64"/>
+      <c r="HG13" s="64"/>
+      <c r="HH13" s="64"/>
+      <c r="HI13" s="97"/>
+    </row>
+    <row r="14" spans="1:217" ht="77.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="100"/>
+      <c r="AR14" s="98"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="100"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="99"/>
+      <c r="BA14" s="99"/>
+      <c r="BB14" s="99"/>
+      <c r="BC14" s="99"/>
+      <c r="BD14" s="99"/>
+      <c r="BE14" s="99"/>
+      <c r="BF14" s="99"/>
+      <c r="BG14" s="100"/>
+      <c r="BH14" s="98"/>
+      <c r="BI14" s="99"/>
+      <c r="BJ14" s="99"/>
+      <c r="BK14" s="99"/>
+      <c r="BL14" s="99"/>
+      <c r="BM14" s="100"/>
+      <c r="BN14" s="80"/>
+      <c r="BO14" s="81"/>
+      <c r="BP14" s="81"/>
+      <c r="BQ14" s="81"/>
+      <c r="BR14" s="81"/>
+      <c r="BS14" s="81"/>
+      <c r="BT14" s="81"/>
+      <c r="BU14" s="82"/>
+      <c r="BV14" s="80"/>
+      <c r="BW14" s="81"/>
+      <c r="BX14" s="81"/>
+      <c r="BY14" s="81"/>
+      <c r="BZ14" s="81"/>
+      <c r="CA14" s="81"/>
+      <c r="CB14" s="81"/>
+      <c r="CC14" s="82"/>
+      <c r="CD14" s="172" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE14" s="20"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
+      <c r="CH14" s="52"/>
+      <c r="CI14" s="52"/>
+      <c r="CJ14" s="52"/>
+      <c r="CK14" s="53"/>
+      <c r="CL14" s="80"/>
+      <c r="CM14" s="81"/>
+      <c r="CN14" s="81"/>
+      <c r="CO14" s="81"/>
+      <c r="CP14" s="81"/>
+      <c r="CQ14" s="81"/>
+      <c r="CR14" s="81"/>
+      <c r="CS14" s="81"/>
+      <c r="CT14" s="81"/>
+      <c r="CU14" s="81"/>
+      <c r="CV14" s="81"/>
+      <c r="CW14" s="81"/>
+      <c r="CX14" s="81"/>
+      <c r="CY14" s="81"/>
+      <c r="CZ14" s="81"/>
+      <c r="DA14" s="81"/>
+      <c r="DB14" s="135"/>
+      <c r="DC14" s="69"/>
+      <c r="DD14" s="69"/>
+      <c r="DE14" s="69"/>
+      <c r="DF14" s="69"/>
+      <c r="DG14" s="69"/>
+      <c r="DH14" s="69"/>
+      <c r="DI14" s="69"/>
+      <c r="DJ14" s="69"/>
+      <c r="DK14" s="69"/>
+      <c r="DL14" s="69"/>
+      <c r="DM14" s="69"/>
+      <c r="DN14" s="69"/>
+      <c r="DO14" s="69"/>
+      <c r="DP14" s="69"/>
+      <c r="DQ14" s="136"/>
+      <c r="DR14" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="FE13" s="18"/>
-      <c r="FG13" t="s">
-        <v>87</v>
-      </c>
-      <c r="FN13" s="80"/>
-      <c r="FO13" s="81"/>
-      <c r="FP13" s="80"/>
-      <c r="FQ13" s="135"/>
-      <c r="FR13" s="135"/>
-      <c r="FS13" s="135"/>
-      <c r="FT13" s="135"/>
-      <c r="FU13" s="81"/>
-      <c r="FV13" s="71"/>
-      <c r="FW13" s="71"/>
-      <c r="FX13" s="71"/>
-      <c r="FY13" s="71"/>
-      <c r="FZ13" s="71"/>
-      <c r="GA13" s="72"/>
-      <c r="GB13" s="70"/>
-      <c r="GC13" s="71"/>
-      <c r="GD13" s="71"/>
-      <c r="GE13" s="71"/>
-      <c r="GF13" s="71"/>
-      <c r="GG13" s="72"/>
-      <c r="GH13" s="52"/>
-      <c r="GI13" s="53"/>
-      <c r="GJ13" s="53"/>
-      <c r="GK13" s="53"/>
-      <c r="GT13" s="52"/>
-      <c r="GU13" s="53"/>
-      <c r="GV13" s="53"/>
-      <c r="GW13" s="53"/>
-      <c r="GX13" s="53"/>
-      <c r="GY13" s="53"/>
-      <c r="GZ13" s="53"/>
-      <c r="HA13" s="56"/>
-      <c r="HB13" s="52"/>
-      <c r="HC13" s="53"/>
-      <c r="HD13" s="53"/>
-      <c r="HE13" s="53"/>
-      <c r="HF13" s="53"/>
-      <c r="HG13" s="53"/>
-      <c r="HH13" s="53"/>
-      <c r="HI13" s="56"/>
-    </row>
-    <row r="14" spans="1:217" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="65"/>
-      <c r="AR14" s="63"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="65"/>
-      <c r="BH14" s="63"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="65"/>
-      <c r="BN14" s="73"/>
-      <c r="BO14" s="74"/>
-      <c r="BP14" s="74"/>
-      <c r="BQ14" s="74"/>
-      <c r="BR14" s="74"/>
-      <c r="BS14" s="74"/>
-      <c r="BT14" s="74"/>
-      <c r="BU14" s="75"/>
-      <c r="BV14" s="73"/>
-      <c r="BW14" s="74"/>
-      <c r="BX14" s="74"/>
-      <c r="BY14" s="74"/>
-      <c r="BZ14" s="74"/>
-      <c r="CA14" s="74"/>
-      <c r="CB14" s="74"/>
-      <c r="CC14" s="75"/>
-      <c r="CD14" s="73"/>
-      <c r="CE14" s="74"/>
-      <c r="CF14" s="74"/>
-      <c r="CG14" s="74"/>
-      <c r="CH14" s="74"/>
-      <c r="CI14" s="74"/>
-      <c r="CJ14" s="74"/>
-      <c r="CK14" s="75"/>
-      <c r="CL14" s="73"/>
-      <c r="CM14" s="74"/>
-      <c r="CN14" s="74"/>
-      <c r="CO14" s="74"/>
-      <c r="CP14" s="74"/>
-      <c r="CQ14" s="74"/>
-      <c r="CR14" s="74"/>
-      <c r="CS14" s="74"/>
-      <c r="CT14" s="74"/>
-      <c r="CU14" s="74"/>
-      <c r="CV14" s="74"/>
-      <c r="CW14" s="74"/>
-      <c r="CX14" s="74"/>
-      <c r="CY14" s="74"/>
-      <c r="CZ14" s="74"/>
-      <c r="DA14" s="74"/>
-      <c r="DB14" s="82"/>
-      <c r="DC14" s="55"/>
-      <c r="DD14" s="55"/>
-      <c r="DE14" s="55"/>
-      <c r="DF14" s="55"/>
-      <c r="DG14" s="55"/>
-      <c r="DH14" s="55"/>
-      <c r="DI14" s="55"/>
-      <c r="DJ14" s="55"/>
-      <c r="DK14" s="55"/>
-      <c r="DL14" s="55"/>
-      <c r="DM14" s="55"/>
-      <c r="DN14" s="55"/>
-      <c r="DO14" s="55"/>
-      <c r="DP14" s="55"/>
-      <c r="DQ14" s="83"/>
-      <c r="DR14" s="86"/>
-      <c r="DS14" s="64"/>
-      <c r="DT14" s="64"/>
-      <c r="DU14" s="64"/>
-      <c r="DV14" s="64"/>
-      <c r="DW14" s="64"/>
-      <c r="DX14" s="64"/>
-      <c r="DY14" s="64"/>
-      <c r="DZ14" s="64"/>
-      <c r="EA14" s="64"/>
-      <c r="EB14" s="64"/>
-      <c r="EC14" s="64"/>
-      <c r="ED14" s="64"/>
-      <c r="EE14" s="64"/>
-      <c r="EF14" s="64"/>
-      <c r="EG14" s="65"/>
-      <c r="EP14" s="63"/>
-      <c r="EQ14" s="64"/>
-      <c r="ER14" s="64"/>
-      <c r="ES14" s="64"/>
-      <c r="ET14" s="64"/>
-      <c r="EU14" s="64"/>
-      <c r="EV14" s="64"/>
-      <c r="EW14" s="65"/>
-      <c r="EX14" s="19"/>
+      <c r="DS14" s="130"/>
+      <c r="DT14" s="130"/>
+      <c r="DU14" s="130"/>
+      <c r="DV14" s="52"/>
+      <c r="DW14" s="52"/>
+      <c r="DX14" s="52"/>
+      <c r="DY14" s="52"/>
+      <c r="DZ14" s="52"/>
+      <c r="EA14" s="52"/>
+      <c r="EB14" s="52"/>
+      <c r="EC14" s="52"/>
+      <c r="ED14" s="52"/>
+      <c r="EE14" s="52"/>
+      <c r="EF14" s="52"/>
+      <c r="EG14" s="53"/>
+      <c r="EP14" s="98"/>
+      <c r="EQ14" s="99"/>
+      <c r="ER14" s="99"/>
+      <c r="ES14" s="99"/>
+      <c r="ET14" s="99"/>
+      <c r="EU14" s="99"/>
+      <c r="EV14" s="99"/>
+      <c r="EW14" s="100"/>
+      <c r="EX14" s="111"/>
       <c r="EY14" s="19"/>
       <c r="EZ14" s="20"/>
       <c r="FA14" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="FB14" s="20"/>
       <c r="FC14" s="20"/>
       <c r="FD14" s="20"/>
       <c r="FE14" s="21"/>
-      <c r="FK14" t="s">
-        <v>229</v>
-      </c>
-      <c r="FN14" s="82"/>
-      <c r="FO14" s="83"/>
-      <c r="FP14" s="82"/>
-      <c r="FQ14" s="55"/>
-      <c r="FR14" s="55"/>
-      <c r="FS14" s="55"/>
-      <c r="FT14" s="55"/>
-      <c r="FU14" s="83"/>
-      <c r="FV14" s="74"/>
-      <c r="FW14" s="74"/>
-      <c r="FX14" s="74"/>
-      <c r="FY14" s="74"/>
-      <c r="FZ14" s="74"/>
-      <c r="GA14" s="75"/>
-      <c r="GB14" s="73"/>
-      <c r="GC14" s="74"/>
-      <c r="GD14" s="74"/>
-      <c r="GE14" s="74"/>
-      <c r="GF14" s="74"/>
-      <c r="GG14" s="75"/>
-      <c r="GH14" s="54"/>
-      <c r="GI14" s="55"/>
-      <c r="GJ14" s="55"/>
-      <c r="GK14" s="55"/>
-      <c r="GT14" s="63"/>
-      <c r="GU14" s="64"/>
-      <c r="GV14" s="64"/>
-      <c r="GW14" s="64"/>
-      <c r="GX14" s="64"/>
-      <c r="GY14" s="64"/>
-      <c r="GZ14" s="64"/>
-      <c r="HA14" s="65"/>
-      <c r="HB14" s="63"/>
-      <c r="HC14" s="64"/>
-      <c r="HD14" s="64"/>
-      <c r="HE14" s="64"/>
-      <c r="HF14" s="64"/>
-      <c r="HG14" s="64"/>
-      <c r="HH14" s="64"/>
-      <c r="HI14" s="65"/>
+      <c r="FK14" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="FL14" s="140"/>
+      <c r="FM14" s="141"/>
+      <c r="FN14" s="135"/>
+      <c r="FO14" s="136"/>
+      <c r="FP14" s="135"/>
+      <c r="FQ14" s="69"/>
+      <c r="FR14" s="69"/>
+      <c r="FS14" s="69"/>
+      <c r="FT14" s="69"/>
+      <c r="FU14" s="136"/>
+      <c r="FV14" s="81"/>
+      <c r="FW14" s="81"/>
+      <c r="FX14" s="81"/>
+      <c r="FY14" s="81"/>
+      <c r="FZ14" s="81"/>
+      <c r="GA14" s="82"/>
+      <c r="GB14" s="80"/>
+      <c r="GC14" s="81"/>
+      <c r="GD14" s="81"/>
+      <c r="GE14" s="81"/>
+      <c r="GF14" s="81"/>
+      <c r="GG14" s="82"/>
+      <c r="GH14" s="68"/>
+      <c r="GI14" s="69"/>
+      <c r="GJ14" s="69"/>
+      <c r="GK14" s="69"/>
+      <c r="GM14" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="GT14" s="98"/>
+      <c r="GU14" s="99"/>
+      <c r="GV14" s="99"/>
+      <c r="GW14" s="99"/>
+      <c r="GX14" s="99"/>
+      <c r="GY14" s="99"/>
+      <c r="GZ14" s="99"/>
+      <c r="HA14" s="100"/>
+      <c r="HB14" s="98"/>
+      <c r="HC14" s="99"/>
+      <c r="HD14" s="99"/>
+      <c r="HE14" s="99"/>
+      <c r="HF14" s="99"/>
+      <c r="HG14" s="99"/>
+      <c r="HH14" s="99"/>
+      <c r="HI14" s="100"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="AX15" s="14"/>
       <c r="CD15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="CO15">
         <v>0</v>
@@ -6401,7 +6690,7 @@
         <v>15</v>
       </c>
       <c r="DS15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="EH15" s="13"/>
       <c r="EI15" s="13"/>
@@ -6412,11 +6701,11 @@
       <c r="EN15" s="13"/>
       <c r="EO15" s="13"/>
       <c r="EY15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="FF15" s="13"/>
       <c r="FG15" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="FH15" s="13"/>
       <c r="FI15" s="13"/>
@@ -6446,7 +6735,7 @@
     <row r="16" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="N16" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -6462,35 +6751,35 @@
       <c r="Z16" s="26"/>
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
-      <c r="CD16" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="CE16" s="60"/>
-      <c r="CF16" s="60"/>
-      <c r="CG16" s="60"/>
-      <c r="CH16" s="60"/>
-      <c r="CI16" s="60"/>
-      <c r="CJ16" s="60"/>
-      <c r="CK16" s="60"/>
+      <c r="CD16" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="CE16" s="129"/>
+      <c r="CF16" s="129"/>
+      <c r="CG16" s="129"/>
+      <c r="CH16" s="129"/>
+      <c r="CI16" s="129"/>
+      <c r="CJ16" s="129"/>
+      <c r="CK16" s="129"/>
       <c r="DE16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="DS16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="FA16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="FG16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
@@ -6506,36 +6795,36 @@
       <c r="Z17" s="26"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
-      <c r="CD17" s="60"/>
-      <c r="CE17" s="60"/>
-      <c r="CF17" s="60"/>
-      <c r="CG17" s="60"/>
-      <c r="CH17" s="60"/>
-      <c r="CI17" s="60"/>
-      <c r="CJ17" s="60"/>
-      <c r="CK17" s="60"/>
+      <c r="CD17" s="129"/>
+      <c r="CE17" s="129"/>
+      <c r="CF17" s="129"/>
+      <c r="CG17" s="129"/>
+      <c r="CH17" s="129"/>
+      <c r="CI17" s="129"/>
+      <c r="CJ17" s="129"/>
+      <c r="CK17" s="129"/>
       <c r="DE17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="DN17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="EC17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="FG17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="GV17" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N18" s="26" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
@@ -6551,36 +6840,36 @@
       <c r="Z18" s="26"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="CD18" s="60"/>
-      <c r="CE18" s="60"/>
-      <c r="CF18" s="60"/>
-      <c r="CG18" s="60"/>
-      <c r="CH18" s="60"/>
-      <c r="CI18" s="60"/>
-      <c r="CJ18" s="60"/>
-      <c r="CK18" s="60"/>
+      <c r="CD18" s="129"/>
+      <c r="CE18" s="129"/>
+      <c r="CF18" s="129"/>
+      <c r="CG18" s="129"/>
+      <c r="CH18" s="129"/>
+      <c r="CI18" s="129"/>
+      <c r="CJ18" s="129"/>
+      <c r="CK18" s="129"/>
       <c r="CL18" s="27" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="CM18" s="28"/>
       <c r="CN18" s="28"/>
       <c r="CO18" s="29"/>
       <c r="DE18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="EC18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="EY18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N19" s="26" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -6596,31 +6885,31 @@
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="CD19" s="60"/>
-      <c r="CE19" s="60"/>
-      <c r="CF19" s="60"/>
-      <c r="CG19" s="60"/>
-      <c r="CH19" s="60"/>
-      <c r="CI19" s="60"/>
-      <c r="CJ19" s="60"/>
-      <c r="CK19" s="60"/>
+      <c r="CD19" s="129"/>
+      <c r="CE19" s="129"/>
+      <c r="CF19" s="129"/>
+      <c r="CG19" s="129"/>
+      <c r="CH19" s="129"/>
+      <c r="CI19" s="129"/>
+      <c r="CJ19" s="129"/>
+      <c r="CK19" s="129"/>
       <c r="CM19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="DE19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="EC19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="FG19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="N20" s="26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
@@ -6636,34 +6925,34 @@
       <c r="Z20" s="26"/>
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
-      <c r="CD20" s="60"/>
-      <c r="CE20" s="60"/>
-      <c r="CF20" s="60"/>
-      <c r="CG20" s="60"/>
-      <c r="CH20" s="60"/>
-      <c r="CI20" s="60"/>
-      <c r="CJ20" s="60"/>
-      <c r="CK20" s="60"/>
+      <c r="CD20" s="129"/>
+      <c r="CE20" s="129"/>
+      <c r="CF20" s="129"/>
+      <c r="CG20" s="129"/>
+      <c r="CH20" s="129"/>
+      <c r="CI20" s="129"/>
+      <c r="CJ20" s="129"/>
+      <c r="CK20" s="129"/>
       <c r="DI20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="FG20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N21" s="26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
@@ -6679,25 +6968,25 @@
       <c r="Z21" s="26"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="CD21" s="60"/>
-      <c r="CE21" s="60"/>
-      <c r="CF21" s="60"/>
-      <c r="CG21" s="60"/>
-      <c r="CH21" s="60"/>
-      <c r="CI21" s="60"/>
-      <c r="CJ21" s="60"/>
-      <c r="CK21" s="60"/>
+      <c r="CD21" s="129"/>
+      <c r="CE21" s="129"/>
+      <c r="CF21" s="129"/>
+      <c r="CG21" s="129"/>
+      <c r="CH21" s="129"/>
+      <c r="CI21" s="129"/>
+      <c r="CJ21" s="129"/>
+      <c r="CK21" s="129"/>
       <c r="CL21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="DR21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="EY21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="FG21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:204" x14ac:dyDescent="0.45">
@@ -6721,7 +7010,7 @@
         <v>5972</v>
       </c>
       <c r="N22" s="26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
@@ -6737,19 +7026,19 @@
       <c r="Z22" s="26"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="CD22" s="60"/>
-      <c r="CE22" s="60"/>
-      <c r="CF22" s="60"/>
-      <c r="CG22" s="60"/>
-      <c r="CH22" s="60"/>
-      <c r="CI22" s="60"/>
-      <c r="CJ22" s="60"/>
-      <c r="CK22" s="60"/>
+      <c r="CD22" s="129"/>
+      <c r="CE22" s="129"/>
+      <c r="CF22" s="129"/>
+      <c r="CG22" s="129"/>
+      <c r="CH22" s="129"/>
+      <c r="CI22" s="129"/>
+      <c r="CJ22" s="129"/>
+      <c r="CK22" s="129"/>
       <c r="DR22" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="FH22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:204" x14ac:dyDescent="0.45">
@@ -6766,7 +7055,7 @@
         <v>5973</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
@@ -6782,19 +7071,19 @@
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
-      <c r="CD23" s="60"/>
-      <c r="CE23" s="60"/>
-      <c r="CF23" s="60"/>
-      <c r="CG23" s="60"/>
-      <c r="CH23" s="60"/>
-      <c r="CI23" s="60"/>
-      <c r="CJ23" s="60"/>
-      <c r="CK23" s="60"/>
+      <c r="CD23" s="129"/>
+      <c r="CE23" s="129"/>
+      <c r="CF23" s="129"/>
+      <c r="CG23" s="129"/>
+      <c r="CH23" s="129"/>
+      <c r="CI23" s="129"/>
+      <c r="CJ23" s="129"/>
+      <c r="CK23" s="129"/>
       <c r="DE23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="FH23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:204" x14ac:dyDescent="0.45">
@@ -6810,19 +7099,19 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="60"/>
-      <c r="CE24" s="60"/>
-      <c r="CF24" s="60"/>
-      <c r="CG24" s="60"/>
-      <c r="CH24" s="60"/>
-      <c r="CI24" s="60"/>
-      <c r="CJ24" s="60"/>
-      <c r="CK24" s="60"/>
+      <c r="CD24" s="129"/>
+      <c r="CE24" s="129"/>
+      <c r="CF24" s="129"/>
+      <c r="CG24" s="129"/>
+      <c r="CH24" s="129"/>
+      <c r="CI24" s="129"/>
+      <c r="CJ24" s="129"/>
+      <c r="CK24" s="129"/>
       <c r="DG24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="EX24" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:204" x14ac:dyDescent="0.45">
@@ -6838,19 +7127,19 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="60"/>
-      <c r="CE25" s="60"/>
-      <c r="CF25" s="60"/>
-      <c r="CG25" s="60"/>
-      <c r="CH25" s="60"/>
-      <c r="CI25" s="60"/>
-      <c r="CJ25" s="60"/>
-      <c r="CK25" s="60"/>
+      <c r="CD25" s="129"/>
+      <c r="CE25" s="129"/>
+      <c r="CF25" s="129"/>
+      <c r="CG25" s="129"/>
+      <c r="CH25" s="129"/>
+      <c r="CI25" s="129"/>
+      <c r="CJ25" s="129"/>
+      <c r="CK25" s="129"/>
       <c r="DG25" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="EX25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:204" x14ac:dyDescent="0.45">
@@ -6866,16 +7155,16 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="60"/>
-      <c r="CE26" s="60"/>
-      <c r="CF26" s="60"/>
-      <c r="CG26" s="60"/>
-      <c r="CH26" s="60"/>
-      <c r="CI26" s="60"/>
-      <c r="CJ26" s="60"/>
-      <c r="CK26" s="60"/>
+      <c r="CD26" s="129"/>
+      <c r="CE26" s="129"/>
+      <c r="CF26" s="129"/>
+      <c r="CG26" s="129"/>
+      <c r="CH26" s="129"/>
+      <c r="CI26" s="129"/>
+      <c r="CJ26" s="129"/>
+      <c r="CK26" s="129"/>
       <c r="DG26" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:204" x14ac:dyDescent="0.45">
@@ -6891,16 +7180,16 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="60"/>
-      <c r="CE27" s="60"/>
-      <c r="CF27" s="60"/>
-      <c r="CG27" s="60"/>
-      <c r="CH27" s="60"/>
-      <c r="CI27" s="60"/>
-      <c r="CJ27" s="60"/>
-      <c r="CK27" s="60"/>
+      <c r="CD27" s="129"/>
+      <c r="CE27" s="129"/>
+      <c r="CF27" s="129"/>
+      <c r="CG27" s="129"/>
+      <c r="CH27" s="129"/>
+      <c r="CI27" s="129"/>
+      <c r="CJ27" s="129"/>
+      <c r="CK27" s="129"/>
       <c r="DG27" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:204" x14ac:dyDescent="0.45">
@@ -6916,16 +7205,16 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="60"/>
-      <c r="CE28" s="60"/>
-      <c r="CF28" s="60"/>
-      <c r="CG28" s="60"/>
-      <c r="CH28" s="60"/>
-      <c r="CI28" s="60"/>
-      <c r="CJ28" s="60"/>
-      <c r="CK28" s="60"/>
+      <c r="CD28" s="129"/>
+      <c r="CE28" s="129"/>
+      <c r="CF28" s="129"/>
+      <c r="CG28" s="129"/>
+      <c r="CH28" s="129"/>
+      <c r="CI28" s="129"/>
+      <c r="CJ28" s="129"/>
+      <c r="CK28" s="129"/>
       <c r="EX28" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:204" x14ac:dyDescent="0.45">
@@ -6941,14 +7230,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="60"/>
-      <c r="CE29" s="60"/>
-      <c r="CF29" s="60"/>
-      <c r="CG29" s="60"/>
-      <c r="CH29" s="60"/>
-      <c r="CI29" s="60"/>
-      <c r="CJ29" s="60"/>
-      <c r="CK29" s="60"/>
+      <c r="CD29" s="129"/>
+      <c r="CE29" s="129"/>
+      <c r="CF29" s="129"/>
+      <c r="CG29" s="129"/>
+      <c r="CH29" s="129"/>
+      <c r="CI29" s="129"/>
+      <c r="CJ29" s="129"/>
+      <c r="CK29" s="129"/>
     </row>
     <row r="30" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -6964,7 +7253,7 @@
         <v>597A</v>
       </c>
       <c r="CD30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:204" x14ac:dyDescent="0.45">
@@ -6984,7 +7273,7 @@
     <row r="32" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -7012,7 +7301,7 @@
         <v>597D</v>
       </c>
       <c r="CD33" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:87" x14ac:dyDescent="0.45">
@@ -7029,7 +7318,7 @@
         <v>597E</v>
       </c>
       <c r="BN34" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:87" x14ac:dyDescent="0.45">
@@ -7045,10 +7334,10 @@
         <v>597F</v>
       </c>
       <c r="BN35" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="CD35" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:87" x14ac:dyDescent="0.45">
@@ -7085,7 +7374,7 @@
         <v>5981</v>
       </c>
       <c r="BL37" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="BM37">
         <v>243</v>
@@ -7133,13 +7422,13 @@
         <v>5983</v>
       </c>
       <c r="BL39" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="BZ39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="CE39" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="CG39">
         <v>9</v>
@@ -7162,7 +7451,7 @@
         <v>5984</v>
       </c>
       <c r="CE40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="CG40">
         <v>7</v>
@@ -7305,66 +7594,96 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="155">
+  <mergeCells count="171">
+    <mergeCell ref="B9:H11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="DB13:DQ14"/>
+    <mergeCell ref="DB9:DC12"/>
+    <mergeCell ref="DG9:DG12"/>
+    <mergeCell ref="DJ9:DM12"/>
+    <mergeCell ref="DN9:DQ12"/>
+    <mergeCell ref="DD9:DD12"/>
+    <mergeCell ref="DE9:DE12"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="CE9:CG9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CD16:CK29"/>
+    <mergeCell ref="GT9:HA14"/>
+    <mergeCell ref="EH11:EO13"/>
+    <mergeCell ref="EH8:EO8"/>
+    <mergeCell ref="HB9:HI14"/>
+    <mergeCell ref="DR13:DU13"/>
+    <mergeCell ref="DR14:DU14"/>
+    <mergeCell ref="FK12:FM12"/>
+    <mergeCell ref="DR9:DU9"/>
+    <mergeCell ref="GO9:GS10"/>
+    <mergeCell ref="EB9:EG10"/>
+    <mergeCell ref="DV9:EA10"/>
+    <mergeCell ref="GL11:GN11"/>
+    <mergeCell ref="GL9:GL10"/>
+    <mergeCell ref="FN11:FO14"/>
+    <mergeCell ref="EX9:FE9"/>
+    <mergeCell ref="FF11:FI11"/>
+    <mergeCell ref="FP11:FU14"/>
     <mergeCell ref="FN9:FO10"/>
+    <mergeCell ref="FK9:FM9"/>
+    <mergeCell ref="FK11:FM11"/>
+    <mergeCell ref="FK10:FM10"/>
+    <mergeCell ref="FK14:FM14"/>
+    <mergeCell ref="CL9:DA14"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="CD3:CK3"/>
+    <mergeCell ref="CL3:CS3"/>
+    <mergeCell ref="CT3:DA3"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="GD2:GK2"/>
     <mergeCell ref="CX7:DA7"/>
-    <mergeCell ref="FV4:GK4"/>
-    <mergeCell ref="GH7:GK7"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="GV7:HA7"/>
-    <mergeCell ref="HB7:HI7"/>
-    <mergeCell ref="I9:Q14"/>
-    <mergeCell ref="CD7:CK7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CL7:CO7"/>
-    <mergeCell ref="DN7:DQ7"/>
-    <mergeCell ref="DB7:DC7"/>
-    <mergeCell ref="DF7:DM7"/>
-    <mergeCell ref="EP9:EW14"/>
-    <mergeCell ref="FV9:GA14"/>
-    <mergeCell ref="GB9:GG14"/>
-    <mergeCell ref="CL8:DA8"/>
-    <mergeCell ref="DB8:DQ8"/>
-    <mergeCell ref="DV7:EA7"/>
-    <mergeCell ref="EB7:EG7"/>
-    <mergeCell ref="EH7:EO7"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="DZ2:EG2"/>
+    <mergeCell ref="EH2:EO2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
     <mergeCell ref="DR7:DU7"/>
     <mergeCell ref="FK7:FM7"/>
     <mergeCell ref="GB7:GG7"/>
     <mergeCell ref="FV7:GA7"/>
     <mergeCell ref="FP7:FU7"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="FV4:GK4"/>
     <mergeCell ref="GL2:GS2"/>
     <mergeCell ref="GT2:HA2"/>
     <mergeCell ref="HB2:HI2"/>
@@ -7388,79 +7707,65 @@
     <mergeCell ref="EP2:EW2"/>
     <mergeCell ref="EX2:FE2"/>
     <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B9:H14"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="DZ2:EG2"/>
-    <mergeCell ref="EH2:EO2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CL2:CS2"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="EP7:EW7"/>
     <mergeCell ref="AX3:BE3"/>
     <mergeCell ref="BF3:BM3"/>
-    <mergeCell ref="CT2:DA2"/>
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="CD3:CK3"/>
-    <mergeCell ref="CL3:CS3"/>
-    <mergeCell ref="CT3:DA3"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="CD9:CK14"/>
-    <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
+    <mergeCell ref="HB7:HI7"/>
+    <mergeCell ref="I9:Q14"/>
+    <mergeCell ref="CD7:CK7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CL7:CO7"/>
+    <mergeCell ref="DN7:DQ7"/>
+    <mergeCell ref="DB7:DC7"/>
+    <mergeCell ref="EP9:EW14"/>
+    <mergeCell ref="FV9:GA14"/>
+    <mergeCell ref="GB9:GG14"/>
+    <mergeCell ref="CL8:DA8"/>
+    <mergeCell ref="DB8:DQ8"/>
+    <mergeCell ref="DV7:EA7"/>
+    <mergeCell ref="EB7:EG7"/>
+    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="DR11:EG11"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="FK13:FM13"/>
+    <mergeCell ref="EY11:FE11"/>
+    <mergeCell ref="EX12:EX14"/>
     <mergeCell ref="GM9:GM10"/>
     <mergeCell ref="GN9:GN10"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="GH7:GK7"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="GV7:HA7"/>
     <mergeCell ref="GH9:GK14"/>
-    <mergeCell ref="EH11:EO11"/>
     <mergeCell ref="GX8:GY8"/>
-    <mergeCell ref="CD16:CK29"/>
-    <mergeCell ref="GT9:HA14"/>
-    <mergeCell ref="HB9:HI14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="FK12:FM12"/>
-    <mergeCell ref="DB10:DQ14"/>
-    <mergeCell ref="DN9:DQ9"/>
-    <mergeCell ref="DR9:DU9"/>
-    <mergeCell ref="DR11:EG14"/>
-    <mergeCell ref="GO9:GS10"/>
-    <mergeCell ref="EB9:EG10"/>
-    <mergeCell ref="DV9:EA10"/>
-    <mergeCell ref="DJ9:DM9"/>
-    <mergeCell ref="GL11:GN11"/>
-    <mergeCell ref="GL9:GL10"/>
-    <mergeCell ref="FN11:FO14"/>
-    <mergeCell ref="EX9:FE9"/>
-    <mergeCell ref="FF11:FI11"/>
-    <mergeCell ref="FP11:FU14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7472,7 +7777,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7482,48 +7787,48 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="121">
+        <v>193</v>
+      </c>
+      <c r="B1" s="160">
         <v>0</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="121">
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="160">
         <v>2</v>
       </c>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="123"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="162"/>
     </row>
     <row r="2" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="35">
         <v>15</v>
@@ -7624,7 +7929,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="36" t="str">
         <f>DEC2HEX(B2)</f>
@@ -7757,50 +8062,50 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
-      <c r="B4" s="128">
+      <c r="B4" s="167">
         <v>1</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128">
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167">
         <v>0</v>
       </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128">
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167">
         <v>3</v>
       </c>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128">
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167">
         <v>2</v>
       </c>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B5" s="39">
         <f t="shared" ref="B5:H5" si="1">B2-8</f>
@@ -7928,115 +8233,115 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
+        <v>179</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="39" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J6" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126"/>
+        <v>177</v>
+      </c>
+      <c r="J6" s="163" t="s">
+        <v>176</v>
+      </c>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="163" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="164"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="164"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="164"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC6" s="164"/>
+      <c r="AD6" s="164"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="164"/>
+      <c r="AG6" s="165"/>
     </row>
     <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="127" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
+        <v>187</v>
+      </c>
+      <c r="D7" s="166" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="30" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166" t="s">
         <v>192</v>
       </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127" t="s">
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127" t="s">
-        <v>200</v>
-      </c>
-      <c r="S7" s="127"/>
-      <c r="T7" s="127"/>
-      <c r="U7" s="127"/>
-      <c r="V7" s="127"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="127"/>
-      <c r="AE7" s="127"/>
-      <c r="AF7" s="127"/>
-      <c r="AG7" s="127"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="166"/>
+      <c r="AG7" s="166"/>
     </row>
     <row r="8" spans="1:33" ht="114" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="I8" s="16" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -8085,7 +8390,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C1">
         <f>HEX2DEC("2654")</f>
@@ -8094,22 +8399,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -8125,10 +8430,10 @@
         <v>2654</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -8157,13 +8462,13 @@
         <v>2656</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -8192,13 +8497,13 @@
         <v>2658</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -8227,7 +8532,7 @@
         <v>265A</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -8256,7 +8561,7 @@
         <v>265C</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -8285,7 +8590,7 @@
         <v>265E</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -8314,10 +8619,10 @@
         <v>2660</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -8346,7 +8651,7 @@
         <v>2662</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -8375,7 +8680,7 @@
         <v>2664</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -8404,7 +8709,7 @@
         <v>2666</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -8433,10 +8738,10 @@
         <v>2668</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -8465,7 +8770,7 @@
         <v>266A</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -8481,7 +8786,7 @@
         <v>266B</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -8497,7 +8802,7 @@
         <v>266C</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -8513,7 +8818,7 @@
         <v>266D</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -8529,7 +8834,7 @@
         <v>266E</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -8561,7 +8866,7 @@
         <v>2670</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -8590,10 +8895,10 @@
         <v>2672</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -8622,7 +8927,7 @@
         <v>2674</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -8651,7 +8956,7 @@
         <v>2676</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -8667,7 +8972,7 @@
         <v>2677</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -8696,7 +9001,7 @@
         <v>2679</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -8712,7 +9017,7 @@
         <v>267A</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E827A816-101C-40D7-A0C9-BEA1FC33354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363777E7-2078-4CFD-B5C7-EBDD71405FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
@@ -670,13 +670,6 @@
     <t>If set the NPC needs to move to a target?</t>
   </si>
   <si>
-    <t>Referenced in npcgoto
-Value used as a lookup
-into a table in Seg57,
-Record size 0x1Ch (28d)
-relationship to bit 7 in 0x15h</t>
-  </si>
-  <si>
     <t>Home Y for NPC
 When projectile, is the tile the projectile is in</t>
   </si>
@@ -872,7 +865,14 @@
 In anger npc if owner is 32d then owner is only angered if bit 7 set</t>
   </si>
   <si>
-    <t>if set ignore code been ran on similar npcs. Probably an isSpecial Flag for NPCs</t>
+    <t>Referenced in npcgoto
+Value used as a lookup
+into a table in Seg57,
+Record size 0x1Ch (28d) Pathfinding Table???
+relationship to bit 7 in 0x15h</t>
+  </si>
+  <si>
+    <t>if set ignore code been ran on similar npcs. Probably an isSpecial Flag for NPCs?</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1474,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1570,6 +1570,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1579,298 +1751,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1894,21 +1903,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2229,10 +2223,10 @@
   <dimension ref="A1:HI48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="BU11" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="BB10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="CD14" sqref="CD14"/>
+      <selection pane="bottomRight" activeCell="BV9" sqref="BV9:CC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2269,1075 +2263,1075 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="60"/>
-      <c r="BK1" s="60"/>
-      <c r="BL1" s="60"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="59" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="118"/>
+      <c r="AQ1" s="118"/>
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="118"/>
+      <c r="AX1" s="118"/>
+      <c r="AY1" s="118"/>
+      <c r="AZ1" s="118"/>
+      <c r="BA1" s="118"/>
+      <c r="BB1" s="118"/>
+      <c r="BC1" s="118"/>
+      <c r="BD1" s="118"/>
+      <c r="BE1" s="118"/>
+      <c r="BF1" s="118"/>
+      <c r="BG1" s="118"/>
+      <c r="BH1" s="118"/>
+      <c r="BI1" s="118"/>
+      <c r="BJ1" s="118"/>
+      <c r="BK1" s="118"/>
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="119"/>
+      <c r="BN1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="60"/>
-      <c r="BP1" s="60"/>
-      <c r="BQ1" s="60"/>
-      <c r="BR1" s="60"/>
-      <c r="BS1" s="60"/>
-      <c r="BT1" s="60"/>
-      <c r="BU1" s="60"/>
-      <c r="BV1" s="60"/>
-      <c r="BW1" s="60"/>
-      <c r="BX1" s="60"/>
-      <c r="BY1" s="60"/>
-      <c r="BZ1" s="60"/>
-      <c r="CA1" s="60"/>
-      <c r="CB1" s="60"/>
-      <c r="CC1" s="60"/>
-      <c r="CD1" s="60"/>
-      <c r="CE1" s="60"/>
-      <c r="CF1" s="60"/>
-      <c r="CG1" s="60"/>
-      <c r="CH1" s="60"/>
-      <c r="CI1" s="60"/>
-      <c r="CJ1" s="60"/>
-      <c r="CK1" s="60"/>
-      <c r="CL1" s="60"/>
-      <c r="CM1" s="60"/>
-      <c r="CN1" s="60"/>
-      <c r="CO1" s="60"/>
-      <c r="CP1" s="60"/>
-      <c r="CQ1" s="60"/>
-      <c r="CR1" s="60"/>
-      <c r="CS1" s="60"/>
-      <c r="CT1" s="60"/>
-      <c r="CU1" s="60"/>
-      <c r="CV1" s="60"/>
-      <c r="CW1" s="60"/>
-      <c r="CX1" s="60"/>
-      <c r="CY1" s="60"/>
-      <c r="CZ1" s="60"/>
-      <c r="DA1" s="60"/>
-      <c r="DB1" s="60"/>
-      <c r="DC1" s="60"/>
-      <c r="DD1" s="60"/>
-      <c r="DE1" s="60"/>
-      <c r="DF1" s="60"/>
-      <c r="DG1" s="60"/>
-      <c r="DH1" s="60"/>
-      <c r="DI1" s="60"/>
-      <c r="DJ1" s="60"/>
-      <c r="DK1" s="60"/>
-      <c r="DL1" s="60"/>
-      <c r="DM1" s="60"/>
-      <c r="DN1" s="60"/>
-      <c r="DO1" s="60"/>
-      <c r="DP1" s="60"/>
-      <c r="DQ1" s="60"/>
-      <c r="DR1" s="60"/>
-      <c r="DS1" s="60"/>
-      <c r="DT1" s="60"/>
-      <c r="DU1" s="60"/>
-      <c r="DV1" s="60"/>
-      <c r="DW1" s="60"/>
-      <c r="DX1" s="60"/>
-      <c r="DY1" s="60"/>
-      <c r="DZ1" s="60"/>
-      <c r="EA1" s="60"/>
-      <c r="EB1" s="60"/>
-      <c r="EC1" s="60"/>
-      <c r="ED1" s="60"/>
-      <c r="EE1" s="60"/>
-      <c r="EF1" s="60"/>
-      <c r="EG1" s="60"/>
-      <c r="EH1" s="60"/>
-      <c r="EI1" s="60"/>
-      <c r="EJ1" s="60"/>
-      <c r="EK1" s="60"/>
-      <c r="EL1" s="60"/>
-      <c r="EM1" s="60"/>
-      <c r="EN1" s="60"/>
-      <c r="EO1" s="60"/>
-      <c r="EP1" s="60"/>
-      <c r="EQ1" s="60"/>
-      <c r="ER1" s="60"/>
-      <c r="ES1" s="60"/>
-      <c r="ET1" s="60"/>
-      <c r="EU1" s="60"/>
-      <c r="EV1" s="60"/>
-      <c r="EW1" s="60"/>
-      <c r="EX1" s="60"/>
-      <c r="EY1" s="60"/>
-      <c r="EZ1" s="60"/>
-      <c r="FA1" s="60"/>
-      <c r="FB1" s="60"/>
-      <c r="FC1" s="60"/>
-      <c r="FD1" s="60"/>
-      <c r="FE1" s="60"/>
-      <c r="FF1" s="60"/>
-      <c r="FG1" s="60"/>
-      <c r="FH1" s="60"/>
-      <c r="FI1" s="60"/>
-      <c r="FJ1" s="60"/>
-      <c r="FK1" s="60"/>
-      <c r="FL1" s="60"/>
-      <c r="FM1" s="60"/>
-      <c r="FN1" s="60"/>
-      <c r="FO1" s="60"/>
-      <c r="FP1" s="60"/>
-      <c r="FQ1" s="60"/>
-      <c r="FR1" s="60"/>
-      <c r="FS1" s="60"/>
-      <c r="FT1" s="60"/>
-      <c r="FU1" s="60"/>
-      <c r="FV1" s="60"/>
-      <c r="FW1" s="60"/>
-      <c r="FX1" s="60"/>
-      <c r="FY1" s="60"/>
-      <c r="FZ1" s="60"/>
-      <c r="GA1" s="60"/>
-      <c r="GB1" s="60"/>
-      <c r="GC1" s="60"/>
-      <c r="GD1" s="60"/>
-      <c r="GE1" s="60"/>
-      <c r="GF1" s="60"/>
-      <c r="GG1" s="60"/>
-      <c r="GH1" s="60"/>
-      <c r="GI1" s="60"/>
-      <c r="GJ1" s="60"/>
-      <c r="GK1" s="60"/>
-      <c r="GL1" s="60"/>
-      <c r="GM1" s="60"/>
-      <c r="GN1" s="60"/>
-      <c r="GO1" s="60"/>
-      <c r="GP1" s="60"/>
-      <c r="GQ1" s="60"/>
-      <c r="GR1" s="60"/>
-      <c r="GS1" s="60"/>
-      <c r="GT1" s="60"/>
-      <c r="GU1" s="60"/>
-      <c r="GV1" s="60"/>
-      <c r="GW1" s="60"/>
-      <c r="GX1" s="60"/>
-      <c r="GY1" s="60"/>
-      <c r="GZ1" s="60"/>
-      <c r="HA1" s="60"/>
-      <c r="HB1" s="60"/>
-      <c r="HC1" s="60"/>
-      <c r="HD1" s="60"/>
-      <c r="HE1" s="60"/>
-      <c r="HF1" s="60"/>
-      <c r="HG1" s="60"/>
-      <c r="HH1" s="60"/>
-      <c r="HI1" s="60"/>
+      <c r="BO1" s="118"/>
+      <c r="BP1" s="118"/>
+      <c r="BQ1" s="118"/>
+      <c r="BR1" s="118"/>
+      <c r="BS1" s="118"/>
+      <c r="BT1" s="118"/>
+      <c r="BU1" s="118"/>
+      <c r="BV1" s="118"/>
+      <c r="BW1" s="118"/>
+      <c r="BX1" s="118"/>
+      <c r="BY1" s="118"/>
+      <c r="BZ1" s="118"/>
+      <c r="CA1" s="118"/>
+      <c r="CB1" s="118"/>
+      <c r="CC1" s="118"/>
+      <c r="CD1" s="118"/>
+      <c r="CE1" s="118"/>
+      <c r="CF1" s="118"/>
+      <c r="CG1" s="118"/>
+      <c r="CH1" s="118"/>
+      <c r="CI1" s="118"/>
+      <c r="CJ1" s="118"/>
+      <c r="CK1" s="118"/>
+      <c r="CL1" s="118"/>
+      <c r="CM1" s="118"/>
+      <c r="CN1" s="118"/>
+      <c r="CO1" s="118"/>
+      <c r="CP1" s="118"/>
+      <c r="CQ1" s="118"/>
+      <c r="CR1" s="118"/>
+      <c r="CS1" s="118"/>
+      <c r="CT1" s="118"/>
+      <c r="CU1" s="118"/>
+      <c r="CV1" s="118"/>
+      <c r="CW1" s="118"/>
+      <c r="CX1" s="118"/>
+      <c r="CY1" s="118"/>
+      <c r="CZ1" s="118"/>
+      <c r="DA1" s="118"/>
+      <c r="DB1" s="118"/>
+      <c r="DC1" s="118"/>
+      <c r="DD1" s="118"/>
+      <c r="DE1" s="118"/>
+      <c r="DF1" s="118"/>
+      <c r="DG1" s="118"/>
+      <c r="DH1" s="118"/>
+      <c r="DI1" s="118"/>
+      <c r="DJ1" s="118"/>
+      <c r="DK1" s="118"/>
+      <c r="DL1" s="118"/>
+      <c r="DM1" s="118"/>
+      <c r="DN1" s="118"/>
+      <c r="DO1" s="118"/>
+      <c r="DP1" s="118"/>
+      <c r="DQ1" s="118"/>
+      <c r="DR1" s="118"/>
+      <c r="DS1" s="118"/>
+      <c r="DT1" s="118"/>
+      <c r="DU1" s="118"/>
+      <c r="DV1" s="118"/>
+      <c r="DW1" s="118"/>
+      <c r="DX1" s="118"/>
+      <c r="DY1" s="118"/>
+      <c r="DZ1" s="118"/>
+      <c r="EA1" s="118"/>
+      <c r="EB1" s="118"/>
+      <c r="EC1" s="118"/>
+      <c r="ED1" s="118"/>
+      <c r="EE1" s="118"/>
+      <c r="EF1" s="118"/>
+      <c r="EG1" s="118"/>
+      <c r="EH1" s="118"/>
+      <c r="EI1" s="118"/>
+      <c r="EJ1" s="118"/>
+      <c r="EK1" s="118"/>
+      <c r="EL1" s="118"/>
+      <c r="EM1" s="118"/>
+      <c r="EN1" s="118"/>
+      <c r="EO1" s="118"/>
+      <c r="EP1" s="118"/>
+      <c r="EQ1" s="118"/>
+      <c r="ER1" s="118"/>
+      <c r="ES1" s="118"/>
+      <c r="ET1" s="118"/>
+      <c r="EU1" s="118"/>
+      <c r="EV1" s="118"/>
+      <c r="EW1" s="118"/>
+      <c r="EX1" s="118"/>
+      <c r="EY1" s="118"/>
+      <c r="EZ1" s="118"/>
+      <c r="FA1" s="118"/>
+      <c r="FB1" s="118"/>
+      <c r="FC1" s="118"/>
+      <c r="FD1" s="118"/>
+      <c r="FE1" s="118"/>
+      <c r="FF1" s="118"/>
+      <c r="FG1" s="118"/>
+      <c r="FH1" s="118"/>
+      <c r="FI1" s="118"/>
+      <c r="FJ1" s="118"/>
+      <c r="FK1" s="118"/>
+      <c r="FL1" s="118"/>
+      <c r="FM1" s="118"/>
+      <c r="FN1" s="118"/>
+      <c r="FO1" s="118"/>
+      <c r="FP1" s="118"/>
+      <c r="FQ1" s="118"/>
+      <c r="FR1" s="118"/>
+      <c r="FS1" s="118"/>
+      <c r="FT1" s="118"/>
+      <c r="FU1" s="118"/>
+      <c r="FV1" s="118"/>
+      <c r="FW1" s="118"/>
+      <c r="FX1" s="118"/>
+      <c r="FY1" s="118"/>
+      <c r="FZ1" s="118"/>
+      <c r="GA1" s="118"/>
+      <c r="GB1" s="118"/>
+      <c r="GC1" s="118"/>
+      <c r="GD1" s="118"/>
+      <c r="GE1" s="118"/>
+      <c r="GF1" s="118"/>
+      <c r="GG1" s="118"/>
+      <c r="GH1" s="118"/>
+      <c r="GI1" s="118"/>
+      <c r="GJ1" s="118"/>
+      <c r="GK1" s="118"/>
+      <c r="GL1" s="118"/>
+      <c r="GM1" s="118"/>
+      <c r="GN1" s="118"/>
+      <c r="GO1" s="118"/>
+      <c r="GP1" s="118"/>
+      <c r="GQ1" s="118"/>
+      <c r="GR1" s="118"/>
+      <c r="GS1" s="118"/>
+      <c r="GT1" s="118"/>
+      <c r="GU1" s="118"/>
+      <c r="GV1" s="118"/>
+      <c r="GW1" s="118"/>
+      <c r="GX1" s="118"/>
+      <c r="GY1" s="118"/>
+      <c r="GZ1" s="118"/>
+      <c r="HA1" s="118"/>
+      <c r="HB1" s="118"/>
+      <c r="HC1" s="118"/>
+      <c r="HD1" s="118"/>
+      <c r="HE1" s="118"/>
+      <c r="HF1" s="118"/>
+      <c r="HG1" s="118"/>
+      <c r="HH1" s="118"/>
+      <c r="HI1" s="118"/>
     </row>
     <row r="2" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="117">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="59">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="117">
         <v>1</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="59">
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="117">
         <v>2</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="59">
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="117">
         <v>3</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="59">
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="119"/>
+      <c r="AH2" s="117">
         <v>4</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="59">
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="119"/>
+      <c r="AP2" s="117">
         <v>5</v>
       </c>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="59">
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="118"/>
+      <c r="AS2" s="118"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="117">
         <v>6</v>
       </c>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="60"/>
-      <c r="BB2" s="60"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="61"/>
-      <c r="BF2" s="59">
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="118"/>
+      <c r="BD2" s="118"/>
+      <c r="BE2" s="119"/>
+      <c r="BF2" s="117">
         <v>7</v>
       </c>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="60"/>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="61"/>
-      <c r="BN2" s="59">
+      <c r="BG2" s="118"/>
+      <c r="BH2" s="118"/>
+      <c r="BI2" s="118"/>
+      <c r="BJ2" s="118"/>
+      <c r="BK2" s="118"/>
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="119"/>
+      <c r="BN2" s="117">
         <v>8</v>
       </c>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
-      <c r="BR2" s="60"/>
-      <c r="BS2" s="60"/>
-      <c r="BT2" s="60"/>
-      <c r="BU2" s="61"/>
-      <c r="BV2" s="59">
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="118"/>
+      <c r="BQ2" s="118"/>
+      <c r="BR2" s="118"/>
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="118"/>
+      <c r="BU2" s="119"/>
+      <c r="BV2" s="117">
         <v>9</v>
       </c>
-      <c r="BW2" s="60"/>
-      <c r="BX2" s="60"/>
-      <c r="BY2" s="60"/>
-      <c r="BZ2" s="60"/>
-      <c r="CA2" s="60"/>
-      <c r="CB2" s="60"/>
-      <c r="CC2" s="61"/>
-      <c r="CD2" s="59">
+      <c r="BW2" s="118"/>
+      <c r="BX2" s="118"/>
+      <c r="BY2" s="118"/>
+      <c r="BZ2" s="118"/>
+      <c r="CA2" s="118"/>
+      <c r="CB2" s="118"/>
+      <c r="CC2" s="119"/>
+      <c r="CD2" s="117">
         <v>10</v>
       </c>
-      <c r="CE2" s="60"/>
-      <c r="CF2" s="60"/>
-      <c r="CG2" s="60"/>
-      <c r="CH2" s="60"/>
-      <c r="CI2" s="60"/>
-      <c r="CJ2" s="60"/>
-      <c r="CK2" s="61"/>
-      <c r="CL2" s="59">
+      <c r="CE2" s="118"/>
+      <c r="CF2" s="118"/>
+      <c r="CG2" s="118"/>
+      <c r="CH2" s="118"/>
+      <c r="CI2" s="118"/>
+      <c r="CJ2" s="118"/>
+      <c r="CK2" s="119"/>
+      <c r="CL2" s="117">
         <v>11</v>
       </c>
-      <c r="CM2" s="60"/>
-      <c r="CN2" s="60"/>
-      <c r="CO2" s="60"/>
-      <c r="CP2" s="60"/>
-      <c r="CQ2" s="60"/>
-      <c r="CR2" s="60"/>
-      <c r="CS2" s="61"/>
-      <c r="CT2" s="59">
+      <c r="CM2" s="118"/>
+      <c r="CN2" s="118"/>
+      <c r="CO2" s="118"/>
+      <c r="CP2" s="118"/>
+      <c r="CQ2" s="118"/>
+      <c r="CR2" s="118"/>
+      <c r="CS2" s="119"/>
+      <c r="CT2" s="117">
         <v>12</v>
       </c>
-      <c r="CU2" s="60"/>
-      <c r="CV2" s="60"/>
-      <c r="CW2" s="60"/>
-      <c r="CX2" s="60"/>
-      <c r="CY2" s="60"/>
-      <c r="CZ2" s="60"/>
-      <c r="DA2" s="61"/>
-      <c r="DB2" s="59">
+      <c r="CU2" s="118"/>
+      <c r="CV2" s="118"/>
+      <c r="CW2" s="118"/>
+      <c r="CX2" s="118"/>
+      <c r="CY2" s="118"/>
+      <c r="CZ2" s="118"/>
+      <c r="DA2" s="119"/>
+      <c r="DB2" s="117">
         <v>13</v>
       </c>
-      <c r="DC2" s="60"/>
-      <c r="DD2" s="60"/>
-      <c r="DE2" s="60"/>
-      <c r="DF2" s="60"/>
-      <c r="DG2" s="60"/>
-      <c r="DH2" s="60"/>
-      <c r="DI2" s="61"/>
-      <c r="DJ2" s="59">
+      <c r="DC2" s="118"/>
+      <c r="DD2" s="118"/>
+      <c r="DE2" s="118"/>
+      <c r="DF2" s="118"/>
+      <c r="DG2" s="118"/>
+      <c r="DH2" s="118"/>
+      <c r="DI2" s="119"/>
+      <c r="DJ2" s="117">
         <v>14</v>
       </c>
-      <c r="DK2" s="60"/>
-      <c r="DL2" s="60"/>
-      <c r="DM2" s="60"/>
-      <c r="DN2" s="60"/>
-      <c r="DO2" s="60"/>
-      <c r="DP2" s="60"/>
-      <c r="DQ2" s="61"/>
-      <c r="DR2" s="59">
+      <c r="DK2" s="118"/>
+      <c r="DL2" s="118"/>
+      <c r="DM2" s="118"/>
+      <c r="DN2" s="118"/>
+      <c r="DO2" s="118"/>
+      <c r="DP2" s="118"/>
+      <c r="DQ2" s="119"/>
+      <c r="DR2" s="117">
         <v>15</v>
       </c>
-      <c r="DS2" s="60"/>
-      <c r="DT2" s="60"/>
-      <c r="DU2" s="60"/>
-      <c r="DV2" s="60"/>
-      <c r="DW2" s="60"/>
-      <c r="DX2" s="60"/>
-      <c r="DY2" s="61"/>
-      <c r="DZ2" s="59">
+      <c r="DS2" s="118"/>
+      <c r="DT2" s="118"/>
+      <c r="DU2" s="118"/>
+      <c r="DV2" s="118"/>
+      <c r="DW2" s="118"/>
+      <c r="DX2" s="118"/>
+      <c r="DY2" s="119"/>
+      <c r="DZ2" s="117">
         <v>16</v>
       </c>
-      <c r="EA2" s="60"/>
-      <c r="EB2" s="60"/>
-      <c r="EC2" s="60"/>
-      <c r="ED2" s="60"/>
-      <c r="EE2" s="60"/>
-      <c r="EF2" s="60"/>
-      <c r="EG2" s="61"/>
-      <c r="EH2" s="59">
+      <c r="EA2" s="118"/>
+      <c r="EB2" s="118"/>
+      <c r="EC2" s="118"/>
+      <c r="ED2" s="118"/>
+      <c r="EE2" s="118"/>
+      <c r="EF2" s="118"/>
+      <c r="EG2" s="119"/>
+      <c r="EH2" s="117">
         <v>17</v>
       </c>
-      <c r="EI2" s="60"/>
-      <c r="EJ2" s="60"/>
-      <c r="EK2" s="60"/>
-      <c r="EL2" s="60"/>
-      <c r="EM2" s="60"/>
-      <c r="EN2" s="60"/>
-      <c r="EO2" s="61"/>
-      <c r="EP2" s="59">
+      <c r="EI2" s="118"/>
+      <c r="EJ2" s="118"/>
+      <c r="EK2" s="118"/>
+      <c r="EL2" s="118"/>
+      <c r="EM2" s="118"/>
+      <c r="EN2" s="118"/>
+      <c r="EO2" s="119"/>
+      <c r="EP2" s="117">
         <v>18</v>
       </c>
-      <c r="EQ2" s="60"/>
-      <c r="ER2" s="60"/>
-      <c r="ES2" s="60"/>
-      <c r="ET2" s="60"/>
-      <c r="EU2" s="60"/>
-      <c r="EV2" s="60"/>
-      <c r="EW2" s="61"/>
-      <c r="EX2" s="59">
+      <c r="EQ2" s="118"/>
+      <c r="ER2" s="118"/>
+      <c r="ES2" s="118"/>
+      <c r="ET2" s="118"/>
+      <c r="EU2" s="118"/>
+      <c r="EV2" s="118"/>
+      <c r="EW2" s="119"/>
+      <c r="EX2" s="117">
         <v>19</v>
       </c>
-      <c r="EY2" s="60"/>
-      <c r="EZ2" s="60"/>
-      <c r="FA2" s="60"/>
-      <c r="FB2" s="60"/>
-      <c r="FC2" s="60"/>
-      <c r="FD2" s="60"/>
-      <c r="FE2" s="61"/>
-      <c r="FF2" s="59">
+      <c r="EY2" s="118"/>
+      <c r="EZ2" s="118"/>
+      <c r="FA2" s="118"/>
+      <c r="FB2" s="118"/>
+      <c r="FC2" s="118"/>
+      <c r="FD2" s="118"/>
+      <c r="FE2" s="119"/>
+      <c r="FF2" s="117">
         <v>20</v>
       </c>
-      <c r="FG2" s="60"/>
-      <c r="FH2" s="60"/>
-      <c r="FI2" s="60"/>
-      <c r="FJ2" s="60"/>
-      <c r="FK2" s="60"/>
-      <c r="FL2" s="60"/>
-      <c r="FM2" s="61"/>
-      <c r="FN2" s="59">
+      <c r="FG2" s="118"/>
+      <c r="FH2" s="118"/>
+      <c r="FI2" s="118"/>
+      <c r="FJ2" s="118"/>
+      <c r="FK2" s="118"/>
+      <c r="FL2" s="118"/>
+      <c r="FM2" s="119"/>
+      <c r="FN2" s="117">
         <v>21</v>
       </c>
-      <c r="FO2" s="60"/>
-      <c r="FP2" s="60"/>
-      <c r="FQ2" s="60"/>
-      <c r="FR2" s="60"/>
-      <c r="FS2" s="60"/>
-      <c r="FT2" s="60"/>
-      <c r="FU2" s="61"/>
-      <c r="FV2" s="59">
+      <c r="FO2" s="118"/>
+      <c r="FP2" s="118"/>
+      <c r="FQ2" s="118"/>
+      <c r="FR2" s="118"/>
+      <c r="FS2" s="118"/>
+      <c r="FT2" s="118"/>
+      <c r="FU2" s="119"/>
+      <c r="FV2" s="117">
         <v>22</v>
       </c>
-      <c r="FW2" s="60"/>
-      <c r="FX2" s="60"/>
-      <c r="FY2" s="60"/>
-      <c r="FZ2" s="60"/>
-      <c r="GA2" s="60"/>
-      <c r="GB2" s="60"/>
-      <c r="GC2" s="61"/>
-      <c r="GD2" s="59">
+      <c r="FW2" s="118"/>
+      <c r="FX2" s="118"/>
+      <c r="FY2" s="118"/>
+      <c r="FZ2" s="118"/>
+      <c r="GA2" s="118"/>
+      <c r="GB2" s="118"/>
+      <c r="GC2" s="119"/>
+      <c r="GD2" s="117">
         <v>23</v>
       </c>
-      <c r="GE2" s="60"/>
-      <c r="GF2" s="60"/>
-      <c r="GG2" s="60"/>
-      <c r="GH2" s="60"/>
-      <c r="GI2" s="60"/>
-      <c r="GJ2" s="60"/>
-      <c r="GK2" s="61"/>
-      <c r="GL2" s="59">
+      <c r="GE2" s="118"/>
+      <c r="GF2" s="118"/>
+      <c r="GG2" s="118"/>
+      <c r="GH2" s="118"/>
+      <c r="GI2" s="118"/>
+      <c r="GJ2" s="118"/>
+      <c r="GK2" s="119"/>
+      <c r="GL2" s="117">
         <v>24</v>
       </c>
-      <c r="GM2" s="60"/>
-      <c r="GN2" s="60"/>
-      <c r="GO2" s="60"/>
-      <c r="GP2" s="60"/>
-      <c r="GQ2" s="60"/>
-      <c r="GR2" s="60"/>
-      <c r="GS2" s="61"/>
-      <c r="GT2" s="59">
+      <c r="GM2" s="118"/>
+      <c r="GN2" s="118"/>
+      <c r="GO2" s="118"/>
+      <c r="GP2" s="118"/>
+      <c r="GQ2" s="118"/>
+      <c r="GR2" s="118"/>
+      <c r="GS2" s="119"/>
+      <c r="GT2" s="117">
         <v>25</v>
       </c>
-      <c r="GU2" s="60"/>
-      <c r="GV2" s="60"/>
-      <c r="GW2" s="60"/>
-      <c r="GX2" s="60"/>
-      <c r="GY2" s="60"/>
-      <c r="GZ2" s="60"/>
-      <c r="HA2" s="61"/>
-      <c r="HB2" s="59">
+      <c r="GU2" s="118"/>
+      <c r="GV2" s="118"/>
+      <c r="GW2" s="118"/>
+      <c r="GX2" s="118"/>
+      <c r="GY2" s="118"/>
+      <c r="GZ2" s="118"/>
+      <c r="HA2" s="119"/>
+      <c r="HB2" s="117">
         <v>26</v>
       </c>
-      <c r="HC2" s="60"/>
-      <c r="HD2" s="60"/>
-      <c r="HE2" s="60"/>
-      <c r="HF2" s="60"/>
-      <c r="HG2" s="60"/>
-      <c r="HH2" s="60"/>
-      <c r="HI2" s="61"/>
+      <c r="HC2" s="118"/>
+      <c r="HD2" s="118"/>
+      <c r="HE2" s="118"/>
+      <c r="HF2" s="118"/>
+      <c r="HG2" s="118"/>
+      <c r="HH2" s="118"/>
+      <c r="HI2" s="119"/>
     </row>
     <row r="3" spans="1:217" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="117" t="str">
         <f>DEC2HEX(B2)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="59" t="str">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="117" t="str">
         <f t="shared" ref="J3" si="0">DEC2HEX(J2)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="59" t="str">
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="117" t="str">
         <f t="shared" ref="R3" si="1">DEC2HEX(R2)</f>
         <v>2</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="59" t="str">
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="117" t="str">
         <f t="shared" ref="Z3" si="2">DEC2HEX(Z2)</f>
         <v>3</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="59" t="str">
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="117" t="str">
         <f t="shared" ref="AH3" si="3">DEC2HEX(AH2)</f>
         <v>4</v>
       </c>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="59" t="str">
+      <c r="AI3" s="118"/>
+      <c r="AJ3" s="118"/>
+      <c r="AK3" s="118"/>
+      <c r="AL3" s="118"/>
+      <c r="AM3" s="118"/>
+      <c r="AN3" s="118"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="117" t="str">
         <f t="shared" ref="AP3" si="4">DEC2HEX(AP2)</f>
         <v>5</v>
       </c>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="59" t="str">
+      <c r="AQ3" s="118"/>
+      <c r="AR3" s="118"/>
+      <c r="AS3" s="118"/>
+      <c r="AT3" s="118"/>
+      <c r="AU3" s="118"/>
+      <c r="AV3" s="118"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="117" t="str">
         <f t="shared" ref="AX3" si="5">DEC2HEX(AX2)</f>
         <v>6</v>
       </c>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="59" t="str">
+      <c r="AY3" s="118"/>
+      <c r="AZ3" s="118"/>
+      <c r="BA3" s="118"/>
+      <c r="BB3" s="118"/>
+      <c r="BC3" s="118"/>
+      <c r="BD3" s="118"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="117" t="str">
         <f t="shared" ref="BF3" si="6">DEC2HEX(BF2)</f>
         <v>7</v>
       </c>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="59" t="str">
+      <c r="BG3" s="118"/>
+      <c r="BH3" s="118"/>
+      <c r="BI3" s="118"/>
+      <c r="BJ3" s="118"/>
+      <c r="BK3" s="118"/>
+      <c r="BL3" s="118"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="117" t="str">
         <f t="shared" ref="BN3" si="7">DEC2HEX(BN2)</f>
         <v>8</v>
       </c>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
-      <c r="BR3" s="60"/>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="60"/>
-      <c r="BU3" s="61"/>
-      <c r="BV3" s="59" t="str">
+      <c r="BO3" s="118"/>
+      <c r="BP3" s="118"/>
+      <c r="BQ3" s="118"/>
+      <c r="BR3" s="118"/>
+      <c r="BS3" s="118"/>
+      <c r="BT3" s="118"/>
+      <c r="BU3" s="119"/>
+      <c r="BV3" s="117" t="str">
         <f t="shared" ref="BV3" si="8">DEC2HEX(BV2)</f>
         <v>9</v>
       </c>
-      <c r="BW3" s="60"/>
-      <c r="BX3" s="60"/>
-      <c r="BY3" s="60"/>
-      <c r="BZ3" s="60"/>
-      <c r="CA3" s="60"/>
-      <c r="CB3" s="60"/>
-      <c r="CC3" s="61"/>
-      <c r="CD3" s="59" t="str">
+      <c r="BW3" s="118"/>
+      <c r="BX3" s="118"/>
+      <c r="BY3" s="118"/>
+      <c r="BZ3" s="118"/>
+      <c r="CA3" s="118"/>
+      <c r="CB3" s="118"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="117" t="str">
         <f t="shared" ref="CD3" si="9">DEC2HEX(CD2)</f>
         <v>A</v>
       </c>
-      <c r="CE3" s="60"/>
-      <c r="CF3" s="60"/>
-      <c r="CG3" s="60"/>
-      <c r="CH3" s="60"/>
-      <c r="CI3" s="60"/>
-      <c r="CJ3" s="60"/>
-      <c r="CK3" s="61"/>
-      <c r="CL3" s="59" t="str">
+      <c r="CE3" s="118"/>
+      <c r="CF3" s="118"/>
+      <c r="CG3" s="118"/>
+      <c r="CH3" s="118"/>
+      <c r="CI3" s="118"/>
+      <c r="CJ3" s="118"/>
+      <c r="CK3" s="119"/>
+      <c r="CL3" s="117" t="str">
         <f t="shared" ref="CL3" si="10">DEC2HEX(CL2)</f>
         <v>B</v>
       </c>
-      <c r="CM3" s="60"/>
-      <c r="CN3" s="60"/>
-      <c r="CO3" s="60"/>
-      <c r="CP3" s="60"/>
-      <c r="CQ3" s="60"/>
-      <c r="CR3" s="60"/>
-      <c r="CS3" s="61"/>
-      <c r="CT3" s="59" t="str">
+      <c r="CM3" s="118"/>
+      <c r="CN3" s="118"/>
+      <c r="CO3" s="118"/>
+      <c r="CP3" s="118"/>
+      <c r="CQ3" s="118"/>
+      <c r="CR3" s="118"/>
+      <c r="CS3" s="119"/>
+      <c r="CT3" s="117" t="str">
         <f t="shared" ref="CT3" si="11">DEC2HEX(CT2)</f>
         <v>C</v>
       </c>
-      <c r="CU3" s="60"/>
-      <c r="CV3" s="60"/>
-      <c r="CW3" s="60"/>
-      <c r="CX3" s="60"/>
-      <c r="CY3" s="60"/>
-      <c r="CZ3" s="60"/>
-      <c r="DA3" s="61"/>
-      <c r="DB3" s="59" t="str">
+      <c r="CU3" s="118"/>
+      <c r="CV3" s="118"/>
+      <c r="CW3" s="118"/>
+      <c r="CX3" s="118"/>
+      <c r="CY3" s="118"/>
+      <c r="CZ3" s="118"/>
+      <c r="DA3" s="119"/>
+      <c r="DB3" s="117" t="str">
         <f t="shared" ref="DB3" si="12">DEC2HEX(DB2)</f>
         <v>D</v>
       </c>
-      <c r="DC3" s="60"/>
-      <c r="DD3" s="60"/>
-      <c r="DE3" s="60"/>
-      <c r="DF3" s="60"/>
-      <c r="DG3" s="60"/>
-      <c r="DH3" s="60"/>
-      <c r="DI3" s="61"/>
-      <c r="DJ3" s="59" t="str">
+      <c r="DC3" s="118"/>
+      <c r="DD3" s="118"/>
+      <c r="DE3" s="118"/>
+      <c r="DF3" s="118"/>
+      <c r="DG3" s="118"/>
+      <c r="DH3" s="118"/>
+      <c r="DI3" s="119"/>
+      <c r="DJ3" s="117" t="str">
         <f t="shared" ref="DJ3" si="13">DEC2HEX(DJ2)</f>
         <v>E</v>
       </c>
-      <c r="DK3" s="60"/>
-      <c r="DL3" s="60"/>
-      <c r="DM3" s="60"/>
-      <c r="DN3" s="60"/>
-      <c r="DO3" s="60"/>
-      <c r="DP3" s="60"/>
-      <c r="DQ3" s="61"/>
-      <c r="DR3" s="59" t="str">
+      <c r="DK3" s="118"/>
+      <c r="DL3" s="118"/>
+      <c r="DM3" s="118"/>
+      <c r="DN3" s="118"/>
+      <c r="DO3" s="118"/>
+      <c r="DP3" s="118"/>
+      <c r="DQ3" s="119"/>
+      <c r="DR3" s="117" t="str">
         <f t="shared" ref="DR3" si="14">DEC2HEX(DR2)</f>
         <v>F</v>
       </c>
-      <c r="DS3" s="60"/>
-      <c r="DT3" s="60"/>
-      <c r="DU3" s="60"/>
-      <c r="DV3" s="60"/>
-      <c r="DW3" s="60"/>
-      <c r="DX3" s="60"/>
-      <c r="DY3" s="61"/>
-      <c r="DZ3" s="59" t="str">
+      <c r="DS3" s="118"/>
+      <c r="DT3" s="118"/>
+      <c r="DU3" s="118"/>
+      <c r="DV3" s="118"/>
+      <c r="DW3" s="118"/>
+      <c r="DX3" s="118"/>
+      <c r="DY3" s="119"/>
+      <c r="DZ3" s="117" t="str">
         <f t="shared" ref="DZ3" si="15">DEC2HEX(DZ2)</f>
         <v>10</v>
       </c>
-      <c r="EA3" s="60"/>
-      <c r="EB3" s="60"/>
-      <c r="EC3" s="60"/>
-      <c r="ED3" s="60"/>
-      <c r="EE3" s="60"/>
-      <c r="EF3" s="60"/>
-      <c r="EG3" s="61"/>
-      <c r="EH3" s="59" t="str">
+      <c r="EA3" s="118"/>
+      <c r="EB3" s="118"/>
+      <c r="EC3" s="118"/>
+      <c r="ED3" s="118"/>
+      <c r="EE3" s="118"/>
+      <c r="EF3" s="118"/>
+      <c r="EG3" s="119"/>
+      <c r="EH3" s="117" t="str">
         <f t="shared" ref="EH3" si="16">DEC2HEX(EH2)</f>
         <v>11</v>
       </c>
-      <c r="EI3" s="60"/>
-      <c r="EJ3" s="60"/>
-      <c r="EK3" s="60"/>
-      <c r="EL3" s="60"/>
-      <c r="EM3" s="60"/>
-      <c r="EN3" s="60"/>
-      <c r="EO3" s="61"/>
-      <c r="EP3" s="59" t="str">
+      <c r="EI3" s="118"/>
+      <c r="EJ3" s="118"/>
+      <c r="EK3" s="118"/>
+      <c r="EL3" s="118"/>
+      <c r="EM3" s="118"/>
+      <c r="EN3" s="118"/>
+      <c r="EO3" s="119"/>
+      <c r="EP3" s="117" t="str">
         <f t="shared" ref="EP3" si="17">DEC2HEX(EP2)</f>
         <v>12</v>
       </c>
-      <c r="EQ3" s="60"/>
-      <c r="ER3" s="60"/>
-      <c r="ES3" s="60"/>
-      <c r="ET3" s="60"/>
-      <c r="EU3" s="60"/>
-      <c r="EV3" s="60"/>
-      <c r="EW3" s="61"/>
-      <c r="EX3" s="59" t="str">
+      <c r="EQ3" s="118"/>
+      <c r="ER3" s="118"/>
+      <c r="ES3" s="118"/>
+      <c r="ET3" s="118"/>
+      <c r="EU3" s="118"/>
+      <c r="EV3" s="118"/>
+      <c r="EW3" s="119"/>
+      <c r="EX3" s="117" t="str">
         <f t="shared" ref="EX3" si="18">DEC2HEX(EX2)</f>
         <v>13</v>
       </c>
-      <c r="EY3" s="60"/>
-      <c r="EZ3" s="60"/>
-      <c r="FA3" s="60"/>
-      <c r="FB3" s="60"/>
-      <c r="FC3" s="60"/>
-      <c r="FD3" s="60"/>
-      <c r="FE3" s="61"/>
-      <c r="FF3" s="59" t="str">
+      <c r="EY3" s="118"/>
+      <c r="EZ3" s="118"/>
+      <c r="FA3" s="118"/>
+      <c r="FB3" s="118"/>
+      <c r="FC3" s="118"/>
+      <c r="FD3" s="118"/>
+      <c r="FE3" s="119"/>
+      <c r="FF3" s="117" t="str">
         <f t="shared" ref="FF3" si="19">DEC2HEX(FF2)</f>
         <v>14</v>
       </c>
-      <c r="FG3" s="60"/>
-      <c r="FH3" s="60"/>
-      <c r="FI3" s="60"/>
-      <c r="FJ3" s="60"/>
-      <c r="FK3" s="60"/>
-      <c r="FL3" s="60"/>
-      <c r="FM3" s="61"/>
-      <c r="FN3" s="59" t="str">
+      <c r="FG3" s="118"/>
+      <c r="FH3" s="118"/>
+      <c r="FI3" s="118"/>
+      <c r="FJ3" s="118"/>
+      <c r="FK3" s="118"/>
+      <c r="FL3" s="118"/>
+      <c r="FM3" s="119"/>
+      <c r="FN3" s="117" t="str">
         <f t="shared" ref="FN3" si="20">DEC2HEX(FN2)</f>
         <v>15</v>
       </c>
-      <c r="FO3" s="60"/>
-      <c r="FP3" s="60"/>
-      <c r="FQ3" s="60"/>
-      <c r="FR3" s="60"/>
-      <c r="FS3" s="60"/>
-      <c r="FT3" s="60"/>
-      <c r="FU3" s="61"/>
-      <c r="FV3" s="59" t="str">
+      <c r="FO3" s="118"/>
+      <c r="FP3" s="118"/>
+      <c r="FQ3" s="118"/>
+      <c r="FR3" s="118"/>
+      <c r="FS3" s="118"/>
+      <c r="FT3" s="118"/>
+      <c r="FU3" s="119"/>
+      <c r="FV3" s="117" t="str">
         <f t="shared" ref="FV3" si="21">DEC2HEX(FV2)</f>
         <v>16</v>
       </c>
-      <c r="FW3" s="60"/>
-      <c r="FX3" s="60"/>
-      <c r="FY3" s="60"/>
-      <c r="FZ3" s="60"/>
-      <c r="GA3" s="60"/>
-      <c r="GB3" s="60"/>
-      <c r="GC3" s="61"/>
-      <c r="GD3" s="59" t="str">
+      <c r="FW3" s="118"/>
+      <c r="FX3" s="118"/>
+      <c r="FY3" s="118"/>
+      <c r="FZ3" s="118"/>
+      <c r="GA3" s="118"/>
+      <c r="GB3" s="118"/>
+      <c r="GC3" s="119"/>
+      <c r="GD3" s="117" t="str">
         <f t="shared" ref="GD3" si="22">DEC2HEX(GD2)</f>
         <v>17</v>
       </c>
-      <c r="GE3" s="60"/>
-      <c r="GF3" s="60"/>
-      <c r="GG3" s="60"/>
-      <c r="GH3" s="60"/>
-      <c r="GI3" s="60"/>
-      <c r="GJ3" s="60"/>
-      <c r="GK3" s="61"/>
-      <c r="GL3" s="59" t="str">
+      <c r="GE3" s="118"/>
+      <c r="GF3" s="118"/>
+      <c r="GG3" s="118"/>
+      <c r="GH3" s="118"/>
+      <c r="GI3" s="118"/>
+      <c r="GJ3" s="118"/>
+      <c r="GK3" s="119"/>
+      <c r="GL3" s="117" t="str">
         <f t="shared" ref="GL3" si="23">DEC2HEX(GL2)</f>
         <v>18</v>
       </c>
-      <c r="GM3" s="60"/>
-      <c r="GN3" s="60"/>
-      <c r="GO3" s="60"/>
-      <c r="GP3" s="60"/>
-      <c r="GQ3" s="60"/>
-      <c r="GR3" s="60"/>
-      <c r="GS3" s="61"/>
-      <c r="GT3" s="59" t="str">
+      <c r="GM3" s="118"/>
+      <c r="GN3" s="118"/>
+      <c r="GO3" s="118"/>
+      <c r="GP3" s="118"/>
+      <c r="GQ3" s="118"/>
+      <c r="GR3" s="118"/>
+      <c r="GS3" s="119"/>
+      <c r="GT3" s="117" t="str">
         <f t="shared" ref="GT3" si="24">DEC2HEX(GT2)</f>
         <v>19</v>
       </c>
-      <c r="GU3" s="60"/>
-      <c r="GV3" s="60"/>
-      <c r="GW3" s="60"/>
-      <c r="GX3" s="60"/>
-      <c r="GY3" s="60"/>
-      <c r="GZ3" s="60"/>
-      <c r="HA3" s="61"/>
-      <c r="HB3" s="59" t="str">
+      <c r="GU3" s="118"/>
+      <c r="GV3" s="118"/>
+      <c r="GW3" s="118"/>
+      <c r="GX3" s="118"/>
+      <c r="GY3" s="118"/>
+      <c r="GZ3" s="118"/>
+      <c r="HA3" s="119"/>
+      <c r="HB3" s="117" t="str">
         <f t="shared" ref="HB3" si="25">DEC2HEX(HB2)</f>
         <v>1A</v>
       </c>
-      <c r="HC3" s="60"/>
-      <c r="HD3" s="60"/>
-      <c r="HE3" s="60"/>
-      <c r="HF3" s="60"/>
-      <c r="HG3" s="60"/>
-      <c r="HH3" s="60"/>
-      <c r="HI3" s="61"/>
+      <c r="HC3" s="118"/>
+      <c r="HD3" s="118"/>
+      <c r="HE3" s="118"/>
+      <c r="HF3" s="118"/>
+      <c r="HG3" s="118"/>
+      <c r="HH3" s="118"/>
+      <c r="HI3" s="119"/>
     </row>
     <row r="4" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="117">
         <v>0</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="59">
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="117">
         <v>2</v>
       </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="59">
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="118"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="117">
         <v>4</v>
       </c>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="59">
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="118"/>
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="118"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="118"/>
+      <c r="AR4" s="118"/>
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="118"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="117">
         <v>6</v>
       </c>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="59">
+      <c r="AY4" s="118"/>
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="118"/>
+      <c r="BB4" s="118"/>
+      <c r="BC4" s="118"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="118"/>
+      <c r="BF4" s="118"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="118"/>
+      <c r="BJ4" s="118"/>
+      <c r="BK4" s="118"/>
+      <c r="BL4" s="118"/>
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="117">
         <v>8</v>
       </c>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="61"/>
-      <c r="BV4" s="59">
+      <c r="BO4" s="118"/>
+      <c r="BP4" s="118"/>
+      <c r="BQ4" s="118"/>
+      <c r="BR4" s="118"/>
+      <c r="BS4" s="118"/>
+      <c r="BT4" s="118"/>
+      <c r="BU4" s="119"/>
+      <c r="BV4" s="117">
         <v>9</v>
       </c>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="60"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="61"/>
-      <c r="CD4" s="59" t="str">
+      <c r="BW4" s="118"/>
+      <c r="BX4" s="118"/>
+      <c r="BY4" s="118"/>
+      <c r="BZ4" s="118"/>
+      <c r="CA4" s="118"/>
+      <c r="CB4" s="118"/>
+      <c r="CC4" s="119"/>
+      <c r="CD4" s="117" t="str">
         <f>CD3</f>
         <v>A</v>
       </c>
-      <c r="CE4" s="60"/>
-      <c r="CF4" s="60"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="60"/>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="60"/>
-      <c r="CK4" s="61"/>
-      <c r="CL4" s="59" t="str">
+      <c r="CE4" s="118"/>
+      <c r="CF4" s="118"/>
+      <c r="CG4" s="118"/>
+      <c r="CH4" s="118"/>
+      <c r="CI4" s="118"/>
+      <c r="CJ4" s="118"/>
+      <c r="CK4" s="119"/>
+      <c r="CL4" s="117" t="str">
         <f>CL3</f>
         <v>B</v>
       </c>
-      <c r="CM4" s="60"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="60"/>
-      <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="60"/>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="60"/>
-      <c r="DA4" s="61"/>
-      <c r="DB4" s="59" t="str">
+      <c r="CM4" s="118"/>
+      <c r="CN4" s="118"/>
+      <c r="CO4" s="118"/>
+      <c r="CP4" s="118"/>
+      <c r="CQ4" s="118"/>
+      <c r="CR4" s="118"/>
+      <c r="CS4" s="118"/>
+      <c r="CT4" s="118"/>
+      <c r="CU4" s="118"/>
+      <c r="CV4" s="118"/>
+      <c r="CW4" s="118"/>
+      <c r="CX4" s="118"/>
+      <c r="CY4" s="118"/>
+      <c r="CZ4" s="118"/>
+      <c r="DA4" s="119"/>
+      <c r="DB4" s="117" t="str">
         <f>DB3</f>
         <v>D</v>
       </c>
-      <c r="DC4" s="60"/>
-      <c r="DD4" s="60"/>
-      <c r="DE4" s="60"/>
-      <c r="DF4" s="60"/>
-      <c r="DG4" s="60"/>
-      <c r="DH4" s="60"/>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="60"/>
-      <c r="DK4" s="60"/>
-      <c r="DL4" s="60"/>
-      <c r="DM4" s="60"/>
-      <c r="DN4" s="60"/>
-      <c r="DO4" s="60"/>
-      <c r="DP4" s="60"/>
-      <c r="DQ4" s="61"/>
-      <c r="DR4" s="59" t="str">
+      <c r="DC4" s="118"/>
+      <c r="DD4" s="118"/>
+      <c r="DE4" s="118"/>
+      <c r="DF4" s="118"/>
+      <c r="DG4" s="118"/>
+      <c r="DH4" s="118"/>
+      <c r="DI4" s="118"/>
+      <c r="DJ4" s="118"/>
+      <c r="DK4" s="118"/>
+      <c r="DL4" s="118"/>
+      <c r="DM4" s="118"/>
+      <c r="DN4" s="118"/>
+      <c r="DO4" s="118"/>
+      <c r="DP4" s="118"/>
+      <c r="DQ4" s="119"/>
+      <c r="DR4" s="117" t="str">
         <f t="shared" ref="DR4" si="26">DR3</f>
         <v>F</v>
       </c>
-      <c r="DS4" s="60"/>
-      <c r="DT4" s="60"/>
-      <c r="DU4" s="60"/>
-      <c r="DV4" s="60"/>
-      <c r="DW4" s="60"/>
-      <c r="DX4" s="60"/>
-      <c r="DY4" s="60"/>
-      <c r="DZ4" s="60"/>
-      <c r="EA4" s="60"/>
-      <c r="EB4" s="60"/>
-      <c r="EC4" s="60"/>
-      <c r="ED4" s="60"/>
-      <c r="EE4" s="60"/>
-      <c r="EF4" s="60"/>
-      <c r="EG4" s="61"/>
-      <c r="EH4" s="59" t="str">
+      <c r="DS4" s="118"/>
+      <c r="DT4" s="118"/>
+      <c r="DU4" s="118"/>
+      <c r="DV4" s="118"/>
+      <c r="DW4" s="118"/>
+      <c r="DX4" s="118"/>
+      <c r="DY4" s="118"/>
+      <c r="DZ4" s="118"/>
+      <c r="EA4" s="118"/>
+      <c r="EB4" s="118"/>
+      <c r="EC4" s="118"/>
+      <c r="ED4" s="118"/>
+      <c r="EE4" s="118"/>
+      <c r="EF4" s="118"/>
+      <c r="EG4" s="119"/>
+      <c r="EH4" s="117" t="str">
         <f t="shared" ref="EH4" si="27">EH3</f>
         <v>11</v>
       </c>
-      <c r="EI4" s="60"/>
-      <c r="EJ4" s="60"/>
-      <c r="EK4" s="60"/>
-      <c r="EL4" s="60"/>
-      <c r="EM4" s="60"/>
-      <c r="EN4" s="60"/>
-      <c r="EO4" s="61"/>
-      <c r="EP4" s="59" t="str">
+      <c r="EI4" s="118"/>
+      <c r="EJ4" s="118"/>
+      <c r="EK4" s="118"/>
+      <c r="EL4" s="118"/>
+      <c r="EM4" s="118"/>
+      <c r="EN4" s="118"/>
+      <c r="EO4" s="119"/>
+      <c r="EP4" s="117" t="str">
         <f t="shared" ref="EP4" si="28">EP3</f>
         <v>12</v>
       </c>
-      <c r="EQ4" s="60"/>
-      <c r="ER4" s="60"/>
-      <c r="ES4" s="60"/>
-      <c r="ET4" s="60"/>
-      <c r="EU4" s="60"/>
-      <c r="EV4" s="60"/>
-      <c r="EW4" s="61"/>
-      <c r="EX4" s="59" t="str">
+      <c r="EQ4" s="118"/>
+      <c r="ER4" s="118"/>
+      <c r="ES4" s="118"/>
+      <c r="ET4" s="118"/>
+      <c r="EU4" s="118"/>
+      <c r="EV4" s="118"/>
+      <c r="EW4" s="119"/>
+      <c r="EX4" s="117" t="str">
         <f t="shared" ref="EX4" si="29">EX3</f>
         <v>13</v>
       </c>
-      <c r="EY4" s="60"/>
-      <c r="EZ4" s="60"/>
-      <c r="FA4" s="60"/>
-      <c r="FB4" s="60"/>
-      <c r="FC4" s="60"/>
-      <c r="FD4" s="60"/>
-      <c r="FE4" s="61"/>
-      <c r="FF4" s="59" t="str">
+      <c r="EY4" s="118"/>
+      <c r="EZ4" s="118"/>
+      <c r="FA4" s="118"/>
+      <c r="FB4" s="118"/>
+      <c r="FC4" s="118"/>
+      <c r="FD4" s="118"/>
+      <c r="FE4" s="119"/>
+      <c r="FF4" s="117" t="str">
         <f t="shared" ref="FF4" si="30">FF3</f>
         <v>14</v>
       </c>
-      <c r="FG4" s="60"/>
-      <c r="FH4" s="60"/>
-      <c r="FI4" s="60"/>
-      <c r="FJ4" s="60"/>
-      <c r="FK4" s="60"/>
-      <c r="FL4" s="60"/>
-      <c r="FM4" s="61"/>
-      <c r="FN4" s="59" t="str">
+      <c r="FG4" s="118"/>
+      <c r="FH4" s="118"/>
+      <c r="FI4" s="118"/>
+      <c r="FJ4" s="118"/>
+      <c r="FK4" s="118"/>
+      <c r="FL4" s="118"/>
+      <c r="FM4" s="119"/>
+      <c r="FN4" s="117" t="str">
         <f t="shared" ref="FN4" si="31">FN3</f>
         <v>15</v>
       </c>
-      <c r="FO4" s="60"/>
-      <c r="FP4" s="60"/>
-      <c r="FQ4" s="60"/>
-      <c r="FR4" s="60"/>
-      <c r="FS4" s="60"/>
-      <c r="FT4" s="60"/>
-      <c r="FU4" s="61"/>
-      <c r="FV4" s="59" t="str">
+      <c r="FO4" s="118"/>
+      <c r="FP4" s="118"/>
+      <c r="FQ4" s="118"/>
+      <c r="FR4" s="118"/>
+      <c r="FS4" s="118"/>
+      <c r="FT4" s="118"/>
+      <c r="FU4" s="119"/>
+      <c r="FV4" s="117" t="str">
         <f t="shared" ref="FV4" si="32">FV3</f>
         <v>16</v>
       </c>
-      <c r="FW4" s="60"/>
-      <c r="FX4" s="60"/>
-      <c r="FY4" s="60"/>
-      <c r="FZ4" s="60"/>
-      <c r="GA4" s="60"/>
-      <c r="GB4" s="60"/>
-      <c r="GC4" s="60"/>
-      <c r="GD4" s="60"/>
-      <c r="GE4" s="60"/>
-      <c r="GF4" s="60"/>
-      <c r="GG4" s="60"/>
-      <c r="GH4" s="60"/>
-      <c r="GI4" s="60"/>
-      <c r="GJ4" s="60"/>
-      <c r="GK4" s="61"/>
-      <c r="GL4" s="59" t="str">
+      <c r="FW4" s="118"/>
+      <c r="FX4" s="118"/>
+      <c r="FY4" s="118"/>
+      <c r="FZ4" s="118"/>
+      <c r="GA4" s="118"/>
+      <c r="GB4" s="118"/>
+      <c r="GC4" s="118"/>
+      <c r="GD4" s="118"/>
+      <c r="GE4" s="118"/>
+      <c r="GF4" s="118"/>
+      <c r="GG4" s="118"/>
+      <c r="GH4" s="118"/>
+      <c r="GI4" s="118"/>
+      <c r="GJ4" s="118"/>
+      <c r="GK4" s="119"/>
+      <c r="GL4" s="117" t="str">
         <f t="shared" ref="GL4" si="33">GL3</f>
         <v>18</v>
       </c>
-      <c r="GM4" s="60"/>
-      <c r="GN4" s="60"/>
-      <c r="GO4" s="60"/>
-      <c r="GP4" s="60"/>
-      <c r="GQ4" s="60"/>
-      <c r="GR4" s="60"/>
-      <c r="GS4" s="61"/>
-      <c r="GT4" s="59" t="str">
+      <c r="GM4" s="118"/>
+      <c r="GN4" s="118"/>
+      <c r="GO4" s="118"/>
+      <c r="GP4" s="118"/>
+      <c r="GQ4" s="118"/>
+      <c r="GR4" s="118"/>
+      <c r="GS4" s="119"/>
+      <c r="GT4" s="117" t="str">
         <f t="shared" ref="GT4" si="34">GT3</f>
         <v>19</v>
       </c>
-      <c r="GU4" s="60"/>
-      <c r="GV4" s="60"/>
-      <c r="GW4" s="60"/>
-      <c r="GX4" s="60"/>
-      <c r="GY4" s="60"/>
-      <c r="GZ4" s="60"/>
-      <c r="HA4" s="61"/>
-      <c r="HB4" s="59" t="str">
+      <c r="GU4" s="118"/>
+      <c r="GV4" s="118"/>
+      <c r="GW4" s="118"/>
+      <c r="GX4" s="118"/>
+      <c r="GY4" s="118"/>
+      <c r="GZ4" s="118"/>
+      <c r="HA4" s="119"/>
+      <c r="HB4" s="117" t="str">
         <f t="shared" ref="HB4" si="35">HB3</f>
         <v>1A</v>
       </c>
-      <c r="HC4" s="60"/>
-      <c r="HD4" s="60"/>
-      <c r="HE4" s="60"/>
-      <c r="HF4" s="60"/>
-      <c r="HG4" s="60"/>
-      <c r="HH4" s="60"/>
-      <c r="HI4" s="61"/>
+      <c r="HC4" s="118"/>
+      <c r="HD4" s="118"/>
+      <c r="HE4" s="118"/>
+      <c r="HF4" s="118"/>
+      <c r="HG4" s="118"/>
+      <c r="HH4" s="118"/>
+      <c r="HI4" s="119"/>
     </row>
     <row r="5" spans="1:217" ht="14.65" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
@@ -4877,151 +4871,151 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="89" t="s">
+      <c r="G7" s="124"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="86" t="s">
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="87"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="86" t="s">
+      <c r="S7" s="127"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="87"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="125" t="s">
+      <c r="V7" s="127"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="86" t="s">
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="86" t="s">
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="128"/>
+      <c r="AH7" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="88"/>
-      <c r="AR7" s="86" t="s">
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="127"/>
+      <c r="AO7" s="127"/>
+      <c r="AP7" s="127"/>
+      <c r="AQ7" s="128"/>
+      <c r="AR7" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="88"/>
-      <c r="AX7" s="86" t="s">
+      <c r="AS7" s="127"/>
+      <c r="AT7" s="127"/>
+      <c r="AU7" s="127"/>
+      <c r="AV7" s="127"/>
+      <c r="AW7" s="128"/>
+      <c r="AX7" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="87"/>
-      <c r="AZ7" s="87"/>
-      <c r="BA7" s="87"/>
-      <c r="BB7" s="87"/>
-      <c r="BC7" s="87"/>
-      <c r="BD7" s="87"/>
-      <c r="BE7" s="87"/>
-      <c r="BF7" s="87"/>
-      <c r="BG7" s="88"/>
-      <c r="BH7" s="86" t="s">
+      <c r="AY7" s="127"/>
+      <c r="AZ7" s="127"/>
+      <c r="BA7" s="127"/>
+      <c r="BB7" s="127"/>
+      <c r="BC7" s="127"/>
+      <c r="BD7" s="127"/>
+      <c r="BE7" s="127"/>
+      <c r="BF7" s="127"/>
+      <c r="BG7" s="128"/>
+      <c r="BH7" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="BI7" s="87"/>
-      <c r="BJ7" s="87"/>
-      <c r="BK7" s="87"/>
-      <c r="BL7" s="87"/>
-      <c r="BM7" s="88"/>
-      <c r="BN7" s="86" t="s">
+      <c r="BI7" s="127"/>
+      <c r="BJ7" s="127"/>
+      <c r="BK7" s="127"/>
+      <c r="BL7" s="127"/>
+      <c r="BM7" s="128"/>
+      <c r="BN7" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="BO7" s="87"/>
-      <c r="BP7" s="87"/>
-      <c r="BQ7" s="87"/>
-      <c r="BR7" s="87"/>
-      <c r="BS7" s="87"/>
-      <c r="BT7" s="87"/>
-      <c r="BU7" s="88"/>
-      <c r="BV7" s="86" t="s">
+      <c r="BO7" s="127"/>
+      <c r="BP7" s="127"/>
+      <c r="BQ7" s="127"/>
+      <c r="BR7" s="127"/>
+      <c r="BS7" s="127"/>
+      <c r="BT7" s="127"/>
+      <c r="BU7" s="128"/>
+      <c r="BV7" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="BW7" s="87"/>
-      <c r="BX7" s="87"/>
-      <c r="BY7" s="87"/>
-      <c r="BZ7" s="87"/>
-      <c r="CA7" s="87"/>
-      <c r="CB7" s="87"/>
-      <c r="CC7" s="88"/>
-      <c r="CD7" s="169" t="s">
+      <c r="BW7" s="127"/>
+      <c r="BX7" s="127"/>
+      <c r="BY7" s="127"/>
+      <c r="BZ7" s="127"/>
+      <c r="CA7" s="127"/>
+      <c r="CB7" s="127"/>
+      <c r="CC7" s="128"/>
+      <c r="CD7" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="CE7" s="168"/>
-      <c r="CF7" s="168"/>
-      <c r="CG7" s="168"/>
-      <c r="CH7" s="77"/>
-      <c r="CI7" s="77"/>
-      <c r="CJ7" s="77"/>
-      <c r="CK7" s="85"/>
-      <c r="CL7" s="86" t="s">
+      <c r="CE7" s="96"/>
+      <c r="CF7" s="96"/>
+      <c r="CG7" s="96"/>
+      <c r="CH7" s="96"/>
+      <c r="CI7" s="96"/>
+      <c r="CJ7" s="96"/>
+      <c r="CK7" s="148"/>
+      <c r="CL7" s="126" t="s">
         <v>199</v>
       </c>
-      <c r="CM7" s="87"/>
-      <c r="CN7" s="87"/>
-      <c r="CO7" s="88"/>
-      <c r="CP7" s="90" t="s">
+      <c r="CM7" s="127"/>
+      <c r="CN7" s="127"/>
+      <c r="CO7" s="128"/>
+      <c r="CP7" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="CQ7" s="91"/>
-      <c r="CR7" s="91"/>
-      <c r="CS7" s="91"/>
-      <c r="CT7" s="91"/>
-      <c r="CU7" s="91"/>
-      <c r="CV7" s="91"/>
-      <c r="CW7" s="92"/>
-      <c r="CX7" s="86" t="s">
+      <c r="CQ7" s="145"/>
+      <c r="CR7" s="145"/>
+      <c r="CS7" s="145"/>
+      <c r="CT7" s="145"/>
+      <c r="CU7" s="145"/>
+      <c r="CV7" s="145"/>
+      <c r="CW7" s="146"/>
+      <c r="CX7" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="CY7" s="87"/>
-      <c r="CZ7" s="87"/>
-      <c r="DA7" s="88"/>
-      <c r="DB7" s="86" t="s">
+      <c r="CY7" s="127"/>
+      <c r="CZ7" s="127"/>
+      <c r="DA7" s="128"/>
+      <c r="DB7" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="DC7" s="88"/>
+      <c r="DC7" s="128"/>
       <c r="DD7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="DE7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="DF7" s="27"/>
       <c r="DG7" s="57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="DH7" s="28"/>
       <c r="DI7" s="28"/>
@@ -5029,64 +5023,64 @@
       <c r="DK7" s="28"/>
       <c r="DL7" s="28"/>
       <c r="DM7" s="29"/>
-      <c r="DN7" s="83" t="s">
+      <c r="DN7" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="DO7" s="84"/>
-      <c r="DP7" s="84"/>
-      <c r="DQ7" s="93"/>
-      <c r="DR7" s="72" t="s">
-        <v>237</v>
-      </c>
-      <c r="DS7" s="73"/>
-      <c r="DT7" s="73"/>
-      <c r="DU7" s="74"/>
-      <c r="DV7" s="102" t="s">
+      <c r="DO7" s="124"/>
+      <c r="DP7" s="124"/>
+      <c r="DQ7" s="125"/>
+      <c r="DR7" s="135" t="s">
+        <v>236</v>
+      </c>
+      <c r="DS7" s="136"/>
+      <c r="DT7" s="136"/>
+      <c r="DU7" s="137"/>
+      <c r="DV7" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="DW7" s="103"/>
-      <c r="DX7" s="103"/>
-      <c r="DY7" s="103"/>
-      <c r="DZ7" s="103"/>
-      <c r="EA7" s="104"/>
-      <c r="EB7" s="105" t="s">
-        <v>250</v>
-      </c>
-      <c r="EC7" s="103"/>
-      <c r="ED7" s="103"/>
-      <c r="EE7" s="103"/>
-      <c r="EF7" s="103"/>
-      <c r="EG7" s="104"/>
-      <c r="EH7" s="59" t="s">
+      <c r="DW7" s="154"/>
+      <c r="DX7" s="154"/>
+      <c r="DY7" s="154"/>
+      <c r="DZ7" s="154"/>
+      <c r="EA7" s="155"/>
+      <c r="EB7" s="156" t="s">
+        <v>249</v>
+      </c>
+      <c r="EC7" s="154"/>
+      <c r="ED7" s="154"/>
+      <c r="EE7" s="154"/>
+      <c r="EF7" s="154"/>
+      <c r="EG7" s="155"/>
+      <c r="EH7" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="EI7" s="60"/>
-      <c r="EJ7" s="60"/>
-      <c r="EK7" s="60"/>
-      <c r="EL7" s="60"/>
-      <c r="EM7" s="60"/>
-      <c r="EN7" s="60"/>
-      <c r="EO7" s="61"/>
-      <c r="EP7" s="90" t="s">
+      <c r="EI7" s="118"/>
+      <c r="EJ7" s="118"/>
+      <c r="EK7" s="118"/>
+      <c r="EL7" s="118"/>
+      <c r="EM7" s="118"/>
+      <c r="EN7" s="118"/>
+      <c r="EO7" s="119"/>
+      <c r="EP7" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="EQ7" s="91"/>
-      <c r="ER7" s="91"/>
-      <c r="ES7" s="91"/>
-      <c r="ET7" s="91"/>
-      <c r="EU7" s="91"/>
-      <c r="EV7" s="91"/>
-      <c r="EW7" s="92"/>
+      <c r="EQ7" s="145"/>
+      <c r="ER7" s="145"/>
+      <c r="ES7" s="145"/>
+      <c r="ET7" s="145"/>
+      <c r="EU7" s="145"/>
+      <c r="EV7" s="145"/>
+      <c r="EW7" s="146"/>
       <c r="EX7" s="22"/>
-      <c r="EY7" s="70" t="s">
+      <c r="EY7" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="EZ7" s="115"/>
-      <c r="FA7" s="115"/>
-      <c r="FB7" s="115"/>
-      <c r="FC7" s="115"/>
-      <c r="FD7" s="115"/>
-      <c r="FE7" s="71"/>
+      <c r="EZ7" s="133"/>
+      <c r="FA7" s="133"/>
+      <c r="FB7" s="133"/>
+      <c r="FC7" s="133"/>
+      <c r="FD7" s="133"/>
+      <c r="FE7" s="134"/>
       <c r="FF7" s="2" t="s">
         <v>59</v>
       </c>
@@ -5096,102 +5090,102 @@
       <c r="FH7" s="24"/>
       <c r="FI7" s="24"/>
       <c r="FJ7" s="25"/>
-      <c r="FK7" s="116" t="s">
+      <c r="FK7" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="FL7" s="117"/>
-      <c r="FM7" s="118"/>
+      <c r="FL7" s="139"/>
+      <c r="FM7" s="140"/>
       <c r="FN7" s="41"/>
       <c r="FO7" s="42"/>
-      <c r="FP7" s="119" t="s">
+      <c r="FP7" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="FQ7" s="120"/>
-      <c r="FR7" s="120"/>
-      <c r="FS7" s="120"/>
-      <c r="FT7" s="120"/>
-      <c r="FU7" s="121"/>
-      <c r="FV7" s="73" t="s">
+      <c r="FQ7" s="142"/>
+      <c r="FR7" s="142"/>
+      <c r="FS7" s="142"/>
+      <c r="FT7" s="142"/>
+      <c r="FU7" s="143"/>
+      <c r="FV7" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="FW7" s="73"/>
-      <c r="FX7" s="73"/>
-      <c r="FY7" s="73"/>
-      <c r="FZ7" s="73"/>
-      <c r="GA7" s="74"/>
-      <c r="GB7" s="72" t="s">
+      <c r="FW7" s="136"/>
+      <c r="FX7" s="136"/>
+      <c r="FY7" s="136"/>
+      <c r="FZ7" s="136"/>
+      <c r="GA7" s="137"/>
+      <c r="GB7" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="GC7" s="73"/>
-      <c r="GD7" s="73"/>
-      <c r="GE7" s="73"/>
-      <c r="GF7" s="73"/>
-      <c r="GG7" s="74"/>
-      <c r="GH7" s="59" t="s">
+      <c r="GC7" s="136"/>
+      <c r="GD7" s="136"/>
+      <c r="GE7" s="136"/>
+      <c r="GF7" s="136"/>
+      <c r="GG7" s="137"/>
+      <c r="GH7" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="GI7" s="60"/>
-      <c r="GJ7" s="60"/>
-      <c r="GK7" s="61"/>
-      <c r="GL7" s="59" t="s">
+      <c r="GI7" s="118"/>
+      <c r="GJ7" s="118"/>
+      <c r="GK7" s="119"/>
+      <c r="GL7" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="GM7" s="60"/>
-      <c r="GN7" s="61"/>
-      <c r="GO7" s="72" t="s">
+      <c r="GM7" s="118"/>
+      <c r="GN7" s="119"/>
+      <c r="GO7" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="GP7" s="73"/>
-      <c r="GQ7" s="73"/>
-      <c r="GR7" s="73"/>
-      <c r="GS7" s="74"/>
+      <c r="GP7" s="136"/>
+      <c r="GQ7" s="136"/>
+      <c r="GR7" s="136"/>
+      <c r="GS7" s="137"/>
       <c r="GT7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="GU7" s="2"/>
-      <c r="GV7" s="65" t="s">
+      <c r="GV7" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="GW7" s="66"/>
-      <c r="GX7" s="66"/>
-      <c r="GY7" s="66"/>
-      <c r="GZ7" s="66"/>
-      <c r="HA7" s="67"/>
-      <c r="HB7" s="72" t="s">
+      <c r="GW7" s="105"/>
+      <c r="GX7" s="105"/>
+      <c r="GY7" s="105"/>
+      <c r="GZ7" s="105"/>
+      <c r="HA7" s="150"/>
+      <c r="HB7" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="HC7" s="73"/>
-      <c r="HD7" s="73"/>
-      <c r="HE7" s="73"/>
-      <c r="HF7" s="73"/>
-      <c r="HG7" s="73"/>
-      <c r="HH7" s="73"/>
-      <c r="HI7" s="74"/>
+      <c r="HC7" s="136"/>
+      <c r="HD7" s="136"/>
+      <c r="HE7" s="136"/>
+      <c r="HF7" s="136"/>
+      <c r="HG7" s="136"/>
+      <c r="HH7" s="136"/>
+      <c r="HI7" s="137"/>
     </row>
     <row r="8" spans="1:217" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="124"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
       <c r="R8" t="s">
         <v>131</v>
       </c>
       <c r="U8" t="s">
         <v>130</v>
       </c>
-      <c r="X8" s="70">
+      <c r="X8" s="132">
         <v>380</v>
       </c>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="71"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="134"/>
       <c r="AD8" t="s">
         <v>122</v>
       </c>
@@ -5218,70 +5212,70 @@
       <c r="CI8" s="47"/>
       <c r="CJ8" s="47"/>
       <c r="CK8" s="48"/>
-      <c r="CL8" s="67" t="s">
+      <c r="CL8" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="CM8" s="62"/>
-      <c r="CN8" s="62"/>
-      <c r="CO8" s="62"/>
-      <c r="CP8" s="62"/>
-      <c r="CQ8" s="62"/>
-      <c r="CR8" s="62"/>
-      <c r="CS8" s="62"/>
-      <c r="CT8" s="62"/>
-      <c r="CU8" s="62"/>
-      <c r="CV8" s="62"/>
-      <c r="CW8" s="62"/>
-      <c r="CX8" s="62"/>
-      <c r="CY8" s="62"/>
-      <c r="CZ8" s="62"/>
-      <c r="DA8" s="62"/>
-      <c r="DB8" s="62" t="s">
+      <c r="CM8" s="151"/>
+      <c r="CN8" s="151"/>
+      <c r="CO8" s="151"/>
+      <c r="CP8" s="151"/>
+      <c r="CQ8" s="151"/>
+      <c r="CR8" s="151"/>
+      <c r="CS8" s="151"/>
+      <c r="CT8" s="151"/>
+      <c r="CU8" s="151"/>
+      <c r="CV8" s="151"/>
+      <c r="CW8" s="151"/>
+      <c r="CX8" s="151"/>
+      <c r="CY8" s="151"/>
+      <c r="CZ8" s="151"/>
+      <c r="DA8" s="151"/>
+      <c r="DB8" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="DC8" s="62"/>
-      <c r="DD8" s="62"/>
-      <c r="DE8" s="62"/>
-      <c r="DF8" s="62"/>
-      <c r="DG8" s="101"/>
-      <c r="DH8" s="62"/>
-      <c r="DI8" s="62"/>
-      <c r="DJ8" s="62"/>
-      <c r="DK8" s="62"/>
-      <c r="DL8" s="62"/>
-      <c r="DM8" s="62"/>
-      <c r="DN8" s="62"/>
-      <c r="DO8" s="62"/>
-      <c r="DP8" s="62"/>
-      <c r="DQ8" s="62"/>
-      <c r="DR8" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="DS8" s="62"/>
-      <c r="DT8" s="62"/>
-      <c r="DU8" s="62"/>
-      <c r="DV8" s="62"/>
-      <c r="DW8" s="62"/>
-      <c r="DX8" s="62"/>
-      <c r="DY8" s="62"/>
-      <c r="DZ8" s="62"/>
-      <c r="EA8" s="62"/>
-      <c r="EB8" s="62"/>
-      <c r="EC8" s="62"/>
-      <c r="ED8" s="62"/>
-      <c r="EE8" s="62"/>
-      <c r="EF8" s="62"/>
-      <c r="EG8" s="62"/>
-      <c r="EH8" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="EI8" s="66"/>
-      <c r="EJ8" s="66"/>
-      <c r="EK8" s="66"/>
-      <c r="EL8" s="66"/>
-      <c r="EM8" s="66"/>
-      <c r="EN8" s="66"/>
-      <c r="EO8" s="66"/>
+      <c r="DC8" s="151"/>
+      <c r="DD8" s="151"/>
+      <c r="DE8" s="151"/>
+      <c r="DF8" s="151"/>
+      <c r="DG8" s="152"/>
+      <c r="DH8" s="151"/>
+      <c r="DI8" s="151"/>
+      <c r="DJ8" s="151"/>
+      <c r="DK8" s="151"/>
+      <c r="DL8" s="151"/>
+      <c r="DM8" s="151"/>
+      <c r="DN8" s="151"/>
+      <c r="DO8" s="151"/>
+      <c r="DP8" s="151"/>
+      <c r="DQ8" s="151"/>
+      <c r="DR8" s="151" t="s">
+        <v>237</v>
+      </c>
+      <c r="DS8" s="151"/>
+      <c r="DT8" s="151"/>
+      <c r="DU8" s="151"/>
+      <c r="DV8" s="151"/>
+      <c r="DW8" s="151"/>
+      <c r="DX8" s="151"/>
+      <c r="DY8" s="151"/>
+      <c r="DZ8" s="151"/>
+      <c r="EA8" s="151"/>
+      <c r="EB8" s="151"/>
+      <c r="EC8" s="151"/>
+      <c r="ED8" s="151"/>
+      <c r="EE8" s="151"/>
+      <c r="EF8" s="151"/>
+      <c r="EG8" s="151"/>
+      <c r="EH8" s="104" t="s">
+        <v>227</v>
+      </c>
+      <c r="EI8" s="105"/>
+      <c r="EJ8" s="105"/>
+      <c r="EK8" s="105"/>
+      <c r="EL8" s="105"/>
+      <c r="EM8" s="105"/>
+      <c r="EN8" s="105"/>
+      <c r="EO8" s="105"/>
       <c r="FH8" t="s">
         <v>123</v>
       </c>
@@ -5303,8 +5297,8 @@
       </c>
       <c r="GV8" s="22"/>
       <c r="GW8" s="22"/>
-      <c r="GX8" s="70"/>
-      <c r="GY8" s="71"/>
+      <c r="GX8" s="132"/>
+      <c r="GY8" s="134"/>
       <c r="GZ8" s="22"/>
       <c r="HA8" s="22"/>
       <c r="HI8" s="15"/>
@@ -5313,369 +5307,369 @@
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="75" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="94" t="s">
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="95"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="94" t="s">
+      <c r="S9" s="86"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="V9" s="95"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="94" t="s">
+      <c r="V9" s="86"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="94" t="s">
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="94" t="s">
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AI9" s="95"/>
-      <c r="AJ9" s="95"/>
-      <c r="AK9" s="95"/>
-      <c r="AL9" s="95"/>
-      <c r="AM9" s="95"/>
-      <c r="AN9" s="95"/>
-      <c r="AO9" s="95"/>
-      <c r="AP9" s="95"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="94" t="s">
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="AS9" s="95"/>
-      <c r="AT9" s="95"/>
-      <c r="AU9" s="95"/>
-      <c r="AV9" s="95"/>
-      <c r="AW9" s="96"/>
-      <c r="AX9" s="95" t="s">
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="AY9" s="95"/>
-      <c r="AZ9" s="95"/>
-      <c r="BA9" s="95"/>
-      <c r="BB9" s="95"/>
-      <c r="BC9" s="95"/>
-      <c r="BD9" s="95"/>
-      <c r="BE9" s="95"/>
-      <c r="BF9" s="95"/>
-      <c r="BG9" s="96"/>
-      <c r="BH9" s="94" t="s">
+      <c r="AY9" s="86"/>
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="86"/>
+      <c r="BF9" s="86"/>
+      <c r="BG9" s="87"/>
+      <c r="BH9" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="BI9" s="95"/>
-      <c r="BJ9" s="95"/>
-      <c r="BK9" s="95"/>
-      <c r="BL9" s="95"/>
-      <c r="BM9" s="96"/>
-      <c r="BN9" s="159" t="s">
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="86"/>
+      <c r="BM9" s="87"/>
+      <c r="BN9" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="75"/>
-      <c r="BQ9" s="75"/>
-      <c r="BR9" s="75"/>
-      <c r="BS9" s="75"/>
-      <c r="BT9" s="75"/>
-      <c r="BU9" s="76"/>
-      <c r="BV9" s="94" t="s">
+      <c r="BO9" s="93"/>
+      <c r="BP9" s="93"/>
+      <c r="BQ9" s="93"/>
+      <c r="BR9" s="93"/>
+      <c r="BS9" s="93"/>
+      <c r="BT9" s="93"/>
+      <c r="BU9" s="94"/>
+      <c r="BV9" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="BW9" s="75"/>
-      <c r="BX9" s="75"/>
-      <c r="BY9" s="75"/>
-      <c r="BZ9" s="75"/>
-      <c r="CA9" s="75"/>
-      <c r="CB9" s="75"/>
-      <c r="CC9" s="76"/>
-      <c r="CD9" s="171" t="s">
-        <v>251</v>
-      </c>
-      <c r="CE9" s="95" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF9" s="95"/>
-      <c r="CG9" s="95"/>
-      <c r="CH9" s="95" t="s">
-        <v>222</v>
-      </c>
-      <c r="CI9" s="95"/>
-      <c r="CJ9" s="95"/>
-      <c r="CK9" s="96"/>
-      <c r="CL9" s="94" t="s">
+      <c r="BW9" s="93"/>
+      <c r="BX9" s="93"/>
+      <c r="BY9" s="93"/>
+      <c r="BZ9" s="93"/>
+      <c r="CA9" s="93"/>
+      <c r="CB9" s="93"/>
+      <c r="CC9" s="94"/>
+      <c r="CD9" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="CE9" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="CF9" s="86"/>
+      <c r="CG9" s="86"/>
+      <c r="CH9" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="CI9" s="86"/>
+      <c r="CJ9" s="86"/>
+      <c r="CK9" s="87"/>
+      <c r="CL9" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="CM9" s="75"/>
-      <c r="CN9" s="75"/>
-      <c r="CO9" s="75"/>
-      <c r="CP9" s="75"/>
-      <c r="CQ9" s="75"/>
-      <c r="CR9" s="75"/>
-      <c r="CS9" s="75"/>
-      <c r="CT9" s="75"/>
-      <c r="CU9" s="75"/>
-      <c r="CV9" s="75"/>
-      <c r="CW9" s="75"/>
-      <c r="CX9" s="75"/>
-      <c r="CY9" s="75"/>
-      <c r="CZ9" s="75"/>
-      <c r="DA9" s="75"/>
-      <c r="DB9" s="145" t="s">
-        <v>239</v>
-      </c>
-      <c r="DC9" s="146"/>
-      <c r="DD9" s="157" t="s">
-        <v>248</v>
-      </c>
-      <c r="DE9" s="157" t="s">
-        <v>246</v>
+      <c r="CM9" s="93"/>
+      <c r="CN9" s="93"/>
+      <c r="CO9" s="93"/>
+      <c r="CP9" s="93"/>
+      <c r="CQ9" s="93"/>
+      <c r="CR9" s="93"/>
+      <c r="CS9" s="93"/>
+      <c r="CT9" s="93"/>
+      <c r="CU9" s="93"/>
+      <c r="CV9" s="93"/>
+      <c r="CW9" s="93"/>
+      <c r="CX9" s="93"/>
+      <c r="CY9" s="93"/>
+      <c r="CZ9" s="93"/>
+      <c r="DA9" s="93"/>
+      <c r="DB9" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="DC9" s="72"/>
+      <c r="DD9" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="DE9" s="83" t="s">
+        <v>245</v>
       </c>
       <c r="DF9" s="54"/>
-      <c r="DG9" s="151" t="s">
-        <v>245</v>
+      <c r="DG9" s="77" t="s">
+        <v>244</v>
       </c>
       <c r="DH9" s="54"/>
       <c r="DI9" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="DJ9" s="145" t="s">
+        <v>252</v>
+      </c>
+      <c r="DJ9" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="DK9" s="154"/>
-      <c r="DL9" s="154"/>
-      <c r="DM9" s="146"/>
-      <c r="DN9" s="145" t="s">
-        <v>243</v>
-      </c>
-      <c r="DO9" s="154"/>
-      <c r="DP9" s="154"/>
-      <c r="DQ9" s="146"/>
-      <c r="DR9" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="DS9" s="132"/>
-      <c r="DT9" s="132"/>
-      <c r="DU9" s="132"/>
-      <c r="DV9" s="94" t="s">
-        <v>230</v>
-      </c>
-      <c r="DW9" s="95"/>
-      <c r="DX9" s="95"/>
-      <c r="DY9" s="95"/>
-      <c r="DZ9" s="95"/>
-      <c r="EA9" s="96"/>
-      <c r="EB9" s="94" t="s">
+      <c r="DK9" s="80"/>
+      <c r="DL9" s="80"/>
+      <c r="DM9" s="72"/>
+      <c r="DN9" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="DO9" s="80"/>
+      <c r="DP9" s="80"/>
+      <c r="DQ9" s="72"/>
+      <c r="DR9" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="DS9" s="107"/>
+      <c r="DT9" s="107"/>
+      <c r="DU9" s="107"/>
+      <c r="DV9" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="EC9" s="95"/>
-      <c r="ED9" s="95"/>
-      <c r="EE9" s="95"/>
-      <c r="EF9" s="95"/>
-      <c r="EG9" s="96"/>
-      <c r="EP9" s="94" t="s">
-        <v>226</v>
-      </c>
-      <c r="EQ9" s="95"/>
-      <c r="ER9" s="95"/>
-      <c r="ES9" s="95"/>
-      <c r="ET9" s="95"/>
-      <c r="EU9" s="95"/>
-      <c r="EV9" s="95"/>
-      <c r="EW9" s="96"/>
-      <c r="EX9" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="EY9" s="95"/>
-      <c r="EZ9" s="95"/>
-      <c r="FA9" s="95"/>
-      <c r="FB9" s="95"/>
-      <c r="FC9" s="95"/>
-      <c r="FD9" s="95"/>
-      <c r="FE9" s="96"/>
+      <c r="DW9" s="86"/>
+      <c r="DX9" s="86"/>
+      <c r="DY9" s="86"/>
+      <c r="DZ9" s="86"/>
+      <c r="EA9" s="87"/>
+      <c r="EB9" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="EC9" s="86"/>
+      <c r="ED9" s="86"/>
+      <c r="EE9" s="86"/>
+      <c r="EF9" s="86"/>
+      <c r="EG9" s="87"/>
+      <c r="EP9" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="EQ9" s="86"/>
+      <c r="ER9" s="86"/>
+      <c r="ES9" s="86"/>
+      <c r="ET9" s="86"/>
+      <c r="EU9" s="86"/>
+      <c r="EV9" s="86"/>
+      <c r="EW9" s="87"/>
+      <c r="EX9" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="EY9" s="86"/>
+      <c r="EZ9" s="86"/>
+      <c r="FA9" s="86"/>
+      <c r="FB9" s="86"/>
+      <c r="FC9" s="86"/>
+      <c r="FD9" s="86"/>
+      <c r="FE9" s="87"/>
       <c r="FG9" t="s">
-        <v>224</v>
-      </c>
-      <c r="FK9" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="FL9" s="108"/>
-      <c r="FM9" s="139"/>
-      <c r="FN9" s="94" t="s">
+      <c r="FK9" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="FL9" s="112"/>
+      <c r="FM9" s="113"/>
+      <c r="FN9" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="FO9" s="96"/>
+      <c r="FO9" s="87"/>
       <c r="FP9" s="16"/>
       <c r="FQ9" s="49"/>
       <c r="FR9" s="49"/>
       <c r="FU9" s="31"/>
-      <c r="FV9" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="FW9" s="75"/>
-      <c r="FX9" s="75"/>
-      <c r="FY9" s="75"/>
-      <c r="FZ9" s="75"/>
-      <c r="GA9" s="76"/>
-      <c r="GB9" s="94" t="s">
+      <c r="FV9" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="GC9" s="75"/>
-      <c r="GD9" s="75"/>
-      <c r="GE9" s="75"/>
-      <c r="GF9" s="75"/>
-      <c r="GG9" s="76"/>
-      <c r="GH9" s="63" t="s">
+      <c r="FW9" s="93"/>
+      <c r="FX9" s="93"/>
+      <c r="FY9" s="93"/>
+      <c r="FZ9" s="93"/>
+      <c r="GA9" s="94"/>
+      <c r="GB9" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="GI9" s="64"/>
-      <c r="GJ9" s="64"/>
-      <c r="GK9" s="64"/>
-      <c r="GL9" s="112"/>
-      <c r="GM9" s="112"/>
-      <c r="GN9" s="114" t="s">
+      <c r="GC9" s="93"/>
+      <c r="GD9" s="93"/>
+      <c r="GE9" s="93"/>
+      <c r="GF9" s="93"/>
+      <c r="GG9" s="94"/>
+      <c r="GH9" s="88" t="s">
+        <v>257</v>
+      </c>
+      <c r="GI9" s="65"/>
+      <c r="GJ9" s="65"/>
+      <c r="GK9" s="65"/>
+      <c r="GL9" s="108"/>
+      <c r="GM9" s="108"/>
+      <c r="GN9" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="GO9" s="94" t="s">
+      <c r="GO9" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="GP9" s="95"/>
-      <c r="GQ9" s="95"/>
-      <c r="GR9" s="95"/>
-      <c r="GS9" s="96"/>
-      <c r="GT9" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="GU9" s="95"/>
-      <c r="GV9" s="95"/>
-      <c r="GW9" s="95"/>
-      <c r="GX9" s="95"/>
-      <c r="GY9" s="95"/>
-      <c r="GZ9" s="95"/>
-      <c r="HA9" s="97"/>
-      <c r="HB9" s="94" t="s">
+      <c r="GP9" s="86"/>
+      <c r="GQ9" s="86"/>
+      <c r="GR9" s="86"/>
+      <c r="GS9" s="87"/>
+      <c r="GT9" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="GU9" s="86"/>
+      <c r="GV9" s="86"/>
+      <c r="GW9" s="86"/>
+      <c r="GX9" s="86"/>
+      <c r="GY9" s="86"/>
+      <c r="GZ9" s="86"/>
+      <c r="HA9" s="89"/>
+      <c r="HB9" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="HC9" s="95"/>
-      <c r="HD9" s="95"/>
-      <c r="HE9" s="95"/>
-      <c r="HF9" s="95"/>
-      <c r="HG9" s="95"/>
-      <c r="HH9" s="95"/>
-      <c r="HI9" s="96"/>
+      <c r="HC9" s="86"/>
+      <c r="HD9" s="86"/>
+      <c r="HE9" s="86"/>
+      <c r="HF9" s="86"/>
+      <c r="HG9" s="86"/>
+      <c r="HH9" s="86"/>
+      <c r="HI9" s="87"/>
     </row>
     <row r="10" spans="1:217" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="7"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="63"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="97"/>
-      <c r="BH10" s="63"/>
-      <c r="BI10" s="64"/>
-      <c r="BJ10" s="64"/>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="97"/>
-      <c r="BN10" s="79"/>
-      <c r="BO10" s="77"/>
-      <c r="BP10" s="77"/>
-      <c r="BQ10" s="77"/>
-      <c r="BR10" s="77"/>
-      <c r="BS10" s="77"/>
-      <c r="BT10" s="77"/>
-      <c r="BU10" s="78"/>
-      <c r="BV10" s="79"/>
-      <c r="BW10" s="77"/>
-      <c r="BX10" s="77"/>
-      <c r="BY10" s="77"/>
-      <c r="BZ10" s="77"/>
-      <c r="CA10" s="77"/>
-      <c r="CB10" s="77"/>
-      <c r="CC10" s="78"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="89"/>
+      <c r="BH10" s="88"/>
+      <c r="BI10" s="65"/>
+      <c r="BJ10" s="65"/>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="89"/>
+      <c r="BN10" s="95"/>
+      <c r="BO10" s="96"/>
+      <c r="BP10" s="96"/>
+      <c r="BQ10" s="96"/>
+      <c r="BR10" s="96"/>
+      <c r="BS10" s="96"/>
+      <c r="BT10" s="96"/>
+      <c r="BU10" s="97"/>
+      <c r="BV10" s="95"/>
+      <c r="BW10" s="96"/>
+      <c r="BX10" s="96"/>
+      <c r="BY10" s="96"/>
+      <c r="BZ10" s="96"/>
+      <c r="CA10" s="96"/>
+      <c r="CB10" s="96"/>
+      <c r="CC10" s="97"/>
       <c r="CD10" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CE10" s="16"/>
       <c r="CF10" s="16"/>
@@ -5684,203 +5678,203 @@
       <c r="CI10" s="16"/>
       <c r="CJ10" s="16"/>
       <c r="CK10" s="51"/>
-      <c r="CL10" s="79"/>
-      <c r="CM10" s="77"/>
-      <c r="CN10" s="77"/>
-      <c r="CO10" s="77"/>
-      <c r="CP10" s="77"/>
-      <c r="CQ10" s="77"/>
-      <c r="CR10" s="77"/>
-      <c r="CS10" s="77"/>
-      <c r="CT10" s="77"/>
-      <c r="CU10" s="77"/>
-      <c r="CV10" s="77"/>
-      <c r="CW10" s="77"/>
-      <c r="CX10" s="77"/>
-      <c r="CY10" s="77"/>
-      <c r="CZ10" s="77"/>
-      <c r="DA10" s="77"/>
-      <c r="DB10" s="147"/>
-      <c r="DC10" s="148"/>
-      <c r="DD10" s="158"/>
-      <c r="DE10" s="158"/>
+      <c r="CL10" s="95"/>
+      <c r="CM10" s="96"/>
+      <c r="CN10" s="96"/>
+      <c r="CO10" s="96"/>
+      <c r="CP10" s="96"/>
+      <c r="CQ10" s="96"/>
+      <c r="CR10" s="96"/>
+      <c r="CS10" s="96"/>
+      <c r="CT10" s="96"/>
+      <c r="CU10" s="96"/>
+      <c r="CV10" s="96"/>
+      <c r="CW10" s="96"/>
+      <c r="CX10" s="96"/>
+      <c r="CY10" s="96"/>
+      <c r="CZ10" s="96"/>
+      <c r="DA10" s="96"/>
+      <c r="DB10" s="73"/>
+      <c r="DC10" s="74"/>
+      <c r="DD10" s="84"/>
+      <c r="DE10" s="84"/>
       <c r="DF10" s="56"/>
-      <c r="DG10" s="152"/>
+      <c r="DG10" s="78"/>
       <c r="DH10" s="56"/>
       <c r="DI10" s="55"/>
-      <c r="DJ10" s="147"/>
-      <c r="DK10" s="155"/>
-      <c r="DL10" s="155"/>
-      <c r="DM10" s="148"/>
-      <c r="DN10" s="147"/>
-      <c r="DO10" s="155"/>
-      <c r="DP10" s="155"/>
-      <c r="DQ10" s="148"/>
+      <c r="DJ10" s="73"/>
+      <c r="DK10" s="81"/>
+      <c r="DL10" s="81"/>
+      <c r="DM10" s="74"/>
+      <c r="DN10" s="73"/>
+      <c r="DO10" s="81"/>
+      <c r="DP10" s="81"/>
+      <c r="DQ10" s="74"/>
       <c r="DR10" s="16"/>
       <c r="DS10" s="16"/>
       <c r="DT10" s="16"/>
       <c r="DU10" s="16"/>
-      <c r="DV10" s="63"/>
-      <c r="DW10" s="64"/>
-      <c r="DX10" s="64"/>
-      <c r="DY10" s="64"/>
-      <c r="DZ10" s="64"/>
-      <c r="EA10" s="97"/>
-      <c r="EB10" s="63"/>
-      <c r="EC10" s="64"/>
-      <c r="ED10" s="64"/>
-      <c r="EE10" s="64"/>
-      <c r="EF10" s="64"/>
-      <c r="EG10" s="97"/>
-      <c r="EP10" s="63"/>
-      <c r="EQ10" s="64"/>
-      <c r="ER10" s="64"/>
-      <c r="ES10" s="64"/>
-      <c r="ET10" s="64"/>
-      <c r="EU10" s="64"/>
-      <c r="EV10" s="64"/>
-      <c r="EW10" s="97"/>
+      <c r="DV10" s="88"/>
+      <c r="DW10" s="65"/>
+      <c r="DX10" s="65"/>
+      <c r="DY10" s="65"/>
+      <c r="DZ10" s="65"/>
+      <c r="EA10" s="89"/>
+      <c r="EB10" s="88"/>
+      <c r="EC10" s="65"/>
+      <c r="ED10" s="65"/>
+      <c r="EE10" s="65"/>
+      <c r="EF10" s="65"/>
+      <c r="EG10" s="89"/>
+      <c r="EP10" s="88"/>
+      <c r="EQ10" s="65"/>
+      <c r="ER10" s="65"/>
+      <c r="ES10" s="65"/>
+      <c r="ET10" s="65"/>
+      <c r="EU10" s="65"/>
+      <c r="EV10" s="65"/>
+      <c r="EW10" s="89"/>
       <c r="EX10" s="17"/>
       <c r="EY10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FE10" s="18"/>
-      <c r="FK10" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="FL10" s="108"/>
-      <c r="FM10" s="139"/>
-      <c r="FN10" s="98"/>
-      <c r="FO10" s="100"/>
+      <c r="FK10" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="FL10" s="112"/>
+      <c r="FM10" s="113"/>
+      <c r="FN10" s="90"/>
+      <c r="FO10" s="92"/>
       <c r="FP10" s="16"/>
       <c r="FQ10" s="16"/>
       <c r="FR10" s="16"/>
       <c r="FU10" s="31"/>
-      <c r="FV10" s="77"/>
-      <c r="FW10" s="77"/>
-      <c r="FX10" s="77"/>
-      <c r="FY10" s="77"/>
-      <c r="FZ10" s="77"/>
-      <c r="GA10" s="78"/>
-      <c r="GB10" s="79"/>
-      <c r="GC10" s="77"/>
-      <c r="GD10" s="77"/>
-      <c r="GE10" s="77"/>
-      <c r="GF10" s="77"/>
-      <c r="GG10" s="78"/>
-      <c r="GH10" s="63"/>
-      <c r="GI10" s="64"/>
-      <c r="GJ10" s="64"/>
-      <c r="GK10" s="64"/>
-      <c r="GL10" s="113"/>
-      <c r="GM10" s="113"/>
-      <c r="GN10" s="111"/>
-      <c r="GO10" s="98"/>
-      <c r="GP10" s="99"/>
-      <c r="GQ10" s="99"/>
-      <c r="GR10" s="99"/>
-      <c r="GS10" s="100"/>
-      <c r="GT10" s="63"/>
-      <c r="GU10" s="64"/>
-      <c r="GV10" s="64"/>
-      <c r="GW10" s="64"/>
-      <c r="GX10" s="64"/>
-      <c r="GY10" s="64"/>
-      <c r="GZ10" s="64"/>
-      <c r="HA10" s="97"/>
-      <c r="HB10" s="63"/>
-      <c r="HC10" s="64"/>
-      <c r="HD10" s="64"/>
-      <c r="HE10" s="64"/>
-      <c r="HF10" s="64"/>
-      <c r="HG10" s="64"/>
-      <c r="HH10" s="64"/>
-      <c r="HI10" s="97"/>
+      <c r="FV10" s="96"/>
+      <c r="FW10" s="96"/>
+      <c r="FX10" s="96"/>
+      <c r="FY10" s="96"/>
+      <c r="FZ10" s="96"/>
+      <c r="GA10" s="97"/>
+      <c r="GB10" s="95"/>
+      <c r="GC10" s="96"/>
+      <c r="GD10" s="96"/>
+      <c r="GE10" s="96"/>
+      <c r="GF10" s="96"/>
+      <c r="GG10" s="97"/>
+      <c r="GH10" s="88"/>
+      <c r="GI10" s="65"/>
+      <c r="GJ10" s="65"/>
+      <c r="GK10" s="65"/>
+      <c r="GL10" s="109"/>
+      <c r="GM10" s="109"/>
+      <c r="GN10" s="160"/>
+      <c r="GO10" s="90"/>
+      <c r="GP10" s="91"/>
+      <c r="GQ10" s="91"/>
+      <c r="GR10" s="91"/>
+      <c r="GS10" s="92"/>
+      <c r="GT10" s="88"/>
+      <c r="GU10" s="65"/>
+      <c r="GV10" s="65"/>
+      <c r="GW10" s="65"/>
+      <c r="GX10" s="65"/>
+      <c r="GY10" s="65"/>
+      <c r="GZ10" s="65"/>
+      <c r="HA10" s="89"/>
+      <c r="HB10" s="88"/>
+      <c r="HC10" s="65"/>
+      <c r="HD10" s="65"/>
+      <c r="HE10" s="65"/>
+      <c r="HF10" s="65"/>
+      <c r="HG10" s="65"/>
+      <c r="HH10" s="65"/>
+      <c r="HI10" s="89"/>
     </row>
     <row r="11" spans="1:217" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="97"/>
-      <c r="AR11" s="63"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="97"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="64"/>
-      <c r="BF11" s="64"/>
-      <c r="BG11" s="97"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="64"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="97"/>
-      <c r="BN11" s="79"/>
-      <c r="BO11" s="77"/>
-      <c r="BP11" s="77"/>
-      <c r="BQ11" s="77"/>
-      <c r="BR11" s="77"/>
-      <c r="BS11" s="77"/>
-      <c r="BT11" s="77"/>
-      <c r="BU11" s="78"/>
-      <c r="BV11" s="79"/>
-      <c r="BW11" s="77"/>
-      <c r="BX11" s="77"/>
-      <c r="BY11" s="77"/>
-      <c r="BZ11" s="77"/>
-      <c r="CA11" s="77"/>
-      <c r="CB11" s="77"/>
-      <c r="CC11" s="78"/>
-      <c r="CD11" s="170" t="s">
-        <v>255</v>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="88"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="65"/>
+      <c r="BE11" s="65"/>
+      <c r="BF11" s="65"/>
+      <c r="BG11" s="89"/>
+      <c r="BH11" s="88"/>
+      <c r="BI11" s="65"/>
+      <c r="BJ11" s="65"/>
+      <c r="BK11" s="65"/>
+      <c r="BL11" s="65"/>
+      <c r="BM11" s="89"/>
+      <c r="BN11" s="95"/>
+      <c r="BO11" s="96"/>
+      <c r="BP11" s="96"/>
+      <c r="BQ11" s="96"/>
+      <c r="BR11" s="96"/>
+      <c r="BS11" s="96"/>
+      <c r="BT11" s="96"/>
+      <c r="BU11" s="97"/>
+      <c r="BV11" s="95"/>
+      <c r="BW11" s="96"/>
+      <c r="BX11" s="96"/>
+      <c r="BY11" s="96"/>
+      <c r="BZ11" s="96"/>
+      <c r="CA11" s="96"/>
+      <c r="CB11" s="96"/>
+      <c r="CC11" s="97"/>
+      <c r="CD11" s="59" t="s">
+        <v>254</v>
       </c>
       <c r="CE11" s="16"/>
       <c r="CF11" s="16"/>
@@ -5889,146 +5883,146 @@
       <c r="CI11" s="16"/>
       <c r="CJ11" s="16"/>
       <c r="CK11" s="51"/>
-      <c r="CL11" s="79"/>
-      <c r="CM11" s="77"/>
-      <c r="CN11" s="77"/>
-      <c r="CO11" s="77"/>
-      <c r="CP11" s="77"/>
-      <c r="CQ11" s="77"/>
-      <c r="CR11" s="77"/>
-      <c r="CS11" s="77"/>
-      <c r="CT11" s="77"/>
-      <c r="CU11" s="77"/>
-      <c r="CV11" s="77"/>
-      <c r="CW11" s="77"/>
-      <c r="CX11" s="77"/>
-      <c r="CY11" s="77"/>
-      <c r="CZ11" s="77"/>
-      <c r="DA11" s="77"/>
-      <c r="DB11" s="147"/>
-      <c r="DC11" s="148"/>
-      <c r="DD11" s="158"/>
-      <c r="DE11" s="158"/>
+      <c r="CL11" s="95"/>
+      <c r="CM11" s="96"/>
+      <c r="CN11" s="96"/>
+      <c r="CO11" s="96"/>
+      <c r="CP11" s="96"/>
+      <c r="CQ11" s="96"/>
+      <c r="CR11" s="96"/>
+      <c r="CS11" s="96"/>
+      <c r="CT11" s="96"/>
+      <c r="CU11" s="96"/>
+      <c r="CV11" s="96"/>
+      <c r="CW11" s="96"/>
+      <c r="CX11" s="96"/>
+      <c r="CY11" s="96"/>
+      <c r="CZ11" s="96"/>
+      <c r="DA11" s="96"/>
+      <c r="DB11" s="73"/>
+      <c r="DC11" s="74"/>
+      <c r="DD11" s="84"/>
+      <c r="DE11" s="84"/>
       <c r="DF11" s="55"/>
-      <c r="DG11" s="152"/>
+      <c r="DG11" s="78"/>
       <c r="DH11" s="55"/>
       <c r="DI11" s="55"/>
-      <c r="DJ11" s="147"/>
-      <c r="DK11" s="155"/>
-      <c r="DL11" s="155"/>
-      <c r="DM11" s="148"/>
-      <c r="DN11" s="147"/>
-      <c r="DO11" s="155"/>
-      <c r="DP11" s="155"/>
-      <c r="DQ11" s="148"/>
-      <c r="DR11" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="DS11" s="106"/>
-      <c r="DT11" s="106"/>
-      <c r="DU11" s="106"/>
-      <c r="DV11" s="106"/>
-      <c r="DW11" s="106"/>
-      <c r="DX11" s="106"/>
-      <c r="DY11" s="106"/>
-      <c r="DZ11" s="106"/>
-      <c r="EA11" s="106"/>
-      <c r="EB11" s="106"/>
-      <c r="EC11" s="106"/>
-      <c r="ED11" s="106"/>
-      <c r="EE11" s="106"/>
-      <c r="EF11" s="106"/>
-      <c r="EG11" s="107"/>
-      <c r="EH11" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="EI11" s="64"/>
-      <c r="EJ11" s="64"/>
-      <c r="EK11" s="64"/>
-      <c r="EL11" s="64"/>
-      <c r="EM11" s="64"/>
-      <c r="EN11" s="64"/>
-      <c r="EO11" s="97"/>
-      <c r="EP11" s="63"/>
-      <c r="EQ11" s="64"/>
-      <c r="ER11" s="64"/>
-      <c r="ES11" s="64"/>
-      <c r="ET11" s="64"/>
-      <c r="EU11" s="64"/>
-      <c r="EV11" s="64"/>
-      <c r="EW11" s="97"/>
+      <c r="DJ11" s="73"/>
+      <c r="DK11" s="81"/>
+      <c r="DL11" s="81"/>
+      <c r="DM11" s="74"/>
+      <c r="DN11" s="73"/>
+      <c r="DO11" s="81"/>
+      <c r="DP11" s="81"/>
+      <c r="DQ11" s="74"/>
+      <c r="DR11" s="157" t="s">
+        <v>234</v>
+      </c>
+      <c r="DS11" s="157"/>
+      <c r="DT11" s="157"/>
+      <c r="DU11" s="157"/>
+      <c r="DV11" s="157"/>
+      <c r="DW11" s="157"/>
+      <c r="DX11" s="157"/>
+      <c r="DY11" s="157"/>
+      <c r="DZ11" s="157"/>
+      <c r="EA11" s="157"/>
+      <c r="EB11" s="157"/>
+      <c r="EC11" s="157"/>
+      <c r="ED11" s="157"/>
+      <c r="EE11" s="157"/>
+      <c r="EF11" s="157"/>
+      <c r="EG11" s="158"/>
+      <c r="EH11" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="EI11" s="65"/>
+      <c r="EJ11" s="65"/>
+      <c r="EK11" s="65"/>
+      <c r="EL11" s="65"/>
+      <c r="EM11" s="65"/>
+      <c r="EN11" s="65"/>
+      <c r="EO11" s="89"/>
+      <c r="EP11" s="88"/>
+      <c r="EQ11" s="65"/>
+      <c r="ER11" s="65"/>
+      <c r="ES11" s="65"/>
+      <c r="ET11" s="65"/>
+      <c r="EU11" s="65"/>
+      <c r="EV11" s="65"/>
+      <c r="EW11" s="89"/>
       <c r="EX11" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="EY11" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="EZ11" s="64"/>
-      <c r="FA11" s="64"/>
-      <c r="FB11" s="64"/>
-      <c r="FC11" s="64"/>
-      <c r="FD11" s="64"/>
-      <c r="FE11" s="97"/>
-      <c r="FF11" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="EY11" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="EZ11" s="65"/>
+      <c r="FA11" s="65"/>
+      <c r="FB11" s="65"/>
+      <c r="FC11" s="65"/>
+      <c r="FD11" s="65"/>
+      <c r="FE11" s="89"/>
+      <c r="FF11" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="FG11" s="107"/>
+      <c r="FH11" s="107"/>
+      <c r="FI11" s="111"/>
+      <c r="FK11" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="FL11" s="112"/>
+      <c r="FM11" s="114"/>
+      <c r="FN11" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="FG11" s="132"/>
-      <c r="FH11" s="132"/>
-      <c r="FI11" s="138"/>
-      <c r="FK11" s="108" t="s">
-        <v>221</v>
-      </c>
-      <c r="FL11" s="108"/>
-      <c r="FM11" s="109"/>
-      <c r="FN11" s="133" t="s">
-        <v>212</v>
-      </c>
-      <c r="FO11" s="134"/>
-      <c r="FP11" s="133" t="s">
-        <v>214</v>
-      </c>
-      <c r="FQ11" s="64"/>
-      <c r="FR11" s="64"/>
-      <c r="FS11" s="64"/>
-      <c r="FT11" s="64"/>
-      <c r="FU11" s="134"/>
-      <c r="FV11" s="77"/>
-      <c r="FW11" s="77"/>
-      <c r="FX11" s="77"/>
-      <c r="FY11" s="77"/>
-      <c r="FZ11" s="77"/>
-      <c r="GA11" s="78"/>
-      <c r="GB11" s="79"/>
-      <c r="GC11" s="77"/>
-      <c r="GD11" s="77"/>
-      <c r="GE11" s="77"/>
-      <c r="GF11" s="77"/>
-      <c r="GG11" s="78"/>
-      <c r="GH11" s="63"/>
-      <c r="GI11" s="64"/>
-      <c r="GJ11" s="64"/>
-      <c r="GK11" s="64"/>
-      <c r="GL11" s="95" t="s">
+      <c r="FO11" s="66"/>
+      <c r="FP11" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="FQ11" s="65"/>
+      <c r="FR11" s="65"/>
+      <c r="FS11" s="65"/>
+      <c r="FT11" s="65"/>
+      <c r="FU11" s="66"/>
+      <c r="FV11" s="96"/>
+      <c r="FW11" s="96"/>
+      <c r="FX11" s="96"/>
+      <c r="FY11" s="96"/>
+      <c r="FZ11" s="96"/>
+      <c r="GA11" s="97"/>
+      <c r="GB11" s="95"/>
+      <c r="GC11" s="96"/>
+      <c r="GD11" s="96"/>
+      <c r="GE11" s="96"/>
+      <c r="GF11" s="96"/>
+      <c r="GG11" s="97"/>
+      <c r="GH11" s="88"/>
+      <c r="GI11" s="65"/>
+      <c r="GJ11" s="65"/>
+      <c r="GK11" s="65"/>
+      <c r="GL11" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="GM11" s="95"/>
-      <c r="GN11" s="95"/>
-      <c r="GT11" s="63"/>
-      <c r="GU11" s="64"/>
-      <c r="GV11" s="64"/>
-      <c r="GW11" s="64"/>
-      <c r="GX11" s="64"/>
-      <c r="GY11" s="64"/>
-      <c r="GZ11" s="64"/>
-      <c r="HA11" s="97"/>
-      <c r="HB11" s="63"/>
-      <c r="HC11" s="64"/>
-      <c r="HD11" s="64"/>
-      <c r="HE11" s="64"/>
-      <c r="HF11" s="64"/>
-      <c r="HG11" s="64"/>
-      <c r="HH11" s="64"/>
-      <c r="HI11" s="97"/>
+      <c r="GM11" s="86"/>
+      <c r="GN11" s="86"/>
+      <c r="GT11" s="88"/>
+      <c r="GU11" s="65"/>
+      <c r="GV11" s="65"/>
+      <c r="GW11" s="65"/>
+      <c r="GX11" s="65"/>
+      <c r="GY11" s="65"/>
+      <c r="GZ11" s="65"/>
+      <c r="HA11" s="89"/>
+      <c r="HB11" s="88"/>
+      <c r="HC11" s="65"/>
+      <c r="HD11" s="65"/>
+      <c r="HE11" s="65"/>
+      <c r="HF11" s="65"/>
+      <c r="HG11" s="65"/>
+      <c r="HH11" s="65"/>
+      <c r="HI11" s="89"/>
     </row>
     <row r="12" spans="1:217" ht="88.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
@@ -6039,81 +6033,81 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="63"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="97"/>
-      <c r="AX12" s="64"/>
-      <c r="AY12" s="64"/>
-      <c r="AZ12" s="64"/>
-      <c r="BA12" s="64"/>
-      <c r="BB12" s="64"/>
-      <c r="BC12" s="64"/>
-      <c r="BD12" s="64"/>
-      <c r="BE12" s="64"/>
-      <c r="BF12" s="64"/>
-      <c r="BG12" s="97"/>
-      <c r="BH12" s="63"/>
-      <c r="BI12" s="64"/>
-      <c r="BJ12" s="64"/>
-      <c r="BK12" s="64"/>
-      <c r="BL12" s="64"/>
-      <c r="BM12" s="97"/>
-      <c r="BN12" s="79"/>
-      <c r="BO12" s="77"/>
-      <c r="BP12" s="77"/>
-      <c r="BQ12" s="77"/>
-      <c r="BR12" s="77"/>
-      <c r="BS12" s="77"/>
-      <c r="BT12" s="77"/>
-      <c r="BU12" s="78"/>
-      <c r="BV12" s="79"/>
-      <c r="BW12" s="77"/>
-      <c r="BX12" s="77"/>
-      <c r="BY12" s="77"/>
-      <c r="BZ12" s="77"/>
-      <c r="CA12" s="77"/>
-      <c r="CB12" s="77"/>
-      <c r="CC12" s="78"/>
-      <c r="CD12" s="172" t="s">
-        <v>256</v>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="88"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="65"/>
+      <c r="BG12" s="89"/>
+      <c r="BH12" s="88"/>
+      <c r="BI12" s="65"/>
+      <c r="BJ12" s="65"/>
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="89"/>
+      <c r="BN12" s="95"/>
+      <c r="BO12" s="96"/>
+      <c r="BP12" s="96"/>
+      <c r="BQ12" s="96"/>
+      <c r="BR12" s="96"/>
+      <c r="BS12" s="96"/>
+      <c r="BT12" s="96"/>
+      <c r="BU12" s="97"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="96"/>
+      <c r="BX12" s="96"/>
+      <c r="BY12" s="96"/>
+      <c r="BZ12" s="96"/>
+      <c r="CA12" s="96"/>
+      <c r="CB12" s="96"/>
+      <c r="CC12" s="97"/>
+      <c r="CD12" s="50" t="s">
+        <v>255</v>
       </c>
       <c r="CE12" s="16"/>
       <c r="CF12" s="16"/>
@@ -6121,38 +6115,38 @@
       <c r="CI12" s="16"/>
       <c r="CJ12" s="16"/>
       <c r="CK12" s="51"/>
-      <c r="CL12" s="79"/>
-      <c r="CM12" s="77"/>
-      <c r="CN12" s="77"/>
-      <c r="CO12" s="77"/>
-      <c r="CP12" s="77"/>
-      <c r="CQ12" s="77"/>
-      <c r="CR12" s="77"/>
-      <c r="CS12" s="77"/>
-      <c r="CT12" s="77"/>
-      <c r="CU12" s="77"/>
-      <c r="CV12" s="77"/>
-      <c r="CW12" s="77"/>
-      <c r="CX12" s="77"/>
-      <c r="CY12" s="77"/>
-      <c r="CZ12" s="77"/>
-      <c r="DA12" s="77"/>
-      <c r="DB12" s="149"/>
-      <c r="DC12" s="150"/>
-      <c r="DD12" s="158"/>
-      <c r="DE12" s="158"/>
+      <c r="CL12" s="95"/>
+      <c r="CM12" s="96"/>
+      <c r="CN12" s="96"/>
+      <c r="CO12" s="96"/>
+      <c r="CP12" s="96"/>
+      <c r="CQ12" s="96"/>
+      <c r="CR12" s="96"/>
+      <c r="CS12" s="96"/>
+      <c r="CT12" s="96"/>
+      <c r="CU12" s="96"/>
+      <c r="CV12" s="96"/>
+      <c r="CW12" s="96"/>
+      <c r="CX12" s="96"/>
+      <c r="CY12" s="96"/>
+      <c r="CZ12" s="96"/>
+      <c r="DA12" s="96"/>
+      <c r="DB12" s="75"/>
+      <c r="DC12" s="76"/>
+      <c r="DD12" s="84"/>
+      <c r="DE12" s="84"/>
       <c r="DF12" s="55"/>
-      <c r="DG12" s="153"/>
+      <c r="DG12" s="79"/>
       <c r="DH12" s="55"/>
       <c r="DI12" s="55"/>
-      <c r="DJ12" s="149"/>
-      <c r="DK12" s="156"/>
-      <c r="DL12" s="156"/>
-      <c r="DM12" s="150"/>
-      <c r="DN12" s="149"/>
-      <c r="DO12" s="156"/>
-      <c r="DP12" s="156"/>
-      <c r="DQ12" s="150"/>
+      <c r="DJ12" s="75"/>
+      <c r="DK12" s="82"/>
+      <c r="DL12" s="82"/>
+      <c r="DM12" s="76"/>
+      <c r="DN12" s="75"/>
+      <c r="DO12" s="82"/>
+      <c r="DP12" s="82"/>
+      <c r="DQ12" s="76"/>
       <c r="DR12" s="16"/>
       <c r="DS12" s="16"/>
       <c r="DT12" s="16"/>
@@ -6169,166 +6163,166 @@
       <c r="EE12" s="16"/>
       <c r="EF12" s="16"/>
       <c r="EG12" s="51"/>
-      <c r="EH12" s="64"/>
-      <c r="EI12" s="64"/>
-      <c r="EJ12" s="64"/>
-      <c r="EK12" s="64"/>
-      <c r="EL12" s="64"/>
-      <c r="EM12" s="64"/>
-      <c r="EN12" s="64"/>
-      <c r="EO12" s="97"/>
-      <c r="EP12" s="63"/>
-      <c r="EQ12" s="64"/>
-      <c r="ER12" s="64"/>
-      <c r="ES12" s="64"/>
-      <c r="ET12" s="64"/>
-      <c r="EU12" s="64"/>
-      <c r="EV12" s="64"/>
-      <c r="EW12" s="97"/>
-      <c r="EX12" s="110" t="s">
-        <v>218</v>
+      <c r="EH12" s="65"/>
+      <c r="EI12" s="65"/>
+      <c r="EJ12" s="65"/>
+      <c r="EK12" s="65"/>
+      <c r="EL12" s="65"/>
+      <c r="EM12" s="65"/>
+      <c r="EN12" s="65"/>
+      <c r="EO12" s="89"/>
+      <c r="EP12" s="88"/>
+      <c r="EQ12" s="65"/>
+      <c r="ER12" s="65"/>
+      <c r="ES12" s="65"/>
+      <c r="ET12" s="65"/>
+      <c r="EU12" s="65"/>
+      <c r="EV12" s="65"/>
+      <c r="EW12" s="89"/>
+      <c r="EX12" s="159" t="s">
+        <v>217</v>
       </c>
       <c r="EY12" s="17"/>
       <c r="FE12" s="18"/>
-      <c r="FK12" s="131" t="s">
+      <c r="FK12" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="FL12" s="131"/>
-      <c r="FM12" s="131"/>
-      <c r="FN12" s="133"/>
-      <c r="FO12" s="134"/>
-      <c r="FP12" s="133"/>
-      <c r="FQ12" s="64"/>
-      <c r="FR12" s="64"/>
-      <c r="FS12" s="64"/>
-      <c r="FT12" s="64"/>
-      <c r="FU12" s="134"/>
-      <c r="FV12" s="77"/>
-      <c r="FW12" s="77"/>
-      <c r="FX12" s="77"/>
-      <c r="FY12" s="77"/>
-      <c r="FZ12" s="77"/>
-      <c r="GA12" s="78"/>
-      <c r="GB12" s="79"/>
-      <c r="GC12" s="77"/>
-      <c r="GD12" s="77"/>
-      <c r="GE12" s="77"/>
-      <c r="GF12" s="77"/>
-      <c r="GG12" s="78"/>
-      <c r="GH12" s="63"/>
-      <c r="GI12" s="64"/>
-      <c r="GJ12" s="64"/>
-      <c r="GK12" s="64"/>
+      <c r="FL12" s="106"/>
+      <c r="FM12" s="106"/>
+      <c r="FN12" s="64"/>
+      <c r="FO12" s="66"/>
+      <c r="FP12" s="64"/>
+      <c r="FQ12" s="65"/>
+      <c r="FR12" s="65"/>
+      <c r="FS12" s="65"/>
+      <c r="FT12" s="65"/>
+      <c r="FU12" s="66"/>
+      <c r="FV12" s="96"/>
+      <c r="FW12" s="96"/>
+      <c r="FX12" s="96"/>
+      <c r="FY12" s="96"/>
+      <c r="FZ12" s="96"/>
+      <c r="GA12" s="97"/>
+      <c r="GB12" s="95"/>
+      <c r="GC12" s="96"/>
+      <c r="GD12" s="96"/>
+      <c r="GE12" s="96"/>
+      <c r="GF12" s="96"/>
+      <c r="GG12" s="97"/>
+      <c r="GH12" s="88"/>
+      <c r="GI12" s="65"/>
+      <c r="GJ12" s="65"/>
+      <c r="GK12" s="65"/>
       <c r="GL12" t="s">
         <v>202</v>
       </c>
-      <c r="GT12" s="63"/>
-      <c r="GU12" s="64"/>
-      <c r="GV12" s="64"/>
-      <c r="GW12" s="64"/>
-      <c r="GX12" s="64"/>
-      <c r="GY12" s="64"/>
-      <c r="GZ12" s="64"/>
-      <c r="HA12" s="97"/>
-      <c r="HB12" s="63"/>
-      <c r="HC12" s="64"/>
-      <c r="HD12" s="64"/>
-      <c r="HE12" s="64"/>
-      <c r="HF12" s="64"/>
-      <c r="HG12" s="64"/>
-      <c r="HH12" s="64"/>
-      <c r="HI12" s="97"/>
+      <c r="GT12" s="88"/>
+      <c r="GU12" s="65"/>
+      <c r="GV12" s="65"/>
+      <c r="GW12" s="65"/>
+      <c r="GX12" s="65"/>
+      <c r="GY12" s="65"/>
+      <c r="GZ12" s="65"/>
+      <c r="HA12" s="89"/>
+      <c r="HB12" s="88"/>
+      <c r="HC12" s="65"/>
+      <c r="HD12" s="65"/>
+      <c r="HE12" s="65"/>
+      <c r="HF12" s="65"/>
+      <c r="HG12" s="65"/>
+      <c r="HH12" s="65"/>
+      <c r="HI12" s="89"/>
     </row>
     <row r="13" spans="1:217" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="C13" s="130" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>242</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="63"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="64"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="64"/>
-      <c r="AZ13" s="64"/>
-      <c r="BA13" s="64"/>
-      <c r="BB13" s="64"/>
-      <c r="BC13" s="64"/>
-      <c r="BD13" s="64"/>
-      <c r="BE13" s="64"/>
-      <c r="BF13" s="64"/>
-      <c r="BG13" s="97"/>
-      <c r="BH13" s="63"/>
-      <c r="BI13" s="64"/>
-      <c r="BJ13" s="64"/>
-      <c r="BK13" s="64"/>
-      <c r="BL13" s="64"/>
-      <c r="BM13" s="97"/>
-      <c r="BN13" s="79"/>
-      <c r="BO13" s="77"/>
-      <c r="BP13" s="77"/>
-      <c r="BQ13" s="77"/>
-      <c r="BR13" s="77"/>
-      <c r="BS13" s="77"/>
-      <c r="BT13" s="77"/>
-      <c r="BU13" s="78"/>
-      <c r="BV13" s="79"/>
-      <c r="BW13" s="77"/>
-      <c r="BX13" s="77"/>
-      <c r="BY13" s="77"/>
-      <c r="BZ13" s="77"/>
-      <c r="CA13" s="77"/>
-      <c r="CB13" s="77"/>
-      <c r="CC13" s="78"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="65"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="65"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="65"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="65"/>
+      <c r="AZ13" s="65"/>
+      <c r="BA13" s="65"/>
+      <c r="BB13" s="65"/>
+      <c r="BC13" s="65"/>
+      <c r="BD13" s="65"/>
+      <c r="BE13" s="65"/>
+      <c r="BF13" s="65"/>
+      <c r="BG13" s="89"/>
+      <c r="BH13" s="88"/>
+      <c r="BI13" s="65"/>
+      <c r="BJ13" s="65"/>
+      <c r="BK13" s="65"/>
+      <c r="BL13" s="65"/>
+      <c r="BM13" s="89"/>
+      <c r="BN13" s="95"/>
+      <c r="BO13" s="96"/>
+      <c r="BP13" s="96"/>
+      <c r="BQ13" s="96"/>
+      <c r="BR13" s="96"/>
+      <c r="BS13" s="96"/>
+      <c r="BT13" s="96"/>
+      <c r="BU13" s="97"/>
+      <c r="BV13" s="95"/>
+      <c r="BW13" s="96"/>
+      <c r="BX13" s="96"/>
+      <c r="BY13" s="96"/>
+      <c r="BZ13" s="96"/>
+      <c r="CA13" s="96"/>
+      <c r="CB13" s="96"/>
+      <c r="CC13" s="97"/>
       <c r="CD13" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CE13" s="16"/>
       <c r="CF13" s="16"/>
@@ -6337,46 +6331,46 @@
       <c r="CI13" s="16"/>
       <c r="CJ13" s="16"/>
       <c r="CK13" s="51"/>
-      <c r="CL13" s="79"/>
-      <c r="CM13" s="77"/>
-      <c r="CN13" s="77"/>
-      <c r="CO13" s="77"/>
-      <c r="CP13" s="77"/>
-      <c r="CQ13" s="77"/>
-      <c r="CR13" s="77"/>
-      <c r="CS13" s="77"/>
-      <c r="CT13" s="77"/>
-      <c r="CU13" s="77"/>
-      <c r="CV13" s="77"/>
-      <c r="CW13" s="77"/>
-      <c r="CX13" s="77"/>
-      <c r="CY13" s="77"/>
-      <c r="CZ13" s="77"/>
-      <c r="DA13" s="77"/>
-      <c r="DB13" s="133" t="s">
+      <c r="CL13" s="95"/>
+      <c r="CM13" s="96"/>
+      <c r="CN13" s="96"/>
+      <c r="CO13" s="96"/>
+      <c r="CP13" s="96"/>
+      <c r="CQ13" s="96"/>
+      <c r="CR13" s="96"/>
+      <c r="CS13" s="96"/>
+      <c r="CT13" s="96"/>
+      <c r="CU13" s="96"/>
+      <c r="CV13" s="96"/>
+      <c r="CW13" s="96"/>
+      <c r="CX13" s="96"/>
+      <c r="CY13" s="96"/>
+      <c r="CZ13" s="96"/>
+      <c r="DA13" s="96"/>
+      <c r="DB13" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="DC13" s="64"/>
-      <c r="DD13" s="64"/>
-      <c r="DE13" s="64"/>
-      <c r="DF13" s="64"/>
-      <c r="DG13" s="64"/>
-      <c r="DH13" s="64"/>
-      <c r="DI13" s="64"/>
-      <c r="DJ13" s="64"/>
-      <c r="DK13" s="64"/>
-      <c r="DL13" s="64"/>
-      <c r="DM13" s="64"/>
-      <c r="DN13" s="64"/>
-      <c r="DO13" s="64"/>
-      <c r="DP13" s="64"/>
-      <c r="DQ13" s="134"/>
-      <c r="DR13" s="130" t="s">
-        <v>233</v>
-      </c>
-      <c r="DS13" s="130"/>
-      <c r="DT13" s="130"/>
-      <c r="DU13" s="130"/>
+      <c r="DC13" s="65"/>
+      <c r="DD13" s="65"/>
+      <c r="DE13" s="65"/>
+      <c r="DF13" s="65"/>
+      <c r="DG13" s="65"/>
+      <c r="DH13" s="65"/>
+      <c r="DI13" s="65"/>
+      <c r="DJ13" s="65"/>
+      <c r="DK13" s="65"/>
+      <c r="DL13" s="65"/>
+      <c r="DM13" s="65"/>
+      <c r="DN13" s="65"/>
+      <c r="DO13" s="65"/>
+      <c r="DP13" s="65"/>
+      <c r="DQ13" s="66"/>
+      <c r="DR13" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="DS13" s="70"/>
+      <c r="DT13" s="70"/>
+      <c r="DU13" s="70"/>
       <c r="DV13" s="16"/>
       <c r="DW13" s="16"/>
       <c r="DX13" s="16"/>
@@ -6389,159 +6383,159 @@
       <c r="EE13" s="16"/>
       <c r="EF13" s="16"/>
       <c r="EG13" s="51"/>
-      <c r="EH13" s="64"/>
-      <c r="EI13" s="64"/>
-      <c r="EJ13" s="64"/>
-      <c r="EK13" s="64"/>
-      <c r="EL13" s="64"/>
-      <c r="EM13" s="64"/>
-      <c r="EN13" s="64"/>
-      <c r="EO13" s="97"/>
-      <c r="EP13" s="63"/>
-      <c r="EQ13" s="64"/>
-      <c r="ER13" s="64"/>
-      <c r="ES13" s="64"/>
-      <c r="ET13" s="64"/>
-      <c r="EU13" s="64"/>
-      <c r="EV13" s="64"/>
-      <c r="EW13" s="97"/>
-      <c r="EX13" s="110"/>
+      <c r="EH13" s="65"/>
+      <c r="EI13" s="65"/>
+      <c r="EJ13" s="65"/>
+      <c r="EK13" s="65"/>
+      <c r="EL13" s="65"/>
+      <c r="EM13" s="65"/>
+      <c r="EN13" s="65"/>
+      <c r="EO13" s="89"/>
+      <c r="EP13" s="88"/>
+      <c r="EQ13" s="65"/>
+      <c r="ER13" s="65"/>
+      <c r="ES13" s="65"/>
+      <c r="ET13" s="65"/>
+      <c r="EU13" s="65"/>
+      <c r="EV13" s="65"/>
+      <c r="EW13" s="89"/>
+      <c r="EX13" s="159"/>
       <c r="EY13" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="FE13" s="18"/>
-      <c r="FK13" s="108" t="s">
-        <v>225</v>
-      </c>
-      <c r="FL13" s="108"/>
-      <c r="FM13" s="109"/>
-      <c r="FN13" s="133"/>
-      <c r="FO13" s="134"/>
-      <c r="FP13" s="133"/>
-      <c r="FQ13" s="64"/>
-      <c r="FR13" s="64"/>
-      <c r="FS13" s="64"/>
-      <c r="FT13" s="64"/>
-      <c r="FU13" s="134"/>
-      <c r="FV13" s="77"/>
-      <c r="FW13" s="77"/>
-      <c r="FX13" s="77"/>
-      <c r="FY13" s="77"/>
-      <c r="FZ13" s="77"/>
-      <c r="GA13" s="78"/>
-      <c r="GB13" s="79"/>
-      <c r="GC13" s="77"/>
-      <c r="GD13" s="77"/>
-      <c r="GE13" s="77"/>
-      <c r="GF13" s="77"/>
-      <c r="GG13" s="78"/>
-      <c r="GH13" s="63"/>
-      <c r="GI13" s="64"/>
-      <c r="GJ13" s="64"/>
-      <c r="GK13" s="64"/>
+      <c r="FK13" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="FL13" s="112"/>
+      <c r="FM13" s="114"/>
+      <c r="FN13" s="64"/>
+      <c r="FO13" s="66"/>
+      <c r="FP13" s="64"/>
+      <c r="FQ13" s="65"/>
+      <c r="FR13" s="65"/>
+      <c r="FS13" s="65"/>
+      <c r="FT13" s="65"/>
+      <c r="FU13" s="66"/>
+      <c r="FV13" s="96"/>
+      <c r="FW13" s="96"/>
+      <c r="FX13" s="96"/>
+      <c r="FY13" s="96"/>
+      <c r="FZ13" s="96"/>
+      <c r="GA13" s="97"/>
+      <c r="GB13" s="95"/>
+      <c r="GC13" s="96"/>
+      <c r="GD13" s="96"/>
+      <c r="GE13" s="96"/>
+      <c r="GF13" s="96"/>
+      <c r="GG13" s="97"/>
+      <c r="GH13" s="88"/>
+      <c r="GI13" s="65"/>
+      <c r="GJ13" s="65"/>
+      <c r="GK13" s="65"/>
       <c r="GN13" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="GT13" s="63"/>
-      <c r="GU13" s="64"/>
-      <c r="GV13" s="64"/>
-      <c r="GW13" s="64"/>
-      <c r="GX13" s="64"/>
-      <c r="GY13" s="64"/>
-      <c r="GZ13" s="64"/>
-      <c r="HA13" s="97"/>
-      <c r="HB13" s="63"/>
-      <c r="HC13" s="64"/>
-      <c r="HD13" s="64"/>
-      <c r="HE13" s="64"/>
-      <c r="HF13" s="64"/>
-      <c r="HG13" s="64"/>
-      <c r="HH13" s="64"/>
-      <c r="HI13" s="97"/>
+        <v>230</v>
+      </c>
+      <c r="GT13" s="88"/>
+      <c r="GU13" s="65"/>
+      <c r="GV13" s="65"/>
+      <c r="GW13" s="65"/>
+      <c r="GX13" s="65"/>
+      <c r="GY13" s="65"/>
+      <c r="GZ13" s="65"/>
+      <c r="HA13" s="89"/>
+      <c r="HB13" s="88"/>
+      <c r="HC13" s="65"/>
+      <c r="HD13" s="65"/>
+      <c r="HE13" s="65"/>
+      <c r="HF13" s="65"/>
+      <c r="HG13" s="65"/>
+      <c r="HH13" s="65"/>
+      <c r="HI13" s="89"/>
     </row>
     <row r="14" spans="1:217" ht="77.650000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
       <c r="H14" s="53"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="99"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="100"/>
-      <c r="AR14" s="98"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="100"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="99"/>
-      <c r="AZ14" s="99"/>
-      <c r="BA14" s="99"/>
-      <c r="BB14" s="99"/>
-      <c r="BC14" s="99"/>
-      <c r="BD14" s="99"/>
-      <c r="BE14" s="99"/>
-      <c r="BF14" s="99"/>
-      <c r="BG14" s="100"/>
-      <c r="BH14" s="98"/>
-      <c r="BI14" s="99"/>
-      <c r="BJ14" s="99"/>
-      <c r="BK14" s="99"/>
-      <c r="BL14" s="99"/>
-      <c r="BM14" s="100"/>
-      <c r="BN14" s="80"/>
-      <c r="BO14" s="81"/>
-      <c r="BP14" s="81"/>
-      <c r="BQ14" s="81"/>
-      <c r="BR14" s="81"/>
-      <c r="BS14" s="81"/>
-      <c r="BT14" s="81"/>
-      <c r="BU14" s="82"/>
-      <c r="BV14" s="80"/>
-      <c r="BW14" s="81"/>
-      <c r="BX14" s="81"/>
-      <c r="BY14" s="81"/>
-      <c r="BZ14" s="81"/>
-      <c r="CA14" s="81"/>
-      <c r="CB14" s="81"/>
-      <c r="CC14" s="82"/>
-      <c r="CD14" s="172" t="s">
+      <c r="I14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="91"/>
+      <c r="AJ14" s="91"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="91"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="92"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="91"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="91"/>
+      <c r="BD14" s="91"/>
+      <c r="BE14" s="91"/>
+      <c r="BF14" s="91"/>
+      <c r="BG14" s="92"/>
+      <c r="BH14" s="90"/>
+      <c r="BI14" s="91"/>
+      <c r="BJ14" s="91"/>
+      <c r="BK14" s="91"/>
+      <c r="BL14" s="91"/>
+      <c r="BM14" s="92"/>
+      <c r="BN14" s="98"/>
+      <c r="BO14" s="99"/>
+      <c r="BP14" s="99"/>
+      <c r="BQ14" s="99"/>
+      <c r="BR14" s="99"/>
+      <c r="BS14" s="99"/>
+      <c r="BT14" s="99"/>
+      <c r="BU14" s="100"/>
+      <c r="BV14" s="98"/>
+      <c r="BW14" s="99"/>
+      <c r="BX14" s="99"/>
+      <c r="BY14" s="99"/>
+      <c r="BZ14" s="99"/>
+      <c r="CA14" s="99"/>
+      <c r="CB14" s="99"/>
+      <c r="CC14" s="100"/>
+      <c r="CD14" s="50" t="s">
         <v>258</v>
       </c>
       <c r="CE14" s="20"/>
@@ -6551,44 +6545,44 @@
       <c r="CI14" s="52"/>
       <c r="CJ14" s="52"/>
       <c r="CK14" s="53"/>
-      <c r="CL14" s="80"/>
-      <c r="CM14" s="81"/>
-      <c r="CN14" s="81"/>
-      <c r="CO14" s="81"/>
-      <c r="CP14" s="81"/>
-      <c r="CQ14" s="81"/>
-      <c r="CR14" s="81"/>
-      <c r="CS14" s="81"/>
-      <c r="CT14" s="81"/>
-      <c r="CU14" s="81"/>
-      <c r="CV14" s="81"/>
-      <c r="CW14" s="81"/>
-      <c r="CX14" s="81"/>
-      <c r="CY14" s="81"/>
-      <c r="CZ14" s="81"/>
-      <c r="DA14" s="81"/>
-      <c r="DB14" s="135"/>
-      <c r="DC14" s="69"/>
-      <c r="DD14" s="69"/>
-      <c r="DE14" s="69"/>
-      <c r="DF14" s="69"/>
-      <c r="DG14" s="69"/>
-      <c r="DH14" s="69"/>
-      <c r="DI14" s="69"/>
-      <c r="DJ14" s="69"/>
-      <c r="DK14" s="69"/>
-      <c r="DL14" s="69"/>
-      <c r="DM14" s="69"/>
-      <c r="DN14" s="69"/>
-      <c r="DO14" s="69"/>
-      <c r="DP14" s="69"/>
-      <c r="DQ14" s="136"/>
-      <c r="DR14" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="DS14" s="130"/>
-      <c r="DT14" s="130"/>
-      <c r="DU14" s="130"/>
+      <c r="CL14" s="98"/>
+      <c r="CM14" s="99"/>
+      <c r="CN14" s="99"/>
+      <c r="CO14" s="99"/>
+      <c r="CP14" s="99"/>
+      <c r="CQ14" s="99"/>
+      <c r="CR14" s="99"/>
+      <c r="CS14" s="99"/>
+      <c r="CT14" s="99"/>
+      <c r="CU14" s="99"/>
+      <c r="CV14" s="99"/>
+      <c r="CW14" s="99"/>
+      <c r="CX14" s="99"/>
+      <c r="CY14" s="99"/>
+      <c r="CZ14" s="99"/>
+      <c r="DA14" s="99"/>
+      <c r="DB14" s="67"/>
+      <c r="DC14" s="68"/>
+      <c r="DD14" s="68"/>
+      <c r="DE14" s="68"/>
+      <c r="DF14" s="68"/>
+      <c r="DG14" s="68"/>
+      <c r="DH14" s="68"/>
+      <c r="DI14" s="68"/>
+      <c r="DJ14" s="68"/>
+      <c r="DK14" s="68"/>
+      <c r="DL14" s="68"/>
+      <c r="DM14" s="68"/>
+      <c r="DN14" s="68"/>
+      <c r="DO14" s="68"/>
+      <c r="DP14" s="68"/>
+      <c r="DQ14" s="69"/>
+      <c r="DR14" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="DS14" s="70"/>
+      <c r="DT14" s="70"/>
+      <c r="DU14" s="70"/>
       <c r="DV14" s="52"/>
       <c r="DW14" s="52"/>
       <c r="DX14" s="52"/>
@@ -6601,15 +6595,15 @@
       <c r="EE14" s="52"/>
       <c r="EF14" s="52"/>
       <c r="EG14" s="53"/>
-      <c r="EP14" s="98"/>
-      <c r="EQ14" s="99"/>
-      <c r="ER14" s="99"/>
-      <c r="ES14" s="99"/>
-      <c r="ET14" s="99"/>
-      <c r="EU14" s="99"/>
-      <c r="EV14" s="99"/>
-      <c r="EW14" s="100"/>
-      <c r="EX14" s="111"/>
+      <c r="EP14" s="90"/>
+      <c r="EQ14" s="91"/>
+      <c r="ER14" s="91"/>
+      <c r="ES14" s="91"/>
+      <c r="ET14" s="91"/>
+      <c r="EU14" s="91"/>
+      <c r="EV14" s="91"/>
+      <c r="EW14" s="92"/>
+      <c r="EX14" s="160"/>
       <c r="EY14" s="19"/>
       <c r="EZ14" s="20"/>
       <c r="FA14" s="20" t="s">
@@ -6619,54 +6613,54 @@
       <c r="FC14" s="20"/>
       <c r="FD14" s="20"/>
       <c r="FE14" s="21"/>
-      <c r="FK14" s="140" t="s">
-        <v>213</v>
-      </c>
-      <c r="FL14" s="140"/>
-      <c r="FM14" s="141"/>
-      <c r="FN14" s="135"/>
-      <c r="FO14" s="136"/>
-      <c r="FP14" s="135"/>
-      <c r="FQ14" s="69"/>
-      <c r="FR14" s="69"/>
-      <c r="FS14" s="69"/>
-      <c r="FT14" s="69"/>
-      <c r="FU14" s="136"/>
-      <c r="FV14" s="81"/>
-      <c r="FW14" s="81"/>
-      <c r="FX14" s="81"/>
-      <c r="FY14" s="81"/>
-      <c r="FZ14" s="81"/>
-      <c r="GA14" s="82"/>
-      <c r="GB14" s="80"/>
-      <c r="GC14" s="81"/>
-      <c r="GD14" s="81"/>
-      <c r="GE14" s="81"/>
-      <c r="GF14" s="81"/>
-      <c r="GG14" s="82"/>
-      <c r="GH14" s="68"/>
-      <c r="GI14" s="69"/>
-      <c r="GJ14" s="69"/>
-      <c r="GK14" s="69"/>
+      <c r="FK14" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="FL14" s="115"/>
+      <c r="FM14" s="116"/>
+      <c r="FN14" s="67"/>
+      <c r="FO14" s="69"/>
+      <c r="FP14" s="67"/>
+      <c r="FQ14" s="68"/>
+      <c r="FR14" s="68"/>
+      <c r="FS14" s="68"/>
+      <c r="FT14" s="68"/>
+      <c r="FU14" s="69"/>
+      <c r="FV14" s="99"/>
+      <c r="FW14" s="99"/>
+      <c r="FX14" s="99"/>
+      <c r="FY14" s="99"/>
+      <c r="FZ14" s="99"/>
+      <c r="GA14" s="100"/>
+      <c r="GB14" s="98"/>
+      <c r="GC14" s="99"/>
+      <c r="GD14" s="99"/>
+      <c r="GE14" s="99"/>
+      <c r="GF14" s="99"/>
+      <c r="GG14" s="100"/>
+      <c r="GH14" s="162"/>
+      <c r="GI14" s="68"/>
+      <c r="GJ14" s="68"/>
+      <c r="GK14" s="68"/>
       <c r="GM14" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="GT14" s="98"/>
-      <c r="GU14" s="99"/>
-      <c r="GV14" s="99"/>
-      <c r="GW14" s="99"/>
-      <c r="GX14" s="99"/>
-      <c r="GY14" s="99"/>
-      <c r="GZ14" s="99"/>
-      <c r="HA14" s="100"/>
-      <c r="HB14" s="98"/>
-      <c r="HC14" s="99"/>
-      <c r="HD14" s="99"/>
-      <c r="HE14" s="99"/>
-      <c r="HF14" s="99"/>
-      <c r="HG14" s="99"/>
-      <c r="HH14" s="99"/>
-      <c r="HI14" s="100"/>
+        <v>231</v>
+      </c>
+      <c r="GT14" s="90"/>
+      <c r="GU14" s="91"/>
+      <c r="GV14" s="91"/>
+      <c r="GW14" s="91"/>
+      <c r="GX14" s="91"/>
+      <c r="GY14" s="91"/>
+      <c r="GZ14" s="91"/>
+      <c r="HA14" s="92"/>
+      <c r="HB14" s="90"/>
+      <c r="HC14" s="91"/>
+      <c r="HD14" s="91"/>
+      <c r="HE14" s="91"/>
+      <c r="HF14" s="91"/>
+      <c r="HG14" s="91"/>
+      <c r="HH14" s="91"/>
+      <c r="HI14" s="92"/>
     </row>
     <row r="15" spans="1:217" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
@@ -6751,16 +6745,16 @@
       <c r="Z16" s="26"/>
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
-      <c r="CD16" s="128" t="s">
+      <c r="CD16" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="CE16" s="129"/>
-      <c r="CF16" s="129"/>
-      <c r="CG16" s="129"/>
-      <c r="CH16" s="129"/>
-      <c r="CI16" s="129"/>
-      <c r="CJ16" s="129"/>
-      <c r="CK16" s="129"/>
+      <c r="CE16" s="103"/>
+      <c r="CF16" s="103"/>
+      <c r="CG16" s="103"/>
+      <c r="CH16" s="103"/>
+      <c r="CI16" s="103"/>
+      <c r="CJ16" s="103"/>
+      <c r="CK16" s="103"/>
       <c r="DE16" t="s">
         <v>174</v>
       </c>
@@ -6795,14 +6789,14 @@
       <c r="Z17" s="26"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
-      <c r="CD17" s="129"/>
-      <c r="CE17" s="129"/>
-      <c r="CF17" s="129"/>
-      <c r="CG17" s="129"/>
-      <c r="CH17" s="129"/>
-      <c r="CI17" s="129"/>
-      <c r="CJ17" s="129"/>
-      <c r="CK17" s="129"/>
+      <c r="CD17" s="103"/>
+      <c r="CE17" s="103"/>
+      <c r="CF17" s="103"/>
+      <c r="CG17" s="103"/>
+      <c r="CH17" s="103"/>
+      <c r="CI17" s="103"/>
+      <c r="CJ17" s="103"/>
+      <c r="CK17" s="103"/>
       <c r="DE17" t="s">
         <v>154</v>
       </c>
@@ -6840,14 +6834,14 @@
       <c r="Z18" s="26"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="CD18" s="129"/>
-      <c r="CE18" s="129"/>
-      <c r="CF18" s="129"/>
-      <c r="CG18" s="129"/>
-      <c r="CH18" s="129"/>
-      <c r="CI18" s="129"/>
-      <c r="CJ18" s="129"/>
-      <c r="CK18" s="129"/>
+      <c r="CD18" s="103"/>
+      <c r="CE18" s="103"/>
+      <c r="CF18" s="103"/>
+      <c r="CG18" s="103"/>
+      <c r="CH18" s="103"/>
+      <c r="CI18" s="103"/>
+      <c r="CJ18" s="103"/>
+      <c r="CK18" s="103"/>
       <c r="CL18" s="27" t="s">
         <v>146</v>
       </c>
@@ -6885,14 +6879,14 @@
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="CD19" s="129"/>
-      <c r="CE19" s="129"/>
-      <c r="CF19" s="129"/>
-      <c r="CG19" s="129"/>
-      <c r="CH19" s="129"/>
-      <c r="CI19" s="129"/>
-      <c r="CJ19" s="129"/>
-      <c r="CK19" s="129"/>
+      <c r="CD19" s="103"/>
+      <c r="CE19" s="103"/>
+      <c r="CF19" s="103"/>
+      <c r="CG19" s="103"/>
+      <c r="CH19" s="103"/>
+      <c r="CI19" s="103"/>
+      <c r="CJ19" s="103"/>
+      <c r="CK19" s="103"/>
       <c r="CM19" t="s">
         <v>153</v>
       </c>
@@ -6925,14 +6919,14 @@
       <c r="Z20" s="26"/>
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
-      <c r="CD20" s="129"/>
-      <c r="CE20" s="129"/>
-      <c r="CF20" s="129"/>
-      <c r="CG20" s="129"/>
-      <c r="CH20" s="129"/>
-      <c r="CI20" s="129"/>
-      <c r="CJ20" s="129"/>
-      <c r="CK20" s="129"/>
+      <c r="CD20" s="103"/>
+      <c r="CE20" s="103"/>
+      <c r="CF20" s="103"/>
+      <c r="CG20" s="103"/>
+      <c r="CH20" s="103"/>
+      <c r="CI20" s="103"/>
+      <c r="CJ20" s="103"/>
+      <c r="CK20" s="103"/>
       <c r="DI20" t="s">
         <v>168</v>
       </c>
@@ -6968,14 +6962,14 @@
       <c r="Z21" s="26"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="CD21" s="129"/>
-      <c r="CE21" s="129"/>
-      <c r="CF21" s="129"/>
-      <c r="CG21" s="129"/>
-      <c r="CH21" s="129"/>
-      <c r="CI21" s="129"/>
-      <c r="CJ21" s="129"/>
-      <c r="CK21" s="129"/>
+      <c r="CD21" s="103"/>
+      <c r="CE21" s="103"/>
+      <c r="CF21" s="103"/>
+      <c r="CG21" s="103"/>
+      <c r="CH21" s="103"/>
+      <c r="CI21" s="103"/>
+      <c r="CJ21" s="103"/>
+      <c r="CK21" s="103"/>
       <c r="CL21" t="s">
         <v>156</v>
       </c>
@@ -7026,14 +7020,14 @@
       <c r="Z22" s="26"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="CD22" s="129"/>
-      <c r="CE22" s="129"/>
-      <c r="CF22" s="129"/>
-      <c r="CG22" s="129"/>
-      <c r="CH22" s="129"/>
-      <c r="CI22" s="129"/>
-      <c r="CJ22" s="129"/>
-      <c r="CK22" s="129"/>
+      <c r="CD22" s="103"/>
+      <c r="CE22" s="103"/>
+      <c r="CF22" s="103"/>
+      <c r="CG22" s="103"/>
+      <c r="CH22" s="103"/>
+      <c r="CI22" s="103"/>
+      <c r="CJ22" s="103"/>
+      <c r="CK22" s="103"/>
       <c r="DR22" t="s">
         <v>152</v>
       </c>
@@ -7071,14 +7065,14 @@
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
-      <c r="CD23" s="129"/>
-      <c r="CE23" s="129"/>
-      <c r="CF23" s="129"/>
-      <c r="CG23" s="129"/>
-      <c r="CH23" s="129"/>
-      <c r="CI23" s="129"/>
-      <c r="CJ23" s="129"/>
-      <c r="CK23" s="129"/>
+      <c r="CD23" s="103"/>
+      <c r="CE23" s="103"/>
+      <c r="CF23" s="103"/>
+      <c r="CG23" s="103"/>
+      <c r="CH23" s="103"/>
+      <c r="CI23" s="103"/>
+      <c r="CJ23" s="103"/>
+      <c r="CK23" s="103"/>
       <c r="DE23" t="s">
         <v>163</v>
       </c>
@@ -7099,14 +7093,14 @@
         <f t="shared" si="41"/>
         <v>5974</v>
       </c>
-      <c r="CD24" s="129"/>
-      <c r="CE24" s="129"/>
-      <c r="CF24" s="129"/>
-      <c r="CG24" s="129"/>
-      <c r="CH24" s="129"/>
-      <c r="CI24" s="129"/>
-      <c r="CJ24" s="129"/>
-      <c r="CK24" s="129"/>
+      <c r="CD24" s="103"/>
+      <c r="CE24" s="103"/>
+      <c r="CF24" s="103"/>
+      <c r="CG24" s="103"/>
+      <c r="CH24" s="103"/>
+      <c r="CI24" s="103"/>
+      <c r="CJ24" s="103"/>
+      <c r="CK24" s="103"/>
       <c r="DG24" t="s">
         <v>164</v>
       </c>
@@ -7127,14 +7121,14 @@
         <f t="shared" si="41"/>
         <v>5975</v>
       </c>
-      <c r="CD25" s="129"/>
-      <c r="CE25" s="129"/>
-      <c r="CF25" s="129"/>
-      <c r="CG25" s="129"/>
-      <c r="CH25" s="129"/>
-      <c r="CI25" s="129"/>
-      <c r="CJ25" s="129"/>
-      <c r="CK25" s="129"/>
+      <c r="CD25" s="103"/>
+      <c r="CE25" s="103"/>
+      <c r="CF25" s="103"/>
+      <c r="CG25" s="103"/>
+      <c r="CH25" s="103"/>
+      <c r="CI25" s="103"/>
+      <c r="CJ25" s="103"/>
+      <c r="CK25" s="103"/>
       <c r="DG25" t="s">
         <v>167</v>
       </c>
@@ -7155,14 +7149,14 @@
         <f t="shared" si="41"/>
         <v>5976</v>
       </c>
-      <c r="CD26" s="129"/>
-      <c r="CE26" s="129"/>
-      <c r="CF26" s="129"/>
-      <c r="CG26" s="129"/>
-      <c r="CH26" s="129"/>
-      <c r="CI26" s="129"/>
-      <c r="CJ26" s="129"/>
-      <c r="CK26" s="129"/>
+      <c r="CD26" s="103"/>
+      <c r="CE26" s="103"/>
+      <c r="CF26" s="103"/>
+      <c r="CG26" s="103"/>
+      <c r="CH26" s="103"/>
+      <c r="CI26" s="103"/>
+      <c r="CJ26" s="103"/>
+      <c r="CK26" s="103"/>
       <c r="DG26" t="s">
         <v>165</v>
       </c>
@@ -7180,14 +7174,14 @@
         <f t="shared" si="41"/>
         <v>5977</v>
       </c>
-      <c r="CD27" s="129"/>
-      <c r="CE27" s="129"/>
-      <c r="CF27" s="129"/>
-      <c r="CG27" s="129"/>
-      <c r="CH27" s="129"/>
-      <c r="CI27" s="129"/>
-      <c r="CJ27" s="129"/>
-      <c r="CK27" s="129"/>
+      <c r="CD27" s="103"/>
+      <c r="CE27" s="103"/>
+      <c r="CF27" s="103"/>
+      <c r="CG27" s="103"/>
+      <c r="CH27" s="103"/>
+      <c r="CI27" s="103"/>
+      <c r="CJ27" s="103"/>
+      <c r="CK27" s="103"/>
       <c r="DG27" t="s">
         <v>166</v>
       </c>
@@ -7205,14 +7199,14 @@
         <f t="shared" si="41"/>
         <v>5978</v>
       </c>
-      <c r="CD28" s="129"/>
-      <c r="CE28" s="129"/>
-      <c r="CF28" s="129"/>
-      <c r="CG28" s="129"/>
-      <c r="CH28" s="129"/>
-      <c r="CI28" s="129"/>
-      <c r="CJ28" s="129"/>
-      <c r="CK28" s="129"/>
+      <c r="CD28" s="103"/>
+      <c r="CE28" s="103"/>
+      <c r="CF28" s="103"/>
+      <c r="CG28" s="103"/>
+      <c r="CH28" s="103"/>
+      <c r="CI28" s="103"/>
+      <c r="CJ28" s="103"/>
+      <c r="CK28" s="103"/>
       <c r="EX28" t="s">
         <v>161</v>
       </c>
@@ -7230,14 +7224,14 @@
         <f t="shared" si="41"/>
         <v>5979</v>
       </c>
-      <c r="CD29" s="129"/>
-      <c r="CE29" s="129"/>
-      <c r="CF29" s="129"/>
-      <c r="CG29" s="129"/>
-      <c r="CH29" s="129"/>
-      <c r="CI29" s="129"/>
-      <c r="CJ29" s="129"/>
-      <c r="CK29" s="129"/>
+      <c r="CD29" s="103"/>
+      <c r="CE29" s="103"/>
+      <c r="CF29" s="103"/>
+      <c r="CG29" s="103"/>
+      <c r="CH29" s="103"/>
+      <c r="CI29" s="103"/>
+      <c r="CJ29" s="103"/>
+      <c r="CK29" s="103"/>
     </row>
     <row r="30" spans="1:204" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
@@ -7595,28 +7589,131 @@
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="B9:H11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="DB13:DQ14"/>
-    <mergeCell ref="DB9:DC12"/>
-    <mergeCell ref="DG9:DG12"/>
-    <mergeCell ref="DJ9:DM12"/>
-    <mergeCell ref="DN9:DQ12"/>
-    <mergeCell ref="DD9:DD12"/>
-    <mergeCell ref="DE9:DE12"/>
-    <mergeCell ref="R9:T14"/>
-    <mergeCell ref="U9:W14"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AA9:AG14"/>
-    <mergeCell ref="BV9:CC14"/>
-    <mergeCell ref="AX9:BG14"/>
-    <mergeCell ref="BH9:BM14"/>
-    <mergeCell ref="AR9:AW14"/>
-    <mergeCell ref="AH9:AQ14"/>
-    <mergeCell ref="BN9:BU14"/>
-    <mergeCell ref="CE9:CG9"/>
-    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="GL7:GN7"/>
+    <mergeCell ref="DR8:EG8"/>
+    <mergeCell ref="GL4:GS4"/>
+    <mergeCell ref="GH7:GK7"/>
+    <mergeCell ref="GL3:GS3"/>
+    <mergeCell ref="GT3:HA3"/>
+    <mergeCell ref="GT4:HA4"/>
+    <mergeCell ref="GV7:HA7"/>
+    <mergeCell ref="GH9:GK14"/>
+    <mergeCell ref="GX8:GY8"/>
+    <mergeCell ref="HB7:HI7"/>
+    <mergeCell ref="I9:Q14"/>
+    <mergeCell ref="CD7:CK7"/>
+    <mergeCell ref="AH7:AQ7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CL7:CO7"/>
+    <mergeCell ref="DN7:DQ7"/>
+    <mergeCell ref="DB7:DC7"/>
+    <mergeCell ref="EP9:EW14"/>
+    <mergeCell ref="FV9:GA14"/>
+    <mergeCell ref="GB9:GG14"/>
+    <mergeCell ref="CL8:DA8"/>
+    <mergeCell ref="DB8:DQ8"/>
+    <mergeCell ref="DV7:EA7"/>
+    <mergeCell ref="EB7:EG7"/>
+    <mergeCell ref="EH7:EO7"/>
+    <mergeCell ref="DR11:EG11"/>
+    <mergeCell ref="GO7:GS7"/>
+    <mergeCell ref="FK13:FM13"/>
+    <mergeCell ref="EY11:FE11"/>
+    <mergeCell ref="EX12:EX14"/>
+    <mergeCell ref="GM9:GM10"/>
+    <mergeCell ref="GN9:GN10"/>
+    <mergeCell ref="HB3:HI3"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="BH7:BM7"/>
+    <mergeCell ref="AX7:BG7"/>
+    <mergeCell ref="BN7:BU7"/>
+    <mergeCell ref="HB4:HI4"/>
+    <mergeCell ref="AH4:AW4"/>
+    <mergeCell ref="AX4:BM4"/>
+    <mergeCell ref="DR4:EG4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EX4:FE4"/>
+    <mergeCell ref="FF4:FM4"/>
+    <mergeCell ref="FN4:FU4"/>
+    <mergeCell ref="EH4:EO4"/>
+    <mergeCell ref="BN4:BU4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CD4:CK4"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="EY7:FE7"/>
+    <mergeCell ref="CL4:DA4"/>
+    <mergeCell ref="DB4:DQ4"/>
+    <mergeCell ref="EP7:EW7"/>
+    <mergeCell ref="AX3:BE3"/>
+    <mergeCell ref="BF3:BM3"/>
+    <mergeCell ref="GL2:GS2"/>
+    <mergeCell ref="GT2:HA2"/>
+    <mergeCell ref="HB2:HI2"/>
+    <mergeCell ref="B1:BM1"/>
+    <mergeCell ref="FF2:FM2"/>
+    <mergeCell ref="FN2:FU2"/>
+    <mergeCell ref="FV2:GC2"/>
+    <mergeCell ref="FF3:FM3"/>
+    <mergeCell ref="FN3:FU3"/>
+    <mergeCell ref="FV3:GC3"/>
+    <mergeCell ref="BN1:HI1"/>
+    <mergeCell ref="DJ3:DQ3"/>
+    <mergeCell ref="DR3:DY3"/>
+    <mergeCell ref="DZ3:EG3"/>
+    <mergeCell ref="EH3:EO3"/>
+    <mergeCell ref="EP3:EW3"/>
+    <mergeCell ref="EX3:FE3"/>
+    <mergeCell ref="BN3:BU3"/>
+    <mergeCell ref="BV3:CC3"/>
+    <mergeCell ref="DB3:DI3"/>
+    <mergeCell ref="EP2:EW2"/>
+    <mergeCell ref="EX2:FE2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="GD3:GK3"/>
+    <mergeCell ref="CT2:DA2"/>
+    <mergeCell ref="DB2:DI2"/>
+    <mergeCell ref="CD3:CK3"/>
+    <mergeCell ref="CL3:CS3"/>
+    <mergeCell ref="CT3:DA3"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="GD2:GK2"/>
+    <mergeCell ref="CX7:DA7"/>
+    <mergeCell ref="DJ2:DQ2"/>
+    <mergeCell ref="DR2:DY2"/>
+    <mergeCell ref="DZ2:EG2"/>
+    <mergeCell ref="EH2:EO2"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="BF2:BM2"/>
+    <mergeCell ref="BN2:BU2"/>
+    <mergeCell ref="BV2:CC2"/>
+    <mergeCell ref="CD2:CK2"/>
+    <mergeCell ref="CL2:CS2"/>
+    <mergeCell ref="DR7:DU7"/>
+    <mergeCell ref="FK7:FM7"/>
+    <mergeCell ref="GB7:GG7"/>
+    <mergeCell ref="FV7:GA7"/>
+    <mergeCell ref="FP7:FU7"/>
+    <mergeCell ref="FV4:GK4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="R4:AG4"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="R3:Y3"/>
+    <mergeCell ref="Z3:AG3"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="AP3:AW3"/>
     <mergeCell ref="CD16:CK29"/>
     <mergeCell ref="GT9:HA14"/>
     <mergeCell ref="EH11:EO13"/>
@@ -7641,131 +7738,28 @@
     <mergeCell ref="FK10:FM10"/>
     <mergeCell ref="FK14:FM14"/>
     <mergeCell ref="CL9:DA14"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AP2:AW2"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="R4:AG4"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="R3:Y3"/>
-    <mergeCell ref="Z3:AG3"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="CT2:DA2"/>
-    <mergeCell ref="DB2:DI2"/>
-    <mergeCell ref="CD3:CK3"/>
-    <mergeCell ref="CL3:CS3"/>
-    <mergeCell ref="CT3:DA3"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="GD2:GK2"/>
-    <mergeCell ref="CX7:DA7"/>
-    <mergeCell ref="DJ2:DQ2"/>
-    <mergeCell ref="DR2:DY2"/>
-    <mergeCell ref="DZ2:EG2"/>
-    <mergeCell ref="EH2:EO2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BF2:BM2"/>
-    <mergeCell ref="BN2:BU2"/>
-    <mergeCell ref="BV2:CC2"/>
-    <mergeCell ref="CD2:CK2"/>
-    <mergeCell ref="CL2:CS2"/>
-    <mergeCell ref="DR7:DU7"/>
-    <mergeCell ref="FK7:FM7"/>
-    <mergeCell ref="GB7:GG7"/>
-    <mergeCell ref="FV7:GA7"/>
-    <mergeCell ref="FP7:FU7"/>
-    <mergeCell ref="FV4:GK4"/>
-    <mergeCell ref="GL2:GS2"/>
-    <mergeCell ref="GT2:HA2"/>
-    <mergeCell ref="HB2:HI2"/>
-    <mergeCell ref="B1:BM1"/>
-    <mergeCell ref="FF2:FM2"/>
-    <mergeCell ref="FN2:FU2"/>
-    <mergeCell ref="FV2:GC2"/>
-    <mergeCell ref="FF3:FM3"/>
-    <mergeCell ref="FN3:FU3"/>
-    <mergeCell ref="FV3:GC3"/>
-    <mergeCell ref="BN1:HI1"/>
-    <mergeCell ref="DJ3:DQ3"/>
-    <mergeCell ref="DR3:DY3"/>
-    <mergeCell ref="DZ3:EG3"/>
-    <mergeCell ref="EH3:EO3"/>
-    <mergeCell ref="EP3:EW3"/>
-    <mergeCell ref="EX3:FE3"/>
-    <mergeCell ref="BN3:BU3"/>
-    <mergeCell ref="BV3:CC3"/>
-    <mergeCell ref="DB3:DI3"/>
-    <mergeCell ref="EP2:EW2"/>
-    <mergeCell ref="EX2:FE2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="GD3:GK3"/>
-    <mergeCell ref="HB3:HI3"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="BH7:BM7"/>
-    <mergeCell ref="AX7:BG7"/>
-    <mergeCell ref="BN7:BU7"/>
-    <mergeCell ref="HB4:HI4"/>
-    <mergeCell ref="AH4:AW4"/>
-    <mergeCell ref="AX4:BM4"/>
-    <mergeCell ref="DR4:EG4"/>
-    <mergeCell ref="EP4:EW4"/>
-    <mergeCell ref="EX4:FE4"/>
-    <mergeCell ref="FF4:FM4"/>
-    <mergeCell ref="FN4:FU4"/>
-    <mergeCell ref="EH4:EO4"/>
-    <mergeCell ref="BN4:BU4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CD4:CK4"/>
-    <mergeCell ref="BV7:CC7"/>
-    <mergeCell ref="EY7:FE7"/>
-    <mergeCell ref="CL4:DA4"/>
-    <mergeCell ref="DB4:DQ4"/>
-    <mergeCell ref="EP7:EW7"/>
-    <mergeCell ref="AX3:BE3"/>
-    <mergeCell ref="BF3:BM3"/>
-    <mergeCell ref="HB7:HI7"/>
-    <mergeCell ref="I9:Q14"/>
-    <mergeCell ref="CD7:CK7"/>
-    <mergeCell ref="AH7:AQ7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CL7:CO7"/>
-    <mergeCell ref="DN7:DQ7"/>
-    <mergeCell ref="DB7:DC7"/>
-    <mergeCell ref="EP9:EW14"/>
-    <mergeCell ref="FV9:GA14"/>
-    <mergeCell ref="GB9:GG14"/>
-    <mergeCell ref="CL8:DA8"/>
-    <mergeCell ref="DB8:DQ8"/>
-    <mergeCell ref="DV7:EA7"/>
-    <mergeCell ref="EB7:EG7"/>
-    <mergeCell ref="EH7:EO7"/>
-    <mergeCell ref="DR11:EG11"/>
-    <mergeCell ref="GO7:GS7"/>
-    <mergeCell ref="FK13:FM13"/>
-    <mergeCell ref="EY11:FE11"/>
-    <mergeCell ref="EX12:EX14"/>
-    <mergeCell ref="GM9:GM10"/>
-    <mergeCell ref="GN9:GN10"/>
-    <mergeCell ref="GL7:GN7"/>
-    <mergeCell ref="DR8:EG8"/>
-    <mergeCell ref="GL4:GS4"/>
-    <mergeCell ref="GH7:GK7"/>
-    <mergeCell ref="GL3:GS3"/>
-    <mergeCell ref="GT3:HA3"/>
-    <mergeCell ref="GT4:HA4"/>
-    <mergeCell ref="GV7:HA7"/>
-    <mergeCell ref="GH9:GK14"/>
-    <mergeCell ref="GX8:GY8"/>
+    <mergeCell ref="B9:H11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="DB13:DQ14"/>
+    <mergeCell ref="DB9:DC12"/>
+    <mergeCell ref="DG9:DG12"/>
+    <mergeCell ref="DJ9:DM12"/>
+    <mergeCell ref="DN9:DQ12"/>
+    <mergeCell ref="DD9:DD12"/>
+    <mergeCell ref="DE9:DE12"/>
+    <mergeCell ref="R9:T14"/>
+    <mergeCell ref="U9:W14"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AA9:AG14"/>
+    <mergeCell ref="BV9:CC14"/>
+    <mergeCell ref="AX9:BG14"/>
+    <mergeCell ref="BH9:BM14"/>
+    <mergeCell ref="AR9:AW14"/>
+    <mergeCell ref="AH9:AQ14"/>
+    <mergeCell ref="BN9:BU14"/>
+    <mergeCell ref="CE9:CG9"/>
+    <mergeCell ref="CH9:CK9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7789,42 +7783,42 @@
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="160">
+      <c r="B1" s="163">
         <v>0</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="160">
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="163">
         <v>2</v>
       </c>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="162"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="165"/>
     </row>
     <row r="2" spans="1:33" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
@@ -8062,46 +8056,46 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
-      <c r="B4" s="167">
+      <c r="B4" s="170">
         <v>1</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167">
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170">
         <v>0</v>
       </c>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167">
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170">
         <v>3</v>
       </c>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="167">
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="170">
         <v>2</v>
       </c>
-      <c r="AA4" s="167"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="167"/>
-      <c r="AF4" s="167"/>
-      <c r="AG4" s="167"/>
+      <c r="AA4" s="170"/>
+      <c r="AB4" s="170"/>
+      <c r="AC4" s="170"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="170"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
@@ -8238,50 +8232,50 @@
       <c r="C6" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="117" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="39" t="s">
         <v>177</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="J6" s="163" t="s">
+      <c r="J6" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="163" t="s">
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="163" t="s">
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="166" t="s">
         <v>182</v>
       </c>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="165"/>
-      <c r="AB6" s="163" t="s">
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="168"/>
+      <c r="AB6" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="AC6" s="164"/>
-      <c r="AD6" s="164"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="164"/>
-      <c r="AG6" s="165"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="167"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="168"/>
     </row>
     <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
@@ -8293,55 +8287,55 @@
       <c r="C7" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="169" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
       <c r="H7" s="30" t="s">
         <v>189</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="J7" s="166" t="s">
+      <c r="J7" s="169" t="s">
         <v>184</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166" t="s">
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="166"/>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166" t="s">
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
-      <c r="U7" s="166"/>
-      <c r="V7" s="166"/>
-      <c r="W7" s="166"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="166"/>
-      <c r="Z7" s="166"/>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="166" t="s">
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="169"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="AC7" s="166"/>
-      <c r="AD7" s="166"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="166"/>
-      <c r="AG7" s="166"/>
+      <c r="AC7" s="169"/>
+      <c r="AD7" s="169"/>
+      <c r="AE7" s="169"/>
+      <c r="AF7" s="169"/>
+      <c r="AG7" s="169"/>
     </row>
     <row r="8" spans="1:33" ht="114" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="I8" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/File Research/Game Object Research File.xlsx
+++ b/File Research/Game Object Research File.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363777E7-2078-4CFD-B5C7-EBDD71405FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF20524-FD2D-47E0-B31E-AC339AB37337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
+    <workbookView xWindow="8325" yWindow="563" windowWidth="12195" windowHeight="12667" xr2:uid="{349C9796-1BFF-4A71-A28F-BEE29BD20DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Object" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="260">
   <si>
     <t>Static Object</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>if set ignore code been ran on similar npcs. Probably an isSpecial Flag for NPCs?</t>
+  </si>
+  <si>
+    <t>Looked at when object hits the ground</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1477,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1509,7 +1512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1524,12 +1526,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1576,6 +1572,259 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" apply